--- a/sample_import_file/Node.xlsx
+++ b/sample_import_file/Node.xlsx
@@ -32,8 +32,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="yyyy/mm/dd"/>
   </numFmts>
   <fonts count="1">
     <font>
@@ -64,8 +66,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -397,1174 +400,1348 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F58"/>
+  <dimension ref="A1:G58"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
-      <c r="A1" t="str">
+      <c r="A1" s="1" t="str">
         <v>Node</v>
       </c>
-      <c r="B1" t="str">
+      <c r="B1" s="1" t="str">
         <v>論文ID</v>
       </c>
-      <c r="C1" t="str">
+      <c r="C1" s="1" t="str">
         <v>論文タイトル</v>
       </c>
-      <c r="D1" t="str">
+      <c r="D1" s="1" t="str">
         <v>所属1</v>
       </c>
-      <c r="E1" t="str">
+      <c r="E1" s="1" t="str">
         <v>所属2</v>
       </c>
-      <c r="F1" t="str">
+      <c r="F1" s="1" t="str">
+        <v>発行日</v>
+      </c>
+      <c r="G1" s="1" t="str">
         <v>NodeWeight</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="str">
+      <c r="A2" s="1" t="str">
         <v>3 量子・スピン・トポロジカル・先端物性現象の実証・制御・応用</v>
       </c>
-      <c r="B2" t="str">
+      <c r="B2" s="1" t="str">
         <v>https://doi.org/10.1038/s41565-020-0669-6| https://doi.org/10.1038/s41565-020-0655-z| https://doi.org/10.1038/s41565-021-00898-0| https://doi.org/10.1038/s41565-020-0707-4| https://doi.org/10.1038/s41565-021-00905-4| https://doi.org/10.1038/s41565-020-0724-3| https://doi.org/10.1038/s41565-020-0714-5| https://doi.org/10.1038/s41565-020-00800-4| https://doi.org/10.1038/s41565-020-0737-y| https://doi.org/10.1038/s41565-021-01045-5| https://doi.org/10.1038/s41565-021-00936-x| https://doi.org/10.1038/s41565-020-0732-3| https://doi.org/10.1038/s41565-021-00903-6| https://doi.org/10.1038/s41565-021-00976-3| https://doi.org/10.1038/s41565-022-01170-9| https://doi.org/10.1038/s41565-020-0699-0| https://doi.org/10.1038/s41565-021-00854-y| https://doi.org/10.1038/s41565-021-01062-4| https://doi.org/10.1038/s41565-022-01102-7| https://doi.org/10.1038/s41565-019-0623-7| https://doi.org/10.1038/s41565-020-0696-3| https://doi.org/10.1038/s41565-020-0773-7| https://doi.org/10.1038/s41565-022-01162-9| https://doi.org/10.1038/s41565-023-01422-2| https://doi.org/10.1038/s41565-022-01214-0| https://doi.org/10.1038/s41565-023-01361-y| https://doi.org/10.1038/s41565-021-01019-7| https://doi.org/10.1038/s41565-021-00873-9| https://doi.org/10.1038/s41565-021-00972-7| https://doi.org/10.1038/s41565-022-01091-7| https://doi.org/10.1038/s41565-021-00874-8| https://doi.org/10.1038/s41565-023-01343-0| https://doi.org/10.1038/s41565-023-01441-z| https://doi.org/10.1038/s41565-023-01344-z| https://doi.org/10.1038/s41565-022-01180-7| https://doi.org/10.1038/s41565-023-01482-4| https://doi.org/10.1038/s41565-023-01429-9| https://doi.org/10.1038/s41565-022-01106-3| https://doi.org/10.1038/s41565-022-01160-x| https://doi.org/10.1038/s41565-023-01462-8| https://doi.org/10.1038/s41565-022-01105-4| https://doi.org/10.1038/s41565-023-01367-6| https://doi.org/10.1038/s41565-024-01754-7| https://doi.org/10.1038/s41565-023-01333-2| https://doi.org/10.1038/s41565-023-01570-5| https://doi.org/10.1038/s41565-023-01456-6| https://doi.org/10.1038/s41565-023-01572-3| https://doi.org/10.1038/s41565-024-01774-3| https://doi.org/10.1038/s41565-024-01793-0| https://doi.org/10.1038/s41565-024-01691-5| https://doi.org/10.1038/s41565-024-01758-3| https://doi.org/10.1038/s41565-025-01858-8| https://doi.org/10.1038/s41565-024-01851-7| https://doi.org/10.1038/s41565-024-01852-6| https://doi.org/10.1038/s41565-025-01860-0| https://doi.org/10.1038/s41565-020-00777-0| https://doi.org/10.1038/s41565-020-0770-x| https://doi.org/10.1038/s41565-020-0761-y| https://doi.org/10.1038/s41565-020-0678-5| https://doi.org/10.1038/s41565-021-00887-3| https://doi.org/10.1038/s41565-020-0644-2| https://doi.org/10.1038/s41565-020-00817-9| https://doi.org/10.1038/s41565-021-00916-1| https://doi.org/10.1038/s41565-020-00798-9| https://doi.org/10.1038/s41565-021-00967-4| https://doi.org/10.1038/s41565-020-0653-1| https://doi.org/10.1038/s41565-020-0716-3| https://doi.org/10.1038/s41565-019-0620-x| https://doi.org/10.1038/s41565-021-00952-x| https://doi.org/10.1038/s41565-021-00872-w| https://doi.org/10.1038/s41565-020-0690-9| https://doi.org/10.1038/s41565-021-00942-z| https://doi.org/10.1038/s41565-021-01031-x| https://doi.org/10.1038/s41565-021-00940-1| https://doi.org/10.1038/s41565-020-0747-9| https://doi.org/10.1038/s41565-020-0771-9| https://doi.org/10.1038/s41565-021-00941-0| https://doi.org/10.1038/s41565-021-01001-3| https://doi.org/10.1038/s41565-022-01267-1| https://doi.org/10.1038/s41565-020-0654-0| https://doi.org/10.1038/s41565-022-01186-1| https://doi.org/10.1038/s41565-022-01264-4| https://doi.org/10.1038/s41565-022-01144-x| https://doi.org/10.1038/s41565-022-01073-9| https://doi.org/10.1038/s41565-021-00883-7| https://doi.org/10.1038/s41565-021-00908-1| https://doi.org/10.1038/s41565-021-00884-6| https://doi.org/10.1038/s41565-022-01204-2| https://doi.org/10.1038/s41565-022-01198-x| https://doi.org/10.1038/s41565-022-01086-4| https://doi.org/10.1038/s41565-022-01173-6| https://doi.org/10.1038/s41565-022-01213-1| https://doi.org/10.1038/s41565-022-01111-6| https://doi.org/10.1038/s41565-023-01337-y| https://doi.org/10.1038/s41565-023-01418-y| https://doi.org/10.1038/s41565-023-01490-4| https://doi.org/10.1038/s41565-023-01335-0| https://doi.org/10.1038/s41565-023-01381-8| https://doi.org/10.1038/s41565-023-01431-1| https://doi.org/10.1038/s41565-023-01320-7| https://doi.org/10.1038/s41565-023-01515-y| https://doi.org/10.1038/s41565-023-01501-4| https://doi.org/10.1038/s41565-023-01393-4| https://doi.org/10.1038/s41565-023-01386-3| https://doi.org/10.1038/s41565-023-01371-w| https://doi.org/10.1038/s41565-023-01487-z| https://doi.org/10.1038/s41565-023-01421-3| https://doi.org/10.1038/s41565-023-01324-3| https://doi.org/10.1038/s41565-023-01380-9| https://doi.org/10.1038/s41565-023-01595-w| https://doi.org/10.1038/s41565-024-01767-2| https://doi.org/10.1038/s41565-024-01628-y| https://doi.org/10.1038/s41565-024-01609-1| https://doi.org/10.1038/s41565-024-01693-3| https://doi.org/10.1038/s41565-024-01783-2| https://doi.org/10.1038/s41565-024-01607-3| https://doi.org/10.1038/s41565-023-01598-7| https://doi.org/10.1038/s41565-024-01721-2| https://doi.org/10.1038/s41565-024-01764-5| https://doi.org/10.1038/s41565-024-01825-9| https://doi.org/10.1038/s41565-024-01843-7| https://doi.org/10.1038/s41565-024-01823-x| https://doi.org/10.1038/s41565-024-01853-5| https://doi.org/10.1038/s41565-025-01878-4| https://doi.org/10.1038/s41565-025-01932-1| https://doi.org/10.1038/s41565-019-0611-y| https://doi.org/10.1038/s41565-019-0629-1| https://doi.org/10.1038/s41565-020-0758-6| https://doi.org/10.1038/s41565-021-00973-6| https://doi.org/10.1038/s41565-022-01222-0| https://doi.org/10.1038/s41565-022-01248-4| https://doi.org/10.1038/s41565-022-01226-w| https://doi.org/10.1038/s41565-022-01080-w| https://doi.org/10.1038/s41565-022-01253-7| https://doi.org/10.1038/s41565-023-01350-1| https://doi.org/10.1038/s41565-023-01369-4| https://doi.org/10.1038/s41565-023-01370-x| https://doi.org/10.1038/s41565-023-01449-5| https://doi.org/10.1038/s41565-023-01495-z| https://doi.org/10.1038/s41565-023-01363-w| https://doi.org/10.1038/s41565-023-01584-z| https://doi.org/10.1038/s41565-024-01679-1| https://doi.org/10.1038/s41565-024-01685-3| https://doi.org/10.1038/s41565-024-01711-4| https://doi.org/10.1038/s41565-024-01775-2| https://doi.org/10.1038/s41565-023-01578-x| https://doi.org/10.1038/s41565-020-00794-z| https://doi.org/10.1038/s41565-020-00838-4| https://doi.org/10.1038/s41565-021-00899-z| https://doi.org/10.1038/s41565-021-01016-w| https://doi.org/10.1038/s41565-021-01066-0| https://doi.org/10.1038/s41565-022-01290-2| https://doi.org/10.1038/s41565-023-01387-2| https://doi.org/10.1038/s41565-023-01336-z| https://doi.org/10.1038/s41565-023-01542-9| https://doi.org/10.1038/s41565-024-01656-8| https://doi.org/10.1038/s41565-024-01677-3| https://doi.org/10.1038/s41565-024-01717-y| https://doi.org/10.1038/s41565-024-01746-7| https://doi.org/10.1038/s41565-024-01732-z| https://doi.org/10.1038/s41565-025-01863-x| https://doi.org/10.1038/s41565-025-01865-9| https://doi.org/10.1038/s41565-025-01885-5| https://doi.org/10.1038/s41565-025-01907-2| https://doi.org/10.1038/s41565-025-01934-z| https://doi.org/10.1038/s41565-025-01950-z| https://doi.org/10.1038/s41565-025-01964-7| https://doi.org/10.1038/s41565-020-00785-0| https://doi.org/10.1038/s41565-021-00981-6| https://doi.org/10.1038/s41565-022-01223-z| https://doi.org/10.1038/s41565-022-01291-1| https://doi.org/10.1038/s41565-023-01390-7| https://doi.org/10.1038/s41565-024-01786-z| https://doi.org/10.1038/s41565-024-01831-x| https://doi.org/10.1038/s41565-021-00957-6| https://doi.org/10.1038/s41565-023-01489-x| https://doi.org/10.1038/s41565-024-01644-y| https://doi.org/10.1038/s41565-020-0658-9| https://doi.org/10.1038/s41565-024-01791-2| https://doi.org/10.1038/s41565-024-01795-y| https://doi.org/10.1038/s41565-022-01090-8| https://doi.org/10.1038/s41565-020-00829-5| https://doi.org/10.1038/s41565-021-00896-2| https://doi.org/10.1038/s41565-022-01270-6| https://doi.org/10.1038/s41565-023-01464-6| https://doi.org/10.1038/s41565-024-01631-3| https://doi.org/10.1038/s41565-021-00893-5| https://doi.org/10.1038/s41565-021-00902-7| https://doi.org/10.1038/s41565-025-01855-x| https://doi.org/10.1038/s41565-025-01880-w| https://doi.org/10.1038/s41565-025-01875-7| https://doi.org/10.1038/s41565-025-01898-0| https://doi.org/10.1038/s41565-025-01910-7| https://doi.org/10.1038/s41565-025-01922-3| https://doi.org/10.1038/s41565-025-01927-y| https://doi.org/10.1038/s41565-025-01935-y| https://doi.org/10.1038/s41565-025-01963-8| https://doi.org/10.1038/s41565-025-01960-x| https://doi.org/10.1038/s41565-025-01971-8| https://doi.org/10.1038/s41565-025-01978-1| https://doi.org/10.1038/s41565-025-01968-3| https://doi.org/10.1038/s41565-021-00889-1| https://doi.org/10.1038/s41565-024-01768-1| https://doi.org/10.1038/s41565-024-01811-1| https://doi.org/10.1038/s41565-021-00989-y| https://doi.org/10.1038/s41565-023-01480-6| https://doi.org/10.1038/s41565-020-0710-9| https://doi.org/10.1038/s41565-021-00909-0| https://doi.org/10.1038/s41565-022-01077-5| https://doi.org/10.1038/s41565-022-01140-1| https://doi.org/10.1038/s41565-021-00912-5| https://doi.org/10.1038/s41565-021-00935-y| https://doi.org/10.1038/s41565-023-01330-5| https://doi.org/10.1038/s41565-021-00992-3| https://doi.org/10.1038/s41565-024-01661-x| https://doi.org/10.1038/s41565-024-01701-6| https://doi.org/10.1038/s41565-024-01742-x| https://doi.org/10.1038/s41565-024-01778-z| https://doi.org/10.1038/s41565-022-01240-y| https://doi.org/10.1038/s41565-023-01358-7| https://doi.org/10.1038/s41565-023-01499-9| https://doi.org/10.1038/s41565-022-01150-z| https://doi.org/10.1038/s41565-022-01172-7| https://doi.org/10.1038/s41565-021-00865-9| https://doi.org/10.1038/s41565-021-01025-9| https://doi.org/10.1038/s41565-022-01109-0| https://doi.org/10.1038/s41565-022-01294-y| https://doi.org/10.1038/s41565-023-01426-y| https://doi.org/10.1038/s41565-023-01512-1| https://doi.org/10.1038/s41565-020-0698-1| https://doi.org/10.1038/s41565-024-01623-3| https://doi.org/10.1038/s41565-024-01646-w| https://doi.org/10.1038/s41565-024-01689-z| https://doi.org/10.1038/s41565-024-01712-3| https://doi.org/10.1038/s41565-024-01818-8| https://doi.org/10.1038/s41565-024-01840-w| https://doi.org/10.1038/s41565-024-01832-w| https://doi.org/10.1038/s41565-020-0638-0| https://doi.org/10.1038/s41565-020-0686-5| https://doi.org/10.1038/s41565-020-00774-3| https://doi.org/10.1038/s41565-021-01028-6| https://doi.org/10.1038/s41565-022-01139-8| https://doi.org/10.1038/s41565-022-01233-x| https://doi.org/10.1038/s41565-022-01292-0| https://doi.org/10.1038/s41565-021-00863-x| https://doi.org/10.1038/s41565-021-01029-5| https://doi.org/10.1038/s41565-021-00890-8| https://doi.org/10.1038/s41565-023-01504-1| https://doi.org/10.1038/s41565-023-01511-2| https://doi.org/10.1038/s41565-023-01532-x| https://doi.org/10.1038/s41565-020-0736-z| https://doi.org/10.1038/s41565-020-00801-3| https://doi.org/10.1038/s41565-022-01093-5| https://doi.org/10.1038/s41565-022-01119-y| https://doi.org/10.1038/s41565-022-01117-0| https://doi.org/10.1038/s41565-022-01141-0| https://doi.org/10.1038/s41565-022-01275-1| https://doi.org/10.1038/s41565-021-00938-9| https://doi.org/10.1038/s41565-021-01055-3| https://doi.org/10.1038/s41565-020-0684-7| https://doi.org/10.1038/s41565-023-01399-y| https://doi.org/10.1038/s41565-020-0661-1| https://doi.org/10.1038/s41565-024-01617-1| https://doi.org/10.1038/s41565-021-00953-w</v>
       </c>
-      <c r="C2" t="str">
+      <c r="C2" s="1" t="str">
         <v>Selective organ targeting (SORT) nanoparticles for tissue-specific mRNA delivery and CRISPR–Cas gene editing| Memory devices and applications for in-memory computing| The current landscape of nucleic acid therapeutics| Differentially charged nanoplastics demonstrate distinct accumulation in Arabidopsis thaliana| Fluorinated interphase enables reversible aqueous zinc battery chemistries| Two-dimensional materials for next-generation computing technologies| Bipolar-shell resurfacing for blue LEDs based on strongly confined perovskite quantum dots| Scalable and hierarchically designed polymer film as a selective thermal emitter for high-performance all-day radiative cooling| COVID-19 vaccine development and a potential nanomaterial path forward| Advances and applications of nanophotonic biosensors| Van der Waals heterostructures for spintronics and opto-spintronics| Immune-mediated approaches against COVID-19| Bilayer of polyelectrolyte films for spontaneous power generation in air up to an integrated 1,000 V output| Photothermal nanofibres enable safe engineering of therapeutic cells| Graphene-nanopocket-encaged PtCo nanocatalysts for highly durable fuel cell operation under demanding ultralow-Pt-loading conditions| Cancer diagnosis with DNA molecular computation| Nanotechnology to advance CRISPR–Cas genetic engineering of plants| Industrial scale production of fibre batteries by a solution-extrusion method| Wafer-scale monolithic integration of full-colour micro-LED display using MoS2 transistor| Thickness-controlled black phosphorus tunnel field-effect transistor for low-power switches| Subretinally injected semiconducting polymer nanoparticles rescue vision in a rat model of retinal dystrophy| Dirac-vortex topological cavities| Improving Li-ion interfacial transport in hybrid solid electrolytes| Fluorescence-amplified nanocrystals in the second near-infrared window for in vivo real-time dynamic multiplexed imaging| Oxycarbide MXenes and MAX phases identification using monoatomic layer-by-layer analysis with ultralow-energy secondary-ion mass spectrometry| Wurtzite and fluorite ferroelectric materials for electronic memory| Nanoscale chemical heterogeneity dominates the optoelectronic response of alloyed perovskite solar cells| Highly anisotropic excitons and multiple phonon bound states in a van der Waals antiferromagnetic insulator| T lymphocyte membrane-decorated epigenetic nanoinducer of interferons for cancer immunotherapy| Reconfigurable training and reservoir computing in an artificial spin-vortex ice via spin-wave fingerprinting| Energy-efficient Mott activation neuron for full-hardware implementation of neural networks| An in-memory computing architecture based on a duplex two-dimensional material structure for in situ machine learning| Minimizing heat generation in quantum dot light-emitting diodes by increasing quasi-Fermi-level splitting| Designing single-site alloy catalysts using a degree-of-isolation descriptor| A tunable bilayer Hubbard model in twisted WSe2| Light management for perovskite light-emitting diodes| Efficient solvent- and hydrogen-free upcycling of high-density polyethylene into separable cyclic hydrocarbons| Endoepitaxial growth of monolayer mosaic heterostructures| Stretchable colour-sensitive quantum dot nanocomposites for shape-tunable multiplexed phototransistor arrays| Enzyme-less nanopore detection of post-translational modifications within long polypeptides| Performance descriptors of nanostructured metal catalysts for acetylene hydrochlorination| Operando characterization and regulation of metal dissolution and redeposition dynamics near battery electrode surface| A translational framework to DELIVER nanomedicines to the clinic| Membrane-anchored DNA nanojunctions enable closer antigen-presenting cell–T-cell contact in elevated T-cell receptor triggering| Nanoporous graphene-based thin-film microelectrodes for in vivo high-resolution neural recording and stimulation| Step engineering for nucleation and domain orientation control in WSe2 epitaxy on c-plane sapphire| First-in-human controlled inhalation of thin graphene oxide nanosheets to study acute cardiorespiratory responses| Harnessing extracellular vesicle heterogeneity for diagnostic and therapeutic applications| Mechanochemistry-mediated colloidal liquid metals for electronic device cooling at kilowatt levels| Electricity generated by upstream proton diffusion in two-dimensional nanochannels| Metal-ion-chelating phenylalanine nanostructures reverse immune dysfunction and sensitize breast tumour to immune checkpoint blockade| Spin–valley protected Kramers pair in bilayer graphene| Customizable virus-like particles deliver CRISPR–Cas9 ribonucleoprotein for effective ocular neovascular and Huntington’s disease gene therapy| Multivalent-effect immobilization of reduced-dimensional perovskites for efficient and spectrally stable deep-blue light-emitting diodes| A bioinspired polymeric membrane-enclosed insulin crystal achieves long-term, self-regulated drug release for type 1 diabetes therapy| Multifunctional nanocoated membranes for high-rate electrothermal desalination of hypersaline waters| Optical fibres with embedded two-dimensional materials for ultrahigh nonlinearity| Functional and morphological adaptation in DNA protocells via signal processing prompted by artificial metalloenzymes| Two-way magnetic resonance tuning and enhanced subtraction imaging for non-invasive and quantitative biological imaging| Electrical and thermal generation of spin currents by magnetic bilayer graphene| Filtering the photoluminescence spectra of atomically thin semiconductors with graphene| Considerations for designing preclinical cancer immune nanomedicine studies| Electrical tuning of optically active interlayer excitons in bilayer MoS2| Structural and dynamics analysis of intrinsically disordered proteins by high-speed atomic force microscopy| Non-local metasurfaces for spectrally decoupled wavefront manipulation and eye tracking| Charge disproportionate molecular redox for discrete memristive and memcapacitive switching| Melting of a skyrmion lattice to a skyrmion liquid via a hexatic phase| Single-molecule tautomerization tracking through space- and time-resolved fluorescence spectroscopy| Intrinsic bioactivity of black phosphorus nanomaterials on mitotic centrosome destabilization through suppression of PLK1 kinase| Extracellular vesicle drug occupancy enables real-time monitoring of targeted cancer therapy| Spontaneous and reversible hollowing of alloy anode nanocrystals for stable battery cycling| Heteroepitaxial van der Waals semiconductor superlattices| Unveiling the three-dimensional magnetic texture of skyrmion tubes| Voltage control of ferrimagnetic order and voltage-assisted writing of ferrimagnetic spin textures| Structured nanoscale metallic glass fibres with extreme aspect ratios| Surface-enhanced Raman scattering holography| Microscopic metavehicles powered and steered by embedded optical metasurfaces| The role and impact of polyethylene glycol on anaphylactic reactions to COVID-19 nano-vaccines| Transparent sunlight-activated antifogging metamaterials| Grouping all carbon nanotubes into a single substance category is scientifically unjustified| Magnetically tunable and stable deep-ultraviolet birefringent optics using two-dimensional hexagonal boron nitride| Real-space nanoimaging of hyperbolic shear polaritons in a monoclinic crystal| Current-driven dynamics and ratchet effect of skyrmion bubbles in a ferrimagnetic insulator| Nonlinear polariton parametric emission in an atomically thin semiconductor based microcavity| Floating solid-state thin films with dynamic structural colour| A reversible Zn-metal battery| Observation of superdiffusive phonon transport in aligned atomic chains| Spin-correlated exciton–polaritons in a van der Waals magnet| Carbon nanotube uptake in cyanobacteria for near-infrared imaging and enhanced bioelectricity generation in living photovoltaics| Laser-induced nanobubbles safely ablate vitreous opacities in vivo| Representing and describing nanomaterials in predictive nanoinformatics| Three-dimensional racetrack memory devices designed from freestanding magnetic heterostructures| Probing nanomotion of single bacteria with graphene drums| Beyond steric selectivity of ions using ångström-scale capillaries| Environmentally stable and stretchable polymer electronics enabled by surface-tethered nanostructured molecular-level protection| Self-regulated underwater phototaxis of a photoresponsive hydrogel-based phototactic vehicle| Anomalous thickness dependence of photoluminescence quantum yield in black phosphorous| Tailoring renal-clearable zwitterionic cyclodextrin for colorectal cancer-selective drug delivery| Next-generation protein-based materials capture and preserve projectiles from supersonic impacts| Far-field coupling between moiré photonic lattices| An integrated microwave-to-optics interface for scalable quantum computing| Oxyhaemoglobin saturation NIR-IIb imaging for assessing cancer metabolism and predicting the response to immunotherapy| An ancestral molecular response to nanomaterial particulates| Antiferromagnetic half-skyrmions electrically generated and controlled at room temperature| Active ingredient vs excipient debate for nanomedicines| Site-directed placement of three-dimensional DNA origami| Electron cooling in graphene enhanced by plasmon–hydron resonance| Hyperbolic whispering-gallery phonon polaritons in boron nitride nanotubes| Spin-dependent properties of optical modes guided by adiabatic trapping potentials in photonic Dirac metasurfaces| Local-orbital ptychography for ultrahigh-resolution imaging| Continuous spectral and coupling-strength encoding with dual-gradient metasurfaces| Van der Waals quaternary oxides for tunable low-loss anisotropic polaritonics| Mechanical stimulation and electrophysiological monitoring at subcellular resolution reveals differential mechanosensation of neurons within networks| Projected performance of Si- and 2D-material-based SRAM circuits ranging from 16 nm to 1 nm technology nodes| Non-discriminating engineered masking of immuno-evasive ligands on tumour-derived extracellular vesicles enhances tumour vaccination outcomes| My cell is better than yours| Full-length single-molecule protein fingerprinting| Single-molecule sensing inside stereo- and regio-defined hetero-nanopores| An orally administered glucose-responsive polymeric complex for high-efficiency and safe delivery of insulin in mice and pigs| AI–nano-driven surface-enhanced Raman spectroscopy for marketable technologies| Half-wave nanolasers and intracellular plasmonic lasing particles| ON–OFF nanopores for optical control of transmembrane ionic communication| Grover’s algorithm in a four-qubit silicon processor above the fault-tolerant threshold| Gold-modified nanoporous silicon for photoelectrochemical regulation of intracellular condensates| Analysis of multi-drug cancer nanomedicine| Metasurface-integrated vertical cavity surface-emitting lasers for programmable directional lasing emissions| Layer-resolved magnetic proximity effect in van der Waals heterostructures| Photonic Rashba effect from quantum emitters mediated by a Berry-phase defective photonic crystal| Energy-resolved plasmonic chemistry in individual nanoreactors| A tunable monolithic SQUID in twisted bilayer graphene| Quantum Hall phase in graphene engineered by interfacial charge coupling| Potential use of engineered nanoparticles in ocean fertilization for large-scale atmospheric carbon dioxide removal| Chemical-to-mechanical molecular computation using DNA-based motors with onboard logic| Bidirectional phonon emission in two-dimensional heterostructures triggered by ultrafast charge transfer| Every-other-layer dipolar excitons in a spin-valley locked superlattice| Time-resolved Coulomb collision of single electrons| Two electrons interacting at a mesoscopic beam splitter| Universal, label-free, single-molecule visualization of DNA origami nanodevices across biological samples using origamiFISH| Atomically precise vacancy-assembled quantum antidots| Carbon nanotube recognition by human Siglec-14 provokes inflammation| Controlled adsorption of multiple bioactive proteins enables targeted mast cell nanotherapy| Virus-like structures for combination antigen protein mRNA vaccination| Strong chiroptical nonlinearity in coherently stacked boron nitride nanotubes| Graphene oxide electrodes enable electrical stimulation of distinct calcium signalling in brain astrocytes| Construction of topological quantum magnets from atomic spins on surfaces| How nanoparticles are counted in global regulatory nanomaterial definitions| Long-lived modulation of plasmonic absorption by ballistic thermal injection| An atomic Boltzmann machine capable of self-adaption| Nanotechnology, equity and global health| All-optical fluorescence blinking control in quantum dots with ultrafast mid-infrared pulses| Random interstratification in hydrated graphene oxide membranes and implications for seawater desalination| Predicting accidental release of engineered nanomaterials to the environment| Floating solar hydrogen production| Chiral antiferromagnetic Josephson junctions as spin-triplet supercurrent spin valves and d.c. SQUIDs| Reversible optical data storage below the diffraction limit| Liposozyme for wound healing and inflammation resolution| Vacuum levitation and motion control on chip| Electrically tunable giant Nernst effect in two-dimensional van der Waals heterostructures| Coupled nanopores for single-molecule detection| Even-integer quantum Hall effect in an oxide caused by a hidden Rashba effect| Size-driven phase evolution in ultrathin relaxor films| Intermediate-range solvent templating and counterion behaviour at charged carbon nanotube surfaces| Investigating the effect of heterogeneities across the electrode|multiphase polymer electrolyte interfaces in high-potential lithium batteries| Ferumoxytol promotes haematopoietic stem cell post-injury regeneration as a reactive oxygen species scavenger| Electric bias-induced reversible configuration of single and heteronuclear dual-atom catalysts on 1Tʹ-MoS2| Ferroelastic writing of crystal directions in oxide thin films| Observation of chiral emission enabled by collective guided resonances| A DNA-nanoassembly-based approach to map membrane protein nanoenvironments| Nanomedicine hitchhikes on neutrophils to the inflamed lung| Quantum-noise-limited microwave amplification using a graphene Josephson junction| Achieving nanoscale precision using neuromorphic localization microscopy| Low-temperature MoS2 growth on CMOS wafers| Rapid precision targeting of nanoparticles to lung via caveolae pumping system in endothelium| Ultrahigh-gain colloidal quantum dot infrared avalanche photodetectors| Observation of giant and tunable thermal diffusivity of a Dirac fluid at room temperature| Electrical detection of the flat-band dispersion in van der Waals field-effect structures| Nanoparticles subdue antibiotic-resistant bacteria’s defences while enhancing innate immunity| The risks of nanomaterial risk assessment| Controlled single-electron transfer enables time-resolved excited-state spectroscopy of individual molecules| Viscous terahertz photoconductivity of hydrodynamic electrons in graphene| Publisher Correction: Scalable two-step annealing method for preparing ultra-high-density single-atom catalyst libraries| Author Correction: A high-energy and long-cycling lithium–sulfur pouch cell via a macroporous catalytic cathode with double-end binding sites| Gate-defined Josephson junctions in magic-angle twisted bilayer graphene| The potential impact of nanomedicine on COVID-19-induced thrombosis| A flexible feature for the long-reigning thermoelectric champion bismuth telluride| Artificial intelligence assists the synthesis of all-natural plastic substitutes| Designing cryo-enzymatic reactions in subzero liquid water by lipidic mesophase nanoconfinement| Achieving sustainable nanomaterial design though strategic cultivation of big data| Multivalent effect enables efficient and stable deep-blue perovskite LEDs| RNA origami nanotubes push the boundaries of confinement| When relaxor films go ultrathin| Li+(ionophore) nanoclusters engineered aqueous/non-aqueous biphasic electrolyte solutions for high-potential lithium-based batteries| A magnetically programmable mesoporous nanoreactor| Tumour-derived microparticles obtained through microwave irradiation induce immunogenic cell death in lung adenocarcinoma| Twisted light with a designed polar topology| Application-driven design of non-aqueous electrolyte solutions through quantification of interfacial reactions in lithium metal batteries| Nonlinear Nernst effect in trilayer graphene at zero magnetic field| States of shear wander| Strain-induced crumpling of graphene oxide lamellas to achieve fast and selective transport of H2 and CO2| Crumpled graphene oxide membranes enable rapid and selective hydrogen separation| Ultraclean monolayer amorphous carbon yields a high-precision proton beam| New guidance brings clarity to environmental hazard and behaviour testing of nanomaterials| DNA origami force probes illuminate T cell receptor forces at the immune synapse| Synthetic syntrophy for adenine nucleotide cross-feeding between metabolically active nanoreactors| Gas separation with porous graphene| Unfolding the path to nanopore protein sequencing| DNA computation improves diagnostic workflows| Nanotechnology for infectious diseases| Reply to: Detectivities of WS2/HfS2 heterojunctions| Author Correction: Robotic four-dimensional pixel assembly of van der Waals solids| Bridging international approaches on nanoEHS| Making nano data FAIR enough| Oligomer nanoparticle release from a biodegradable plastic triggers acute gut inflammation| Skyrmion birth at the notch| Strain-resilient porous conductors with fewer nanofillers from in situ phase separation| A magneto-mechanical genetics toolbox for in vivo neuromodulation| Exerting pulling forces in fluids by directional disassembly of microcrystalline fibres| Author Correction: Genome-wide forward genetic screening to identify receptors and proteins mediating nanoparticle uptake and intracellular processing| Light responsive DNA origami detects breast cancer marker| Bipolar flash for bifunctional computing operations| Author Correction: Molecular bottlebrush prodrugs as mono- and triplex combination therapies for multiple myeloma| Understanding interphases at the atomic scale| Graphene unlocks dispersion of topological polaritons| Author Correction: High oscillator strength interlayer excitons in two-dimensional heterostructures for mid-infrared photodetection| Substance in nanomaterials regulation| Publisher Correction: Soft-lock drawing of super-aligned carbon nanotube bundles for nanometre electrical contacts| Spontaneous assembly of hierarchical phases| Premelting occurs at 2D faults| China Nano is back| Publisher Correction: Optomechanical detection of vibration modes of a single bacterium| Photo-induced chemistry with sub-molecular resolution| Roeland Nolte (1944–2024)| Nanoparticle levitation on-chip| Selective stimulation of calcium signalling pathways in astrocytes with graphene electrodes| The climate crisis is a call for action for nanotechnology| Empowering spintronics with antiferromagnetic diodes| Avalanche multiplication for quantum dot photodetectors with ultrahigh detectivity| Reply to: Dirac-point photocurrents due to photothermoelectric effect in non-uniform graphene devices| Nongjian Tao (1963–2020)| Publisher Correction: Melting of a skyrmion lattice to a skyrmion liquid via a hexatic phase| Buckled scalable intracellular bioprobes| Publisher Correction: A transistor-like pH-sensitive nanodetergent for selective cancer therapy| Near-unity Raman beta factor underpins high sensitivity| Gene delivery beyond the liver| Author Correction: Focal molography is a new method for the in situ analysis of molecular interactions in biological samples| Mid-infrared irradiation keeps nanocrystals bright| Photothermal twistronics| Publisher Correction: Time-domain observation of ballistic orbital-angular-momentum currents with giant relaxation length in tungsten| A tunable two-dimensional crossbar array comprising 16 quantum dots| Nanoturbine driven by flow across a nanopore| Social systems for technology| Publisher Correction: Metallofullerenes: Welcome to the single-molecule electret device| Mark A. Reed (1955–2021)| Author Correction: A light-fuelled nanoratchet shifts a coupled chemical equilibrium| Harmonizing single photons with a laser pulse| Author Correction: Reasons for success and lessons learnt from nanoscale vaccines against COVID-19| A Kavli prize at the interface| Switching with ions| DNA plastic| Nanometric square skyrmion lattice in a centrosymmetric tetragonal magnet| Scalable CMOS back-end-of-line-compatible AlScN/two-dimensional channel ferroelectric field-effect transistors| Creation of magnetic skyrmions by surface acoustic waves| Functional analysis of single enzymes combining programmable molecular circuits with droplet-based microfluidics| Complete structural characterization of single carbon nanotubes by Rayleigh scattering circular dichroism</v>
       </c>
-      <c r="D2" t="str">
-        <v>東大</v>
-      </c>
-      <c r="E2" t="str">
-        <v>東北大</v>
-      </c>
-      <c r="F2">
+      <c r="D2" s="1" t="str">
+        <v>東大</v>
+      </c>
+      <c r="E2" s="1" t="str">
+        <v>東北大</v>
+      </c>
+      <c r="F2" s="1" t="str">
+        <v>2023/05/01| 2022/01/25| 2025/01/29| 2020/08/14| 2023/05/08| 2023/03/03| 2021/05/19| 2025/07/04| 2023/03/27| 2025/02/13| 2023/11/20| 2022/09/20| 2022/05/16| 2025/11/16| 2021/09/25| 2020/01/14| 2020/02/08| 2023/05/11| 2022/12/13| 2023/01/28| 2025/09/13| 2025/12/27| 2025/06/11| 2025/08/10| 2022/07/30| 2024/03/01| 2025/11/17| 2023/04/09| 2024/09/09| 2022/10/25| 2025/02/06| 2020/06/01| 2021/03/19| 2023/08/26| 2021/11/11| 2022/03/24| 2024/12/16| 2020/04/07| 2024/11/11| 2023/03/10| 2025/10/21| 2023/11/13| 2020/03/03| 2022/03/29| 2022/11/29| 2021/08/04| 2020/04/04| 2022/01/31| 2022/07/13| 2023/06/08| 2021/07/15| 2024/05/09| 2025/09/16| 2024/08/04| 2020/12/26| 2025/12/01| 2022/11/21| 2022/11/09| 2021/09/04| 2023/03/16| 2024/09/28| 2020/10/21| 2024/06/09| 2021/04/07| 2024/08/13| 2020/08/23| 2024/08/27| 2021/09/20| 2023/03/01| 2024/02/11| 2020/01/02| 2024/09/03| 2025/10/11| 2024/06/13| 2024/09/19| 2023/12/09| 2021/02/06| 2025/09/21| 2020/01/08| 2022/04/08| 2022/10/22| 2020/10/16| 2021/02/21| 2023/12/16| 2024/12/04| 2025/08/11| 2024/02/03| 2020/07/27| 2023/01/19| 2022/04/28| 2024/05/19| 2023/10/24| 2023/07/18| 2023/12/15| 2020/08/26| 2021/08/07| 2022/04/19| 2021/07/02| 2023/07/16| 2022/06/27| 2022/08/22| 2021/01/06| 2020/07/26| 2020/12/30| 2022/03/26| 2020/03/08| 2021/01/18| 2021/09/29| 2025/03/31| 2023/08/17| 2025/11/09| 2020/07/01| 2020/11/29| 2023/05/10| 2021/03/27| 2021/04/29| 2022/10/17| 2024/05/11| 2020/09/18| 2023/12/04| 2024/06/03| 2020/04/27| 2025/08/25| 2023/09/01| 2023/10/19| 2022/01/08| 2023/03/09| 2024/04/27| 2023/10/18| 2021/10/20| 2024/06/22| 2025/02/17| 2020/08/16| 2020/09/27| 2024/09/26| 2021/05/30| 2021/12/10| 2022/05/27| 2022/07/28| 2025/10/22| 2020/06/15| 2025/01/05| 2025/07/21| 2024/05/05| 2022/02/04| 2023/09/12| 2024/09/21| 2025/01/24| 2020/11/19| 2020/12/03| 2023/07/13| 2025/09/01| 2023/07/04| 2021/06/22| 2024/07/19| 2024/10/26| 2025/01/11| 2022/04/24| 2020/05/08| 2022/11/15| 2021/09/30| 2024/03/21| 2025/05/11| 2022/07/06| 2025/03/19| 2021/08/09| 2023/06/15| 2023/07/14| 2023/10/22| 2023/10/31| 2025/11/22| 2021/05/27| 2022/06/17| 2022/09/14| 2025/03/15| 2023/08/23| 2023/05/12| 2024/07/13| 2022/11/18| 2022/03/17| 2023/04/29| 2024/06/19| 2021/02/07| 2020/09/11| 2021/10/05| 2023/04/03| 2023/05/31| 2020/11/21| 2024/02/10| 2023/12/02| 2022/04/12| 2025/02/23| 2020/05/26| 2024/02/14| 2021/02/23| 2025/07/01| 2025/02/08| 2022/09/26| 2022/02/05| 2021/08/02| 2023/10/06| 2020/10/05| 2023/03/25| 2024/02/29| 2020/11/14| 2023/12/22| 2024/06/07| 2020/09/01| 2025/11/15| 2020/08/19| 2020/06/02| 2025/10/08| 2020/04/24| 2025/07/25| 2022/01/29| 2024/05/20| 2021/01/29| 2021/01/21| 2022/02/12| 2025/02/24| 2021/01/31| 2025/12/17| 2022/09/25| 2024/08/18| 2025/06/06| 2023/09/03| 2025/12/22| 2024/04/01| 2023/09/28| 2020/01/27| 2025/08/30| 2025/11/25| 2023/05/26| 2022/10/06| 2024/02/22| 2023/06/26| 2023/10/05| 2021/10/18| 2024/04/11| 2023/06/19| 2023/03/17| 2024/03/07| 2024/04/20| 2024/02/16| 2023/12/24| 2021/06/05| 2023/03/02| 2022/10/29</v>
+      </c>
+      <c r="G2" s="1" t="str">
         <v>264</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="str">
+      <c r="A3" s="1" t="str">
         <v>6 リポソーム・LNP・バイオナノ材料</v>
       </c>
-      <c r="B3" t="str">
+      <c r="B3" s="1" t="str">
         <v>https://doi.org/10.1038/s41565-020-0669-6| https://doi.org/10.1038/s41565-021-00931-2| https://doi.org/10.1038/s41565-021-00898-0| https://doi.org/10.1038/s41565-021-00858-8| https://doi.org/10.1038/s41565-021-00962-9| https://doi.org/10.1038/s41565-020-0759-5| https://doi.org/10.1038/s41565-020-0732-3| https://doi.org/10.1038/s41565-023-01346-x| https://doi.org/10.1038/s41565-021-01000-4| https://doi.org/10.1038/s41565-020-00782-3| https://doi.org/10.1038/s41565-019-0626-4| https://doi.org/10.1038/s41565-019-0619-3| https://doi.org/10.1038/s41565-020-00810-2| https://doi.org/10.1038/s41565-019-0600-1| https://doi.org/10.1038/s41565-020-00793-0| https://doi.org/10.1038/s41565-020-0739-9| https://doi.org/10.1038/s41565-020-0648-y| https://doi.org/10.1038/s41565-021-01017-9| https://doi.org/10.1038/s41565-020-0636-2| https://doi.org/10.1038/s41565-022-01179-0| https://doi.org/10.1038/s41565-020-0752-z| https://doi.org/10.1038/s41565-020-0731-4| https://doi.org/10.1038/s41565-020-00790-3| https://doi.org/10.1038/s41565-021-00939-8| https://doi.org/10.1038/s41565-021-00923-2| https://doi.org/10.1038/s41565-021-00950-z| https://doi.org/10.1038/s41565-022-01134-z| https://doi.org/10.1038/s41565-023-01404-4| https://doi.org/10.1038/s41565-021-00972-7| https://doi.org/10.1038/s41565-022-01079-3| https://doi.org/10.1038/s41565-022-01071-x| https://doi.org/10.1038/s41565-021-00971-8| https://doi.org/10.1038/s41565-021-00870-y| https://doi.org/10.1038/s41565-023-01580-3| https://doi.org/10.1038/s41565-021-00928-x| https://doi.org/10.1038/s41565-023-01374-7| https://doi.org/10.1038/s41565-022-01129-w| https://doi.org/10.1038/s41565-022-01085-5| https://doi.org/10.1038/s41565-023-01533-w| https://doi.org/10.1038/s41565-023-01553-6| https://doi.org/10.1038/s41565-022-01266-2| https://doi.org/10.1038/s41565-023-01523-y| https://doi.org/10.1038/s41565-023-01372-9| https://doi.org/10.1038/s41565-023-01548-3| https://doi.org/10.1038/s41565-023-01585-y| https://doi.org/10.1038/s41565-024-01660-y| https://doi.org/10.1038/s41565-023-01563-4| https://doi.org/10.1038/s41565-024-01754-7| https://doi.org/10.1038/s41565-023-01522-z| https://doi.org/10.1038/s41565-023-01453-9| https://doi.org/10.1038/s41565-023-01401-7| https://doi.org/10.1038/s41565-024-01681-7| https://doi.org/10.1038/s41565-024-01785-0| https://doi.org/10.1038/s41565-024-01680-8| https://doi.org/10.1038/s41565-024-01774-3| https://doi.org/10.1038/s41565-023-01535-8| https://doi.org/10.1038/s41565-024-01769-0| https://doi.org/10.1038/s41565-024-01683-5| https://doi.org/10.1038/s41565-024-01655-9| https://doi.org/10.1038/s41565-024-01613-5| https://doi.org/10.1038/s41565-024-01620-6| https://doi.org/10.1038/s41565-024-01722-1| https://doi.org/10.1038/s41565-024-01747-6| https://doi.org/10.1038/s41565-024-01847-3| https://doi.org/10.1038/s41565-024-01833-9| https://doi.org/10.1038/s41565-024-01851-7| https://doi.org/10.1038/s41565-025-01857-9| https://doi.org/10.1038/s41565-020-00820-0| https://doi.org/10.1038/s41565-020-0660-2| https://doi.org/10.1038/s41565-020-00798-9| https://doi.org/10.1038/s41565-021-00897-1| https://doi.org/10.1038/s41565-021-01008-w| https://doi.org/10.1038/s41565-021-00915-2| https://doi.org/10.1038/s41565-021-01032-w| https://doi.org/10.1038/s41565-021-00980-7| https://doi.org/10.1038/s41565-021-01001-3| https://doi.org/10.1038/s41565-021-01048-2| https://doi.org/10.1038/s41565-022-01146-9| https://doi.org/10.1038/s41565-022-01161-w| https://doi.org/10.1038/s41565-022-01245-7| https://doi.org/10.1038/s41565-023-01381-8| https://doi.org/10.1038/s41565-023-01347-w| https://doi.org/10.1038/s41565-023-01476-2| https://doi.org/10.1038/s41565-023-01371-w| https://doi.org/10.1038/s41565-023-01547-4| https://doi.org/10.1038/s41565-023-01514-z| https://doi.org/10.1038/s41565-024-01765-4| https://doi.org/10.1038/s41565-024-01783-2| https://doi.org/10.1038/s41565-024-01757-4| https://doi.org/10.1038/s41565-024-01759-2| https://doi.org/10.1038/s41565-024-01727-w| https://doi.org/10.1038/s41565-025-01867-7| https://doi.org/10.1038/s41565-025-01904-5| https://doi.org/10.1038/s41565-025-01932-1| https://doi.org/10.1038/s41565-025-01924-1| https://doi.org/10.1038/s41565-025-01909-0| https://doi.org/10.1038/s41565-025-01941-0| https://doi.org/10.1038/s41565-020-0687-4| https://doi.org/10.1038/s41565-021-00946-9| https://doi.org/10.1038/s41565-023-01444-w| https://doi.org/10.1038/s41565-023-01510-3| https://doi.org/10.1038/s41565-024-01679-1| https://doi.org/10.1038/s41565-024-01800-4| https://doi.org/10.1038/s41565-020-0662-0| https://doi.org/10.1038/s41565-024-01656-8| https://doi.org/10.1038/s41565-024-01736-9| https://doi.org/10.1038/s41565-025-01918-z| https://doi.org/10.1038/s41565-025-01931-2| https://doi.org/10.1038/s41565-025-01952-x| https://doi.org/10.1038/s41565-021-00981-6| https://doi.org/10.1038/s41565-020-0663-z| https://doi.org/10.1038/s41565-021-00901-8| https://doi.org/10.1038/s41565-024-01637-x| https://doi.org/10.1038/s41565-020-0720-7| https://doi.org/10.1038/s41565-020-0651-3| https://doi.org/10.1038/s41565-022-01268-0| https://doi.org/10.1038/s41565-023-01423-1| https://doi.org/10.1038/s41565-020-0666-9| https://doi.org/10.1038/s41565-021-00893-5| https://doi.org/10.1038/s41565-025-01871-x| https://doi.org/10.1038/s41565-025-01889-1| https://doi.org/10.1038/s41565-025-01922-3| https://doi.org/10.1038/s41565-025-01951-y| https://doi.org/10.1038/s41565-025-01908-1| https://doi.org/10.1038/s41565-025-01958-5| https://doi.org/10.1038/s41565-025-01953-w| https://doi.org/10.1038/s41565-023-01503-2| https://doi.org/10.1038/s41565-022-01089-1| https://doi.org/10.1038/s41565-023-01561-6| https://doi.org/10.1038/s41565-024-01760-9| https://doi.org/10.1038/s41565-024-01744-9| https://doi.org/10.1038/s41565-024-01811-1| https://doi.org/10.1038/s41565-020-00832-w| https://doi.org/10.1038/s41565-020-0675-8| https://doi.org/10.1038/s41565-023-01373-8| https://doi.org/10.1038/s41565-019-0599-3| https://doi.org/10.1038/s41565-024-01682-6| https://doi.org/10.1038/s41565-024-01796-x| https://doi.org/10.1038/s41565-020-0676-7| https://doi.org/10.1038/s41565-021-01039-3| https://doi.org/10.1038/s41565-020-0635-3| https://doi.org/10.1038/s41565-023-01509-w| https://doi.org/10.1038/s41565-024-01748-5| https://doi.org/10.1038/s41565-020-0640-6| https://doi.org/10.1038/s41565-022-01292-0| https://doi.org/10.1038/s41565-023-01538-5| https://doi.org/10.1038/s41565-022-01141-0| https://doi.org/10.1038/s41565-022-01218-w</v>
       </c>
-      <c r="C3" t="str">
+      <c r="C3" s="1" t="str">
         <v>Selective organ targeting (SORT) nanoparticles for tissue-specific mRNA delivery and CRISPR–Cas gene editing| Extracellular vesicles as a next-generation drug delivery platform| The current landscape of nucleic acid therapeutics| Key principles and methods for studying the endocytosis of biological and nanoparticle therapeutics| Amplifying STING activation by cyclic dinucleotide–manganese particles for local and systemic cancer metalloimmunotherapy| A framework for designing delivery systems| Immune-mediated approaches against COVID-19| Artificial-enzymes-armed Bifidobacterium longum probiotics for alleviating intestinal inflammation and microbiota dysbiosis| Intercellular nanotubes mediate mitochondrial trafficking between cancer and immune cells| Proton-driven transformable nanovaccine for cancer immunotherapy| Transformable peptide nanoparticles arrest HER2 signalling and cause cancer cell death in vivo| Pro-efferocytic nanoparticles are specifically taken up by lesional macrophages and prevent atherosclerosis| Inducing immune tolerance with dendritic cell-targeting nanomedicines| Vitamin lipid nanoparticles enable adoptive macrophage transfer for the treatment of multidrug-resistant bacterial sepsis| A nanotherapeutic strategy to overcome chemotherapeutic resistance of cancer stem-like cells| Advances in nanomaterial vaccine strategies to address infectious diseases impacting global health| Dual-targeting nanoparticle vaccine elicits a therapeutic antibody response against chronic hepatitis B| The ancillary effects of nanoparticles and their implications for nanomedicine| Matrix mechanics and water permeation regulate extracellular vesicle transport| Nanozyme-catalysed CRISPR assay for preamplification-free detection of non-coding RNAs| Dexamethasone nanomedicines for COVID-19| Biomolecular condensates undergo a generic shear-mediated liquid-to-solid transition| Eliciting B cell immunity against infectious diseases using nanovaccines| Liposome-mediated detection of SARS-CoV-2 RNA-positive extracellular vesicles in plasma| Cell-mimicking nanodecoys neutralize SARS-CoV-2 and mitigate lung injury in a non-human primate model of COVID-19| Immunogenic camptothesome nanovesicles comprising sphingomyelin-derived camptothecin bilayers for safe and synergistic cancer immunochemotherapy| Cancer immunotherapy based on image-guided STING activation by nucleotide nanocomplex-decorated ultrasound microbubbles| Adjuvant lipidoid-substituted lipid nanoparticles augment the immunogenicity of SARS-CoV-2 mRNA vaccines| T lymphocyte membrane-decorated epigenetic nanoinducer of interferons for cancer immunotherapy| Polarization-sensitive optoionic membranes from chiral plasmonic nanoparticles| Applying lessons learned from nanomedicines to understand rare hypersensitivity reactions to mRNA-based SARS-CoV-2 vaccines| Acoustically triggered mechanotherapy using genetically encoded gas vesicles| Computationally guided high-throughput design of self-assembling drug nanoparticles| Inhalable extracellular vesicle delivery of IL-12 mRNA to treat lung cancer and promote systemic immunity| Conformation-sensitive targeting of lipid nanoparticles for RNA therapeutics| Neutrophil hitchhiking for drug delivery to the bone marrow| Characterization of nanoparticles-based vaccines for COVID-19| A transistor-like pH-sensitive nanodetergent for selective cancer therapy| A modular approach to enhancing cell membrane-coated nanoparticle functionality using genetic engineering| Bacteria-derived nanovesicles enhance tumour vaccination by trained immunity| Targeting Xkr8 via nanoparticle-mediated in situ co-delivery of siRNA and chemotherapy drugs for cancer immunochemotherapy| Ceria-vesicle nanohybrid therapeutic for modulation of innate and adaptive immunity in a collagen-induced arthritis model| CRISPR-Cas-amplified urinary biomarkers for multiplexed and portable cancer diagnostics| Combinatorial development of nebulized mRNA delivery formulations for the lungs| Cellular uptake and in vivo distribution of mesenchymal-stem-cell-derived extracellular vesicles are protein corona dependent| Janus liposozyme for the modulation of redox and immune homeostasis in infected diabetic wounds| Strategies for non-viral vectors targeting organs beyond the liver| A translational framework to DELIVER nanomedicines to the clinic| Entry and exit of extracellular vesicles to and from the blood circulation| Close the cancer–immunity cycle by integrating lipid nanoparticle–mRNA formulations and dendritic cell therapy| Cell spheroid creation by transcytotic intercellular gelation| Oral mitochondrial transplantation using nanomotors to treat ischaemic heart disease| Direct cytosolic delivery of siRNA via cell membrane fusion using cholesterol-enriched exosomes| Bone-marrow-homing lipid nanoparticles for genome editing in diseased and malignant haematopoietic stem cells| Harnessing extracellular vesicle heterogeneity for diagnostic and therapeutic applications| Evidence and therapeutic implications of biomechanically regulated immunosurveillance in cancer and other diseases| Polymer-locking fusogenic liposomes for glioblastoma-targeted siRNA delivery and CRISPR–Cas gene editing| Polystyrene nanoparticles trigger aberrant condensation of TDP-43 and amyotrophic lateral sclerosis-like symptoms| Proactive vaccination using multiviral Quartet Nanocages to elicit broad anti-coronavirus responses| Targeting initial tumour–osteoclast spatiotemporal interaction to prevent bone metastasis| Chimeric nanobody-decorated liposomes by self-assembly| Oral administration of garlic-derived nanoparticles improves cancer immunotherapy by inducing intestinal IFNγ-producing γδ T cells| Combinatorial design of siloxane-incorporated lipid nanoparticles augments intracellular processing for tissue-specific mRNA therapeutic delivery| Nature-inspired platform nanotechnology for RNA delivery to myeloid cells and their bone marrow progenitors| Chemistry, manufacturing and controls strategies for using novel excipients in lipid nanoparticles| Customizable virus-like particles deliver CRISPR–Cas9 ribonucleoprotein for effective ocular neovascular and Huntington’s disease gene therapy| Tandem-controlled lysosomal assembly of nanofibres induces pyroptosis for cancer immunotherapy| Nanomedicine and the COVID-19 vaccines| Phage capsid nanoparticles with defined ligand arrangement block influenza virus entry| Structural and dynamics analysis of intrinsically disordered proteins by high-speed atomic force microscopy| Therapeutically reprogrammed nutrient signalling enhances nanoparticulate albumin bound drug uptake and efficacy in KRAS-mutant cancer| De novo design of a nanopore for single-molecule detection that incorporates a β-hairpin peptide| Foldamer-based ultrapermeable and highly selective artificial water channels that exclude protons| Intrapleural nano-immunotherapy promotes innate and adaptive immune responses to enhance anti-PD-L1 therapy for malignant pleural effusion| Ferritin-based targeted delivery of arsenic to diverse leukaemia types confers strong anti-leukaemia therapeutic effects| The role and impact of polyethylene glycol on anaphylactic reactions to COVID-19 nano-vaccines| Subcutaneous nanotherapy repurposes the immunosuppressive mechanism of rapamycin to enhance allogeneic islet graft viability| Nanoparticle single-cell multiomic readouts reveal that cell heterogeneity influences lipid nanoparticle-mediated messenger RNA delivery| Nanomedicine platform for targeting activated neutrophils and neutrophil–platelet complexes using an α1-antitrypsin-derived peptide motif| Immunological conversion of solid tumours using a bispecific nanobioconjugate for cancer immunotherapy| Tailoring renal-clearable zwitterionic cyclodextrin for colorectal cancer-selective drug delivery| mRNA therapy at the convergence of genetics and nanomedicine| Electroactive membrane fusion-liposome for increased electron transfer to enhance radiodynamic therapy| Active ingredient vs excipient debate for nanomedicines| Oligomeric organization of membrane proteins from native membranes at nanoscale spatial and single-molecule resolution| Inhibition of acute complement responses towards bolus-injected nanoparticles using targeted short-circulating regulatory proteins| Acid-degradable lipid nanoparticles enhance the delivery of mRNA| Non-discriminating engineered masking of immuno-evasive ligands on tumour-derived extracellular vesicles enhances tumour vaccination outcomes| Photobleaching-mediated charge-convertible cyclodextrin nanoparticles achieve deep tumour penetration for rectal cancer theranostics| Synthetic polypeptides inhibit nucleic acid-induced inflammation in autoimmune diseases by disrupting multivalent TLR9 binding to LL37-DNA bundles| Polymersomes with splenic avidity target red pulp myeloid cells for cancer immunotherapy| Systemic HER3 ligand-mimicking nanobioparticles enter the brain and reduce intracranial tumour growth| An orally administered gene editing nanoparticle boosts chemo-immunotherapy in colorectal cancer| Analysis of multi-drug cancer nanomedicine| A collagenase nanogel backpack improves CAR-T cell therapy outcomes in pancreatic cancer| Nanoinducer-mediated mitochondria-selective degradation enhances T cell immunotherapy against multiple cancers| Ballistic diffusion fronts in biomolecular condensates| Nanoscale nights of COVID-19| Reasons for success and lessons learnt from nanoscale vaccines against COVID-19| Transport by circulating myeloid cells drives liposomal accumulation in inflamed synovium| Dynamin A as a one-component division machinery for synthetic cells| Virus-like structures for combination antigen protein mRNA vaccination| Filamentous phages as tumour-targeting immunotherapeutic bionanofibres| Three-dimensional localization microscopy in live flowing cells| Liposozyme for wound healing and inflammation resolution| A bispecific nanosystem activates endogenous natural killer cells in the bone marrow for haematologic malignancies therapy| Nanopore-based enzyme-linked immunosorbent assay for cancer biomarker detection| Engineering pyroptotic vesicles as personalized cancer vaccines| A nanovaccine targeting cancer stem cells and bulk cancer cells for postoperative cancer immunotherapy| Nanomedicine hitchhikes on neutrophils to the inflamed lung| Targeting immune cells within lymph nodes| COVID-19 may become nanomedicine’s finest hour yet| Controlling the STING pathway to improve immunotherapy| Programming multi-protein assembly by gene-brush patterns and two-dimensional compartment geometry| Diffusion and transport of extracellular vesicles| Non-reciprocal interaction for living matter| Effects of cholesterol on biomolecular corona| Nanotechnology for organ-tunable gene editing| Designing cryo-enzymatic reactions in subzero liquid water by lipidic mesophase nanoconfinement| Long-term blood sugar control with smart insulin crystals| A modular mRNA vaccine platform encoding antigen-presenting capsid virus-like particles enhances the immunogenicity of the malaria antigen Pfs25| Tumour-derived microparticles obtained through microwave irradiation induce immunogenic cell death in lung adenocarcinoma| The benefits and risks of PEGylation in nanomedicine| Modulation of SARS-CoV-2 spike binding to ACE2 through conformational selection| Tailoring the adjuvanticity of lipid nanoparticles by PEG lipid ratio and phospholipid modifications| A NICER nanovaccine for cancer immunotherapy| Biohybrid nanoparticles for treating arthritis| Boosting dendritic cell nanovaccines| Oral insulin with reduced hypoglycaemic episodes| Publisher Correction: Oral mitochondrial transplantation using nanomotors to treat ischaemic heart disease| Bottom-up synthetic immunology| Synthetic syntrophy for adenine nucleotide cross-feeding between metabolically active nanoreactors| A relaxin-based nanotherapy for liver fibrosis| Author Correction: Vitamin lipid nanoparticles enable adoptive macrophage transfer for the treatment of multidrug-resistant bacterial sepsis| Rerouting nanoparticles to bone marrow via neutrophil hitchhiking| Devouring atherosclerotic plaques| Lipid nanoparticles target haematopoietic stem cells| Author Correction: A bispecific nanosystem activates endogenous natural killer cells in the bone marrow for haematologic malignancies therapy| Single-molecule imaging goes high throughput| Nucleic acid delivery differences across species| Author Correction: Precise targeting of POLR2A as a therapeutic strategy for human triple negative breast cancer| Breaking the bottleneck of synthetic cells| Small structural changes in siloxane-based lipidoids improve tissue-specific mRNA delivery| Author Correction: Artificial water channels enable fast and selective water permeation through water-wire networks| Gene delivery beyond the liver| Lightly counting membrane proteins in native nanodiscs| Author Correction: Reasons for success and lessons learnt from nanoscale vaccines against COVID-19| Riboswitch nanocarriers for adenine rescue metabolic disease phenotypes</v>
       </c>
-      <c r="D3" t="str">
-        <v/>
-      </c>
-      <c r="E3" t="str">
-        <v/>
-      </c>
-      <c r="F3">
+      <c r="D3" s="1" t="str">
+        <v/>
+      </c>
+      <c r="E3" s="1" t="str">
+        <v/>
+      </c>
+      <c r="F3" s="1" t="str">
+        <v>2023/05/01| 2020/12/19| 2025/01/29| 2023/02/06| 2025/02/12| 2024/12/03| 2022/09/20| 2025/04/06| 2025/02/13| 2020/02/14| 2021/08/02| 2021/03/06| 2025/01/01| 2023/11/23| 2022/02/12| 2020/02/04| 2020/08/04| 2023/12/09| 2022/03/04| 2022/11/26| 2020/06/29| 2023/02/01| 2021/10/24| 2023/07/08| 2024/06/19| 2023/05/24| 2024/03/27| 2023/04/09| 2024/10/02| 2025/01/31| 2022/12/31| 2024/11/14| 2021/11/04| 2024/03/02| 2023/03/06| 2020/01/24| 2020/12/24| 2023/12/13| 2022/12/03| 2023/02/13| 2024/11/20| 2020/02/29| 2020/06/05| 2024/09/29| 2022/10/23| 2023/08/15| 2023/11/13| 2024/03/22| 2022/08/14| 2022/09/17| 2024/05/02| 2024/10/11| 2020/04/24| 2020/04/04| 2020/07/12| 2024/06/03| 2020/07/07| 2022/04/15| 2020/04/18| 2020/01/29| 2021/07/16| 2020/03/30| 2022/07/12| 2022/05/19| 2024/05/09| 2023/09/05| 2025/01/22| 2025/02/14| 2024/06/09| 2021/09/06| 2023/10/31| 2024/07/13| 2022/12/10| 2021/12/23| 2024/01/12| 2022/07/28| 2022/08/19| 2020/08/26| 2023/06/15| 2022/06/27| 2025/12/08| 2023/12/07| 2025/10/27| 2025/03/31| 2024/04/01| 2024/01/07| 2023/12/21| 2024/03/24| 2024/04/07| 2024/05/11| 2023/10/11| 2023/01/16| 2020/08/23| 2020/04/21| 2020/09/06| 2022/04/25| 2025/07/16| 2024/09/26| 2022/06/11| 2025/07/10| 2024/09/21| 2022/02/17| 2023/10/21| 2024/11/30| 2021/12/15| 2020/05/08| 2025/05/27| 2023/04/30| 2022/06/24| 2023/07/10| 2025/04/18| 2023/02/24| 2020/04/08| 2020/08/20| 2023/08/23| 2022/04/12| 2023/05/06| 2023/04/29| 2021/02/20| 2024/01/16| 2021/08/24| 2023/07/04| 2025/04/09| 2021/08/30| 2020/10/23| 2020/08/12| 2020/03/14| 2023/01/21| 2024/12/25| 2020/07/25| 2021/06/05| 2020/10/27| 2024/07/08| 2025/07/26| 2023/11/01| 2021/05/22| 2024/01/10| 2020/01/27| 2025/09/22| 2023/06/19| 2022/10/15</v>
+      </c>
+      <c r="G3" s="1" t="str">
         <v>148</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="str">
+      <c r="A4" s="1" t="str">
         <v>7 ナノバイオ・医療・生体応用実験・評価</v>
       </c>
-      <c r="B4" t="str">
+      <c r="B4" s="1" t="str">
         <v>https://doi.org/10.1038/s41565-020-0669-6| https://doi.org/10.1038/s41565-021-00931-2| https://doi.org/10.1038/s41565-020-00781-4| https://doi.org/10.1038/s41565-020-00812-0| https://doi.org/10.1038/s41565-020-0751-0| https://doi.org/10.1038/s41565-023-01346-x| https://doi.org/10.1038/s41565-022-01098-0| https://doi.org/10.1038/s41565-020-00782-3| https://doi.org/10.1038/s41565-021-00926-z| https://doi.org/10.1038/s41565-020-00843-7| https://doi.org/10.1038/s41565-019-0626-4| https://doi.org/10.1038/s41565-020-0693-6| https://doi.org/10.1038/s41565-019-0619-3| https://doi.org/10.1038/s41565-020-00810-2| https://doi.org/10.1038/s41565-019-0600-1| https://doi.org/10.1038/s41565-021-00856-w| https://doi.org/10.1038/s41565-020-00793-0| https://doi.org/10.1038/s41565-020-0739-9| https://doi.org/10.1038/s41565-022-01125-0| https://doi.org/10.1038/s41565-020-00803-1| https://doi.org/10.1038/s41565-020-0696-3| https://doi.org/10.1038/s41565-020-0752-z| https://doi.org/10.1038/s41565-023-01422-2| https://doi.org/10.1038/s41565-020-00790-3| https://doi.org/10.1038/s41565-021-00982-5| https://doi.org/10.1038/s41565-021-00923-2| https://doi.org/10.1038/s41565-022-01225-x| https://doi.org/10.1038/s41565-021-00950-z| https://doi.org/10.1038/s41565-022-01134-z| https://doi.org/10.1038/s41565-023-01404-4| https://doi.org/10.1038/s41565-021-00972-7| https://doi.org/10.1038/s41565-020-00844-6| https://doi.org/10.1038/s41565-022-01189-y| https://doi.org/10.1038/s41565-024-01618-0| https://doi.org/10.1038/s41565-021-00971-8| https://doi.org/10.1038/s41565-023-01580-3| https://doi.org/10.1038/s41565-021-00928-x| https://doi.org/10.1038/s41565-023-01374-7| https://doi.org/10.1038/s41565-022-01174-5| https://doi.org/10.1038/s41565-021-01030-y| https://doi.org/10.1038/s41565-022-01137-w| https://doi.org/10.1038/s41565-022-01177-2| https://doi.org/10.1038/s41565-023-01447-7| https://doi.org/10.1038/s41565-023-01533-w| https://doi.org/10.1038/s41565-023-01553-6| https://doi.org/10.1038/s41565-022-01266-2| https://doi.org/10.1038/s41565-023-01523-y| https://doi.org/10.1038/s41565-022-01261-7| https://doi.org/10.1038/s41565-022-01296-w| https://doi.org/10.1038/s41565-023-01498-w| https://doi.org/10.1038/s41565-023-01577-y| https://doi.org/10.1038/s41565-022-01310-1| https://doi.org/10.1038/s41565-023-01585-y| https://doi.org/10.1038/s41565-023-01419-x| https://doi.org/10.1038/s41565-024-01754-7| https://doi.org/10.1038/s41565-023-01522-z| https://doi.org/10.1038/s41565-023-01453-9| https://doi.org/10.1038/s41565-023-01416-0| https://doi.org/10.1038/s41565-023-01392-5| https://doi.org/10.1038/s41565-024-01681-7| https://doi.org/10.1038/s41565-024-01687-1| https://doi.org/10.1038/s41565-023-01394-3| https://doi.org/10.1038/s41565-023-01359-6| https://doi.org/10.1038/s41565-024-01785-0| https://doi.org/10.1038/s41565-024-01680-8| https://doi.org/10.1038/s41565-023-01572-3| https://doi.org/10.1038/s41565-024-01648-8| https://doi.org/10.1038/s41565-024-01624-2| https://doi.org/10.1038/s41565-024-01784-1| https://doi.org/10.1038/s41565-023-01535-8| https://doi.org/10.1038/s41565-023-01565-2| https://doi.org/10.1038/s41565-024-01769-0| https://doi.org/10.1038/s41565-024-01683-5| https://doi.org/10.1038/s41565-024-01655-9| https://doi.org/10.1038/s41565-024-01613-5| https://doi.org/10.1038/s41565-023-01562-5| https://doi.org/10.1038/s41565-024-01722-1| https://doi.org/10.1038/s41565-024-01758-3| https://doi.org/10.1038/s41565-024-01747-6| https://doi.org/10.1038/s41565-024-01851-7| https://doi.org/10.1038/s41565-025-01857-9| https://doi.org/10.1038/s41565-025-01860-0| https://doi.org/10.1038/s41565-020-00776-1| https://doi.org/10.1038/s41565-020-0660-2| https://doi.org/10.1038/s41565-020-0761-y| https://doi.org/10.1038/s41565-020-0634-4| https://doi.org/10.1038/s41565-020-00817-9| https://doi.org/10.1038/s41565-020-00836-6| https://doi.org/10.1038/s41565-021-00897-1| https://doi.org/10.1038/s41565-020-0701-x| https://doi.org/10.1038/s41565-021-00952-x| https://doi.org/10.1038/s41565-021-00878-4| https://doi.org/10.1038/s41565-021-01032-w| https://doi.org/10.1038/s41565-020-0723-4| https://doi.org/10.1038/s41565-021-00980-7| https://doi.org/10.1038/s41565-021-00961-w| https://doi.org/10.1038/s41565-021-01048-2| https://doi.org/10.1038/s41565-022-01198-x| https://doi.org/10.1038/s41565-022-01245-7| https://doi.org/10.1038/s41565-023-01378-3| https://doi.org/10.1038/s41565-023-01381-8| https://doi.org/10.1038/s41565-023-01496-y| https://doi.org/10.1038/s41565-023-01501-4| https://doi.org/10.1038/s41565-022-01307-w| https://doi.org/10.1038/s41565-023-01393-4| https://doi.org/10.1038/s41565-023-01476-2| https://doi.org/10.1038/s41565-023-01514-z| https://doi.org/10.1038/s41565-023-01575-0| https://doi.org/10.1038/s41565-024-01694-2| https://doi.org/10.1038/s41565-024-01809-9| https://doi.org/10.1038/s41565-024-01765-4| https://doi.org/10.1038/s41565-024-01783-2| https://doi.org/10.1038/s41565-024-01798-9| https://doi.org/10.1038/s41565-023-01598-7| https://doi.org/10.1038/s41565-024-01757-4| https://doi.org/10.1038/s41565-024-01733-y| https://doi.org/10.1038/s41565-024-01764-5| https://doi.org/10.1038/s41565-024-01803-1| https://doi.org/10.1038/s41565-024-01629-x| https://doi.org/10.1038/s41565-024-01725-y| https://doi.org/10.1038/s41565-024-01759-2| https://doi.org/10.1038/s41565-024-01727-w| https://doi.org/10.1038/s41565-024-01843-7| https://doi.org/10.1038/s41565-024-01834-8| https://doi.org/10.1038/s41565-024-01826-8| https://doi.org/10.1038/s41565-025-01867-7| https://doi.org/10.1038/s41565-025-01904-5| https://doi.org/10.1038/s41565-025-01878-4| https://doi.org/10.1038/s41565-025-01926-z| https://doi.org/10.1038/s41565-025-01932-1| https://doi.org/10.1038/s41565-025-01924-1| https://doi.org/10.1038/s41565-025-01909-0| https://doi.org/10.1038/s41565-022-01249-3| https://doi.org/10.1038/s41565-022-01260-8| https://doi.org/10.1038/s41565-023-01444-w| https://doi.org/10.1038/s41565-023-01560-7| https://doi.org/10.1038/s41565-023-01363-w| https://doi.org/10.1038/s41565-023-01502-3| https://doi.org/10.1038/s41565-023-01436-w| https://doi.org/10.1038/s41565-022-01265-3| https://doi.org/10.1038/s41565-023-01584-z| https://doi.org/10.1038/s41565-024-01679-1| https://doi.org/10.1038/s41565-024-01800-4| https://doi.org/10.1038/s41565-020-0639-z| https://doi.org/10.1038/s41565-020-0762-x| https://doi.org/10.1038/s41565-023-01415-1| https://doi.org/10.1038/s41565-023-01592-z| https://doi.org/10.1038/s41565-024-01656-8| https://doi.org/10.1038/s41565-025-01907-2| https://doi.org/10.1038/s41565-025-01929-w| https://doi.org/10.1038/s41565-025-01918-z| https://doi.org/10.1038/s41565-025-01931-2| https://doi.org/10.1038/s41565-025-01952-x| https://doi.org/10.1038/s41565-021-00981-6| https://doi.org/10.1038/s41565-024-01678-2| https://doi.org/10.1038/s41565-024-01781-4| https://doi.org/10.1038/s41565-024-01786-z| https://doi.org/10.1038/s41565-021-00901-8| https://doi.org/10.1038/s41565-024-01637-x| https://doi.org/10.1038/s41565-024-01644-y| https://doi.org/10.1038/s41565-024-01668-4| https://doi.org/10.1038/s41565-024-01802-2| https://doi.org/10.1038/s41565-021-00996-z| https://doi.org/10.1038/s41565-024-01761-8| https://doi.org/10.1038/s41565-023-01450-y| https://doi.org/10.1038/s41565-025-01871-x| https://doi.org/10.1038/s41565-025-01889-1| https://doi.org/10.1038/s41565-025-01922-3| https://doi.org/10.1038/s41565-025-01928-x| https://doi.org/10.1038/s41565-025-01958-5| https://doi.org/10.1038/s41565-025-01953-w| https://doi.org/10.1038/s41565-025-01943-y| https://doi.org/10.1038/s41565-021-00889-1| https://doi.org/10.1038/s41565-023-01420-4| https://doi.org/10.1038/s41565-023-01503-2| https://doi.org/10.1038/s41565-022-01089-1| https://doi.org/10.1038/s41565-023-01561-6| https://doi.org/10.1038/s41565-024-01760-9| https://doi.org/10.1038/s41565-024-01811-1| https://doi.org/10.1038/s41565-020-00832-w| https://doi.org/10.1038/s41565-021-01006-y| https://doi.org/10.1038/s41565-020-0675-8| https://doi.org/10.1038/s41565-023-01373-8| https://doi.org/10.1038/s41565-022-01212-2| https://doi.org/10.1038/s41565-019-0599-3| https://doi.org/10.1038/s41565-023-01330-5| https://doi.org/10.1038/s41565-024-01797-w| https://doi.org/10.1038/s41565-024-01639-9| https://doi.org/10.1038/s41565-024-01682-6| https://doi.org/10.1038/s41565-024-01701-6| https://doi.org/10.1038/s41565-024-01778-z| https://doi.org/10.1038/s41565-024-01796-x| https://doi.org/10.1038/s41565-021-00864-w| https://doi.org/10.1038/s41565-022-01132-1| https://doi.org/10.1038/s41565-022-01244-8| https://doi.org/10.1038/s41565-023-01499-9| https://doi.org/10.1038/s41565-023-01568-z| https://doi.org/10.1038/s41565-021-01039-3| https://doi.org/10.1038/s41565-022-01188-z| https://doi.org/10.1038/s41565-020-00842-8| https://doi.org/10.1038/s41565-020-0635-3| https://doi.org/10.1038/s41565-023-01345-y| https://doi.org/10.1038/s41565-023-01531-y| https://doi.org/10.1038/s41565-020-0711-8| https://doi.org/10.1038/s41565-024-01748-5| https://doi.org/10.1038/s41565-024-01810-2| https://doi.org/10.1038/s41565-020-0748-8| https://doi.org/10.1038/s41565-022-01292-0| https://doi.org/10.1038/s41565-023-01437-9| https://doi.org/10.1038/s41565-022-01176-3| https://doi.org/10.1038/s41565-022-01250-w</v>
       </c>
-      <c r="C4" t="str">
+      <c r="C4" s="1" t="str">
         <v>Selective organ targeting (SORT) nanoparticles for tissue-specific mRNA delivery and CRISPR–Cas gene editing| Extracellular vesicles as a next-generation drug delivery platform| A general strategy towards personalized nanovaccines based on fluoropolymers for post-surgical cancer immunotherapy| Silica nanoparticles enhance disease resistance in Arabidopsis plants| Nanotechnology-based disinfectants and sensors for SARS-CoV-2| Artificial-enzymes-armed Bifidobacterium longum probiotics for alleviating intestinal inflammation and microbiota dysbiosis| A nanovaccine for antigen self-presentation and immunosuppression reversal as a personalized cancer immunotherapy strategy| Proton-driven transformable nanovaccine for cancer immunotherapy| Viscoelastic surface electrode arrays to interface with viscoelastic tissues| Immunostimulant hydrogel for the inhibition of malignant glioma relapse post-resection| Transformable peptide nanoparticles arrest HER2 signalling and cause cancer cell death in vivo| Zwitterionic micelles efficiently deliver oral insulin without opening tight junctions| Pro-efferocytic nanoparticles are specifically taken up by lesional macrophages and prevent atherosclerosis| Inducing immune tolerance with dendritic cell-targeting nanomedicines| Vitamin lipid nanoparticles enable adoptive macrophage transfer for the treatment of multidrug-resistant bacterial sepsis| Molybdenum derived from nanomaterials incorporates into molybdenum enzymes and affects their activities in vivo| A nanotherapeutic strategy to overcome chemotherapeutic resistance of cancer stem-like cells| Advances in nanomaterial vaccine strategies to address infectious diseases impacting global health| A pyroptosis nanotuner for cancer therapy| A new strategy using nanoscale zero-valent iron to simultaneously promote remediation and safe crop production in contaminated soil| Subretinally injected semiconducting polymer nanoparticles rescue vision in a rat model of retinal dystrophy| Dexamethasone nanomedicines for COVID-19| Fluorescence-amplified nanocrystals in the second near-infrared window for in vivo real-time dynamic multiplexed imaging| Eliciting B cell immunity against infectious diseases using nanovaccines| Nano-optogenetic engineering of CAR T cells for precision immunotherapy with enhanced safety| Cell-mimicking nanodecoys neutralize SARS-CoV-2 and mitigate lung injury in a non-human primate model of COVID-19| Zinc cyclic di-AMP nanoparticles target and suppress tumours via endothelial STING activation and tumour-associated macrophage reinvigoration| Immunogenic camptothesome nanovesicles comprising sphingomyelin-derived camptothecin bilayers for safe and synergistic cancer immunochemotherapy| Cancer immunotherapy based on image-guided STING activation by nucleotide nanocomplex-decorated ultrasound microbubbles| Adjuvant lipidoid-substituted lipid nanoparticles augment the immunogenicity of SARS-CoV-2 mRNA vaccines| T lymphocyte membrane-decorated epigenetic nanoinducer of interferons for cancer immunotherapy| Photoacoustic molecular imaging-escorted adipose photodynamic–browning synergy for fighting obesity with virus-like complexes| Remotely controlled near-infrared-triggered photothermal treatment of brain tumours in freely behaving mice using gold nanostar﻿s| Photothermal therapy of tuberculosis using targeting pre-activated macrophage membrane-coated nanoparticles| Acoustically triggered mechanotherapy using genetically encoded gas vesicles| Inhalable extracellular vesicle delivery of IL-12 mRNA to treat lung cancer and promote systemic immunity| Conformation-sensitive targeting of lipid nanoparticles for RNA therapeutics| Neutrophil hitchhiking for drug delivery to the bone marrow| Nanotechnology-based strategies against SARS-CoV-2 variants| Species-dependent in vivo mRNA delivery and cellular responses to nanoparticles| NAD(H)-loaded nanoparticles for efficient sepsis therapy via modulating immune and vascular homeostasis| A nanomaterial targeting the spike protein captures SARS-CoV-2 variants and promotes viral elimination| Investigation of the enhanced antitumour potency of STING agonist after conjugation to polymer nanoparticles| A modular approach to enhancing cell membrane-coated nanoparticle functionality using genetic engineering| Bacteria-derived nanovesicles enhance tumour vaccination by trained immunity| Targeting Xkr8 via nanoparticle-mediated in situ co-delivery of siRNA and chemotherapy drugs for cancer immunochemotherapy| Ceria-vesicle nanohybrid therapeutic for modulation of innate and adaptive immunity in a collagen-induced arthritis model| Targeting the activity of T cells by membrane surface redox regulation for cancer theranostics| A nanoadjuvant that dynamically coordinates innate immune stimuli activation enhances cancer immunotherapy and reduces immune cell exhaustion| Breaking through the basement membrane barrier to improve nanotherapeutic delivery to tumours| Urease-powered nanobots for radionuclide bladder cancer therapy| Molecular bottlebrush prodrugs as mono- and triplex combination therapies for multiple myeloma| Cellular uptake and in vivo distribution of mesenchymal-stem-cell-derived extracellular vesicles are protein corona dependent| Adeno-associated viral vectors for functional intravenous gene transfer throughout the non-human primate brain| A translational framework to DELIVER nanomedicines to the clinic| Entry and exit of extracellular vesicles to and from the blood circulation| Close the cancer–immunity cycle by integrating lipid nanoparticle–mRNA formulations and dendritic cell therapy| Controlled delivery of a neurotransmitter–agonist conjugate for functional recovery after severe spinal cord injury| Nano-enabled strategies to enhance biological nitrogen fixation| Oral mitochondrial transplantation using nanomotors to treat ischaemic heart disease| Resolvin D1 delivery to lesional macrophages using antioxidative black phosphorus nanosheets for atherosclerosis treatment| Hierarchical helical carbon nanotube fibre as a bone-integrating anterior cruciate ligament replacement| Ectopic expression of a mechanosensitive channel confers spatiotemporal resolution to ultrasound stimulations of neurons for visual restoration| Direct cytosolic delivery of siRNA via cell membrane fusion using cholesterol-enriched exosomes| Bone-marrow-homing lipid nanoparticles for genome editing in diseased and malignant haematopoietic stem cells| First-in-human controlled inhalation of thin graphene oxide nanosheets to study acute cardiorespiratory responses| Multimodal nanoimmunotherapy engages neutrophils to eliminate Staphylococcus aureus infections| Universal STING mimic boosts antitumour immunity via preferential activation of tumour control signalling pathways| A cuproptosis nanocapsule for cancer radiotherapy| Evidence and therapeutic implications of biomechanically regulated immunosurveillance in cancer and other diseases| Oral nanotherapeutic formulation of insulin with reduced episodes of hypoglycaemia| Polymer-locking fusogenic liposomes for glioblastoma-targeted siRNA delivery and CRISPR–Cas gene editing| Polystyrene nanoparticles trigger aberrant condensation of TDP-43 and amyotrophic lateral sclerosis-like symptoms| Proactive vaccination using multiviral Quartet Nanocages to elicit broad anti-coronavirus responses| Targeting initial tumour–osteoclast spatiotemporal interaction to prevent bone metastasis| Nanoreceptors promote mutant p53 protein degradation by mimicking selective autophagy receptors| Oral administration of garlic-derived nanoparticles improves cancer immunotherapy by inducing intestinal IFNγ-producing γδ T cells| Metal-ion-chelating phenylalanine nanostructures reverse immune dysfunction and sensitize breast tumour to immune checkpoint blockade| Combinatorial design of siloxane-incorporated lipid nanoparticles augments intracellular processing for tissue-specific mRNA therapeutic delivery| Customizable virus-like particles deliver CRISPR–Cas9 ribonucleoprotein for effective ocular neovascular and Huntington’s disease gene therapy| Tandem-controlled lysosomal assembly of nanofibres induces pyroptosis for cancer immunotherapy| A bioinspired polymeric membrane-enclosed insulin crystal achieves long-term, self-regulated drug release for type 1 diabetes therapy| Advanced material modulation of nutritional and phytohormone status alleviates damage from soybean sudden death syndrome| Phage capsid nanoparticles with defined ligand arrangement block influenza virus entry| Functional and morphological adaptation in DNA protocells via signal processing prompted by artificial metalloenzymes| A sensitive and specific nanosensor for monitoring extracellular potassium levels in the brain| Considerations for designing preclinical cancer immune nanomedicine studies| Hepatic macrophages act as a central hub for relaxin-mediated alleviation of liver fibrosis| Therapeutically reprogrammed nutrient signalling enhances nanoparticulate albumin bound drug uptake and efficacy in KRAS-mutant cancer| In situ electrochemical generation of nitric oxide for neuronal modulation| Intrinsic bioactivity of black phosphorus nanomaterials on mitotic centrosome destabilization through suppression of PLK1 kinase| Bioelectronic control of a microbial community using surface-assembled electrogenetic cells to route signals| Intrapleural nano-immunotherapy promotes innate and adaptive immune responses to enhance anti-PD-L1 therapy for malignant pleural effusion| Engineering synthetic breath biomarkers for respiratory disease| Ferritin-based targeted delivery of arsenic to diverse leukaemia types confers strong anti-leukaemia therapeutic effects| Surface-fill hydrogel attenuates the oncogenic signature of complex anatomical surface cancer in a single application| Subcutaneous nanotherapy repurposes the immunosuppressive mechanism of rapamycin to enhance allogeneic islet graft viability| Carbon nanotube uptake in cyanobacteria for near-infrared imaging and enhanced bioelectricity generation in living photovoltaics| Immunological conversion of solid tumours using a bispecific nanobioconjugate for cancer immunotherapy| Non-invasive activation of intratumoural gene editing for improved adoptive T-cell therapy in solid tumours| Tailoring renal-clearable zwitterionic cyclodextrin for colorectal cancer-selective drug delivery| Wireless electrical–molecular quantum signalling for cancer cell apoptosis| Oxyhaemoglobin saturation NIR-IIb imaging for assessing cancer metabolism and predicting the response to immunotherapy| Nanosensors for monitoring plant health| An ancestral molecular response to nanomaterial particulates| Electroactive membrane fusion-liposome for increased electron transfer to enhance radiodynamic therapy| Inhibition of acute complement responses towards bolus-injected nanoparticles using targeted short-circulating regulatory proteins| Nanosensor detection of reactive oxygen and nitrogen species leakage in frustrated phagocytosis of nanofibres| In vivo magnetogenetics for cell-type-specific targeting and modulation of brain circuits| A cascade X-ray energy converting approach toward radio-afterglow cancer theranostics| Acid-degradable lipid nanoparticles enhance the delivery of mRNA| Non-discriminating engineered masking of immuno-evasive ligands on tumour-derived extracellular vesicles enhances tumour vaccination outcomes| Magnetoelectric nanodiscs enable wireless transgene-free neuromodulation| Full-length single-molecule protein fingerprinting| Photobleaching-mediated charge-convertible cyclodextrin nanoparticles achieve deep tumour penetration for rectal cancer theranostics| An artificial metabzyme for tumour-cell-specific metabolic therapy| An orally administered glucose-responsive polymeric complex for high-efficiency and safe delivery of insulin in mice and pigs| Targeted intervention in nerve–cancer crosstalk enhances pancreatic cancer chemotherapy| Genome-wide forward genetic screening to identify receptors and proteins mediating nanoparticle uptake and intracellular processing| Magnetic-field-driven targeting of exosomes modulates immune and metabolic changes in dystrophic muscle| Synthetic polypeptides inhibit nucleic acid-induced inflammation in autoimmune diseases by disrupting multivalent TLR9 binding to LL37-DNA bundles| Polymersomes with splenic avidity target red pulp myeloid cells for cancer immunotherapy| Half-wave nanolasers and intracellular plasmonic lasing particles| AND-gated protease-activated nanosensors for programmable detection of anti-tumour immunity| Autophagosomes coated in situ with nanodots act as personalized cancer vaccines| Systemic HER3 ligand-mimicking nanobioparticles enter the brain and reduce intracranial tumour growth| An orally administered gene editing nanoparticle boosts chemo-immunotherapy in colorectal cancer| Gold-modified nanoporous silicon for photoelectrochemical regulation of intracellular condensates| Balancing stealth and targeting to improve nanomedicine efficacy| Analysis of multi-drug cancer nanomedicine| A collagenase nanogel backpack improves CAR-T cell therapy outcomes in pancreatic cancer| Nanoinducer-mediated mitochondria-selective degradation enhances T cell immunotherapy against multiple cancers| Selective targeting of visceral adiposity by polycation nanomedicine| Graphene oxide elicits microbiome-dependent type 2 immune responses via the aryl hydrocarbon receptor| Transport by circulating myeloid cells drives liposomal accumulation in inflamed synovium| Associating growth factor secretions and transcriptomes of single cells in nanovials using SEC-seq| Carbon nanotube recognition by human Siglec-14 provokes inflammation| Age-associated disparity in phagocytic clearance affects the efficacy of cancer nanotherapeutics| Molecular machines stimulate intercellular calcium waves and cause muscle contraction| Multidrug nanomedicine| Controlled adsorption of multiple bioactive proteins enables targeted mast cell nanotherapy| Virus-like structures for combination antigen protein mRNA vaccination| Filamentous phages as tumour-targeting immunotherapeutic bionanofibres| Killing cancer cells by rupturing their lysosomes| When plants and plastic interact| A universal reagent for detection of emerging diseases using bioengineered multifunctional yeast nanofragments| Augmenting insect olfaction performance through nano-neuromodulation| Liposozyme for wound healing and inflammation resolution| Ferumoxytol promotes haematopoietic stem cell post-injury regeneration as a reactive oxygen species scavenger| Electromagnetic wireless remote control of mammalian transgene expression| Nanopore-based enzyme-linked immunosorbent assay for cancer biomarker detection| Engineering pyroptotic vesicles as personalized cancer vaccines| A nanovaccine targeting cancer stem cells and bulk cancer cells for postoperative cancer immunotherapy| Nanomedicine hitchhikes on neutrophils to the inflamed lung| Mitochondrial transplantation for ischemic heart disease| Biomimetic cell stimulation with a graphene oxide antigen-presenting platform for developing T cell-based therapies| Rapid precision targeting of nanoparticles to lung via caveolae pumping system in endothelium| COVID-19 may become nanomedicine’s finest hour yet| Controlling the STING pathway to improve immunotherapy| Nanoparticles subdue antibiotic-resistant bacteria’s defences while enhancing innate immunity| Nanoparticles for inducing Gaucher disease-like damage in cancer cells| NIR-II scattering gold superclusters for intravascular optical coherence tomography molecular imaging| Size-dependent nano–bio interactions| Author Correction: Universal STING mimic boosts antitumour immunity via preferential activation of tumour control signalling pathways| Development of epistatic YES and AND protein logic gates and their assembly into signalling cascades| Long-term blood sugar control with smart insulin crystals| A modular mRNA vaccine platform encoding antigen-presenting capsid virus-like particles enhances the immunogenicity of the malaria antigen Pfs25| Tumour-derived microparticles obtained through microwave irradiation induce immunogenic cell death in lung adenocarcinoma| Degrading cancer cell mitochondria to improve T cell-mediated killing| Tailoring the adjuvanticity of lipid nanoparticles by PEG lipid ratio and phospholipid modifications| A NICER nanovaccine for cancer immunotherapy| Iron–silver-modified quantum dots act as efficient catalysts in anti-cancer multitherapy through controlled, ultrasound-induced oxidation| New guidance brings clarity to environmental hazard and behaviour testing of nanomaterials| Carbon nanotubes activate inflammatory signalling through binding to Siglec-14| Biohybrid nanoparticles for treating arthritis| Boosting dendritic cell nanovaccines| Oral insulin with reduced hypoglycaemic episodes| Publisher Correction: Oral mitochondrial transplantation using nanomotors to treat ischaemic heart disease| Synthetic syntrophy for adenine nucleotide cross-feeding between metabolically active nanoreactors| A relaxin-based nanotherapy for liver fibrosis| Cancer cells hijack T-cell mitochondria| Author Correction: Vitamin lipid nanoparticles enable adoptive macrophage transfer for the treatment of multidrug-resistant bacterial sepsis| Rerouting nanoparticles to bone marrow via neutrophil hitchhiking| Inheritable nanotubes boost bioimaging and photovoltaics in cyanobacteria| Devouring atherosclerotic plaques| Oligomer nanoparticle release from a biodegradable plastic triggers acute gut inflammation| Author Correction: Graphene oxide electrodes enable electrical stimulation of distinct calcium signalling in brain astrocytes| Acute, controlled inhalation of thin graphene oxide nanosheets in humans with null cardiorespiratory effects| Lipid nanoparticles target haematopoietic stem cells| A magneto-mechanical genetics toolbox for in vivo neuromodulation| Author Correction: Genome-wide forward genetic screening to identify receptors and proteins mediating nanoparticle uptake and intracellular processing| Author Correction: A bispecific nanosystem activates endogenous natural killer cells in the bone marrow for haematologic malignancies therapy| Author Correction: Antigen-capturing nanoparticles improve the abscopal effect and cancer immunotherapy| A deep tissue optical sensing| Improving treatment of solid cancers by nanoconjugate-mediated immune conversion of tumour cells| Author Correction: Molecular bottlebrush prodrugs as mono- and triplex combination therapies for multiple myeloma| Publisher Correction: Ceria-vesicle nanohybrid therapeutic for modulation of innate and adaptive immunity in a collagen-induced arthritis model| Nucleic acid delivery differences across species| Wireless nanomedicine for brain tumors| Nano-enabled immunomodulation| Author Correction: Precise targeting of POLR2A as a therapeutic strategy for human triple negative breast cancer| Intracerebral fate of engineered nanoparticles| Electrochemical cell in the brain| Small structural changes in siloxane-based lipidoids improve tissue-specific mRNA delivery| Organic radio-afterglow nanoprobes for cancer theranostics| Publisher Correction: Programmable multistage drug delivery to lymph nodes| Gene delivery beyond the liver| Photomechanical molecular machines enable control of cell signalling| Author Correction: Cross-species transcriptomic signatures identify mechanisms related to species sensitivity and common responses to nanomaterials| Targeting and reducing abdominal fat using polycations</v>
       </c>
-      <c r="D4" t="str">
-        <v/>
-      </c>
-      <c r="E4" t="str">
-        <v>東北大</v>
-      </c>
-      <c r="F4">
+      <c r="D4" s="1" t="str">
+        <v/>
+      </c>
+      <c r="E4" s="1" t="str">
+        <v>東北大</v>
+      </c>
+      <c r="F4" s="1" t="str">
+        <v>2023/05/01| 2020/12/19| 2024/05/27| 2021/07/04| 2024/12/07| 2025/04/06| 2024/07/26| 2020/02/14| 2023/09/03| 2024/01/01| 2021/08/02| 2023/02/14| 2021/03/06| 2025/01/01| 2025/02/13| 2021/06/01| 2023/11/23| 2022/02/12| 2020/08/12| 2022/02/08| 2025/09/13| 2022/11/26| 2025/08/10| 2023/02/01| 2024/04/21| 2023/07/08| 2025/12/26| 2024/06/19| 2023/05/24| 2024/03/27| 2023/04/09| 2021/04/19| 2020/05/07| 2023/09/18| 2022/12/31| 2021/11/04| 2024/03/02| 2023/03/06| 2025/04/13| 2025/07/29| 2023/07/30| 2024/03/17| 2021/06/28| 2023/12/13| 2022/12/03| 2023/02/13| 2024/11/20| 2023/09/12| 2025/08/31| 2025/05/07| 2024/09/29| 2020/03/01| 2023/11/13| 2024/03/22| 2022/08/14| 2023/08/06| 2021/12/09| 2024/05/02| 2020/12/13| 2024/11/08| 2024/01/12| 2024/10/11| 2020/04/24| 2021/08/04| 2025/09/17| 2023/03/10| 2020/07/29| 2020/07/12| 2023/08/20| 2024/06/03| 2020/07/07| 2022/04/15| 2020/04/18| 2024/06/17| 2021/07/16| 2023/06/08| 2020/03/30| 2024/05/09| 2023/09/05| 2024/08/04| 2021/11/14| 2025/02/14| 2022/11/21| 2021/10/09| 2024/09/28| 2025/01/06| 2021/09/06| 2024/03/24| 2021/09/20| 2022/05/15| 2024/07/13| 2021/09/18| 2022/12/10| 2021/02/27| 2021/12/23| 2024/02/03| 2022/08/19| 2022/05/04| 2020/08/26| 2025/09/09| 2020/12/26| 2024/04/13| 2023/07/16| 2023/12/07| 2024/03/18| 2022/01/16| 2024/06/27| 2025/10/27| 2025/03/31| 2024/10/17| 2025/11/09| 2024/04/01| 2020/08/01| 2020/11/29| 2023/11/17| 2024/12/05| 2024/01/07| 2023/12/21| 2023/01/28| 2022/07/18| 2025/02/26| 2024/04/07| 2022/10/17| 2020/11/23| 2024/05/11| 2023/10/11| 2023/01/16| 2021/08/27| 2023/03/28| 2022/04/25| 2022/12/21| 2020/08/16| 2020/10/25| 2020/10/31| 2024/11/06| 2020/09/27| 2024/09/26| 2022/06/11| 2024/05/01| 2023/01/31| 2022/03/07| 2021/06/05| 2024/09/21| 2021/06/22| 2022/09/12| 2023/10/21| 2024/11/30| 2021/12/15| 2020/05/08| 2025/07/01| 2022/06/05| 2025/05/11| 2023/04/30| 2022/06/24| 2023/06/15| 2025/10/23| 2023/05/26| 2025/01/16| 2020/06/27| 2022/04/12| 2023/05/06| 2023/04/29| 2021/08/24| 2023/07/04| 2025/11/25| 2024/02/10| 2021/02/25| 2025/04/09| 2021/08/30| 2020/10/23| 2020/03/14| 2021/04/27| 2023/01/21| 2024/12/25| 2022/11/03| 2020/07/25| 2022/02/05| 2020/09/01| 2025/05/19| 2020/10/05| 2024/02/29| 2022/06/27| 2022/04/21| 2024/08/11| 2023/08/01| 2024/06/07| 2020/05/12| 2024/07/08| 2021/10/12| 2022/10/06| 2025/07/26| 2023/05/16| 2021/02/17| 2021/05/22| 2025/01/12| 2022/05/12| 2020/01/27| 2021/11/12| 2023/08/14| 2023/04/02</v>
+      </c>
+      <c r="G4" s="1" t="str">
         <v>211</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="str">
+      <c r="A5" s="1" t="str">
         <v>8 バイオ応答・治療効果・送達・安全性</v>
       </c>
-      <c r="B5" t="str">
+      <c r="B5" s="1" t="str">
         <v>https://doi.org/10.1038/s41565-020-0669-6| https://doi.org/10.1038/s41565-021-00931-2| https://doi.org/10.1038/s41565-021-00898-0| https://doi.org/10.1038/s41565-021-00858-8| https://doi.org/10.1038/s41565-020-0737-y| https://doi.org/10.1038/s41565-021-00962-9| https://doi.org/10.1038/s41565-022-01082-8| https://doi.org/10.1038/s41565-020-00781-4| https://doi.org/10.1038/s41565-020-0759-5| https://doi.org/10.1038/s41565-021-00866-8| https://doi.org/10.1038/s41565-020-0719-0| https://doi.org/10.1038/s41565-020-0732-3| https://doi.org/10.1038/s41565-020-00812-0| https://doi.org/10.1038/s41565-020-0674-9| https://doi.org/10.1038/s41565-020-0751-0| https://doi.org/10.1038/s41565-021-00924-1| https://doi.org/10.1038/s41565-023-01346-x| https://doi.org/10.1038/s41565-022-01098-0| https://doi.org/10.1038/s41565-021-01000-4| https://doi.org/10.1038/s41565-020-00782-3| https://doi.org/10.1038/s41565-020-00822-y| https://doi.org/10.1038/s41565-021-00926-z| https://doi.org/10.1038/s41565-021-00976-3| https://doi.org/10.1038/s41565-020-00843-7| https://doi.org/10.1038/s41565-020-0643-3| https://doi.org/10.1038/s41565-019-0626-4| https://doi.org/10.1038/s41565-020-0693-6| https://doi.org/10.1038/s41565-019-0619-3| https://doi.org/10.1038/s41565-020-00810-2| https://doi.org/10.1038/s41565-019-0600-1| https://doi.org/10.1038/s41565-021-00856-w| https://doi.org/10.1038/s41565-020-00793-0| https://doi.org/10.1038/s41565-020-0739-9| https://doi.org/10.1038/s41565-021-00854-y| https://doi.org/10.1038/s41565-022-01125-0| https://doi.org/10.1038/s41565-020-00803-1| https://doi.org/10.1038/s41565-020-0648-y| https://doi.org/10.1038/s41565-021-01017-9| https://doi.org/10.1038/s41565-021-00929-w| https://doi.org/10.1038/s41565-020-0706-5| https://doi.org/10.1038/s41565-020-0752-z| https://doi.org/10.1038/s41565-022-01122-3| https://doi.org/10.1038/s41565-021-01018-8| https://doi.org/10.1038/s41565-022-01278-y| https://doi.org/10.1038/s41565-019-0613-9| https://doi.org/10.1038/s41565-020-00790-3| https://doi.org/10.1038/s41565-021-00982-5| https://doi.org/10.1038/s41565-021-00923-2| https://doi.org/10.1038/s41565-022-01225-x| https://doi.org/10.1038/s41565-021-00950-z| https://doi.org/10.1038/s41565-022-01134-z| https://doi.org/10.1038/s41565-023-01404-4| https://doi.org/10.1038/s41565-021-00972-7| https://doi.org/10.1038/s41565-023-01329-y| https://doi.org/10.1038/s41565-020-00844-6| https://doi.org/10.1038/s41565-022-01189-y| https://doi.org/10.1038/s41565-024-01618-0| https://doi.org/10.1038/s41565-022-01071-x| https://doi.org/10.1038/s41565-021-00971-8| https://doi.org/10.1038/s41565-023-01580-3| https://doi.org/10.1038/s41565-021-00928-x| https://doi.org/10.1038/s41565-023-01374-7| https://doi.org/10.1038/s41565-022-01129-w| https://doi.org/10.1038/s41565-022-01174-5| https://doi.org/10.1038/s41565-022-01085-5| https://doi.org/10.1038/s41565-022-01137-w| https://doi.org/10.1038/s41565-022-01177-2| https://doi.org/10.1038/s41565-023-01447-7| https://doi.org/10.1038/s41565-023-01533-w| https://doi.org/10.1038/s41565-023-01455-7| https://doi.org/10.1038/s41565-023-01553-6| https://doi.org/10.1038/s41565-022-01266-2| https://doi.org/10.1038/s41565-023-01523-y| https://doi.org/10.1038/s41565-022-01261-7| https://doi.org/10.1038/s41565-022-01296-w| https://doi.org/10.1038/s41565-023-01498-w| https://doi.org/10.1038/s41565-023-01577-y| https://doi.org/10.1038/s41565-023-01548-3| https://doi.org/10.1038/s41565-022-01310-1| https://doi.org/10.1038/s41565-024-01615-3| https://doi.org/10.1038/s41565-023-01585-y| https://doi.org/10.1038/s41565-024-01660-y| https://doi.org/10.1038/s41565-023-01409-z| https://doi.org/10.1038/s41565-023-01419-x| https://doi.org/10.1038/s41565-023-01563-4| https://doi.org/10.1038/s41565-023-01471-7| https://doi.org/10.1038/s41565-024-01754-7| https://doi.org/10.1038/s41565-023-01366-7| https://doi.org/10.1038/s41565-023-01522-z| https://doi.org/10.1038/s41565-023-01453-9| https://doi.org/10.1038/s41565-023-01333-2| https://doi.org/10.1038/s41565-023-01416-0| https://doi.org/10.1038/s41565-023-01483-3| https://doi.org/10.1038/s41565-023-01401-7| https://doi.org/10.1038/s41565-023-01392-5| https://doi.org/10.1038/s41565-024-01681-7| https://doi.org/10.1038/s41565-024-01687-1| https://doi.org/10.1038/s41565-023-01394-3| https://doi.org/10.1038/s41565-024-01785-0| https://doi.org/10.1038/s41565-024-01753-8| https://doi.org/10.1038/s41565-024-01667-5| https://doi.org/10.1038/s41565-024-01680-8| https://doi.org/10.1038/s41565-023-01572-3| https://doi.org/10.1038/s41565-024-01648-8| https://doi.org/10.1038/s41565-024-01774-3| https://doi.org/10.1038/s41565-024-01624-2| https://doi.org/10.1038/s41565-024-01784-1| https://doi.org/10.1038/s41565-023-01535-8| https://doi.org/10.1038/s41565-023-01565-2| https://doi.org/10.1038/s41565-024-01769-0| https://doi.org/10.1038/s41565-024-01683-5| https://doi.org/10.1038/s41565-024-01715-0| https://doi.org/10.1038/s41565-024-01655-9| https://doi.org/10.1038/s41565-024-01673-7| https://doi.org/10.1038/s41565-024-01613-5| https://doi.org/10.1038/s41565-024-01676-4| https://doi.org/10.1038/s41565-024-01620-6| https://doi.org/10.1038/s41565-024-01690-6| https://doi.org/10.1038/s41565-023-01562-5| https://doi.org/10.1038/s41565-024-01722-1| https://doi.org/10.1038/s41565-024-01758-3| https://doi.org/10.1038/s41565-024-01747-6| https://doi.org/10.1038/s41565-025-01870-y| https://doi.org/10.1038/s41565-024-01847-3| https://doi.org/10.1038/s41565-024-01833-9| https://doi.org/10.1038/s41565-025-01877-5| https://doi.org/10.1038/s41565-024-01851-7| https://doi.org/10.1038/s41565-025-01857-9| https://doi.org/10.1038/s41565-025-01860-0| https://doi.org/10.1038/s41565-020-00776-1| https://doi.org/10.1038/s41565-020-0679-4| https://doi.org/10.1038/s41565-020-00820-0| https://doi.org/10.1038/s41565-020-0760-z| https://doi.org/10.1038/s41565-020-0660-2| https://doi.org/10.1038/s41565-020-0761-y| https://doi.org/10.1038/s41565-020-00784-1| https://doi.org/10.1038/s41565-020-00817-9| https://doi.org/10.1038/s41565-020-00836-6| https://doi.org/10.1038/s41565-021-00897-1| https://doi.org/10.1038/s41565-019-0632-6| https://doi.org/10.1038/s41565-020-0701-x| https://doi.org/10.1038/s41565-021-00952-x| https://doi.org/10.1038/s41565-021-00997-y| https://doi.org/10.1038/s41565-020-00813-z| https://doi.org/10.1038/s41565-021-00872-w| https://doi.org/10.1038/s41565-021-00914-3| https://doi.org/10.1038/s41565-021-00920-5| https://doi.org/10.1038/s41565-021-00964-7| https://doi.org/10.1038/s41565-021-00988-z| https://doi.org/10.1038/s41565-021-01032-w| https://doi.org/10.1038/s41565-021-00980-7| https://doi.org/10.1038/s41565-021-01001-3| https://doi.org/10.1038/s41565-020-0654-0| https://doi.org/10.1038/s41565-021-00961-w| https://doi.org/10.1038/s41565-021-01048-2| https://doi.org/10.1038/s41565-022-01146-9| https://doi.org/10.1038/s41565-022-01161-w| https://doi.org/10.1038/s41565-022-01198-x| https://doi.org/10.1038/s41565-022-01086-4| https://doi.org/10.1038/s41565-022-01245-7| https://doi.org/10.1038/s41565-023-01378-3| https://doi.org/10.1038/s41565-023-01507-y| https://doi.org/10.1038/s41565-023-01381-8| https://doi.org/10.1038/s41565-023-01347-w| https://doi.org/10.1038/s41565-023-01496-y| https://doi.org/10.1038/s41565-023-01551-8| https://doi.org/10.1038/s41565-023-01393-4| https://doi.org/10.1038/s41565-023-01476-2| https://doi.org/10.1038/s41565-023-01371-w| https://doi.org/10.1038/s41565-023-01382-7| https://doi.org/10.1038/s41565-023-01514-z| https://doi.org/10.1038/s41565-023-01575-0| https://doi.org/10.1038/s41565-024-01694-2| https://doi.org/10.1038/s41565-024-01809-9| https://doi.org/10.1038/s41565-024-01609-1| https://doi.org/10.1038/s41565-024-01765-4| https://doi.org/10.1038/s41565-024-01783-2| https://doi.org/10.1038/s41565-024-01798-9| https://doi.org/10.1038/s41565-024-01757-4| https://doi.org/10.1038/s41565-024-01649-7| https://doi.org/10.1038/s41565-024-01733-y| https://doi.org/10.1038/s41565-024-01764-5| https://doi.org/10.1038/s41565-024-01803-1| https://doi.org/10.1038/s41565-024-01629-x| https://doi.org/10.1038/s41565-024-01725-y| https://doi.org/10.1038/s41565-024-01759-2| https://doi.org/10.1038/s41565-024-01727-w| https://doi.org/10.1038/s41565-024-01826-8| https://doi.org/10.1038/s41565-025-01867-7| https://doi.org/10.1038/s41565-025-01904-5| https://doi.org/10.1038/s41565-025-01878-4| https://doi.org/10.1038/s41565-025-01923-2| https://doi.org/10.1038/s41565-025-01926-z| https://doi.org/10.1038/s41565-025-01932-1| https://doi.org/10.1038/s41565-025-01924-1| https://doi.org/10.1038/s41565-025-01909-0| https://doi.org/10.1038/s41565-021-00946-9| https://doi.org/10.1038/s41565-021-00879-3| https://doi.org/10.1038/s41565-022-01249-3| https://doi.org/10.1038/s41565-022-01260-8| https://doi.org/10.1038/s41565-023-01444-w| https://doi.org/10.1038/s41565-023-01363-w| https://doi.org/10.1038/s41565-023-01502-3| https://doi.org/10.1038/s41565-023-01436-w| https://doi.org/10.1038/s41565-022-01265-3| https://doi.org/10.1038/s41565-023-01584-z| https://doi.org/10.1038/s41565-024-01679-1| https://doi.org/10.1038/s41565-024-01711-4| https://doi.org/10.1038/s41565-024-01800-4| https://doi.org/10.1038/s41565-024-01779-y| https://doi.org/10.1038/s41565-020-0639-z| https://doi.org/10.1038/s41565-020-0762-x| https://doi.org/10.1038/s41565-023-01592-z| https://doi.org/10.1038/s41565-024-01656-8| https://doi.org/10.1038/s41565-024-01736-9| https://doi.org/10.1038/s41565-025-01907-2| https://doi.org/10.1038/s41565-025-01929-w| https://doi.org/10.1038/s41565-025-01903-6| https://doi.org/10.1038/s41565-025-01931-2| https://doi.org/10.1038/s41565-025-01952-x| https://doi.org/10.1038/s41565-021-00981-6| https://doi.org/10.1038/s41565-022-01158-5| https://doi.org/10.1038/s41565-024-01678-2| https://doi.org/10.1038/s41565-024-01781-4| https://doi.org/10.1038/s41565-024-01786-z| https://doi.org/10.1038/s41565-024-01801-3| https://doi.org/10.1038/s41565-020-0663-z| https://doi.org/10.1038/s41565-021-00901-8| https://doi.org/10.1038/s41565-022-01096-2| https://doi.org/10.1038/s41565-023-01402-6| https://doi.org/10.1038/s41565-024-01637-x| https://doi.org/10.1038/s41565-024-01644-y| https://doi.org/10.1038/s41565-024-01668-4| https://doi.org/10.1038/s41565-022-01285-z| https://doi.org/10.1038/s41565-020-0757-7| https://doi.org/10.1038/s41565-021-00996-z| https://doi.org/10.1038/s41565-022-01270-6| https://doi.org/10.1038/s41565-024-01627-z| https://doi.org/10.1038/s41565-024-01761-8| https://doi.org/10.1038/s41565-020-0666-9| https://doi.org/10.1038/s41565-023-01486-0| https://doi.org/10.1038/s41565-025-01871-x| https://doi.org/10.1038/s41565-025-01925-0| https://doi.org/10.1038/s41565-025-01889-1| https://doi.org/10.1038/s41565-025-01922-3| https://doi.org/10.1038/s41565-025-01951-y| https://doi.org/10.1038/s41565-025-01928-x| https://doi.org/10.1038/s41565-025-01944-x| https://doi.org/10.1038/s41565-025-01956-7| https://doi.org/10.1038/s41565-025-01958-5| https://doi.org/10.1038/s41565-025-01953-w| https://doi.org/10.1038/s41565-025-01943-y| https://doi.org/10.1038/s41565-023-01420-4| https://doi.org/10.1038/s41565-023-01503-2| https://doi.org/10.1038/s41565-022-01089-1| https://doi.org/10.1038/s41565-023-01561-6| https://doi.org/10.1038/s41565-024-01760-9| https://doi.org/10.1038/s41565-024-01744-9| https://doi.org/10.1038/s41565-024-01811-1| https://doi.org/10.1038/s41565-020-00832-w| https://doi.org/10.1038/s41565-021-01002-2| https://doi.org/10.1038/s41565-021-01006-y| https://doi.org/10.1038/s41565-020-0677-6| https://doi.org/10.1038/s41565-020-0675-8| https://doi.org/10.1038/s41565-023-01373-8| https://doi.org/10.1038/s41565-021-01044-6| https://doi.org/10.1038/s41565-021-00909-0| https://doi.org/10.1038/s41565-022-01212-2| https://doi.org/10.1038/s41565-019-0599-3| https://doi.org/10.1038/s41565-023-01330-5| https://doi.org/10.1038/s41565-024-01797-w| https://doi.org/10.1038/s41565-021-00995-0| https://doi.org/10.1038/s41565-024-01619-z| https://doi.org/10.1038/s41565-024-01639-9| https://doi.org/10.1038/s41565-024-01682-6| https://doi.org/10.1038/s41565-024-01701-6| https://doi.org/10.1038/s41565-024-01778-z| https://doi.org/10.1038/s41565-024-01745-8| https://doi.org/10.1038/s41565-024-01796-x| https://doi.org/10.1038/s41565-021-00864-w| https://doi.org/10.1038/s41565-022-01244-8| https://doi.org/10.1038/s41565-023-01499-9| https://doi.org/10.1038/s41565-023-01568-z| https://doi.org/10.1038/s41565-021-01043-7| https://doi.org/10.1038/s41565-020-0766-6| https://doi.org/10.1038/s41565-021-01039-3| https://doi.org/10.1038/s41565-022-01188-z| https://doi.org/10.1038/s41565-020-00842-8| https://doi.org/10.1038/s41565-020-0635-3| https://doi.org/10.1038/s41565-023-01345-y| https://doi.org/10.1038/s41565-023-01531-y| https://doi.org/10.1038/s41565-020-0711-8| https://doi.org/10.1038/s41565-024-01651-z| https://doi.org/10.1038/s41565-024-01712-3| https://doi.org/10.1038/s41565-024-01749-4| https://doi.org/10.1038/s41565-024-01748-5| https://doi.org/10.1038/s41565-024-01810-2| https://doi.org/10.1038/s41565-020-0748-8| https://doi.org/10.1038/s41565-022-01139-8| https://doi.org/10.1038/s41565-022-01292-0| https://doi.org/10.1038/s41565-023-01437-9| https://doi.org/10.1038/s41565-023-01505-0| https://doi.org/10.1038/s41565-023-01546-5| https://doi.org/10.1038/s41565-022-01141-0| https://doi.org/10.1038/s41565-022-01176-3| https://doi.org/10.1038/s41565-022-01218-w| https://doi.org/10.1038/s41565-022-01250-w| https://doi.org/10.1038/s41565-022-01227-9</v>
       </c>
-      <c r="C5" t="str">
+      <c r="C5" s="1" t="str">
         <v>Selective organ targeting (SORT) nanoparticles for tissue-specific mRNA delivery and CRISPR–Cas gene editing| Extracellular vesicles as a next-generation drug delivery platform| The current landscape of nucleic acid therapeutics| Key principles and methods for studying the endocytosis of biological and nanoparticle therapeutics| COVID-19 vaccine development and a potential nanomaterial path forward| Amplifying STING activation by cyclic dinucleotide–manganese particles for local and systemic cancer metalloimmunotherapy| Nano-enabled pesticides for sustainable agriculture and global food security| A general strategy towards personalized nanovaccines based on fluoropolymers for post-surgical cancer immunotherapy| A framework for designing delivery systems| Nanotechnology approaches for global infectious diseases| Role of nanoscale antigen organization on B-cell activation probed using DNA origami| Immune-mediated approaches against COVID-19| Silica nanoparticles enhance disease resistance in Arabidopsis plants| Insights from nanomedicine into chloroquine efficacy against COVID-19| Nanotechnology-based disinfectants and sensors for SARS-CoV-2| Environmental dimensions of the protein corona| Artificial-enzymes-armed Bifidobacterium longum probiotics for alleviating intestinal inflammation and microbiota dysbiosis| A nanovaccine for antigen self-presentation and immunosuppression reversal as a personalized cancer immunotherapy strategy| Intercellular nanotubes mediate mitochondrial trafficking between cancer and immune cells| Proton-driven transformable nanovaccine for cancer immunotherapy| Nanomaterials for T-cell cancer immunotherapy| Viscoelastic surface electrode arrays to interface with viscoelastic tissues| Photothermal nanofibres enable safe engineering of therapeutic cells| Immunostimulant hydrogel for the inhibition of malignant glioma relapse post-resection| Targeted crystallization of mixed-charge nanoparticles in lysosomes induces selective death of cancer cells| Transformable peptide nanoparticles arrest HER2 signalling and cause cancer cell death in vivo| Zwitterionic micelles efficiently deliver oral insulin without opening tight junctions| Pro-efferocytic nanoparticles are specifically taken up by lesional macrophages and prevent atherosclerosis| Inducing immune tolerance with dendritic cell-targeting nanomedicines| Vitamin lipid nanoparticles enable adoptive macrophage transfer for the treatment of multidrug-resistant bacterial sepsis| Molybdenum derived from nanomaterials incorporates into molybdenum enzymes and affects their activities in vivo| A nanotherapeutic strategy to overcome chemotherapeutic resistance of cancer stem-like cells| Advances in nanomaterial vaccine strategies to address infectious diseases impacting global health| Nanotechnology to advance CRISPR–Cas genetic engineering of plants| A pyroptosis nanotuner for cancer therapy| A new strategy using nanoscale zero-valent iron to simultaneously promote remediation and safe crop production in contaminated soil| Dual-targeting nanoparticle vaccine elicits a therapeutic antibody response against chronic hepatitis B| The ancillary effects of nanoparticles and their implications for nanomedicine| Role of bacterial motility in differential resistance mechanisms of silver nanoparticles and silver ions| Guiding the design space for nanotechnology to advance sustainable crop production| Dexamethasone nanomedicines for COVID-19| Enhancing CRISPR/Cas gene editing through modulating cellular mechanical properties for cancer therapy| Nanoparticle cellular internalization is not required for RNA delivery to mature plant leaves| Highly stable, antiviral, antibacterial cotton textiles via molecular engineering| Carbon nanotubes added to the SIN List as a nanomaterial of Very High Concern| Eliciting B cell immunity against infectious diseases using nanovaccines| Nano-optogenetic engineering of CAR T cells for precision immunotherapy with enhanced safety| Cell-mimicking nanodecoys neutralize SARS-CoV-2 and mitigate lung injury in a non-human primate model of COVID-19| Zinc cyclic di-AMP nanoparticles target and suppress tumours via endothelial STING activation and tumour-associated macrophage reinvigoration| Immunogenic camptothesome nanovesicles comprising sphingomyelin-derived camptothecin bilayers for safe and synergistic cancer immunochemotherapy| Cancer immunotherapy based on image-guided STING activation by nucleotide nanocomplex-decorated ultrasound microbubbles| Adjuvant lipidoid-substituted lipid nanoparticles augment the immunogenicity of SARS-CoV-2 mRNA vaccines| T lymphocyte membrane-decorated epigenetic nanoinducer of interferons for cancer immunotherapy| Oligomer nanoparticle release from polylactic acid plastics catalysed by gut enzymes triggers acute inflammation| Photoacoustic molecular imaging-escorted adipose photodynamic–browning synergy for fighting obesity with virus-like complexes| Remotely controlled near-infrared-triggered photothermal treatment of brain tumours in freely behaving mice using gold nanostar﻿s| Photothermal therapy of tuberculosis using targeting pre-activated macrophage membrane-coated nanoparticles| Applying lessons learned from nanomedicines to understand rare hypersensitivity reactions to mRNA-based SARS-CoV-2 vaccines| Acoustically triggered mechanotherapy using genetically encoded gas vesicles| Inhalable extracellular vesicle delivery of IL-12 mRNA to treat lung cancer and promote systemic immunity| Conformation-sensitive targeting of lipid nanoparticles for RNA therapeutics| Neutrophil hitchhiking for drug delivery to the bone marrow| Characterization of nanoparticles-based vaccines for COVID-19| Nanotechnology-based strategies against SARS-CoV-2 variants| A transistor-like pH-sensitive nanodetergent for selective cancer therapy| NAD(H)-loaded nanoparticles for efficient sepsis therapy via modulating immune and vascular homeostasis| A nanomaterial targeting the spike protein captures SARS-CoV-2 variants and promotes viral elimination| Investigation of the enhanced antitumour potency of STING agonist after conjugation to polymer nanoparticles| A modular approach to enhancing cell membrane-coated nanoparticle functionality using genetic engineering| Cholesterol modulates the physiological response to nanoparticles by changing the composition of protein corona| Bacteria-derived nanovesicles enhance tumour vaccination by trained immunity| Targeting Xkr8 via nanoparticle-mediated in situ co-delivery of siRNA and chemotherapy drugs for cancer immunochemotherapy| Ceria-vesicle nanohybrid therapeutic for modulation of innate and adaptive immunity in a collagen-induced arthritis model| Targeting the activity of T cells by membrane surface redox regulation for cancer theranostics| A nanoadjuvant that dynamically coordinates innate immune stimuli activation enhances cancer immunotherapy and reduces immune cell exhaustion| Breaking through the basement membrane barrier to improve nanotherapeutic delivery to tumours| Urease-powered nanobots for radionuclide bladder cancer therapy| Combinatorial development of nebulized mRNA delivery formulations for the lungs| Molecular bottlebrush prodrugs as mono- and triplex combination therapies for multiple myeloma| Fine tuning of CpG spatial distribution with DNA origami for improved cancer vaccination| Cellular uptake and in vivo distribution of mesenchymal-stem-cell-derived extracellular vesicles are protein corona dependent| Janus liposozyme for the modulation of redox and immune homeostasis in infected diabetic wounds| Developing trends in nanomaterials and their environmental implications| Adeno-associated viral vectors for functional intravenous gene transfer throughout the non-human primate brain| Strategies for non-viral vectors targeting organs beyond the liver| Programmable multispecific DNA-origami-based T-cell engagers| A translational framework to DELIVER nanomedicines to the clinic| Proximal tubules eliminate endocytosed gold nanoparticles through an organelle-extrusion-mediated self-renewal mechanism| Entry and exit of extracellular vesicles to and from the blood circulation| Close the cancer–immunity cycle by integrating lipid nanoparticle–mRNA formulations and dendritic cell therapy| Membrane-anchored DNA nanojunctions enable closer antigen-presenting cell–T-cell contact in elevated T-cell receptor triggering| Controlled delivery of a neurotransmitter–agonist conjugate for functional recovery after severe spinal cord injury| Dynamic matrices with DNA-encoded viscoelasticity for cell and organoid culture| Cell spheroid creation by transcytotic intercellular gelation| Nano-enabled strategies to enhance biological nitrogen fixation| Oral mitochondrial transplantation using nanomotors to treat ischaemic heart disease| Resolvin D1 delivery to lesional macrophages using antioxidative black phosphorus nanosheets for atherosclerosis treatment| Hierarchical helical carbon nanotube fibre as a bone-integrating anterior cruciate ligament replacement| Direct cytosolic delivery of siRNA via cell membrane fusion using cholesterol-enriched exosomes| Designing nanotheranostics with machine learning| Towards realizing nano-enabled precision delivery in plants| Bone-marrow-homing lipid nanoparticles for genome editing in diseased and malignant haematopoietic stem cells| First-in-human controlled inhalation of thin graphene oxide nanosheets to study acute cardiorespiratory responses| Multimodal nanoimmunotherapy engages neutrophils to eliminate Staphylococcus aureus infections| Harnessing extracellular vesicle heterogeneity for diagnostic and therapeutic applications| Universal STING mimic boosts antitumour immunity via preferential activation of tumour control signalling pathways| A cuproptosis nanocapsule for cancer radiotherapy| Evidence and therapeutic implications of biomechanically regulated immunosurveillance in cancer and other diseases| Oral nanotherapeutic formulation of insulin with reduced episodes of hypoglycaemia| Polymer-locking fusogenic liposomes for glioblastoma-targeted siRNA delivery and CRISPR–Cas gene editing| Polystyrene nanoparticles trigger aberrant condensation of TDP-43 and amyotrophic lateral sclerosis-like symptoms| Multimodal smart systems reprogramme macrophages and remove urate to treat gouty arthritis| Proactive vaccination using multiviral Quartet Nanocages to elicit broad anti-coronavirus responses| A large-scale machine learning analysis of inorganic nanoparticles in preclinical cancer research| Targeting initial tumour–osteoclast spatiotemporal interaction to prevent bone metastasis| A DNA robotic switch with regulated autonomous display of cytotoxic ligand nanopatterns| Chimeric nanobody-decorated liposomes by self-assembly| Nutrient-delivery and metabolism reactivation therapy for melanoma| Nanoreceptors promote mutant p53 protein degradation by mimicking selective autophagy receptors| Oral administration of garlic-derived nanoparticles improves cancer immunotherapy by inducing intestinal IFNγ-producing γδ T cells| Metal-ion-chelating phenylalanine nanostructures reverse immune dysfunction and sensitize breast tumour to immune checkpoint blockade| Combinatorial design of siloxane-incorporated lipid nanoparticles augments intracellular processing for tissue-specific mRNA therapeutic delivery| Intracellular dehydrogenation catalysis leads to reductive stress and immunosuppression| Nature-inspired platform nanotechnology for RNA delivery to myeloid cells and their bone marrow progenitors| Chemistry, manufacturing and controls strategies for using novel excipients in lipid nanoparticles| The pathways for nanoparticle transport across tumour endothelium| Customizable virus-like particles deliver CRISPR–Cas9 ribonucleoprotein for effective ocular neovascular and Huntington’s disease gene therapy| Tandem-controlled lysosomal assembly of nanofibres induces pyroptosis for cancer immunotherapy| A bioinspired polymeric membrane-enclosed insulin crystal achieves long-term, self-regulated drug release for type 1 diabetes therapy| Advanced material modulation of nutritional and phytohormone status alleviates damage from soybean sudden death syndrome| Programmable multistage drug delivery to lymph nodes| Nanomedicine and the COVID-19 vaccines| Stand-off trapping and manipulation of sub-10 nm objects and biomolecules using opto-thermo-electrohydrodynamic tweezers| Phage capsid nanoparticles with defined ligand arrangement block influenza virus entry| Functional and morphological adaptation in DNA protocells via signal processing prompted by artificial metalloenzymes| A DNA-based voltmeter for organelles| Considerations for designing preclinical cancer immune nanomedicine studies| Hepatic macrophages act as a central hub for relaxin-mediated alleviation of liver fibrosis| Therapeutically reprogrammed nutrient signalling enhances nanoparticulate albumin bound drug uptake and efficacy in KRAS-mutant cancer| Neuronal firing modulation by a membrane-targeted photoswitch| In situ electrochemical generation of nitric oxide for neuronal modulation| Intrinsic bioactivity of black phosphorus nanomaterials on mitotic centrosome destabilization through suppression of PLK1 kinase| Supramolecular arrangement of protein in nanoparticle structures predicts nanoparticle tropism for neutrophils in acute lung inflammation| DNA scaffolds enable efficient and tunable functionalization of biomaterials for immune cell modulation| Extracellular vesicle drug occupancy enables real-time monitoring of targeted cancer therapy| Cellular binding, uptake and biotransformation of silver nanoparticles in human T lymphocytes| An antiviral trap made of protein nanofibrils and iron oxyhydroxide nanoparticles| Comprehensive framework for human health risk assessment of nanopesticides| A lysosome-targeted DNA nanodevice selectively targets macrophages to attenuate tumours| Intrapleural nano-immunotherapy promotes innate and adaptive immune responses to enhance anti-PD-L1 therapy for malignant pleural effusion| Ferritin-based targeted delivery of arsenic to diverse leukaemia types confers strong anti-leukaemia therapeutic effects| The role and impact of polyethylene glycol on anaphylactic reactions to COVID-19 nano-vaccines| Grouping all carbon nanotubes into a single substance category is scientifically unjustified| Surface-fill hydrogel attenuates the oncogenic signature of complex anatomical surface cancer in a single application| Subcutaneous nanotherapy repurposes the immunosuppressive mechanism of rapamycin to enhance allogeneic islet graft viability| Nanoparticle single-cell multiomic readouts reveal that cell heterogeneity influences lipid nanoparticle-mediated messenger RNA delivery| Nanomedicine platform for targeting activated neutrophils and neutrophil–platelet complexes using an α1-antitrypsin-derived peptide motif| Carbon nanotube uptake in cyanobacteria for near-infrared imaging and enhanced bioelectricity generation in living photovoltaics| Laser-induced nanobubbles safely ablate vitreous opacities in vivo| Immunological conversion of solid tumours using a bispecific nanobioconjugate for cancer immunotherapy| Non-invasive activation of intratumoural gene editing for improved adoptive T-cell therapy in solid tumours| Multivalent insulin receptor activation using insulin–DNA origami nanostructures| Tailoring renal-clearable zwitterionic cyclodextrin for colorectal cancer-selective drug delivery| mRNA therapy at the convergence of genetics and nanomedicine| Wireless electrical–molecular quantum signalling for cancer cell apoptosis| Intracerebral fate of organic and inorganic nanoparticles is dependent on microglial extracellular vesicle function| An ancestral molecular response to nanomaterial particulates| Electroactive membrane fusion-liposome for increased electron transfer to enhance radiodynamic therapy| Active ingredient vs excipient debate for nanomedicines| Artificial intelligence assists nanoparticles to enter solid tumours| Inhibition of acute complement responses towards bolus-injected nanoparticles using targeted short-circulating regulatory proteins| Nanosensor detection of reactive oxygen and nitrogen species leakage in frustrated phagocytosis of nanofibres| In vivo magnetogenetics for cell-type-specific targeting and modulation of brain circuits| A cascade X-ray energy converting approach toward radio-afterglow cancer theranostics| Mechanical stimulation and electrophysiological monitoring at subcellular resolution reveals differential mechanosensation of neurons within networks| Acid-degradable lipid nanoparticles enhance the delivery of mRNA| Non-discriminating engineered masking of immuno-evasive ligands on tumour-derived extracellular vesicles enhances tumour vaccination outcomes| Magnetoelectric nanodiscs enable wireless transgene-free neuromodulation| Photobleaching-mediated charge-convertible cyclodextrin nanoparticles achieve deep tumour penetration for rectal cancer theranostics| Functionalized nanowires for miRNA-mediated therapeutic programming of naïve T cells| An artificial metabzyme for tumour-cell-specific metabolic therapy| An orally administered glucose-responsive polymeric complex for high-efficiency and safe delivery of insulin in mice and pigs| Targeted intervention in nerve–cancer crosstalk enhances pancreatic cancer chemotherapy| Genome-wide forward genetic screening to identify receptors and proteins mediating nanoparticle uptake and intracellular processing| Magnetic-field-driven targeting of exosomes modulates immune and metabolic changes in dystrophic muscle| Synthetic polypeptides inhibit nucleic acid-induced inflammation in autoimmune diseases by disrupting multivalent TLR9 binding to LL37-DNA bundles| Polymersomes with splenic avidity target red pulp myeloid cells for cancer immunotherapy| Autophagosomes coated in situ with nanodots act as personalized cancer vaccines| Systemic HER3 ligand-mimicking nanobioparticles enter the brain and reduce intracranial tumour growth| An orally administered gene editing nanoparticle boosts chemo-immunotherapy in colorectal cancer| Gold-modified nanoporous silicon for photoelectrochemical regulation of intracellular condensates| Nanofabrication of silk microneedles for high-throughput micronutrient delivery and continuous sap monitoring in plants| Balancing stealth and targeting to improve nanomedicine efficacy| Analysis of multi-drug cancer nanomedicine| A collagenase nanogel backpack improves CAR-T cell therapy outcomes in pancreatic cancer| Nanoinducer-mediated mitochondria-selective degradation enhances T cell immunotherapy against multiple cancers| Reasons for success and lessons learnt from nanoscale vaccines against COVID-19| Conformable hierarchically engineered polymeric micromeshes enabling combinatorial therapies in brain tumours| Selective targeting of visceral adiposity by polycation nanomedicine| Graphene oxide elicits microbiome-dependent type 2 immune responses via the aryl hydrocarbon receptor| Transport by circulating myeloid cells drives liposomal accumulation in inflamed synovium| Carbon nanotube recognition by human Siglec-14 provokes inflammation| Age-associated disparity in phagocytic clearance affects the efficacy of cancer nanotherapeutics| Molecular machines stimulate intercellular calcium waves and cause muscle contraction| Multidrug nanomedicine| Controlled adsorption of multiple bioactive proteins enables targeted mast cell nanotherapy| Virus-like structures for combination antigen protein mRNA vaccination| Graphene oxide electrodes enable electrical stimulation of distinct calcium signalling in brain astrocytes| Filamentous phages as tumour-targeting immunotherapeutic bionanofibres| DNA microbeads for spatio-temporally controlled morphogen release within organoids| Killing cancer cells by rupturing their lysosomes| When plants and plastic interact| Augmenting insect olfaction performance through nano-neuromodulation| Liposozyme for wound healing and inflammation resolution| A bispecific nanosystem activates endogenous natural killer cells in the bone marrow for haematologic malignancies therapy| Ferumoxytol promotes haematopoietic stem cell post-injury regeneration as a reactive oxygen species scavenger| Electromagnetic wireless remote control of mammalian transgene expression| Discovering nanoparticle corona ligands for liver macrophage capture| Engineering pyroptotic vesicles as personalized cancer vaccines| A nanovaccine targeting cancer stem cells and bulk cancer cells for postoperative cancer immunotherapy| Nanomedicine hitchhikes on neutrophils to the inflamed lung| The start-ups taking nanoneedles into the clinic| Mitochondrial transplantation for ischemic heart disease| Biomimetic cell stimulation with a graphene oxide antigen-presenting platform for developing T cell-based therapies| Rapid precision targeting of nanoparticles to lung via caveolae pumping system in endothelium| Targeted protein degradation via cellular trafficking of nanoparticles| Targeting immune cells within lymph nodes| COVID-19 may become nanomedicine’s finest hour yet| Cross-species transcriptomic signatures identify mechanisms related to species sensitivity and common responses to nanomaterials| Nanotechnology for coral reef conservation, restoration and rehabilitation| Controlling the STING pathway to improve immunotherapy| Nanoparticles subdue antibiotic-resistant bacteria’s defences while enhancing innate immunity| Nanoparticles for inducing Gaucher disease-like damage in cancer cells| DNA double helix, a tiny electromotor| Nanotechnology versus coronavirus| Size-dependent nano–bio interactions| The potential impact of nanomedicine on COVID-19-induced thrombosis| The intersection of bottom-up synthetic cell engineering and nanobiotechnology| Author Correction: Universal STING mimic boosts antitumour immunity via preferential activation of tumour control signalling pathways| Nanotechnology for organ-tunable gene editing| The Cancer Moonshot, the role of in vitro models, model accuracy, and the need for validation| Long-term blood sugar control with smart insulin crystals| Better the devil you know than the devil you don’t — PEG challenges in nanomedicine| A modular mRNA vaccine platform encoding antigen-presenting capsid virus-like particles enhances the immunogenicity of the malaria antigen Pfs25| Tumour-derived microparticles obtained through microwave irradiation induce immunogenic cell death in lung adenocarcinoma| The benefits and risks of PEGylation in nanomedicine| Degrading cancer cell mitochondria to improve T cell-mediated killing| In vivo transformations of positively charged nanoparticles alter the formation and function of RuBisCO photosynthetic protein corona| Encoding molecular transport into DNA condensates| Tailoring the adjuvanticity of lipid nanoparticles by PEG lipid ratio and phospholipid modifications| A NICER nanovaccine for cancer immunotherapy| Iron–silver-modified quantum dots act as efficient catalysts in anti-cancer multitherapy through controlled, ultrasound-induced oxidation| Carbon nanotubes activate inflammatory signalling through binding to Siglec-14| Biohybrid nanoparticles for treating arthritis| Boosting dendritic cell nanovaccines| Oral insulin with reduced hypoglycaemic episodes| Publisher Correction: Oral mitochondrial transplantation using nanomotors to treat ischaemic heart disease| Bottom-up synthetic immunology| Synthetic syntrophy for adenine nucleotide cross-feeding between metabolically active nanoreactors| A relaxin-based nanotherapy for liver fibrosis| A DNA nanodevice boosts tumour immunity| Cancer cells hijack T-cell mitochondria| Notes on environmental nanoscience| Author Correction: Vitamin lipid nanoparticles enable adoptive macrophage transfer for the treatment of multidrug-resistant bacterial sepsis| Rerouting nanoparticles to bone marrow via neutrophil hitchhiking| Questions about the role of P3HT nanoparticles in retinal stimulation| Nanotechnology for infectious diseases| Inheritable nanotubes boost bioimaging and photovoltaics in cyanobacteria| Devouring atherosclerotic plaques| Oligomer nanoparticle release from a biodegradable plastic triggers acute gut inflammation| Author Correction: Graphene oxide electrodes enable electrical stimulation of distinct calcium signalling in brain astrocytes| The rise of nanoagrochemicals| Author Correction: Dynamic matrices with DNA-encoded viscoelasticity for cell and organoid culture| Acute, controlled inhalation of thin graphene oxide nanosheets in humans with null cardiorespiratory effects| Lipid nanoparticles target haematopoietic stem cells| A magneto-mechanical genetics toolbox for in vivo neuromodulation| Author Correction: Genome-wide forward genetic screening to identify receptors and proteins mediating nanoparticle uptake and intracellular processing| A photo-controlled charge regulator improves cancer theranostics| Author Correction: A bispecific nanosystem activates endogenous natural killer cells in the bone marrow for haematologic malignancies therapy| Author Correction: Antigen-capturing nanoparticles improve the abscopal effect and cancer immunotherapy| Improving treatment of solid cancers by nanoconjugate-mediated immune conversion of tumour cells| Author Correction: Molecular bottlebrush prodrugs as mono- and triplex combination therapies for multiple myeloma| Publisher Correction: Ceria-vesicle nanohybrid therapeutic for modulation of innate and adaptive immunity in a collagen-induced arthritis model| Reply to: Questions about the role of P3HT nanoparticles in retinal stimulation| Nano for agriculture, not the opposite| Nucleic acid delivery differences across species| Wireless nanomedicine for brain tumors| Nano-enabled immunomodulation| Author Correction: Precise targeting of POLR2A as a therapeutic strategy for human triple negative breast cancer| Intracerebral fate of engineered nanoparticles| Electrochemical cell in the brain| Nanowires engineer naive T cells for immunotherapy| Selective stimulation of calcium signalling pathways in astrocytes with graphene electrodes| DNA nanoswitches pack an anti-cancer punch| Small structural changes in siloxane-based lipidoids improve tissue-specific mRNA delivery| Organic radio-afterglow nanoprobes for cancer theranostics| Publisher Correction: Programmable multistage drug delivery to lymph nodes| Publisher Correction: A transistor-like pH-sensitive nanodetergent for selective cancer therapy| Gene delivery beyond the liver| Photomechanical molecular machines enable control of cell signalling| Author Correction: Membrane-anchored DNA nanojunctions enable closer antigen-presenting cell–T-cell contact in elevated T-cell receptor triggering| Soft high-density neural probes enable stable single-neuron recordings| Author Correction: Reasons for success and lessons learnt from nanoscale vaccines against COVID-19| Author Correction: Cross-species transcriptomic signatures identify mechanisms related to species sensitivity and common responses to nanomaterials| Riboswitch nanocarriers for adenine rescue metabolic disease phenotypes| Targeting and reducing abdominal fat using polycations| Using engineered nanoparticles to increase carbon dioxide storage in the ocean</v>
       </c>
-      <c r="D5" t="str">
-        <v/>
-      </c>
-      <c r="E5" t="str">
-        <v>東北大</v>
-      </c>
-      <c r="F5">
+      <c r="D5" s="1" t="str">
+        <v/>
+      </c>
+      <c r="E5" s="1" t="str">
+        <v>東北大</v>
+      </c>
+      <c r="F5" s="1" t="str">
+        <v>2023/05/01| 2020/12/19| 2025/01/29| 2023/02/06| 2023/03/27| 2025/02/12| 2020/07/07| 2024/05/27| 2024/12/03| 2025/08/05| 2024/11/01| 2022/09/20| 2021/07/04| 2022/06/14| 2024/12/07| 2024/10/06| 2025/04/06| 2024/07/26| 2025/02/13| 2020/02/14| 2021/07/10| 2023/09/03| 2025/11/16| 2024/01/01| 2021/11/13| 2021/08/02| 2023/02/14| 2021/03/06| 2025/01/01| 2021/06/01| 2023/11/23| 2022/02/12| 2020/02/08| 2020/08/12| 2022/02/08| 2020/02/04| 2020/08/04| 2024/01/07| 2025/03/14| 2022/11/26| 2022/07/16| 2021/11/05| 2024/04/08| 2022/07/23| 2023/02/01| 2024/04/21| 2023/07/08| 2025/12/26| 2024/06/19| 2023/05/24| 2024/03/27| 2023/04/09| 2024/01/18| 2021/04/19| 2020/05/07| 2023/09/18| 2025/01/31| 2022/12/31| 2021/11/04| 2024/03/02| 2023/03/06| 2020/01/24| 2025/04/13| 2020/12/24| 2023/07/30| 2024/03/17| 2021/06/28| 2023/12/13| 2023/08/12| 2022/12/03| 2023/02/13| 2024/11/20| 2023/09/12| 2025/08/31| 2020/06/05| 2025/05/07| 2024/03/24| 2024/09/29| 2022/10/23| 2022/09/27| 2020/03/01| 2023/08/15| 2021/04/12| 2023/11/13| 2020/05/12| 2024/03/22| 2022/08/14| 2020/03/03| 2023/08/06| 2020/09/01| 2022/09/17| 2021/12/09| 2024/05/02| 2020/12/13| 2024/11/08| 2024/10/11| 2024/12/15| 2023/03/07| 2020/04/24| 2021/08/04| 2025/09/17| 2020/04/04| 2023/03/10| 2020/07/29| 2020/07/12| 2023/08/20| 2024/06/03| 2023/03/12| 2022/04/15| 2020/09/05| 2020/04/18| 2023/02/24| 2020/01/29| 2020/07/11| 2024/06/17| 2021/07/16| 2023/06/08| 2020/03/30| 2022/01/18| 2022/07/12| 2022/05/19| 2025/04/19| 2024/05/09| 2023/09/05| 2024/08/04| 2021/11/14| 2021/11/19| 2025/01/22| 2021/03/21| 2025/02/14| 2022/11/21| 2022/03/16| 2024/09/28| 2025/01/06| 2021/09/06| 2021/08/15| 2021/09/20| 2022/05/01| 2022/08/31| 2023/03/01| 2023/01/30| 2025/02/18| 2024/01/20| 2024/07/13| 2022/12/10| 2023/12/09| 2025/09/21| 2021/02/27| 2021/12/23| 2024/01/12| 2022/07/28| 2024/02/03| 2024/09/03| 2022/08/19| 2022/05/04| 2020/05/14| 2020/08/26| 2023/06/15| 2025/09/09| 2022/03/03| 2023/07/16| 2022/06/27| 2023/12/07| 2024/03/18| 2022/01/16| 2024/06/27| 2021/01/18| 2025/10/27| 2025/03/31| 2024/10/17| 2024/04/01| 2022/06/26| 2020/08/01| 2020/11/29| 2023/11/17| 2024/12/05| 2023/12/21| 2025/02/26| 2024/04/07| 2022/10/17| 2024/11/24| 2020/11/23| 2024/05/11| 2023/10/11| 2023/01/16| 2020/09/06| 2020/10/01| 2021/08/27| 2023/03/28| 2022/04/25| 2020/08/16| 2020/10/25| 2020/10/31| 2024/11/06| 2020/09/27| 2024/09/26| 2021/12/10| 2022/06/11| 2020/01/09| 2024/05/01| 2023/01/31| 2021/06/05| 2024/09/21| 2022/02/17| 2021/06/22| 2022/09/12| 2021/11/28| 2024/11/30| 2021/12/15| 2020/05/08| 2025/07/30| 2025/07/01| 2022/06/05| 2025/05/11| 2024/02/09| 2025/05/27| 2023/04/30| 2022/12/16| 2025/05/08| 2022/06/24| 2025/10/23| 2020/03/11| 2021/01/19| 2023/05/26| 2022/06/17| 2022/06/30| 2025/01/16| 2020/08/20| 2024/06/06| 2022/04/12| 2020/02/21| 2023/05/06| 2023/04/29| 2021/02/20| 2020/12/05| 2020/10/07| 2021/08/24| 2023/07/04| 2025/11/25| 2021/02/25| 2025/04/09| 2021/08/30| 2020/10/23| 2020/03/14| 2020/12/27| 2021/04/27| 2025/03/01| 2023/01/21| 2024/12/25| 2024/02/14| 2022/11/03| 2020/07/25| 2022/02/05| 2022/06/15| 2025/05/19| 2020/10/05| 2024/02/29| 2020/11/20| 2022/04/21| 2023/08/01| 2024/06/07| 2024/01/03| 2023/08/17| 2024/07/08| 2021/10/12| 2022/10/06| 2025/07/26| 2023/05/16| 2021/02/17| 2022/06/03| 2025/02/24| 2021/05/22| 2025/01/12| 2022/05/12| 2020/01/27| 2021/11/12| 2020/05/10| 2022/04/22| 2023/06/19| 2023/08/14| 2022/10/15| 2023/04/02| 2023/12/28</v>
+      </c>
+      <c r="G5" s="1" t="str">
         <v>308</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="str">
+      <c r="A6" s="1" t="str">
         <v>8 メモリ・電子デバイス・半導体素子</v>
       </c>
-      <c r="B6" t="str">
+      <c r="B6" s="1" t="str">
         <v>https://doi.org/10.1038/s41565-020-0655-z| https://doi.org/10.1038/s41565-020-0647-z| https://doi.org/10.1038/s41565-021-01009-9| https://doi.org/10.1038/s41565-020-0700-y| https://doi.org/10.1038/s41565-021-00882-8| https://doi.org/10.1038/s41565-020-00828-6| https://doi.org/10.1038/s41565-023-01491-3| https://doi.org/10.1038/s41565-023-01332-3| https://doi.org/10.1038/s41565-025-01888-2| https://doi.org/10.1038/s41565-025-01894-4| https://doi.org/10.1038/s41565-020-00816-w| https://doi.org/10.1038/s41565-021-01038-4| https://doi.org/10.1038/s41565-022-01280-4| https://doi.org/10.1038/s41565-023-01451-x| https://doi.org/10.1038/s41565-023-01368-5| https://doi.org/10.1038/s41565-024-01729-8| https://doi.org/10.1038/s41565-024-01817-9| https://doi.org/10.1038/s41565-025-01864-w| https://doi.org/10.1038/s41565-021-01040-w| https://doi.org/10.1038/s41565-023-01369-4| https://doi.org/10.1038/s41565-023-01370-x| https://doi.org/10.1038/s41565-021-00925-0| https://doi.org/10.1038/s41565-024-01677-3| https://doi.org/10.1038/s41565-025-01874-8| https://doi.org/10.1038/s41565-022-01291-1| https://doi.org/10.1038/s41565-024-01697-z| https://doi.org/10.1038/s41565-020-0756-8| https://doi.org/10.1038/s41565-021-00943-y| https://doi.org/10.1038/s41565-025-01891-7| https://doi.org/10.1038/s41565-025-01942-z| https://doi.org/10.1038/s41565-025-01970-9| https://doi.org/10.1038/s41565-025-01987-0| https://doi.org/10.1038/s41565-021-01037-5| https://doi.org/10.1038/s41565-024-01638-w| https://doi.org/10.1038/s41565-024-01659-5| https://doi.org/10.1038/s41565-023-01358-7| https://doi.org/10.1038/s41565-023-01389-0| https://doi.org/10.1038/s41565-022-01298-8| https://doi.org/10.1038/s41565-022-01191-4| https://doi.org/10.1038/s41565-024-01603-7| https://doi.org/10.1038/s41565-023-01511-2| https://doi.org/10.1038/s41565-021-00891-7</v>
       </c>
-      <c r="C6" t="str">
+      <c r="C6" s="1" t="str">
         <v>Memory devices and applications for in-memory computing| Neuromorphic nanoelectronic materials| Supercurrent rectification and magnetochiral effects in symmetric Josephson junctions| Flexoelectronics of centrosymmetric semiconductors| Electrical tuning of phase-change antennas and metasurfaces| Ultrafast hole spin qubit with gate-tunable spin–orbit switch functionality| Shared control of a 16 semiconductor quantum dot crossbar array| Strong coupling between a photon and a hole spin in silicon| Time-resolved sensing of electromagnetic fields with single-electron interferometry| Enhanced Majorana stability in a three-site Kitaev chain| Coherent control of individual electron spins in a two-dimensional quantum dot array| Fully integrated parity–time-symmetric electronics| On-demand electrical control of spin qubits| Sign reversal of the Josephson inductance magnetochiral anisotropy and 0–π-like transitions in supercurrent diodes| Coulomb-mediated antibunching of an electron pair surfing on sound| Single-cavity loss-enabled nanometrology| Universal control of four singlet–triplet qubits| Nanopore discrimination of rare earth elements| Three-dimensional transistor arrays for intra- and inter-cellular recording| Time-resolved Coulomb collision of single electrons| Two electrons interacting at a mesoscopic beam splitter| Quantum tomography of an entangled three-qubit state in silicon| Vacuum levitation and motion control on chip| Quantum-enabled microwave-to-optical transduction via silicon nanomechanics| Achieving nanoscale precision using neuromorphic localization microscopy| Very-large-scale integrated high quality factor nanoantenna pixels| Publisher Correction: Memory devices and applications for in-memory computing| Scalable massively parallel computing using continuous-time data representation in nanoscale crossbar array| Nanopores take on the challenge of rare-earth detection| Shuttling arrives for silicon quantum computers| Vortex lasers through collective boundary scattering| Quantum could be key for financial security| The path to scalable quantum computing with silicon spin qubits| Topographic fingerprinting of single proteins and proteoforms| Gentler, nanoscale ion implantation| Bipolar flash for bifunctional computing operations| Interacting electrons collide at a beam splitter| Highly tunable ultrafast control of a spin qubit| Quantum simulator comes in pairs| High-fidelity initialization and control of multiple nuclear spin qubits in silicon| A tunable two-dimensional crossbar array comprising 16 quantum dots| Memristors get the hues</v>
       </c>
-      <c r="D6" t="str">
-        <v/>
-      </c>
-      <c r="E6" t="str">
-        <v/>
-      </c>
-      <c r="F6">
+      <c r="D6" s="1" t="str">
+        <v/>
+      </c>
+      <c r="E6" s="1" t="str">
+        <v/>
+      </c>
+      <c r="F6" s="1" t="str">
+        <v>2022/01/25| 2021/04/10| 2020/09/12| 2025/06/06| 2021/04/22| 2023/01/08| 2024/09/11| 2021/11/17| 2025/04/02| 2020/04/20| 2025/04/25| 2025/01/31| 2022/02/21| 2025/01/17| 2021/02/02| 2020/10/30| 2023/07/04| 2025/08/28| 2021/02/13| 2023/10/18| 2021/10/20| 2022/09/07| 2025/01/24| 2025/09/24| 2021/09/30| 2023/02/25| 2022/12/12| 2025/07/17| 2025/06/24| 2024/09/22| 2023/08/07| 2025/07/15| 2021/04/23| 2023/04/05| 2025/03/27| 2023/12/22| 2024/08/25| 2025/12/13| 2023/11/03| 2024/08/10| 2024/02/22| 2021/09/11</v>
+      </c>
+      <c r="G6" s="1" t="str">
         <v>42</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="str">
+      <c r="A7" s="1" t="str">
         <v>8 デバイス動作・システムレベル評価・応用</v>
       </c>
-      <c r="B7" t="str">
+      <c r="B7" s="1" t="str">
         <v>https://doi.org/10.1038/s41565-020-0655-z| https://doi.org/10.1038/s41565-020-0724-3| https://doi.org/10.1038/s41565-020-0673-x| https://doi.org/10.1038/s41565-021-01003-1| https://doi.org/10.1038/s41565-021-00903-6| https://doi.org/10.1038/s41565-020-0683-8| https://doi.org/10.1038/s41565-020-0722-5| https://doi.org/10.1038/s41565-020-0641-5| https://doi.org/10.1038/s41565-022-01153-w| https://doi.org/10.1038/s41565-020-00788-x| https://doi.org/10.1038/s41565-021-00874-8| https://doi.org/10.1038/s41565-023-01343-0| https://doi.org/10.1038/s41565-022-01095-3| https://doi.org/10.1038/s41565-022-01099-z| https://doi.org/10.1038/s41565-023-01339-w| https://doi.org/10.1038/s41565-024-01636-y| https://doi.org/10.1038/s41565-024-01658-6| https://doi.org/10.1038/s41565-024-01790-3| https://doi.org/10.1038/s41565-024-01794-z| https://doi.org/10.1038/s41565-021-01041-9| https://doi.org/10.1038/s41565-023-01452-w| https://doi.org/10.1038/s41565-023-01515-y| https://doi.org/10.1038/s41565-023-01391-6| https://doi.org/10.1038/s41565-024-01853-5| https://doi.org/10.1038/s41565-021-01040-w| https://doi.org/10.1038/s41565-023-01357-8| https://doi.org/10.1038/s41565-020-00838-4| https://doi.org/10.1038/s41565-023-01387-2| https://doi.org/10.1038/s41565-025-01856-w| https://doi.org/10.1038/s41565-025-01874-8| https://doi.org/10.1038/s41565-021-00934-z| https://doi.org/10.1038/s41565-022-01243-9| https://doi.org/10.1038/s41565-024-01611-7| https://doi.org/10.1038/s41565-021-00932-1| https://doi.org/10.1038/s41565-024-01772-5| https://doi.org/10.1038/s41565-020-0756-8| https://doi.org/10.1038/s41565-021-00943-y| https://doi.org/10.1038/s41565-025-01942-z| https://doi.org/10.1038/s41565-025-01973-6| https://doi.org/10.1038/s41565-025-01987-0| https://doi.org/10.1038/s41565-024-01662-w| https://doi.org/10.1038/s41565-022-01077-5| https://doi.org/10.1038/s41565-023-01590-1| https://doi.org/10.1038/s41565-019-0627-3| https://doi.org/10.1038/s41565-022-01094-4| https://doi.org/10.1038/s41565-023-01358-7| https://doi.org/10.1038/s41565-022-01300-3| https://doi.org/10.1038/s41565-024-01700-7| https://doi.org/10.1038/s41565-024-01837-5| https://doi.org/10.1038/s41565-022-01315-w| https://doi.org/10.1038/s41565-022-01239-5| https://doi.org/10.1038/s41565-022-01251-9| https://doi.org/10.1038/s41565-021-00891-7</v>
       </c>
-      <c r="C7" t="str">
+      <c r="C7" s="1" t="str">
         <v>Memory devices and applications for in-memory computing| Two-dimensional materials for next-generation computing technologies| MOF water harvesters| All-in-one two-dimensional retinomorphic hardware device for motion detection and recognition| Bilayer of polyelectrolyte films for spontaneous power generation in air up to an integrated 1,000 V output| Efficient, fast and reabsorption-free perovskite nanocrystal-based sensitized plastic scintillators| Power-efficient neural network with artificial dendrites| Power generation by reverse electrodialysis in a single-layer nanoporous membrane made from core–rim polycyclic aromatic hydrocarbons| Ultra-low-energy programmable non-volatile silicon photonics based on phase-change materials with graphene heaters| Permselective metal–organic framework gel membrane enables long-life cycling of rechargeable organic batteries| Energy-efficient Mott activation neuron for full-hardware implementation of neural networks| An in-memory computing architecture based on a duplex two-dimensional material structure for in situ machine learning| Phase-change memtransistive synapses for mixed-plasticity neural computations| Light-driven microdrones| An ultrafast bipolar flash memory for self-activated in-memory computing| Highly efficient vortex generation at the nanoscale| Phase-separated porous nanocomposite with ultralow percolation threshold for wireless bioelectronics| Linearly programmable two-dimensional halide perovskite memristor arrays for neuromorphic computing| Fully integrated multi-mode optoelectronic memristor array for diversified in-sensor computing| Full-bandwidth electrophysiology of seizures and epileptiform activity enabled by flexible graphene microtransistor depth neural probes| Multilayer spintronic neural networks with radiofrequency connections| An integrated microwave-to-optics interface for scalable quantum computing| Atomically thin optomemristive feedback neurons| Grover’s algorithm in a four-qubit silicon processor above the fault-tolerant threshold| Three-dimensional transistor arrays for intra- and inter-cellular recording| In-memory factorization of holographic perceptual representations| An atomic Boltzmann machine capable of self-adaption| Floating solar hydrogen production| Nanotech powers on-chip intelligence| Quantum-enabled microwave-to-optical transduction via silicon nanomechanics| Preventing colour fading in artworks with graphene veils| A room-temperature polarization-sensitive CMOS terahertz camera based on quantum-dot-enhanced terahertz-to-visible photon upconversion| Wireless real-time monitoring of oestradiol in sweat| Ultra-fast non-volatile memory| Nanotechnology solutions for the climate crisis| Publisher Correction: Memory devices and applications for in-memory computing| Scalable massively parallel computing using continuous-time data representation in nanoscale crossbar array| Shuttling arrives for silicon quantum computers| Event-driven retinomorphic photodiode with bio-plausible temporal dynamics| Quantum could be key for financial security| Actively tunable laser action in GeSn nanomechanical oscillators| Reply to: Detectivities of WS2/HfS2 heterojunctions| An optical imager that can compute| A fresh look at desalination| Microdrones soar by recoiling light| Bipolar flash for bifunctional computing operations| Lithium-metal batteries working under realistic conditions| Topologically protected edge states for neuromorphic computing| Solar cells for stored energy| Author Correction: Combating fogging with selective sunlight nano-absorbers| Graphene amplifier reaches the quantum limit| Using quantum dots to produce a CMOS terahertz camera and polarimeter| Memristors get the hues</v>
       </c>
-      <c r="D7" t="str">
-        <v/>
-      </c>
-      <c r="E7" t="str">
-        <v/>
-      </c>
-      <c r="F7">
+      <c r="D7" s="1" t="str">
+        <v/>
+      </c>
+      <c r="E7" s="1" t="str">
+        <v/>
+      </c>
+      <c r="F7" s="1" t="str">
+        <v>2022/01/25| 2023/03/03| 2023/05/17| 2024/05/31| 2022/05/16| 2025/08/16| 2021/07/27| 2024/01/19| 2025/12/30| 2022/11/03| 2022/10/25| 2025/02/06| 2020/02/16| 2025/10/11| 2024/07/15| 2023/01/11| 2023/10/10| 2020/05/07| 2021/03/20| 2022/07/31| 2025/03/06| 2021/07/02| 2024/07/13| 2021/04/29| 2021/02/13| 2020/10/23| 2025/10/22| 2024/05/05| 2024/01/25| 2025/09/24| 2020/09/02| 2021/08/20| 2020/01/09| 2025/05/14| 2024/07/28| 2022/12/12| 2025/07/17| 2024/09/22| 2021/08/19| 2025/07/15| 2024/05/03| 2021/02/23| 2025/12/08| 2022/05/13| 2021/04/14| 2023/12/22| 2021/08/28| 2024/11/14| 2020/09/30| 2020/10/13| 2025/07/30| 2022/02/01| 2021/09/11</v>
+      </c>
+      <c r="G7" s="1" t="str">
         <v>53</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="str">
+      <c r="A8" s="1" t="str">
         <v>1 電気・電子・論理・量子デバイス性能</v>
       </c>
-      <c r="B8" t="str">
+      <c r="B8" s="1" t="str">
         <v>https://doi.org/10.1038/s41565-020-0655-z| https://doi.org/10.1038/s41565-020-0724-3| https://doi.org/10.1038/s41565-020-0647-z| https://doi.org/10.1038/s41565-020-00800-4| https://doi.org/10.1038/s41565-020-00831-x| https://doi.org/10.1038/s41565-021-00881-9| https://doi.org/10.1038/s41565-020-00787-y| https://doi.org/10.1038/s41565-022-01168-3| https://doi.org/10.1038/s41565-021-00903-6| https://doi.org/10.1038/s41565-021-01009-9| https://doi.org/10.1038/s41565-021-01004-0| https://doi.org/10.1038/s41565-020-0700-y| https://doi.org/10.1038/s41565-021-00882-8| https://doi.org/10.1038/s41565-022-01072-w| https://doi.org/10.1038/s41565-023-01379-2| https://doi.org/10.1038/s41565-020-00789-w| https://doi.org/10.1038/s41565-022-01228-8| https://doi.org/10.1038/s41565-020-0722-5| https://doi.org/10.1038/s41565-020-0694-5| https://doi.org/10.1038/s41565-022-01110-7| https://doi.org/10.1038/s41565-021-00921-4| https://doi.org/10.1038/s41565-021-00904-5| https://doi.org/10.1038/s41565-022-01108-1| https://doi.org/10.1038/s41565-021-00966-5| https://doi.org/10.1038/s41565-021-01062-4| https://doi.org/10.1038/s41565-022-01102-7| https://doi.org/10.1038/s41565-020-00839-3| https://doi.org/10.1038/s41565-019-0623-7| https://doi.org/10.1038/s41565-020-0641-5| https://doi.org/10.1038/s41565-022-01153-w| https://doi.org/10.1038/s41565-022-01113-4| https://doi.org/10.1038/s41565-021-00965-6| https://doi.org/10.1038/s41565-023-01541-w| https://doi.org/10.1038/s41565-020-00828-6| https://doi.org/10.1038/s41565-023-01361-y| https://doi.org/10.1038/s41565-023-01375-6| https://doi.org/10.1038/s41565-021-01019-7| https://doi.org/10.1038/s41565-023-01457-5| https://doi.org/10.1038/s41565-021-00994-1| https://doi.org/10.1038/s41565-022-01308-9| https://doi.org/10.1038/s41565-023-01354-x| https://doi.org/10.1038/s41565-021-00874-8| https://doi.org/10.1038/s41565-022-01257-3| https://doi.org/10.1038/s41565-023-01343-0| https://doi.org/10.1038/s41565-023-01446-8| https://doi.org/10.1038/s41565-023-01441-z| https://doi.org/10.1038/s41565-022-01131-2| https://doi.org/10.1038/s41565-023-01491-3| https://doi.org/10.1038/s41565-023-01342-1| https://doi.org/10.1038/s41565-022-01095-3| https://doi.org/10.1038/s41565-024-01695-1| https://doi.org/10.1038/s41565-022-01160-x| https://doi.org/10.1038/s41565-023-01460-w| https://doi.org/10.1038/s41565-023-01497-x| https://doi.org/10.1038/s41565-022-01099-z| https://doi.org/10.1038/s41565-022-01151-y| https://doi.org/10.1038/s41565-023-01520-1| https://doi.org/10.1038/s41565-022-01246-6| https://doi.org/10.1038/s41565-024-01652-y| https://doi.org/10.1038/s41565-023-01325-2| https://doi.org/10.1038/s41565-023-01339-w| https://doi.org/10.1038/s41565-022-01282-2| https://doi.org/10.1038/s41565-024-01705-2| https://doi.org/10.1038/s41565-024-01658-6| https://doi.org/10.1038/s41565-024-01790-3| https://doi.org/10.1038/s41565-023-01581-2| https://doi.org/10.1038/s41565-024-01633-1| https://doi.org/10.1038/s41565-024-01702-5| https://doi.org/10.1038/s41565-024-01707-0| https://doi.org/10.1038/s41565-024-01691-5| https://doi.org/10.1038/s41565-025-01858-8| https://doi.org/10.1038/s41565-024-01852-6| https://doi.org/10.1038/s41565-025-01862-y| https://doi.org/10.1038/s41565-025-01905-4| https://doi.org/10.1038/s41565-020-0712-7| https://doi.org/10.1038/s41565-020-0727-0| https://doi.org/10.1038/s41565-020-00778-z| https://doi.org/10.1038/s41565-021-00857-9| https://doi.org/10.1038/s41565-020-0715-4| https://doi.org/10.1038/s41565-019-0602-z| https://doi.org/10.1038/s41565-020-0653-1| https://doi.org/10.1038/s41565-020-0704-7| https://doi.org/10.1038/s41565-021-01041-9| https://doi.org/10.1038/s41565-020-00807-x| https://doi.org/10.1038/s41565-021-01010-2| https://doi.org/10.1038/s41565-020-00816-w| https://doi.org/10.1038/s41565-021-00900-9| https://doi.org/10.1038/s41565-020-0729-y| https://doi.org/10.1038/s41565-022-01196-z| https://doi.org/10.1038/s41565-021-00861-z| https://doi.org/10.1038/s41565-022-01197-y| https://doi.org/10.1038/s41565-021-00847-x| https://doi.org/10.1038/s41565-020-00834-8| https://doi.org/10.1038/s41565-021-00908-1| https://doi.org/10.1038/s41565-022-01221-1| https://doi.org/10.1038/s41565-022-01280-4| https://doi.org/10.1038/s41565-023-01478-0| https://doi.org/10.1038/s41565-023-01452-w| https://doi.org/10.1038/s41565-023-01558-1| https://doi.org/10.1038/s41565-023-01515-y| https://doi.org/10.1038/s41565-023-01451-x| https://doi.org/10.1038/s41565-023-01340-3| https://doi.org/10.1038/s41565-022-01314-x| https://doi.org/10.1038/s41565-023-01527-8| https://doi.org/10.1038/s41565-023-01391-6| https://doi.org/10.1038/s41565-023-01528-7| https://doi.org/10.1038/s41565-023-01421-3| https://doi.org/10.1038/s41565-023-01368-5| https://doi.org/10.1038/s41565-023-01403-5| https://doi.org/10.1038/s41565-024-01693-3| https://doi.org/10.1038/s41565-024-01698-y| https://doi.org/10.1038/s41565-024-01607-3| https://doi.org/10.1038/s41565-024-01756-5| https://doi.org/10.1038/s41565-024-01675-5| https://doi.org/10.1038/s41565-024-01728-9| https://doi.org/10.1038/s41565-024-01799-8| https://doi.org/10.1038/s41565-024-01706-1| https://doi.org/10.1038/s41565-024-01817-9| https://doi.org/10.1038/s41565-024-01846-4| https://doi.org/10.1038/s41565-024-01823-x| https://doi.org/10.1038/s41565-024-01853-5| https://doi.org/10.1038/s41565-025-01900-9| https://doi.org/10.1038/s41565-020-0741-2| https://doi.org/10.1038/s41565-019-0607-7| https://doi.org/10.1038/s41565-020-00779-y| https://doi.org/10.1038/s41565-021-00846-y| https://doi.org/10.1038/s41565-021-00892-6| https://doi.org/10.1038/s41565-021-01040-w| https://doi.org/10.1038/s41565-020-0769-3| https://doi.org/10.1038/s41565-022-01208-y| https://doi.org/10.1038/s41565-022-01222-0| https://doi.org/10.1038/s41565-022-01248-4| https://doi.org/10.1038/s41565-022-01080-w| https://doi.org/10.1038/s41565-023-01370-x| https://doi.org/10.1038/s41565-023-01495-z| https://doi.org/10.1038/s41565-023-01596-9| https://doi.org/10.1038/s41565-021-00925-0| https://doi.org/10.1038/s41565-022-01235-9| https://doi.org/10.1038/s41565-023-01539-4| https://doi.org/10.1038/s41565-023-01336-z| https://doi.org/10.1038/s41565-023-01542-9| https://doi.org/10.1038/s41565-024-01677-3| https://doi.org/10.1038/s41565-024-01717-y| https://doi.org/10.1038/s41565-024-01653-x| https://doi.org/10.1038/s41565-025-01856-w| https://doi.org/10.1038/s41565-025-01874-8| https://doi.org/10.1038/s41565-025-01920-5| https://doi.org/10.1038/s41565-025-01947-8| https://doi.org/10.1038/s41565-020-0738-x| https://doi.org/10.1038/s41565-022-01223-z| https://doi.org/10.1038/s41565-022-01076-6| https://doi.org/10.1038/s41565-022-01118-z| https://doi.org/10.1038/s41565-023-01390-7| https://doi.org/10.1038/s41565-024-01610-8| https://doi.org/10.1038/s41565-024-01831-x| https://doi.org/10.1038/s41565-021-01012-0| https://doi.org/10.1038/s41565-023-01442-y| https://doi.org/10.1038/s41565-021-00932-1| https://doi.org/10.1038/s41565-024-01788-x| https://doi.org/10.1038/s41565-020-0756-8| https://doi.org/10.1038/s41565-021-00999-w| https://doi.org/10.1038/s41565-023-01334-1| https://doi.org/10.1038/s41565-020-00829-5| https://doi.org/10.1038/s41565-021-00896-2| https://doi.org/10.1038/s41565-021-00894-4| https://doi.org/10.1038/s41565-021-00955-8| https://doi.org/10.1038/s41565-021-01053-5| https://doi.org/10.1038/s41565-023-01450-y| https://doi.org/10.1038/s41565-024-01829-5| https://doi.org/10.1038/s41565-025-01868-6| https://doi.org/10.1038/s41565-025-01876-6| https://doi.org/10.1038/s41565-025-01875-7| https://doi.org/10.1038/s41565-025-01942-z| https://doi.org/10.1038/s41565-025-01946-9| https://doi.org/10.1038/s41565-025-01937-w| https://doi.org/10.1038/s41565-025-01963-8| https://doi.org/10.1038/s41565-025-01973-6| https://doi.org/10.1038/s41565-025-01988-z| https://doi.org/10.1038/s41565-025-01991-4| https://doi.org/10.1038/s41565-021-01037-5| https://doi.org/10.1038/s41565-024-01713-2| https://doi.org/10.1038/s41565-020-0702-9| https://doi.org/10.1038/s41565-021-00989-y| https://doi.org/10.1038/s41565-022-01077-5| https://doi.org/10.1038/s41565-023-01424-0| https://doi.org/10.1038/s41565-023-01475-3| https://doi.org/10.1038/s41565-024-01708-z| https://doi.org/10.1038/s41565-024-01710-5| https://doi.org/10.1038/s41565-022-01229-7| https://doi.org/10.1038/s41565-024-01605-5| https://doi.org/10.1038/s41565-024-01688-0| https://doi.org/10.1038/s41565-020-00780-5| https://doi.org/10.1038/s41565-023-01358-7| https://doi.org/10.1038/s41565-023-01389-0| https://doi.org/10.1038/s41565-023-01411-5| https://doi.org/10.1038/s41565-023-01564-3| https://doi.org/10.1038/s41565-020-0735-0| https://doi.org/10.1038/s41565-022-01190-5| https://doi.org/10.1038/s41565-022-01263-5| https://doi.org/10.1038/s41565-022-01299-7| https://doi.org/10.1038/s41565-020-0667-8| https://doi.org/10.1038/s41565-022-01298-8| https://doi.org/10.1038/s41565-023-01472-6| https://doi.org/10.1038/s41565-022-01109-0| https://doi.org/10.1038/s41565-023-01414-2| https://doi.org/10.1038/s41565-024-01603-7| https://doi.org/10.1038/s41565-023-01600-2| https://doi.org/10.1038/s41565-024-01602-8| https://doi.org/10.1038/s41565-024-01634-0| https://doi.org/10.1038/s41565-024-01640-2| https://doi.org/10.1038/s41565-024-01700-7| https://doi.org/10.1038/s41565-024-01743-w| https://doi.org/10.1038/s41565-024-01703-4| https://doi.org/10.1038/s41565-024-01755-6| https://doi.org/10.1038/s41565-024-01840-w| https://doi.org/10.1038/s41565-024-01832-w| https://doi.org/10.1038/s41565-021-00913-4| https://doi.org/10.1038/s41565-021-01058-0| https://doi.org/10.1038/s41565-021-01069-x| https://doi.org/10.1038/s41565-022-01152-x| https://doi.org/10.1038/s41565-023-01364-9| https://doi.org/10.1038/s41565-023-01461-9| https://doi.org/10.1038/s41565-023-01474-4| https://doi.org/10.1038/s41565-023-01458-4| https://doi.org/10.1038/s41565-023-01511-2| https://doi.org/10.1038/s41565-023-01573-2| https://doi.org/10.1038/s41565-020-00801-3| https://doi.org/10.1038/s41565-022-01117-0| https://doi.org/10.1038/s41565-022-01201-5| https://doi.org/10.1038/s41565-022-01239-5| https://doi.org/10.1038/s41565-021-00891-7| https://doi.org/10.1038/s41565-021-00930-3| https://doi.org/10.1038/s41565-021-00938-9| https://doi.org/10.1038/s41565-023-01399-y| https://doi.org/10.1038/s41565-022-01159-4| https://doi.org/10.1038/s41565-023-01470-8| https://doi.org/10.1038/s41565-020-0733-2| https://doi.org/10.1038/s41565-024-01718-x</v>
       </c>
-      <c r="C8" t="str">
+      <c r="C8" s="1" t="str">
         <v>Memory devices and applications for in-memory computing| Two-dimensional materials for next-generation computing technologies| Neuromorphic nanoelectronic materials| Scalable and hierarchically designed polymer film as a selective thermal emitter for high-performance all-day radiative cooling| A bright and fast source of coherent single photons| Electrically reconfigurable non-volatile metasurface using low-loss optical phase-change material| All-solid-state spatial light modulator with independent phase and amplitude control for three-dimensional LiDAR applications| Metal–organic frameworks and covalent organic frameworks as disruptive membrane materials for energy-efficient gas separation| Bilayer of polyelectrolyte films for spontaneous power generation in air up to an integrated 1,000 V output| Supercurrent rectification and magnetochiral effects in symmetric Josephson junctions| Dual-coupling-guided epitaxial growth of wafer-scale single-crystal WS2 monolayer on vicinal a-plane sapphire| Flexoelectronics of centrosymmetric semiconductors| Electrical tuning of phase-change antennas and metasurfaces| Interfacial ferroelectricity in marginally twisted 2D semiconductors| Optoelectronic graded neurons for bioinspired in-sensor motion perception| Observation of single-defect memristor in an MoS2 atomic sheet| Nano-optical designs for high-efficiency monolithic perovskite–silicon tandem solar cells| Power-efficient neural network with artificial dendrites| Alloying conducting channels for reliable neuromorphic computing| Advancing osmotic power generation by covalent organic framework monolayer| Ultrafast non-volatile flash memory based on van der Waals heterostructures| Atomically sharp interface enabled ultrahigh-speed non-volatile memory devices| Single-crystalline TiO2 nanoparticles for stable and efficient perovskite modules| Three-dimensional monolithic micro-LED display driven by atomically thin transistor matrix| Industrial scale production of fibre batteries by a solution-extrusion method| Wafer-scale monolithic integration of full-colour micro-LED display using MoS2 transistor| Room-temperature nonlinear Hall effect and wireless radiofrequency rectification in Weyl semimetal TaIrTe4| Thickness-controlled black phosphorus tunnel field-effect transistor for low-power switches| Power generation by reverse electrodialysis in a single-layer nanoporous membrane made from core–rim polycyclic aromatic hydrocarbons| Ultra-low-energy programmable non-volatile silicon photonics based on phase-change materials with graphene heaters| Exploiting the full advantages of colloidal perovskite nanocrystals for large-area efficient light-emitting diodes| Quantum-dot-based deterministic photon–emitter interfaces for scalable photonic quantum technology| Polymer nanocomposite dielectrics for capacitive energy storage| Ultrafast hole spin qubit with gate-tunable spin–orbit switch functionality| Wurtzite and fluorite ferroelectric materials for electronic memory| Low-thermal-budget synthesis of monolayer molybdenum disulfide for silicon back-end-of-line integration on a 200 mm platform| Nanoscale chemical heterogeneity dominates the optoelectronic response of alloyed perovskite solar cells| Staggered-layer-boosted flexible Bi2Te3 films with high thermoelectric performance| Quantum-coherent nanoscience| Electrochemically modulated interaction of MXenes with microwaves| Layered materials as a platform for quantum technologies| Energy-efficient Mott activation neuron for full-hardware implementation of neural networks| Phase-controllable large-area two-dimensional In2Se3 and ferroelectric heterophase junction| An in-memory computing architecture based on a duplex two-dimensional material structure for in situ machine learning| Reconfigurable, non-volatile neuromorphic photovoltaics| Minimizing heat generation in quantum dot light-emitting diodes by increasing quasi-Fermi-level splitting| Quantum interference of identical photons from remote GaAs quantum dots| Shared control of a 16 semiconductor quantum dot crossbar array| Highly reproducible van der Waals integration of two-dimensional electronics on the wafer scale| Phase-change memtransistive synapses for mixed-plasticity neural computations| The future of two-dimensional semiconductors beyond Moore’s law| Stretchable colour-sensitive quantum dot nanocomposites for shape-tunable multiplexed phototransistor arrays| Low-temperature growth of MoS2 on polymer and thin glass substrates for flexible electronics| Low Ohmic contact resistance and high on/off ratio in transition metal dichalcogenides field-effect transistors via residue-free transfer| Light-driven microdrones| Kinetic and energetic insights into the dissipative non-equilibrium operation of an autonomous light-powered supramolecular pump| Correlated insulator and Chern insulators in pentalayer rhombohedral-stacked graphene| Tough-interface-enabled stretchable electronics using non-stretchable polymer semiconductors and conductors| Nanosurface-reconstructed perovskite for highly efficient and stable active-matrix light-emitting diode display| Single-photon detection using high-temperature superconductors| An ultrafast bipolar flash memory for self-activated in-memory computing| Ideal refocusing of an optically active spin qubit under strong hyperfine interactions| Monolithic three-dimensional integration of complementary two-dimensional field-effect transistors| Phase-separated porous nanocomposite with ultralow percolation threshold for wireless bioelectronics| Linearly programmable two-dimensional halide perovskite memristor arrays for neuromorphic computing| Valley-centre tandem perovskite light-emitting diodes| Quantum interference enhances the performance of single-molecule transistors| Charge-transfer contacts for the measurement of correlated states in high-mobility WSe2| Photovoltaic nanocells for high-performance large-scale-integrated organic phototransistors| Electricity generated by upstream proton diffusion in two-dimensional nanochannels| Spin–valley protected Kramers pair in bilayer graphene| Multivalent-effect immobilization of reduced-dimensional perovskites for efficient and spectrally stable deep-blue light-emitting diodes| Resolving polarization switching pathways of sliding ferroelectricity in trilayer 3R-MoS2| Homogeneous 2D/3D heterostructured tin halide perovskite photovoltaics| A Josephson phase battery| Room-temperature valleytronic transistor| A Gd@C82 single-molecule electret| Covalently interconnected transition metal dichalcogenide networks via defect engineering for high-performance electronic devices| Quantum Hall effect of Weyl fermions in n-type semiconducting tellurene| Waveguide-integrated van der Waals heterostructure photodetector at telecom wavelengths with high speed and high responsivity| Charge disproportionate molecular redox for discrete memristive and memcapacitive switching| Electrolyte gating in graphene-based supercapacitors and its use for probing nanoconfined charging dynamics| Full-bandwidth electrophysiology of seizures and epileptiform activity enabled by flexible graphene microtransistor depth neural probes| Highly nonlinear transport across single-molecule junctions via destructive quantum interference| Light-activated interlayer contraction in two-dimensional perovskites for high-efficiency solar cells| Coherent control of individual electron spins in a two-dimensional quantum dot array| Epitaxial Pb on InAs nanowires for quantum devices| Probing photoelectrical transport in lead halide perovskites with van der Waals contacts| A single hole spin with enhanced coherence in natural silicon| Aharonov–Bohm effect in graphene-based Fabry–Pérot quantum Hall interferometers| Metasurface optofluidics for dynamic control of light fields| A tunable Fabry–Pérot quantum Hall interferometer in graphene| High-energy quasiparticle injection into mesoscopic superconductors| A reversible Zn-metal battery| A general one-step plug-and-probe approach to top-gated transistors for rapidly probing delicate electronic materials| On-demand electrical control of spin qubits| A free-standing lithium phosphorus oxynitride thin film electrolyte promotes uniformly dense lithium metal deposition with no external pressure| Multilayer spintronic neural networks with radiofrequency connections| Spontaneous broken-symmetry insulator and metals in tetralayer rhombohedral graphene| An integrated microwave-to-optics interface for scalable quantum computing| Sign reversal of the Josephson inductance magnetochiral anisotropy and 0–π-like transitions in supercurrent diodes| High-throughput manufacturing of epitaxial membranes from a single wafer by 2D materials-based layer transfer process| Electrical switching of a bistable moiré superconductor| A DNA turbine powered by a transmembrane potential across a nanopore| Atomically thin optomemristive feedback neurons| Telecom-band quantum dot technologies for long-distance quantum networks| Electron cooling in graphene enhanced by plasmon–hydron resonance| Coulomb-mediated antibunching of an electron pair surfing on sound| Electrical switching of ferro-rotational order in nanometre-thick 1T-TaS2 crystals| Projected performance of Si- and 2D-material-based SRAM circuits ranging from 16 nm to 1 nm technology nodes| Selective and quasi-continuous switching of ferroelectric Chern insulator devices for neuromorphic computing| My cell is better than yours| Durable and programmable ultrafast nanophotonic matrix of spectral pixels| Superionic fluoride gate dielectrics with low diffusion barrier for two-dimensional electronics| Electrically tunable space–time metasurfaces at optical frequencies| Mesoporous structured MoS2 as an electron transport layer for efficient and stable perovskite solar cells| Integrated 1D epitaxial mirror twin boundaries for ultrascaled 2D MoS2 field-effect transistors| Universal control of four singlet–triplet qubits| Ferroelectricity with concomitant Coulomb screening in van der Waals heterostructures| ON–OFF nanopores for optical control of transmembrane ionic communication| Grover’s algorithm in a four-qubit silicon processor above the fault-tolerant threshold| On-demand formation of Lewis bases for efficient and stable perovskite solar cells| Backbone charge transport in double-stranded DNA| Single-shot dynamics of spin–orbit torque and spin transfer torque switching in three-terminal magnetic tunnel junctions| A deep-learning approach to realizing functionality in nanoelectronic devices| Distant spin entanglement via fast and coherent electron shuttling| Tunable phase-change metasurfaces| Three-dimensional transistor arrays for intra- and inter-cellular recording| Nuclear spin quantum register in an optically active semiconductor quantum dot| Bipolar thermoelectric Josephson engine| A tunable monolithic SQUID in twisted bilayer graphene| Quantum Hall phase in graphene engineered by interfacial charge coupling| Chemical-to-mechanical molecular computation using DNA-based motors with onboard logic| Two electrons interacting at a mesoscopic beam splitter| Atomically precise vacancy-assembled quantum antidots| High-fidelity initialization and control of electron and nuclear spins in a four-qubit register| Quantum tomography of an entangled three-qubit state in silicon| A gate-tunable graphene Josephson parametric amplifier| Asymmetric conducting route and potential redistribution determine the polarization-dependent conductivity in layered ferroelectrics| Chiral antiferromagnetic Josephson junctions as spin-triplet supercurrent spin valves and d.c. SQUIDs| Reversible optical data storage below the diffraction limit| Vacuum levitation and motion control on chip| Electrically tunable giant Nernst effect in two-dimensional van der Waals heterostructures| Nanoscale doping of polymeric semiconductors with confined electrochemical ion implantation| Nanotech powers on-chip intelligence| Quantum-enabled microwave-to-optical transduction via silicon nanomechanics| High-fidelity single-spin shuttling in silicon| Mesoscale dynamics of electrosorbed ions in fast-charging carbon-based nanoporous electrodes| Beyond von Neumann| Quantum-noise-limited microwave amplification using a graphene Josephson junction| Detectivities of WS2/HfS2 heterojunctions| Harnessing blue energy with COF membranes| Low-temperature MoS2 growth on CMOS wafers| Challenges remain for 2D semiconductor growth| Ultrahigh-gain colloidal quantum dot infrared avalanche photodetectors| A roadmap for molecular thermoelectricity| Coherent control of a high-orbital hole in a semiconductor quantum dot| Ultra-fast non-volatile memory| Energy-efficient picosecond spin–orbit torque magnetization switching in ferro- and ferrimagnetic films| Publisher Correction: Memory devices and applications for in-memory computing| High-endurance micro-engineered LaB6 nanowire electron source for high-resolution electron microscopy| Superconducting single-photon detectors get hot| Author Correction: A high-energy and long-cycling lithium–sulfur pouch cell via a macroporous catalytic cathode with double-end binding sites| Gate-defined Josephson junctions in magic-angle twisted bilayer graphene| Highly tunable junctions and non-local Josephson effect in magic-angle graphene tunnelling devices| Charge-order-enhanced capacitance in semiconductor moiré superlattices| An electron turnstile for frequency-to-power conversion| Development of epistatic YES and AND protein logic gates and their assembly into signalling cascades| Negative memory capacitance and ionic filtering effects in asymmetric nanopores| Momentum tunnelling across quantum barriers| Kramers versus Kramers makes a stable qubit| When relaxor films go ultrathin| Shuttling arrives for silicon quantum computers| Scalable perovskite tandems enabled by dual-stage molecular regulation| Challenges and opportunities in DNA computing and data storage| Nonlinear Nernst effect in trilayer graphene at zero magnetic field| Event-driven retinomorphic photodiode with bio-plausible temporal dynamics| On-chip direct synthesis of boron nitride memristors| Ultrawide-bandwidth boron nitride photonic memristors| The path to scalable quantum computing with silicon spin qubits| Electricity generated from upstream proton diffusion| Memristors with alloyed electrodes| Gas separation with porous graphene| Reply to: Detectivities of WS2/HfS2 heterojunctions| Quantum friction with water effectively cools graphene electrons| Publisher Correction: Atomically thin optomemristive feedback neurons| 1D metals for 2D electronics| Fluoride dielectrics for 2D transistors| Nanotexturing enables perovskite/silicon tandem solar cells with 29.8% efficiency| Author Correction: Reversible optical data storage below the diffraction limit| Perovskites light a path forward| Welcome to the single-molecule electret device| Bipolar flash for bifunctional computing operations| Interacting electrons collide at a beam splitter| Moore must go on| A bump worthy of a Nobel Prize| Publisher Correction: Alloying conducting channels for reliable neuromorphic computing| Quantum dot nanocomposites for flexible retina| 2D Ferroelectricity in hetero-phase junction| 2D materials for fast flash memory devices| Topological engineering for metallic polymers| Highly tunable ultrafast control of a spin qubit| ‘Rotating’ contact for bias-free photodetection with 2D materials| Publisher Correction: Soft-lock drawing of super-aligned carbon nanotube bundles for nanometre electrical contacts| Voltage enables ferro-rotational domain switching| High-fidelity initialization and control of multiple nuclear spin qubits in silicon| Spinning nanomotor with a DNA clutch| Author Correction: Ballistic Majorana nanowire devices| Graphene edge interference improves single-molecule transistors| Light manipulation with sub-pixel wavefront control using gap phases| Topologically protected edge states for neuromorphic computing| Reimagining computing with 2D semiconductors| Breaking barriers by interfacial charge transfer| Nonlinear Hall effect in an insulator| Empowering spintronics with antiferromagnetic diodes| Avalanche multiplication for quantum dot photodetectors with ultrahigh detectivity| Building devices in magic-angle graphene| Quantum nanoscience| Single-electron turnstile stirring quantized heat flow| Measuring how effectively light drives a molecular pump| Transport mechanisms| Author Correction: Charge disproportionate molecular redox for discrete memristive and memcapacitive switching| Two-terminal reconfigurable and non-volatile photovoltaic detectors| Observation of ultrafast ballistic orbital transport| A tunable two-dimensional crossbar array comprising 16 quantum dots| Powering a DNA origami nanoengine with chemical fuel| Publisher Correction: Metallofullerenes: Welcome to the single-molecule electret device| Harmonizing single photons with a laser pulse| A spin qubit hiding from the noise| Graphene amplifier reaches the quantum limit| Memristors get the hues| Author Correction: Ultrafast hole spin qubit with gate-tunable spin–orbit switch functionality| Switching with ions| Scalable CMOS back-end-of-line-compatible AlScN/two-dimensional channel ferroelectric field-effect transistors| Field-free superconducting diode effect in noncentrosymmetric superconductor/ferromagnet multilayers| Time-domain observation of ballistic orbital-angular-momentum currents with giant relaxation length in tungsten| Large non-reciprocal charge transport mediated by quantum anomalous Hall edge states| Embedding core–shell photovoltaic nanocells in organic optoelectronics</v>
       </c>
-      <c r="D8" t="str">
-        <v>東大</v>
-      </c>
-      <c r="E8" t="str">
-        <v>東北大</v>
-      </c>
-      <c r="F8">
+      <c r="D8" s="1" t="str">
+        <v>東大</v>
+      </c>
+      <c r="E8" s="1" t="str">
+        <v>東北大</v>
+      </c>
+      <c r="F8" s="1" t="str">
+        <v>2022/01/25| 2023/03/03| 2021/04/10| 2025/07/04| 2020/04/06| 2020/08/27| 2024/07/04| 2023/04/18| 2022/05/16| 2020/09/12| 2025/04/05| 2025/06/06| 2021/04/22| 2023/07/17| 2020/12/23| 2021/01/04| 2022/02/09| 2021/07/27| 2020/12/25| 2020/09/17| 2022/06/12| 2020/06/14| 2025/03/08| 2024/01/09| 2023/05/11| 2022/12/13| 2021/07/21| 2023/01/28| 2024/01/19| 2025/12/30| 2025/06/16| 2025/01/24| 2022/11/13| 2023/01/08| 2022/07/30| 2025/03/24| 2024/03/01| 2022/11/21| 2022/11/18| 2020/02/24| 2021/10/13| 2022/10/25| 2023/12/07| 2025/02/06| 2021/09/01| 2020/06/01| 2020/04/22| 2024/09/11| 2025/06/19| 2020/02/16| 2021/05/08| 2020/04/07| 2022/05/30| 2022/09/17| 2025/10/11| 2021/07/26| 2025/04/18| 2022/12/10| 2021/07/16| 2023/04/28| 2024/07/15| 2022/10/29| 2025/06/25| 2023/10/10| 2020/05/07| 2023/08/03| 2020/06/27| 2025/05/23| 2020/04/30| 2022/07/13| 2021/07/15| 2025/09/16| 2022/07/07| 2022/04/26| 2021/01/09| 2021/10/11| 2022/08/24| 2025/03/19| 2022/01/06| 2023/06/24| 2024/08/13| 2025/09/08| 2022/07/31| 2024/03/14| 2022/02/25| 2025/04/25| 2024/01/30| 2022/04/04| 2020/06/21| 2024/12/09| 2024/01/14| 2025/05/15| 2022/09/06| 2023/12/16| 2023/02/19| 2022/02/21| 2020/06/19| 2025/03/06| 2023/12/15| 2021/07/02| 2025/01/17| 2020/06/17| 2021/09/13| 2023/12/12| 2024/07/13| 2024/10/15| 2023/11/20| 2021/02/02| 2022/09/05| 2021/09/29| 2024/04/21| 2023/08/17| 2025/03/05| 2025/04/14| 2024/02/01| 2024/04/23| 2020/04/09| 2023/07/04| 2021/03/27| 2021/04/29| 2023/02/17| 2020/12/30| 2020/09/21| 2022/01/08| 2025/07/17| 2021/09/05| 2021/02/13| 2020/02/18| 2024/04/09| 2025/08/25| 2023/09/01| 2021/10/20| 2025/02/17| 2025/07/13| 2022/09/07| 2021/12/21| 2025/09/30| 2022/02/04| 2023/09/12| 2025/08/11| 2021/09/28| 2024/01/25| 2025/09/24| 2024/03/12| 2025/04/23| 2025/02/24| 2022/11/15| 2025/07/31| 2022/05/06| 2024/03/21| 2021/08/19| 2022/07/06| 2023/11/11| 2024/12/31| 2025/05/14| 2021/10/21| 2022/12/12| 2024/09/29| 2023/04/24| 2022/05/27| 2021/05/27| 2022/03/28| 2025/11/08| 2020/10/25| 2021/06/01| 2020/09/14| 2025/11/02| 2023/05/10| 2024/09/22| 2020/01/20| 2022/12/08| 2020/09/11| 2020/11/29| 2022/04/15| 2021/04/23| 2022/04/20| 2021/06/22| 2021/02/23| 2024/04/19| 2021/05/10| 2025/03/20| 2025/02/16| 2020/01/03| 2020/08/28| 2024/05/29| 2022/12/07| 2023/12/22| 2024/08/25| 2025/12/04| 2020/01/04| 2020/11/17| 2022/04/17| 2020/10/30| 2025/12/13| 2025/10/08| 2021/08/31| 2024/08/10| 2024/03/04| 2024/07/24| 2021/04/27| 2024/11/14| 2023/06/17| 2020/03/26| 2021/07/22| 2025/12/17| 2022/09/25| 2020/08/06| 2021/05/02| 2021/05/06| 2021/09/24| 2024/09/08| 2022/01/04| 2020/07/04| 2022/08/17| 2024/02/22| 2023/04/03| 2023/10/05| 2024/04/11| 2020/05/02| 2025/07/30| 2021/09/11| 2021/09/08| 2024/03/07| 2023/12/24| 2023/10/23| 2020/06/03| 2021/01/05| 2022/02/23</v>
+      </c>
+      <c r="G8" s="1" t="str">
         <v>238</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="str">
+      <c r="A9" s="1" t="str">
         <v>2 デバイス・機能材料の設計・開発・動作・応用</v>
       </c>
-      <c r="B9" t="str">
+      <c r="B9" s="1" t="str">
         <v>https://doi.org/10.1038/s41565-021-00931-2| https://doi.org/10.1038/s41565-020-0652-2| https://doi.org/10.1038/s41565-020-0673-x| https://doi.org/10.1038/s41565-021-00974-5| https://doi.org/10.1038/s41565-021-00888-2| https://doi.org/10.1038/s41565-020-00833-9| https://doi.org/10.1038/s41565-023-01341-2| https://doi.org/10.1038/s41565-022-01193-2| https://doi.org/10.1038/s41565-021-01009-9| https://doi.org/10.1038/s41565-022-01165-6| https://doi.org/10.1038/s41565-021-01004-0| https://doi.org/10.1038/s41565-021-01000-4| https://doi.org/10.1038/s41565-019-0626-4| https://doi.org/10.1038/s41565-020-00789-w| https://doi.org/10.1038/s41565-023-01385-4| https://doi.org/10.1038/s41565-020-00793-0| https://doi.org/10.1038/s41565-021-00921-4| https://doi.org/10.1038/s41565-021-01014-y| https://doi.org/10.1038/s41565-019-0622-8| https://doi.org/10.1038/s41565-021-00966-5| https://doi.org/10.1038/s41565-022-01153-w| https://doi.org/10.1038/s41565-020-0752-z| https://doi.org/10.1038/s41565-021-00998-x| https://doi.org/10.1038/s41565-021-01018-8| https://doi.org/10.1038/s41565-022-01113-4| https://doi.org/10.1038/s41565-023-01541-w| https://doi.org/10.1038/s41565-020-00802-2| https://doi.org/10.1038/s41565-021-00956-7| https://doi.org/10.1038/s41565-023-01543-8| https://doi.org/10.1038/s41565-022-01220-2| https://doi.org/10.1038/s41565-021-00994-1| https://doi.org/10.1038/s41565-022-01189-y| https://doi.org/10.1038/s41565-023-01354-x| https://doi.org/10.1038/s41565-021-01036-6| https://doi.org/10.1038/s41565-022-01257-3| https://doi.org/10.1038/s41565-023-01374-7| https://doi.org/10.1038/s41565-022-01085-5| https://doi.org/10.1038/s41565-022-01154-9| https://doi.org/10.1038/s41565-023-01348-9| https://doi.org/10.1038/s41565-024-01695-1| https://doi.org/10.1038/s41565-022-01283-1| https://doi.org/10.1038/s41565-022-01078-4| https://doi.org/10.1038/s41565-022-01099-z| https://doi.org/10.1038/s41565-022-01266-2| https://doi.org/10.1038/s41565-023-01523-y| https://doi.org/10.1038/s41565-022-01273-3| https://doi.org/10.1038/s41565-023-01577-y| https://doi.org/10.1038/s41565-023-01520-1| https://doi.org/10.1038/s41565-023-01471-7| https://doi.org/10.1038/s41565-023-01384-5| https://doi.org/10.1038/s41565-023-01522-z| https://doi.org/10.1038/s41565-023-01453-9| https://doi.org/10.1038/s41565-023-01401-7| https://doi.org/10.1038/s41565-023-01587-w| https://doi.org/10.1038/s41565-024-01667-5| https://doi.org/10.1038/s41565-024-01705-2| https://doi.org/10.1038/s41565-024-01680-8| https://doi.org/10.1038/s41565-024-01790-3| https://doi.org/10.1038/s41565-023-01593-y| https://doi.org/10.1038/s41565-024-01669-3| https://doi.org/10.1038/s41565-023-01581-2| https://doi.org/10.1038/s41565-024-01769-0| https://doi.org/10.1038/s41565-024-01683-5| https://doi.org/10.1038/s41565-024-01715-0| https://doi.org/10.1038/s41565-024-01766-3| https://doi.org/10.1038/s41565-024-01674-6| https://doi.org/10.1038/s41565-024-01645-x| https://doi.org/10.1038/s41565-023-01562-5| https://doi.org/10.1038/s41565-024-01696-0| https://doi.org/10.1038/s41565-024-01833-9| https://doi.org/10.1038/s41565-025-01899-z| https://doi.org/10.1038/s41565-020-00820-0| https://doi.org/10.1038/s41565-020-0672-y| https://doi.org/10.1038/s41565-020-0743-0| https://doi.org/10.1038/s41565-020-00827-7| https://doi.org/10.1038/s41565-021-00917-0| https://doi.org/10.1038/s41565-020-0682-9| https://doi.org/10.1038/s41565-019-0630-8| https://doi.org/10.1038/s41565-020-0701-x| https://doi.org/10.1038/s41565-021-01008-w| https://doi.org/10.1038/s41565-021-00878-4| https://doi.org/10.1038/s41565-019-0624-6| https://doi.org/10.1038/s41565-021-00915-2| https://doi.org/10.1038/s41565-020-0723-4| https://doi.org/10.1038/s41565-021-00875-7| https://doi.org/10.1038/s41565-022-01196-z| https://doi.org/10.1038/s41565-021-00861-z| https://doi.org/10.1038/s41565-021-00847-x| https://doi.org/10.1038/s41565-021-01021-z| https://doi.org/10.1038/s41565-022-01272-4| https://doi.org/10.1038/s41565-022-01161-w| https://doi.org/10.1038/s41565-022-01221-1| https://doi.org/10.1038/s41565-023-01378-3| https://doi.org/10.1038/s41565-022-01280-4| https://doi.org/10.1038/s41565-023-01540-x| https://doi.org/10.1038/s41565-022-01306-x| https://doi.org/10.1038/s41565-023-01355-w| https://doi.org/10.1038/s41565-023-01340-3| https://doi.org/10.1038/s41565-022-01314-x| https://doi.org/10.1038/s41565-024-01622-4| https://doi.org/10.1038/s41565-024-01728-9| https://doi.org/10.1038/s41565-024-01733-y| https://doi.org/10.1038/s41565-024-01812-0| https://doi.org/10.1038/s41565-024-01723-0| https://doi.org/10.1038/s41565-024-01803-1| https://doi.org/10.1038/s41565-024-01771-6| https://doi.org/10.1038/s41565-024-01741-y| https://doi.org/10.1038/s41565-024-01817-9| https://doi.org/10.1038/s41565-024-01824-w| https://doi.org/10.1038/s41565-024-01834-8| https://doi.org/10.1038/s41565-025-01923-2| https://doi.org/10.1038/s41565-020-00819-7| https://doi.org/10.1038/s41565-020-0642-4| https://doi.org/10.1038/s41565-022-01208-y| https://doi.org/10.1038/s41565-022-01124-1| https://doi.org/10.1038/s41565-022-01237-7| https://doi.org/10.1038/s41565-020-0639-z| https://doi.org/10.1038/s41565-021-00979-0| https://doi.org/10.1038/s41565-025-01874-8| https://doi.org/10.1038/s41565-025-01919-y| https://doi.org/10.1038/s41565-025-01918-z| https://doi.org/10.1038/s41565-025-01903-6| https://doi.org/10.1038/s41565-025-01920-5| https://doi.org/10.1038/s41565-023-01524-x| https://doi.org/10.1038/s41565-023-01500-5| https://doi.org/10.1038/s41565-021-00949-6| https://doi.org/10.1038/s41565-021-00901-8| https://doi.org/10.1038/s41565-021-01012-0| https://doi.org/10.1038/s41565-022-01205-1| https://doi.org/10.1038/s41565-024-01611-7| https://doi.org/10.1038/s41565-020-0740-3| https://doi.org/10.1038/s41565-021-00999-w| https://doi.org/10.1038/s41565-021-01042-8| https://doi.org/10.1038/s41565-023-01334-1| https://doi.org/10.1038/s41565-021-00943-y| https://doi.org/10.1038/s41565-022-01268-0| https://doi.org/10.1038/s41565-022-01255-5| https://doi.org/10.1038/s41565-024-01761-8| https://doi.org/10.1038/s41565-021-01053-5| https://doi.org/10.1038/s41565-023-01529-6| https://doi.org/10.1038/s41565-025-01891-7| https://doi.org/10.1038/s41565-025-01889-1| https://doi.org/10.1038/s41565-025-01940-1| https://doi.org/10.1038/s41565-025-01973-6| https://doi.org/10.1038/s41565-023-01420-4| https://doi.org/10.1038/s41565-023-01503-2| https://doi.org/10.1038/s41565-021-01037-5| https://doi.org/10.1038/s41565-022-01089-1| https://doi.org/10.1038/s41565-023-01566-1| https://doi.org/10.1038/s41565-024-01662-w| https://doi.org/10.1038/s41565-024-01713-2| https://doi.org/10.1038/s41565-022-01238-6| https://doi.org/10.1038/s41565-023-01582-1| https://doi.org/10.1038/s41565-024-01708-z| https://doi.org/10.1038/s41565-024-01751-w| https://doi.org/10.1038/s41565-021-01024-w| https://doi.org/10.1038/s41565-021-01047-3| https://doi.org/10.1038/s41565-024-01639-9| https://doi.org/10.1038/s41565-024-01659-5| https://doi.org/10.1038/s41565-024-01682-6| https://doi.org/10.1038/s41565-024-01782-3| https://doi.org/10.1038/s41565-024-01808-w| https://doi.org/10.1038/s41565-020-0646-0| https://doi.org/10.1038/s41565-020-0681-x| https://doi.org/10.1038/s41565-020-00780-5| https://doi.org/10.1038/s41565-023-01586-x| https://doi.org/10.1038/s41565-021-00948-7| https://doi.org/10.1038/s41565-020-0766-6| https://doi.org/10.1038/s41565-021-01065-1| https://doi.org/10.1038/s41565-022-01149-6| https://doi.org/10.1038/s41565-022-01190-5| https://doi.org/10.1038/s41565-022-01263-5| https://doi.org/10.1038/s41565-022-01299-7| https://doi.org/10.1038/s41565-020-0667-8| https://doi.org/10.1038/s41565-022-01298-8| https://doi.org/10.1038/s41565-023-01571-4| https://doi.org/10.1038/s41565-021-00985-2| https://doi.org/10.1038/s41565-022-01166-5| https://doi.org/10.1038/s41565-022-01191-4| https://doi.org/10.1038/s41565-023-01345-y| https://doi.org/10.1038/s41565-023-01414-2| https://doi.org/10.1038/s41565-023-01555-4| https://doi.org/10.1038/s41565-020-0711-8| https://doi.org/10.1038/s41565-020-0705-6| https://doi.org/10.1038/s41565-024-01634-0| https://doi.org/10.1038/s41565-024-01664-8| https://doi.org/10.1038/s41565-024-01651-z| https://doi.org/10.1038/s41565-024-01731-0| https://doi.org/10.1038/s41565-024-01755-6| https://doi.org/10.1038/s41565-024-01749-4| https://doi.org/10.1038/s41565-024-01837-5| https://doi.org/10.1038/s41565-021-00913-4| https://doi.org/10.1038/s41565-021-01058-0| https://doi.org/10.1038/s41565-022-01152-x| https://doi.org/10.1038/s41565-022-01202-4| https://doi.org/10.1038/s41565-023-01430-2| https://doi.org/10.1038/s41565-023-01505-0| https://doi.org/10.1038/s41565-020-0745-y| https://doi.org/10.1038/s41565-020-00815-x| https://doi.org/10.1038/s41565-020-0767-5| https://doi.org/10.1038/s41565-022-01184-3| https://doi.org/10.1038/s41565-022-01207-z| https://doi.org/10.1038/s41565-022-01288-w| https://doi.org/10.1038/s41565-019-0616-6| https://doi.org/10.1038/s41565-023-01445-9| https://doi.org/10.1038/s41565-023-01417-z| https://doi.org/10.1038/s41565-020-0733-2| https://doi.org/10.1038/s41565-025-01893-5</v>
       </c>
-      <c r="C9" t="str">
+      <c r="C9" s="1" t="str">
         <v>Extracellular vesicles as a next-generation drug delivery platform| Chemical reactivity under nanoconfinement| MOF water harvesters| Copper-catalysed exclusive CO2 to pure formic acid conversion via single-atom alloying| Placing nanoplastics in the context of global plastic pollution| Graphene oxide membranes with stable porous structure for ultrafast water transport| A dielectric electrolyte composite with high lithium-ion conductivity for high-voltage solid-state lithium metal batteries| Nanopore-based technologies beyond DNA sequencing| Supercurrent rectification and magnetochiral effects in symmetric Josephson junctions| Semiconductor moiré materials| Dual-coupling-guided epitaxial growth of wafer-scale single-crystal WS2 monolayer on vicinal a-plane sapphire| Intercellular nanotubes mediate mitochondrial trafficking between cancer and immune cells| Transformable peptide nanoparticles arrest HER2 signalling and cause cancer cell death in vivo| Observation of single-defect memristor in an MoS2 atomic sheet| Floatable photocatalytic hydrogel nanocomposites for large-scale solar hydrogen production| A nanotherapeutic strategy to overcome chemotherapeutic resistance of cancer stem-like cells| Ultrafast non-volatile flash memory based on van der Waals heterostructures| Coexisting ferromagnetic–antiferromagnetic state in twisted bilayer CrI3| Large-area single-crystal AB-bilayer and ABA-trilayer graphene grown on a Cu/Ni(111) foil| Three-dimensional monolithic micro-LED display driven by atomically thin transistor matrix| Ultra-low-energy programmable non-volatile silicon photonics based on phase-change materials with graphene heaters| Dexamethasone nanomedicines for COVID-19| Steam disinfection releases micro(nano)plastics from silicone-rubber baby teats as examined by optical photothermal infrared microspectroscopy| Nanoparticle cellular internalization is not required for RNA delivery to mature plant leaves| Exploiting the full advantages of colloidal perovskite nanocrystals for large-area efficient light-emitting diodes| Polymer nanocomposite dielectrics for capacitive energy storage| Deterministic fabrication of arbitrary vertical heterostructures of two-dimensional Ruddlesden–Popper halide perovskites| Magic-angle lasers in nanostructured moiré superlattice| Efficient multicarbon formation in acidic CO2 reduction via tandem electrocatalysis| Human-muscle-inspired single fibre actuator with reversible percolation| Quantum-coherent nanoscience| Remotely controlled near-infrared-triggered photothermal treatment of brain tumours in freely behaving mice using gold nanostar﻿s| Layered materials as a platform for quantum technologies| Interfacial-engineering-enabled practical low-temperature sodium metal battery| Phase-controllable large-area two-dimensional In2Se3 and ferroelectric heterophase junction| Neutrophil hitchhiking for drug delivery to the bone marrow| A transistor-like pH-sensitive nanodetergent for selective cancer therapy| Fischer–Tropsch synthesis to olefins boosted by MFI zeolite nanosheets| DNA-framework-based multidimensional molecular classifiers for cancer diagnosis| The future of two-dimensional semiconductors beyond Moore’s law| Multi-micron crisscross structures grown from DNA-origami slats| Precursors of Majorana modes and their length-dependent energy oscillations probed at both ends of atomic Shiba chains| Light-driven microdrones| Targeting Xkr8 via nanoparticle-mediated in situ co-delivery of siRNA and chemotherapy drugs for cancer immunochemotherapy| Ceria-vesicle nanohybrid therapeutic for modulation of innate and adaptive immunity in a collagen-induced arthritis model| Unravelling the convoluted and dynamic interphasial mechanisms on Li metal anodes| Urease-powered nanobots for radionuclide bladder cancer therapy| Correlated insulator and Chern insulators in pentalayer rhombohedral-stacked graphene| Programmable multispecific DNA-origami-based T-cell engagers| Nanoplasmonic amplification in microfluidics enables accelerated colorimetric quantification of nucleic acid biomarkers from pathogens| Entry and exit of extracellular vesicles to and from the blood circulation| Close the cancer–immunity cycle by integrating lipid nanoparticle–mRNA formulations and dendritic cell therapy| Cell spheroid creation by transcytotic intercellular gelation| Liquid-metal-based three-dimensional microelectrode arrays integrated with implantable ultrathin retinal prosthesis for vision restoration| Towards realizing nano-enabled precision delivery in plants| Monolithic three-dimensional integration of complementary two-dimensional field-effect transistors| Bone-marrow-homing lipid nanoparticles for genome editing in diseased and malignant haematopoietic stem cells| Linearly programmable two-dimensional halide perovskite memristor arrays for neuromorphic computing| Multidimensional detection enabled by twisted black arsenic–phosphorus homojunctions| Redox-neutral electrochemical decontamination of hypersaline wastewater with high technology readiness level| Valley-centre tandem perovskite light-emitting diodes| Polymer-locking fusogenic liposomes for glioblastoma-targeted siRNA delivery and CRISPR–Cas gene editing| Polystyrene nanoparticles trigger aberrant condensation of TDP-43 and amyotrophic lateral sclerosis-like symptoms| Multimodal smart systems reprogramme macrophages and remove urate to treat gouty arthritis| High-entropy non-covalent cyclic peptide glass| Topological valley Hall polariton condensation| Giant nanomechanical energy storage capacity in twisted single-walled carbon nanotube ropes| Nanoreceptors promote mutant p53 protein degradation by mimicking selective autophagy receptors| Regioselective epitaxial growth of metallic heterostructures| Chemistry, manufacturing and controls strategies for using novel excipients in lipid nanoparticles| Piracetam shapes wide-bandgap perovskite crystals for scalable perovskite tandems| Nanomedicine and the COVID-19 vaccines| Optomechanical detection of vibration modes of a single bacterium| Layer-controlled single-crystalline graphene film with stacking order via Cu–Si alloy formation| Bright solid-state sources for single photons with orbital angular momentum| Third-order nonlinear Hall effect induced by the Berry-connection polarizability tensor| Atomic reconstruction in twisted bilayers of transition metal dichalcogenides| Synthetic gauge fields for phonon transport in a nano-optomechanical system| In situ electrochemical generation of nitric oxide for neuronal modulation| De novo design of a nanopore for single-molecule detection that incorporates a β-hairpin peptide| Bioelectronic control of a microbial community using surface-assembled electrogenetic cells to route signals| Electrochemical generation of liquid and solid sulfur on two-dimensional layered materials with distinct areal capacities| Foldamer-based ultrapermeable and highly selective artificial water channels that exclude protons| Engineering synthetic breath biomarkers for respiratory disease| A highly homogeneous polymer composed of tetrahedron-like monomers for high-isotropy expansion microscopy| A single hole spin with enhanced coherence in natural silicon| Aharonov–Bohm effect in graphene-based Fabry–Pérot quantum Hall interferometers| A tunable Fabry–Pérot quantum Hall interferometer in graphene| A light-fuelled nanoratchet shifts a coupled chemical equilibrium| Hydrogen-substituted graphdiyne-assisted ultrafast sparking synthesis of metastable nanomaterials| Nanomedicine platform for targeting activated neutrophils and neutrophil–platelet complexes using an α1-antitrypsin-derived peptide motif| A general one-step plug-and-probe approach to top-gated transistors for rapidly probing delicate electronic materials| Non-invasive activation of intratumoural gene editing for improved adoptive T-cell therapy in solid tumours| On-demand electrical control of spin qubits| Dynamic configurations of metallic atoms in the liquid state for selective propylene synthesis| Photocarrier-induced persistent structural polarization in soft-lattice lead halide perovskites| Unravelling crystal growth of nanoparticles| High-throughput manufacturing of epitaxial membranes from a single wafer by 2D materials-based layer transfer process| Electrical switching of a bistable moiré superconductor| Submolecular-scale control of phototautomerization| Electrically tunable space–time metasurfaces at optical frequencies| An artificial metabzyme for tumour-cell-specific metabolic therapy| Blue lasers using low-toxicity colloidal quantum dots| Quantifying T cell receptor mechanics at membrane junctions using DNA origami tension sensors| Targeted intervention in nerve–cancer crosstalk enhances pancreatic cancer chemotherapy| A primordial DNA store and compute engine| Deterministic switching of perpendicular magnetization by out-of-plane anti-damping magnon torques| Universal control of four singlet–triplet qubits| Atomically intimate assembly of dual metal–oxide interfaces for tandem conversion of syngas to ethanol| AND-gated protease-activated nanosensors for programmable detection of anti-tumour immunity| Nanofabrication of silk microneedles for high-throughput micronutrient delivery and continuous sap monitoring in plants| Advances and challenges towards consumerization of nanomaterials| Probing myeloid cell dynamics in ischaemic heart disease by nanotracer hot-spot imaging| Bipolar thermoelectric Josephson engine| Giant magnetochiral anisotropy from quantum-confined surface states of topological insulator nanowires| Relation between interfacial shear and friction force in 2D materials| Killing cancer cells by rupturing their lysosomes| Single-molecule mechanical fingerprinting with DNA nanoswitch calipers| Quantum-enabled microwave-to-optical transduction via silicon nanomechanics| Ferroelectric topologies in BaTiO3 nanomembranes for light field manipulation| Nanopore-based enzyme-linked immunosorbent assay for cancer biomarker detection| Discovering nanoparticle corona ligands for liver macrophage capture| High-fidelity single-spin shuttling in silicon| Honeybee comb-inspired stiffness gradient-amplified catapult for solid particle repellency| Exploring the host range for genetic transfer of magnetic organelle biosynthesis| Nanoparticle surfactants for kinetically arrested photoactive assemblies to track light-induced electron transfer| COVID-19 may become nanomedicine’s finest hour yet| A roadmap for molecular thermoelectricity| Nanophotonic control of thermal emission under extreme temperatures in air| Wireless real-time monitoring of oestradiol in sweat| Golden touch of the nanoparticles| High-endurance micro-engineered LaB6 nanowire electron source for high-resolution electron microscopy| Creation and annihilation of mobile fractional solitons in atomic chains| Superconducting single-photon detectors get hot| Scalable massively parallel computing using continuous-time data representation in nanoscale crossbar array| Non-reciprocal interaction for living matter| Nanoscale subparticle imaging of vibrational dynamics using dark-field ultrafast transmission electron microscopy| Author Correction: Universal STING mimic boosts antitumour immunity via preferential activation of tumour control signalling pathways| An electron turnstile for frequency-to-power conversion| Nanotechnology for electrochemical energy storage| Nanopores take on the challenge of rare-earth detection| A modular mRNA vaccine platform encoding antigen-presenting capsid virus-like particles enhances the immunogenicity of the malaria antigen Pfs25| Atomic manipulation of the emergent quasi-2D superconductivity and pair density wave in a kagome metal| Event-driven retinomorphic photodiode with bio-plausible temporal dynamics| Carbon nanotubes activate inflammatory signalling through binding to Siglec-14| Biohybrid nanoparticles for treating arthritis| The path to scalable quantum computing with silicon spin qubits| Boosting dendritic cell nanovaccines| Rhombohedral graphene goes correlated at four or five layers| Actively tunable laser action in GeSn nanomechanical oscillators| Electricity generated from upstream proton diffusion| The pull of the MXene vortex| Precise control of van der Waals gaps| 1D metals for 2D electronics| Aharonov–Bohm interference and statistical phase-jump evolution in fractional quantum Hall states in bilayer graphene| 2D materials grow large| All the lonely atoms, where do they all belong?| Acute, controlled inhalation of thin graphene oxide nanosheets in humans with null cardiorespiratory effects| Gentler, nanoscale ion implantation| Lipid nanoparticles target haematopoietic stem cells| 3D printed photonic crystals with a complete bandgap in the visible range| Silk protein connecting water and nanofabrication| The importance and challenges of data sharing| Listening to the sound of a bacterium| Welcome to the single-molecule electret device| Quantum dot dot dot| Chemical mechanisms, one molecule at a time| Nano for agriculture, not the opposite| Nadrian C. (Ned) Seeman (1945–2021)| Nanostructured artificial-muscle fibres| Quantum dot nanocomposites for flexible retina| 2D Ferroelectricity in hetero-phase junction| 2D materials for fast flash memory devices| Topological engineering for metallic polymers| Highly tunable ultrafast control of a spin qubit| Electrochemical CO2 reduction passes the acid test| Author Correction: Magnetic skyrmion bundles and their current-driven dynamics| Bringing out the Occam’s razor in peer-review| Quantum simulator comes in pairs| Author Correction: Molecular bottlebrush prodrugs as mono- and triplex combination therapies for multiple myeloma| Voltage enables ferro-rotational domain switching| Light routing by nanoscale nonlinear interferometry with attosecond control| Electrochemical cell in the brain| Ordering with a twist| Graphene edge interference improves single-molecule transistors| Inelastic electron tunnelling induces anomalous light emission| Nanowires engineer naive T cells for immunotherapy| A molecular spin on a scanning probe tip enables quantum sensing at the atomic scale| Nonlinear Hall effect in an insulator| DNA nanoswitches pack an anti-cancer punch| Solar cells for stored energy| Building devices in magic-angle graphene| Quantum nanoscience| Measuring how effectively light drives a molecular pump| Building successful nanomedicine start-ups| Coherent spin waves driving domain wall motion in insulators| Author Correction: Membrane-anchored DNA nanojunctions enable closer antigen-presenting cell–T-cell contact in elevated T-cell receptor triggering| Publisher Correction: 2D phase transitions: Freezing and melting skyrmions in 2D| Off balance and over the edge| Enter plastic| Making a case for moiré semiconductors| Developing nanophotonic structures that are stable in air and at high temperatures| Nanopores enable electrohydrodynamical DNA motor| Controlled transformation of skyrmions and antiskyrmions in a non-centrosymmetric magnet| Oriented lateral growth of two-dimensional materials on c-plane sapphire| Berry curvature dipole generation and helicity-to-spin conversion at symmetry-mismatched heterointerfaces| Large non-reciprocal charge transport mediated by quantum anomalous Hall edge states| Nanoscale C–H/C–D mapping of organic materials using electron spectroscopy</v>
       </c>
-      <c r="D9" t="str">
-        <v>東大</v>
-      </c>
-      <c r="E9" t="str">
-        <v>東北大</v>
-      </c>
-      <c r="F9">
+      <c r="D9" s="1" t="str">
+        <v>東大</v>
+      </c>
+      <c r="E9" s="1" t="str">
+        <v>東北大</v>
+      </c>
+      <c r="F9" s="1" t="str">
+        <v>2020/12/19| 2025/07/23| 2023/05/17| 2022/06/21| 2020/04/16| 2020/12/14| 2023/08/22| 2020/08/11| 2020/09/12| 2025/09/11| 2025/04/05| 2025/02/13| 2021/08/02| 2021/01/04| 2020/03/13| 2023/11/23| 2022/06/12| 2020/12/18| 2023/03/05| 2024/01/09| 2025/12/30| 2022/11/26| 2020/03/21| 2021/11/05| 2025/06/16| 2022/11/13| 2025/07/21| 2021/12/05| 2020/07/26| 2022/12/20| 2022/11/18| 2020/05/07| 2021/10/13| 2023/11/03| 2023/12/07| 2023/03/06| 2020/12/24| 2024/02/02| 2023/05/01| 2021/05/08| 2020/09/10| 2025/05/16| 2025/10/11| 2023/02/13| 2024/11/20| 2024/01/05| 2025/08/31| 2025/04/18| 2021/04/12| 2025/08/25| 2024/03/22| 2022/08/14| 2022/09/17| 2025/04/12| 2023/03/07| 2025/06/25| 2020/04/24| 2023/09/02| 2024/07/01| 2023/08/03| 2024/06/03| 2020/07/07| 2023/03/12| 2020/07/08| 2022/01/16| 2025/02/10| 2024/06/17| 2023/04/22| 2022/05/19| 2024/06/26| 2025/01/22| 2022/09/29| 2023/10/09| 2023/05/15| 2025/07/11| 2024/09/03| 2022/11/27| 2024/03/24| 2022/05/15| 2023/02/09| 2023/10/31| 2021/09/18| 2022/09/05| 2020/06/21| 2024/12/09| 2025/05/15| 2024/06/29| 2023/10/29| 2022/07/28| 2023/02/19| 2022/05/04| 2022/02/21| 2021/01/01| 2022/09/09| 2022/02/25| 2020/06/17| 2021/09/13| 2020/04/30| 2024/02/01| 2020/08/01| 2024/03/13| 2023/02/17| 2022/05/20| 2022/02/07| 2023/07/04| 2025/02/01| 2022/07/18| 2024/11/24| 2023/01/27| 2023/03/16| 2024/04/09| 2021/01/02| 2025/08/24| 2024/05/01| 2025/09/24| 2022/04/19| 2023/10/21| 2021/11/28| 2024/03/12| 2024/05/25| 2022/01/12| 2024/07/16| 2023/04/30| 2023/11/11| 2021/10/27| 2020/01/09| 2023/01/29| 2024/09/29| 2020/12/11| 2023/04/24| 2025/07/17| 2023/02/24| 2020/01/05| 2025/01/16| 2020/10/25| 2022/08/20| 2025/06/24| 2023/05/06| 2020/03/22| 2021/08/19| 2021/02/25| 2025/04/09| 2021/04/23| 2021/08/30| 2020/12/23| 2024/05/03| 2022/10/25| 2020/06/10| 2024/11/25| 2025/03/20| 2024/05/15| 2022/07/17| 2022/07/15| 2025/05/19| 2025/03/27| 2021/06/05| 2021/09/15| 2023/09/20| 2025/07/22| 2022/12/07| 2022/12/26| 2021/11/09| 2023/08/17| 2020/12/20| 2021/07/07| 2022/04/17| 2020/10/30| 2022/01/25| 2025/12/13| 2023/03/15| 2022/03/12| 2023/09/03| 2023/06/15| 2021/08/31| 2023/11/18| 2021/02/17| 2020/10/03| 2024/07/24| 2025/08/02| 2022/06/03| 2023/06/08| 2021/07/22| 2020/09/06| 2020/09/30| 2020/08/06| 2021/05/02| 2021/09/24| 2025/03/23| 2023/03/03| 2020/05/10| 2022/03/30| 2022/06/15| 2023/09/08| 2020/05/04| 2022/01/20| 2025/07/13| 2022/04/29| 2023/11/16| 2021/01/05| 2020/09/28</v>
+      </c>
+      <c r="G9" s="1" t="str">
         <v>208</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="str">
+      <c r="A10" s="1" t="str">
         <v>13 レビュー・総説・動向分析・社会データ</v>
       </c>
-      <c r="B10" t="str">
+      <c r="B10" s="1" t="str">
         <v>https://doi.org/10.1038/s41565-021-00898-0| https://doi.org/10.1038/s41565-020-00824-w| https://doi.org/10.1038/s41565-020-0737-y| https://doi.org/10.1038/s41565-021-00888-2| https://doi.org/10.1038/s41565-020-00823-x| https://doi.org/10.1038/s41565-022-01168-3| https://doi.org/10.1038/s41565-020-0732-3| https://doi.org/10.1038/s41565-020-00822-y| https://doi.org/10.1038/s41565-021-01017-9| https://doi.org/10.1038/s41565-020-0706-5| https://doi.org/10.1038/s41565-019-0613-9| https://doi.org/10.1038/s41565-022-01163-8| https://doi.org/10.1038/s41565-022-01071-x| https://doi.org/10.1038/s41565-021-00867-7| https://doi.org/10.1038/s41565-024-01695-1| https://doi.org/10.1038/s41565-023-01409-z| https://doi.org/10.1038/s41565-024-01699-x| https://doi.org/10.1038/s41565-020-0742-1| https://doi.org/10.1038/s41565-021-01001-3| https://doi.org/10.1038/s41565-020-0654-0| https://doi.org/10.1038/s41565-023-01347-w| https://doi.org/10.1038/s41565-023-01371-w| https://doi.org/10.1038/s41565-020-00819-7| https://doi.org/10.1038/s41565-021-00946-9| https://doi.org/10.1038/s41565-023-01578-x| https://doi.org/10.1038/s41565-021-00899-z| https://doi.org/10.1038/s41565-022-01157-6| https://doi.org/10.1038/s41565-025-01906-3| https://doi.org/10.1038/s41565-023-01331-4| https://doi.org/10.1038/s41565-020-0658-9| https://doi.org/10.1038/s41565-019-0612-x| https://doi.org/10.1038/s41565-021-00937-w| https://doi.org/10.1038/s41565-022-01270-6| https://doi.org/10.1038/s41565-020-0680-y| https://doi.org/10.1038/s41565-023-01486-0| https://doi.org/10.1038/s41565-025-01861-z| https://doi.org/10.1038/s41565-025-01911-6| https://doi.org/10.1038/s41565-025-01925-0| https://doi.org/10.1038/s41565-025-01951-y| https://doi.org/10.1038/s41565-025-01962-9| https://doi.org/10.1038/s41565-021-01049-1| https://doi.org/10.1038/s41565-022-01247-5| https://doi.org/10.1038/s41565-023-01338-x| https://doi.org/10.1038/s41565-020-0692-7| https://doi.org/10.1038/s41565-020-0677-6| https://doi.org/10.1038/s41565-023-01481-5| https://doi.org/10.1038/s41565-021-00912-5| https://doi.org/10.1038/s41565-021-00935-y| https://doi.org/10.1038/s41565-024-01844-6| https://doi.org/10.1038/s41565-021-00995-0| https://doi.org/10.1038/s41565-024-01714-1| https://doi.org/10.1038/s41565-020-0646-0| https://doi.org/10.1038/s41565-023-01411-5| https://doi.org/10.1038/s41565-021-01050-8| https://doi.org/10.1038/s41565-020-0766-6| https://doi.org/10.1038/s41565-021-01065-1| https://doi.org/10.1038/s41565-021-00944-x| https://doi.org/10.1038/s41565-021-01025-9| https://doi.org/10.1038/s41565-021-00918-z| https://doi.org/10.1038/s41565-022-01166-5| https://doi.org/10.1038/s41565-023-01512-1| https://doi.org/10.1038/s41565-024-01608-2| https://doi.org/10.1038/s41565-024-01616-2| https://doi.org/10.1038/s41565-024-01643-z| https://doi.org/10.1038/s41565-024-01646-w| https://doi.org/10.1038/s41565-024-01777-0| https://doi.org/10.1038/s41565-024-01818-8| https://doi.org/10.1038/s41565-024-01838-4| https://doi.org/10.1038/s41565-020-0686-5| https://doi.org/10.1038/s41565-022-01127-y| https://doi.org/10.1038/s41565-022-01202-4| https://doi.org/10.1038/s41565-022-01304-z| https://doi.org/10.1038/s41565-019-0615-7| https://doi.org/10.1038/s41565-020-0736-z| https://doi.org/10.1038/s41565-020-00830-y| https://doi.org/10.1038/s41565-019-0628-2| https://doi.org/10.1038/s41565-022-01093-5| https://doi.org/10.1038/s41565-022-01141-0| https://doi.org/10.1038/s41565-022-01195-0| https://doi.org/10.1038/s41565-022-01275-1| https://doi.org/10.1038/s41565-021-01013-z| https://doi.org/10.1038/s41565-020-0656-y</v>
       </c>
-      <c r="C10" t="str">
+      <c r="C10" s="1" t="str">
         <v>The current landscape of nucleic acid therapeutics| Challenges in applying highly active Pt-based nanostructured catalysts for oxygen reduction reactions to fuel cell vehicles| COVID-19 vaccine development and a potential nanomaterial path forward| Placing nanoplastics in the context of global plastic pollution| An industrial perspective on catalysts for low-temperature CO2 electrolysis| Metal–organic frameworks and covalent organic frameworks as disruptive membrane materials for energy-efficient gas separation| Immune-mediated approaches against COVID-19| Nanomaterials for T-cell cancer immunotherapy| The ancillary effects of nanoparticles and their implications for nanomedicine| Guiding the design space for nanotechnology to advance sustainable crop production| Carbon nanotubes added to the SIN List as a nanomaterial of Very High Concern| Industry outlook of perovskite quantum dots for display applications| Applying lessons learned from nanomedicines to understand rare hypersensitivity reactions to mRNA-based SARS-CoV-2 vaccines| Challenges and potential solutions for nanosensors intended for use with foods| The future of two-dimensional semiconductors beyond Moore’s law| Developing trends in nanomaterials and their environmental implications| The gap between academic research on proton exchange membrane water electrolysers and industrial demands| Key principles and operational practices for improved nanotechnology environmental exposure assessment| The role and impact of polyethylene glycol on anaphylactic reactions to COVID-19 nano-vaccines| Grouping all carbon nanotubes into a single substance category is scientifically unjustified| mRNA therapy at the convergence of genetics and nanomedicine| Active ingredient vs excipient debate for nanomedicines| Advances and challenges towards consumerization of nanomaterials| Reasons for success and lessons learnt from nanoscale vaccines against COVID-19| How nanoparticles are counted in global regulatory nanomaterial definitions| Nanotechnology, equity and global health| Nanotechnology meets circular economy| From small batteries to big claims| The need for awareness and action in managing nanowaste| The risks of nanomaterial risk assessment| A few clarifications on MIRIBEL| Author Correction: The current landscape of nucleic acid therapeutics| The potential impact of nanomedicine on COVID-19-induced thrombosis| The race against COVID-19| The Cancer Moonshot, the role of in vitro models, model accuracy, and the need for validation| Bruno Scrosati (1937–2024)| Fraser Stoddart (1942–2024)| Better the devil you know than the devil you don’t — PEG challenges in nanomedicine| The benefits and risks of PEGylation in nanomedicine| A roadmap for next-generation nanomotors| Prospects and challenges for FAIR toxicogenomics data| Moving forward in the semantic soup of artificial molecular machine taxonomy| Battery researchers in academia and industry should collaborate more effectively| SIN List criticism based on misunderstandings| Notes on environmental nanoscience| Navigating advanced technology transitions: using lessons from nanotechnology| Bridging international approaches on nanoEHS| Making nano data FAIR enough| The importance of basic electrochemistry terminology in the era of interdisciplinary battery research| The rise of nanoagrochemicals| Hype kills your story| The importance and challenges of data sharing| Moore must go on| Reply to: Prospects and challenges for FAIR toxicogenomics data| Nano for agriculture, not the opposite| Nadrian C. (Ned) Seeman (1945–2021)| Nanofabrication meets open science| Substance in nanomaterials regulation| Questions on nanoplastic| Bringing out the Occam’s razor in peer-review| China Nano is back| Ian Manners (1961–2023)| The potential for academics to inspire the next generation| I wish I had a mentor| Roeland Nolte (1944–2024)| Nanomedicine pioneers awarded the Kavli Prize| The climate crisis is a call for action for nanotechnology| Renewable hydrogen is having a moment| Nongjian Tao (1963–2020)| In praise of interdisciplinary science| Building successful nanomedicine start-ups| Telling nanotech success stories| Religious reactions to new technologies| Social systems for technology| Sanjiv ‘Sam’ Gambhir (1962–2020)| Good luck, Teri Odom| Mark A. Reed (1955–2021)| Author Correction: Reasons for success and lessons learnt from nanoscale vaccines against COVID-19| Robert F. Curl (1933–2022)| A Kavli prize at the interface| Small is even more different now| Banning carbon nanotubes would be scientifically unjustified and damaging to innovation</v>
       </c>
-      <c r="D10" t="str">
-        <v>東大</v>
-      </c>
-      <c r="E10" t="str">
-        <v/>
-      </c>
-      <c r="F10">
+      <c r="D10" s="1" t="str">
+        <v>東大</v>
+      </c>
+      <c r="E10" s="1" t="str">
+        <v/>
+      </c>
+      <c r="F10" s="1" t="str">
+        <v>2025/01/29| 2024/10/06| 2023/03/27| 2020/04/16| 2021/09/16| 2023/04/18| 2022/09/20| 2021/07/10| 2020/08/04| 2025/03/14| 2022/07/23| 2023/03/05| 2025/01/31| 2023/06/26| 2021/05/08| 2022/09/27| 2021/05/04| 2023/03/30| 2023/12/09| 2025/09/21| 2023/06/15| 2022/06/27| 2023/01/27| 2020/09/06| 2022/05/27| 2020/06/15| 2025/05/17| 2020/10/08| 2020/07/29| 2023/07/14| 2022/12/28| 2025/07/22| 2022/06/17| 2021/04/25| 2024/06/06| 2021/07/12| 2020/12/24| 2020/02/21| 2021/02/20| 2021/02/15| 2020/09/19| 2023/02/26| 2022/08/26| 2024/11/28| 2025/03/01| 2023/10/13| 2025/02/08| 2022/09/26| 2021/12/23| 2025/01/01| 2020/09/12| 2025/12/04| 2024/05/24| 2023/08/17| 2020/12/20| 2024/11/17| 2020/06/02| 2024/01/02| 2023/09/03| 2022/01/29| 2024/10/22| 2021/03/03| 2021/05/23| 2021/01/21| 2020/05/23| 2021/01/31| 2023/07/26| 2025/06/06| 2022/04/30| 2025/03/23| 2022/08/15| 2022/10/21| 2024/09/28| 2022/05/23| 2023/07/04| 2021/10/18| 2023/06/19| 2020/05/14| 2023/03/17| 2021/01/08| 2025/12/09</v>
+      </c>
+      <c r="G10" s="1" t="str">
         <v>82</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="str">
+      <c r="A11" s="1" t="str">
         <v>1 新規材料・ナノ構造の合成・成長・構造制御・基礎物性の解明</v>
       </c>
-      <c r="B11" t="str">
+      <c r="B11" s="1" t="str">
         <v>https://doi.org/10.1038/s41565-021-00858-8| https://doi.org/10.1038/s41565-021-01022-y| https://doi.org/10.1038/s41565-020-00811-1| https://doi.org/10.1038/s41565-019-0618-4| https://doi.org/10.1038/s41565-020-0674-9| https://doi.org/10.1038/s41565-021-00951-y| https://doi.org/10.1038/s41565-020-00822-y| https://doi.org/10.1038/s41565-020-00843-7| https://doi.org/10.1038/s41565-020-0693-6| https://doi.org/10.1038/s41565-020-00810-2| https://doi.org/10.1038/s41565-020-0706-5| https://doi.org/10.1038/s41565-022-01179-0| https://doi.org/10.1038/s41565-021-00950-z| https://doi.org/10.1038/s41565-023-01329-y| https://doi.org/10.1038/s41565-022-01308-9| https://doi.org/10.1038/s41565-021-00848-w| https://doi.org/10.1038/s41565-021-01070-4| https://doi.org/10.1038/s41565-023-01372-9| https://doi.org/10.1038/s41565-023-01498-w| https://doi.org/10.1038/s41565-023-01394-3| https://doi.org/10.1038/s41565-024-01657-7| https://doi.org/10.1038/s41565-023-01579-w| https://doi.org/10.1038/s41565-024-01784-1| https://doi.org/10.1038/s41565-023-01565-2| https://doi.org/10.1038/s41565-024-01642-0| https://doi.org/10.1038/s41565-024-01654-w| https://doi.org/10.1038/s41565-024-01722-1| https://doi.org/10.1038/s41565-024-01848-2| https://doi.org/10.1038/s41565-025-01862-y| https://doi.org/10.1038/s41565-020-0753-y| https://doi.org/10.1038/s41565-020-00813-z| https://doi.org/10.1038/s41565-021-01023-x| https://doi.org/10.1038/s41565-020-00816-w| https://doi.org/10.1038/s41565-020-0755-9| https://doi.org/10.1038/s41565-021-01027-7| https://doi.org/10.1038/s41565-022-01197-y| https://doi.org/10.1038/s41565-021-00859-7| https://doi.org/10.1038/s41565-022-01276-0| https://doi.org/10.1038/s41565-022-01258-2| https://doi.org/10.1038/s41565-023-01452-w| https://doi.org/10.1038/s41565-022-01104-5| https://doi.org/10.1038/s41565-023-01347-w| https://doi.org/10.1038/s41565-023-01485-1| https://doi.org/10.1038/s41565-023-01466-4| https://doi.org/10.1038/s41565-023-01527-8| https://doi.org/10.1038/s41565-023-01547-4| https://doi.org/10.1038/s41565-024-01694-2| https://doi.org/10.1038/s41565-024-01756-5| https://doi.org/10.1038/s41565-024-01826-8| https://doi.org/10.1038/s41565-024-01849-1| https://doi.org/10.1038/s41565-025-01909-0| https://doi.org/10.1038/s41565-021-00946-9| https://doi.org/10.1038/s41565-022-01209-x| https://doi.org/10.1038/s41565-023-01328-z| https://doi.org/10.1038/s41565-023-01412-4| https://doi.org/10.1038/s41565-023-01488-y| https://doi.org/10.1038/s41565-024-01724-z| https://doi.org/10.1038/s41565-024-01822-y| https://doi.org/10.1038/s41565-025-01929-w| https://doi.org/10.1038/s41565-025-01952-x| https://doi.org/10.1038/s41565-020-0668-7| https://doi.org/10.1038/s41565-021-01064-2| https://doi.org/10.1038/s41565-022-01158-5| https://doi.org/10.1038/s41565-023-01362-x| https://doi.org/10.1038/s41565-024-01781-4| https://doi.org/10.1038/s41565-022-01123-2| https://doi.org/10.1038/s41565-022-01232-y| https://doi.org/10.1038/s41565-023-01402-6| https://doi.org/10.1038/s41565-024-01666-6| https://doi.org/10.1038/s41565-025-01868-6| https://doi.org/10.1038/s41565-025-01897-1| https://doi.org/10.1038/s41565-025-01949-6| https://doi.org/10.1038/s41565-025-01946-9| https://doi.org/10.1038/s41565-020-0697-2| https://doi.org/10.1038/s41565-024-01744-9| https://doi.org/10.1038/s41565-020-0659-8| https://doi.org/10.1038/s41565-021-00990-5| https://doi.org/10.1038/s41565-023-01322-5| https://doi.org/10.1038/s41565-020-0718-1| https://doi.org/10.1038/s41565-021-00995-0| https://doi.org/10.1038/s41565-024-01605-5| https://doi.org/10.1038/s41565-024-01745-8| https://doi.org/10.1038/s41565-024-01796-x| https://doi.org/10.1038/s41565-020-0726-1| https://doi.org/10.1038/s41565-022-01244-8| https://doi.org/10.1038/s41565-022-01313-y| https://doi.org/10.1038/s41565-023-01568-z| https://doi.org/10.1038/s41565-023-01564-3| https://doi.org/10.1038/s41565-021-00918-z| https://doi.org/10.1038/s41565-022-01242-w| https://doi.org/10.1038/s41565-024-01630-4| https://doi.org/10.1038/s41565-024-01602-8| https://doi.org/10.1038/s41565-024-01643-z| https://doi.org/10.1038/s41565-024-01692-4| https://doi.org/10.1038/s41565-024-01703-4| https://doi.org/10.1038/s41565-024-01810-2| https://doi.org/10.1038/s41565-022-01269-z| https://doi.org/10.1038/s41565-023-01353-y| https://doi.org/10.1038/s41565-023-01425-z| https://doi.org/10.1038/s41565-023-01506-z| https://doi.org/10.1038/s41565-019-0628-2</v>
       </c>
-      <c r="C11" t="str">
+      <c r="C11" s="1" t="str">
         <v>Key principles and methods for studying the endocytosis of biological and nanoparticle therapeutics| Scalable two-step annealing method for preparing ultra-high-density single-atom catalyst libraries| Semiconductor physics of organic–inorganic 2D halide perovskites| Real-time mass spectrometric characterization of the solid–electrolyte interphase of a lithium-ion battery| Insights from nanomedicine into chloroquine efficacy against COVID-19| Synergizing metal–support interactions and spatial confinement boosts dynamics of atomic nickel for hydrogenations| Nanomaterials for T-cell cancer immunotherapy| Immunostimulant hydrogel for the inhibition of malignant glioma relapse post-resection| Zwitterionic micelles efficiently deliver oral insulin without opening tight junctions| Inducing immune tolerance with dendritic cell-targeting nanomedicines| Guiding the design space for nanotechnology to advance sustainable crop production| Nanozyme-catalysed CRISPR assay for preamplification-free detection of non-coding RNAs| Immunogenic camptothesome nanovesicles comprising sphingomyelin-derived camptothecin bilayers for safe and synergistic cancer immunochemotherapy| Oligomer nanoparticle release from polylactic acid plastics catalysed by gut enzymes triggers acute inflammation| Electrochemically modulated interaction of MXenes with microwaves| Layer-by-layer anionic diffusion in two-dimensional halide perovskite vertical heterostructures| Non-oxidized bare copper nanoparticles with surface excess electrons in air| CRISPR-Cas-amplified urinary biomarkers for multiplexed and portable cancer diagnostics| Breaking through the basement membrane barrier to improve nanotherapeutic delivery to tumours| Hierarchical helical carbon nanotube fibre as a bone-integrating anterior cruciate ligament replacement| Single-site iron-anchored amyloid hydrogels as catalytic platforms for alcohol detoxification| Controllable van der Waals gaps by water adsorption| A cuproptosis nanocapsule for cancer radiotherapy| Oral nanotherapeutic formulation of insulin with reduced episodes of hypoglycaemia| Engineering interfacial polarization switching in van der Waals multilayers| Self-assembly of peptide nanocapsules by a solvent concentration gradient| Oral administration of garlic-derived nanoparticles improves cancer immunotherapy by inducing intestinal IFNγ-producing γδ T cells| Salt-in-presalt electrolyte solutions for high-potential non-aqueous sodium metal batteries| Resolving polarization switching pathways of sliding ferroelectricity in trilayer 3R-MoS2| Observation of inhomogeneous plasmonic field distribution in a nanocavity| DNA scaffolds enable efficient and tunable functionalization of biomaterials for immune cell modulation| Light–matter coupling in large-area van der Waals superlattices| Coherent control of individual electron spins in a two-dimensional quantum dot array| A rewritable optical storage medium of silk proteins using near-field nano-optics| Complex free-space magnetic field textures induced by three-dimensional magnetic nanostructures| Metasurface optofluidics for dynamic control of light fields| Complete mapping of the thermoelectric properties of a single molecule| Breakdown of the Nernst–Einstein relation in carbon nanotube porins| Non-reciprocal multifarious self-organization| Multilayer spintronic neural networks with radiofrequency connections| Bilayer WSe2 as a natural platform for interlayer exciton condensates in the strong coupling limit| mRNA therapy at the convergence of genetics and nanomedicine| Single-molecule analysis of DNA base-stacking energetics using patterned DNA nanostructures| Three-dimensional operando optical imaging of particle and electrolyte heterogeneities inside Li-ion batteries| A DNA turbine powered by a transmembrane potential across a nanopore| Oligomeric organization of membrane proteins from native membranes at nanoscale spatial and single-molecule resolution| In vivo magnetogenetics for cell-type-specific targeting and modulation of brain circuits| Durable and programmable ultrafast nanophotonic matrix of spectral pixels| Autophagosomes coated in situ with nanodots act as personalized cancer vaccines| Spatiotemporal imaging of nonlinear optics in van der Waals waveguides| Nanoinducer-mediated mitochondria-selective degradation enhances T cell immunotherapy against multiple cancers| Reasons for success and lessons learnt from nanoscale vaccines against COVID-19| A reverse-selective ion exchange membrane for the selective transport of phosphates via an outer-sphere complexation–diffusion pathway| Expansion-enhanced super-resolution radial fluctuations enable nanoscale molecular profiling of pathology specimens| Spatially multiplexed single-molecule translocations through a nanopore at controlled speeds| Infrared nano-imaging of Dirac magnetoexcitons in graphene| A quantum sensor for atomic-scale electric and magnetic fields| Layer-dependent evolution of electronic structures and correlations in rhombohedral multilayer graphene| Electromagnetic wireless remote control of mammalian transgene expression| A nanovaccine targeting cancer stem cells and bulk cancer cells for postoperative cancer immunotherapy| Tailoring topological order and π-conjugation to engineer quasi-metallic polymers| Membranes that filter and destroy pollutants| The start-ups taking nanoneedles into the clinic| The harmony of form and function in DNA nanotechnology| Biomimetic cell stimulation with a graphene oxide antigen-presenting platform for developing T cell-based therapies| Colloidal nanocrystals for large-area LEDs| Near-unity Raman β-factor of surface-enhanced Raman scattering in a waveguide| Nanotechnology for coral reef conservation, restoration and rehabilitation| Toroidic phase transitions in a direct-kagome artificial spin ice| Momentum tunnelling across quantum barriers| Asymmetric photooxidation of glycerol to hydroxypyruvic acid over Rb–Ir catalytic pairs on poly(heptazine imides)| Mechanochemical carbon dioxide capture and conversion| Scalable perovskite tandems enabled by dual-stage molecular regulation| Radiative Auger process in the single-photon limit| Bottom-up synthetic immunology| Formic acid oxidation boosted by Rh single atoms| A decade of R2R graphene manufacturing| Twisted light gets a splash of colour| Author Correction: Scalable synthesis of hierarchically structured carbon nanotube–graphene fibres for capacitive energy storage| The rise of nanoagrochemicals| Author Correction: Reversible optical data storage below the diffraction limit| A photo-controlled charge regulator improves cancer theranostics| Author Correction: A bispecific nanosystem activates endogenous natural killer cells in the bone marrow for haematologic malignancies therapy| Freezing and melting skyrmions in 2D| Improving treatment of solid cancers by nanoconjugate-mediated immune conversion of tumour cells| Author Correction: Direct patterning of colloidal quantum dots with adaptable dual-ligand surface| Publisher Correction: Ceria-vesicle nanohybrid therapeutic for modulation of innate and adaptive immunity in a collagen-induced arthritis model| A bump worthy of a Nobel Prize| Questions on nanoplastic| Scalable optical levitation| Fabrication of mechanochromic gallium nanostructures by capillary interactions| Author Correction: Ballistic Majorana nanowire devices| I wish I had a mentor| Multiwalled boron nitride nanotubes with a strong nonlinear chiroptical response| Breaking barriers by interfacial charge transfer| Organic radio-afterglow nanoprobes for cancer theranostics| Combating fogging with selective sunlight nano-absorbers| Reply to: Primary role of photothermal heating in light-driven reduction of nitroarenes| Making versatile electron microscope tools| Using single vacancies to build quantum antidots with atomic precision| Good luck, Teri Odom</v>
       </c>
-      <c r="D11" t="str">
-        <v/>
-      </c>
-      <c r="E11" t="str">
-        <v/>
-      </c>
-      <c r="F11">
+      <c r="D11" s="1" t="str">
+        <v/>
+      </c>
+      <c r="E11" s="1" t="str">
+        <v/>
+      </c>
+      <c r="F11" s="1" t="str">
+        <v>2023/02/06| 2020/03/25| 2025/12/24| 2023/06/07| 2022/06/14| 2023/07/17| 2021/07/10| 2024/01/01| 2023/02/14| 2025/01/01| 2025/03/14| 2022/03/04| 2024/06/19| 2024/01/18| 2020/02/24| 2025/07/21| 2023/04/19| 2020/02/29| 2023/09/12| 2024/11/08| 2020/11/02| 2022/01/22| 2020/07/29| 2023/08/20| 2024/03/05| 2022/06/18| 2021/07/16| 2020/05/26| 2022/07/07| 2025/07/28| 2022/08/31| 2022/08/19| 2025/04/25| 2021/09/09| 2021/09/21| 2024/01/14| 2024/09/04| 2021/06/01| 2024/01/26| 2025/03/06| 2021/10/07| 2023/06/15| 2021/08/30| 2024/02/02| 2023/12/12| 2025/12/08| 2022/01/16| 2025/03/05| 2025/02/26| 2020/01/07| 2023/01/16| 2020/09/06| 2022/09/30| 2025/11/03| 2020/02/18| 2022/11/04| 2022/04/25| 2024/04/24| 2022/09/12| 2021/12/15| 2024/01/02| 2021/01/07| 2025/07/30| 2023/06/30| 2022/06/05| 2020/05/21| 2021/08/01| 2025/05/08| 2023/09/11| 2020/09/14| 2024/04/25| 2024/05/15| 2020/01/20| 2025/05/12| 2020/08/12| 2023/06/20| 2023/01/17| 2022/08/02| 2022/03/10| 2020/08/28| 2020/11/20| 2022/06/27| 2023/04/22| 2023/08/01| 2021/04/19| 2020/05/12| 2020/01/04| 2024/05/30| 2021/10/01| 2022/01/06| 2021/05/23| 2024/02/12| 2020/03/26| 2025/01/12| 2020/05/27| 2022/01/04| 2025/06/18| 2025/01/14| 2023/07/04</v>
+      </c>
+      <c r="G11" s="1" t="str">
         <v>101</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="str">
+      <c r="A12" s="1" t="str">
         <v>3 構造評価・表面分析・顕微鏡観察</v>
       </c>
-      <c r="B12" t="str">
+      <c r="B12" s="1" t="str">
         <v>https://doi.org/10.1038/s41565-021-00858-8| https://doi.org/10.1038/s41565-020-0707-4| https://doi.org/10.1038/s41565-021-01051-7| https://doi.org/10.1038/s41565-021-00886-4| https://doi.org/10.1038/s41565-020-0657-x| https://doi.org/10.1038/s41565-019-0604-x| https://doi.org/10.1038/s41565-020-0708-3| https://doi.org/10.1038/s41565-021-01000-4| https://doi.org/10.1038/s41565-020-00845-5| https://doi.org/10.1038/s41565-020-00789-w| https://doi.org/10.1038/s41565-021-01014-y| https://doi.org/10.1038/s41565-021-00954-9| https://doi.org/10.1038/s41565-021-00998-x| https://doi.org/10.1038/s41565-021-00885-5| https://doi.org/10.1038/s41565-022-01148-7| https://doi.org/10.1038/s41565-022-01234-w| https://doi.org/10.1038/s41565-023-01534-9| https://doi.org/10.1038/s41565-022-01078-4| https://doi.org/10.1038/s41565-023-01579-w| https://doi.org/10.1038/s41565-024-01642-0| https://doi.org/10.1038/s41565-024-01620-6| https://doi.org/10.1038/s41565-020-00798-9| https://doi.org/10.1038/s41565-020-0716-3| https://doi.org/10.1038/s41565-021-00872-w| https://doi.org/10.1038/s41565-021-00927-y| https://doi.org/10.1038/s41565-021-00914-3| https://doi.org/10.1038/s41565-021-01031-x| https://doi.org/10.1038/s41565-020-00840-w| https://doi.org/10.1038/s41565-020-0695-4| https://doi.org/10.1038/s41565-022-01264-4| https://doi.org/10.1038/s41565-022-01144-x| https://doi.org/10.1038/s41565-023-01418-y| https://doi.org/10.1038/s41565-022-01309-8| https://doi.org/10.1038/s41565-022-01219-9| https://doi.org/10.1038/s41565-022-01306-x| https://doi.org/10.1038/s41565-023-01316-3| https://doi.org/10.1038/s41565-023-01355-w| https://doi.org/10.1038/s41565-023-01386-3| https://doi.org/10.1038/s41565-023-01466-4| https://doi.org/10.1038/s41565-023-01547-4| https://doi.org/10.1038/s41565-023-01594-x| https://doi.org/10.1038/s41565-024-01734-x| https://doi.org/10.1038/s41565-020-0687-4| https://doi.org/10.1038/s41565-023-01328-z| https://doi.org/10.1038/s41565-023-01495-z| https://doi.org/10.1038/s41565-023-01406-2| https://doi.org/10.1038/s41565-023-01510-3| https://doi.org/10.1038/s41565-024-01775-2| https://doi.org/10.1038/s41565-020-0662-0| https://doi.org/10.1038/s41565-022-01126-z| https://doi.org/10.1038/s41565-023-01327-0| https://doi.org/10.1038/s41565-023-01542-9| https://doi.org/10.1038/s41565-023-01589-8| https://doi.org/10.1038/s41565-025-01919-y| https://doi.org/10.1038/s41565-025-01934-z| https://doi.org/10.1038/s41565-025-01950-z| https://doi.org/10.1038/s41565-021-00869-5| https://doi.org/10.1038/s41565-023-01500-5| https://doi.org/10.1038/s41565-023-01556-3| https://doi.org/10.1038/s41565-024-01792-1| https://doi.org/10.1038/s41565-024-01791-2| https://doi.org/10.1038/s41565-020-0689-2| https://doi.org/10.1038/s41565-021-01042-8| https://doi.org/10.1038/s41565-022-01262-6| https://doi.org/10.1038/s41565-020-0651-3| https://doi.org/10.1038/s41565-022-01255-5| https://doi.org/10.1038/s41565-024-01839-3| https://doi.org/10.1038/s41565-025-01873-9| https://doi.org/10.1038/s41565-025-01912-5| https://doi.org/10.1038/s41565-025-01921-4| https://doi.org/10.1038/s41565-025-01936-x| https://doi.org/10.1038/s41565-025-01940-1| https://doi.org/10.1038/s41565-025-01959-4| https://doi.org/10.1038/s41565-025-01960-x| https://doi.org/10.1038/s41565-025-01966-5| https://doi.org/10.1038/s41565-021-01067-z| https://doi.org/10.1038/s41565-021-01044-6| https://doi.org/10.1038/s41565-021-00877-5| https://doi.org/10.1038/s41565-023-01554-5| https://doi.org/10.1038/s41565-023-01569-y| https://doi.org/10.1038/s41565-021-01047-3| https://doi.org/10.1038/s41565-020-0676-7| https://doi.org/10.1038/s41565-019-0625-5| https://doi.org/10.1038/s41565-021-00948-7| https://doi.org/10.1038/s41565-022-01263-5| https://doi.org/10.1038/s41565-021-00985-2| https://doi.org/10.1038/s41565-021-01054-4| https://doi.org/10.1038/s41565-022-01138-9| https://doi.org/10.1038/s41565-020-0645-1| https://doi.org/10.1038/s41565-020-0705-6| https://doi.org/10.1038/s41565-020-0721-6| https://doi.org/10.1038/s41565-024-01623-3| https://doi.org/10.1038/s41565-024-01731-0| https://doi.org/10.1038/s41565-021-01058-0| https://doi.org/10.1038/s41565-020-00774-3| https://doi.org/10.1038/s41565-022-01167-4| https://doi.org/10.1038/s41565-021-00968-3| https://doi.org/10.1038/s41565-023-01318-1| https://doi.org/10.1038/s41565-023-01364-9| https://doi.org/10.1038/s41565-023-01430-2| https://doi.org/10.1038/s41565-020-00815-x| https://doi.org/10.1038/s41565-019-0616-6| https://doi.org/10.1038/s41565-023-01349-8| https://doi.org/10.1038/s41565-024-01735-w</v>
       </c>
-      <c r="C12" t="str">
+      <c r="C12" s="1" t="str">
         <v>Key principles and methods for studying the endocytosis of biological and nanoparticle therapeutics| Differentially charged nanoplastics demonstrate distinct accumulation in Arabidopsis thaliana| A multifunctional chemical toolbox to engineer carbon dots for biomedical and energy applications| Nanoplastics are neither microplastics nor engineered nanoparticles| From nanoscale interface characterization to sustainable energy storage using all-solid-state batteries| Lithium whisker growth and stress generation in an in situ atomic force microscope–environmental transmission electron microscope set-up| Visualization of moiré superlattices| Intercellular nanotubes mediate mitochondrial trafficking between cancer and immune cells| Identification of LiH and nanocrystalline LiF in the solid–electrolyte interphase of lithium metal anodes| Observation of single-defect memristor in an MoS2 atomic sheet| Coexisting ferromagnetic–antiferromagnetic state in twisted bilayer CrI3| Magnetic skyrmion bundles and their current-driven dynamics| Steam disinfection releases micro(nano)plastics from silicone-rubber baby teats as examined by optical photothermal infrared microspectroscopy| Imaging the Néel vector switching in the monolayer antiferromagnet MnPSe3 with strain-controlled Ising order| Characterization of the structure and chemistry of the solid–electrolyte interface by cryo-EM leads to high-performance solid-state Li-metal batteries| Hierarchically self-assembled homochiral helical microtoroids| Microplastic fragmentation by rotifers in aquatic ecosystems contributes to global nanoplastic pollution| Precursors of Majorana modes and their length-dependent energy oscillations probed at both ends of atomic Shiba chains| Controllable van der Waals gaps by water adsorption| Engineering interfacial polarization switching in van der Waals multilayers| Chimeric nanobody-decorated liposomes by self-assembly| Structural and dynamics analysis of intrinsically disordered proteins by high-speed atomic force microscopy| Melting of a skyrmion lattice to a skyrmion liquid via a hexatic phase| Extracellular vesicle drug occupancy enables real-time monitoring of targeted cancer therapy| Continuous-wave near-infrared stimulated-emission depletion microscopy using downshifting lanthanide nanoparticles| Cellular binding, uptake and biotransformation of silver nanoparticles in human T lymphocytes| Unveiling the three-dimensional magnetic texture of skyrmion tubes| Self-assembly of aramid amphiphiles into ultra-stable nanoribbons and aligned nanoribbon threads| Direct observation of water-mediated single-proton transport between hBN surface defects| Real-space nanoimaging of hyperbolic shear polaritons in a monoclinic crystal| Current-driven dynamics and ratchet effect of skyrmion bubbles in a ferrimagnetic insulator| Environmentally stable and stretchable polymer electronics enabled by surface-tethered nanostructured molecular-level protection| Evidence of frustrated magnetic interactions in a Wigner–Mott insulator| Atmospheric emission of nanoplastics from sewer pipe repairs| Photocarrier-induced persistent structural polarization in soft-lattice lead halide perovskites| Imaging solid–electrolyte interphase dynamics using operando reflection interference microscopy| Unravelling crystal growth of nanoparticles| Antiferromagnetic half-skyrmions electrically generated and controlled at room temperature| Three-dimensional operando optical imaging of particle and electrolyte heterogeneities inside Li-ion batteries| Oligomeric organization of membrane proteins from native membranes at nanoscale spatial and single-molecule resolution| Mapping charge excitations in generalized Wigner crystals| Microstrain screening towards defect-less layered transition metal oxide cathodes| Nanoscale nights of COVID-19| Expansion-enhanced super-resolution radial fluctuations enable nanoscale molecular profiling of pathology specimens| Atomically precise vacancy-assembled quantum antidots| Coherent magnon-induced domain-wall motion in a magnetic insulator channel| Dynamin A as a one-component division machinery for synthetic cells| Construction of topological quantum magnets from atomic spins on surfaces| Three-dimensional localization microscopy in live flowing cells| Atomic-scale friction between single-asperity contacts unveiled through in situ transmission electron microscopy| Giant orbital magnetic moments and paramagnetic shift in artificial relativistic atoms and molecules| Reversible optical data storage below the diffraction limit| In vivo real-time positron emission particle tracking (PEPT) and single particle PET| Ferroelectric topologies in BaTiO3 nanomembranes for light field manipulation| Electric bias-induced reversible configuration of single and heteronuclear dual-atom catalysts on 1Tʹ-MoS2| Ferroelastic writing of crystal directions in oxide thin films| Ultra-high-frequency radio-frequency acoustic molecular imaging with saline nanodroplets in living subjects| Exploring the host range for genetic transfer of magnetic organelle biosynthesis| Imaging DNA origami by fluorescence in situ hybridization| On-demand nanoengineering of in-plane ferroelectric topologies| Controlled single-electron transfer enables time-resolved excited-state spectroscopy of individual molecules| The route towards nanoparticle shape metrology| Creation and annihilation of mobile fractional solitons in atomic chains| A closer look at spin textures| Diffusion and transport of extracellular vesicles| Nanoscale subparticle imaging of vibrational dynamics using dark-field ultrafast transmission electron microscopy| Electron correlation strengthened in multilayer rhombohedral graphite| Nanometre-resolution three-dimensional tomographic and vectorial near-field imaging in dielectric optical resonators| Ceramic crystals stretch like metal| Battery research needs more reliable, representative and reproducible synchrotron characterizations| Molecular motors in action at interfaces| Atomic manipulation of the emergent quasi-2D superconductivity and pair density wave in a kagome metal| Colloidal chemistry in tin perovskite| States of shear wander| Ångström-resolution imaging of cell-surface glycans| Reply to: Random interstratification in hydrated graphene oxide membranes and implications for seawater desalination| Questions about the role of P3HT nanoparticles in retinal stimulation| Author Correction: From nanoscale interface characterization to sustainable energy storage using all-solid-state batteries| Ultrafast nano-movie of graphene| Author Correction: Infrared nano-imaging of Dirac magnetoexcitons in graphene| All the lonely atoms, where do they all belong?| Single-molecule imaging goes high throughput| Supercool sulfur| Chemical mechanisms, one molecule at a time| 2D Ferroelectricity in hetero-phase junction| Author Correction: Magnetic skyrmion bundles and their current-driven dynamics| Strolling on a cell membrane| Non-invasive confocal microscopy of the immune system| Nanotechnology in a shrimp eye’s view| Ordering with a twist| In recognition of aberration-corrected TEM| Photo-induced chemistry with sub-molecular resolution| A molecular spin on a scanning probe tip enables quantum sensing at the atomic scale| Quantum nanoscience| Publisher Correction: Melting of a skyrmion lattice to a skyrmion liquid via a hexatic phase| Publisher Correction: Atomic-scale friction between single-asperity contacts unveiled through in situ transmission electron microscopy| Netting proteins, one at a time| Imaging pathology goes nanoscale with a low-cost strategy| Transport mechanisms| Coherent spin waves driving domain wall motion in insulators| Off balance and over the edge| Controlled transformation of skyrmions and antiskyrmions in a non-centrosymmetric magnet| Real-space observation of a two-dimensional electron gas at semiconductor heterointerfaces| High-resolution three-dimensional imaging of topological textures in nanoscale single-diamond networks</v>
       </c>
-      <c r="D12" t="str">
-        <v>東大</v>
-      </c>
-      <c r="E12" t="str">
-        <v>東北大</v>
-      </c>
-      <c r="F12">
+      <c r="D12" s="1" t="str">
+        <v>東大</v>
+      </c>
+      <c r="E12" s="1" t="str">
+        <v>東北大</v>
+      </c>
+      <c r="F12" s="1" t="str">
+        <v>2023/02/06| 2020/08/14| 2023/11/18| 2021/10/09| 2022/12/23| 2020/10/04| 2022/09/07| 2025/02/13| 2023/03/27| 2021/01/04| 2020/12/18| 2023/05/02| 2020/03/21| 2022/06/01| 2024/11/26| 2020/12/12| 2025/04/19| 2025/05/16| 2022/01/22| 2024/03/05| 2020/01/29| 2024/06/09| 2020/08/23| 2023/03/01| 2023/01/30| 2024/09/03| 2024/11/08| 2020/12/05| 2022/04/08| 2022/10/22| 2023/10/24| 2025/06/01| 2020/05/01| 2022/09/09| 2024/10/07| 2022/02/25| 2025/09/13| 2024/02/02| 2025/12/08| 2021/08/29| 2023/12/09| 2020/04/21| 2025/11/03| 2025/02/17| 2024/05/21| 2025/07/16| 2020/01/14| 2025/07/10| 2023/09/27| 2023/10/26| 2023/09/12| 2023/12/28| 2022/04/19| 2024/07/19| 2024/10/26| 2024/09/16| 2022/01/12| 2021/12/27| 2023/05/09| 2023/10/22| 2024/01/03| 2020/12/11| 2022/09/06| 2025/04/18| 2020/01/05| 2021/10/11| 2023/12/02| 2024/02/25| 2020/05/25| 2024/10/19| 2020/03/22| 2021/10/05| 2020/06/28| 2022/06/13| 2024/01/07| 2024/10/28| 2022/10/18| 2022/07/15| 2020/10/27| 2022/11/25| 2021/11/09| 2020/10/30| 2022/03/12| 2023/08/27| 2022/07/21| 2024/05/19| 2020/10/03| 2024/01/25| 2021/01/29| 2023/06/08| 2021/05/02| 2023/09/03| 2024/07/29| 2025/03/03| 2020/07/28| 2024/09/08| 2023/03/03| 2022/06/15| 2022/04/29| 2020/06/11| 2023/05/07</v>
+      </c>
+      <c r="G12" s="1" t="str">
         <v>104</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="str">
+      <c r="A13" s="1" t="str">
         <v>14 その他（複合材料・特殊構造体等）</v>
       </c>
-      <c r="B13" t="str">
+      <c r="B13" s="1" t="str">
         <v>https://doi.org/10.1038/s41565-020-0707-4| https://doi.org/10.1038/s41565-020-0737-y| https://doi.org/10.1038/s41565-022-01082-8| https://doi.org/10.1038/s41565-021-00866-8| https://doi.org/10.1038/s41565-022-01168-3| https://doi.org/10.1038/s41565-022-01193-2| https://doi.org/10.1038/s41565-020-0751-0| https://doi.org/10.1038/s41565-020-00822-y| https://doi.org/10.1038/s41565-021-01063-3| https://doi.org/10.1038/s41565-023-01513-0| https://doi.org/10.1038/s41565-022-01130-3| https://doi.org/10.1038/s41565-020-0706-5| https://doi.org/10.1038/s41565-022-01122-3| https://doi.org/10.1038/s41565-023-01541-w| https://doi.org/10.1038/s41565-022-01220-2| https://doi.org/10.1038/s41565-021-00994-1| https://doi.org/10.1038/s41565-020-00844-6| https://doi.org/10.1038/s41565-021-00867-7| https://doi.org/10.1038/s41565-023-01383-6| https://doi.org/10.1038/s41565-021-00958-5| https://doi.org/10.1038/s41565-022-01174-5| https://doi.org/10.1038/s41565-021-01030-y| https://doi.org/10.1038/s41565-022-01151-y| https://doi.org/10.1038/s41565-023-01419-x| https://doi.org/10.1038/s41565-023-01392-5| https://doi.org/10.1038/s41565-023-01359-6| https://doi.org/10.1038/s41565-024-01667-5| https://doi.org/10.1038/s41565-024-01657-7| https://doi.org/10.1038/s41565-024-01658-6| https://doi.org/10.1038/s41565-024-01794-z| https://doi.org/10.1038/s41565-024-01641-1| https://doi.org/10.1038/s41565-024-01766-3| https://doi.org/10.1038/s41565-024-01758-3| https://doi.org/10.1038/s41565-024-01830-y| https://doi.org/10.1038/s41565-020-0672-y| https://doi.org/10.1038/s41565-020-00836-6| https://doi.org/10.1038/s41565-020-0742-1| https://doi.org/10.1038/s41565-021-00883-7| https://doi.org/10.1038/s41565-022-01258-2| https://doi.org/10.1038/s41565-023-01431-1| https://doi.org/10.1038/s41565-024-01609-1| https://doi.org/10.1038/s41565-023-01598-7| https://doi.org/10.1038/s41565-024-01733-y| https://doi.org/10.1038/s41565-024-01720-3| https://doi.org/10.1038/s41565-024-01803-1| https://doi.org/10.1038/s41565-023-01599-6| https://doi.org/10.1038/s41565-024-01741-y| https://doi.org/10.1038/s41565-024-01834-8| https://doi.org/10.1038/s41565-020-00819-7| https://doi.org/10.1038/s41565-022-01209-x| https://doi.org/10.1038/s41565-023-01328-z| https://doi.org/10.1038/s41565-023-01436-w| https://doi.org/10.1038/s41565-024-01724-z| https://doi.org/10.1038/s41565-019-0609-5| https://doi.org/10.1038/s41565-022-01157-6| https://doi.org/10.1038/s41565-023-01415-1| https://doi.org/10.1038/s41565-020-00791-2| https://doi.org/10.1038/s41565-020-0738-x| https://doi.org/10.1038/s41565-021-00869-5| https://doi.org/10.1038/s41565-023-01524-x| https://doi.org/10.1038/s41565-024-01678-2| https://doi.org/10.1038/s41565-022-01096-2| https://doi.org/10.1038/s41565-023-01536-7| https://doi.org/10.1038/s41565-020-0658-9| https://doi.org/10.1038/s41565-024-01772-5| https://doi.org/10.1038/s41565-024-01627-z| https://doi.org/10.1038/s41565-024-01761-8| https://doi.org/10.1038/s41565-023-01450-y| https://doi.org/10.1038/s41565-023-01486-0| https://doi.org/10.1038/s41565-023-01529-6| https://doi.org/10.1038/s41565-024-01829-5| https://doi.org/10.1038/s41565-025-01901-8| https://doi.org/10.1038/s41565-025-01955-8| https://doi.org/10.1038/s41565-025-01962-9| https://doi.org/10.1038/s41565-023-01480-6| https://doi.org/10.1038/s41565-020-00792-1| https://doi.org/10.1038/s41565-021-00853-z| https://doi.org/10.1038/s41565-021-01006-y| https://doi.org/10.1038/s41565-021-00909-0| https://doi.org/10.1038/s41565-021-00995-0| https://doi.org/10.1038/s41565-022-01149-6| https://doi.org/10.1038/s41565-021-00944-x| https://doi.org/10.1038/s41565-020-00842-8| https://doi.org/10.1038/s41565-020-0725-2| https://doi.org/10.1038/s41565-022-01138-9| https://doi.org/10.1038/s41565-020-0645-1| https://doi.org/10.1038/s41565-020-0698-1| https://doi.org/10.1038/s41565-021-00863-x| https://doi.org/10.1038/s41565-021-00968-3| https://doi.org/10.1038/s41565-023-01400-8| https://doi.org/10.1038/s41565-023-01425-z| https://doi.org/10.1038/s41565-023-01434-y| https://doi.org/10.1038/s41565-021-01013-z| https://doi.org/10.1038/s41565-024-01735-w</v>
       </c>
-      <c r="C13" t="str">
+      <c r="C13" s="1" t="str">
         <v>Differentially charged nanoplastics demonstrate distinct accumulation in Arabidopsis thaliana| COVID-19 vaccine development and a potential nanomaterial path forward| Nano-enabled pesticides for sustainable agriculture and global food security| Nanotechnology approaches for global infectious diseases| Metal–organic frameworks and covalent organic frameworks as disruptive membrane materials for energy-efficient gas separation| Nanopore-based technologies beyond DNA sequencing| Nanotechnology-based disinfectants and sensors for SARS-CoV-2| Nanomaterials for T-cell cancer immunotherapy| Quantitative tracing of uptake and transport of submicrometre plastics in crop plants using lanthanide chelates as a dual-functional tracer| A wearable aptamer nanobiosensor for non-invasive female hormone monitoring| In vivo non-invasive confocal fluorescence imaging beyond 1,700 nm using superconducting nanowire single-photon detectors| Guiding the design space for nanotechnology to advance sustainable crop production| Enhancing CRISPR/Cas gene editing through modulating cellular mechanical properties for cancer therapy| Polymer nanocomposite dielectrics for capacitive energy storage| Human-muscle-inspired single fibre actuator with reversible percolation| Quantum-coherent nanoscience| Photoacoustic molecular imaging-escorted adipose photodynamic–browning synergy for fighting obesity with virus-like complexes| Challenges and potential solutions for nanosensors intended for use with foods| Hierarchically resistive skins as specific and multimetric on-throat wearable biosensors| Nanopore electro-osmotic trap for the label-free study of single proteins and their conformations| Nanotechnology-based strategies against SARS-CoV-2 variants| Species-dependent in vivo mRNA delivery and cellular responses to nanoparticles| Kinetic and energetic insights into the dissipative non-equilibrium operation of an autonomous light-powered supramolecular pump| Adeno-associated viral vectors for functional intravenous gene transfer throughout the non-human primate brain| Nano-enabled strategies to enhance biological nitrogen fixation| Ectopic expression of a mechanosensitive channel confers spatiotemporal resolution to ultrasound stimulations of neurons for visual restoration| Towards realizing nano-enabled precision delivery in plants| Single-site iron-anchored amyloid hydrogels as catalytic platforms for alcohol detoxification| Phase-separated porous nanocomposite with ultralow percolation threshold for wireless bioelectronics| Fully integrated multi-mode optoelectronic memristor array for diversified in-sensor computing| De novo design of pH-responsive self-assembling helical protein filaments| High-entropy non-covalent cyclic peptide glass| Metal-ion-chelating phenylalanine nanostructures reverse immune dysfunction and sensitize breast tumour to immune checkpoint blockade| Measuring age-dependent viscoelasticity of organelles, cells and organisms with time-shared optical tweezer microrheology| Optomechanical detection of vibration modes of a single bacterium| Hepatic macrophages act as a central hub for relaxin-mediated alleviation of liver fibrosis| Key principles and operational practices for improved nanotechnology environmental exposure assessment| Floating solid-state thin films with dynamic structural colour| Non-reciprocal multifarious self-organization| Next-generation protein-based materials capture and preserve projectiles from supersonic impacts| Mechanical stimulation and electrophysiological monitoring at subcellular resolution reveals differential mechanosensation of neurons within networks| Full-length single-molecule protein fingerprinting| An artificial metabzyme for tumour-cell-specific metabolic therapy| Silk fibroin as a surfactant for water-based nanofabrication| Targeted intervention in nerve–cancer crosstalk enhances pancreatic cancer chemotherapy| A magnetically powered nanomachine with a DNA clutch| Deterministic switching of perpendicular magnetization by out-of-plane anti-damping magnon torques| AND-gated protease-activated nanosensors for programmable detection of anti-tumour immunity| Advances and challenges towards consumerization of nanomaterials| A reverse-selective ion exchange membrane for the selective transport of phosphates via an outer-sphere complexation–diffusion pathway| Expansion-enhanced super-resolution radial fluctuations enable nanoscale molecular profiling of pathology specimens| Molecular machines stimulate intercellular calcium waves and cause muscle contraction| A quantum sensor for atomic-scale electric and magnetic fields| A highly reflective biogenic photonic material from core–shell birefringent nanoparticles| Nanotechnology meets circular economy| A universal reagent for detection of emerging diseases using bioengineered multifunctional yeast nanofragments| Intermolecular conical intersections in molecular aggregates| Beyond von Neumann| Ultra-high-frequency radio-frequency acoustic molecular imaging with saline nanodroplets in living subjects| Honeybee comb-inspired stiffness gradient-amplified catapult for solid particle repellency| Mitochondrial transplantation for ischemic heart disease| Cross-species transcriptomic signatures identify mechanisms related to species sensitivity and common responses to nanomaterials| Single-molecule force stability of the SARS-CoV-2–ACE2 interface in variants-of-concern| The risks of nanomaterial risk assessment| Nanotechnology solutions for the climate crisis| The intersection of bottom-up synthetic cell engineering and nanobiotechnology| Author Correction: Universal STING mimic boosts antitumour immunity via preferential activation of tumour control signalling pathways| Development of epistatic YES and AND protein logic gates and their assembly into signalling cascades| The Cancer Moonshot, the role of in vitro models, model accuracy, and the need for validation| Nanotechnology for electrochemical energy storage| Negative memory capacitance and ionic filtering effects in asymmetric nanopores| Publisher Correction: Measuring age-dependent viscoelasticity of organelles, cells and organisms with time-shared optical tweezer microrheology| Nanoneedles enable spatiotemporal lipidomics of living tissues| A roadmap for next-generation nanomotors| Unfolding the path to nanopore protein sequencing| Membranes for special water treatment| Topological vortices for sound and light| Cancer cells hijack T-cell mitochondria| Nanotechnology for infectious diseases| The rise of nanoagrochemicals| Nanostructured artificial-muscle fibres| Nanofabrication meets open science| Nano-enabled immunomodulation| Fine fibres with multifunctionality| Non-invasive confocal microscopy of the immune system| Nanotechnology in a shrimp eye’s view| Publisher Correction: Optomechanical detection of vibration modes of a single bacterium| Author Correction: Focal molography is a new method for the in situ analysis of molecular interactions in biological samples| Netting proteins, one at a time| Measurement of scale-dependent time-reversal asymmetry in biological systems| Making versatile electron microscope tools| A shock-absorbing material made from a mechanosensitive protein| Small is even more different now| High-resolution three-dimensional imaging of topological textures in nanoscale single-diamond networks</v>
       </c>
-      <c r="D13" t="str">
-        <v>東大</v>
-      </c>
-      <c r="E13" t="str">
-        <v>東北大</v>
-      </c>
-      <c r="F13">
+      <c r="D13" s="1" t="str">
+        <v>東大</v>
+      </c>
+      <c r="E13" s="1" t="str">
+        <v>東北大</v>
+      </c>
+      <c r="F13" s="1" t="str">
+        <v>2020/08/14| 2023/03/27| 2020/07/07| 2025/08/05| 2023/04/18| 2020/08/11| 2024/12/07| 2021/07/10| 2020/07/19| 2023/04/02| 2024/06/19| 2025/03/14| 2022/07/16| 2022/11/13| 2022/12/20| 2022/11/18| 2021/04/19| 2023/06/26| 2022/08/20| 2024/01/07| 2025/04/13| 2025/07/29| 2021/07/26| 2020/03/01| 2021/12/09| 2024/01/12| 2023/03/07| 2020/11/02| 2023/10/10| 2021/03/20| 2023/12/01| 2020/07/08| 2023/06/08| 2021/04/20| 2022/09/29| 2025/01/06| 2023/03/30| 2021/02/21| 2024/01/26| 2021/08/07| 2021/01/18| 2025/11/09| 2020/08/01| 2022/09/22| 2024/06/03| 2020/06/10| 2022/02/07| 2022/07/18| 2023/01/27| 2022/09/30| 2025/11/03| 2020/10/31| 2022/04/25| 2024/07/04| 2025/05/17| 2022/03/07| 2023/12/17| 2025/02/24| 2024/09/16| 2024/05/25| 2025/07/01| 2022/12/16| 2020/12/24| 2023/07/14| 2024/07/28| 2022/06/30| 2025/01/16| 2020/06/27| 2024/06/06| 2021/06/01| 2020/02/24| 2022/06/03| 2021/02/15| 2025/02/23| 2025/07/20| 2022/04/21| 2021/04/27| 2024/02/14| 2025/01/01| 2021/07/07| 2024/11/17| 2022/10/06| 2025/02/04| 2022/07/21| 2024/05/19| 2024/05/20| 2025/08/30| 2025/03/03| 2022/11/17| 2025/06/18| 2021/09/13| 2021/01/08| 2023/05/07</v>
+      </c>
+      <c r="G13" s="1" t="str">
         <v>94</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="str">
+      <c r="A14" s="1" t="str">
         <v>10 計測技術・センシング・検出・イメージング</v>
       </c>
-      <c r="B14" t="str">
+      <c r="B14" s="1" t="str">
         <v>https://doi.org/10.1038/s41565-020-0707-4| https://doi.org/10.1038/s41565-021-01045-5| https://doi.org/10.1038/s41565-021-00922-3| https://doi.org/10.1038/s41565-021-01003-1| https://doi.org/10.1038/s41565-021-00895-3| https://doi.org/10.1038/s41565-022-01193-2| https://doi.org/10.1038/s41565-021-01063-3| https://doi.org/10.1038/s41565-019-0605-9| https://doi.org/10.1038/s41565-020-0699-0| https://doi.org/10.1038/s41565-023-01513-0| https://doi.org/10.1038/s41565-022-01130-3| https://doi.org/10.1038/s41565-020-0696-3| https://doi.org/10.1038/s41565-022-01179-0| https://doi.org/10.1038/s41565-019-0614-8| https://doi.org/10.1038/s41565-022-01145-w| https://doi.org/10.1038/s41565-023-01422-2| https://doi.org/10.1038/s41565-021-00939-8| https://doi.org/10.1038/s41565-022-01081-9| https://doi.org/10.1038/s41565-021-00867-7| https://doi.org/10.1038/s41565-023-01383-6| https://doi.org/10.1038/s41565-021-00958-5| https://doi.org/10.1038/s41565-022-01274-2| https://doi.org/10.1038/s41565-023-01348-9| https://doi.org/10.1038/s41565-022-01169-2| https://doi.org/10.1038/s41565-023-01462-8| https://doi.org/10.1038/s41565-023-01372-9| https://doi.org/10.1038/s41565-023-01323-4| https://doi.org/10.1038/s41565-022-01175-4| https://doi.org/10.1038/s41565-023-01384-5| https://doi.org/10.1038/s41565-023-01479-z| https://doi.org/10.1038/s41565-023-01570-5| https://doi.org/10.1038/s41565-023-01557-2| https://doi.org/10.1038/s41565-023-01359-6| https://doi.org/10.1038/s41565-024-01665-7| https://doi.org/10.1038/s41565-023-01593-y| https://doi.org/10.1038/s41565-023-01576-z| https://doi.org/10.1038/s41565-024-01672-8| https://doi.org/10.1038/s41565-024-01612-6| https://doi.org/10.1038/s41565-025-01888-2| https://doi.org/10.1038/s41565-020-0672-y| https://doi.org/10.1038/s41565-020-0678-5| https://doi.org/10.1038/s41565-020-0634-4| https://doi.org/10.1038/s41565-020-0753-y| https://doi.org/10.1038/s41565-021-01008-w| https://doi.org/10.1038/s41565-021-00927-y| https://doi.org/10.1038/s41565-020-0723-4| https://doi.org/10.1038/s41565-020-0771-9| https://doi.org/10.1038/s41565-021-00875-7| https://doi.org/10.1038/s41565-022-01111-6| https://doi.org/10.1038/s41565-022-01136-x| https://doi.org/10.1038/s41565-022-01287-x| https://doi.org/10.1038/s41565-023-01501-4| https://doi.org/10.1038/s41565-022-01307-w| https://doi.org/10.1038/s41565-023-01547-4| https://doi.org/10.1038/s41565-023-01595-w| https://doi.org/10.1038/s41565-023-01598-7| https://doi.org/10.1038/s41565-024-01721-2| https://doi.org/10.1038/s41565-023-01591-0| https://doi.org/10.1038/s41565-024-01825-9| https://doi.org/10.1038/s41565-024-01723-0| https://doi.org/10.1038/s41565-024-01729-8| https://doi.org/10.1038/s41565-024-01834-8| https://doi.org/10.1038/s41565-025-01864-w| https://doi.org/10.1038/s41565-020-0642-4| https://doi.org/10.1038/s41565-023-01328-z| https://doi.org/10.1038/s41565-023-01412-4| https://doi.org/10.1038/s41565-023-01449-5| https://doi.org/10.1038/s41565-023-01560-7| https://doi.org/10.1038/s41565-023-01357-8| https://doi.org/10.1038/s41565-023-01510-3| https://doi.org/10.1038/s41565-024-01724-z| https://doi.org/10.1038/s41565-020-0662-0| https://doi.org/10.1038/s41565-021-00979-0| https://doi.org/10.1038/s41565-022-01224-y| https://doi.org/10.1038/s41565-023-01415-1| https://doi.org/10.1038/s41565-024-01746-7| https://doi.org/10.1038/s41565-023-01589-8| https://doi.org/10.1038/s41565-024-01670-w| https://doi.org/10.1038/s41565-025-01918-z| https://doi.org/10.1038/s41565-020-00785-0| https://doi.org/10.1038/s41565-021-00869-5| https://doi.org/10.1038/s41565-021-00907-2| https://doi.org/10.1038/s41565-022-01243-9| https://doi.org/10.1038/s41565-022-01216-y| https://doi.org/10.1038/s41565-022-01232-y| https://doi.org/10.1038/s41565-023-01556-3| https://doi.org/10.1038/s41565-023-01395-2| https://doi.org/10.1038/s41565-024-01611-7| https://doi.org/10.1038/s41565-023-01435-x| https://doi.org/10.1038/s41565-024-01802-2| https://doi.org/10.1038/s41565-020-0689-2| https://doi.org/10.1038/s41565-021-01042-8| https://doi.org/10.1038/s41565-020-0651-3| https://doi.org/10.1038/s41565-024-01804-0| https://doi.org/10.1038/s41565-025-01873-9| https://doi.org/10.1038/s41565-025-01891-7| https://doi.org/10.1038/s41565-025-01921-4| https://doi.org/10.1038/s41565-025-01955-8| https://doi.org/10.1038/s41565-025-01965-6| https://doi.org/10.1038/s41565-025-01968-3| https://doi.org/10.1038/s41565-025-01966-5| https://doi.org/10.1038/s41565-025-01982-5| https://doi.org/10.1038/s41565-024-01770-7| https://doi.org/10.1038/s41565-024-01768-1| https://doi.org/10.1038/s41565-023-01480-6| https://doi.org/10.1038/s41565-020-0710-9| https://doi.org/10.1038/s41565-023-01459-3| https://doi.org/10.1038/s41565-023-01508-x| https://doi.org/10.1038/s41565-024-01638-w| https://doi.org/10.1038/s41565-024-01647-9| https://doi.org/10.1038/s41565-020-0676-7| https://doi.org/10.1038/s41565-020-0681-x| https://doi.org/10.1038/s41565-022-01132-1| https://doi.org/10.1038/s41565-022-01240-y| https://doi.org/10.1038/s41565-023-01398-z| https://doi.org/10.1038/s41565-023-01477-1| https://doi.org/10.1038/s41565-022-01210-4| https://doi.org/10.1038/s41565-020-00786-z| https://doi.org/10.1038/s41565-022-01138-9| https://doi.org/10.1038/s41565-023-01518-9| https://doi.org/10.1038/s41565-020-0698-1| https://doi.org/10.1038/s41565-024-01671-9| https://doi.org/10.1038/s41565-024-01686-2| https://doi.org/10.1038/s41565-021-01028-6| https://doi.org/10.1038/s41565-022-01233-x| https://doi.org/10.1038/s41565-021-00863-x| https://doi.org/10.1038/s41565-023-01318-1| https://doi.org/10.1038/s41565-023-01538-5| https://doi.org/10.1038/s41565-022-01288-w| https://doi.org/10.1038/s41565-021-01057-1| https://doi.org/10.1038/s41565-024-01617-1| https://doi.org/10.1038/s41565-025-01893-5</v>
       </c>
-      <c r="C14" t="str">
+      <c r="C14" s="1" t="str">
         <v>Differentially charged nanoplastics demonstrate distinct accumulation in Arabidopsis thaliana| Advances and applications of nanophotonic biosensors| X-ray-activated persistent luminescence nanomaterials for NIR-II imaging| All-in-one two-dimensional retinomorphic hardware device for motion detection and recognition| Nanophotonics for light detection and ranging technology| Nanopore-based technologies beyond DNA sequencing| Quantitative tracing of uptake and transport of submicrometre plastics in crop plants using lanthanide chelates as a dual-functional tracer| Ultrasensitive torque detection with an optically levitated nanorotor| Cancer diagnosis with DNA molecular computation| A wearable aptamer nanobiosensor for non-invasive female hormone monitoring| In vivo non-invasive confocal fluorescence imaging beyond 1,700 nm using superconducting nanowire single-photon detectors| Subretinally injected semiconducting polymer nanoparticles rescue vision in a rat model of retinal dystrophy| Nanozyme-catalysed CRISPR assay for preamplification-free detection of non-coding RNAs| Single-molecule resonance Raman effect in a plasmonic nanocavity| Continuous cuffless monitoring of arterial blood pressure via graphene bioimpedance tattoos| Fluorescence-amplified nanocrystals in the second near-infrared window for in vivo real-time dynamic multiplexed imaging| Liposome-mediated detection of SARS-CoV-2 RNA-positive extracellular vesicles in plasma| Bridging nano- and microscale X-ray tomography for battery research by leveraging artificial intelligence| Challenges and potential solutions for nanosensors intended for use with foods| Hierarchically resistive skins as specific and multimetric on-throat wearable biosensors| Nanopore electro-osmotic trap for the label-free study of single proteins and their conformations| In vivo surface-enhanced Raman scattering nanosensor for the real-time monitoring of multiple stress signalling molecules in plants| DNA-framework-based multidimensional molecular classifiers for cancer diagnosis| Identification of nucleoside monophosphates and their epigenetic modifications using an engineered nanopore| Enzyme-less nanopore detection of post-translational modifications within long polypeptides| CRISPR-Cas-amplified urinary biomarkers for multiplexed and portable cancer diagnostics| Machine-learning-assisted single-vessel analysis of nanoparticle permeability in tumour vasculatures| Multiplexed reverse-transcriptase quantitative polymerase chain reaction using plasmonic nanoparticles for point-of-care COVID-19 diagnosis| Nanoplasmonic amplification in microfluidics enables accelerated colorimetric quantification of nucleic acid biomarkers from pathogens| Nanopore sequencing of DNA-barcoded probes for highly multiplexed detection of microRNA, proteins and small biomarkers| Nanoporous graphene-based thin-film microelectrodes for in vivo high-resolution neural recording and stimulation| Multichannel meta-imagers for accelerating machine vision| Ectopic expression of a mechanosensitive channel confers spatiotemporal resolution to ultrasound stimulations of neurons for visual restoration| Multidimensional vision sensors for information processing| Multidimensional detection enabled by twisted black arsenic–phosphorus homojunctions| High-density transparent graphene arrays for predicting cellular calcium activity at depth from surface potential recordings| Single-molecule fluorescence multiplexing by multi-parameter spectroscopic detection of nanostructured FRET labels| A non-FRET DNA reporter that changes fluorescence colour upon nuclease digestion| Time-resolved sensing of electromagnetic fields with single-electron interferometry| Optomechanical detection of vibration modes of a single bacterium| Two-way magnetic resonance tuning and enhanced subtraction imaging for non-invasive and quantitative biological imaging| A sensitive and specific nanosensor for monitoring extracellular potassium levels in the brain| Observation of inhomogeneous plasmonic field distribution in a nanocavity| De novo design of a nanopore for single-molecule detection that incorporates a β-hairpin peptide| Continuous-wave near-infrared stimulated-emission depletion microscopy using downshifting lanthanide nanoparticles| Engineering synthetic breath biomarkers for respiratory disease| Surface-enhanced Raman scattering holography| A highly homogeneous polymer composed of tetrahedron-like monomers for high-isotropy expansion microscopy| Probing nanomotion of single bacteria with graphene drums| A wavelength-induced frequency filtering method for fluorescent nanosensors in vivo| Simultaneous identification of viruses and viral variants with programmable DNA nanobait| Oxyhaemoglobin saturation NIR-IIb imaging for assessing cancer metabolism and predicting the response to immunotherapy| Nanosensors for monitoring plant health| Oligomeric organization of membrane proteins from native membranes at nanoscale spatial and single-molecule resolution| Local-orbital ptychography for ultrahigh-resolution imaging| Full-length single-molecule protein fingerprinting| Single-molecule sensing inside stereo- and regio-defined hetero-nanopores| Carbon-nanotube field-effect transistors for resolving single-molecule aptamer–ligand binding kinetics| AI–nano-driven surface-enhanced Raman spectroscopy for marketable technologies| Quantifying T cell receptor mechanics at membrane junctions using DNA origami tension sensors| Single-cavity loss-enabled nanometrology| AND-gated protease-activated nanosensors for programmable detection of anti-tumour immunity| Nanopore discrimination of rare earth elements| Probing myeloid cell dynamics in ischaemic heart disease by nanotracer hot-spot imaging| Expansion-enhanced super-resolution radial fluctuations enable nanoscale molecular profiling of pathology specimens| Spatially multiplexed single-molecule translocations through a nanopore at controlled speeds| Universal, label-free, single-molecule visualization of DNA origami nanodevices across biological samples using origamiFISH| Associating growth factor secretions and transcriptomes of single cells in nanovials using SEC-seq| In-memory factorization of holographic perceptual representations| Dynamin A as a one-component division machinery for synthetic cells| A quantum sensor for atomic-scale electric and magnetic fields| Three-dimensional localization microscopy in live flowing cells| Single-molecule mechanical fingerprinting with DNA nanoswitch calipers| Lorentz electron ptychography for imaging magnetic textures beyond the diffraction limit| A universal reagent for detection of emerging diseases using bioengineered multifunctional yeast nanofragments| Coupled nanopores for single-molecule detection| In vivo real-time positron emission particle tracking (PEPT) and single particle PET| Atomic-force-microscopy-based time-domain two-dimensional infrared nanospectroscopy| Nanopore-based enzyme-linked immunosorbent assay for cancer biomarker detection| A DNA-nanoassembly-based approach to map membrane protein nanoenvironments| Ultra-high-frequency radio-frequency acoustic molecular imaging with saline nanodroplets in living subjects| Local development of nanotechnology-based diagnostics| A room-temperature polarization-sensitive CMOS terahertz camera based on quantum-dot-enhanced terahertz-to-visible photon upconversion| Specific ion selectivity with a reverse-selective mechanism| Near-unity Raman β-factor of surface-enhanced Raman scattering in a waveguide| Imaging DNA origami by fluorescence in situ hybridization| Inferring scale-dependent non-equilibrium activity using carbon nanotubes| Wireless real-time monitoring of oestradiol in sweat| Hybrid electronic–photonic sensors on a fibre tip| NIR-II scattering gold superclusters for intravascular optical coherence tomography molecular imaging| The route towards nanoparticle shape metrology| Creation and annihilation of mobile fractional solitons in atomic chains| Diffusion and transport of extracellular vesicles| Engineering modular and tunable single-molecule sensors by decoupling sensing from signal output| Nanometre-resolution three-dimensional tomographic and vectorial near-field imaging in dielectric optical resonators| Nanopores take on the challenge of rare-earth detection| Battery research needs more reliable, representative and reproducible synchrotron characterizations| Nanoneedles enable spatiotemporal lipidomics of living tissues| Nanopore detection of single-nucleotide RNA mutations and modifications with programmable nanolatches| Ultraclean monolayer amorphous carbon yields a high-precision proton beam| Ångström-resolution imaging of cell-surface glycans| An information ratchet improves selectivity in molecular recognition under non-equilibrium conditions| Bolometric detection of Josephson radiation| DNA origami force probes illuminate T cell receptor forces at the immune synapse| Unfolding the path to nanopore protein sequencing| DNA computation improves diagnostic workflows| Electrokinetic manipulation of a nanowire| Barcoding biomarkers with nanopore sequencing| Topographic fingerprinting of single proteins and proteoforms| Author Correction: 3D nanofabricated soft microrobots with super-compliant picoforce springs as onboard sensors and actuators| Single-molecule imaging goes high throughput| Listening to the sound of a bacterium| A deep tissue optical sensing| Light responsive DNA origami detects breast cancer marker| Nanoplasmonic acceleration of nucleic acid amplification for pathogen detection| An external speed control for nanopore reads| Detection of modified RNA with an engineered nanopore| Publisher Correction: Stand-off trapping and manipulation of sub-10 nm objects and biomolecules using opto-thermo-electrohydrodynamic tweezers| Non-invasive confocal microscopy of the immune system| Sensitive photoresists for high-speed two­-photon lithography| Publisher Correction: Optomechanical detection of vibration modes of a single bacterium| Combining two-dimensional infrared spectroscopy with atomic force microscopy| New dimensions for fluorescence-based barcoding in complex mixtures| Buckled scalable intracellular bioprobes| Near-unity Raman beta factor underpins high sensitivity| Author Correction: Focal molography is a new method for the in situ analysis of molecular interactions in biological samples| Imaging pathology goes nanoscale with a low-cost strategy| Lightly counting membrane proteins in native nanodiscs| Nanopores enable electrohydrodynamical DNA motor| Peptide sequencing| Functional analysis of single enzymes combining programmable molecular circuits with droplet-based microfluidics| Nanoscale C–H/C–D mapping of organic materials using electron spectroscopy</v>
       </c>
-      <c r="D14" t="str">
-        <v>東大</v>
-      </c>
-      <c r="E14" t="str">
-        <v>東北大</v>
-      </c>
-      <c r="F14">
+      <c r="D14" s="1" t="str">
+        <v>東大</v>
+      </c>
+      <c r="E14" s="1" t="str">
+        <v>東北大</v>
+      </c>
+      <c r="F14" s="1" t="str">
+        <v>2020/08/14| 2025/02/13| 2021/02/18| 2024/05/31| 2022/10/22| 2020/08/11| 2020/07/19| 2022/04/23| 2020/01/14| 2023/04/02| 2024/06/19| 2025/09/13| 2022/03/04| 2025/04/27| 2022/10/05| 2025/08/10| 2021/10/24| 2022/08/22| 2023/06/26| 2022/08/20| 2024/01/07| 2023/04/28| 2023/05/01| 2020/10/25| 2024/11/11| 2020/02/29| 2024/11/09| 2021/09/17| 2025/08/25| 2021/06/22| 2022/03/29| 2023/10/20| 2024/01/12| 2025/08/08| 2023/09/02| 2023/08/18| 2024/05/03| 2024/11/24| 2025/04/02| 2022/09/29| 2022/11/09| 2021/10/09| 2025/07/28| 2020/07/07| 2022/09/07| 2021/09/18| 2024/06/13| 2022/09/05| 2022/04/28| 2023/03/30| 2023/06/15| 2020/12/26| 2024/04/13| 2025/12/08| 2020/12/30| 2025/11/09| 2020/07/01| 2021/12/15| 2023/05/10| 2023/02/17| 2020/10/30| 2022/07/18| 2025/08/28| 2023/03/16| 2025/11/03| 2020/02/18| 2024/06/22| 2022/12/21| 2020/10/23| 2025/07/16| 2022/04/25| 2025/07/10| 2023/05/15| 2020/02/14| 2022/03/07| 2020/11/19| 2023/12/28| 2025/07/12| 2023/10/21| 2022/04/24| 2024/09/16| 2022/10/29| 2021/08/20| 2022/11/26| 2021/08/01| 2021/12/27| 2024/03/17| 2020/01/09| 2021/06/19| 2024/11/30| 2024/01/03| 2020/12/11| 2025/04/18| 2025/05/29| 2023/12/02| 2025/06/24| 2020/05/25| 2022/06/03| 2022/09/16| 2020/11/21| 2020/06/28| 2021/03/05| 2022/11/29| 2025/02/23| 2020/05/26| 2025/10/15| 2024/01/21| 2023/04/05| 2023/10/19| 2020/10/27| 2021/02/25| 2024/08/11| 2020/11/14| 2023/08/15| 2021/01/21| 2024/07/02| 2022/07/21| 2023/01/07| 2024/05/20| 2023/11/06| 2020/10/31| 2025/12/22| 2023/09/28| 2025/08/30| 2020/07/28| 2025/09/22| 2025/07/13| 2025/09/09| 2023/03/02| 2020/09/28</v>
+      </c>
+      <c r="G14" s="1" t="str">
         <v>132</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="str">
+      <c r="A15" s="1" t="str">
         <v>9 バッテリー材料・電極・電解質</v>
       </c>
-      <c r="B15" t="str">
+      <c r="B15" s="1" t="str">
         <v>https://doi.org/10.1038/s41565-021-00905-4| https://doi.org/10.1038/s41565-020-00797-w| https://doi.org/10.1038/s41565-020-0657-x| https://doi.org/10.1038/s41565-019-0618-4| https://doi.org/10.1038/s41565-023-01341-2| https://doi.org/10.1038/s41565-019-0604-x| https://doi.org/10.1038/s41565-021-00855-x| https://doi.org/10.1038/s41565-021-00947-8| https://doi.org/10.1038/s41565-020-00845-5| https://doi.org/10.1038/s41565-021-01062-4| https://doi.org/10.1038/s41565-022-01162-9| https://doi.org/10.1038/s41565-020-00788-x| https://doi.org/10.1038/s41565-022-01148-7| https://doi.org/10.1038/s41565-022-01081-9| https://doi.org/10.1038/s41565-021-01036-6| https://doi.org/10.1038/s41565-022-01273-3| https://doi.org/10.1038/s41565-023-01367-6| https://doi.org/10.1038/s41565-023-01519-8| https://doi.org/10.1038/s41565-024-01848-2| https://doi.org/10.1038/s41565-020-0749-7| https://doi.org/10.1038/s41565-021-00878-4| https://doi.org/10.1038/s41565-021-00908-1| https://doi.org/10.1038/s41565-023-01478-0| https://doi.org/10.1038/s41565-023-01316-3| https://doi.org/10.1038/s41565-023-01466-4| https://doi.org/10.1038/s41565-024-01773-4| https://doi.org/10.1038/s41565-024-01813-z| https://doi.org/10.1038/s41565-024-01734-x| https://doi.org/10.1038/s41565-024-01821-z| https://doi.org/10.1038/s41565-024-01787-y| https://doi.org/10.1038/s41565-025-01885-5| https://doi.org/10.1038/s41565-025-01906-3| https://doi.org/10.1038/s41565-025-01947-8| https://doi.org/10.1038/s41565-023-01396-1| https://doi.org/10.1038/s41565-020-00829-5| https://doi.org/10.1038/s41565-025-01869-5| https://doi.org/10.1038/s41565-025-01898-0| https://doi.org/10.1038/s41565-025-01921-4| https://doi.org/10.1038/s41565-025-01935-y| https://doi.org/10.1038/s41565-025-01938-9| https://doi.org/10.1038/s41565-023-01338-x| https://doi.org/10.1038/s41565-024-01836-6| https://doi.org/10.1038/s41565-022-01211-3| https://doi.org/10.1038/s41565-021-00877-5| https://doi.org/10.1038/s41565-022-01281-3| https://doi.org/10.1038/s41565-023-01440-0| https://doi.org/10.1038/s41565-022-01150-z| https://doi.org/10.1038/s41565-022-01300-3| https://doi.org/10.1038/s41565-020-0772-8| https://doi.org/10.1038/s41565-024-01835-7| https://doi.org/10.1038/s41565-020-0709-2| https://doi.org/10.1038/s41565-021-00938-9</v>
       </c>
-      <c r="C15" t="str">
+      <c r="C15" s="1" t="str">
         <v>Fluorinated interphase enables reversible aqueous zinc battery chemistries| A high-energy and long-cycling lithium–sulfur pouch cell via a macroporous catalytic cathode with double-end binding sites| From nanoscale interface characterization to sustainable energy storage using all-solid-state batteries| Real-time mass spectrometric characterization of the solid–electrolyte interphase of a lithium-ion battery| A dielectric electrolyte composite with high lithium-ion conductivity for high-voltage solid-state lithium metal batteries| Lithium whisker growth and stress generation in an in situ atomic force microscope–environmental transmission electron microscope set-up| Structural origin of the high-voltage instability of lithium cobalt oxide| Progressive growth of the solid–electrolyte interphase towards the Si anode interior causes capacity fading| Identification of LiH and nanocrystalline LiF in the solid–electrolyte interphase of lithium metal anodes| Industrial scale production of fibre batteries by a solution-extrusion method| Improving Li-ion interfacial transport in hybrid solid electrolytes| Permselective metal–organic framework gel membrane enables long-life cycling of rechargeable organic batteries| Characterization of the structure and chemistry of the solid–electrolyte interface by cryo-EM leads to high-performance solid-state Li-metal batteries| Bridging nano- and microscale X-ray tomography for battery research by leveraging artificial intelligence| Interfacial-engineering-enabled practical low-temperature sodium metal battery| Unravelling the convoluted and dynamic interphasial mechanisms on Li metal anodes| Operando characterization and regulation of metal dissolution and redeposition dynamics near battery electrode surface| High-energy all-solid-state lithium batteries enabled by Co-free LiNiO2 cathodes with robust outside-in structures| Salt-in-presalt electrolyte solutions for high-potential non-aqueous sodium metal batteries| Visualizing the growth process of sodium microstructures in sodium batteries by in-situ 23Na MRI and NMR spectroscopy| Bioelectronic control of a microbial community using surface-assembled electrogenetic cells to route signals| A reversible Zn-metal battery| A free-standing lithium phosphorus oxynitride thin film electrolyte promotes uniformly dense lithium metal deposition with no external pressure| Imaging solid–electrolyte interphase dynamics using operando reflection interference microscopy| Three-dimensional operando optical imaging of particle and electrolyte heterogeneities inside Li-ion batteries| Revealing the degradation pathways of layered Li-rich oxide cathodes| Superionic conducting vacancy-rich β-Li3N electrolyte for stable cycling of all-solid-state lithium metal batteries| Microstrain screening towards defect-less layered transition metal oxide cathodes| Advanced characterization of confined electrochemical interfaces in electrochemical capacitors| Earth-abundant Li-ion cathode materials with nanoengineered microstructures| Investigating the effect of heterogeneities across the electrode|multiphase polymer electrolyte interfaces in high-potential lithium batteries| From small batteries to big claims| Mesoscale dynamics of electrosorbed ions in fast-charging carbon-based nanoporous electrodes| Getting to the bottom of transition metal dissolution| Author Correction: A high-energy and long-cycling lithium–sulfur pouch cell via a macroporous catalytic cathode with double-end binding sites| All-anion electrolyte solutions for high-potential sodium batteries| Li+(ionophore) nanoclusters engineered aqueous/non-aqueous biphasic electrolyte solutions for high-potential lithium-based batteries| Battery research needs more reliable, representative and reproducible synchrotron characterizations| Application-driven design of non-aqueous electrolyte solutions through quantification of interfacial reactions in lithium metal batteries| Interfacial reaction quantification enables long-cycling lithium metal batteries| Battery researchers in academia and industry should collaborate more effectively| The challenge of studying interfaces in battery materials| Author Correction: Characterization of the structure and chemistry of the solid–electrolyte interface by cryo-EM leads to high-performance solid-state Li-metal batteries| Author Correction: From nanoscale interface characterization to sustainable energy storage using all-solid-state batteries| When ions break the law| Probing the depths of battery heterogeneity| Understanding interphases at the atomic scale| Lithium-metal batteries working under realistic conditions| A self-promoting growth of Na microstructures| Vacancy-rich β-Li3N solid-state electrolyte| A gateway to understanding confined ions| Switching with ions</v>
       </c>
-      <c r="D15" t="str">
-        <v/>
-      </c>
-      <c r="E15" t="str">
-        <v/>
-      </c>
-      <c r="F15">
+      <c r="D15" s="1" t="str">
+        <v/>
+      </c>
+      <c r="E15" s="1" t="str">
+        <v/>
+      </c>
+      <c r="F15" s="1" t="str">
+        <v>2023/05/08| 2025/03/31| 2022/12/23| 2023/06/07| 2023/08/22| 2020/10/04| 2022/07/12| 2022/02/23| 2023/03/27| 2023/05/11| 2025/06/11| 2022/11/03| 2024/11/26| 2022/08/22| 2023/11/03| 2024/01/05| 2025/10/21| 2022/10/21| 2020/05/26| 2023/07/20| 2022/05/15| 2023/12/16| 2020/06/19| 2024/10/07| 2024/02/02| 2020/08/30| 2025/03/29| 2023/12/09| 2021/08/22| 2025/12/24| 2023/07/04| 2020/10/08| 2025/04/23| 2020/01/17| 2022/05/27| 2022/04/10| 2022/11/18| 2020/05/25| 2021/02/07| 2021/07/19| 2022/08/26| 2024/02/07| 2021/03/09| 2024/10/28| 2025/10/16| 2020/06/29| 2020/09/01| 2021/08/28| 2025/04/04| 2020/01/26| 2021/07/07| 2024/03/07</v>
+      </c>
+      <c r="G15" s="1" t="str">
         <v>52</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="str">
+      <c r="A16" s="1" t="str">
         <v>9 化学反応・触媒・電気化学的評価</v>
       </c>
-      <c r="B16" t="str">
+      <c r="B16" s="1" t="str">
         <v>https://doi.org/10.1038/s41565-021-00905-4| https://doi.org/10.1038/s41565-022-01121-4| https://doi.org/10.1038/s41565-020-00797-w| https://doi.org/10.1038/s41565-021-00974-5| https://doi.org/10.1038/s41565-021-00986-1| https://doi.org/10.1038/s41565-022-01107-2| https://doi.org/10.1038/s41565-020-00809-9| https://doi.org/10.1038/s41565-023-01385-4| https://doi.org/10.1038/s41565-022-01074-8| https://doi.org/10.1038/s41565-021-00910-7| https://doi.org/10.1038/s41565-023-01543-8| https://doi.org/10.1038/s41565-022-01087-3| https://doi.org/10.1038/s41565-022-01308-9| https://doi.org/10.1038/s41565-021-00975-4| https://doi.org/10.1038/s41565-022-01154-9| https://doi.org/10.1038/s41565-024-01614-4| https://doi.org/10.1038/s41565-023-01429-9| https://doi.org/10.1038/s41565-023-01462-8| https://doi.org/10.1038/s41565-022-01277-z| https://doi.org/10.1038/s41565-024-01657-7| https://doi.org/10.1038/s41565-024-01807-x| https://doi.org/10.1038/s41565-024-01669-3| https://doi.org/10.1038/s41565-024-01793-0| https://doi.org/10.1038/s41565-025-01870-y| https://doi.org/10.1038/s41565-025-01866-8| https://doi.org/10.1038/s41565-024-01848-2| https://doi.org/10.1038/s41565-025-01892-6| https://doi.org/10.1038/s41565-020-00777-0| https://doi.org/10.1038/s41565-020-00825-9| https://doi.org/10.1038/s41565-020-0704-7| https://doi.org/10.1038/s41565-020-0734-1| https://doi.org/10.1038/s41565-021-00908-1| https://doi.org/10.1038/s41565-022-01241-x| https://doi.org/10.1038/s41565-023-01337-y| https://doi.org/10.1038/s41565-024-01813-z| https://doi.org/10.1038/s41565-025-01914-3| https://doi.org/10.1038/s41565-019-0606-8| https://doi.org/10.1038/s41565-022-01209-x| https://doi.org/10.1038/s41565-024-01653-x| https://doi.org/10.1038/s41565-025-01895-3| https://doi.org/10.1038/s41565-025-01915-2| https://doi.org/10.1038/s41565-021-01064-2| https://doi.org/10.1038/s41565-022-01147-8| https://doi.org/10.1038/s41565-025-01897-1| https://doi.org/10.1038/s41565-025-01949-6| https://doi.org/10.1038/s41565-025-01957-6| https://doi.org/10.1038/s41565-024-01815-x| https://doi.org/10.1038/s41565-023-01352-z| https://doi.org/10.1038/s41565-021-00991-4| https://doi.org/10.1038/s41565-023-01388-1| https://doi.org/10.1038/s41565-023-01473-5| https://doi.org/10.1038/s41565-024-01742-x| https://doi.org/10.1038/s41565-020-00806-y| https://doi.org/10.1038/s41565-023-01571-4| https://doi.org/10.1038/s41565-022-01164-7| https://doi.org/10.1038/s41565-022-01303-0| https://doi.org/10.1038/s41565-023-01353-y| https://doi.org/10.1038/s41565-023-01461-9</v>
       </c>
-      <c r="C16" t="str">
+      <c r="C16" s="1" t="str">
         <v>Fluorinated interphase enables reversible aqueous zinc battery chemistries| Efficient conversion of low-concentration nitrate sources into ammonia on a Ru-dispersed Cu nanowire electrocatalyst| A high-energy and long-cycling lithium–sulfur pouch cell via a macroporous catalytic cathode with double-end binding sites| Copper-catalysed exclusive CO2 to pure formic acid conversion via single-atom alloying| Torsion strained iridium oxide for efficient acidic water oxidation in proton exchange membrane electrolyzers| A robust all-organic protective layer towards ultrahigh-rate and large-capacity Li metal anodes| Mechanochemistry for ammonia synthesis under mild conditions| Floatable photocatalytic hydrogel nanocomposites for large-scale solar hydrogen production| Photocatalytic degradation of steroid hormone micropollutants by TiO2-coated polyethersulfone membranes in a continuous flow-through process| Bioorthogonal catalytic patch| Efficient multicarbon formation in acidic CO2 reduction via tandem electrocatalysis| Fast and selective reduction of nitroarenes under visible light with an earth-abundant plasmonic photocatalyst| Electrochemically modulated interaction of MXenes with microwaves| Chemical engines: driving systems away from equilibrium through catalyst reaction cycles| Fischer–Tropsch synthesis to olefins boosted by MFI zeolite nanosheets| Developing high-power Li||S batteries via transition metal/carbon nanocomposite electrocatalyst engineering| Efficient solvent- and hydrogen-free upcycling of high-density polyethylene into separable cyclic hydrocarbons| Enzyme-less nanopore detection of post-translational modifications within long polypeptides| Efficient electrocatalytic valorization of chlorinated organic water pollutant to ethylene| Single-site iron-anchored amyloid hydrogels as catalytic platforms for alcohol detoxification| Out-of-plane coordination of iridium single atoms with organic molecules and cobalt–iron hydroxides to boost oxygen evolution reaction| Redox-neutral electrochemical decontamination of hypersaline wastewater with high technology readiness level| Mechanochemistry-mediated colloidal liquid metals for electronic device cooling at kilowatt levels| Intracellular dehydrogenation catalysis leads to reductive stress and immunosuppression| Molecular-scale CO spillover on a dual-site electrocatalyst enhances methanol production from CO2 reduction| Salt-in-presalt electrolyte solutions for high-potential non-aqueous sodium metal batteries| Zeolite-confined Cu single-atom clusters stably catalyse CO to acetate at 1 A cm−2 beyond 1,000 h| Multifunctional nanocoated membranes for high-rate electrothermal desalination of hypersaline waters| Ion-exchange enabled synthetic swarm| Electrolyte gating in graphene-based supercapacitors and its use for probing nanoconfined charging dynamics| Enhanced catalytic activity under non-equilibrium conditions| A reversible Zn-metal battery| Feedback-controlled hydrogels with homeostatic oscillations and dissipative signal transduction| Beyond steric selectivity of ions using ångström-scale capillaries| Superionic conducting vacancy-rich β-Li3N electrolyte for stable cycling of all-solid-state lithium metal batteries| Electrosynthesis of pure urea from pretreated flue gas in a proton-limited environment established in a porous solid-state electrolyte electrolyser| Regioselective magnetization in semiconducting nanorods| A reverse-selective ion exchange membrane for the selective transport of phosphates via an outer-sphere complexation–diffusion pathway| Nanoscale doping of polymeric semiconductors with confined electrochemical ion implantation| Pt catalyst protected by graphene nanopockets enables lifetimes of over 200,000 h for heavy-duty fuel cell applications| Paddle-like self-stirring nanoreactors with multi-chambered mesoporous branches for enhanced dual-dynamic cascade reactions| Membranes that filter and destroy pollutants| Nanomaterials for carbon dioxide conversion at industrial scale| Asymmetric photooxidation of glycerol to hydroxypyruvic acid over Rb–Ir catalytic pairs on poly(heptazine imides)| Mechanochemical carbon dioxide capture and conversion| Polymeric stabilization at the gas–liquid interface for durable solar hydrogen production from plastic waste| Self-cleaning electrode for stable synthesis of alkaline-earth metal peroxides| Primary role of photothermal heating in light-driven reduction of nitroarenes| All-plasmonic water splitting| A floatable photocatalytic nanocomposite to facilitate scale-up of solar hydrogen production| Direct catalytic plastics waste upcycling| Exerting pulling forces in fluids by directional disassembly of microcrystalline fibres| Publisher Correction: Multifunctional nanocoated membranes for high-rate electrothermal desalination of hypersaline waters| Electrochemical CO2 reduction passes the acid test| Zeolite facilitates selective olefins production| CO2/CO co-feeds and tandem catalysts for C–C coupling| Reply to: Primary role of photothermal heating in light-driven reduction of nitroarenes| Author Correction: Charge disproportionate molecular redox for discrete memristive and memcapacitive switching</v>
       </c>
-      <c r="D16" t="str">
-        <v/>
-      </c>
-      <c r="E16" t="str">
-        <v/>
-      </c>
-      <c r="F16">
+      <c r="D16" s="1" t="str">
+        <v/>
+      </c>
+      <c r="E16" s="1" t="str">
+        <v/>
+      </c>
+      <c r="F16" s="1" t="str">
+        <v>2023/05/08| 2021/01/22| 2025/03/31| 2022/06/21| 2020/10/14| 2022/06/03| 2021/08/06| 2020/03/13| 2024/12/19| 2024/10/24| 2020/07/26| 2025/05/27| 2020/02/24| 2023/04/30| 2024/02/02| 2021/12/05| 2022/03/24| 2024/11/11| 2025/12/11| 2020/11/02| 2020/06/05| 2024/07/01| 2022/01/31| 2022/01/18| 2020/09/01| 2020/05/26| 2021/02/26| 2020/12/26| 2024/10/15| 2025/09/08| 2021/06/01| 2023/12/16| 2023/05/21| 2024/05/19| 2025/03/29| 2020/09/04| 2020/07/31| 2022/09/30| 2021/09/28| 2025/10/21| 2021/08/04| 2021/01/07| 2021/10/26| 2024/04/25| 2024/05/15| 2021/01/15| 2024/07/14| 2024/09/15| 2021/05/23| 2023/10/30| 2022/12/05| 2023/03/25| 2021/06/03| 2023/03/15| 2020/05/22| 2020/07/18| 2022/01/04</v>
+      </c>
+      <c r="G16" s="1" t="str">
         <v>58</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="str">
+      <c r="A17" s="1" t="str">
         <v>4 材料の安定性・耐久性・分散・リサイクル性等</v>
       </c>
-      <c r="B17" t="str">
+      <c r="B17" s="1" t="str">
         <v>https://doi.org/10.1038/s41565-021-00905-4| https://doi.org/10.1038/s41565-020-00824-w| https://doi.org/10.1038/s41565-020-00797-w| https://doi.org/10.1038/s41565-020-00833-9| https://doi.org/10.1038/s41565-020-0765-7| https://doi.org/10.1038/s41565-022-01107-2| https://doi.org/10.1038/s41565-021-00947-8| https://doi.org/10.1038/s41565-022-01170-9| https://doi.org/10.1038/s41565-020-00818-8| https://doi.org/10.1038/s41565-023-01385-4| https://doi.org/10.1038/s41565-022-01074-8| https://doi.org/10.1038/s41565-020-00796-x| https://doi.org/10.1038/s41565-022-01162-9| https://doi.org/10.1038/s41565-020-00788-x| https://doi.org/10.1038/s41565-021-01036-6| https://doi.org/10.1038/s41565-023-01367-6| https://doi.org/10.1038/s41565-023-01519-8| https://doi.org/10.1038/s41565-024-01669-3| https://doi.org/10.1038/s41565-024-01848-2| https://doi.org/10.1038/s41565-020-0690-9| https://doi.org/10.1038/s41565-022-01267-1| https://doi.org/10.1038/s41565-023-01377-4| https://doi.org/10.1038/s41565-024-01773-4| https://doi.org/10.1038/s41565-024-01813-z| https://doi.org/10.1038/s41565-024-01720-3| https://doi.org/10.1038/s41565-025-01914-3| https://doi.org/10.1038/s41565-024-01787-y| https://doi.org/10.1038/s41565-025-01895-3| https://doi.org/10.1038/s41565-025-01906-3| https://doi.org/10.1038/s41565-025-01916-1| https://doi.org/10.1038/s41565-020-00795-y| https://doi.org/10.1038/s41565-021-01064-2| https://doi.org/10.1038/s41565-023-01396-1| https://doi.org/10.1038/s41565-023-01529-6| https://doi.org/10.1038/s41565-025-01869-5| https://doi.org/10.1038/s41565-025-01898-0| https://doi.org/10.1038/s41565-025-01935-y| https://doi.org/10.1038/s41565-025-01938-9| https://doi.org/10.1038/s41565-025-01957-6| https://doi.org/10.1038/s41565-025-01978-1| https://doi.org/10.1038/s41565-021-00889-1| https://doi.org/10.1038/s41565-024-01815-x| https://doi.org/10.1038/s41565-022-01199-w| https://doi.org/10.1038/s41565-023-01388-1| https://doi.org/10.1038/s41565-022-01300-3| https://doi.org/10.1038/s41565-024-01837-5| https://doi.org/10.1038/s41565-022-01207-z</v>
       </c>
-      <c r="C17" t="str">
+      <c r="C17" s="1" t="str">
         <v>Fluorinated interphase enables reversible aqueous zinc battery chemistries| Challenges in applying highly active Pt-based nanostructured catalysts for oxygen reduction reactions to fuel cell vehicles| A high-energy and long-cycling lithium–sulfur pouch cell via a macroporous catalytic cathode with double-end binding sites| Graphene oxide membranes with stable porous structure for ultrafast water transport| 2D metal–organic framework for stable perovskite solar cells with minimized lead leakage| A robust all-organic protective layer towards ultrahigh-rate and large-capacity Li metal anodes| Progressive growth of the solid–electrolyte interphase towards the Si anode interior causes capacity fading| Graphene-nanopocket-encaged PtCo nanocatalysts for highly durable fuel cell operation under demanding ultralow-Pt-loading conditions| Hydrogen storage in incompletely etched multilayer Ti2CTx at room temperature| Floatable photocatalytic hydrogel nanocomposites for large-scale solar hydrogen production| Photocatalytic degradation of steroid hormone micropollutants by TiO2-coated polyethersulfone membranes in a continuous flow-through process| Biomimetic artificial water channel membranes for enhanced desalination| Improving Li-ion interfacial transport in hybrid solid electrolytes| Permselective metal–organic framework gel membrane enables long-life cycling of rechargeable organic batteries| Interfacial-engineering-enabled practical low-temperature sodium metal battery| Operando characterization and regulation of metal dissolution and redeposition dynamics near battery electrode surface| High-energy all-solid-state lithium batteries enabled by Co-free LiNiO2 cathodes with robust outside-in structures| Redox-neutral electrochemical decontamination of hypersaline wastewater with high technology readiness level| Salt-in-presalt electrolyte solutions for high-potential non-aqueous sodium metal batteries| Spontaneous and reversible hollowing of alloy anode nanocrystals for stable battery cycling| Transparent sunlight-activated antifogging metamaterials| DNA storage in thermoresponsive microcapsules for repeated random multiplexed data access| Revealing the degradation pathways of layered Li-rich oxide cathodes| Superionic conducting vacancy-rich β-Li3N electrolyte for stable cycling of all-solid-state lithium metal batteries| Silk fibroin as a surfactant for water-based nanofabrication| Electrosynthesis of pure urea from pretreated flue gas in a proton-limited environment established in a porous solid-state electrolyte electrolyser| Earth-abundant Li-ion cathode materials with nanoengineered microstructures| Pt catalyst protected by graphene nanopockets enables lifetimes of over 200,000 h for heavy-duty fuel cell applications| From small batteries to big claims| Operando X-ray characterization platform to unravel catalyst degradation under accelerated stress testing in CO2 electrolysis| Two-dimensional adaptive membranes with programmable water and ionic channels| Membranes that filter and destroy pollutants| Getting to the bottom of transition metal dissolution| Nanotechnology for electrochemical energy storage| All-anion electrolyte solutions for high-potential sodium batteries| Li+(ionophore) nanoclusters engineered aqueous/non-aqueous biphasic electrolyte solutions for high-potential lithium-based batteries| Application-driven design of non-aqueous electrolyte solutions through quantification of interfacial reactions in lithium metal batteries| Interfacial reaction quantification enables long-cycling lithium metal batteries| Polymeric stabilization at the gas–liquid interface for durable solar hydrogen production from plastic waste| Crumpled graphene oxide membranes enable rapid and selective hydrogen separation| New guidance brings clarity to environmental hazard and behaviour testing of nanomaterials| Self-cleaning electrode for stable synthesis of alkaline-earth metal peroxides| Microrobots mop-up nanoplastics| A floatable photocatalytic nanocomposite to facilitate scale-up of solar hydrogen production| Lithium-metal batteries working under realistic conditions| Solar cells for stored energy| Developing nanophotonic structures that are stable in air and at high temperatures</v>
       </c>
-      <c r="D17" t="str">
-        <v/>
-      </c>
-      <c r="E17" t="str">
-        <v/>
-      </c>
-      <c r="F17">
+      <c r="D17" s="1" t="str">
+        <v/>
+      </c>
+      <c r="E17" s="1" t="str">
+        <v/>
+      </c>
+      <c r="F17" s="1" t="str">
+        <v>2023/05/08| 2024/10/06| 2025/03/31| 2020/12/14| 2021/08/11| 2022/06/03| 2022/02/23| 2021/09/25| 2023/11/10| 2020/03/13| 2024/12/19| 2021/04/30| 2025/06/11| 2022/11/03| 2023/11/03| 2025/10/21| 2022/10/21| 2024/07/01| 2020/05/26| 2024/02/11| 2021/02/06| 2021/02/26| 2020/08/30| 2025/03/29| 2022/09/22| 2020/09/04| 2025/12/24| 2020/10/08| 2025/02/03| 2023/07/04| 2021/01/07| 2020/01/17| 2022/08/20| 2022/04/10| 2022/11/18| 2021/02/07| 2021/07/19| 2021/01/15| 2023/05/31| 2024/02/10| 2024/07/14| 2020/04/09| 2023/10/30| 2021/08/28| 2020/09/30| 2022/01/20</v>
+      </c>
+      <c r="G17" s="1" t="str">
         <v>47</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="str">
+      <c r="A18" s="1" t="str">
         <v>1 二次元材料・層状材料・グラフェン・TMDs関連</v>
       </c>
-      <c r="B18" t="str">
+      <c r="B18" s="1" t="str">
         <v>https://doi.org/10.1038/s41565-020-0724-3| https://doi.org/10.1038/s41565-021-01045-5| https://doi.org/10.1038/s41565-020-0652-2| https://doi.org/10.1038/s41565-020-0713-6| https://doi.org/10.1038/s41565-021-00963-8| https://doi.org/10.1038/s41565-020-00833-9| https://doi.org/10.1038/s41565-021-00936-x| https://doi.org/10.1038/s41565-021-01003-1| https://doi.org/10.1038/s41565-021-01059-z| https://doi.org/10.1038/s41565-020-0765-7| https://doi.org/10.1038/s41565-022-01165-6| https://doi.org/10.1038/s41565-021-01004-0| https://doi.org/10.1038/s41565-020-0708-3| https://doi.org/10.1038/s41565-022-01072-w| https://doi.org/10.1038/s41565-022-01170-9| https://doi.org/10.1038/s41565-020-00789-w| https://doi.org/10.1038/s41565-020-00818-8| https://doi.org/10.1038/s41565-022-01125-0| https://doi.org/10.1038/s41565-021-00921-4| https://doi.org/10.1038/s41565-021-01068-y| https://doi.org/10.1038/s41565-021-01052-6| https://doi.org/10.1038/s41565-021-00919-y| https://doi.org/10.1038/s41565-020-0730-5| https://doi.org/10.1038/s41565-021-01014-y| https://doi.org/10.1038/s41565-020-0717-2| https://doi.org/10.1038/s41565-021-00904-5| https://doi.org/10.1038/s41565-021-00966-5| https://doi.org/10.1038/s41565-022-01102-7| https://doi.org/10.1038/s41565-020-00839-3| https://doi.org/10.1038/s41565-019-0623-7| https://doi.org/10.1038/s41565-020-0641-5| https://doi.org/10.1038/s41565-022-01153-w| https://doi.org/10.1038/s41565-021-00933-0| https://doi.org/10.1038/s41565-022-01145-w| https://doi.org/10.1038/s41565-020-0728-z| https://doi.org/10.1038/s41565-021-00885-5| https://doi.org/10.1038/s41565-022-01214-0| https://doi.org/10.1038/s41565-021-00956-7| https://doi.org/10.1038/s41565-023-01375-6| https://doi.org/10.1038/s41565-021-00873-9| https://doi.org/10.1038/s41565-023-01457-5| https://doi.org/10.1038/s41565-022-01308-9| https://doi.org/10.1038/s41565-023-01354-x| https://doi.org/10.1038/s41565-022-01257-3| https://doi.org/10.1038/s41565-023-01343-0| https://doi.org/10.1038/s41565-021-01061-5| https://doi.org/10.1038/s41565-022-01185-2| https://doi.org/10.1038/s41565-023-01342-1| https://doi.org/10.1038/s41565-022-01180-7| https://doi.org/10.1038/s41565-022-01095-3| https://doi.org/10.1038/s41565-024-01695-1| https://doi.org/10.1038/s41565-022-01106-3| https://doi.org/10.1038/s41565-023-01460-w| https://doi.org/10.1038/s41565-023-01497-x| https://doi.org/10.1038/s41565-021-01060-6| https://doi.org/10.1038/s41565-023-01520-1| https://doi.org/10.1038/s41565-023-01356-9| https://doi.org/10.1038/s41565-023-01339-w| https://doi.org/10.1038/s41565-023-01570-5| https://doi.org/10.1038/s41565-023-01456-6| https://doi.org/10.1038/s41565-024-01687-1| https://doi.org/10.1038/s41565-023-01326-1| https://doi.org/10.1038/s41565-024-01705-2| https://doi.org/10.1038/s41565-023-01579-w| https://doi.org/10.1038/s41565-023-01572-3| https://doi.org/10.1038/s41565-023-01593-y| https://doi.org/10.1038/s41565-024-01704-3| https://doi.org/10.1038/s41565-023-01576-z| https://doi.org/10.1038/s41565-024-01702-5| https://doi.org/10.1038/s41565-024-01642-0| https://doi.org/10.1038/s41565-024-01674-6| https://doi.org/10.1038/s41565-024-01691-5| https://doi.org/10.1038/s41565-024-01805-z| https://doi.org/10.1038/s41565-025-01858-8| https://doi.org/10.1038/s41565-025-01862-y| https://doi.org/10.1038/s41565-025-01890-8| https://doi.org/10.1038/s41565-020-0703-8| https://doi.org/10.1038/s41565-020-0770-x| https://doi.org/10.1038/s41565-020-0750-1| https://doi.org/10.1038/s41565-020-0727-0| https://doi.org/10.1038/s41565-019-0598-4| https://doi.org/10.1038/s41565-020-00778-z| https://doi.org/10.1038/s41565-021-00887-3| https://doi.org/10.1038/s41565-021-00857-9| https://doi.org/10.1038/s41565-020-00783-2| https://doi.org/10.1038/s41565-021-01020-0| https://doi.org/10.1038/s41565-020-0644-2| https://doi.org/10.1038/s41565-020-0715-4| https://doi.org/10.1038/s41565-021-00916-1| https://doi.org/10.1038/s41565-019-0602-z| https://doi.org/10.1038/s41565-020-0633-5| https://doi.org/10.1038/s41565-021-00917-0| https://doi.org/10.1038/s41565-020-0682-9| https://doi.org/10.1038/s41565-021-00952-x| https://doi.org/10.1038/s41565-020-0650-4| https://doi.org/10.1038/s41565-020-0704-7| https://doi.org/10.1038/s41565-020-00808-w| https://doi.org/10.1038/s41565-021-01041-9| https://doi.org/10.1038/s41565-021-01023-x| https://doi.org/10.1038/s41565-019-0624-6| https://doi.org/10.1038/s41565-021-00849-9| https://doi.org/10.1038/s41565-021-00942-z| https://doi.org/10.1038/s41565-020-0685-6| https://doi.org/10.1038/s41565-020-0729-y| https://doi.org/10.1038/s41565-020-0695-4| https://doi.org/10.1038/s41565-021-00969-2| https://doi.org/10.1038/s41565-022-01186-1| https://doi.org/10.1038/s41565-022-01259-1| https://doi.org/10.1038/s41565-021-00861-z| https://doi.org/10.1038/s41565-022-01115-2| https://doi.org/10.1038/s41565-021-00847-x| https://doi.org/10.1038/s41565-022-01272-4| https://doi.org/10.1038/s41565-022-01073-9| https://doi.org/10.1038/s41565-022-01204-2| https://doi.org/10.1038/s41565-022-01221-1| https://doi.org/10.1038/s41565-022-01200-6| https://doi.org/10.1038/s41565-022-01111-6| https://doi.org/10.1038/s41565-023-01337-y| https://doi.org/10.1038/s41565-023-01335-0| https://doi.org/10.1038/s41565-022-01309-8| https://doi.org/10.1038/s41565-022-01104-5| https://doi.org/10.1038/s41565-023-01558-1| https://doi.org/10.1038/s41565-023-01484-2| https://doi.org/10.1038/s41565-023-01340-3| https://doi.org/10.1038/s41565-022-01314-x| https://doi.org/10.1038/s41565-023-01376-5| https://doi.org/10.1038/s41565-023-01391-6| https://doi.org/10.1038/s41565-023-01421-3| https://doi.org/10.1038/s41565-022-01312-z| https://doi.org/10.1038/s41565-023-01324-3| https://doi.org/10.1038/s41565-023-01403-5| https://doi.org/10.1038/s41565-023-01413-3| https://doi.org/10.1038/s41565-023-01438-8| https://doi.org/10.1038/s41565-024-01628-y| https://doi.org/10.1038/s41565-024-01693-3| https://doi.org/10.1038/s41565-024-01649-7| https://doi.org/10.1038/s41565-024-01675-5| https://doi.org/10.1038/s41565-024-01799-8| https://doi.org/10.1038/s41565-023-01594-x| https://doi.org/10.1038/s41565-024-01706-1| https://doi.org/10.1038/s41565-024-01849-1| https://doi.org/10.1038/s41565-024-01842-8| https://doi.org/10.1038/s41565-024-01846-4| https://doi.org/10.1038/s41565-025-01872-w| https://doi.org/10.1038/s41565-020-00779-y| https://doi.org/10.1038/s41565-019-0629-1| https://doi.org/10.1038/s41565-021-00876-6| https://doi.org/10.1038/s41565-022-01222-0| https://doi.org/10.1038/s41565-022-01248-4| https://doi.org/10.1038/s41565-022-01124-1| https://doi.org/10.1038/s41565-022-01237-7| https://doi.org/10.1038/s41565-022-01217-x| https://doi.org/10.1038/s41565-022-01183-4| https://doi.org/10.1038/s41565-022-01260-8| https://doi.org/10.1038/s41565-022-01253-7| https://doi.org/10.1038/s41565-023-01350-1| https://doi.org/10.1038/s41565-023-01495-z| https://doi.org/10.1038/s41565-023-01410-6| https://doi.org/10.1038/s41565-023-01488-y| https://doi.org/10.1038/s41565-023-01357-8| https://doi.org/10.1038/s41565-024-01685-3| https://doi.org/10.1038/s41565-024-01711-4| https://doi.org/10.1038/s41565-021-00970-9| https://doi.org/10.1038/s41565-022-01235-9| https://doi.org/10.1038/s41565-021-01066-0| https://doi.org/10.1038/s41565-022-01126-z| https://doi.org/10.1038/s41565-023-01327-0| https://doi.org/10.1038/s41565-023-01539-4| https://doi.org/10.1038/s41565-023-01492-2| https://doi.org/10.1038/s41565-023-01550-9| https://doi.org/10.1038/s41565-024-01717-y| https://doi.org/10.1038/s41565-024-01822-y| https://doi.org/10.1038/s41565-024-01650-0| https://doi.org/10.1038/s41565-024-01730-1| https://doi.org/10.1038/s41565-025-01856-w| https://doi.org/10.1038/s41565-025-01895-3| https://doi.org/10.1038/s41565-025-01934-z| https://doi.org/10.1038/s41565-020-00795-y| https://doi.org/10.1038/s41565-021-00934-z| https://doi.org/10.1038/s41565-021-01007-x| https://doi.org/10.1038/s41565-021-01026-8| https://doi.org/10.1038/s41565-022-01223-z| https://doi.org/10.1038/s41565-022-01076-6| https://doi.org/10.1038/s41565-023-01390-7| https://doi.org/10.1038/s41565-024-01610-8| https://doi.org/10.1038/s41565-024-01781-4| https://doi.org/10.1038/s41565-021-00957-6| https://doi.org/10.1038/s41565-021-01015-x| https://doi.org/10.1038/s41565-022-01216-y| https://doi.org/10.1038/s41565-023-01489-x| https://doi.org/10.1038/s41565-024-01792-1| https://doi.org/10.1038/s41565-021-00932-1| https://doi.org/10.1038/s41565-022-01285-z| https://doi.org/10.1038/s41565-023-01435-x| https://doi.org/10.1038/s41565-024-01795-y| https://doi.org/10.1038/s41565-021-01042-8| https://doi.org/10.1038/s41565-023-01544-7| https://doi.org/10.1038/s41565-021-00896-2| https://doi.org/10.1038/s41565-021-00894-4| https://doi.org/10.1038/s41565-021-00955-8| https://doi.org/10.1038/s41565-022-01084-6| https://doi.org/10.1038/s41565-024-01850-8| https://doi.org/10.1038/s41565-024-01839-3| https://doi.org/10.1038/s41565-025-01868-6| https://doi.org/10.1038/s41565-025-01884-6| https://doi.org/10.1038/s41565-025-01945-w| https://doi.org/10.1038/s41565-025-01963-8| https://doi.org/10.1038/s41565-025-01960-x| https://doi.org/10.1038/s41565-025-01971-8| https://doi.org/10.1038/s41565-025-01978-1| https://doi.org/10.1038/s41565-025-01988-z| https://doi.org/10.1038/s41565-025-01991-4| https://doi.org/10.1038/s41565-025-01986-1| https://doi.org/10.1038/s41565-023-01494-0| https://doi.org/10.1038/s41565-023-01566-1| https://doi.org/10.1038/s41565-024-01713-2| https://doi.org/10.1038/s41565-021-00990-5| https://doi.org/10.1038/s41565-021-00989-y| https://doi.org/10.1038/s41565-021-00960-x| https://doi.org/10.1038/s41565-021-01067-z| https://doi.org/10.1038/s41565-022-01238-6| https://doi.org/10.1038/s41565-023-01322-5| https://doi.org/10.1038/s41565-023-01317-2| https://doi.org/10.1038/s41565-023-01459-3| https://doi.org/10.1038/s41565-022-01077-5| https://doi.org/10.1038/s41565-022-01140-1| https://doi.org/10.1038/s41565-020-0718-1| https://doi.org/10.1038/s41565-023-01433-z| https://doi.org/10.1038/s41565-023-01424-0| https://doi.org/10.1038/s41565-023-01475-3| https://doi.org/10.1038/s41565-023-01448-6| https://doi.org/10.1038/s41565-023-01554-5| https://doi.org/10.1038/s41565-023-01569-y| https://doi.org/10.1038/s41565-023-01582-1| https://doi.org/10.1038/s41565-024-01708-z| https://doi.org/10.1038/s41565-024-01710-5| https://doi.org/10.1038/s41565-024-01751-w| https://doi.org/10.1038/s41565-024-01797-w| https://doi.org/10.1038/s41565-020-0637-1| https://doi.org/10.1038/s41565-021-01024-w| https://doi.org/10.1038/s41565-024-01639-9| https://doi.org/10.1038/s41565-024-01750-x| https://doi.org/10.1038/s41565-020-0744-z| https://doi.org/10.1038/s41565-019-0627-3| https://doi.org/10.1038/s41565-020-0681-x| https://doi.org/10.1038/s41565-020-0726-1| https://doi.org/10.1038/s41565-020-00821-z| https://doi.org/10.1038/s41565-019-0625-5| https://doi.org/10.1038/s41565-022-01094-4| https://doi.org/10.1038/s41565-022-01231-z| https://doi.org/10.1038/s41565-023-01454-8| https://doi.org/10.1038/s41565-022-01172-7| https://doi.org/10.1038/s41565-022-01263-5| https://doi.org/10.1038/s41565-022-01299-7| https://doi.org/10.1038/s41565-021-00865-9| https://doi.org/10.1038/s41565-020-00804-0| https://doi.org/10.1038/s41565-023-01472-6| https://doi.org/10.1038/s41565-022-01192-3| https://doi.org/10.1038/s41565-023-01426-y| https://doi.org/10.1038/s41565-023-01559-0| https://doi.org/10.1038/s41565-020-0705-6| https://doi.org/10.1038/s41565-020-0721-6| https://doi.org/10.1038/s41565-024-01604-6| https://doi.org/10.1038/s41565-024-01634-0| https://doi.org/10.1038/s41565-024-01663-9| https://doi.org/10.1038/s41565-024-01692-4| https://doi.org/10.1038/s41565-024-01712-3| https://doi.org/10.1038/s41565-024-01743-w| https://doi.org/10.1038/s41565-024-01755-6| https://doi.org/10.1038/s41565-024-01816-w| https://doi.org/10.1038/s41565-021-00913-4| https://doi.org/10.1038/s41565-020-0638-0| https://doi.org/10.1038/s41565-022-01181-6| https://doi.org/10.1038/s41565-021-00890-8| https://doi.org/10.1038/s41565-022-01301-2| https://doi.org/10.1038/s41565-023-01364-9| https://doi.org/10.1038/s41565-023-01474-4| https://doi.org/10.1038/s41565-023-01465-5| https://doi.org/10.1038/s41565-023-01506-z| https://doi.org/10.1038/s41565-020-0745-y| https://doi.org/10.1038/s41565-020-00815-x| https://doi.org/10.1038/s41565-022-01156-7| https://doi.org/10.1038/s41565-022-01184-3| https://doi.org/10.1038/s41565-022-01239-5| https://doi.org/10.1038/s41565-022-01295-x| https://doi.org/10.1038/s41565-021-00993-2| https://doi.org/10.1038/s41565-021-01057-1| https://doi.org/10.1038/s41565-023-01399-y| https://doi.org/10.1038/s41565-023-01445-9| https://doi.org/10.1038/s41565-022-01252-8| https://doi.org/10.1038/s41565-023-01417-z| https://doi.org/10.1038/s41565-020-0733-2| https://doi.org/10.1038/s41565-023-01463-7</v>
       </c>
-      <c r="C18" t="str">
+      <c r="C18" s="1" t="str">
         <v>Two-dimensional materials for next-generation computing technologies| Advances and applications of nanophotonic biosensors| Chemical reactivity under nanoconfinement| Towards single-species selectivity of membranes with subnanometre pores| Epitaxial growth of wafer-scale molybdenum disulfide semiconductor single crystals on sapphire| Graphene oxide membranes with stable porous structure for ultrafast water transport| Van der Waals heterostructures for spintronics and opto-spintronics| All-in-one two-dimensional retinomorphic hardware device for motion detection and recognition| Interfacial ferroelectricity in rhombohedral-stacked bilayer transition metal dichalcogenides| 2D metal–organic framework for stable perovskite solar cells with minimized lead leakage| Semiconductor moiré materials| Dual-coupling-guided epitaxial growth of wafer-scale single-crystal WS2 monolayer on vicinal a-plane sapphire| Visualization of moiré superlattices| Interfacial ferroelectricity in marginally twisted 2D semiconductors| Graphene-nanopocket-encaged PtCo nanocatalysts for highly durable fuel cell operation under demanding ultralow-Pt-loading conditions| Observation of single-defect memristor in an MoS2 atomic sheet| Hydrogen storage in incompletely etched multilayer Ti2CTx at room temperature| A pyroptosis nanotuner for cancer therapy| Ultrafast non-volatile flash memory based on van der Waals heterostructures| Excitons in semiconductor moiré superlattices| Reversible strain-induced magnetic phase transition in a van der Waals magnet| Flexo-photovoltaic effect in MoS2| Imaging strain-localized excitons in nanoscale bubbles of monolayer WSe2 at room temperature| Coexisting ferromagnetic–antiferromagnetic state in twisted bilayer CrI3| High oscillator strength interlayer excitons in two-dimensional heterostructures for mid-infrared photodetection| Atomically sharp interface enabled ultrahigh-speed non-volatile memory devices| Three-dimensional monolithic micro-LED display driven by atomically thin transistor matrix| Wafer-scale monolithic integration of full-colour micro-LED display using MoS2 transistor| Room-temperature nonlinear Hall effect and wireless radiofrequency rectification in Weyl semimetal TaIrTe4| Thickness-controlled black phosphorus tunnel field-effect transistor for low-power switches| Power generation by reverse electrodialysis in a single-layer nanoporous membrane made from core–rim polycyclic aromatic hydrocarbons| Ultra-low-energy programmable non-volatile silicon photonics based on phase-change materials with graphene heaters| Molecular size-dependent subcontinuum solvent permeation and ultrafast nanofiltration across nanoporous graphene membranes| Continuous cuffless monitoring of arterial blood pressure via graphene bioimpedance tattoos| Broken mirror symmetry in excitonic response of reconstructed domains in twisted MoSe2/MoSe2 bilayers| Imaging the Néel vector switching in the monolayer antiferromagnet MnPSe3 with strain-controlled Ising order| Oxycarbide MXenes and MAX phases identification using monoatomic layer-by-layer analysis with ultralow-energy secondary-ion mass spectrometry| Magic-angle lasers in nanostructured moiré superlattice| Low-thermal-budget synthesis of monolayer molybdenum disulfide for silicon back-end-of-line integration on a 200 mm platform| Highly anisotropic excitons and multiple phonon bound states in a van der Waals antiferromagnetic insulator| Staggered-layer-boosted flexible Bi2Te3 films with high thermoelectric performance| Electrochemically modulated interaction of MXenes with microwaves| Layered materials as a platform for quantum technologies| Phase-controllable large-area two-dimensional In2Se3 and ferroelectric heterophase junction| An in-memory computing architecture based on a duplex two-dimensional material structure for in situ machine learning| Robotic four-dimensional pixel assembly of van der Waals solids| Doping-driven topological polaritons in graphene/α-MoO3 heterostructures| Highly reproducible van der Waals integration of two-dimensional electronics on the wafer scale| A tunable bilayer Hubbard model in twisted WSe2| Phase-change memtransistive synapses for mixed-plasticity neural computations| The future of two-dimensional semiconductors beyond Moore’s law| Endoepitaxial growth of monolayer mosaic heterostructures| Low-temperature growth of MoS2 on polymer and thin glass substrates for flexible electronics| Low Ohmic contact resistance and high on/off ratio in transition metal dichalcogenides field-effect transistors via residue-free transfer| Graphene moiré superlattices with giant quantum nonlinearity of chiral Bloch electrons| Correlated insulator and Chern insulators in pentalayer rhombohedral-stacked graphene| Excitons in mesoscopically reconstructed moiré heterostructures| An ultrafast bipolar flash memory for self-activated in-memory computing| Nanoporous graphene-based thin-film microelectrodes for in vivo high-resolution neural recording and stimulation| Step engineering for nucleation and domain orientation control in WSe2 epitaxy on c-plane sapphire| Resolvin D1 delivery to lesional macrophages using antioxidative black phosphorus nanosheets for atherosclerosis treatment| Epitaxial substitution of metal iodides for low-temperature growth of two-dimensional metal chalcogenides| Monolithic three-dimensional integration of complementary two-dimensional field-effect transistors| Controllable van der Waals gaps by water adsorption| First-in-human controlled inhalation of thin graphene oxide nanosheets to study acute cardiorespiratory responses| Multidimensional detection enabled by twisted black arsenic–phosphorus homojunctions| Understanding epitaxial growth of two-dimensional materials and their homostructures| High-density transparent graphene arrays for predicting cellular calcium activity at depth from surface potential recordings| Charge-transfer contacts for the measurement of correlated states in high-mobility WSe2| Engineering interfacial polarization switching in van der Waals multilayers| Topological valley Hall polariton condensation| Electricity generated by upstream proton diffusion in two-dimensional nanochannels| Tunable topological phases in nanographene-based spin-1/2 alternating-exchange Heisenberg chains| Spin–valley protected Kramers pair in bilayer graphene| Resolving polarization switching pathways of sliding ferroelectricity in trilayer 3R-MoS2| Exciton dressing by extreme nonlinear magnons in a layered semiconductor| Birefringence-like spin transport via linearly polarized antiferromagnetic magnons| Optical fibres with embedded two-dimensional materials for ultrahigh nonlinearity| Giant Stark splitting of an exciton in bilayer MoS2| Room-temperature valleytronic transistor| Tuning inelastic light scattering via symmetry control in the two-dimensional magnet CrI3| A Gd@C82 single-molecule electret| Electrical and thermal generation of spin currents by magnetic bilayer graphene| Covalently interconnected transition metal dichalcogenide networks via defect engineering for high-performance electronic devices| Tuning layer-hybridized moiré excitons by the quantum-confined Stark effect| Two-dimensional quantum-sheet films with sub-1.2 nm channels for ultrahigh-rate electrochemical capacitance| Filtering the photoluminescence spectra of atomically thin semiconductors with graphene| Quantum Hall effect of Weyl fermions in n-type semiconducting tellurene| Electrical tuning of optically active interlayer excitons in bilayer MoS2| Waveguide-integrated van der Waals heterostructure photodetector at telecom wavelengths with high speed and high responsivity| Graphene-assisted spontaneous relaxation towards dislocation-free heteroepitaxy| Third-order nonlinear Hall effect induced by the Berry-connection polarizability tensor| Atomic reconstruction in twisted bilayers of transition metal dichalcogenides| Intrinsic bioactivity of black phosphorus nanomaterials on mitotic centrosome destabilization through suppression of PLK1 kinase| A monolayer transition-metal dichalcogenide as a topological excitonic insulator| Electrolyte gating in graphene-based supercapacitors and its use for probing nanoconfined charging dynamics| Giant enhancement of third-harmonic generation in graphene–metal heterostructures| Full-bandwidth electrophysiology of seizures and epileptiform activity enabled by flexible graphene microtransistor depth neural probes| Light–matter coupling in large-area van der Waals superlattices| Electrochemical generation of liquid and solid sulfur on two-dimensional layered materials with distinct areal capacities| Anisotropic band flattening in graphene with one-dimensional superlattices| Heteroepitaxial van der Waals semiconductor superlattices| Odd- and even-denominator fractional quantum Hall states in monolayer WSe2| Probing photoelectrical transport in lead halide perovskites with van der Waals contacts| Direct observation of water-mediated single-proton transport between hBN surface defects| Moiré trions in MoSe2/WSe2 heterobilayers| Magnetically tunable and stable deep-ultraviolet birefringent optics using two-dimensional hexagonal boron nitride| Tunable interaction between excitons and hybridized magnons in a layered semiconductor| Aharonov–Bohm effect in graphene-based Fabry–Pérot quantum Hall interferometers| Electric control of valley polarization in monolayer WSe2 using a van der Waals magnet| A tunable Fabry–Pérot quantum Hall interferometer in graphene| Hydrogen-substituted graphdiyne-assisted ultrafast sparking synthesis of metastable nanomaterials| Nonlinear polariton parametric emission in an atomically thin semiconductor based microcavity| Spin-correlated exciton–polaritons in a van der Waals magnet| A general one-step plug-and-probe approach to top-gated transistors for rapidly probing delicate electronic materials| Graphene nanopattern as a universal epitaxy platform for single-crystal membrane production and defect reduction| Probing nanomotion of single bacteria with graphene drums| Beyond steric selectivity of ions using ångström-scale capillaries| Anomalous thickness dependence of photoluminescence quantum yield in black phosphorous| Evidence of frustrated magnetic interactions in a Wigner–Mott insulator| Bilayer WSe2 as a natural platform for interlayer exciton condensates in the strong coupling limit| Spontaneous broken-symmetry insulator and metals in tetralayer rhombohedral graphene| Microwave synthesis of molybdenene from MoS2| High-throughput manufacturing of epitaxial membranes from a single wafer by 2D materials-based layer transfer process| Electrical switching of a bistable moiré superconductor| Switchable moiré potentials in ferroelectric WTe2/WSe2 superlattices| Atomically thin optomemristive feedback neurons| Electron cooling in graphene enhanced by plasmon–hydron resonance| Electrically switchable anisotropic polariton propagation in a ferroelectric van der Waals semiconductor| Hyperbolic whispering-gallery phonon polaritons in boron nitride nanotubes| Electrical switching of ferro-rotational order in nanometre-thick 1T-TaS2 crystals| Pressure tuning of minibands in MoS2/WSe2 heterostructures revealed by moiré phonons| Ultrafast exciton fluid flow in an atomically thin MoS2 semiconductor| Van der Waals quaternary oxides for tunable low-loss anisotropic polaritonics| Projected performance of Si- and 2D-material-based SRAM circuits ranging from 16 nm to 1 nm technology nodes| Functionalized nanowires for miRNA-mediated therapeutic programming of naïve T cells| Superionic fluoride gate dielectrics with low diffusion barrier for two-dimensional electronics| Mesoporous structured MoS2 as an electron transport layer for efficient and stable perovskite solar cells| Mapping charge excitations in generalized Wigner crystals| Integrated 1D epitaxial mirror twin boundaries for ultrascaled 2D MoS2 field-effect transistors| Spatiotemporal imaging of nonlinear optics in van der Waals waveguides| Momentum tunnelling between nanoscale liquid flows| Ferroelectricity with concomitant Coulomb screening in van der Waals heterostructures| Switching on and off the spin polarization of the conduction band in antiferromagnetic bilayer transistors| A deep-learning approach to realizing functionality in nanoelectronic devices| Layer-resolved magnetic proximity effect in van der Waals heterostructures| Graphene oxide patchwork membranes| A tunable monolithic SQUID in twisted bilayer graphene| Quantum Hall phase in graphene engineered by interfacial charge coupling| Giant magnetochiral anisotropy from quantum-confined surface states of topological insulator nanowires| Relation between interfacial shear and friction force in 2D materials| Chirality-dependent unidirectional routing of WS2 valley photons in a nanocircuit| Quenching the bandgap of two-dimensional semiconductors with a perpendicular electric field| Graphene oxide elicits microbiome-dependent type 2 immune responses via the aryl hydrocarbon receptor| Bidirectional phonon emission in two-dimensional heterostructures triggered by ultrafast charge transfer| Every-other-layer dipolar excitons in a spin-valley locked superlattice| Atomically precise vacancy-assembled quantum antidots| Tunable phononic coupling in excitonic quantum emitters| Infrared nano-imaging of Dirac magnetoexcitons in graphene| In-memory factorization of holographic perceptual representations| Strong chiroptical nonlinearity in coherently stacked boron nitride nanotubes| Graphene oxide electrodes enable electrical stimulation of distinct calcium signalling in brain astrocytes| Optical read-out of Coulomb staircases in a moiré superlattice via trapped interlayer trions| A gate-tunable graphene Josephson parametric amplifier| Random interstratification in hydrated graphene oxide membranes and implications for seawater desalination| Atomic-scale friction between single-asperity contacts unveiled through in situ transmission electron microscopy| Giant orbital magnetic moments and paramagnetic shift in artificial relativistic atoms and molecules| Asymmetric conducting route and potential redistribution determine the polarization-dependent conductivity in layered ferroelectrics| Giant spin Hall effect in AB-stacked MoTe2/WSe2 bilayers| Nanoscale one-dimensional close packing of interfacial alkali ions driven by water-mediated attraction| Electrically tunable giant Nernst effect in two-dimensional van der Waals heterostructures| Layer-dependent evolution of electronic structures and correlations in rhombohedral multilayer graphene| Upconversion electroluminescence in 2D semiconductors integrated with plasmonic tunnel junctions| Third-order nonlinear Hall effect in a quantum Hall system| Nanotech powers on-chip intelligence| Pt catalyst protected by graphene nanopockets enables lifetimes of over 200,000 h for heavy-duty fuel cell applications| Electric bias-induced reversible configuration of single and heteronuclear dual-atom catalysts on 1Tʹ-MoS2| Two-dimensional adaptive membranes with programmable water and ionic channels| Preventing colour fading in artworks with graphene veils| Large-area nanoengineering of graphene corrugations for visible-frequency graphene plasmons| Non-reciprocal energy transfer through the Casimir effect| Quantum-noise-limited microwave amplification using a graphene Josephson junction| Detectivities of WS2/HfS2 heterojunctions| Low-temperature MoS2 growth on CMOS wafers| Challenges remain for 2D semiconductor growth| Biomimetic cell stimulation with a graphene oxide antigen-presenting platform for developing T cell-based therapies| Observation of giant and tunable thermal diffusivity of a Dirac fluid at room temperature| Electronic thermal transport measurement in low-dimensional materials with graphene non-local noise thermometry| Specific ion selectivity with a reverse-selective mechanism| Electrical detection of the flat-band dispersion in van der Waals field-effect structures| On-demand nanoengineering of in-plane ferroelectric topologies| Ultra-fast non-volatile memory| DNA double helix, a tiny electromotor| Hybrid electronic–photonic sensors on a fibre tip| Viscous terahertz photoconductivity of hydrodynamic electrons in graphene| Creation and annihilation of mobile fractional solitons in atomic chains| Ultraviolet interlayer excitons in bilayer WSe2| Gate-defined Josephson junctions in magic-angle twisted bilayer graphene| Highly tunable junctions and non-local Josephson effect in magic-angle graphene tunnelling devices| Charge-order-enhanced capacitance in semiconductor moiré superlattices| Monolayer mosaic heterostructures| Tracking nonlinear conversion of light in van der Waals waveguides| Electron correlation strengthened in multilayer rhombohedral graphite| Momentum tunnelling across quantum barriers| Electrically activating two-dimensional antiferromagnets| Unidirectional guided resonance continuum of Dirac bands in WS2 bilayer metasurfaces| Nonlinear Nernst effect in trilayer graphene at zero magnetic field| States of shear wander| Strain-induced crumpling of graphene oxide lamellas to achieve fast and selective transport of H2 and CO2| Crumpled graphene oxide membranes enable rapid and selective hydrogen separation| On-chip direct synthesis of boron nitride memristors| Ultrawide-bandwidth boron nitride photonic memristors| Engineering disorder with monolayer amorphous carbon growth| Ferroelectricity and multiferroicity down to the atomic thickness| Rhombohedral graphene goes correlated at four or five layers| Electricity generated from upstream proton diffusion| A decade of R2R graphene manufacturing| Gas separation with porous graphene| Stopped-light nanolasing in optical magic-angle graphene| Reply to: Random interstratification in hydrated graphene oxide membranes and implications for seawater desalination| The pull of the MXene vortex| Twisted light gets a splash of colour| Relativistic quantum phenomena in graphene quantum dots| Electrokinetic manipulation of a nanowire| Reply to: Detectivities of WS2/HfS2 heterojunctions| Author Correction: Robotic four-dimensional pixel assembly of van der Waals solids| Author Correction: Scalable synthesis of hierarchically structured carbon nanotube–graphene fibres for capacitive energy storage| 2D materials, a matter for chemists| Quantum friction with water effectively cools graphene electrons| Publisher Correction: Atomically thin optomemristive feedback neurons| Excitons in atomically thin materials flow faster than they fly| Ultrafast nano-movie of graphene| Author Correction: Infrared nano-imaging of Dirac magnetoexcitons in graphene| Precise control of van der Waals gaps| 1D metals for 2D electronics| Fluoride dielectrics for 2D transistors| Aharonov–Bohm interference and statistical phase-jump evolution in fractional quantum Hall states in bilayer graphene| Author Correction: Graphene oxide electrodes enable electrical stimulation of distinct calcium signalling in brain astrocytes| Dirac-point photocurrents due to the photothermoelectric effect in non-uniform graphene devices| 2D materials grow large| Acute, controlled inhalation of thin graphene oxide nanosheets in humans with null cardiorespiratory effects| Revisiting hyperbolic materials for deep-subwavelength polaritonics| Excitons in a twisted world| A fresh look at desalination| Listening to the sound of a bacterium| Freezing and melting skyrmions in 2D| Author Correction: Layer-controlled single-crystalline graphene film with stacking order via Cu–Si alloy formation| Supercool sulfur| Microdrones soar by recoiling light| Human muscle-like actuation realized with graphene–liquid crystalline elastomer composites| Controlling topological states in bilayer graphene| Graphene unlocks dispersion of topological polaritons| 2D Ferroelectricity in hetero-phase junction| 2D materials for fast flash memory devices| Author Correction: High oscillator strength interlayer excitons in two-dimensional heterostructures for mid-infrared photodetection| Optical control of the valley Zeeman effect through many-exciton interactions| ‘Rotating’ contact for bias-free photodetection with 2D materials| A 2D material-based liquid crystal for deep-ultraviolet light modulation| Premelting occurs at 2D faults| Excitons stabilize above the band gap in bilayer WSe2| Ordering with a twist| In recognition of aberration-corrected TEM| Author Correction: Spontaneous broken-symmetry insulator and metals in tetralayer rhombohedral graphene| Graphene edge interference improves single-molecule transistors| Tuning light by the vibes| Multiwalled boron nitride nanotubes with a strong nonlinear chiroptical response| Selective stimulation of calcium signalling pathways in astrocytes with graphene electrodes| Reimagining computing with 2D semiconductors| Nonlinear Hall effect in an insulator| Nanoscale gradient interface for efficient heat transfer| Building devices in magic-angle graphene| Reply to: Dirac-point photocurrents due to photothermoelectric effect in non-uniform graphene devices| Phonons hushed| Photothermal twistronics| Author Correction: Graphene unlocks dispersion of topological polaritons| Transport mechanisms| Two-terminal reconfigurable and non-volatile photovoltaic detectors| Direct synthesis of MoS2 films on flexible substrates at low temperature| Using single vacancies to build quantum antidots with atomic precision| Publisher Correction: 2D phase transitions: Freezing and melting skyrmions in 2D| Off balance and over the edge| Author Correction: Monolayer mosaic heterostructures| Making a case for moiré semiconductors| Graphene amplifier reaches the quantum limit| A brilliant source of single photons| Phosphorus in the flatland| Peptide sequencing| Scalable CMOS back-end-of-line-compatible AlScN/two-dimensional channel ferroelectric field-effect transistors| Oriented lateral growth of two-dimensional materials on c-plane sapphire| Giant bulk piezophotovoltaic effect in 3R-MoS2| Berry curvature dipole generation and helicity-to-spin conversion at symmetry-mismatched heterointerfaces| Large non-reciprocal charge transport mediated by quantum anomalous Hall edge states| Dynamic topological domain walls driven by lithium intercalation in graphene</v>
       </c>
-      <c r="D18" t="str">
-        <v>東大</v>
-      </c>
-      <c r="E18" t="str">
-        <v>東北大</v>
-      </c>
-      <c r="F18">
+      <c r="D18" s="1" t="str">
+        <v>東大</v>
+      </c>
+      <c r="E18" s="1" t="str">
+        <v>東北大</v>
+      </c>
+      <c r="F18" s="1" t="str">
+        <v>2023/03/03| 2025/02/13| 2025/07/23| 2023/01/29| 2022/10/12| 2020/12/14| 2023/11/20| 2024/05/31| 2022/02/17| 2021/08/11| 2025/09/11| 2025/04/05| 2022/09/07| 2023/07/17| 2021/09/25| 2021/01/04| 2023/11/10| 2020/08/12| 2022/06/12| 2022/07/07| 2021/02/23| 2021/04/28| 2021/05/06| 2020/12/18| 2021/10/10| 2020/06/14| 2024/01/09| 2022/12/13| 2021/07/21| 2023/01/28| 2024/01/19| 2025/12/30| 2024/08/16| 2022/10/05| 2020/09/23| 2022/06/01| 2022/07/30| 2021/12/05| 2025/03/24| 2025/11/17| 2022/11/21| 2020/02/24| 2021/10/13| 2023/12/07| 2025/02/06| 2025/10/10| 2024/11/27| 2025/06/19| 2023/08/26| 2020/02/16| 2021/05/08| 2024/12/16| 2022/05/30| 2022/09/17| 2025/04/03| 2025/04/18| 2023/11/09| 2024/07/15| 2022/03/29| 2022/11/29| 2020/12/13| 2021/03/19| 2025/06/25| 2022/01/22| 2021/08/04| 2023/09/02| 2025/05/31| 2023/08/18| 2025/05/23| 2024/03/05| 2022/01/16| 2022/07/13| 2023/05/16| 2021/07/15| 2020/01/28| 2022/01/26| 2025/12/01| 2020/08/04| 2021/10/11| 2024/05/23| 2022/08/24| 2021/09/04| 2025/03/19| 2021/02/08| 2022/06/04| 2023/03/16| 2022/01/06| 2020/10/21| 2023/06/24| 2025/04/24| 2025/07/11| 2024/09/03| 2021/09/20| 2020/03/06| 2025/09/08| 2024/02/08| 2022/07/31| 2022/08/19| 2023/02/09| 2025/02/23| 2020/01/02| 2024/04/28| 2022/04/04| 2020/12/05| 2024/12/29| 2020/01/08| 2024/12/09| 2021/09/14| 2025/05/15| 2023/10/29| 2020/10/16| 2025/08/11| 2023/02/19| 2020/05/11| 2022/04/28| 2024/05/19| 2023/12/15| 2025/06/01| 2021/10/07| 2020/01/05| 2020/06/17| 2021/09/13| 2025/05/18| 2024/07/13| 2023/07/29| 2021/01/06| 2022/09/05| 2024/05/11| 2022/08/21| 2020/03/08| 2021/09/29| 2022/06/26| 2025/04/14| 2024/04/23| 2021/08/29| 2020/04/09| 2020/01/07| 2021/08/17| 2022/01/08| 2023/12/04| 2020/10/20| 2025/08/25| 2023/09/01| 2021/01/02| 2025/08/24| 2020/11/05| 2023/03/28| 2023/03/09| 2024/04/27| 2025/02/17| 2022/11/04| 2020/10/23| 2021/05/30| 2021/12/10| 2022/08/17| 2021/12/21| 2025/01/05| 2023/09/27| 2023/10/26| 2025/09/30| 2020/09/03| 2020/08/10| 2024/04/24| 2022/01/30| 2024/01/25| 2025/10/21| 2024/07/19| 2023/07/04| 2020/09/02| 2023/05/10| 2022/09/06| 2022/11/15| 2025/07/31| 2024/03/21| 2021/08/19| 2022/06/05| 2024/07/18| 2022/11/26| 2021/08/09| 2023/05/09| 2025/05/14| 2020/03/11| 2021/06/19| 2023/10/31| 2020/12/11| 2023/03/22| 2021/05/27| 2022/03/28| 2025/11/08| 2020/03/17| 2023/06/21| 2020/09/14| 2023/04/26| 2020/09/11| 2021/10/05| 2023/04/03| 2023/05/31| 2020/11/29| 2022/04/15| 2024/04/22| 2024/11/16| 2020/12/23| 2022/10/25| 2023/01/17| 2021/06/22| 2022/06/13| 2020/06/10| 2022/08/02| 2020/07/08| 2025/10/15| 2025/07/01| 2022/03/10| 2020/05/13| 2024/04/19| 2021/05/10| 2020/06/29| 2022/10/18| 2023/03/01| 2024/11/25| 2025/03/20| 2025/02/16| 2024/05/15| 2020/09/01| 2022/07/17| 2025/05/19| 2020/04/29| 2020/05/16| 2022/05/13| 2021/02/25| 2023/04/22| 2024/08/20| 2022/11/25| 2021/04/14| 2021/03/27| 2024/07/29| 2025/11/15| 2020/10/30| 2022/01/25| 2020/08/19| 2021/06/30| 2023/12/12| 2023/04/11| 2025/07/25| 2020/10/19| 2020/10/03| 2024/07/24| 2024/03/04| 2024/02/12| 2025/02/24| 2023/06/17| 2021/07/22| 2020/08/06| 2024/08/18| 2021/03/02| 2023/05/26| 2024/10/28| 2024/09/08| 2020/07/04| 2020/12/27| 2025/01/14| 2022/03/30| 2022/06/15| 2020/05/04| 2025/07/30| 2020/02/26| 2024/08/04| 2025/09/09| 2023/12/24| 2020/05/10| 2023/11/16| 2021/01/05| 2022/12/22</v>
+      </c>
+      <c r="G18" s="1" t="str">
         <v>293</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="str">
+      <c r="A19" s="1" t="str">
         <v>6 環境・安全性・リスク評価・サステナビリティ・規制・社会実装</v>
       </c>
-      <c r="B19" t="str">
+      <c r="B19" s="1" t="str">
         <v>https://doi.org/10.1038/s41565-022-01121-4| https://doi.org/10.1038/s41565-021-01059-z| https://doi.org/10.1038/s41565-020-00799-8| https://doi.org/10.1038/s41565-020-00809-9| https://doi.org/10.1038/s41565-022-01135-y| https://doi.org/10.1038/s41565-021-00965-6| https://doi.org/10.1038/s41565-020-00828-6| https://doi.org/10.1038/s41565-022-01087-3| https://doi.org/10.1038/s41565-021-00928-x| https://doi.org/10.1038/s41565-021-01030-y| https://doi.org/10.1038/s41565-023-01483-3| https://doi.org/10.1038/s41565-024-01641-1| https://doi.org/10.1038/s41565-020-0704-7| https://doi.org/10.1038/s41565-021-00914-3| https://doi.org/10.1038/s41565-021-00980-7| https://doi.org/10.1038/s41565-023-01551-8| https://doi.org/10.1038/s41565-023-01575-0| https://doi.org/10.1038/s41565-022-01142-z| https://doi.org/10.1038/s41565-023-01397-0| https://doi.org/10.1038/s41565-022-01224-y| https://doi.org/10.1038/s41565-023-01592-z| https://doi.org/10.1038/s41565-024-01653-x| https://doi.org/10.1038/s41565-024-01670-w| https://doi.org/10.1038/s41565-022-01216-y| https://doi.org/10.1038/s41565-024-01788-x| https://doi.org/10.1038/s41565-023-01544-7| https://doi.org/10.1038/s41565-021-00894-4| https://doi.org/10.1038/s41565-024-01815-x| https://doi.org/10.1038/s41565-024-01836-6| https://doi.org/10.1038/s41565-020-0763-9| https://doi.org/10.1038/s41565-023-01467-3| https://doi.org/10.1038/s41565-023-01481-5| https://doi.org/10.1038/s41565-021-01044-6| https://doi.org/10.1038/s41565-022-01212-2| https://doi.org/10.1038/s41565-024-01828-6| https://doi.org/10.1038/s41565-020-0637-1| https://doi.org/10.1038/s41565-020-0676-7| https://doi.org/10.1038/s41565-023-01411-5| https://doi.org/10.1038/s41565-020-0635-3| https://doi.org/10.1038/s41565-020-00804-0| https://doi.org/10.1038/s41565-023-01518-9| https://doi.org/10.1038/s41565-023-01509-w| https://doi.org/10.1038/s41565-020-0748-8</v>
       </c>
-      <c r="C19" t="str">
+      <c r="C19" s="1" t="str">
         <v>Efficient conversion of low-concentration nitrate sources into ammonia on a Ru-dispersed Cu nanowire electrocatalyst| Interfacial ferroelectricity in rhombohedral-stacked bilayer transition metal dichalcogenides| Nanoscale engineering of catalytic materials for sustainable technologies| Mechanochemistry for ammonia synthesis under mild conditions| High-yield solar-driven atmospheric water harvesting of metal–organic-framework-derived nanoporous carbon with fast-diffusion water channels| Quantum-dot-based deterministic photon–emitter interfaces for scalable photonic quantum technology| Ultrafast hole spin qubit with gate-tunable spin–orbit switch functionality| Fast and selective reduction of nitroarenes under visible light with an earth-abundant plasmonic photocatalyst| Conformation-sensitive targeting of lipid nanoparticles for RNA therapeutics| Species-dependent in vivo mRNA delivery and cellular responses to nanoparticles| Dynamic matrices with DNA-encoded viscoelasticity for cell and organoid culture| De novo design of pH-responsive self-assembling helical protein filaments| Electrolyte gating in graphene-based supercapacitors and its use for probing nanoconfined charging dynamics| Cellular binding, uptake and biotransformation of silver nanoparticles in human T lymphocytes| Ferritin-based targeted delivery of arsenic to diverse leukaemia types confers strong anti-leukaemia therapeutic effects| Intracerebral fate of organic and inorganic nanoparticles is dependent on microglial extracellular vesicle function| Nanosensor detection of reactive oxygen and nitrogen species leakage in frustrated phagocytosis of nanofibres| Wavelike electronic energy transfer in donor–acceptor molecular systems through quantum coherence| Engineering metal oxidation using epitaxial strain| Lorentz electron ptychography for imaging magnetic textures beyond the diffraction limit| Augmenting insect olfaction performance through nano-neuromodulation| Nanoscale doping of polymeric semiconductors with confined electrochemical ion implantation| Atomic-force-microscopy-based time-domain two-dimensional infrared nanospectroscopy| Specific ion selectivity with a reverse-selective mechanism| Energy-efficient picosecond spin–orbit torque magnetization switching in ferro- and ferrimagnetic films| Ultraviolet interlayer excitons in bilayer WSe2| Highly tunable junctions and non-local Josephson effect in magic-angle graphene tunnelling devices| Self-cleaning electrode for stable synthesis of alkaline-earth metal peroxides| The challenge of studying interfaces in battery materials| Relation between microscopic interactions and macroscopic properties in ferroics| Shaken, not heated: DNA self-assembly at room temperature| Navigating advanced technology transitions: using lessons from nanotechnology| Questions about the role of P3HT nanoparticles in retinal stimulation| Inheritable nanotubes boost bioimaging and photovoltaics in cyanobacteria| Quantum dots are beginning to lase in the blue| Dirac-point photocurrents due to the photothermoelectric effect in non-uniform graphene devices| Single-molecule imaging goes high throughput| Moore must go on| Author Correction: Precise targeting of POLR2A as a therapeutic strategy for human triple negative breast cancer| Optical control of the valley Zeeman effect through many-exciton interactions| Sensitive photoresists for high-speed two­-photon lithography| Breaking the bottleneck of synthetic cells| Publisher Correction: Programmable multistage drug delivery to lymph nodes</v>
       </c>
-      <c r="D19" t="str">
-        <v/>
-      </c>
-      <c r="E19" t="str">
-        <v/>
-      </c>
-      <c r="F19">
+      <c r="D19" s="1" t="str">
+        <v/>
+      </c>
+      <c r="E19" s="1" t="str">
+        <v/>
+      </c>
+      <c r="F19" s="1" t="str">
+        <v>2021/01/22| 2022/02/17| 2021/10/04| 2021/08/06| 2023/03/31| 2025/01/24| 2023/01/08| 2025/05/27| 2024/03/02| 2025/07/29| 2020/09/01| 2023/12/01| 2025/09/08| 2023/01/30| 2022/12/10| 2022/03/03| 2024/03/18| 2020/02/02| 2025/07/31| 2020/02/14| 2021/06/05| 2021/09/28| 2025/07/12| 2022/11/26| 2021/10/21| 2023/03/22| 2022/03/28| 2024/07/14| 2024/02/07| 2023/07/30| 2025/02/08| 2023/10/13| 2024/01/07| 2022/11/03| 2024/09/06| 2020/03/11| 2020/10/27| 2025/12/04| 2025/07/26| 2021/06/30| 2023/01/07| 2023/11/01| 2022/05/12</v>
+      </c>
+      <c r="G19" s="1" t="str">
         <v>43</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="str">
+      <c r="A20" s="1" t="str">
         <v>4 金属・合金・ナノ粒子・触媒材料</v>
       </c>
-      <c r="B20" t="str">
+      <c r="B20" s="1" t="str">
         <v>https://doi.org/10.1038/s41565-022-01121-4| https://doi.org/10.1038/s41565-020-00824-w| https://doi.org/10.1038/s41565-021-00886-4| https://doi.org/10.1038/s41565-020-0673-x| https://doi.org/10.1038/s41565-021-00922-3| https://doi.org/10.1038/s41565-020-0665-x| https://doi.org/10.1038/s41565-021-00974-5| https://doi.org/10.1038/s41565-021-01022-y| https://doi.org/10.1038/s41565-020-00823-x| https://doi.org/10.1038/s41565-020-00799-8| https://doi.org/10.1038/s41565-020-00812-0| https://doi.org/10.1038/s41565-020-0674-9| https://doi.org/10.1038/s41565-020-0746-x| https://doi.org/10.1038/s41565-021-00924-1| https://doi.org/10.1038/s41565-021-00951-y| https://doi.org/10.1038/s41565-021-00976-3| https://doi.org/10.1038/s41565-020-00809-9| https://doi.org/10.1038/s41565-020-0643-3| https://doi.org/10.1038/s41565-020-00826-8| https://doi.org/10.1038/s41565-019-0605-9| https://doi.org/10.1038/s41565-019-0603-y| https://doi.org/10.1038/s41565-020-0694-5| https://doi.org/10.1038/s41565-021-00856-w| https://doi.org/10.1038/s41565-023-01407-1| https://doi.org/10.1038/s41565-021-00854-y| https://doi.org/10.1038/s41565-020-00803-1| https://doi.org/10.1038/s41565-021-00910-7| https://doi.org/10.1038/s41565-019-0622-8| https://doi.org/10.1038/s41565-020-00837-5| https://doi.org/10.1038/s41565-021-00929-w| https://doi.org/10.1038/s41565-022-01286-y| https://doi.org/10.1038/s41565-020-0754-x| https://doi.org/10.1038/s41565-021-00860-0| https://doi.org/10.1038/s41565-019-0614-8| https://doi.org/10.1038/s41565-021-01018-8| https://doi.org/10.1038/s41565-022-01075-7| https://doi.org/10.1038/s41565-021-00982-5| https://doi.org/10.1038/s41565-022-01225-x| https://doi.org/10.1038/s41565-023-01543-8| https://doi.org/10.1038/s41565-022-01087-3| https://doi.org/10.1038/s41565-020-00835-7| https://doi.org/10.1038/s41565-022-01256-4| https://doi.org/10.1038/s41565-022-01189-y| https://doi.org/10.1038/s41565-024-01618-0| https://doi.org/10.1038/s41565-021-00852-0| https://doi.org/10.1038/s41565-022-01101-8| https://doi.org/10.1038/s41565-021-00975-4| https://doi.org/10.1038/s41565-021-01070-4| https://doi.org/10.1038/s41565-022-01154-9| https://doi.org/10.1038/s41565-022-01274-2| https://doi.org/10.1038/s41565-023-01344-z| https://doi.org/10.1038/s41565-024-01614-4| https://doi.org/10.1038/s41565-023-01429-9| https://doi.org/10.1038/s41565-022-01177-2| https://doi.org/10.1038/s41565-022-01078-4| https://doi.org/10.1038/s41565-022-01289-9| https://doi.org/10.1038/s41565-023-01455-7| https://doi.org/10.1038/s41565-022-01284-0| https://doi.org/10.1038/s41565-022-01277-z| https://doi.org/10.1038/s41565-022-01261-7| https://doi.org/10.1038/s41565-022-01296-w| https://doi.org/10.1038/s41565-023-01323-4| https://doi.org/10.1038/s41565-023-01498-w| https://doi.org/10.1038/s41565-023-01577-y| https://doi.org/10.1038/s41565-022-01105-4| https://doi.org/10.1038/s41565-023-01405-3| https://doi.org/10.1038/s41565-022-01175-4| https://doi.org/10.1038/s41565-023-01366-7| https://doi.org/10.1038/s41565-023-01384-5| https://doi.org/10.1038/s41565-023-01587-w| https://doi.org/10.1038/s41565-024-01699-x| https://doi.org/10.1038/s41565-024-01753-8| https://doi.org/10.1038/s41565-024-01636-y| https://doi.org/10.1038/s41565-024-01648-8| https://doi.org/10.1038/s41565-024-01784-1| https://doi.org/10.1038/s41565-024-01807-x| https://doi.org/10.1038/s41565-024-01669-3| https://doi.org/10.1038/s41565-024-01621-5| https://doi.org/10.1038/s41565-024-01715-0| https://doi.org/10.1038/s41565-024-01626-0| https://doi.org/10.1038/s41565-024-01673-7| https://doi.org/10.1038/s41565-024-01716-z| https://doi.org/10.1038/s41565-024-01690-6| https://doi.org/10.1038/s41565-024-01793-0| https://doi.org/10.1038/s41565-024-01625-1| https://doi.org/10.1038/s41565-024-01696-0| https://doi.org/10.1038/s41565-025-01870-y| https://doi.org/10.1038/s41565-025-01866-8| https://doi.org/10.1038/s41565-025-01877-5| https://doi.org/10.1038/s41565-025-01892-6| https://doi.org/10.1038/s41565-025-01881-9| https://doi.org/10.1038/s41565-020-00776-1| https://doi.org/10.1038/s41565-020-0760-z| https://doi.org/10.1038/s41565-020-0678-5| https://doi.org/10.1038/s41565-020-0743-0| https://doi.org/10.1038/s41565-021-00911-6| https://doi.org/10.1038/s41565-020-0753-y| https://doi.org/10.1038/s41565-020-0701-x| https://doi.org/10.1038/s41565-020-00825-9| https://doi.org/10.1038/s41565-021-00997-y| https://doi.org/10.1038/s41565-021-00927-y| https://doi.org/10.1038/s41565-020-0690-9| https://doi.org/10.1038/s41565-020-0734-1| https://doi.org/10.1038/s41565-021-00914-3| https://doi.org/10.1038/s41565-021-00920-5| https://doi.org/10.1038/s41565-021-00964-7| https://doi.org/10.1038/s41565-020-0723-4| https://doi.org/10.1038/s41565-020-0747-9| https://doi.org/10.1038/s41565-021-00959-4| https://doi.org/10.1038/s41565-021-00900-9| https://doi.org/10.1038/s41565-020-0771-9| https://doi.org/10.1038/s41565-020-00834-8| https://doi.org/10.1038/s41565-022-01086-4| https://doi.org/10.1038/s41565-022-01230-0| https://doi.org/10.1038/s41565-023-01378-3| https://doi.org/10.1038/s41565-022-01254-6| https://doi.org/10.1038/s41565-023-01540-x| https://doi.org/10.1038/s41565-023-01496-y| https://doi.org/10.1038/s41565-023-01355-w| https://doi.org/10.1038/s41565-023-01551-8| https://doi.org/10.1038/s41565-023-01393-4| https://doi.org/10.1038/s41565-023-01386-3| https://doi.org/10.1038/s41565-024-01622-4| https://doi.org/10.1038/s41565-024-01809-9| https://doi.org/10.1038/s41565-024-01825-9| https://doi.org/10.1038/s41565-024-01629-x| https://doi.org/10.1038/s41565-024-01824-w| https://doi.org/10.1038/s41565-024-01843-7| https://doi.org/10.1038/s41565-024-01826-8| https://doi.org/10.1038/s41565-025-01878-4| https://doi.org/10.1038/s41565-025-01914-3| https://doi.org/10.1038/s41565-019-0606-8| https://doi.org/10.1038/s41565-021-00892-6| https://doi.org/10.1038/s41565-020-0642-4| https://doi.org/10.1038/s41565-021-00973-6| https://doi.org/10.1038/s41565-022-01208-y| https://doi.org/10.1038/s41565-022-01226-w| https://doi.org/10.1038/s41565-023-01397-0| https://doi.org/10.1038/s41565-023-01439-7| https://doi.org/10.1038/s41565-023-01584-z| https://doi.org/10.1038/s41565-024-01775-2| https://doi.org/10.1038/s41565-023-01578-x| https://doi.org/10.1038/s41565-020-00794-z| https://doi.org/10.1038/s41565-020-0639-z| https://doi.org/10.1038/s41565-022-01290-2| https://doi.org/10.1038/s41565-023-01387-2| https://doi.org/10.1038/s41565-025-01907-2| https://doi.org/10.1038/s41565-025-01916-1| https://doi.org/10.1038/s41565-025-01915-2| https://doi.org/10.1038/s41565-025-01903-6| https://doi.org/10.1038/s41565-021-00907-2| https://doi.org/10.1038/s41565-022-01158-5| https://doi.org/10.1038/s41565-023-01331-4| https://doi.org/10.1038/s41565-024-01801-3| https://doi.org/10.1038/s41565-021-00949-6| https://doi.org/10.1038/s41565-022-01232-y| https://doi.org/10.1038/s41565-023-01402-6| https://doi.org/10.1038/s41565-024-01644-y| https://doi.org/10.1038/s41565-024-01668-4| https://doi.org/10.1038/s41565-020-0740-3| https://doi.org/10.1038/s41565-024-01802-2| https://doi.org/10.1038/s41565-024-01814-y| https://doi.org/10.1038/s41565-020-0689-2| https://doi.org/10.1038/s41565-021-00999-w| https://doi.org/10.1038/s41565-022-01090-8| https://doi.org/10.1038/s41565-022-01147-8| https://doi.org/10.1038/s41565-020-0757-7| https://doi.org/10.1038/s41565-021-00996-z| https://doi.org/10.1038/s41565-022-01120-5| https://doi.org/10.1038/s41565-022-01255-5| https://doi.org/10.1038/s41565-024-01762-7| https://doi.org/10.1038/s41565-020-0680-y| https://doi.org/10.1038/s41565-021-01053-5| https://doi.org/10.1038/s41565-025-01910-7| https://doi.org/10.1038/s41565-025-01928-x| https://doi.org/10.1038/s41565-025-01944-x| https://doi.org/10.1038/s41565-025-01949-6| https://doi.org/10.1038/s41565-025-01940-1| https://doi.org/10.1038/s41565-025-01948-7| https://doi.org/10.1038/s41565-025-01966-5| https://doi.org/10.1038/s41565-021-00889-1| https://doi.org/10.1038/s41565-022-01100-9| https://doi.org/10.1038/s41565-024-01662-w| https://doi.org/10.1038/s41565-024-01770-7| https://doi.org/10.1038/s41565-024-01815-x| https://doi.org/10.1038/s41565-020-0659-8| https://doi.org/10.1038/s41565-020-0702-9| https://doi.org/10.1038/s41565-022-01199-w| https://doi.org/10.1038/s41565-023-01352-z| https://doi.org/10.1038/s41565-021-00991-4| https://doi.org/10.1038/s41565-021-00912-5| https://doi.org/10.1038/s41565-023-01388-1| https://doi.org/10.1038/s41565-023-01473-5| https://doi.org/10.1038/s41565-023-01469-1| https://doi.org/10.1038/s41565-021-00862-y| https://doi.org/10.1038/s41565-021-01047-3| https://doi.org/10.1038/s41565-022-01203-3| https://doi.org/10.1038/s41565-024-01778-z| https://doi.org/10.1038/s41565-024-01745-8| https://doi.org/10.1038/s41565-021-00864-w| https://doi.org/10.1038/s41565-022-01132-1| https://doi.org/10.1038/s41565-023-01398-z| https://doi.org/10.1038/s41565-023-01568-z| https://doi.org/10.1038/s41565-023-01564-3| https://doi.org/10.1038/s41565-021-00948-7| https://doi.org/10.1038/s41565-020-0766-6| https://doi.org/10.1038/s41565-022-01194-1| https://doi.org/10.1038/s41565-020-00786-z| https://doi.org/10.1038/s41565-023-01571-4| https://doi.org/10.1038/s41565-021-01025-9| https://doi.org/10.1038/s41565-021-01054-4| https://doi.org/10.1038/s41565-023-01427-x| https://doi.org/10.1038/s41565-023-01555-4| https://doi.org/10.1038/s41565-023-01531-y| https://doi.org/10.1038/s41565-020-0711-8| https://doi.org/10.1038/s41565-024-01630-4| https://doi.org/10.1038/s41565-024-01602-8| https://doi.org/10.1038/s41565-024-01664-8| https://doi.org/10.1038/s41565-024-01689-z| https://doi.org/10.1038/s41565-024-01731-0| https://doi.org/10.1038/s41565-024-01838-4| https://doi.org/10.1038/s41565-021-01069-x| https://doi.org/10.1038/s41565-021-01028-6| https://doi.org/10.1038/s41565-022-01139-8| https://doi.org/10.1038/s41565-022-01167-4| https://doi.org/10.1038/s41565-022-01164-7| https://doi.org/10.1038/s41565-022-01269-z| https://doi.org/10.1038/s41565-022-01303-0| https://doi.org/10.1038/s41565-022-01315-w| https://doi.org/10.1038/s41565-023-01353-y| https://doi.org/10.1038/s41565-023-01504-1| https://doi.org/10.1038/s41565-023-01552-7| https://doi.org/10.1038/s41565-020-00801-3| https://doi.org/10.1038/s41565-022-01176-3| https://doi.org/10.1038/s41565-022-01227-9| https://doi.org/10.1038/s41565-021-00906-3| https://doi.org/10.1038/s41565-019-0616-6| https://doi.org/10.1038/s41565-023-01470-8| https://doi.org/10.1038/s41565-024-01820-0</v>
       </c>
-      <c r="C20" t="str">
+      <c r="C20" s="1" t="str">
         <v>Efficient conversion of low-concentration nitrate sources into ammonia on a Ru-dispersed Cu nanowire electrocatalyst| Challenges in applying highly active Pt-based nanostructured catalysts for oxygen reduction reactions to fuel cell vehicles| Nanoplastics are neither microplastics nor engineered nanoparticles| MOF water harvesters| X-ray-activated persistent luminescence nanomaterials for NIR-II imaging| Single-atom Rh/N-doped carbon electrocatalyst for formic acid oxidation| Copper-catalysed exclusive CO2 to pure formic acid conversion via single-atom alloying| Scalable two-step annealing method for preparing ultra-high-density single-atom catalyst libraries| An industrial perspective on catalysts for low-temperature CO2 electrolysis| Nanoscale engineering of catalytic materials for sustainable technologies| Silica nanoparticles enhance disease resistance in Arabidopsis plants| Insights from nanomedicine into chloroquine efficacy against COVID-19| Facet engineering accelerates spillover hydrogenation on highly diluted metal nanocatalysts| Environmental dimensions of the protein corona| Synergizing metal–support interactions and spatial confinement boosts dynamics of atomic nickel for hydrogenations| Photothermal nanofibres enable safe engineering of therapeutic cells| Mechanochemistry for ammonia synthesis under mild conditions| Targeted crystallization of mixed-charge nanoparticles in lysosomes induces selective death of cancer cells| Symmetry-dependent field-free switching of perpendicular magnetization| Ultrasensitive torque detection with an optically levitated nanorotor| Synergistic enhancement of electrocatalytic CO2 reduction to C2 oxygenates at nitrogen-doped nanodiamonds/Cu interface| Alloying conducting channels for reliable neuromorphic computing| Molybdenum derived from nanomaterials incorporates into molybdenum enzymes and affects their activities in vivo| Ferromagnetic single-atom spin catalyst for boosting water splitting| Nanotechnology to advance CRISPR–Cas genetic engineering of plants| A new strategy using nanoscale zero-valent iron to simultaneously promote remediation and safe crop production in contaminated soil| Bioorthogonal catalytic patch| Large-area single-crystal AB-bilayer and ABA-trilayer graphene grown on a Cu/Ni(111) foil| Nanocomposite NiTi shape memory alloy with high strength and fatigue resistance| Role of bacterial motility in differential resistance mechanisms of silver nanoparticles and silver ions| Coverage-driven selectivity switch from ethylene to acetate in high-rate CO2/CO electrolysis| High quality factor phase gradient metasurfaces| Current understanding of biological identity at the nanoscale and future prospects| Single-molecule resonance Raman effect in a plasmonic nanocavity| Nanoparticle cellular internalization is not required for RNA delivery to mature plant leaves| Abrading bulk metal into single atoms| Nano-optogenetic engineering of CAR T cells for precision immunotherapy with enhanced safety| Zinc cyclic di-AMP nanoparticles target and suppress tumours via endothelial STING activation and tumour-associated macrophage reinvigoration| Efficient multicarbon formation in acidic CO2 reduction via tandem electrocatalysis| Fast and selective reduction of nitroarenes under visible light with an earth-abundant plasmonic photocatalyst| Unique surface patterns emerging during solidification of liquid metal alloys| Versatile full-colour nanopainting enabled by a pixelated plasmonic metasurface| Remotely controlled near-infrared-triggered photothermal treatment of brain tumours in freely behaving mice using gold nanostar﻿s| Photothermal therapy of tuberculosis using targeting pre-activated macrophage membrane-coated nanoparticles| Optical tweezers beyond refractive index mismatch using highly doped upconversion nanoparticles| Migrating photon avalanche in different emitters at the nanoscale enables 46th-order optical nonlinearity| Chemical engines: driving systems away from equilibrium through catalyst reaction cycles| Non-oxidized bare copper nanoparticles with surface excess electrons in air| Fischer–Tropsch synthesis to olefins boosted by MFI zeolite nanosheets| In vivo surface-enhanced Raman scattering nanosensor for the real-time monitoring of multiple stress signalling molecules in plants| Designing single-site alloy catalysts using a degree-of-isolation descriptor| Developing high-power Li||S batteries via transition metal/carbon nanocomposite electrocatalyst engineering| Efficient solvent- and hydrogen-free upcycling of high-density polyethylene into separable cyclic hydrocarbons| A nanomaterial targeting the spike protein captures SARS-CoV-2 variants and promotes viral elimination| Precursors of Majorana modes and their length-dependent energy oscillations probed at both ends of atomic Shiba chains| Packing-induced selectivity switching in molecular nanoparticle photocatalysts for hydrogen and hydrogen peroxide production| Cholesterol modulates the physiological response to nanoparticles by changing the composition of protein corona| Machine learning for nanoplasmonics| Efficient electrocatalytic valorization of chlorinated organic water pollutant to ethylene| Targeting the activity of T cells by membrane surface redox regulation for cancer theranostics| A nanoadjuvant that dynamically coordinates innate immune stimuli activation enhances cancer immunotherapy and reduces immune cell exhaustion| Machine-learning-assisted single-vessel analysis of nanoparticle permeability in tumour vasculatures| Breaking through the basement membrane barrier to improve nanotherapeutic delivery to tumours| Urease-powered nanobots for radionuclide bladder cancer therapy| Performance descriptors of nanostructured metal catalysts for acetylene hydrochlorination| An all-in-one nanoprinting approach for the synthesis of a nanofilm library for unclonable anti-counterfeiting applications| Multiplexed reverse-transcriptase quantitative polymerase chain reaction using plasmonic nanoparticles for point-of-care COVID-19 diagnosis| Proximal tubules eliminate endocytosed gold nanoparticles through an organelle-extrusion-mediated self-renewal mechanism| Nanoplasmonic amplification in microfluidics enables accelerated colorimetric quantification of nucleic acid biomarkers from pathogens| Liquid-metal-based three-dimensional microelectrode arrays integrated with implantable ultrathin retinal prosthesis for vision restoration| The gap between academic research on proton exchange membrane water electrolysers and industrial demands| Designing nanotheranostics with machine learning| Highly efficient vortex generation at the nanoscale| Multimodal nanoimmunotherapy engages neutrophils to eliminate Staphylococcus aureus infections| A cuproptosis nanocapsule for cancer radiotherapy| Out-of-plane coordination of iridium single atoms with organic molecules and cobalt–iron hydroxides to boost oxygen evolution reaction| Redox-neutral electrochemical decontamination of hypersaline wastewater with high technology readiness level| A charge-dependent long-ranged force drives tailored assembly of matter in solution| Multimodal smart systems reprogramme macrophages and remove urate to treat gouty arthritis| Complete miscibility of immiscible elements at the nanometre scale| A large-scale machine learning analysis of inorganic nanoparticles in preclinical cancer research| Integrative catalytic pairs for efficient multi-intermediate catalysis| Nutrient-delivery and metabolism reactivation therapy for melanoma| Mechanochemistry-mediated colloidal liquid metals for electronic device cooling at kilowatt levels| Single-step fabrication of liquid gallium nanoparticles via capillary interaction for dynamic structural colours| Regioselective epitaxial growth of metallic heterostructures| Intracellular dehydrogenation catalysis leads to reductive stress and immunosuppression| Molecular-scale CO spillover on a dual-site electrocatalyst enhances methanol production from CO2 reduction| The pathways for nanoparticle transport across tumour endothelium| Zeolite-confined Cu single-atom clusters stably catalyse CO to acetate at 1 A cm−2 beyond 1,000 h| Nanoscale high-entropy surface engineering promotes selective glycerol electro-oxidation to glycerate at high current density| Advanced material modulation of nutritional and phytohormone status alleviates damage from soybean sudden death syndrome| Stand-off trapping and manipulation of sub-10 nm objects and biomolecules using opto-thermo-electrohydrodynamic tweezers| Two-way magnetic resonance tuning and enhanced subtraction imaging for non-invasive and quantitative biological imaging| Layer-controlled single-crystalline graphene film with stacking order via Cu–Si alloy formation| Towards FAIR nanosafety data| Observation of inhomogeneous plasmonic field distribution in a nanocavity| In situ electrochemical generation of nitric oxide for neuronal modulation| Ion-exchange enabled synthetic swarm| Supramolecular arrangement of protein in nanoparticle structures predicts nanoparticle tropism for neutrophils in acute lung inflammation| Continuous-wave near-infrared stimulated-emission depletion microscopy using downshifting lanthanide nanoparticles| Spontaneous and reversible hollowing of alloy anode nanocrystals for stable battery cycling| Enhanced catalytic activity under non-equilibrium conditions| Cellular binding, uptake and biotransformation of silver nanoparticles in human T lymphocytes| An antiviral trap made of protein nanofibrils and iron oxyhydroxide nanoparticles| Comprehensive framework for human health risk assessment of nanopesticides| Engineering synthetic breath biomarkers for respiratory disease| Structured nanoscale metallic glass fibres with extreme aspect ratios| Unveiling the full reaction path of the Suzuki–Miyaura cross-coupling in a single-molecule junction| Epitaxial Pb on InAs nanowires for quantum devices| Surface-enhanced Raman scattering holography| High-energy quasiparticle injection into mesoscopic superconductors| Laser-induced nanobubbles safely ablate vitreous opacities in vivo| Continuous epitaxy of single-crystal graphite films by isothermal carbon diffusion through nickel| Non-invasive activation of intratumoural gene editing for improved adoptive T-cell therapy in solid tumours| Scalable all-optical cold damping of levitated nanoparticles| Dynamic configurations of metallic atoms in the liquid state for selective propylene synthesis| Wireless electrical–molecular quantum signalling for cancer cell apoptosis| Unravelling crystal growth of nanoparticles| Intracerebral fate of organic and inorganic nanoparticles is dependent on microglial extracellular vesicle function| An ancestral molecular response to nanomaterial particulates| Antiferromagnetic half-skyrmions electrically generated and controlled at room temperature| Submolecular-scale control of phototautomerization| A cascade X-ray energy converting approach toward radio-afterglow cancer theranostics| AI–nano-driven surface-enhanced Raman spectroscopy for marketable technologies| Genome-wide forward genetic screening to identify receptors and proteins mediating nanoparticle uptake and intracellular processing| Atomically intimate assembly of dual metal–oxide interfaces for tandem conversion of syngas to ethanol| Half-wave nanolasers and intracellular plasmonic lasing particles| Autophagosomes coated in situ with nanodots act as personalized cancer vaccines| Gold-modified nanoporous silicon for photoelectrochemical regulation of intracellular condensates| Electrosynthesis of pure urea from pretreated flue gas in a proton-limited environment established in a porous solid-state electrolyte electrolyser| Regioselective magnetization in semiconducting nanorods| Tunable phase-change metasurfaces| Probing myeloid cell dynamics in ischaemic heart disease by nanotracer hot-spot imaging| Energy-resolved plasmonic chemistry in individual nanoreactors| Bipolar thermoelectric Josephson engine| Potential use of engineered nanoparticles in ocean fertilization for large-scale atmospheric carbon dioxide removal| Engineering metal oxidation using epitaxial strain| Precise electrokinetic position and three-dimensional orientation control of a nanowire bioprobe in solution| Controlled adsorption of multiple bioactive proteins enables targeted mast cell nanotherapy| Construction of topological quantum magnets from atomic spins on surfaces| How nanoparticles are counted in global regulatory nanomaterial definitions| Long-lived modulation of plasmonic absorption by ballistic thermal injection| Killing cancer cells by rupturing their lysosomes| Predicting accidental release of engineered nanomaterials to the environment| Floating solar hydrogen production| Ferumoxytol promotes haematopoietic stem cell post-injury regeneration as a reactive oxygen species scavenger| Operando X-ray characterization platform to unravel catalyst degradation under accelerated stress testing in CO2 electrolysis| Paddle-like self-stirring nanoreactors with multi-chambered mesoporous branches for enhanced dual-dynamic cascade reactions| Discovering nanoparticle corona ligands for liver macrophage capture| Local development of nanotechnology-based diagnostics| The start-ups taking nanoneedles into the clinic| The need for awareness and action in managing nanowaste| Targeted protein degradation via cellular trafficking of nanoparticles| Nanoparticle surfactants for kinetically arrested photoactive assemblies to track light-induced electron transfer| Near-unity Raman β-factor of surface-enhanced Raman scattering in a waveguide| Nanotechnology for coral reef conservation, restoration and rehabilitation| Nanoparticles subdue antibiotic-resistant bacteria’s defences while enhancing innate immunity| Nanoparticles for inducing Gaucher disease-like damage in cancer cells| Golden touch of the nanoparticles| NIR-II scattering gold superclusters for intravascular optical coherence tomography molecular imaging| Full on-device manipulation of olefin metathesis for precise manufacturing| The route towards nanoparticle shape metrology| High-endurance micro-engineered LaB6 nanowire electron source for high-resolution electron microscopy| Publisher Correction: Scalable two-step annealing method for preparing ultra-high-density single-atom catalyst libraries| Nanomaterials for carbon dioxide conversion at industrial scale| Nanotechnology versus coronavirus| Size-dependent nano–bio interactions| Catalyst design via descriptors| Nanoscale subparticle imaging of vibrational dynamics using dark-field ultrafast transmission electron microscopy| Topotaxial mutual-exchange growth of magnetic Zintl Eu3In2As4 nanowires with axion insulator classification| The race against COVID-19| An electron turnstile for frequency-to-power conversion| A magnetically programmable mesoporous nanoreactor| Degrading cancer cell mitochondria to improve T cell-mediated killing| In vivo transformations of positively charged nanoparticles alter the formation and function of RuBisCO photosynthetic protein corona| Mechanochemical carbon dioxide capture and conversion| Atomic manipulation of the emergent quasi-2D superconductivity and pair density wave in a kagome metal| Electrically reconfigurable heteronuclear dual-atom catalysts| Ångström-resolution imaging of cell-surface glycans| New guidance brings clarity to environmental hazard and behaviour testing of nanomaterials| Photon avalanche goes multicolour| Actively tunable laser action in GeSn nanomechanical oscillators| Bolometric detection of Josephson radiation| Self-cleaning electrode for stable synthesis of alkaline-earth metal peroxides| Formic acid oxidation boosted by Rh single atoms| Memristors with alloyed electrodes| Microrobots mop-up nanoplastics| Primary role of photothermal heating in light-driven reduction of nitroarenes| All-plasmonic water splitting| Bridging international approaches on nanoEHS| A floatable photocatalytic nanocomposite to facilitate scale-up of solar hydrogen production| Direct catalytic plastics waste upcycling| Plasmonic structural colour paint gets commercial attention| Nanoscale engineering for sustainable catalysis| All the lonely atoms, where do they all belong?| Merging metasurfaces with microfluidics| Author Correction: Genome-wide forward genetic screening to identify receptors and proteins mediating nanoparticle uptake and intracellular processing| A photo-controlled charge regulator improves cancer theranostics| Author Correction: Antigen-capturing nanoparticles improve the abscopal effect and cancer immunotherapy| A deep tissue optical sensing| Nanoplasmonic acceleration of nucleic acid amplification for pathogen detection| Publisher Correction: Ceria-vesicle nanohybrid therapeutic for modulation of innate and adaptive immunity in a collagen-induced arthritis model| A bump worthy of a Nobel Prize| Chemical mechanisms, one molecule at a time| Nano for agriculture, not the opposite| Physically unclonable functions fight forgery| Publisher Correction: Stand-off trapping and manipulation of sub-10 nm objects and biomolecules using opto-thermo-electrohydrodynamic tweezers| Electrochemical CO2 reduction passes the acid test| Substance in nanomaterials regulation| Strolling on a cell membrane| The sum of symmetries is lower than its parts| Light routing by nanoscale nonlinear interferometry with attosecond control| Intracerebral fate of engineered nanoparticles| Electrochemical cell in the brain| Fabrication of mechanochromic gallium nanostructures by capillary interactions| Author Correction: Ballistic Majorana nanowire devices| Inelastic electron tunnelling induces anomalous light emission| Nanoparticle levitation on-chip| A molecular spin on a scanning probe tip enables quantum sensing at the atomic scale| Renewable hydrogen is having a moment| Single-electron turnstile stirring quantized heat flow| Buckled scalable intracellular bioprobes| Publisher Correction: A transistor-like pH-sensitive nanodetergent for selective cancer therapy| Publisher Correction: Atomic-scale friction between single-asperity contacts unveiled through in situ transmission electron microscopy| Zeolite facilitates selective olefins production| Combating fogging with selective sunlight nano-absorbers| CO2/CO co-feeds and tandem catalysts for C–C coupling| Author Correction: Combating fogging with selective sunlight nano-absorbers| Reply to: Primary role of photothermal heating in light-driven reduction of nitroarenes| Publisher Correction: Time-domain observation of ballistic orbital-angular-momentum currents with giant relaxation length in tungsten| Dynamicity of atoms in a liquid metal catalyst enables selective propylene synthesis| Publisher Correction: Metallofullerenes: Welcome to the single-molecule electret device| Author Correction: Cross-species transcriptomic signatures identify mechanisms related to species sensitivity and common responses to nanomaterials| Using engineered nanoparticles to increase carbon dioxide storage in the ocean| Nano for kids| Controlled transformation of skyrmions and antiskyrmions in a non-centrosymmetric magnet| Time-domain observation of ballistic orbital-angular-momentum currents with giant relaxation length in tungsten| Antiferromagnetic spin-torque diode effect in a kagome Weyl semimetal</v>
       </c>
-      <c r="D20" t="str">
-        <v>東大</v>
-      </c>
-      <c r="E20" t="str">
-        <v>東北大</v>
-      </c>
-      <c r="F20">
+      <c r="D20" s="1" t="str">
+        <v>東大</v>
+      </c>
+      <c r="E20" s="1" t="str">
+        <v>東北大</v>
+      </c>
+      <c r="F20" s="1" t="str">
+        <v>2021/01/22| 2024/10/06| 2021/10/09| 2023/05/17| 2021/02/18| 2020/01/11| 2022/06/21| 2020/03/25| 2021/09/16| 2021/10/04| 2021/07/04| 2022/06/14| 2022/09/02| 2023/07/17| 2025/11/16| 2021/08/06| 2021/11/13| 2024/12/30| 2022/04/23| 2025/08/17| 2020/12/25| 2021/06/01| 2022/09/22| 2020/02/08| 2022/02/08| 2024/10/24| 2023/03/05| 2024/06/02| 2024/01/07| 2023/10/06| 2025/08/03| 2022/02/14| 2025/04/27| 2021/11/05| 2023/10/16| 2024/04/21| 2025/12/26| 2020/07/26| 2025/05/27| 2021/09/02| 2022/10/01| 2020/05/07| 2023/09/18| 2023/02/19| 2024/07/19| 2023/04/30| 2023/04/19| 2024/02/02| 2023/04/28| 2021/03/19| 2021/12/05| 2022/03/24| 2024/03/17| 2025/05/16| 2025/12/08| 2023/08/12| 2022/03/29| 2025/12/11| 2021/06/28| 2024/11/09| 2023/09/12| 2025/08/31| 2023/03/10| 2022/01/17| 2021/09/17| 2020/05/12| 2025/08/25| 2025/04/12| 2021/05/04| 2024/12/15| 2023/01/11| 2025/09/17| 2020/07/29| 2020/06/05| 2024/07/01| 2022/12/11| 2023/03/12| 2021/08/27| 2020/09/05| 2020/02/15| 2020/07/11| 2022/01/31| 2023/11/08| 2023/04/22| 2022/01/18| 2020/09/01| 2025/04/19| 2021/02/26| 2020/02/02| 2021/11/14| 2021/03/21| 2022/11/09| 2023/10/09| 2021/12/13| 2025/07/28| 2024/03/24| 2024/10/15| 2022/05/01| 2022/09/07| 2024/02/11| 2023/01/30| 2025/02/18| 2020/02/04| 2021/09/18| 2025/12/27| 2021/09/09| 2024/01/30| 2024/06/13| 2022/09/06| 2024/09/03| 2020/04/02| 2022/05/04| 2021/01/08| 2021/01/01| 2025/09/09| 2022/02/25| 2022/03/03| 2023/07/16| 2025/09/13| 2020/04/30| 2024/06/27| 2023/05/10| 2023/11/17| 2025/02/01| 2023/01/28| 2025/02/26| 2022/10/17| 2020/09/04| 2020/07/31| 2021/09/05| 2023/03/16| 2020/04/27| 2024/04/09| 2023/10/19| 2025/07/31| 2023/10/24| 2020/09/27| 2020/01/14| 2022/05/27| 2022/07/28| 2024/05/01| 2025/07/21| 2024/05/05| 2021/06/22| 2025/02/03| 2021/08/04| 2021/11/28| 2022/10/29| 2025/07/30| 2024/02/09| 2024/07/16| 2021/08/01| 2025/05/08| 2023/06/15| 2025/10/23| 2023/01/29| 2024/11/30| 2024/01/03| 2024/09/29| 2025/11/22| 2021/10/26| 2021/01/19| 2023/05/26| 2023/08/28| 2020/01/05| 2020/09/24| 2021/04/25| 2020/10/25| 2022/03/17| 2020/12/05| 2024/05/15| 2020/03/22| 2021/12/11| 2020/06/28| 2024/02/10| 2022/03/22| 2024/05/03| 2022/11/29| 2024/07/14| 2023/06/20| 2022/04/20| 2020/04/09| 2024/09/15| 2021/05/23| 2025/02/08| 2023/10/30| 2022/12/05| 2023/10/18| 2021/07/20| 2022/07/15| 2021/04/18| 2024/02/29| 2020/11/20| 2022/04/21| 2024/08/11| 2023/08/15| 2020/01/04| 2021/11/09| 2023/08/17| 2023/04/06| 2024/07/02| 2023/03/15| 2020/06/02| 2023/08/27| 2023/06/06| 2023/11/18| 2023/05/16| 2021/02/17| 2021/10/01| 2022/01/06| 2025/08/02| 2022/02/12| 2023/06/08| 2023/07/26| 2021/05/06| 2025/12/22| 2024/04/01| 2024/07/29| 2020/05/22| 2020/05/27| 2020/07/18| 2020/10/13| 2022/01/04| 2022/10/06| 2023/05/19| 2023/10/05| 2023/08/14| 2023/12/28| 2024/08/06| 2022/04/29| 2020/06/03</v>
+      </c>
+      <c r="G20" s="1" t="str">
         <v>239</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="str">
+      <c r="A21" s="1" t="str">
         <v>5 化学反応性・触媒活性・電気化学特性</v>
       </c>
-      <c r="B21" t="str">
+      <c r="B21" s="1" t="str">
         <v>https://doi.org/10.1038/s41565-022-01121-4| https://doi.org/10.1038/s41565-020-0652-2| https://doi.org/10.1038/s41565-020-0665-x| https://doi.org/10.1038/s41565-021-00974-5| https://doi.org/10.1038/s41565-021-01022-y| https://doi.org/10.1038/s41565-020-00823-x| https://doi.org/10.1038/s41565-021-00986-1| https://doi.org/10.1038/s41565-020-00799-8| https://doi.org/10.1038/s41565-023-01341-2| https://doi.org/10.1038/s41565-020-0746-x| https://doi.org/10.1038/s41565-021-00951-y| https://doi.org/10.1038/s41565-020-00809-9| https://doi.org/10.1038/s41565-019-0603-y| https://doi.org/10.1038/s41565-023-01407-1| https://doi.org/10.1038/s41565-021-00910-7| https://doi.org/10.1038/s41565-022-01286-y| https://doi.org/10.1038/s41565-022-01075-7| https://doi.org/10.1038/s41565-023-01543-8| https://doi.org/10.1038/s41565-022-01087-3| https://doi.org/10.1038/s41565-021-00975-4| https://doi.org/10.1038/s41565-023-01534-9| https://doi.org/10.1038/s41565-022-01154-9| https://doi.org/10.1038/s41565-023-01344-z| https://doi.org/10.1038/s41565-024-01614-4| https://doi.org/10.1038/s41565-023-01429-9| https://doi.org/10.1038/s41565-022-01289-9| https://doi.org/10.1038/s41565-022-01277-z| https://doi.org/10.1038/s41565-022-01105-4| https://doi.org/10.1038/s41565-024-01807-x| https://doi.org/10.1038/s41565-024-01716-z| https://doi.org/10.1038/s41565-025-01866-8| https://doi.org/10.1038/s41565-025-01892-6| https://doi.org/10.1038/s41565-025-01881-9| https://doi.org/10.1038/s41565-021-01020-0| https://doi.org/10.1038/s41565-019-0620-x| https://doi.org/10.1038/s41565-020-0734-1| https://doi.org/10.1038/s41565-021-00959-4| https://doi.org/10.1038/s41565-021-01021-z| https://doi.org/10.1038/s41565-022-01276-0| https://doi.org/10.1038/s41565-023-01540-x| https://doi.org/10.1038/s41565-024-01622-4| https://doi.org/10.1038/s41565-024-01824-w| https://doi.org/10.1038/s41565-021-00973-6| https://doi.org/10.1038/s41565-025-01915-2| https://doi.org/10.1038/s41565-025-01934-z| https://doi.org/10.1038/s41565-024-01814-y| https://doi.org/10.1038/s41565-022-01090-8| https://doi.org/10.1038/s41565-022-01147-8| https://doi.org/10.1038/s41565-022-01120-5| https://doi.org/10.1038/s41565-021-00893-5| https://doi.org/10.1038/s41565-025-01897-1| https://doi.org/10.1038/s41565-025-01910-7| https://doi.org/10.1038/s41565-025-01949-6| https://doi.org/10.1038/s41565-025-01948-7| https://doi.org/10.1038/s41565-020-0659-8| https://doi.org/10.1038/s41565-023-01352-z| https://doi.org/10.1038/s41565-021-00991-4| https://doi.org/10.1038/s41565-020-0718-1| https://doi.org/10.1038/s41565-023-01473-5| https://doi.org/10.1038/s41565-021-00862-y| https://doi.org/10.1038/s41565-024-01739-6| https://doi.org/10.1038/s41565-021-00948-7| https://doi.org/10.1038/s41565-023-01571-4| https://doi.org/10.1038/s41565-024-01623-3| https://doi.org/10.1038/s41565-020-0664-y| https://doi.org/10.1038/s41565-022-01164-7| https://doi.org/10.1038/s41565-022-01303-0| https://doi.org/10.1038/s41565-023-01353-y| https://doi.org/10.1038/s41565-023-01552-7| https://doi.org/10.1038/s41565-022-01119-y</v>
       </c>
-      <c r="C21" t="str">
+      <c r="C21" s="1" t="str">
         <v>Efficient conversion of low-concentration nitrate sources into ammonia on a Ru-dispersed Cu nanowire electrocatalyst| Chemical reactivity under nanoconfinement| Single-atom Rh/N-doped carbon electrocatalyst for formic acid oxidation| Copper-catalysed exclusive CO2 to pure formic acid conversion via single-atom alloying| Scalable two-step annealing method for preparing ultra-high-density single-atom catalyst libraries| An industrial perspective on catalysts for low-temperature CO2 electrolysis| Torsion strained iridium oxide for efficient acidic water oxidation in proton exchange membrane electrolyzers| Nanoscale engineering of catalytic materials for sustainable technologies| A dielectric electrolyte composite with high lithium-ion conductivity for high-voltage solid-state lithium metal batteries| Facet engineering accelerates spillover hydrogenation on highly diluted metal nanocatalysts| Synergizing metal–support interactions and spatial confinement boosts dynamics of atomic nickel for hydrogenations| Mechanochemistry for ammonia synthesis under mild conditions| Synergistic enhancement of electrocatalytic CO2 reduction to C2 oxygenates at nitrogen-doped nanodiamonds/Cu interface| Ferromagnetic single-atom spin catalyst for boosting water splitting| Bioorthogonal catalytic patch| Coverage-driven selectivity switch from ethylene to acetate in high-rate CO2/CO electrolysis| Abrading bulk metal into single atoms| Efficient multicarbon formation in acidic CO2 reduction via tandem electrocatalysis| Fast and selective reduction of nitroarenes under visible light with an earth-abundant plasmonic photocatalyst| Chemical engines: driving systems away from equilibrium through catalyst reaction cycles| Microplastic fragmentation by rotifers in aquatic ecosystems contributes to global nanoplastic pollution| Fischer–Tropsch synthesis to olefins boosted by MFI zeolite nanosheets| Designing single-site alloy catalysts using a degree-of-isolation descriptor| Developing high-power Li||S batteries via transition metal/carbon nanocomposite electrocatalyst engineering| Efficient solvent- and hydrogen-free upcycling of high-density polyethylene into separable cyclic hydrocarbons| Packing-induced selectivity switching in molecular nanoparticle photocatalysts for hydrogen and hydrogen peroxide production| Efficient electrocatalytic valorization of chlorinated organic water pollutant to ethylene| Performance descriptors of nanostructured metal catalysts for acetylene hydrochlorination| Out-of-plane coordination of iridium single atoms with organic molecules and cobalt–iron hydroxides to boost oxygen evolution reaction| Integrative catalytic pairs for efficient multi-intermediate catalysis| Molecular-scale CO spillover on a dual-site electrocatalyst enhances methanol production from CO2 reduction| Zeolite-confined Cu single-atom clusters stably catalyse CO to acetate at 1 A cm−2 beyond 1,000 h| Nanoscale high-entropy surface engineering promotes selective glycerol electro-oxidation to glycerate at high current density| Two-dimensional quantum-sheet films with sub-1.2 nm channels for ultrahigh-rate electrochemical capacitance| Single-molecule tautomerization tracking through space- and time-resolved fluorescence spectroscopy| Enhanced catalytic activity under non-equilibrium conditions| Unveiling the full reaction path of the Suzuki–Miyaura cross-coupling in a single-molecule junction| A light-fuelled nanoratchet shifts a coupled chemical equilibrium| Breakdown of the Nernst–Einstein relation in carbon nanotube porins| Dynamic configurations of metallic atoms in the liquid state for selective propylene synthesis| Submolecular-scale control of phototautomerization| Atomically intimate assembly of dual metal–oxide interfaces for tandem conversion of syngas to ethanol| Energy-resolved plasmonic chemistry in individual nanoreactors| Paddle-like self-stirring nanoreactors with multi-chambered mesoporous branches for enhanced dual-dynamic cascade reactions| Electric bias-induced reversible configuration of single and heteronuclear dual-atom catalysts on 1Tʹ-MoS2| Full on-device manipulation of olefin metathesis for precise manufacturing| Publisher Correction: Scalable two-step annealing method for preparing ultra-high-density single-atom catalyst libraries| Nanomaterials for carbon dioxide conversion at industrial scale| Catalyst design via descriptors| Designing cryo-enzymatic reactions in subzero liquid water by lipidic mesophase nanoconfinement| Asymmetric photooxidation of glycerol to hydroxypyruvic acid over Rb–Ir catalytic pairs on poly(heptazine imides)| A magnetically programmable mesoporous nanoreactor| Mechanochemical carbon dioxide capture and conversion| Electrically reconfigurable heteronuclear dual-atom catalysts| Formic acid oxidation boosted by Rh single atoms| Primary role of photothermal heating in light-driven reduction of nitroarenes| All-plasmonic water splitting| Author Correction: Scalable synthesis of hierarchically structured carbon nanotube–graphene fibres for capacitive energy storage| Direct catalytic plastics waste upcycling| Nanoscale engineering for sustainable catalysis| Engineering modular enzymes using DNA origami| Chemical mechanisms, one molecule at a time| Electrochemical CO2 reduction passes the acid test| Photo-induced chemistry with sub-molecular resolution| Chemistry under nanoconfinement| Zeolite facilitates selective olefins production| CO2/CO co-feeds and tandem catalysts for C–C coupling| Reply to: Primary role of photothermal heating in light-driven reduction of nitroarenes| Dynamicity of atoms in a liquid metal catalyst enables selective propylene synthesis| Author Correction: A light-fuelled nanoratchet shifts a coupled chemical equilibrium</v>
       </c>
-      <c r="D21" t="str">
-        <v/>
-      </c>
-      <c r="E21" t="str">
-        <v/>
-      </c>
-      <c r="F21">
+      <c r="D21" s="1" t="str">
+        <v/>
+      </c>
+      <c r="E21" s="1" t="str">
+        <v/>
+      </c>
+      <c r="F21" s="1" t="str">
+        <v>2021/01/22| 2025/07/23| 2020/01/11| 2022/06/21| 2020/03/25| 2021/09/16| 2020/10/14| 2021/10/04| 2023/08/22| 2022/09/02| 2023/07/17| 2021/08/06| 2025/08/17| 2022/09/22| 2024/10/24| 2023/10/06| 2023/10/16| 2020/07/26| 2025/05/27| 2023/04/30| 2025/04/19| 2024/02/02| 2021/03/19| 2021/12/05| 2022/03/24| 2025/12/08| 2025/12/11| 2023/03/10| 2020/06/05| 2020/02/15| 2020/09/01| 2021/02/26| 2020/02/02| 2022/06/04| 2024/08/27| 2021/06/01| 2021/09/09| 2024/06/29| 2021/01/01| 2020/04/30| 2025/02/01| 2020/04/27| 2021/08/04| 2024/07/19| 2020/07/29| 2025/11/22| 2021/10/26| 2023/08/28| 2023/08/23| 2024/04/25| 2022/03/17| 2024/05/15| 2021/12/11| 2023/06/20| 2024/09/15| 2021/05/23| 2022/03/10| 2022/12/05| 2021/07/20| 2020/12/13| 2021/11/09| 2023/03/15| 2021/01/29| 2023/12/31| 2020/05/22| 2020/07/18| 2022/01/04| 2023/05/19| 2025/02/23</v>
+      </c>
+      <c r="G21" s="1" t="str">
         <v>70</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="str">
+      <c r="A22" s="1" t="str">
         <v>2 ペロブスカイト・量子ドット・ナノ結晶材料</v>
       </c>
-      <c r="B22" t="str">
+      <c r="B22" s="1" t="str">
         <v>https://doi.org/10.1038/s41565-020-0714-5| https://doi.org/10.1038/s41565-020-00831-x| https://doi.org/10.1038/s41565-020-00811-1| https://doi.org/10.1038/s41565-020-0683-8| https://doi.org/10.1038/s41565-023-01379-2| https://doi.org/10.1038/s41565-022-01228-8| https://doi.org/10.1038/s41565-022-01108-1| https://doi.org/10.1038/s41565-022-01113-4| https://doi.org/10.1038/s41565-021-00965-6| https://doi.org/10.1038/s41565-020-00802-2| https://doi.org/10.1038/s41565-023-01422-2| https://doi.org/10.1038/s41565-022-01163-8| https://doi.org/10.1038/s41565-021-01019-7| https://doi.org/10.1038/s41565-022-01182-5| https://doi.org/10.1038/s41565-021-00848-w| https://doi.org/10.1038/s41565-023-01446-8| https://doi.org/10.1038/s41565-023-01441-z| https://doi.org/10.1038/s41565-022-01131-2| https://doi.org/10.1038/s41565-023-01482-4| https://doi.org/10.1038/s41565-022-01160-x| https://doi.org/10.1038/s41565-024-01652-y| https://doi.org/10.1038/s41565-023-01432-0| https://doi.org/10.1038/s41565-023-01588-9| https://doi.org/10.1038/s41565-022-01282-2| https://doi.org/10.1038/s41565-024-01665-7| https://doi.org/10.1038/s41565-024-01790-3| https://doi.org/10.1038/s41565-023-01581-2| https://doi.org/10.1038/s41565-024-01672-8| https://doi.org/10.1038/s41565-024-01606-4| https://doi.org/10.1038/s41565-024-01852-6| https://doi.org/10.1038/s41565-025-01905-4| https://doi.org/10.1038/s41565-025-01899-z| https://doi.org/10.1038/s41565-020-00827-7| https://doi.org/10.1038/s41565-021-01033-9| https://doi.org/10.1038/s41565-021-01010-2| https://doi.org/10.1038/s41565-021-00977-2| https://doi.org/10.1038/s41565-022-01196-z| https://doi.org/10.1038/s41565-022-01092-6| https://doi.org/10.1038/s41565-022-01279-x| https://doi.org/10.1038/s41565-022-01306-x| https://doi.org/10.1038/s41565-023-01528-7| https://doi.org/10.1038/s41565-023-01521-0| https://doi.org/10.1038/s41565-024-01607-3| https://doi.org/10.1038/s41565-024-01812-0| https://doi.org/10.1038/s41565-024-01841-9| https://doi.org/10.1038/s41565-025-01854-y| https://doi.org/10.1038/s41565-024-01853-5| https://doi.org/10.1038/s41565-025-01900-9| https://doi.org/10.1038/s41565-025-01917-0| https://doi.org/10.1038/s41565-020-0758-6| https://doi.org/10.1038/s41565-021-00846-y| https://doi.org/10.1038/s41565-021-00871-x| https://doi.org/10.1038/s41565-020-0769-3| https://doi.org/10.1038/s41565-021-01005-z| https://doi.org/10.1038/s41565-024-01601-9| https://doi.org/10.1038/s41565-021-00851-1| https://doi.org/10.1038/s41565-020-00814-y| https://doi.org/10.1038/s41565-021-01016-w| https://doi.org/10.1038/s41565-025-01920-5| https://doi.org/10.1038/s41565-025-01964-7| https://doi.org/10.1038/s41565-022-01243-9| https://doi.org/10.1038/s41565-022-01187-0| https://doi.org/10.1038/s41565-024-01831-x| https://doi.org/10.1038/s41565-022-01123-2| https://doi.org/10.1038/s41565-023-01442-y| https://doi.org/10.1038/s41565-024-01709-y| https://doi.org/10.1038/s41565-019-0631-7| https://doi.org/10.1038/s41565-025-01855-x| https://doi.org/10.1038/s41565-025-01946-9| https://doi.org/10.1038/s41565-025-01967-4| https://doi.org/10.1038/s41565-025-01959-4| https://doi.org/10.1038/s41565-025-01943-y| https://doi.org/10.1038/s41565-025-01973-6| https://doi.org/10.1038/s41565-020-0697-2| https://doi.org/10.1038/s41565-024-01828-6| https://doi.org/10.1038/s41565-022-01229-7| https://doi.org/10.1038/s41565-024-01688-0| https://doi.org/10.1038/s41565-022-01313-y| https://doi.org/10.1038/s41565-023-01493-1| https://doi.org/10.1038/s41565-023-01586-x| https://doi.org/10.1038/s41565-022-01190-5| https://doi.org/10.1038/s41565-023-01537-6| https://doi.org/10.1038/s41565-024-01686-2| https://doi.org/10.1038/s41565-024-01684-4| https://doi.org/10.1038/s41565-024-01832-w| https://doi.org/10.1038/s41565-024-01837-5| https://doi.org/10.1038/s41565-021-01058-0| https://doi.org/10.1038/s41565-020-0691-8| https://doi.org/10.1038/s41565-021-01046-4| https://doi.org/10.1038/s41565-021-01029-5| https://doi.org/10.1038/s41565-023-01428-w| https://doi.org/10.1038/s41565-022-01117-0| https://doi.org/10.1038/s41565-022-01201-5| https://doi.org/10.1038/s41565-022-01251-9| https://doi.org/10.1038/s41565-021-00930-3</v>
       </c>
-      <c r="C22" t="str">
+      <c r="C22" s="1" t="str">
         <v>Bipolar-shell resurfacing for blue LEDs based on strongly confined perovskite quantum dots| A bright and fast source of coherent single photons| Semiconductor physics of organic–inorganic 2D halide perovskites| Efficient, fast and reabsorption-free perovskite nanocrystal-based sensitized plastic scintillators| Optoelectronic graded neurons for bioinspired in-sensor motion perception| Nano-optical designs for high-efficiency monolithic perovskite–silicon tandem solar cells| Single-crystalline TiO2 nanoparticles for stable and efficient perovskite modules| Exploiting the full advantages of colloidal perovskite nanocrystals for large-area efficient light-emitting diodes| Quantum-dot-based deterministic photon–emitter interfaces for scalable photonic quantum technology| Deterministic fabrication of arbitrary vertical heterostructures of two-dimensional Ruddlesden–Popper halide perovskites| Fluorescence-amplified nanocrystals in the second near-infrared window for in vivo real-time dynamic multiplexed imaging| Industry outlook of perovskite quantum dots for display applications| Nanoscale chemical heterogeneity dominates the optoelectronic response of alloyed perovskite solar cells| Direct patterning of colloidal quantum dots with adaptable dual-ligand surface| Layer-by-layer anionic diffusion in two-dimensional halide perovskite vertical heterostructures| Reconfigurable, non-volatile neuromorphic photovoltaics| Minimizing heat generation in quantum dot light-emitting diodes by increasing quasi-Fermi-level splitting| Quantum interference of identical photons from remote GaAs quantum dots| Light management for perovskite light-emitting diodes| Stretchable colour-sensitive quantum dot nanocomposites for shape-tunable multiplexed phototransistor arrays| Nanosurface-reconstructed perovskite for highly efficient and stable active-matrix light-emitting diode display| Highly stable and pure single-photon emission with 250 ps optical coherence times in InP colloidal quantum dots| Spin coating epitaxial heterodimensional tin perovskites for light-emitting diodes| Ideal refocusing of an optically active spin qubit under strong hyperfine interactions| Multidimensional vision sensors for information processing| Linearly programmable two-dimensional halide perovskite memristor arrays for neuromorphic computing| Valley-centre tandem perovskite light-emitting diodes| Single-molecule fluorescence multiplexing by multi-parameter spectroscopic detection of nanostructured FRET labels| Engineering colloidal semiconductor nanocrystals for quantum information processing| Multivalent-effect immobilization of reduced-dimensional perovskites for efficient and spectrally stable deep-blue light-emitting diodes| Homogeneous 2D/3D heterostructured tin halide perovskite photovoltaics| Piracetam shapes wide-bandgap perovskite crystals for scalable perovskite tandems| Bright solid-state sources for single photons with orbital angular momentum| Quantum-dot single-photon sources for the quantum internet| Light-activated interlayer contraction in two-dimensional perovskites for high-efficiency solar cells| Tuning of the Berry curvature in 2D perovskite polaritons| A single hole spin with enhanced coherence in natural silicon| Tailoring solid-state single-photon sources with stimulated emissions| Room-temperature coherent optical manipulation of hole spins in solution-grown perovskite quantum dots| Photocarrier-induced persistent structural polarization in soft-lattice lead halide perovskites| Telecom-band quantum dot technologies for long-distance quantum networks| Optical gain and lasing from bulk cadmium sulfide nanocrystals through bandgap renormalization| My cell is better than yours| Blue lasers using low-toxicity colloidal quantum dots| Remote epitaxial crystalline perovskites for ultrahigh-resolution micro-LED displays| Nanoscopic cross-grain cation homogenization in perovskite solar cells| Grover’s algorithm in a four-qubit silicon processor above the fault-tolerant threshold| On-demand formation of Lewis bases for efficient and stable perovskite solar cells| Dynamic nanodomains dictate macroscopic properties in lead halide perovskites| Photonic Rashba effect from quantum emitters mediated by a Berry-phase defective photonic crystal| Distant spin entanglement via fast and coherent electron shuttling| Highly versatile near-infrared emitters based on an atomically defined HgS interlayer embedded into a CdSe/CdS quantum dot| Nuclear spin quantum register in an optically active semiconductor quantum dot| To nano or not to nano for bright halide perovskite emitters| Coherent electronic coupling in quantum dot solids induces cooperative enhancement of nonlinear optoelectronic responses| The race for the ideal single-photon source is on| Inducing micromechanical motion by optical excitation of a single quantum dot| All-optical fluorescence blinking control in quantum dots with ultrafast mid-infrared pulses| High-fidelity single-spin shuttling in silicon| Observation of chiral emission enabled by collective guided resonances| A room-temperature polarization-sensitive CMOS terahertz camera based on quantum-dot-enhanced terahertz-to-visible photon upconversion| Quantum dot patterning by direct photolithography| Ultrahigh-gain colloidal quantum dot infrared avalanche photodetectors| Colloidal nanocrystals for large-area LEDs| Coherent control of a high-orbital hole in a semiconductor quantum dot| Competing light extraction strategies in perovskite light-emitting diodes| Surface spin magnetism controls the polarized exciton emission from CdSe nanoplatelets| Multivalent effect enables efficient and stable deep-blue perovskite LEDs| Scalable perovskite tandems enabled by dual-stage molecular regulation| Nanoscience-enabled pathways to next-generation perovskite photovoltaics| Colloidal chemistry in tin perovskite| Iron–silver-modified quantum dots act as efficient catalysts in anti-cancer multitherapy through controlled, ultrasound-induced oxidation| Event-driven retinomorphic photodiode with bio-plausible temporal dynamics| Radiative Auger process in the single-photon limit| Quantum dots are beginning to lase in the blue| Nanotexturing enables perovskite/silicon tandem solar cells with 29.8% efficiency| Perovskites light a path forward| Author Correction: Direct patterning of colloidal quantum dots with adaptable dual-ligand surface| Bulk semiconductor nanocrystals transform solution-processed gain media| Quantum dot dot dot| Quantum dot nanocomposites for flexible retina| Tin instead of lead for stable lasers| New dimensions for fluorescence-based barcoding in complex mixtures| Versatile perovskites enable room-temperature topological polaritonics| Avalanche multiplication for quantum dot photodetectors with ultrahigh detectivity| Solar cells for stored energy| Quantum nanoscience| Auger processes in a single quantum dot| Author Correction: Tuning of the Berry curvature in 2D perovskite polaritons| Mid-infrared irradiation keeps nanocrystals bright| Stable and pure single-photons from greener quantum dots| Harmonizing single photons with a laser pulse| A spin qubit hiding from the noise| Using quantum dots to produce a CMOS terahertz camera and polarimeter| Author Correction: Ultrafast hole spin qubit with gate-tunable spin–orbit switch functionality</v>
       </c>
-      <c r="D22" t="str">
-        <v/>
-      </c>
-      <c r="E22" t="str">
-        <v/>
-      </c>
-      <c r="F22">
+      <c r="D22" s="1" t="str">
+        <v/>
+      </c>
+      <c r="E22" s="1" t="str">
+        <v/>
+      </c>
+      <c r="F22" s="1" t="str">
+        <v>2021/05/19| 2020/04/06| 2025/12/24| 2025/08/16| 2020/12/23| 2022/02/09| 2025/03/08| 2025/06/16| 2025/01/24| 2025/07/21| 2025/08/10| 2023/03/05| 2024/03/01| 2022/10/10| 2021/09/01| 2020/06/01| 2020/04/22| 2021/11/11| 2020/04/07| 2021/07/16| 2020/07/27| 2023/09/06| 2022/10/29| 2025/08/08| 2020/05/07| 2023/08/03| 2024/05/03| 2024/03/13| 2025/09/16| 2022/04/26| 2024/06/26| 2023/05/15| 2023/12/26| 2022/02/25| 2020/12/29| 2020/06/21| 2022/05/14| 2024/05/09| 2022/09/09| 2024/10/15| 2022/08/31| 2023/08/17| 2021/04/10| 2025/10/07| 2021/04/29| 2023/02/17| 2025/01/30| 2024/06/03| 2025/07/17| 2020/07/08| 2020/02/18| 2022/07/25| 2021/07/20| 2025/03/01| 2023/01/26| 2021/09/25| 2024/03/12| 2025/01/11| 2021/08/20| 2023/09/23| 2022/07/06| 2020/05/21| 2024/12/31| 2021/04/28| 2025/11/23| 2024/07/13| 2020/01/20| 2025/10/23| 2020/12/12| 2025/11/25| 2021/08/19| 2025/05/12| 2024/09/06| 2020/01/03| 2024/05/29| 2021/04/19| 2020/06/09| 2022/12/26| 2022/04/17| 2022/08/16| 2020/10/31| 2024/04/27| 2022/09/25| 2020/09/30| 2021/05/02| 2020/02/10| 2024/08/14| 2025/07/09| 2024/04/11| 2020/05/02| 2022/02/01| 2021/09/08</v>
+      </c>
+      <c r="G22" s="1" t="str">
         <v>95</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="str">
+      <c r="A23" s="1" t="str">
         <v>2 デバイス作製・パターニング・マイクロ/ナノファブリケーション</v>
       </c>
-      <c r="B23" t="str">
+      <c r="B23" s="1" t="str">
         <v>https://doi.org/10.1038/s41565-020-0714-5| https://doi.org/10.1038/s41565-020-00800-4| https://doi.org/10.1038/s41565-020-0768-4| https://doi.org/10.1038/s41565-020-00831-x| https://doi.org/10.1038/s41565-021-00936-x| https://doi.org/10.1038/s41565-021-00895-3| https://doi.org/10.1038/s41565-020-00787-y| https://doi.org/10.1038/s41565-020-0765-7| https://doi.org/10.1038/s41565-021-01009-9| https://doi.org/10.1038/s41565-021-00882-8| https://doi.org/10.1038/s41565-023-01379-2| https://doi.org/10.1038/s41565-020-00826-8| https://doi.org/10.1038/s41565-020-0694-5| https://doi.org/10.1038/s41565-021-00921-4| https://doi.org/10.1038/s41565-023-01513-0| https://doi.org/10.1038/s41565-021-00904-5| https://doi.org/10.1038/s41565-021-00966-5| https://doi.org/10.1038/s41565-022-01102-7| https://doi.org/10.1038/s41565-019-0623-7| https://doi.org/10.1038/s41565-020-0754-x| https://doi.org/10.1038/s41565-020-00802-2| https://doi.org/10.1038/s41565-021-00956-7| https://doi.org/10.1038/s41565-022-01182-5| https://doi.org/10.1038/s41565-022-01220-2| https://doi.org/10.1038/s41565-022-01256-4| https://doi.org/10.1038/s41565-023-01383-6| https://doi.org/10.1038/s41565-021-01061-5| https://doi.org/10.1038/s41565-023-01491-3| https://doi.org/10.1038/s41565-023-01342-1| https://doi.org/10.1038/s41565-022-01180-7| https://doi.org/10.1038/s41565-023-01482-4| https://doi.org/10.1038/s41565-022-01160-x| https://doi.org/10.1038/s41565-023-01497-x| https://doi.org/10.1038/s41565-023-01520-1| https://doi.org/10.1038/s41565-022-01246-6| https://doi.org/10.1038/s41565-023-01360-z| https://doi.org/10.1038/s41565-024-01652-y| https://doi.org/10.1038/s41565-023-01319-0| https://doi.org/10.1038/s41565-023-01525-w| https://doi.org/10.1038/s41565-023-01587-w| https://doi.org/10.1038/s41565-023-01557-2| https://doi.org/10.1038/s41565-024-01705-2| https://doi.org/10.1038/s41565-023-01593-y| https://doi.org/10.1038/s41565-023-01567-0| https://doi.org/10.1038/s41565-023-01581-2| https://doi.org/10.1038/s41565-024-01707-0| https://doi.org/10.1038/s41565-024-01763-6| https://doi.org/10.1038/s41565-024-01696-0| https://doi.org/10.1038/s41565-024-01827-7| https://doi.org/10.1038/s41565-020-0750-1| https://doi.org/10.1038/s41565-020-0727-0| https://doi.org/10.1038/s41565-020-00827-7| https://doi.org/10.1038/s41565-019-0602-z| https://doi.org/10.1038/s41565-021-00967-4| https://doi.org/10.1038/s41565-020-00841-9| https://doi.org/10.1038/s41565-021-00941-0| https://doi.org/10.1038/s41565-022-01267-1| https://doi.org/10.1038/s41565-021-00969-2| https://doi.org/10.1038/s41565-021-01027-7| https://doi.org/10.1038/s41565-021-00861-z| https://doi.org/10.1038/s41565-020-00834-8| https://doi.org/10.1038/s41565-021-01038-4| https://doi.org/10.1038/s41565-022-01221-1| https://doi.org/10.1038/s41565-022-01213-1| https://doi.org/10.1038/s41565-023-01545-6| https://doi.org/10.1038/s41565-021-01034-8| https://doi.org/10.1038/s41565-022-01311-0| https://doi.org/10.1038/s41565-023-01320-7| https://doi.org/10.1038/s41565-023-01376-5| https://doi.org/10.1038/s41565-023-01487-z| https://doi.org/10.1038/s41565-023-01517-w| https://doi.org/10.1038/s41565-023-01380-9| https://doi.org/10.1038/s41565-024-01767-2| https://doi.org/10.1038/s41565-024-01698-y| https://doi.org/10.1038/s41565-024-01607-3| https://doi.org/10.1038/s41565-024-01756-5| https://doi.org/10.1038/s41565-024-01706-1| https://doi.org/10.1038/s41565-024-01720-3| https://doi.org/10.1038/s41565-024-01780-5| https://doi.org/10.1038/s41565-024-01819-7| https://doi.org/10.1038/s41565-025-01923-2| https://doi.org/10.1038/s41565-025-01887-3| https://doi.org/10.1038/s41565-019-0611-y| https://doi.org/10.1038/s41565-021-00892-6| https://doi.org/10.1038/s41565-021-00945-w| https://doi.org/10.1038/s41565-021-00868-6| https://doi.org/10.1038/s41565-021-00879-3| https://doi.org/10.1038/s41565-022-01222-0| https://doi.org/10.1038/s41565-022-01178-1| https://doi.org/10.1038/s41565-022-01183-4| https://doi.org/10.1038/s41565-023-01549-2| https://doi.org/10.1038/s41565-023-01439-7| https://doi.org/10.1038/s41565-021-00851-1| https://doi.org/10.1038/s41565-020-00814-y| https://doi.org/10.1038/s41565-023-01336-z| https://doi.org/10.1038/s41565-024-01677-3| https://doi.org/10.1038/s41565-024-01746-7| https://doi.org/10.1038/s41565-025-01920-5| https://doi.org/10.1038/s41565-025-01964-7| https://doi.org/10.1038/s41565-021-01007-x| https://doi.org/10.1038/s41565-021-01026-8| https://doi.org/10.1038/s41565-022-01076-6| https://doi.org/10.1038/s41565-022-01187-0| https://doi.org/10.1038/s41565-024-01831-x| https://doi.org/10.1038/s41565-022-01205-1| https://doi.org/10.1038/s41565-024-01697-z| https://doi.org/10.1038/s41565-024-01709-y| https://doi.org/10.1038/s41565-020-0720-7| https://doi.org/10.1038/s41565-023-01435-x| https://doi.org/10.1038/s41565-021-00999-w| https://doi.org/10.1038/s41565-023-01334-1| https://doi.org/10.1038/s41565-021-00896-2| https://doi.org/10.1038/s41565-024-01666-6| https://doi.org/10.1038/s41565-021-01053-5| https://doi.org/10.1038/s41565-022-01088-2| https://doi.org/10.1038/s41565-025-01896-2| https://doi.org/10.1038/s41565-025-01970-9| https://doi.org/10.1038/s41565-025-01991-4| https://doi.org/10.1038/s41565-021-01037-5| https://doi.org/10.1038/s41565-021-00989-y| https://doi.org/10.1038/s41565-022-01140-1| https://doi.org/10.1038/s41565-023-01582-1| https://doi.org/10.1038/s41565-024-01708-z| https://doi.org/10.1038/s41565-022-01229-7| https://doi.org/10.1038/s41565-024-01605-5| https://doi.org/10.1038/s41565-024-01647-9| https://doi.org/10.1038/s41565-024-01659-5| https://doi.org/10.1038/s41565-024-01782-3| https://doi.org/10.1038/s41565-024-01808-w| https://doi.org/10.1038/s41565-020-0744-z| https://doi.org/10.1038/s41565-022-01313-y| https://doi.org/10.1038/s41565-023-01389-0| https://doi.org/10.1038/s41565-023-01564-3| https://doi.org/10.1038/s41565-023-01586-x| https://doi.org/10.1038/s41565-022-01149-6| https://doi.org/10.1038/s41565-022-01194-1| https://doi.org/10.1038/s41565-022-01299-7| https://doi.org/10.1038/s41565-021-00865-9| https://doi.org/10.1038/s41565-023-01472-6| https://doi.org/10.1038/s41565-022-01109-0| https://doi.org/10.1038/s41565-022-01206-0| https://doi.org/10.1038/s41565-022-01242-w| https://doi.org/10.1038/s41565-023-01518-9| https://doi.org/10.1038/s41565-024-01603-7| https://doi.org/10.1038/s41565-024-01634-0| https://doi.org/10.1038/s41565-024-01640-2| https://doi.org/10.1038/s41565-024-01663-9| https://doi.org/10.1038/s41565-024-01684-4| https://doi.org/10.1038/s41565-024-01743-w| https://doi.org/10.1038/s41565-024-01832-w| https://doi.org/10.1038/s41565-021-00913-4| https://doi.org/10.1038/s41565-021-01028-6| https://doi.org/10.1038/s41565-022-01233-x| https://doi.org/10.1038/s41565-021-00890-8| https://doi.org/10.1038/s41565-023-01425-z| https://doi.org/10.1038/s41565-023-01474-4| https://doi.org/10.1038/s41565-023-01526-9| https://doi.org/10.1038/s41565-023-01546-5| https://doi.org/10.1038/s41565-020-0767-5| https://doi.org/10.1038/s41565-022-01295-x| https://doi.org/10.1038/s41565-021-00938-9| https://doi.org/10.1038/s41565-023-01399-y| https://doi.org/10.1038/s41565-020-0733-2</v>
       </c>
-      <c r="C23" t="str">
+      <c r="C23" s="1" t="str">
         <v>Bipolar-shell resurfacing for blue LEDs based on strongly confined perovskite quantum dots| Scalable and hierarchically designed polymer film as a selective thermal emitter for high-performance all-day radiative cooling| Complex-amplitude metasurface-based orbital angular momentum holography in momentum space| A bright and fast source of coherent single photons| Van der Waals heterostructures for spintronics and opto-spintronics| Nanophotonics for light detection and ranging technology| All-solid-state spatial light modulator with independent phase and amplitude control for three-dimensional LiDAR applications| 2D metal–organic framework for stable perovskite solar cells with minimized lead leakage| Supercurrent rectification and magnetochiral effects in symmetric Josephson junctions| Electrical tuning of phase-change antennas and metasurfaces| Optoelectronic graded neurons for bioinspired in-sensor motion perception| Symmetry-dependent field-free switching of perpendicular magnetization| Alloying conducting channels for reliable neuromorphic computing| Ultrafast non-volatile flash memory based on van der Waals heterostructures| A wearable aptamer nanobiosensor for non-invasive female hormone monitoring| Atomically sharp interface enabled ultrahigh-speed non-volatile memory devices| Three-dimensional monolithic micro-LED display driven by atomically thin transistor matrix| Wafer-scale monolithic integration of full-colour micro-LED display using MoS2 transistor| Thickness-controlled black phosphorus tunnel field-effect transistor for low-power switches| High quality factor phase gradient metasurfaces| Deterministic fabrication of arbitrary vertical heterostructures of two-dimensional Ruddlesden–Popper halide perovskites| Magic-angle lasers in nanostructured moiré superlattice| Direct patterning of colloidal quantum dots with adaptable dual-ligand surface| Human-muscle-inspired single fibre actuator with reversible percolation| Versatile full-colour nanopainting enabled by a pixelated plasmonic metasurface| Hierarchically resistive skins as specific and multimetric on-throat wearable biosensors| Robotic four-dimensional pixel assembly of van der Waals solids| Shared control of a 16 semiconductor quantum dot crossbar array| Highly reproducible van der Waals integration of two-dimensional electronics on the wafer scale| A tunable bilayer Hubbard model in twisted WSe2| Light management for perovskite light-emitting diodes| Stretchable colour-sensitive quantum dot nanocomposites for shape-tunable multiplexed phototransistor arrays| Low Ohmic contact resistance and high on/off ratio in transition metal dichalcogenides field-effect transistors via residue-free transfer| Correlated insulator and Chern insulators in pentalayer rhombohedral-stacked graphene| Tough-interface-enabled stretchable electronics using non-stretchable polymer semiconductors and conductors| Leaky-wave metasurfaces for integrated photonics| Nanosurface-reconstructed perovskite for highly efficient and stable active-matrix light-emitting diode display| Coloured vortex beams with incoherent white light illumination| Adapted poling to break the nonlinear efficiency limit in nanophotonic lithium niobate waveguides| Liquid-metal-based three-dimensional microelectrode arrays integrated with implantable ultrathin retinal prosthesis for vision restoration| Multichannel meta-imagers for accelerating machine vision| Monolithic three-dimensional integration of complementary two-dimensional field-effect transistors| Multidimensional detection enabled by twisted black arsenic–phosphorus homojunctions| 3D nanofabricated soft microrobots with super-compliant picoforce springs as onboard sensors and actuators| Valley-centre tandem perovskite light-emitting diodes| Photovoltaic nanocells for high-performance large-scale-integrated organic phototransistors| Local control of polarization and geometric phase in thermal metasurfaces| Regioselective epitaxial growth of metallic heterostructures| Ferrimagnetic Heusler tunnel junctions with fast spin-transfer torque switching enabled by low magnetization| Giant Stark splitting of an exciton in bilayer MoS2| Room-temperature valleytronic transistor| Bright solid-state sources for single photons with orbital angular momentum| Waveguide-integrated van der Waals heterostructure photodetector at telecom wavelengths with high speed and high responsivity| Non-local metasurfaces for spectrally decoupled wavefront manipulation and eye tracking| Fano-resonant ultrathin film optical coatings| Microscopic metavehicles powered and steered by embedded optical metasurfaces| Transparent sunlight-activated antifogging metamaterials| Moiré trions in MoSe2/WSe2 heterobilayers| Complex free-space magnetic field textures induced by three-dimensional magnetic nanostructures| Aharonov–Bohm effect in graphene-based Fabry–Pérot quantum Hall interferometers| High-energy quasiparticle injection into mesoscopic superconductors| Fully integrated parity–time-symmetric electronics| A general one-step plug-and-probe approach to top-gated transistors for rapidly probing delicate electronic materials| Three-dimensional racetrack memory devices designed from freestanding magnetic heterostructures| 3D spatiotemporally scalable in vivo neural probes based on fluorinated elastomers| Soft-lock drawing of super-aligned carbon nanotube bundles for nanometre electrical contacts| Three-dimensional topological magnetic monopoles and their interactions in a ferromagnetic meta-lattice| Far-field coupling between moiré photonic lattices| Switchable moiré potentials in ferroelectric WTe2/WSe2 superlattices| Site-directed placement of three-dimensional DNA origami| Ultrahigh-printing-speed photoresists for additive manufacturing| Spin-dependent properties of optical modes guided by adiabatic trapping potentials in photonic Dirac metasurfaces| Continuous spectral and coupling-strength encoding with dual-gradient metasurfaces| Selective and quasi-continuous switching of ferroelectric Chern insulator devices for neuromorphic computing| My cell is better than yours| Durable and programmable ultrafast nanophotonic matrix of spectral pixels| Integrated 1D epitaxial mirror twin boundaries for ultrascaled 2D MoS2 field-effect transistors| Silk fibroin as a surfactant for water-based nanofabrication| Printing of 3D photonic crystals in titania with complete bandgap across the visible spectrum| Anomalous Hall spin current drives self-generated spin–orbit torque in a ferromagnet| Nanofabrication of silk microneedles for high-throughput micronutrient delivery and continuous sap monitoring in plants| Single-layer waveguide displays using achromatic metagratings for full-colour augmented reality| Metasurface-integrated vertical cavity surface-emitting lasers for programmable directional lasing emissions| Tunable phase-change metasurfaces| Furcated droplet motility on crystalline surfaces| Nanomechanical topological insulators with an auxiliary orbital degree of freedom| Conformable hierarchically engineered polymeric micromeshes enabling combinatorial therapies in brain tumours| A tunable monolithic SQUID in twisted bilayer graphene| Engineering nanoscale hypersonic phonon transport| Quenching the bandgap of two-dimensional semiconductors with a perpendicular electric field| All-optical free-space routing of upconverted light by metasurfaces via nonlinear interferometry| Precise electrokinetic position and three-dimensional orientation control of a nanowire bioprobe in solution| The race for the ideal single-photon source is on| Inducing micromechanical motion by optical excitation of a single quantum dot| Chiral antiferromagnetic Josephson junctions as spin-triplet supercurrent spin valves and d.c. SQUIDs| Vacuum levitation and motion control on chip| Coupled nanopores for single-molecule detection| High-fidelity single-spin shuttling in silicon| Observation of chiral emission enabled by collective guided resonances| Large-area nanoengineering of graphene corrugations for visible-frequency graphene plasmons| Non-reciprocal energy transfer through the Casimir effect| Detectivities of WS2/HfS2 heterojunctions| Quantum dot patterning by direct photolithography| Ultrahigh-gain colloidal quantum dot infrared avalanche photodetectors| Nanophotonic control of thermal emission under extreme temperatures in air| Very-large-scale integrated high quality factor nanoantenna pixels| Competing light extraction strategies in perovskite light-emitting diodes| Programming multi-protein assembly by gene-brush patterns and two-dimensional compartment geometry| Hybrid electronic–photonic sensors on a fibre tip| High-endurance micro-engineered LaB6 nanowire electron source for high-resolution electron microscopy| Superconducting single-photon detectors get hot| Gate-defined Josephson junctions in magic-angle twisted bilayer graphene| Toroidic phase transitions in a direct-kagome artificial spin ice| An electron turnstile for frequency-to-power conversion| Spin ice devices from nanomagnets| Achromatic metagratings for compact near-eye displays| Vortex lasers through collective boundary scattering| Ultrawide-bandwidth boron nitride photonic memristors| The path to scalable quantum computing with silicon spin qubits| Gas separation with porous graphene| Author Correction: Robotic four-dimensional pixel assembly of van der Waals solids| Precise control of van der Waals gaps| 1D metals for 2D electronics| Nanotexturing enables perovskite/silicon tandem solar cells with 29.8% efficiency| Author Correction: Reversible optical data storage below the diffraction limit| Author Correction: 3D nanofabricated soft microrobots with super-compliant picoforce springs as onboard sensors and actuators| Gentler, nanoscale ion implantation| 3D printed photonic crystals with a complete bandgap in the visible range| Silk protein connecting water and nanofabrication| Excitons in a twisted world| Author Correction: Direct patterning of colloidal quantum dots with adaptable dual-ligand surface| Interacting electrons collide at a beam splitter| A bump worthy of a Nobel Prize| Quantum dot dot dot| Nanostructured artificial-muscle fibres| Physically unclonable functions fight forgery| 2D materials for fast flash memory devices| Author Correction: High oscillator strength interlayer excitons in two-dimensional heterostructures for mid-infrared photodetection| ‘Rotating’ contact for bias-free photodetection with 2D materials| Publisher Correction: Soft-lock drawing of super-aligned carbon nanotube bundles for nanometre electrical contacts| The racetrack breaks free from the substrate| Scalable optical levitation| Sensitive photoresists for high-speed two­-photon lithography| High-fidelity initialization and control of multiple nuclear spin qubits in silicon| Graphene edge interference improves single-molecule transistors| Light manipulation with sub-pixel wavefront control using gap phases| Tuning light by the vibes| Versatile perovskites enable room-temperature topological polaritonics| Reimagining computing with 2D semiconductors| Avalanche multiplication for quantum dot photodetectors with ultrahigh detectivity| Building devices in magic-angle graphene| Buckled scalable intracellular bioprobes| Near-unity Raman beta factor underpins high sensitivity| Photothermal twistronics| Making versatile electron microscope tools| Two-terminal reconfigurable and non-volatile photovoltaic detectors| High optical nonlinear efficiency achieved by compensating for nanoscale inhomogeneity| Soft high-density neural probes enable stable single-neuron recordings| Enter plastic| A brilliant source of single photons| Switching with ions| Scalable CMOS back-end-of-line-compatible AlScN/two-dimensional channel ferroelectric field-effect transistors| Large non-reciprocal charge transport mediated by quantum anomalous Hall edge states</v>
       </c>
-      <c r="D23" t="str">
-        <v>東大</v>
-      </c>
-      <c r="E23" t="str">
-        <v>東北大</v>
-      </c>
-      <c r="F23">
+      <c r="D23" s="1" t="str">
+        <v>東大</v>
+      </c>
+      <c r="E23" s="1" t="str">
+        <v>東北大</v>
+      </c>
+      <c r="F23" s="1" t="str">
+        <v>2021/05/19| 2025/07/04| 2022/01/25| 2020/04/06| 2023/11/20| 2022/10/22| 2024/07/04| 2021/08/11| 2020/09/12| 2021/04/22| 2020/12/23| 2024/12/30| 2020/12/25| 2022/06/12| 2023/04/02| 2020/06/14| 2024/01/09| 2022/12/13| 2023/01/28| 2025/08/03| 2025/07/21| 2021/12/05| 2022/10/10| 2022/12/20| 2022/10/01| 2022/08/20| 2025/10/10| 2024/09/11| 2025/06/19| 2023/08/26| 2021/11/11| 2020/04/07| 2022/09/17| 2025/04/18| 2022/12/10| 2024/05/01| 2021/07/16| 2020/10/03| 2025/10/12| 2025/04/12| 2023/10/20| 2025/06/25| 2023/09/02| 2022/04/16| 2023/08/03| 2020/04/30| 2023/06/05| 2023/04/22| 2023/11/24| 2020/08/04| 2021/10/11| 2023/05/15| 2023/06/24| 2021/04/07| 2025/01/26| 2024/09/19| 2021/02/06| 2024/12/29| 2021/09/21| 2024/12/09| 2022/09/06| 2025/01/31| 2023/02/19| 2023/01/19| 2021/07/07| 2023/04/01| 2021/03/30| 2022/04/19| 2025/05/18| 2022/08/22| 2020/07/04| 2020/07/26| 2022/03/26| 2024/04/21| 2023/08/17| 2025/03/05| 2020/04/09| 2022/09/22| 2020/08/25| 2020/01/21| 2024/11/24| 2020/02/29| 2020/09/18| 2021/09/05| 2025/06/10| 2023/08/28| 2020/10/01| 2025/08/25| 2020/01/06| 2020/11/05| 2020/04/29| 2023/10/24| 2025/03/01| 2023/01/26| 2022/02/04| 2025/01/24| 2020/11/19| 2024/03/12| 2025/01/11| 2023/05/10| 2025/07/31| 2023/09/23| 2022/07/06| 2021/10/27| 2023/02/25| 2021/04/28| 2023/07/10| 2021/06/19| 2024/09/29| 2023/04/24| 2021/05/27| 2023/09/11| 2020/10/25| 2023/09/20| 2025/01/23| 2023/08/07| 2022/04/15| 2021/04/23| 2021/06/22| 2025/07/01| 2024/11/25| 2025/03/20| 2020/01/03| 2020/08/28| 2023/10/19| 2025/03/27| 2021/09/15| 2020/05/16| 2021/04/19| 2024/08/25| 2020/01/04| 2022/12/26| 2023/04/06| 2020/08/19| 2023/12/12| 2025/10/08| 2025/12/18| 2024/05/30| 2023/01/07| 2024/08/10| 2024/07/24| 2021/04/27| 2024/03/04| 2024/04/27| 2023/06/17| 2022/09/25| 2020/08/06| 2025/12/22| 2023/09/28| 2023/05/26| 2025/06/18| 2024/02/06| 2022/04/22| 2023/09/08| 2020/02/26| 2024/03/07| 2023/12/24| 2021/01/05</v>
+      </c>
+      <c r="G23" s="1" t="str">
         <v>163</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="str">
+      <c r="A24" s="1" t="str">
         <v>6 発光・フォトニクス・スペクトル・非線形光学特性</v>
       </c>
-      <c r="B24" t="str">
+      <c r="B24" s="1" t="str">
         <v>https://doi.org/10.1038/s41565-020-0714-5| https://doi.org/10.1038/s41565-020-0683-8| https://doi.org/10.1038/s41565-020-0754-x| https://doi.org/10.1038/s41565-021-00956-7| https://doi.org/10.1038/s41565-022-01182-5| https://doi.org/10.1038/s41565-022-01256-4| https://doi.org/10.1038/s41565-021-00852-0| https://doi.org/10.1038/s41565-022-01101-8| https://doi.org/10.1038/s41565-023-01482-4| https://doi.org/10.1038/s41565-021-01060-6| https://doi.org/10.1038/s41565-023-01360-z| https://doi.org/10.1038/s41565-023-01319-0| https://doi.org/10.1038/s41565-023-01525-w| https://doi.org/10.1038/s41565-023-01432-0| https://doi.org/10.1038/s41565-024-01636-y| https://doi.org/10.1038/s41565-024-01763-6| https://doi.org/10.1038/s41565-025-01890-8| https://doi.org/10.1038/s41565-020-0770-x| https://doi.org/10.1038/s41565-019-0598-4| https://doi.org/10.1038/s41565-020-0644-2| https://doi.org/10.1038/s41565-020-00827-7| https://doi.org/10.1038/s41565-021-00917-0| https://doi.org/10.1038/s41565-020-00808-w| https://doi.org/10.1038/s41565-021-01033-9| https://doi.org/10.1038/s41565-020-00841-9| https://doi.org/10.1038/s41565-022-01186-1| https://doi.org/10.1038/s41565-022-01073-9| https://doi.org/10.1038/s41565-022-01092-6| https://doi.org/10.1038/s41565-023-01335-0| https://doi.org/10.1038/s41565-023-01320-7| https://doi.org/10.1038/s41565-023-01521-0| https://doi.org/10.1038/s41565-023-01324-3| https://doi.org/10.1038/s41565-024-01767-2| https://doi.org/10.1038/s41565-024-01628-y| https://doi.org/10.1038/s41565-024-01812-0| https://doi.org/10.1038/s41565-024-01843-7| https://doi.org/10.1038/s41565-024-01849-1| https://doi.org/10.1038/s41565-024-01841-9| https://doi.org/10.1038/s41565-020-0758-6| https://doi.org/10.1038/s41565-021-00871-x| https://doi.org/10.1038/s41565-021-01005-z| https://doi.org/10.1038/s41565-022-01217-x| https://doi.org/10.1038/s41565-023-01549-2| https://doi.org/10.1038/s41565-023-01410-6| https://doi.org/10.1038/s41565-024-01685-3| https://doi.org/10.1038/s41565-024-01601-9| https://doi.org/10.1038/s41565-020-00794-z| https://doi.org/10.1038/s41565-019-0609-5| https://doi.org/10.1038/s41565-021-00970-9| https://doi.org/10.1038/s41565-021-01016-w| https://doi.org/10.1038/s41565-023-01574-1| https://doi.org/10.1038/s41565-024-01650-0| https://doi.org/10.1038/s41565-024-01730-1| https://doi.org/10.1038/s41565-025-01919-y| https://doi.org/10.1038/s41565-025-01964-7| https://doi.org/10.1038/s41565-022-01114-3| https://doi.org/10.1038/s41565-022-01187-0| https://doi.org/10.1038/s41565-024-01709-y| https://doi.org/10.1038/s41565-024-01850-8| https://doi.org/10.1038/s41565-025-01855-x| https://doi.org/10.1038/s41565-025-01927-y| https://doi.org/10.1038/s41565-025-01945-w| https://doi.org/10.1038/s41565-025-01970-9| https://doi.org/10.1038/s41565-020-0697-2| https://doi.org/10.1038/s41565-022-01100-9| https://doi.org/10.1038/s41565-021-00960-x| https://doi.org/10.1038/s41565-023-01322-5| https://doi.org/10.1038/s41565-024-01828-6| https://doi.org/10.1038/s41565-022-01203-3| https://doi.org/10.1038/s41565-023-01493-1| https://doi.org/10.1038/s41565-022-01192-3| https://doi.org/10.1038/s41565-023-01537-6| https://doi.org/10.1038/s41565-023-01555-4| https://doi.org/10.1038/s41565-024-01663-9| https://doi.org/10.1038/s41565-024-01664-8| https://doi.org/10.1038/s41565-024-01692-4| https://doi.org/10.1038/s41565-024-01752-9| https://doi.org/10.1038/s41565-020-0691-8| https://doi.org/10.1038/s41565-022-01128-x| https://doi.org/10.1038/s41565-021-01029-5| https://doi.org/10.1038/s41565-023-01428-w| https://doi.org/10.1038/s41565-023-01526-9| https://doi.org/10.1038/s41565-022-01295-x</v>
       </c>
-      <c r="C24" t="str">
+      <c r="C24" s="1" t="str">
         <v>Bipolar-shell resurfacing for blue LEDs based on strongly confined perovskite quantum dots| Efficient, fast and reabsorption-free perovskite nanocrystal-based sensitized plastic scintillators| High quality factor phase gradient metasurfaces| Magic-angle lasers in nanostructured moiré superlattice| Direct patterning of colloidal quantum dots with adaptable dual-ligand surface| Versatile full-colour nanopainting enabled by a pixelated plasmonic metasurface| Optical tweezers beyond refractive index mismatch using highly doped upconversion nanoparticles| Migrating photon avalanche in different emitters at the nanoscale enables 46th-order optical nonlinearity| Light management for perovskite light-emitting diodes| Graphene moiré superlattices with giant quantum nonlinearity of chiral Bloch electrons| Leaky-wave metasurfaces for integrated photonics| Coloured vortex beams with incoherent white light illumination| Adapted poling to break the nonlinear efficiency limit in nanophotonic lithium niobate waveguides| Highly stable and pure single-photon emission with 250 ps optical coherence times in InP colloidal quantum dots| Highly efficient vortex generation at the nanoscale| Local control of polarization and geometric phase in thermal metasurfaces| Exciton dressing by extreme nonlinear magnons in a layered semiconductor| Optical fibres with embedded two-dimensional materials for ultrahigh nonlinearity| Tuning inelastic light scattering via symmetry control in the two-dimensional magnet CrI3| Filtering the photoluminescence spectra of atomically thin semiconductors with graphene| Bright solid-state sources for single photons with orbital angular momentum| Third-order nonlinear Hall effect induced by the Berry-connection polarizability tensor| Giant enhancement of third-harmonic generation in graphene–metal heterostructures| Quantum-dot single-photon sources for the quantum internet| Fano-resonant ultrathin film optical coatings| Magnetically tunable and stable deep-ultraviolet birefringent optics using two-dimensional hexagonal boron nitride| Nonlinear polariton parametric emission in an atomically thin semiconductor based microcavity| Tailoring solid-state single-photon sources with stimulated emissions| Anomalous thickness dependence of photoluminescence quantum yield in black phosphorous| Far-field coupling between moiré photonic lattices| Optical gain and lasing from bulk cadmium sulfide nanocrystals through bandgap renormalization| Hyperbolic whispering-gallery phonon polaritons in boron nitride nanotubes| Continuous spectral and coupling-strength encoding with dual-gradient metasurfaces| Van der Waals quaternary oxides for tunable low-loss anisotropic polaritonics| Blue lasers using low-toxicity colloidal quantum dots| Half-wave nanolasers and intracellular plasmonic lasing particles| Spatiotemporal imaging of nonlinear optics in van der Waals waveguides| Remote epitaxial crystalline perovskites for ultrahigh-resolution micro-LED displays| Photonic Rashba effect from quantum emitters mediated by a Berry-phase defective photonic crystal| Highly versatile near-infrared emitters based on an atomically defined HgS interlayer embedded into a CdSe/CdS quantum dot| To nano or not to nano for bright halide perovskite emitters| Chirality-dependent unidirectional routing of WS2 valley photons in a nanocircuit| All-optical free-space routing of upconverted light by metasurfaces via nonlinear interferometry| Tunable phononic coupling in excitonic quantum emitters| Strong chiroptical nonlinearity in coherently stacked boron nitride nanotubes| Coherent electronic coupling in quantum dot solids induces cooperative enhancement of nonlinear optoelectronic responses| Long-lived modulation of plasmonic absorption by ballistic thermal injection| A highly reflective biogenic photonic material from core–shell birefringent nanoparticles| Optical read-out of Coulomb staircases in a moiré superlattice via trapped interlayer trions| All-optical fluorescence blinking control in quantum dots with ultrafast mid-infrared pulses| Large second-order susceptibility from a quantized indium tin oxide monolayer| Upconversion electroluminescence in 2D semiconductors integrated with plasmonic tunnel junctions| Third-order nonlinear Hall effect in a quantum Hall system| Ferroelectric topologies in BaTiO3 nanomembranes for light field manipulation| Observation of chiral emission enabled by collective guided resonances| Exceptional points in lossy media lead to deep polynomial wave penetration with spatially uniform power loss| Quantum dot patterning by direct photolithography| Competing light extraction strategies in perovskite light-emitting diodes| Tracking nonlinear conversion of light in van der Waals waveguides| Multivalent effect enables efficient and stable deep-blue perovskite LEDs| Twisted light with a designed polar topology| Unidirectional guided resonance continuum of Dirac bands in WS2 bilayer metasurfaces| Vortex lasers through collective boundary scattering| Radiative Auger process in the single-photon limit| Photon avalanche goes multicolour| Stopped-light nanolasing in optical magic-angle graphene| Twisted light gets a splash of colour| Quantum dots are beginning to lase in the blue| Merging metasurfaces with microfluidics| Bulk semiconductor nanocrystals transform solution-processed gain media| A 2D material-based liquid crystal for deep-ultraviolet light modulation| Tin instead of lead for stable lasers| Light routing by nanoscale nonlinear interferometry with attosecond control| Tuning light by the vibes| Inelastic electron tunnelling induces anomalous light emission| Multiwalled boron nitride nanotubes with a strong nonlinear chiroptical response| Author Correction: All-optical free-space routing of upconverted light by metasurfaces via nonlinear interferometry| Auger processes in a single quantum dot| Author Correction: Floating solid-state thin films with dynamic structural colour| Mid-infrared irradiation keeps nanocrystals bright| Stable and pure single-photons from greener quantum dots| High optical nonlinear efficiency achieved by compensating for nanoscale inhomogeneity| A brilliant source of single photons</v>
       </c>
-      <c r="D24" t="str">
-        <v/>
-      </c>
-      <c r="E24" t="str">
-        <v/>
-      </c>
-      <c r="F24">
+      <c r="D24" s="1" t="str">
+        <v/>
+      </c>
+      <c r="E24" s="1" t="str">
+        <v/>
+      </c>
+      <c r="F24" s="1" t="str">
+        <v>2021/05/19| 2025/08/16| 2025/08/03| 2021/12/05| 2022/10/10| 2022/10/01| 2023/02/19| 2024/07/19| 2021/11/11| 2025/04/03| 2024/05/01| 2020/10/03| 2025/10/12| 2020/07/27| 2023/01/11| 2023/06/05| 2020/01/28| 2025/12/01| 2024/05/23| 2023/03/16| 2023/05/15| 2025/07/11| 2024/02/08| 2023/12/26| 2025/01/26| 2020/01/08| 2020/10/16| 2022/05/14| 2023/12/15| 2022/04/19| 2022/08/31| 2021/01/06| 2022/03/26| 2020/03/08| 2024/03/13| 2023/01/28| 2020/01/07| 2021/04/10| 2024/06/03| 2020/07/08| 2022/07/25| 2025/05/23| 2020/04/29| 2024/07/13| 2021/05/30| 2021/07/20| 2022/07/28| 2024/07/04| 2022/08/17| 2021/09/25| 2021/10/09| 2022/08/24| 2022/01/30| 2025/01/11| 2024/12/04| 2023/09/23| 2021/04/28| 2023/06/21| 2024/06/19| 2023/04/26| 2023/08/07| 2025/05/12| 2022/03/22| 2023/01/29| 2022/08/02| 2024/09/06| 2021/04/18| 2020/06/09| 2023/04/11| 2022/08/16| 2023/11/18| 2024/03/04| 2025/08/02| 2024/02/12| 2021/09/16| 2020/02/10| 2023/02/24| 2025/11/25| 2025/07/09| 2024/02/06| 2020/02/26</v>
+      </c>
+      <c r="G24" s="1" t="str">
         <v>83</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="str">
+      <c r="A25" s="1" t="str">
         <v>11 界面・表面・ナノスケール構造・ダイナミクスの可視化・制御・解析</v>
       </c>
-      <c r="B25" t="str">
+      <c r="B25" s="1" t="str">
         <v>https://doi.org/10.1038/s41565-021-01051-7| https://doi.org/10.1038/s41565-020-00824-w| https://doi.org/10.1038/s41565-021-00886-4| https://doi.org/10.1038/s41565-020-0768-4| https://doi.org/10.1038/s41565-020-00823-x| https://doi.org/10.1038/s41565-020-0719-0| https://doi.org/10.1038/s41565-020-0751-0| https://doi.org/10.1038/s41565-020-00826-8| https://doi.org/10.1038/s41565-019-0603-y| https://doi.org/10.1038/s41565-020-0641-5| https://doi.org/10.1038/s41565-020-00844-6| https://doi.org/10.1038/s41565-022-01234-w| https://doi.org/10.1038/s41565-023-01557-2| https://doi.org/10.1038/s41565-024-01612-6| https://doi.org/10.1038/s41565-021-00857-9| https://doi.org/10.1038/s41565-020-0650-4| https://doi.org/10.1038/s41565-021-01041-9| https://doi.org/10.1038/s41565-021-00988-z| https://doi.org/10.1038/s41565-023-01517-w| https://doi.org/10.1038/s41565-025-01914-3| https://doi.org/10.1038/s41565-022-01178-1| https://doi.org/10.1038/s41565-022-01249-3| https://doi.org/10.1038/s41565-023-01516-x| https://doi.org/10.1038/s41565-023-01560-7| https://doi.org/10.1038/s41565-024-01779-y| https://doi.org/10.1038/s41565-022-01157-6| https://doi.org/10.1038/s41565-023-01589-8| https://doi.org/10.1038/s41565-024-01650-0| https://doi.org/10.1038/s41565-025-01895-3| https://doi.org/10.1038/s41565-025-01947-8| https://doi.org/10.1038/s41565-022-01076-6| https://doi.org/10.1038/s41565-023-01331-4| https://doi.org/10.1038/s41565-024-01668-4| https://doi.org/10.1038/s41565-022-01262-6| https://doi.org/10.1038/s41565-023-01486-0| https://doi.org/10.1038/s41565-025-01925-0| https://doi.org/10.1038/s41565-025-01959-4| https://doi.org/10.1038/s41565-023-01561-6| https://doi.org/10.1038/s41565-021-01067-z| https://doi.org/10.1038/s41565-024-01797-w| https://doi.org/10.1038/s41565-022-01229-7| https://doi.org/10.1038/s41565-022-01236-8| https://doi.org/10.1038/s41565-023-01472-6| https://doi.org/10.1038/s41565-024-01684-4| https://doi.org/10.1038/s41565-024-01748-5| https://doi.org/10.1038/s41565-022-01128-x| https://doi.org/10.1038/s41565-022-01304-z| https://doi.org/10.1038/s41565-023-01318-1| https://doi.org/10.1038/s41565-022-01227-9| https://doi.org/10.1038/s41565-022-01159-4</v>
       </c>
-      <c r="C25" t="str">
+      <c r="C25" s="1" t="str">
         <v>A multifunctional chemical toolbox to engineer carbon dots for biomedical and energy applications| Challenges in applying highly active Pt-based nanostructured catalysts for oxygen reduction reactions to fuel cell vehicles| Nanoplastics are neither microplastics nor engineered nanoparticles| Complex-amplitude metasurface-based orbital angular momentum holography in momentum space| An industrial perspective on catalysts for low-temperature CO2 electrolysis| Role of nanoscale antigen organization on B-cell activation probed using DNA origami| Nanotechnology-based disinfectants and sensors for SARS-CoV-2| Symmetry-dependent field-free switching of perpendicular magnetization| Synergistic enhancement of electrocatalytic CO2 reduction to C2 oxygenates at nitrogen-doped nanodiamonds/Cu interface| Power generation by reverse electrodialysis in a single-layer nanoporous membrane made from core–rim polycyclic aromatic hydrocarbons| Photoacoustic molecular imaging-escorted adipose photodynamic–browning synergy for fighting obesity with virus-like complexes| Hierarchically self-assembled homochiral helical microtoroids| Multichannel meta-imagers for accelerating machine vision| A non-FRET DNA reporter that changes fluorescence colour upon nuclease digestion| Covalently interconnected transition metal dichalcogenide networks via defect engineering for high-performance electronic devices| A monolayer transition-metal dichalcogenide as a topological excitonic insulator| Full-bandwidth electrophysiology of seizures and epileptiform activity enabled by flexible graphene microtransistor depth neural probes| A lysosome-targeted DNA nanodevice selectively targets macrophages to attenuate tumours| Ultrahigh-printing-speed photoresists for additive manufacturing| Electrosynthesis of pure urea from pretreated flue gas in a proton-limited environment established in a porous solid-state electrolyte electrolyser| Engineering nanoscale hypersonic phonon transport| Selective targeting of visceral adiposity by polycation nanomedicine| A rhythmically pulsing leaf-spring DNA-origami nanoengine that drives a passive follower| Associating growth factor secretions and transcriptomes of single cells in nanovials using SEC-seq| DNA microbeads for spatio-temporally controlled morphogen release within organoids| Nanotechnology meets circular economy| In vivo real-time positron emission particle tracking (PEPT) and single particle PET| Upconversion electroluminescence in 2D semiconductors integrated with plasmonic tunnel junctions| Pt catalyst protected by graphene nanopockets enables lifetimes of over 200,000 h for heavy-duty fuel cell applications| Mesoscale dynamics of electrosorbed ions in fast-charging carbon-based nanoporous electrodes| Detectivities of WS2/HfS2 heterojunctions| The need for awareness and action in managing nanowaste| Nanoparticles for inducing Gaucher disease-like damage in cancer cells| A closer look at spin textures| The Cancer Moonshot, the role of in vitro models, model accuracy, and the need for validation| Better the devil you know than the devil you don’t — PEG challenges in nanomedicine| Colloidal chemistry in tin perovskite| Oral insulin with reduced hypoglycaemic episodes| Reply to: Random interstratification in hydrated graphene oxide membranes and implications for seawater desalination| Author Correction: Graphene oxide electrodes enable electrical stimulation of distinct calcium signalling in brain astrocytes| Nanotexturing enables perovskite/silicon tandem solar cells with 29.8% efficiency| Toroid meets helix| ‘Rotating’ contact for bias-free photodetection with 2D materials| Versatile perovskites enable room-temperature topological polaritonics| Small structural changes in siloxane-based lipidoids improve tissue-specific mRNA delivery| Author Correction: Floating solid-state thin films with dynamic structural colour| Telling nanotech success stories| Imaging pathology goes nanoscale with a low-cost strategy| Using engineered nanoparticles to increase carbon dioxide storage in the ocean| Field-free superconducting diode effect in noncentrosymmetric superconductor/ferromagnet multilayers</v>
       </c>
-      <c r="D25" t="str">
-        <v>東大</v>
-      </c>
-      <c r="E25" t="str">
-        <v/>
-      </c>
-      <c r="F25">
+      <c r="D25" s="1" t="str">
+        <v>東大</v>
+      </c>
+      <c r="E25" s="1" t="str">
+        <v/>
+      </c>
+      <c r="F25" s="1" t="str">
+        <v>2023/11/18| 2024/10/06| 2021/10/09| 2022/01/25| 2021/09/16| 2024/11/01| 2024/12/07| 2024/12/30| 2025/08/17| 2024/01/19| 2021/04/19| 2020/12/12| 2023/10/20| 2024/11/24| 2025/03/19| 2020/03/06| 2022/07/31| 2024/01/20| 2020/07/04| 2020/09/04| 2020/01/06| 2021/08/27| 2021/04/28| 2022/12/21| 2020/01/09| 2025/05/17| 2023/12/28| 2022/08/24| 2025/10/21| 2025/04/23| 2025/07/31| 2020/07/29| 2025/10/23| 2022/09/06| 2024/06/06| 2020/02/21| 2023/09/05| 2022/06/13| 2020/09/01| 2020/01/03| 2021/11/14| 2023/12/12| 2024/04/27| 2021/05/22| 2023/02/24| 2022/08/15| 2020/07/28| 2023/10/23</v>
+      </c>
+      <c r="G25" s="1" t="str">
         <v>50</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="str">
+      <c r="A26" s="1" t="str">
         <v>3 カーボンナノ材料（CNT、カーボンドット等）</v>
       </c>
-      <c r="B26" t="str">
+      <c r="B26" s="1" t="str">
         <v>https://doi.org/10.1038/s41565-021-01051-7| https://doi.org/10.1038/s41565-023-01385-4| https://doi.org/10.1038/s41565-022-01135-y| https://doi.org/10.1038/s41565-019-0613-9| https://doi.org/10.1038/s41565-023-01409-z| https://doi.org/10.1038/s41565-023-01394-3| https://doi.org/10.1038/s41565-024-01645-x| https://doi.org/10.1038/s41565-020-00777-0| https://doi.org/10.1038/s41565-020-0634-4| https://doi.org/10.1038/s41565-020-0654-0| https://doi.org/10.1038/s41565-022-01276-0| https://doi.org/10.1038/s41565-021-00884-6| https://doi.org/10.1038/s41565-022-01198-x| https://doi.org/10.1038/s41565-022-01136-x| https://doi.org/10.1038/s41565-021-01034-8| https://doi.org/10.1038/s41565-022-01307-w| https://doi.org/10.1038/s41565-023-01575-0| https://doi.org/10.1038/s41565-023-01591-0| https://doi.org/10.1038/s41565-020-00805-z| https://doi.org/10.1038/s41565-023-01363-w| https://doi.org/10.1038/s41565-023-01592-z| https://doi.org/10.1038/s41565-025-01865-9| https://doi.org/10.1038/s41565-023-01395-2| https://doi.org/10.1038/s41565-025-01968-3| https://doi.org/10.1038/s41565-023-01420-4| https://doi.org/10.1038/s41565-020-0677-6| https://doi.org/10.1038/s41565-022-01212-2| https://doi.org/10.1038/s41565-022-01109-0| https://doi.org/10.1038/s41565-020-0664-y| https://doi.org/10.1038/s41565-020-0656-y| https://doi.org/10.1038/s41565-021-00953-w</v>
       </c>
-      <c r="C26" t="str">
+      <c r="C26" s="1" t="str">
         <v>A multifunctional chemical toolbox to engineer carbon dots for biomedical and energy applications| Floatable photocatalytic hydrogel nanocomposites for large-scale solar hydrogen production| High-yield solar-driven atmospheric water harvesting of metal–organic-framework-derived nanoporous carbon with fast-diffusion water channels| Carbon nanotubes added to the SIN List as a nanomaterial of Very High Concern| Developing trends in nanomaterials and their environmental implications| Hierarchical helical carbon nanotube fibre as a bone-integrating anterior cruciate ligament replacement| Giant nanomechanical energy storage capacity in twisted single-walled carbon nanotube ropes| Multifunctional nanocoated membranes for high-rate electrothermal desalination of hypersaline waters| A sensitive and specific nanosensor for monitoring extracellular potassium levels in the brain| Grouping all carbon nanotubes into a single substance category is scientifically unjustified| Breakdown of the Nernst–Einstein relation in carbon nanotube porins| Observation of superdiffusive phonon transport in aligned atomic chains| Carbon nanotube uptake in cyanobacteria for near-infrared imaging and enhanced bioelectricity generation in living photovoltaics| A wavelength-induced frequency filtering method for fluorescent nanosensors in vivo| Soft-lock drawing of super-aligned carbon nanotube bundles for nanometre electrical contacts| Nanosensors for monitoring plant health| Nanosensor detection of reactive oxygen and nitrogen species leakage in frustrated phagocytosis of nanofibres| Carbon-nanotube field-effect transistors for resolving single-molecule aptamer–ligand binding kinetics| Micelle-enabled self-assembly of porous and monolithic carbon membranes for bioelectronic interfaces| Carbon nanotube recognition by human Siglec-14 provokes inflammation| Augmenting insect olfaction performance through nano-neuromodulation| Intermediate-range solvent templating and counterion behaviour at charged carbon nanotube surfaces| Inferring scale-dependent non-equilibrium activity using carbon nanotubes| Ultraclean monolayer amorphous carbon yields a high-precision proton beam| Carbon nanotubes activate inflammatory signalling through binding to Siglec-14| Notes on environmental nanoscience| Inheritable nanotubes boost bioimaging and photovoltaics in cyanobacteria| Publisher Correction: Soft-lock drawing of super-aligned carbon nanotube bundles for nanometre electrical contacts| Chemistry under nanoconfinement| Banning carbon nanotubes would be scientifically unjustified and damaging to innovation| Complete structural characterization of single carbon nanotubes by Rayleigh scattering circular dichroism</v>
       </c>
-      <c r="D26" t="str">
-        <v>東大</v>
-      </c>
-      <c r="E26" t="str">
-        <v>東北大</v>
-      </c>
-      <c r="F26">
+      <c r="D26" s="1" t="str">
+        <v>東大</v>
+      </c>
+      <c r="E26" s="1" t="str">
+        <v>東北大</v>
+      </c>
+      <c r="F26" s="1" t="str">
+        <v>2023/11/18| 2020/03/13| 2023/03/31| 2022/07/23| 2022/09/27| 2024/11/08| 2025/02/10| 2020/12/26| 2021/10/09| 2025/09/21| 2021/06/01| 2024/12/04| 2024/02/03| 2023/03/30| 2023/04/01| 2024/04/13| 2024/03/18| 2021/12/15| 2022/04/03| 2020/08/16| 2021/06/05| 2025/09/01| 2024/03/17| 2020/11/21| 2021/02/25| 2025/03/01| 2022/11/03| 2025/10/08| 2023/12/31| 2025/12/09| 2022/10/29</v>
+      </c>
+      <c r="G26" s="1" t="str">
         <v>31</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="str">
+      <c r="A27" s="1" t="str">
         <v>15 多機能・複合・システム・統合評価</v>
       </c>
-      <c r="B27" t="str">
+      <c r="B27" s="1" t="str">
         <v>https://doi.org/10.1038/s41565-021-01051-7| https://doi.org/10.1038/s41565-020-0636-2| https://doi.org/10.1038/s41565-022-01163-8| https://doi.org/10.1038/s41565-022-01079-3| https://doi.org/10.1038/s41565-021-01061-5| https://doi.org/10.1038/s41565-023-01405-3| https://doi.org/10.1038/s41565-023-01587-w| https://doi.org/10.1038/s41565-024-01699-x| https://doi.org/10.1038/s41565-024-01657-7| https://doi.org/10.1038/s41565-023-01567-0| https://doi.org/10.1038/s41565-024-01794-z| https://doi.org/10.1038/s41565-025-01899-z| https://doi.org/10.1038/s41565-021-00878-4| https://doi.org/10.1038/s41565-021-00941-0| https://doi.org/10.1038/s41565-020-0755-9| https://doi.org/10.1038/s41565-022-01097-1| https://doi.org/10.1038/s41565-021-00883-7| https://doi.org/10.1038/s41565-023-01490-4| https://doi.org/10.1038/s41565-023-01530-z| https://doi.org/10.1038/s41565-024-01738-7| https://doi.org/10.1038/s41565-023-01599-6| https://doi.org/10.1038/s41565-020-00819-7| https://doi.org/10.1038/s41565-022-01226-w| https://doi.org/10.1038/s41565-023-01516-x| https://doi.org/10.1038/s41565-023-01387-2| https://doi.org/10.1038/s41565-023-01362-x| https://doi.org/10.1038/s41565-022-01123-2| https://doi.org/10.1038/s41565-024-01772-5| https://doi.org/10.1038/s41565-020-0680-y| https://doi.org/10.1038/s41565-021-00902-7| https://doi.org/10.1038/s41565-025-01962-9| https://doi.org/10.1038/s41565-025-01987-0| https://doi.org/10.1038/s41565-020-00792-1| https://doi.org/10.1038/s41565-022-01140-1| https://doi.org/10.1038/s41565-023-01469-1| https://doi.org/10.1038/s41565-022-01094-4| https://doi.org/10.1038/s41565-022-01313-y| https://doi.org/10.1038/s41565-022-01194-1| https://doi.org/10.1038/s41565-021-00944-x| https://doi.org/10.1038/s41565-020-0725-2| https://doi.org/10.1038/s41565-022-01242-w| https://doi.org/10.1038/s41565-023-01509-w| https://doi.org/10.1038/s41565-024-01838-4| https://doi.org/10.1038/s41565-022-01202-4| https://doi.org/10.1038/s41565-021-00890-8| https://doi.org/10.1038/s41565-023-01400-8| https://doi.org/10.1038/s41565-021-00993-2| https://doi.org/10.1038/s41565-021-01013-z</v>
       </c>
-      <c r="C27" t="str">
+      <c r="C27" s="1" t="str">
         <v>A multifunctional chemical toolbox to engineer carbon dots for biomedical and energy applications| Matrix mechanics and water permeation regulate extracellular vesicle transport| Industry outlook of perovskite quantum dots for display applications| Polarization-sensitive optoionic membranes from chiral plasmonic nanoparticles| Robotic four-dimensional pixel assembly of van der Waals solids| An all-in-one nanoprinting approach for the synthesis of a nanofilm library for unclonable anti-counterfeiting applications| Liquid-metal-based three-dimensional microelectrode arrays integrated with implantable ultrathin retinal prosthesis for vision restoration| The gap between academic research on proton exchange membrane water electrolysers and industrial demands| Single-site iron-anchored amyloid hydrogels as catalytic platforms for alcohol detoxification| 3D nanofabricated soft microrobots with super-compliant picoforce springs as onboard sensors and actuators| Fully integrated multi-mode optoelectronic memristor array for diversified in-sensor computing| Piracetam shapes wide-bandgap perovskite crystals for scalable perovskite tandems| Bioelectronic control of a microbial community using surface-assembled electrogenetic cells to route signals| Microscopic metavehicles powered and steered by embedded optical metasurfaces| A rewritable optical storage medium of silk proteins using near-field nano-optics| Pumping between phases with a pulsed-fuel molecular ratchet| Floating solid-state thin films with dynamic structural colour| Self-regulated underwater phototaxis of a photoresponsive hydrogel-based phototactic vehicle| Interlinking spatial dimensions and kinetic processes in dissipative materials to create synthetic systems with lifelike functionality| A modular DNA origami nanocompartment for engineering a cell-free, protein unfolding and degradation pathway| A magnetically powered nanomachine with a DNA clutch| Advances and challenges towards consumerization of nanomaterials| Potential use of engineered nanoparticles in ocean fertilization for large-scale atmospheric carbon dioxide removal| A rhythmically pulsing leaf-spring DNA-origami nanoengine that drives a passive follower| Floating solar hydrogen production| The harmony of form and function in DNA nanotechnology| Colloidal nanocrystals for large-area LEDs| Nanotechnology solutions for the climate crisis| The race against COVID-19| Achieving sustainable nanomaterial design though strategic cultivation of big data| A roadmap for next-generation nanomotors| Quantum could be key for financial security| Membranes for special water treatment| Author Correction: Robotic four-dimensional pixel assembly of van der Waals solids| Plasmonic structural colour paint gets commercial attention| Microdrones soar by recoiling light| Author Correction: Direct patterning of colloidal quantum dots with adaptable dual-ligand surface| Physically unclonable functions fight forgery| Nanofabrication meets open science| Fine fibres with multifunctionality| Scalable optical levitation| Breaking the bottleneck of synthetic cells| Renewable hydrogen is having a moment| Building successful nanomedicine start-ups| Photothermal twistronics| Measurement of scale-dependent time-reversal asymmetry in biological systems| Phosphorus in the flatland| Small is even more different now</v>
       </c>
-      <c r="D27" t="str">
-        <v/>
-      </c>
-      <c r="E27" t="str">
-        <v/>
-      </c>
-      <c r="F27">
+      <c r="D27" s="1" t="str">
+        <v/>
+      </c>
+      <c r="E27" s="1" t="str">
+        <v/>
+      </c>
+      <c r="F27" s="1" t="str">
+        <v>2023/11/18| 2023/12/09| 2023/03/05| 2024/10/02| 2025/10/10| 2022/01/17| 2025/04/12| 2021/05/04| 2020/11/02| 2022/04/16| 2021/03/20| 2024/06/26| 2022/05/15| 2024/09/19| 2021/09/09| 2021/12/03| 2021/02/21| 2023/07/18| 2025/08/25| 2024/02/07| 2020/06/10| 2023/01/27| 2023/10/19| 2021/04/28| 2024/05/05| 2023/06/30| 2020/05/21| 2024/07/28| 2021/04/25| 2023/05/12| 2021/02/15| 2025/07/15| 2025/07/20| 2025/07/01| 2023/10/18| 2021/04/14| 2021/04/19| 2023/04/06| 2024/11/17| 2025/02/04| 2024/05/30| 2023/11/01| 2023/07/26| 2025/03/23| 2023/05/26| 2022/11/17| 2024/08/04| 2021/01/08</v>
+      </c>
+      <c r="G27" s="1" t="str">
         <v>48</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="str">
+      <c r="A28" s="1" t="str">
         <v>7 センシング・バイオセンシング・イメージング・計測技術の開発・応用</v>
       </c>
-      <c r="B28" t="str">
+      <c r="B28" s="1" t="str">
         <v>https://doi.org/10.1038/s41565-020-0647-z| https://doi.org/10.1038/s41565-020-0759-5| https://doi.org/10.1038/s41565-021-00986-1| https://doi.org/10.1038/s41565-021-00926-z| https://doi.org/10.1038/s41565-021-00856-w| https://doi.org/10.1038/s41565-021-00910-7| https://doi.org/10.1038/s41565-020-00796-x| https://doi.org/10.1038/s41565-022-01286-y| https://doi.org/10.1038/s41565-020-0731-4| https://doi.org/10.1038/s41565-023-01375-6| https://doi.org/10.1038/s41565-022-01134-z| https://doi.org/10.1038/s41565-023-01457-5| https://doi.org/10.1038/s41565-021-00852-0| https://doi.org/10.1038/s41565-022-01174-5| https://doi.org/10.1038/s41565-022-01274-2| https://doi.org/10.1038/s41565-023-01342-1| https://doi.org/10.1038/s41565-022-01095-3| https://doi.org/10.1038/s41565-023-01497-x| https://doi.org/10.1038/s41565-022-01284-0| https://doi.org/10.1038/s41565-022-01151-y| https://doi.org/10.1038/s41565-023-01585-y| https://doi.org/10.1038/s41565-023-01419-x| https://doi.org/10.1038/s41565-023-01366-7| https://doi.org/10.1038/s41565-024-01687-1| https://doi.org/10.1038/s41565-024-01699-x| https://doi.org/10.1038/s41565-024-01635-z| https://doi.org/10.1038/s41565-024-01626-0| https://doi.org/10.1038/s41565-024-01606-4| https://doi.org/10.1038/s41565-024-01827-7| https://doi.org/10.1038/s41565-020-0660-2| https://doi.org/10.1038/s41565-020-00784-1| https://doi.org/10.1038/s41565-020-00836-6| https://doi.org/10.1038/s41565-020-0633-5| https://doi.org/10.1038/s41565-021-00897-1| https://doi.org/10.1038/s41565-019-0632-6| https://doi.org/10.1038/s41565-020-00825-9| https://doi.org/10.1038/s41565-021-00927-y| https://doi.org/10.1038/s41565-021-01032-w| https://doi.org/10.1038/s41565-021-00959-4| https://doi.org/10.1038/s41565-020-00840-w| https://doi.org/10.1038/s41565-021-00969-2| https://doi.org/10.1038/s41565-022-01115-2| https://doi.org/10.1038/s41565-022-01287-x| https://doi.org/10.1038/s41565-022-01311-0| https://doi.org/10.1038/s41565-022-01307-w| https://doi.org/10.1038/s41565-022-01312-z| https://doi.org/10.1038/s41565-023-01530-z| https://doi.org/10.1038/s41565-023-01413-3| https://doi.org/10.1038/s41565-024-01757-4| https://doi.org/10.1038/s41565-024-01813-z| https://doi.org/10.1038/s41565-024-01799-8| https://doi.org/10.1038/s41565-023-01599-6| https://doi.org/10.1038/s41565-024-01725-y| https://doi.org/10.1038/s41565-025-01854-y| https://doi.org/10.1038/s41565-025-01887-3| https://doi.org/10.1038/s41565-025-01924-1| https://doi.org/10.1038/s41565-025-01917-0| https://doi.org/10.1038/s41565-021-01040-w| https://doi.org/10.1038/s41565-022-01217-x| https://doi.org/10.1038/s41565-022-01265-3| https://doi.org/10.1038/s41565-023-01596-9| https://doi.org/10.1038/s41565-024-01800-4| https://doi.org/10.1038/s41565-021-00970-9| https://doi.org/10.1038/s41565-023-01327-0| https://doi.org/10.1038/s41565-024-01730-1| https://doi.org/10.1038/s41565-025-01902-7| https://doi.org/10.1038/s41565-025-01916-1| https://doi.org/10.1038/s41565-025-01915-2| https://doi.org/10.1038/s41565-025-01931-2| https://doi.org/10.1038/s41565-021-00907-2| https://doi.org/10.1038/s41565-024-01678-2| https://doi.org/10.1038/s41565-024-01719-w| https://doi.org/10.1038/s41565-022-01096-2| https://doi.org/10.1038/s41565-024-01709-y| https://doi.org/10.1038/s41565-022-01285-z| https://doi.org/10.1038/s41565-024-01802-2| https://doi.org/10.1038/s41565-019-0612-x| https://doi.org/10.1038/s41565-020-0651-3| https://doi.org/10.1038/s41565-021-00996-z| https://doi.org/10.1038/s41565-021-00937-w| https://doi.org/10.1038/s41565-022-01120-5| https://doi.org/10.1038/s41565-025-01871-x| https://doi.org/10.1038/s41565-025-01928-x| https://doi.org/10.1038/s41565-025-01945-w| https://doi.org/10.1038/s41565-025-01913-4| https://doi.org/10.1038/s41565-025-01986-1| https://doi.org/10.1038/s41565-023-01338-x| https://doi.org/10.1038/s41565-021-00853-z| https://doi.org/10.1038/s41565-021-01006-y| https://doi.org/10.1038/s41565-023-01473-5| https://doi.org/10.1038/s41565-022-01281-3| https://doi.org/10.1038/s41565-024-01619-z| https://doi.org/10.1038/s41565-024-01688-0| https://doi.org/10.1038/s41565-023-01454-8| https://doi.org/10.1038/s41565-023-01477-1| https://doi.org/10.1038/s41565-021-01043-7| https://doi.org/10.1038/s41565-020-0735-0| https://doi.org/10.1038/s41565-022-01194-1| https://doi.org/10.1038/s41565-022-01188-z| https://doi.org/10.1038/s41565-021-01054-4| https://doi.org/10.1038/s41565-023-01365-8| https://doi.org/10.1038/s41565-023-01531-y| https://doi.org/10.1038/s41565-024-01671-9| https://doi.org/10.1038/s41565-024-01816-w| https://doi.org/10.1038/s41565-024-01838-4| https://doi.org/10.1038/s41565-022-01315-w| https://doi.org/10.1038/s41565-023-01428-w| https://doi.org/10.1038/s41565-023-01465-5| https://doi.org/10.1038/s41565-023-01538-5| https://doi.org/10.1038/s41565-019-0615-7| https://doi.org/10.1038/s41565-022-01218-w| https://doi.org/10.1038/s41565-024-01820-0</v>
       </c>
-      <c r="C28" t="str">
+      <c r="C28" s="1" t="str">
         <v>Neuromorphic nanoelectronic materials| A framework for designing delivery systems| Torsion strained iridium oxide for efficient acidic water oxidation in proton exchange membrane electrolyzers| Viscoelastic surface electrode arrays to interface with viscoelastic tissues| Molybdenum derived from nanomaterials incorporates into molybdenum enzymes and affects their activities in vivo| Bioorthogonal catalytic patch| Biomimetic artificial water channel membranes for enhanced desalination| Coverage-driven selectivity switch from ethylene to acetate in high-rate CO2/CO electrolysis| Biomolecular condensates undergo a generic shear-mediated liquid-to-solid transition| Low-thermal-budget synthesis of monolayer molybdenum disulfide for silicon back-end-of-line integration on a 200 mm platform| Cancer immunotherapy based on image-guided STING activation by nucleotide nanocomplex-decorated ultrasound microbubbles| Staggered-layer-boosted flexible Bi2Te3 films with high thermoelectric performance| Optical tweezers beyond refractive index mismatch using highly doped upconversion nanoparticles| Nanotechnology-based strategies against SARS-CoV-2 variants| In vivo surface-enhanced Raman scattering nanosensor for the real-time monitoring of multiple stress signalling molecules in plants| Highly reproducible van der Waals integration of two-dimensional electronics on the wafer scale| Phase-change memtransistive synapses for mixed-plasticity neural computations| Low Ohmic contact resistance and high on/off ratio in transition metal dichalcogenides field-effect transistors via residue-free transfer| Machine learning for nanoplasmonics| Kinetic and energetic insights into the dissipative non-equilibrium operation of an autonomous light-powered supramolecular pump| Cellular uptake and in vivo distribution of mesenchymal-stem-cell-derived extracellular vesicles are protein corona dependent| Adeno-associated viral vectors for functional intravenous gene transfer throughout the non-human primate brain| Proximal tubules eliminate endocytosed gold nanoparticles through an organelle-extrusion-mediated self-renewal mechanism| Resolvin D1 delivery to lesional macrophages using antioxidative black phosphorus nanosheets for atherosclerosis treatment| The gap between academic research on proton exchange membrane water electrolysers and industrial demands| Machine intelligence-accelerated discovery of all-natural plastic substitutes| Complete miscibility of immiscible elements at the nanometre scale| Engineering colloidal semiconductor nanocrystals for quantum information processing| Ferrimagnetic Heusler tunnel junctions with fast spin-transfer torque switching enabled by low magnetization| Phage capsid nanoparticles with defined ligand arrangement block influenza virus entry| A DNA-based voltmeter for organelles| Hepatic macrophages act as a central hub for relaxin-mediated alleviation of liver fibrosis| Graphene-assisted spontaneous relaxation towards dislocation-free heteroepitaxy| Therapeutically reprogrammed nutrient signalling enhances nanoparticulate albumin bound drug uptake and efficacy in KRAS-mutant cancer| Neuronal firing modulation by a membrane-targeted photoswitch| Ion-exchange enabled synthetic swarm| Continuous-wave near-infrared stimulated-emission depletion microscopy using downshifting lanthanide nanoparticles| Intrapleural nano-immunotherapy promotes innate and adaptive immune responses to enhance anti-PD-L1 therapy for malignant pleural effusion| Unveiling the full reaction path of the Suzuki–Miyaura cross-coupling in a single-molecule junction| Self-assembly of aramid amphiphiles into ultra-stable nanoribbons and aligned nanoribbon threads| Moiré trions in MoSe2/WSe2 heterobilayers| Electric control of valley polarization in monolayer WSe2 using a van der Waals magnet| Simultaneous identification of viruses and viral variants with programmable DNA nanobait| Three-dimensional topological magnetic monopoles and their interactions in a ferromagnetic meta-lattice| Nanosensors for monitoring plant health| Electrically switchable anisotropic polariton propagation in a ferroelectric van der Waals semiconductor| Interlinking spatial dimensions and kinetic processes in dissipative materials to create synthetic systems with lifelike functionality| Pressure tuning of minibands in MoS2/WSe2 heterostructures revealed by moiré phonons| Photobleaching-mediated charge-convertible cyclodextrin nanoparticles achieve deep tumour penetration for rectal cancer theranostics| Superionic conducting vacancy-rich β-Li3N electrolyte for stable cycling of all-solid-state lithium metal batteries| Mesoporous structured MoS2 as an electron transport layer for efficient and stable perovskite solar cells| A magnetically powered nanomachine with a DNA clutch| Magnetic-field-driven targeting of exosomes modulates immune and metabolic changes in dystrophic muscle| Nanoscopic cross-grain cation homogenization in perovskite solar cells| Single-layer waveguide displays using achromatic metagratings for full-colour augmented reality| A collagenase nanogel backpack improves CAR-T cell therapy outcomes in pancreatic cancer| Dynamic nanodomains dictate macroscopic properties in lead halide perovskites| Three-dimensional transistor arrays for intra- and inter-cellular recording| Chirality-dependent unidirectional routing of WS2 valley photons in a nanocircuit| Multidrug nanomedicine| High-fidelity initialization and control of electron and nuclear spins in a four-qubit register| Filamentous phages as tumour-targeting immunotherapeutic bionanofibres| Optical read-out of Coulomb staircases in a moiré superlattice via trapped interlayer trions| Giant orbital magnetic moments and paramagnetic shift in artificial relativistic atoms and molecules| Third-order nonlinear Hall effect in a quantum Hall system| Reversible shuffle twinning yields anisotropic tensile superelasticity in ceramic GeSe| Operando X-ray characterization platform to unravel catalyst degradation under accelerated stress testing in CO2 electrolysis| Paddle-like self-stirring nanoreactors with multi-chambered mesoporous branches for enhanced dual-dynamic cascade reactions| Engineering pyroptotic vesicles as personalized cancer vaccines| Local development of nanotechnology-based diagnostics| Mitochondrial transplantation for ischemic heart disease| Real-time dynamics of angular momentum transfer from spin to acoustic chiral phonon in oxide heterostructures| Cross-species transcriptomic signatures identify mechanisms related to species sensitivity and common responses to nanomaterials| Competing light extraction strategies in perovskite light-emitting diodes| DNA double helix, a tiny electromotor| NIR-II scattering gold superclusters for intravascular optical coherence tomography molecular imaging| A few clarifications on MIRIBEL| Diffusion and transport of extracellular vesicles| Size-dependent nano–bio interactions| Author Correction: The current landscape of nucleic acid therapeutics| Catalyst design via descriptors| Long-term blood sugar control with smart insulin crystals| Degrading cancer cell mitochondria to improve T cell-mediated killing| Unidirectional guided resonance continuum of Dirac bands in WS2 bilayer metasurfaces| Non-Hermitian non-Abelian topological transition in the S = 1 electron spin system of a nitrogen vacancy centre in diamond| Engineering disorder with monolayer amorphous carbon growth| Battery researchers in academia and industry should collaborate more effectively| Topological vortices for sound and light| Cancer cells hijack T-cell mitochondria| Direct catalytic plastics waste upcycling| When ions break the law| Author Correction: Dynamic matrices with DNA-encoded viscoelasticity for cell and organoid culture| Perovskites light a path forward| Controlling topological states in bilayer graphene| An external speed control for nanopore reads| Reply to: Questions about the role of P3HT nanoparticles in retinal stimulation| Publisher Correction: Alloying conducting channels for reliable neuromorphic computing| Physically unclonable functions fight forgery| Wireless nanomedicine for brain tumors| Strolling on a cell membrane| Author Correction: Multi-micron crisscross structures grown from DNA-origami slats| Intracerebral fate of engineered nanoparticles| Combining two-dimensional infrared spectroscopy with atomic force microscopy| Nanoscale gradient interface for efficient heat transfer| Renewable hydrogen is having a moment| Author Correction: Combating fogging with selective sunlight nano-absorbers| Stable and pure single-photons from greener quantum dots| Direct synthesis of MoS2 films on flexible substrates at low temperature| Lightly counting membrane proteins in native nanodiscs| Religious reactions to new technologies| Riboswitch nanocarriers for adenine rescue metabolic disease phenotypes| Antiferromagnetic spin-torque diode effect in a kagome Weyl semimetal</v>
       </c>
-      <c r="D28" t="str">
-        <v>東大</v>
-      </c>
-      <c r="E28" t="str">
-        <v/>
-      </c>
-      <c r="F28">
+      <c r="D28" s="1" t="str">
+        <v>東大</v>
+      </c>
+      <c r="E28" s="1" t="str">
+        <v/>
+      </c>
+      <c r="F28" s="1" t="str">
+        <v>2021/04/10| 2024/12/03| 2020/10/14| 2023/09/03| 2021/06/01| 2024/10/24| 2021/04/30| 2023/10/06| 2020/06/29| 2025/03/24| 2023/05/24| 2022/11/21| 2023/02/19| 2025/04/13| 2023/04/28| 2025/06/19| 2020/02/16| 2022/09/17| 2022/03/29| 2021/07/26| 2024/09/29| 2020/03/01| 2020/05/12| 2020/12/13| 2021/05/04| 2021/03/17| 2021/08/27| 2024/03/13| 2023/11/24| 2025/02/14| 2022/03/16| 2025/01/06| 2025/04/24| 2021/09/06| 2021/08/15| 2024/10/15| 2022/09/07| 2024/07/13| 2021/09/09| 2024/11/08| 2024/12/29| 2021/09/14| 2023/06/15| 2021/03/30| 2024/04/13| 2023/07/29| 2025/08/25| 2024/05/11| 2024/04/01| 2025/03/29| 2024/04/23| 2020/06/10| 2024/12/05| 2025/10/07| 2020/02/29| 2023/10/11| 2025/01/30| 2021/02/13| 2025/05/23| 2024/11/06| 2025/07/13| 2022/06/11| 2022/08/17| 2023/10/26| 2022/01/30| 2023/06/25| 2025/02/03| 2021/08/04| 2024/11/30| 2022/10/29| 2025/07/01| 2023/01/20| 2022/12/16| 2021/04/28| 2020/03/11| 2022/12/28| 2025/04/18| 2023/05/26| 2025/07/22| 2023/08/28| 2022/04/12| 2023/04/26| 2020/06/26| 2024/04/22| 2022/08/26| 2022/04/21| 2021/04/27| 2022/12/05| 2025/10/16| 2022/06/15| 2024/05/29| 2024/07/29| 2025/08/10| 2024/01/03| 2020/11/17| 2023/04/06| 2021/10/12| 2023/08/27| 2023/03/10| 2023/05/16| 2023/11/06| 2024/03/04| 2023/07/26| 2020/10/13| 2025/07/09| 2020/12/27| 2025/09/22| 2022/10/21| 2022/10/15| 2020/02/04</v>
+      </c>
+      <c r="G28" s="1" t="str">
         <v>112</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="str">
+      <c r="A29" s="1" t="str">
         <v>10 マルチモーダル・複合的解析・統合手法</v>
       </c>
-      <c r="B29" t="str">
+      <c r="B29" s="1" t="str">
         <v>https://doi.org/10.1038/s41565-020-0647-z| https://doi.org/10.1038/s41565-020-0652-2| https://doi.org/10.1038/s41565-020-0665-x| https://doi.org/10.1038/s41565-020-0759-5| https://doi.org/10.1038/s41565-020-00811-1| https://doi.org/10.1038/s41565-021-01059-z| https://doi.org/10.1038/s41565-023-01341-2| https://doi.org/10.1038/s41565-020-0674-9| https://doi.org/10.1038/s41565-020-0746-x| https://doi.org/10.1038/s41565-022-01165-6| https://doi.org/10.1038/s41565-021-00924-1| https://doi.org/10.1038/s41565-020-0700-y| https://doi.org/10.1038/s41565-021-00855-x| https://doi.org/10.1038/s41565-021-00947-8| https://doi.org/10.1038/s41565-022-01072-w| https://doi.org/10.1038/s41565-021-01063-3| https://doi.org/10.1038/s41565-019-0603-y| https://doi.org/10.1038/s41565-022-01110-7| https://doi.org/10.1038/s41565-023-01407-1| https://doi.org/10.1038/s41565-021-01052-6| https://doi.org/10.1038/s41565-020-0730-5| https://doi.org/10.1038/s41565-020-0636-2| https://doi.org/10.1038/s41565-022-01108-1| https://doi.org/10.1038/s41565-022-01286-y| https://doi.org/10.1038/s41565-021-00860-0| https://doi.org/10.1038/s41565-022-01162-9| https://doi.org/10.1038/s41565-021-00965-6| https://doi.org/10.1038/s41565-022-01145-w| https://doi.org/10.1038/s41565-020-0731-4| https://doi.org/10.1038/s41565-023-01361-y| https://doi.org/10.1038/s41565-022-01081-9| https://doi.org/10.1038/s41565-021-01019-7| https://doi.org/10.1038/s41565-021-00873-9| https://doi.org/10.1038/s41565-023-01329-y| https://doi.org/10.1038/s41565-020-00835-7| https://doi.org/10.1038/s41565-022-01079-3| https://doi.org/10.1038/s41565-021-00994-1| https://doi.org/10.1038/s41565-021-00848-w| https://doi.org/10.1038/s41565-023-01354-x| https://doi.org/10.1038/s41565-022-01129-w| https://doi.org/10.1038/s41565-022-01185-2| https://doi.org/10.1038/s41565-022-01133-0| https://doi.org/10.1038/s41565-021-01070-4| https://doi.org/10.1038/s41565-023-01348-9| https://doi.org/10.1038/s41565-022-01169-2| https://doi.org/10.1038/s41565-022-01289-9| https://doi.org/10.1038/s41565-022-01273-3| https://doi.org/10.1038/s41565-023-01323-4| https://doi.org/10.1038/s41565-022-01105-4| https://doi.org/10.1038/s41565-023-01548-3| https://doi.org/10.1038/s41565-021-01060-6| https://doi.org/10.1038/s41565-022-01151-y| https://doi.org/10.1038/s41565-023-01356-9| https://doi.org/10.1038/s41565-023-01367-6| https://doi.org/10.1038/s41565-023-01366-7| https://doi.org/10.1038/s41565-023-01321-6| https://doi.org/10.1038/s41565-023-01570-5| https://doi.org/10.1038/s41565-023-01519-8| https://doi.org/10.1038/s41565-024-01665-7| https://doi.org/10.1038/s41565-024-01704-3| https://doi.org/10.1038/s41565-023-01576-z| https://doi.org/10.1038/s41565-024-01621-5| https://doi.org/10.1038/s41565-024-01641-1| https://doi.org/10.1038/s41565-024-01766-3| https://doi.org/10.1038/s41565-024-01632-2| https://doi.org/10.1038/s41565-024-01672-8| https://doi.org/10.1038/s41565-024-01716-z| https://doi.org/10.1038/s41565-024-01645-x| https://doi.org/10.1038/s41565-024-01654-w| https://doi.org/10.1038/s41565-024-01805-z| https://doi.org/10.1038/s41565-024-01845-5| https://doi.org/10.1038/s41565-025-01862-y| https://doi.org/10.1038/s41565-025-01881-9| https://doi.org/10.1038/s41565-025-01905-4| https://doi.org/10.1038/s41565-025-01890-8| https://doi.org/10.1038/s41565-025-01882-8| https://doi.org/10.1038/s41565-020-0703-8| https://doi.org/10.1038/s41565-020-0649-x| https://doi.org/10.1038/s41565-020-0753-y| https://doi.org/10.1038/s41565-020-0682-9| https://doi.org/10.1038/s41565-021-01008-w| https://doi.org/10.1038/s41565-019-0624-6| https://doi.org/10.1038/s41565-021-00915-2| https://doi.org/10.1038/s41565-021-00964-7| https://doi.org/10.1038/s41565-021-01010-2| https://doi.org/10.1038/s41565-021-00959-4| https://doi.org/10.1038/s41565-021-00884-6| https://doi.org/10.1038/s41565-022-01136-x| https://doi.org/10.1038/s41565-023-01490-4| https://doi.org/10.1038/s41565-023-01335-0| https://doi.org/10.1038/s41565-023-01540-x| https://doi.org/10.1038/s41565-022-01293-z| https://doi.org/10.1038/s41565-023-01324-3| https://doi.org/10.1038/s41565-023-01382-7| https://doi.org/10.1038/s41565-023-01403-5| https://doi.org/10.1038/s41565-023-01413-3| https://doi.org/10.1038/s41565-023-01595-w| https://doi.org/10.1038/s41565-024-01622-4| https://doi.org/10.1038/s41565-024-01773-4| https://doi.org/10.1038/s41565-024-01628-y| https://doi.org/10.1038/s41565-024-01609-1| https://doi.org/10.1038/s41565-024-01675-5| https://doi.org/10.1038/s41565-024-01825-9| https://doi.org/10.1038/s41565-024-01737-8| https://doi.org/10.1038/s41565-024-01824-w| https://doi.org/10.1038/s41565-024-01821-z| https://doi.org/10.1038/s41565-025-01854-y| https://doi.org/10.1038/s41565-024-01842-8| https://doi.org/10.1038/s41565-024-01846-4| https://doi.org/10.1038/s41565-024-01823-x| https://doi.org/10.1038/s41565-025-01941-0| https://doi.org/10.1038/s41565-020-0741-2| https://doi.org/10.1038/s41565-021-00871-x| https://doi.org/10.1038/s41565-021-00973-6| https://doi.org/10.1038/s41565-022-01124-1| https://doi.org/10.1038/s41565-022-01237-7| https://doi.org/10.1038/s41565-023-01350-1| https://doi.org/10.1038/s41565-024-01685-3| https://doi.org/10.1038/s41565-024-01724-z| https://doi.org/10.1038/s41565-019-0609-5| https://doi.org/10.1038/s41565-021-01066-0| https://doi.org/10.1038/s41565-022-01224-y| https://doi.org/10.1038/s41565-023-01539-4| https://doi.org/10.1038/s41565-023-01550-9| https://doi.org/10.1038/s41565-024-01650-0| https://doi.org/10.1038/s41565-024-01670-w| https://doi.org/10.1038/s41565-024-01732-z| https://doi.org/10.1038/s41565-025-01863-x| https://doi.org/10.1038/s41565-025-01885-5| https://doi.org/10.1038/s41565-025-01902-7| https://doi.org/10.1038/s41565-025-01916-1| https://doi.org/10.1038/s41565-025-01903-6| https://doi.org/10.1038/s41565-025-01933-0| https://doi.org/10.1038/s41565-025-01947-8| https://doi.org/10.1038/s41565-020-0668-7| https://doi.org/10.1038/s41565-022-01291-1| https://doi.org/10.1038/s41565-023-01524-x| https://doi.org/10.1038/s41565-021-00949-6| https://doi.org/10.1038/s41565-022-01232-y| https://doi.org/10.1038/s41565-023-01396-1| https://doi.org/10.1038/s41565-022-01285-z| https://doi.org/10.1038/s41565-022-01103-6| https://doi.org/10.1038/s41565-022-01268-0| https://doi.org/10.1038/s41565-023-01423-1| https://doi.org/10.1038/s41565-024-01631-3| https://doi.org/10.1038/s41565-021-00893-5| https://doi.org/10.1038/s41565-021-00955-8| https://doi.org/10.1038/s41565-022-01084-6| https://doi.org/10.1038/s41565-022-01215-z| https://doi.org/10.1038/s41565-024-01850-8| https://doi.org/10.1038/s41565-025-01869-5| https://doi.org/10.1038/s41565-025-01880-w| https://doi.org/10.1038/s41565-025-01875-7| https://doi.org/10.1038/s41565-025-01898-0| https://doi.org/10.1038/s41565-025-01935-y| https://doi.org/10.1038/s41565-025-01945-w| https://doi.org/10.1038/s41565-025-01938-9| https://doi.org/10.1038/s41565-025-01908-1| https://doi.org/10.1038/s41565-025-01948-7| https://doi.org/10.1038/s41565-025-01955-8| https://doi.org/10.1038/s41565-023-01494-0| https://doi.org/10.1038/s41565-024-01836-6| https://doi.org/10.1038/s41565-020-0659-8| https://doi.org/10.1038/s41565-020-0702-9| https://doi.org/10.1038/s41565-020-0764-8| https://doi.org/10.1038/s41565-021-00960-x| https://doi.org/10.1038/s41565-022-01238-6| https://doi.org/10.1038/s41565-023-01322-5| https://doi.org/10.1038/s41565-022-01211-3| https://doi.org/10.1038/s41565-023-01475-3| https://doi.org/10.1038/s41565-023-01448-6| https://doi.org/10.1038/s41565-021-00992-3| https://doi.org/10.1038/s41565-022-01281-3| https://doi.org/10.1038/s41565-024-01688-0| https://doi.org/10.1038/s41565-020-0726-1| https://doi.org/10.1038/s41565-022-01231-z| https://doi.org/10.1038/s41565-023-01440-0| https://doi.org/10.1038/s41565-022-01150-z| https://doi.org/10.1038/s41565-021-01056-2| https://doi.org/10.1038/s41565-022-01271-5| https://doi.org/10.1038/s41565-022-01294-y| https://doi.org/10.1038/s41565-023-01426-y| https://doi.org/10.1038/s41565-023-01414-2| https://doi.org/10.1038/s41565-023-01427-x| https://doi.org/10.1038/s41565-023-01555-4| https://doi.org/10.1038/s41565-020-0772-8| https://doi.org/10.1038/s41565-024-01671-9| https://doi.org/10.1038/s41565-024-01692-4| https://doi.org/10.1038/s41565-024-01686-2| https://doi.org/10.1038/s41565-024-01703-4| https://doi.org/10.1038/s41565-024-01776-1| https://doi.org/10.1038/s41565-024-01806-y| https://doi.org/10.1038/s41565-024-01835-7| https://doi.org/10.1038/s41565-020-0664-y| https://doi.org/10.1038/s41565-020-0709-2| https://doi.org/10.1038/s41565-022-01181-6| https://doi.org/10.1038/s41565-023-01400-8| https://doi.org/10.1038/s41565-023-01434-y| https://doi.org/10.1038/s41565-023-01506-z| https://doi.org/10.1038/s41565-023-01532-x| https://doi.org/10.1038/s41565-023-01552-7| https://doi.org/10.1038/s41565-023-01538-5| https://doi.org/10.1038/s41565-020-0745-y| https://doi.org/10.1038/s41565-022-01184-3| https://doi.org/10.1038/s41565-022-01288-w| https://doi.org/10.1038/s41565-021-00993-2| https://doi.org/10.1038/s41565-021-00984-3| https://doi.org/10.1038/s41565-020-0684-7| https://doi.org/10.1038/s41565-022-01252-8| https://doi.org/10.1038/s41565-023-01463-7</v>
       </c>
-      <c r="C29" t="str">
+      <c r="C29" s="1" t="str">
         <v>Neuromorphic nanoelectronic materials| Chemical reactivity under nanoconfinement| Single-atom Rh/N-doped carbon electrocatalyst for formic acid oxidation| A framework for designing delivery systems| Semiconductor physics of organic–inorganic 2D halide perovskites| Interfacial ferroelectricity in rhombohedral-stacked bilayer transition metal dichalcogenides| A dielectric electrolyte composite with high lithium-ion conductivity for high-voltage solid-state lithium metal batteries| Insights from nanomedicine into chloroquine efficacy against COVID-19| Facet engineering accelerates spillover hydrogenation on highly diluted metal nanocatalysts| Semiconductor moiré materials| Environmental dimensions of the protein corona| Flexoelectronics of centrosymmetric semiconductors| Structural origin of the high-voltage instability of lithium cobalt oxide| Progressive growth of the solid–electrolyte interphase towards the Si anode interior causes capacity fading| Interfacial ferroelectricity in marginally twisted 2D semiconductors| Quantitative tracing of uptake and transport of submicrometre plastics in crop plants using lanthanide chelates as a dual-functional tracer| Synergistic enhancement of electrocatalytic CO2 reduction to C2 oxygenates at nitrogen-doped nanodiamonds/Cu interface| Advancing osmotic power generation by covalent organic framework monolayer| Ferromagnetic single-atom spin catalyst for boosting water splitting| Reversible strain-induced magnetic phase transition in a van der Waals magnet| Imaging strain-localized excitons in nanoscale bubbles of monolayer WSe2 at room temperature| Matrix mechanics and water permeation regulate extracellular vesicle transport| Single-crystalline TiO2 nanoparticles for stable and efficient perovskite modules| Coverage-driven selectivity switch from ethylene to acetate in high-rate CO2/CO electrolysis| Current understanding of biological identity at the nanoscale and future prospects| Improving Li-ion interfacial transport in hybrid solid electrolytes| Quantum-dot-based deterministic photon–emitter interfaces for scalable photonic quantum technology| Continuous cuffless monitoring of arterial blood pressure via graphene bioimpedance tattoos| Biomolecular condensates undergo a generic shear-mediated liquid-to-solid transition| Wurtzite and fluorite ferroelectric materials for electronic memory| Bridging nano- and microscale X-ray tomography for battery research by leveraging artificial intelligence| Nanoscale chemical heterogeneity dominates the optoelectronic response of alloyed perovskite solar cells| Highly anisotropic excitons and multiple phonon bound states in a van der Waals antiferromagnetic insulator| Oligomer nanoparticle release from polylactic acid plastics catalysed by gut enzymes triggers acute inflammation| Unique surface patterns emerging during solidification of liquid metal alloys| Polarization-sensitive optoionic membranes from chiral plasmonic nanoparticles| Quantum-coherent nanoscience| Layer-by-layer anionic diffusion in two-dimensional halide perovskite vertical heterostructures| Layered materials as a platform for quantum technologies| Characterization of nanoparticles-based vaccines for COVID-19| Doping-driven topological polaritons in graphene/α-MoO3 heterostructures| Nanostructured block copolymer muscles| Non-oxidized bare copper nanoparticles with surface excess electrons in air| DNA-framework-based multidimensional molecular classifiers for cancer diagnosis| Identification of nucleoside monophosphates and their epigenetic modifications using an engineered nanopore| Packing-induced selectivity switching in molecular nanoparticle photocatalysts for hydrogen and hydrogen peroxide production| Unravelling the convoluted and dynamic interphasial mechanisms on Li metal anodes| Machine-learning-assisted single-vessel analysis of nanoparticle permeability in tumour vasculatures| Performance descriptors of nanostructured metal catalysts for acetylene hydrochlorination| Combinatorial development of nebulized mRNA delivery formulations for the lungs| Graphene moiré superlattices with giant quantum nonlinearity of chiral Bloch electrons| Kinetic and energetic insights into the dissipative non-equilibrium operation of an autonomous light-powered supramolecular pump| Excitons in mesoscopically reconstructed moiré heterostructures| Operando characterization and regulation of metal dissolution and redeposition dynamics near battery electrode surface| Proximal tubules eliminate endocytosed gold nanoparticles through an organelle-extrusion-mediated self-renewal mechanism| Structure, folding and flexibility of co-transcriptional RNA origami| Nanoporous graphene-based thin-film microelectrodes for in vivo high-resolution neural recording and stimulation| High-energy all-solid-state lithium batteries enabled by Co-free LiNiO2 cathodes with robust outside-in structures| Multidimensional vision sensors for information processing| Understanding epitaxial growth of two-dimensional materials and their homostructures| High-density transparent graphene arrays for predicting cellular calcium activity at depth from surface potential recordings| A charge-dependent long-ranged force drives tailored assembly of matter in solution| De novo design of pH-responsive self-assembling helical protein filaments| High-entropy non-covalent cyclic peptide glass| Regulation of quantum spin conversions in a single molecular radical| Single-molecule fluorescence multiplexing by multi-parameter spectroscopic detection of nanostructured FRET labels| Integrative catalytic pairs for efficient multi-intermediate catalysis| Giant nanomechanical energy storage capacity in twisted single-walled carbon nanotube ropes| Self-assembly of peptide nanocapsules by a solvent concentration gradient| Tunable topological phases in nanographene-based spin-1/2 alternating-exchange Heisenberg chains| Dipolar wavevector interference induces a polar skyrmion lattice in strained BiFeO3 films| Resolving polarization switching pathways of sliding ferroelectricity in trilayer 3R-MoS2| Nanoscale high-entropy surface engineering promotes selective glycerol electro-oxidation to glycerate at high current density| Homogeneous 2D/3D heterostructured tin halide perovskite photovoltaics| Exciton dressing by extreme nonlinear magnons in a layered semiconductor| Inversion of supramolecular chirality by photo-enhanced secondary nucleation| Birefringence-like spin transport via linearly polarized antiferromagnetic magnons| Time-resolved imaging of three-dimensional nanoscale magnetization dynamics| Observation of inhomogeneous plasmonic field distribution in a nanocavity| Atomic reconstruction in twisted bilayers of transition metal dichalcogenides| De novo design of a nanopore for single-molecule detection that incorporates a β-hairpin peptide| Electrochemical generation of liquid and solid sulfur on two-dimensional layered materials with distinct areal capacities| Foldamer-based ultrapermeable and highly selective artificial water channels that exclude protons| Comprehensive framework for human health risk assessment of nanopesticides| Light-activated interlayer contraction in two-dimensional perovskites for high-efficiency solar cells| Unveiling the full reaction path of the Suzuki–Miyaura cross-coupling in a single-molecule junction| Observation of superdiffusive phonon transport in aligned atomic chains| A wavelength-induced frequency filtering method for fluorescent nanosensors in vivo| Self-regulated underwater phototaxis of a photoresponsive hydrogel-based phototactic vehicle| Anomalous thickness dependence of photoluminescence quantum yield in black phosphorous| Dynamic configurations of metallic atoms in the liquid state for selective propylene synthesis| Emergence of layered nanoscale mesh networks through intrinsic molecular confinement self-assembly| Hyperbolic whispering-gallery phonon polaritons in boron nitride nanotubes| Artificial intelligence assists nanoparticles to enter solid tumours| Electrical switching of ferro-rotational order in nanometre-thick 1T-TaS2 crystals| Pressure tuning of minibands in MoS2/WSe2 heterostructures revealed by moiré phonons| Local-orbital ptychography for ultrahigh-resolution imaging| Submolecular-scale control of phototautomerization| Revealing the degradation pathways of layered Li-rich oxide cathodes| Van der Waals quaternary oxides for tunable low-loss anisotropic polaritonics| Mechanical stimulation and electrophysiological monitoring at subcellular resolution reveals differential mechanosensation of neurons within networks| Superionic fluoride gate dielectrics with low diffusion barrier for two-dimensional electronics| AI–nano-driven surface-enhanced Raman spectroscopy for marketable technologies| Deep subwavelength topological edge state in a hyperbolic medium| Atomically intimate assembly of dual metal–oxide interfaces for tandem conversion of syngas to ethanol| Advanced characterization of confined electrochemical interfaces in electrochemical capacitors| Nanoscopic cross-grain cation homogenization in perovskite solar cells| Momentum tunnelling between nanoscale liquid flows| Ferroelectricity with concomitant Coulomb screening in van der Waals heterostructures| ON–OFF nanopores for optical control of transmembrane ionic communication| Ballistic diffusion fronts in biomolecular condensates| Backbone charge transport in double-stranded DNA| Highly versatile near-infrared emitters based on an atomically defined HgS interlayer embedded into a CdSe/CdS quantum dot| Energy-resolved plasmonic chemistry in individual nanoreactors| Giant magnetochiral anisotropy from quantum-confined surface states of topological insulator nanowires| Relation between interfacial shear and friction force in 2D materials| Every-other-layer dipolar excitons in a spin-valley locked superlattice| Strong chiroptical nonlinearity in coherently stacked boron nitride nanotubes| A quantum sensor for atomic-scale electric and magnetic fields| A highly reflective biogenic photonic material from core–shell birefringent nanoparticles| Random interstratification in hydrated graphene oxide membranes and implications for seawater desalination| Lorentz electron ptychography for imaging magnetic textures beyond the diffraction limit| Asymmetric conducting route and potential redistribution determine the polarization-dependent conductivity in layered ferroelectrics| Nanoscale one-dimensional close packing of interfacial alkali ions driven by water-mediated attraction| Upconversion electroluminescence in 2D semiconductors integrated with plasmonic tunnel junctions| Atomic-force-microscopy-based time-domain two-dimensional infrared nanospectroscopy| Even-integer quantum Hall effect in an oxide caused by a hidden Rashba effect| Size-driven phase evolution in ultrathin relaxor films| Investigating the effect of heterogeneities across the electrode|multiphase polymer electrolyte interfaces in high-potential lithium batteries| Reversible shuffle twinning yields anisotropic tensile superelasticity in ceramic GeSe| Operando X-ray characterization platform to unravel catalyst degradation under accelerated stress testing in CO2 electrolysis| Discovering nanoparticle corona ligands for liver macrophage capture| Supramolecular polymerization through rotation of light-driven molecular motors| Mesoscale dynamics of electrosorbed ions in fast-charging carbon-based nanoporous electrodes| Tailoring topological order and π-conjugation to engineer quasi-metallic polymers| Achieving nanoscale precision using neuromorphic localization microscopy| Honeybee comb-inspired stiffness gradient-amplified catapult for solid particle repellency| Nanoparticle surfactants for kinetically arrested photoactive assemblies to track light-induced electron transfer| Near-unity Raman β-factor of surface-enhanced Raman scattering in a waveguide| Getting to the bottom of transition metal dissolution| DNA double helix, a tiny electromotor| Rapid response through the entrepreneurial capabilities of academic scientists| Non-reciprocal interaction for living matter| Effects of cholesterol on biomolecular corona| Artificial intelligence assists the synthesis of all-natural plastic substitutes| Designing cryo-enzymatic reactions in subzero liquid water by lipidic mesophase nanoconfinement| Charge-order-enhanced capacitance in semiconductor moiré superlattices| Monolayer mosaic heterostructures| Local and global energy barriers for chiral domain walls in synthetic antiferromagnet–ferromagnet lateral junctions| Tracking nonlinear conversion of light in van der Waals waveguides| All-anion electrolyte solutions for high-potential sodium batteries| RNA origami nanotubes push the boundaries of confinement| When relaxor films go ultrathin| Li+(ionophore) nanoclusters engineered aqueous/non-aqueous biphasic electrolyte solutions for high-potential lithium-based batteries| Application-driven design of non-aqueous electrolyte solutions through quantification of interfacial reactions in lithium metal batteries| Unidirectional guided resonance continuum of Dirac bands in WS2 bilayer metasurfaces| Interfacial reaction quantification enables long-cycling lithium metal batteries| Modulation of SARS-CoV-2 spike binding to ACE2 through conformational selection| Electrically reconfigurable heteronuclear dual-atom catalysts| Nanoneedles enable spatiotemporal lipidomics of living tissues| Ferroelectricity and multiferroicity down to the atomic thickness| The challenge of studying interfaces in battery materials| Formic acid oxidation boosted by Rh single atoms| Memristors with alloyed electrodes| Photonic Rashba effect| Stopped-light nanolasing in optical magic-angle graphene| The pull of the MXene vortex| Twisted light gets a splash of colour| Author Correction: Characterization of the structure and chemistry of the solid–electrolyte interface by cryo-EM leads to high-performance solid-state Li-metal batteries| Publisher Correction: Atomically thin optomemristive feedback neurons| Excitons in atomically thin materials flow faster than they fly| Skyrmion birth at the notch| When ions break the law| Perovskites light a path forward| Freezing and melting skyrmions in 2D| Human muscle-like actuation realized with graphene–liquid crystalline elastomer composites| Probing the depths of battery heterogeneity| Understanding interphases at the atomic scale| Nanoplastic versus natural organic matter| Stress testing the bulk photovoltaic effect| Spontaneous assembly of hierarchical phases| Premelting occurs at 2D faults| Voltage enables ferro-rotational domain switching| The sum of symmetries is lower than its parts| Light routing by nanoscale nonlinear interferometry with attosecond control| A self-promoting growth of Na microstructures| Combining two-dimensional infrared spectroscopy with atomic force microscopy| Multiwalled boron nitride nanotubes with a strong nonlinear chiroptical response| New dimensions for fluorescence-based barcoding in complex mixtures| Breaking barriers by interfacial charge transfer| Playing electron ping-pong with the excited states of a single molecule| Unravelling topological states in quantum spin chains| Vacancy-rich β-Li3N solid-state electrolyte| Chemistry under nanoconfinement| A gateway to understanding confined ions| Phonons hushed| Measurement of scale-dependent time-reversal asymmetry in biological systems| A shock-absorbing material made from a mechanosensitive protein| Using single vacancies to build quantum antidots with atomic precision| Nanoturbine driven by flow across a nanopore| Dynamicity of atoms in a liquid metal catalyst enables selective propylene synthesis| Lightly counting membrane proteins in native nanodiscs| Publisher Correction: 2D phase transitions: Freezing and melting skyrmions in 2D| Making a case for moiré semiconductors| Nanopores enable electrohydrodynamical DNA motor| Phosphorus in the flatland| Topological magnetic field textures| Nanometric square skyrmion lattice in a centrosymmetric tetragonal magnet| Giant bulk piezophotovoltaic effect in 3R-MoS2| Dynamic topological domain walls driven by lithium intercalation in graphene</v>
       </c>
-      <c r="D29" t="str">
-        <v>東大</v>
-      </c>
-      <c r="E29" t="str">
-        <v>東北大</v>
-      </c>
-      <c r="F29">
+      <c r="D29" s="1" t="str">
+        <v>東大</v>
+      </c>
+      <c r="E29" s="1" t="str">
+        <v>東北大</v>
+      </c>
+      <c r="F29" s="1" t="str">
+        <v>2021/04/10| 2025/07/23| 2020/01/11| 2024/12/03| 2025/12/24| 2022/02/17| 2023/08/22| 2022/06/14| 2022/09/02| 2025/09/11| 2024/10/06| 2025/06/06| 2022/07/12| 2022/02/23| 2023/07/17| 2020/07/19| 2025/08/17| 2020/09/17| 2022/09/22| 2021/02/23| 2021/05/06| 2023/12/09| 2025/03/08| 2023/10/06| 2022/02/14| 2025/06/11| 2025/01/24| 2022/10/05| 2020/06/29| 2022/07/30| 2022/08/22| 2024/03/01| 2025/11/17| 2024/01/18| 2021/09/02| 2024/10/02| 2022/11/18| 2025/07/21| 2021/10/13| 2020/01/24| 2024/11/27| 2021/06/19| 2023/04/19| 2023/05/01| 2020/10/25| 2025/12/08| 2024/01/05| 2024/11/09| 2023/03/10| 2020/06/05| 2025/04/03| 2021/07/26| 2023/11/09| 2025/10/21| 2020/05/12| 2022/08/10| 2022/03/29| 2022/10/21| 2025/08/08| 2025/05/31| 2023/08/18| 2022/12/11| 2023/12/01| 2020/07/08| 2020/05/13| 2024/05/03| 2020/02/15| 2025/02/10| 2022/06/18| 2023/05/16| 2020/03/07| 2022/07/07| 2020/02/02| 2022/04/26| 2020/01/28| 2022/10/19| 2022/01/26| 2020/01/10| 2025/07/28| 2024/09/03| 2020/07/07| 2023/02/09| 2023/10/31| 2020/02/04| 2022/02/25| 2021/09/09| 2024/12/04| 2023/03/30| 2023/07/18| 2023/12/15| 2021/01/01| 2023/05/14| 2021/01/06| 2025/11/16| 2022/09/05| 2024/05/11| 2020/12/30| 2020/04/30| 2020/08/30| 2020/03/08| 2021/01/18| 2025/04/14| 2023/05/10| 2021/12/21| 2025/02/01| 2021/08/22| 2025/10/07| 2021/08/17| 2020/06/14| 2021/03/27| 2020/08/23| 2020/04/27| 2021/01/02| 2025/08/24| 2024/04/27| 2021/05/30| 2022/04/25| 2024/07/04| 2025/01/05| 2020/02/14| 2025/09/30| 2020/08/10| 2022/08/24| 2025/07/12| 2020/12/03| 2023/07/13| 2023/07/04| 2023/06/25| 2025/02/03| 2021/11/28| 2021/10/19| 2025/04/23| 2024/01/02| 2021/09/30| 2024/05/25| 2024/07/16| 2021/08/01| 2020/01/17| 2020/03/11| 2021/01/23| 2023/02/24| 2020/04/08| 2025/03/15| 2023/08/23| 2025/11/08| 2020/03/17| 2025/09/12| 2023/06/21| 2022/04/10| 2022/09/20| 2021/02/07| 2023/04/26| 2021/07/19| 2024/01/16| 2021/12/11| 2022/06/03| 2024/11/16| 2024/02/07| 2023/06/20| 2022/04/20| 2025/05/08| 2023/01/29| 2020/06/10| 2022/08/02| 2021/03/09| 2021/05/10| 2021/08/02| 2025/10/16| 2024/05/29| 2023/04/22| 2020/09/01| 2025/07/24| 2025/12/27| 2020/04/24| 2025/07/25| 2021/08/31| 2023/06/06| 2023/11/18| 2025/04/04| 2023/11/06| 2024/02/12| 2020/10/31| 2020/03/26| 2025/07/22| 2021/01/22| 2020/01/26| 2023/12/31| 2021/07/07| 2021/03/02| 2022/11/17| 2021/09/13| 2025/01/14| 2023/06/26| 2023/05/19| 2025/09/22| 2022/03/30| 2020/05/04| 2025/07/13| 2024/08/04| 2025/06/28| 2024/02/16| 2022/12/22</v>
+      </c>
+      <c r="G29" s="1" t="str">
         <v>210</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="str">
+      <c r="A30" s="1" t="str">
         <v>5 ポリマー・高分子・有機材料・有機半導体</v>
       </c>
-      <c r="B30" t="str">
+      <c r="B30" s="1" t="str">
         <v>https://doi.org/10.1038/s41565-020-00800-4| https://doi.org/10.1038/s41565-021-00888-2| https://doi.org/10.1038/s41565-020-00781-4| https://doi.org/10.1038/s41565-021-00987-0| https://doi.org/10.1038/s41565-021-00903-6| https://doi.org/10.1038/s41565-022-01107-2| https://doi.org/10.1038/s41565-022-01098-0| https://doi.org/10.1038/s41565-021-00926-z| https://doi.org/10.1038/s41565-020-00843-7| https://doi.org/10.1038/s41565-020-0693-6| https://doi.org/10.1038/s41565-020-0722-5| https://doi.org/10.1038/s41565-022-01110-7| https://doi.org/10.1038/s41565-020-0696-3| https://doi.org/10.1038/s41565-020-00796-x| https://doi.org/10.1038/s41565-021-00998-x| https://doi.org/10.1038/s41565-022-01278-y| https://doi.org/10.1038/s41565-023-01329-y| https://doi.org/10.1038/s41565-022-01112-5| https://doi.org/10.1038/s41565-022-01234-w| https://doi.org/10.1038/s41565-023-01534-9| https://doi.org/10.1038/s41565-022-01133-0| https://doi.org/10.1038/s41565-022-01137-w| https://doi.org/10.1038/s41565-023-01447-7| https://doi.org/10.1038/s41565-022-01099-z| https://doi.org/10.1038/s41565-022-01246-6| https://doi.org/10.1038/s41565-022-01310-1| https://doi.org/10.1038/s41565-023-01416-0| https://doi.org/10.1038/s41565-024-01635-z| https://doi.org/10.1038/s41565-023-01567-0| https://doi.org/10.1038/s41565-023-01565-2| https://doi.org/10.1038/s41565-024-01633-1| https://doi.org/10.1038/s41565-024-01632-2| https://doi.org/10.1038/s41565-024-01707-0| https://doi.org/10.1038/s41565-024-01654-w| https://doi.org/10.1038/s41565-023-01562-5| https://doi.org/10.1038/s41565-025-01860-0| https://doi.org/10.1038/s41565-025-01882-8| https://doi.org/10.1038/s41565-020-0679-4| https://doi.org/10.1038/s41565-019-0632-6| https://doi.org/10.1038/s41565-020-0653-1| https://doi.org/10.1038/s41565-019-0620-x| https://doi.org/10.1038/s41565-020-00807-x| https://doi.org/10.1038/s41565-020-00840-w| https://doi.org/10.1038/s41565-021-00875-7| https://doi.org/10.1038/s41565-020-0755-9| https://doi.org/10.1038/s41565-021-00961-w| https://doi.org/10.1038/s41565-021-00859-7| https://doi.org/10.1038/s41565-021-01021-z| https://doi.org/10.1038/s41565-022-01097-1| https://doi.org/10.1038/s41565-022-01241-x| https://doi.org/10.1038/s41565-023-01418-y| https://doi.org/10.1038/s41565-023-01490-4| https://doi.org/10.1038/s41565-022-01219-9| https://doi.org/10.1038/s41565-023-01545-6| https://doi.org/10.1038/s41565-022-01293-z| https://doi.org/10.1038/s41565-023-01517-w| https://doi.org/10.1038/s41565-023-01530-z| https://doi.org/10.1038/s41565-023-01382-7| https://doi.org/10.1038/s41565-024-01764-5| https://doi.org/10.1038/s41565-024-01823-x| https://doi.org/10.1038/s41565-025-01923-2| https://doi.org/10.1038/s41565-025-01926-z| https://doi.org/10.1038/s41565-021-00879-3| https://doi.org/10.1038/s41565-022-01142-z| https://doi.org/10.1038/s41565-022-01249-3| https://doi.org/10.1038/s41565-020-0762-x| https://doi.org/10.1038/s41565-023-01542-9| https://doi.org/10.1038/s41565-023-01589-8| https://doi.org/10.1038/s41565-024-01653-x| https://doi.org/10.1038/s41565-024-01670-w| https://doi.org/10.1038/s41565-025-01933-0| https://doi.org/10.1038/s41565-020-0668-7| https://doi.org/10.1038/s41565-022-01118-z| https://doi.org/10.1038/s41565-024-01786-z| https://doi.org/10.1038/s41565-021-01012-0| https://doi.org/10.1038/s41565-024-01611-7| https://doi.org/10.1038/s41565-024-01791-2| https://doi.org/10.1038/s41565-024-01631-3| https://doi.org/10.1038/s41565-025-01897-1| https://doi.org/10.1038/s41565-025-01925-0| https://doi.org/10.1038/s41565-025-01936-x| https://doi.org/10.1038/s41565-025-01957-6| https://doi.org/10.1038/s41565-025-01982-5| https://doi.org/10.1038/s41565-022-01155-8| https://doi.org/10.1038/s41565-021-01044-6| https://doi.org/10.1038/s41565-023-01330-5| https://doi.org/10.1038/s41565-024-01647-9| https://doi.org/10.1038/s41565-024-01661-x| https://doi.org/10.1038/s41565-024-01742-x| https://doi.org/10.1038/s41565-024-01808-w| https://doi.org/10.1038/s41565-020-00780-5| https://doi.org/10.1038/s41565-020-00806-y| https://doi.org/10.1038/s41565-022-01143-y| https://doi.org/10.1038/s41565-022-01171-8| https://doi.org/10.1038/s41565-022-01244-8| https://doi.org/10.1038/s41565-023-01499-9| https://doi.org/10.1038/s41565-021-01043-7| https://doi.org/10.1038/s41565-020-0667-8| https://doi.org/10.1038/s41565-021-01056-2| https://doi.org/10.1038/s41565-021-00918-z| https://doi.org/10.1038/s41565-022-01294-y| https://doi.org/10.1038/s41565-023-01345-y| https://doi.org/10.1038/s41565-023-01518-9| https://doi.org/10.1038/s41565-024-01623-3| https://doi.org/10.1038/s41565-024-01671-9| https://doi.org/10.1038/s41565-024-01776-1| https://doi.org/10.1038/s41565-024-01810-2| https://doi.org/10.1038/s41565-022-01128-x| https://doi.org/10.1038/s41565-022-01152-x| https://doi.org/10.1038/s41565-023-01318-1| https://doi.org/10.1038/s41565-023-01461-9| https://doi.org/10.1038/s41565-023-01437-9| https://doi.org/10.1038/s41565-023-01546-5| https://doi.org/10.1038/s41565-020-0767-5| https://doi.org/10.1038/s41565-022-01119-y| https://doi.org/10.1038/s41565-022-01250-w| https://doi.org/10.1038/s41565-021-01035-7| https://doi.org/10.1038/s41565-025-01893-5| https://doi.org/10.1038/s41565-024-01718-x</v>
       </c>
-      <c r="C30" t="str">
+      <c r="C30" s="1" t="str">
         <v>Scalable and hierarchically designed polymer film as a selective thermal emitter for high-performance all-day radiative cooling| Placing nanoplastics in the context of global plastic pollution| A general strategy towards personalized nanovaccines based on fluoropolymers for post-surgical cancer immunotherapy| Subambient daytime radiative cooling textile based on nanoprocessed silk| Bilayer of polyelectrolyte films for spontaneous power generation in air up to an integrated 1,000 V output| A robust all-organic protective layer towards ultrahigh-rate and large-capacity Li metal anodes| A nanovaccine for antigen self-presentation and immunosuppression reversal as a personalized cancer immunotherapy strategy| Viscoelastic surface electrode arrays to interface with viscoelastic tissues| Immunostimulant hydrogel for the inhibition of malignant glioma relapse post-resection| Zwitterionic micelles efficiently deliver oral insulin without opening tight junctions| Power-efficient neural network with artificial dendrites| Advancing osmotic power generation by covalent organic framework monolayer| Subretinally injected semiconducting polymer nanoparticles rescue vision in a rat model of retinal dystrophy| Biomimetic artificial water channel membranes for enhanced desalination| Steam disinfection releases micro(nano)plastics from silicone-rubber baby teats as examined by optical photothermal infrared microspectroscopy| Highly stable, antiviral, antibacterial cotton textiles via molecular engineering| Oligomer nanoparticle release from polylactic acid plastics catalysed by gut enzymes triggers acute inflammation| A high-performance hydroxide exchange membrane enabled by Cu2+-crosslinked chitosan| Hierarchically self-assembled homochiral helical microtoroids| Microplastic fragmentation by rotifers in aquatic ecosystems contributes to global nanoplastic pollution| Nanostructured block copolymer muscles| NAD(H)-loaded nanoparticles for efficient sepsis therapy via modulating immune and vascular homeostasis| Investigation of the enhanced antitumour potency of STING agonist after conjugation to polymer nanoparticles| Light-driven microdrones| Tough-interface-enabled stretchable electronics using non-stretchable polymer semiconductors and conductors| Molecular bottlebrush prodrugs as mono- and triplex combination therapies for multiple myeloma| Controlled delivery of a neurotransmitter–agonist conjugate for functional recovery after severe spinal cord injury| Machine intelligence-accelerated discovery of all-natural plastic substitutes| 3D nanofabricated soft microrobots with super-compliant picoforce springs as onboard sensors and actuators| Oral nanotherapeutic formulation of insulin with reduced episodes of hypoglycaemia| Quantum interference enhances the performance of single-molecule transistors| Regulation of quantum spin conversions in a single molecular radical| Photovoltaic nanocells for high-performance large-scale-integrated organic phototransistors| Self-assembly of peptide nanocapsules by a solvent concentration gradient| Nanoreceptors promote mutant p53 protein degradation by mimicking selective autophagy receptors| A bioinspired polymeric membrane-enclosed insulin crystal achieves long-term, self-regulated drug release for type 1 diabetes therapy| Inversion of supramolecular chirality by photo-enhanced secondary nucleation| Programmable multistage drug delivery to lymph nodes| Neuronal firing modulation by a membrane-targeted photoswitch| Charge disproportionate molecular redox for discrete memristive and memcapacitive switching| Single-molecule tautomerization tracking through space- and time-resolved fluorescence spectroscopy| Highly nonlinear transport across single-molecule junctions via destructive quantum interference| Self-assembly of aramid amphiphiles into ultra-stable nanoribbons and aligned nanoribbon threads| A highly homogeneous polymer composed of tetrahedron-like monomers for high-isotropy expansion microscopy| A rewritable optical storage medium of silk proteins using near-field nano-optics| Surface-fill hydrogel attenuates the oncogenic signature of complex anatomical surface cancer in a single application| Complete mapping of the thermoelectric properties of a single molecule| A light-fuelled nanoratchet shifts a coupled chemical equilibrium| Pumping between phases with a pulsed-fuel molecular ratchet| Feedback-controlled hydrogels with homeostatic oscillations and dissipative signal transduction| Environmentally stable and stretchable polymer electronics enabled by surface-tethered nanostructured molecular-level protection| Self-regulated underwater phototaxis of a photoresponsive hydrogel-based phototactic vehicle| Atmospheric emission of nanoplastics from sewer pipe repairs| 3D spatiotemporally scalable in vivo neural probes based on fluorinated elastomers| Emergence of layered nanoscale mesh networks through intrinsic molecular confinement self-assembly| Ultrahigh-printing-speed photoresists for additive manufacturing| Interlinking spatial dimensions and kinetic processes in dissipative materials to create synthetic systems with lifelike functionality| Artificial intelligence assists nanoparticles to enter solid tumours| An orally administered glucose-responsive polymeric complex for high-efficiency and safe delivery of insulin in mice and pigs| ON–OFF nanopores for optical control of transmembrane ionic communication| Nanofabrication of silk microneedles for high-throughput micronutrient delivery and continuous sap monitoring in plants| Balancing stealth and targeting to improve nanomedicine efficacy| Conformable hierarchically engineered polymeric micromeshes enabling combinatorial therapies in brain tumours| Wavelike electronic energy transfer in donor–acceptor molecular systems through quantum coherence| Selective targeting of visceral adiposity by polycation nanomedicine| When plants and plastic interact| Reversible optical data storage below the diffraction limit| In vivo real-time positron emission particle tracking (PEPT) and single particle PET| Nanoscale doping of polymeric semiconductors with confined electrochemical ion implantation| Atomic-force-microscopy-based time-domain two-dimensional infrared nanospectroscopy| Supramolecular polymerization through rotation of light-driven molecular motors| Tailoring topological order and π-conjugation to engineer quasi-metallic polymers| Harnessing blue energy with COF membranes| Rapid precision targeting of nanoparticles to lung via caveolae pumping system in endothelium| A roadmap for molecular thermoelectricity| Wireless real-time monitoring of oestradiol in sweat| Controlled single-electron transfer enables time-resolved excited-state spectroscopy of individual molecules| Artificial intelligence assists the synthesis of all-natural plastic substitutes| Asymmetric photooxidation of glycerol to hydroxypyruvic acid over Rb–Ir catalytic pairs on poly(heptazine imides)| Better the devil you know than the devil you don’t — PEG challenges in nanomedicine| Molecular motors in action at interfaces| Polymeric stabilization at the gas–liquid interface for durable solar hydrogen production from plastic waste| An information ratchet improves selectivity in molecular recognition under non-equilibrium conditions| Author Correction: Steam disinfection releases micro(nano)plastics from silicone-rubber baby teats as examined by optical photothermal infrared microspectroscopy| Questions about the role of P3HT nanoparticles in retinal stimulation| Oligomer nanoparticle release from a biodegradable plastic triggers acute gut inflammation| Author Correction: 3D nanofabricated soft microrobots with super-compliant picoforce springs as onboard sensors and actuators| Strain-resilient porous conductors with fewer nanofillers from in situ phase separation| Exerting pulling forces in fluids by directional disassembly of microcrystalline fibres| Silk protein connecting water and nanofabrication| Welcome to the single-molecule electret device| Publisher Correction: Multifunctional nanocoated membranes for high-rate electrothermal desalination of hypersaline waters| 24 Hours of Toulouse| Sub-molecular diagnostics of coherent energy transfer| Improving treatment of solid cancers by nanoconjugate-mediated immune conversion of tumour cells| Author Correction: Molecular bottlebrush prodrugs as mono- and triplex combination therapies for multiple myeloma| Reply to: Questions about the role of P3HT nanoparticles in retinal stimulation| Topological engineering for metallic polymers| Nanoplastic versus natural organic matter| Questions on nanoplastic| Spontaneous assembly of hierarchical phases| Sensitive photoresists for high-speed two­-photon lithography| Photo-induced chemistry with sub-molecular resolution| Combining two-dimensional infrared spectroscopy with atomic force microscopy| Playing electron ping-pong with the excited states of a single molecule| Organic radio-afterglow nanoprobes for cancer theranostics| Author Correction: Floating solid-state thin films with dynamic structural colour| Measuring how effectively light drives a molecular pump| Imaging pathology goes nanoscale with a low-cost strategy| Author Correction: Charge disproportionate molecular redox for discrete memristive and memcapacitive switching| Photomechanical molecular machines enable control of cell signalling| Soft high-density neural probes enable stable single-neuron recordings| Enter plastic| Author Correction: A light-fuelled nanoratchet shifts a coupled chemical equilibrium| Targeting and reducing abdominal fat using polycations| Molecules that swim, or not| Nanoscale C–H/C–D mapping of organic materials using electron spectroscopy| Embedding core–shell photovoltaic nanocells in organic optoelectronics</v>
       </c>
-      <c r="D30" t="str">
-        <v>東大</v>
-      </c>
-      <c r="E30" t="str">
-        <v>東北大</v>
-      </c>
-      <c r="F30">
+      <c r="D30" s="1" t="str">
+        <v>東大</v>
+      </c>
+      <c r="E30" s="1" t="str">
+        <v>東北大</v>
+      </c>
+      <c r="F30" s="1" t="str">
+        <v>2025/07/04| 2020/04/16| 2024/05/27| 2024/07/27| 2022/05/16| 2022/06/03| 2024/07/26| 2023/09/03| 2024/01/01| 2023/02/14| 2021/07/27| 2020/09/17| 2025/09/13| 2021/04/30| 2020/03/21| 2024/04/08| 2024/01/18| 2021/02/23| 2020/12/12| 2025/04/19| 2021/06/19| 2023/07/30| 2021/06/28| 2025/10/11| 2022/12/10| 2025/05/07| 2023/08/06| 2021/03/17| 2022/04/16| 2023/08/20| 2020/06/27| 2020/05/13| 2020/04/30| 2022/06/18| 2024/06/17| 2024/08/04| 2022/10/19| 2021/11/19| 2021/08/15| 2024/08/13| 2024/08/27| 2024/03/14| 2024/11/08| 2022/09/05| 2021/09/09| 2021/02/27| 2024/09/04| 2024/06/29| 2021/12/03| 2023/05/21| 2023/10/24| 2023/07/18| 2020/05/01| 2021/07/07| 2023/05/14| 2020/07/04| 2025/08/25| 2025/11/16| 2020/11/29| 2021/03/27| 2024/11/24| 2020/11/23| 2020/10/01| 2020/02/02| 2021/08/27| 2023/01/31| 2023/09/12| 2023/12/28| 2021/09/28| 2025/07/12| 2021/10/19| 2024/01/02| 2022/05/06| 2025/05/11| 2023/11/11| 2020/01/09| 2023/10/22| 2025/03/15| 2024/04/25| 2020/02/21| 2024/10/19| 2021/01/15| 2021/03/05| 2020/10/03| 2024/01/07| 2022/02/05| 2023/10/19| 2023/10/06| 2023/03/25| 2023/09/20| 2022/12/07| 2021/06/03| 2022/08/06| 2021/10/08| 2023/08/01| 2024/06/07| 2024/01/03| 2025/09/24| 2025/07/24| 2020/04/24| 2023/06/15| 2023/01/07| 2021/01/29| 2023/11/06| 2025/07/22| 2025/01/12| 2023/02/24| 2021/09/24| 2020/07/28| 2022/01/04| 2021/11/12| 2022/04/22| 2023/09/08| 2025/02/23| 2023/04/02| 2021/05/31| 2020/09/28| 2022/02/23</v>
+      </c>
+      <c r="G30" s="1" t="str">
         <v>119</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="str">
+      <c r="A31" s="1" t="str">
         <v>3 構造・組成・形態・界面・表面特性</v>
       </c>
-      <c r="B31" t="str">
+      <c r="B31" s="1" t="str">
         <v>https://doi.org/10.1038/s41565-021-00886-4| https://doi.org/10.1038/s41565-020-0713-6| https://doi.org/10.1038/s41565-021-00963-8| https://doi.org/10.1038/s41565-020-0657-x| https://doi.org/10.1038/s41565-019-0618-4| https://doi.org/10.1038/s41565-021-01059-z| https://doi.org/10.1038/s41565-019-0604-x| https://doi.org/10.1038/s41565-020-0708-3| https://doi.org/10.1038/s41565-021-00855-x| https://doi.org/10.1038/s41565-020-00845-5| https://doi.org/10.1038/s41565-019-0622-8| https://doi.org/10.1038/s41565-022-01135-y| https://doi.org/10.1038/s41565-021-00998-x| https://doi.org/10.1038/s41565-021-00933-0| https://doi.org/10.1038/s41565-020-0731-4| https://doi.org/10.1038/s41565-020-00802-2| https://doi.org/10.1038/s41565-022-01148-7| https://doi.org/10.1038/s41565-022-01214-0| https://doi.org/10.1038/s41565-020-00835-7| https://doi.org/10.1038/s41565-021-00848-w| https://doi.org/10.1038/s41565-021-01070-4| https://doi.org/10.1038/s41565-022-01106-3| https://doi.org/10.1038/s41565-022-01283-1| https://doi.org/10.1038/s41565-022-01116-1| https://doi.org/10.1038/s41565-022-01273-3| https://doi.org/10.1038/s41565-023-01321-6| https://doi.org/10.1038/s41565-023-01456-6| https://doi.org/10.1038/s41565-023-01588-9| https://doi.org/10.1038/s41565-023-01326-1| https://doi.org/10.1038/s41565-023-01579-w| https://doi.org/10.1038/s41565-024-01704-3| https://doi.org/10.1038/s41565-024-01642-0| https://doi.org/10.1038/s41565-024-01626-0| https://doi.org/10.1038/s41565-024-01654-w| https://doi.org/10.1038/s41565-024-01696-0| https://doi.org/10.1038/s41565-024-01845-5| https://doi.org/10.1038/s41565-025-01879-3| https://doi.org/10.1038/s41565-024-01830-y| https://doi.org/10.1038/s41565-025-01882-8| https://doi.org/10.1038/s41565-020-0749-7| https://doi.org/10.1038/s41565-020-0743-0| https://doi.org/10.1038/s41565-020-00798-9| https://doi.org/10.1038/s41565-020-0633-5| https://doi.org/10.1038/s41565-020-0682-9| https://doi.org/10.1038/s41565-020-0716-3| https://doi.org/10.1038/s41565-019-0624-6| https://doi.org/10.1038/s41565-021-00915-2| https://doi.org/10.1038/s41565-021-00942-z| https://doi.org/10.1038/s41565-020-0747-9| https://doi.org/10.1038/s41565-020-0695-4| https://doi.org/10.1038/s41565-022-01272-4| https://doi.org/10.1038/s41565-022-01230-0| https://doi.org/10.1038/s41565-022-01200-6| https://doi.org/10.1038/s41565-023-01337-y| https://doi.org/10.1038/s41565-022-01219-9| https://doi.org/10.1038/s41565-021-01034-8| https://doi.org/10.1038/s41565-022-01293-z| https://doi.org/10.1038/s41565-022-01306-x| https://doi.org/10.1038/s41565-023-01484-2| https://doi.org/10.1038/s41565-023-01316-3| https://doi.org/10.1038/s41565-023-01355-w| https://doi.org/10.1038/s41565-023-01443-x| https://doi.org/10.1038/s41565-023-01485-1| https://doi.org/10.1038/s41565-023-01466-4| https://doi.org/10.1038/s41565-023-01487-z| https://doi.org/10.1038/s41565-024-01741-y| https://doi.org/10.1038/s41565-024-01734-x| https://doi.org/10.1038/s41565-024-01821-z| https://doi.org/10.1038/s41565-025-01854-y| https://doi.org/10.1038/s41565-025-01917-0| https://doi.org/10.1038/s41565-025-01941-0| https://doi.org/10.1038/s41565-021-00945-w| https://doi.org/10.1038/s41565-020-00805-z| https://doi.org/10.1038/s41565-020-0687-4| https://doi.org/10.1038/s41565-022-01237-7| https://doi.org/10.1038/s41565-022-01209-x| https://doi.org/10.1038/s41565-023-01397-0| https://doi.org/10.1038/s41565-023-01578-x| https://doi.org/10.1038/s41565-021-01066-0| https://doi.org/10.1038/s41565-022-01126-z| https://doi.org/10.1038/s41565-023-01550-9| https://doi.org/10.1038/s41565-025-01863-x| https://doi.org/10.1038/s41565-025-01865-9| https://doi.org/10.1038/s41565-025-01885-5| https://doi.org/10.1038/s41565-025-01933-0| https://doi.org/10.1038/s41565-025-01950-z| https://doi.org/10.1038/s41565-021-00934-z| https://doi.org/10.1038/s41565-021-01007-x| https://doi.org/10.1038/s41565-023-01536-7| https://doi.org/10.1038/s41565-024-01792-1| https://doi.org/10.1038/s41565-020-0740-3| https://doi.org/10.1038/s41565-022-01255-5| https://doi.org/10.1038/s41565-022-01084-6| https://doi.org/10.1038/s41565-025-01880-w| https://doi.org/10.1038/s41565-025-01936-x| https://doi.org/10.1038/s41565-025-01908-1| https://doi.org/10.1038/s41565-025-01959-4| https://doi.org/10.1038/s41565-025-01971-8| https://doi.org/10.1038/s41565-025-01986-1| https://doi.org/10.1038/s41565-023-01494-0| https://doi.org/10.1038/s41565-024-01836-6| https://doi.org/10.1038/s41565-020-0763-9| https://doi.org/10.1038/s41565-021-01067-z| https://doi.org/10.1038/s41565-022-01238-6| https://doi.org/10.1038/s41565-022-01211-3| https://doi.org/10.1038/s41565-021-00877-5| https://doi.org/10.1038/s41565-023-01433-z| https://doi.org/10.1038/s41565-023-01582-1| https://doi.org/10.1038/s41565-021-01024-w| https://doi.org/10.1038/s41565-021-01047-3| https://doi.org/10.1038/s41565-024-01659-5| https://doi.org/10.1038/s41565-024-01742-x| https://doi.org/10.1038/s41565-020-00821-z| https://doi.org/10.1038/s41565-019-0625-5| https://doi.org/10.1038/s41565-023-01440-0| https://doi.org/10.1038/s41565-022-01150-z| https://doi.org/10.1038/s41565-021-01056-2| https://doi.org/10.1038/s41565-023-01365-8| https://doi.org/10.1038/s41565-023-01426-y| https://doi.org/10.1038/s41565-023-01427-x| https://doi.org/10.1038/s41565-020-0645-1| https://doi.org/10.1038/s41565-020-0705-6| https://doi.org/10.1038/s41565-020-0772-8| https://doi.org/10.1038/s41565-020-0721-6| https://doi.org/10.1038/s41565-024-01630-4| https://doi.org/10.1038/s41565-024-01835-7| https://doi.org/10.1038/s41565-020-0640-6| https://doi.org/10.1038/s41565-020-0709-2| https://doi.org/10.1038/s41565-022-01167-4| https://doi.org/10.1038/s41565-021-00968-3| https://doi.org/10.1038/s41565-023-01425-z| https://doi.org/10.1038/s41565-023-01465-5| https://doi.org/10.1038/s41565-020-00815-x| https://doi.org/10.1038/s41565-022-01156-7| https://doi.org/10.1038/s41565-022-01275-1| https://doi.org/10.1038/s41565-021-01035-7| https://doi.org/10.1038/s41565-020-0684-7| https://doi.org/10.1038/s41565-023-01445-9| https://doi.org/10.1038/s41565-023-01349-8| https://doi.org/10.1038/s41565-021-00953-w| https://doi.org/10.1038/s41565-023-01463-7| https://doi.org/10.1038/s41565-024-01735-w</v>
       </c>
-      <c r="C31" t="str">
+      <c r="C31" s="1" t="str">
         <v>Nanoplastics are neither microplastics nor engineered nanoparticles| Towards single-species selectivity of membranes with subnanometre pores| Epitaxial growth of wafer-scale molybdenum disulfide semiconductor single crystals on sapphire| From nanoscale interface characterization to sustainable energy storage using all-solid-state batteries| Real-time mass spectrometric characterization of the solid–electrolyte interphase of a lithium-ion battery| Interfacial ferroelectricity in rhombohedral-stacked bilayer transition metal dichalcogenides| Lithium whisker growth and stress generation in an in situ atomic force microscope–environmental transmission electron microscope set-up| Visualization of moiré superlattices| Structural origin of the high-voltage instability of lithium cobalt oxide| Identification of LiH and nanocrystalline LiF in the solid–electrolyte interphase of lithium metal anodes| Large-area single-crystal AB-bilayer and ABA-trilayer graphene grown on a Cu/Ni(111) foil| High-yield solar-driven atmospheric water harvesting of metal–organic-framework-derived nanoporous carbon with fast-diffusion water channels| Steam disinfection releases micro(nano)plastics from silicone-rubber baby teats as examined by optical photothermal infrared microspectroscopy| Molecular size-dependent subcontinuum solvent permeation and ultrafast nanofiltration across nanoporous graphene membranes| Biomolecular condensates undergo a generic shear-mediated liquid-to-solid transition| Deterministic fabrication of arbitrary vertical heterostructures of two-dimensional Ruddlesden–Popper halide perovskites| Characterization of the structure and chemistry of the solid–electrolyte interface by cryo-EM leads to high-performance solid-state Li-metal batteries| Oxycarbide MXenes and MAX phases identification using monoatomic layer-by-layer analysis with ultralow-energy secondary-ion mass spectrometry| Unique surface patterns emerging during solidification of liquid metal alloys| Layer-by-layer anionic diffusion in two-dimensional halide perovskite vertical heterostructures| Non-oxidized bare copper nanoparticles with surface excess electrons in air| Endoepitaxial growth of monolayer mosaic heterostructures| Multi-micron crisscross structures grown from DNA-origami slats| Highly shape- and size-tunable membrane nanopores made with DNA| Unravelling the convoluted and dynamic interphasial mechanisms on Li metal anodes| Structure, folding and flexibility of co-transcriptional RNA origami| Step engineering for nucleation and domain orientation control in WSe2 epitaxy on c-plane sapphire| Spin coating epitaxial heterodimensional tin perovskites for light-emitting diodes| Epitaxial substitution of metal iodides for low-temperature growth of two-dimensional metal chalcogenides| Controllable van der Waals gaps by water adsorption| Understanding epitaxial growth of two-dimensional materials and their homostructures| Engineering interfacial polarization switching in van der Waals multilayers| Complete miscibility of immiscible elements at the nanometre scale| Self-assembly of peptide nanocapsules by a solvent concentration gradient| Regioselective epitaxial growth of metallic heterostructures| Dipolar wavevector interference induces a polar skyrmion lattice in strained BiFeO3 films| Genetic encoding and expression of RNA origami cytoskeletons in synthetic cells| Measuring age-dependent viscoelasticity of organelles, cells and organisms with time-shared optical tweezer microrheology| Inversion of supramolecular chirality by photo-enhanced secondary nucleation| Visualizing the growth process of sodium microstructures in sodium batteries by in-situ 23Na MRI and NMR spectroscopy| Layer-controlled single-crystalline graphene film with stacking order via Cu–Si alloy formation| Structural and dynamics analysis of intrinsically disordered proteins by high-speed atomic force microscopy| Graphene-assisted spontaneous relaxation towards dislocation-free heteroepitaxy| Atomic reconstruction in twisted bilayers of transition metal dichalcogenides| Melting of a skyrmion lattice to a skyrmion liquid via a hexatic phase| Electrochemical generation of liquid and solid sulfur on two-dimensional layered materials with distinct areal capacities| Foldamer-based ultrapermeable and highly selective artificial water channels that exclude protons| Heteroepitaxial van der Waals semiconductor superlattices| Structured nanoscale metallic glass fibres with extreme aspect ratios| Direct observation of water-mediated single-proton transport between hBN surface defects| Hydrogen-substituted graphdiyne-assisted ultrafast sparking synthesis of metastable nanomaterials| Continuous epitaxy of single-crystal graphite films by isothermal carbon diffusion through nickel| Graphene nanopattern as a universal epitaxy platform for single-crystal membrane production and defect reduction| Beyond steric selectivity of ions using ångström-scale capillaries| Atmospheric emission of nanoplastics from sewer pipe repairs| Soft-lock drawing of super-aligned carbon nanotube bundles for nanometre electrical contacts| Emergence of layered nanoscale mesh networks through intrinsic molecular confinement self-assembly| Photocarrier-induced persistent structural polarization in soft-lattice lead halide perovskites| Microwave synthesis of molybdenene from MoS2| Imaging solid–electrolyte interphase dynamics using operando reflection interference microscopy| Unravelling crystal growth of nanoparticles| DNA-origami-directed virus capsid polymorphism| Single-molecule analysis of DNA base-stacking energetics using patterned DNA nanostructures| Three-dimensional operando optical imaging of particle and electrolyte heterogeneities inside Li-ion batteries| Site-directed placement of three-dimensional DNA origami| Deterministic switching of perpendicular magnetization by out-of-plane anti-damping magnon torques| Microstrain screening towards defect-less layered transition metal oxide cathodes| Advanced characterization of confined electrochemical interfaces in electrochemical capacitors| Nanoscopic cross-grain cation homogenization in perovskite solar cells| Dynamic nanodomains dictate macroscopic properties in lead halide perovskites| Ballistic diffusion fronts in biomolecular condensates| Furcated droplet motility on crystalline surfaces| Micelle-enabled self-assembly of porous and monolithic carbon membranes for bioelectronic interfaces| Nanoscale nights of COVID-19| Relation between interfacial shear and friction force in 2D materials| A reverse-selective ion exchange membrane for the selective transport of phosphates via an outer-sphere complexation–diffusion pathway| Engineering metal oxidation using epitaxial strain| How nanoparticles are counted in global regulatory nanomaterial definitions| Random interstratification in hydrated graphene oxide membranes and implications for seawater desalination| Atomic-scale friction between single-asperity contacts unveiled through in situ transmission electron microscopy| Nanoscale one-dimensional close packing of interfacial alkali ions driven by water-mediated attraction| Size-driven phase evolution in ultrathin relaxor films| Intermediate-range solvent templating and counterion behaviour at charged carbon nanotube surfaces| Investigating the effect of heterogeneities across the electrode|multiphase polymer electrolyte interfaces in high-potential lithium batteries| Supramolecular polymerization through rotation of light-driven molecular motors| Ferroelastic writing of crystal directions in oxide thin films| Preventing colour fading in artworks with graphene veils| Large-area nanoengineering of graphene corrugations for visible-frequency graphene plasmons| Single-molecule force stability of the SARS-CoV-2–ACE2 interface in variants-of-concern| On-demand nanoengineering of in-plane ferroelectric topologies| Golden touch of the nanoparticles| Nanoscale subparticle imaging of vibrational dynamics using dark-field ultrafast transmission electron microscopy| Monolayer mosaic heterostructures| RNA origami nanotubes push the boundaries of confinement| Molecular motors in action at interfaces| Modulation of SARS-CoV-2 spike binding to ACE2 through conformational selection| Colloidal chemistry in tin perovskite| Strain-induced crumpling of graphene oxide lamellas to achieve fast and selective transport of H2 and CO2| Engineering disorder with monolayer amorphous carbon growth| Ferroelectricity and multiferroicity down to the atomic thickness| The challenge of studying interfaces in battery materials| Relation between microscopic interactions and macroscopic properties in ferroics| Reply to: Random interstratification in hydrated graphene oxide membranes and implications for seawater desalination| The pull of the MXene vortex| Author Correction: Characterization of the structure and chemistry of the solid–electrolyte interface by cryo-EM leads to high-performance solid-state Li-metal batteries| Author Correction: From nanoscale interface characterization to sustainable energy storage using all-solid-state batteries| 2D materials, a matter for chemists| Precise control of van der Waals gaps| 2D materials grow large| All the lonely atoms, where do they all belong?| Gentler, nanoscale ion implantation| Exerting pulling forces in fluids by directional disassembly of microcrystalline fibres| Author Correction: Layer-controlled single-crystalline graphene film with stacking order via Cu–Si alloy formation| Supercool sulfur| Probing the depths of battery heterogeneity| Understanding interphases at the atomic scale| Nanoplastic versus natural organic matter| Author Correction: Multi-micron crisscross structures grown from DNA-origami slats| Premelting occurs at 2D faults| The sum of symmetries is lower than its parts| Nanotechnology in a shrimp eye’s view| Ordering with a twist| A self-promoting growth of Na microstructures| In recognition of aberration-corrected TEM| Fabrication of mechanochromic gallium nanostructures by capillary interactions| Vacancy-rich β-Li3N solid-state electrolyte| Author Correction: Artificial water channels enable fast and selective water permeation through water-wire networks| A gateway to understanding confined ions| Publisher Correction: Atomic-scale friction between single-asperity contacts unveiled through in situ transmission electron microscopy| Netting proteins, one at a time| Making versatile electron microscope tools| Direct synthesis of MoS2 films on flexible substrates at low temperature| Off balance and over the edge| Author Correction: Monolayer mosaic heterostructures| A Kavli prize at the interface| Molecules that swim, or not| Nanometric square skyrmion lattice in a centrosymmetric tetragonal magnet| Oriented lateral growth of two-dimensional materials on c-plane sapphire| Real-space observation of a two-dimensional electron gas at semiconductor heterointerfaces| Complete structural characterization of single carbon nanotubes by Rayleigh scattering circular dichroism| Dynamic topological domain walls driven by lithium intercalation in graphene| High-resolution three-dimensional imaging of topological textures in nanoscale single-diamond networks</v>
       </c>
-      <c r="D31" t="str">
-        <v>東大</v>
-      </c>
-      <c r="E31" t="str">
-        <v>東北大</v>
-      </c>
-      <c r="F31">
+      <c r="D31" s="1" t="str">
+        <v>東大</v>
+      </c>
+      <c r="E31" s="1" t="str">
+        <v>東北大</v>
+      </c>
+      <c r="F31" s="1" t="str">
+        <v>2021/10/09| 2023/01/29| 2022/10/12| 2022/12/23| 2023/06/07| 2022/02/17| 2020/10/04| 2022/09/07| 2022/07/12| 2023/03/27| 2023/03/05| 2023/03/31| 2020/03/21| 2024/08/16| 2020/06/29| 2025/07/21| 2024/11/26| 2022/07/30| 2021/09/02| 2023/04/19| 2024/12/16| 2020/09/10| 2025/08/20| 2024/01/05| 2022/08/10| 2022/11/29| 2023/09/06| 2021/03/19| 2022/01/22| 2025/05/31| 2024/03/05| 2021/08/27| 2022/06/18| 2023/04/22| 2020/03/07| 2025/03/27| 2021/04/20| 2022/10/19| 2023/07/20| 2023/10/09| 2024/06/09| 2025/04/24| 2024/09/03| 2020/08/23| 2023/02/09| 2023/10/31| 2020/01/02| 2025/12/27| 2020/12/05| 2023/10/29| 2020/04/02| 2020/05/11| 2024/05/19| 2020/05/01| 2023/04/01| 2023/05/14| 2022/09/09| 2020/01/05| 2024/10/07| 2022/02/25| 2023/12/31| 2021/08/30| 2024/02/02| 2022/08/22| 2022/02/07| 2023/12/09| 2021/08/22| 2025/10/07| 2025/01/30| 2025/06/10| 2022/04/03| 2020/04/21| 2025/08/24| 2022/09/30| 2025/07/31| 2022/05/27| 2025/01/05| 2023/09/27| 2020/08/10| 2023/07/13| 2025/09/01| 2023/07/04| 2021/10/19| 2024/10/26| 2020/09/02| 2023/05/10| 2020/12/24| 2023/05/09| 2020/03/17| 2022/09/20| 2024/10/19| 2024/01/16| 2020/12/12| 2023/04/03| 2024/04/22| 2024/11/16| 2024/02/07| 2023/07/30| 2022/06/13| 2020/06/10| 2021/03/09| 2024/10/28| 2020/05/13| 2024/11/25| 2022/07/17| 2022/07/15| 2023/03/25| 2024/08/20| 2022/11/25| 2020/09/01| 2025/07/24| 2023/03/10| 2025/07/25| 2023/06/06| 2020/10/03| 2025/04/04| 2024/01/25| 2021/10/01| 2020/01/26| 2024/01/10| 2021/07/07| 2024/07/29| 2025/03/03| 2025/06/18| 2020/12/27| 2022/06/15| 2023/10/26| 2023/03/17| 2021/05/31| 2024/02/16| 2020/05/10| 2020/06/11| 2022/10/29| 2022/12/22| 2023/05/07</v>
+      </c>
+      <c r="G31" s="1" t="str">
         <v>142</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="str">
+      <c r="A32" s="1" t="str">
         <v>11 セラミックス・酸化物・誘電体・光学材料</v>
       </c>
-      <c r="B32" t="str">
+      <c r="B32" s="1" t="str">
         <v>https://doi.org/10.1038/s41565-020-0768-4| https://doi.org/10.1038/s41565-021-00881-9| https://doi.org/10.1038/s41565-021-00986-1| https://doi.org/10.1038/s41565-021-00895-3| https://doi.org/10.1038/s41565-020-00787-y| https://doi.org/10.1038/s41565-022-01074-8| https://doi.org/10.1038/s41565-023-01408-0| https://doi.org/10.1038/s41565-020-0773-7| https://doi.org/10.1038/s41565-023-01361-y| https://doi.org/10.1038/s41565-021-00874-8| https://doi.org/10.1038/s41565-022-01297-9| https://doi.org/10.1038/s41565-023-01360-z| https://doi.org/10.1038/s41565-023-01325-2| https://doi.org/10.1038/s41565-023-01319-0| https://doi.org/10.1038/s41565-023-01525-w| https://doi.org/10.1038/s41565-023-01557-2| https://doi.org/10.1038/s41565-023-01597-8| https://doi.org/10.1038/s41565-024-01763-6| https://doi.org/10.1038/s41565-024-01845-5| https://doi.org/10.1038/s41565-021-00967-4| https://doi.org/10.1038/s41565-019-0630-8| https://doi.org/10.1038/s41565-020-00841-9| https://doi.org/10.1038/s41565-021-00941-0| https://doi.org/10.1038/s41565-022-01267-1| https://doi.org/10.1038/s41565-022-01264-4| https://doi.org/10.1038/s41565-022-01197-y| https://doi.org/10.1038/s41565-023-01320-7| https://doi.org/10.1038/s41565-023-01515-y| https://doi.org/10.1038/s41565-023-01380-9| https://doi.org/10.1038/s41565-023-01595-w| https://doi.org/10.1038/s41565-024-01767-2| https://doi.org/10.1038/s41565-024-01698-y| https://doi.org/10.1038/s41565-024-01756-5| https://doi.org/10.1038/s41565-024-01728-9| https://doi.org/10.1038/s41565-024-01780-5| https://doi.org/10.1038/s41565-024-01737-8| https://doi.org/10.1038/s41565-025-01887-3| https://doi.org/10.1038/s41565-019-0611-y| https://doi.org/10.1038/s41565-021-00945-w| https://doi.org/10.1038/s41565-021-00868-6| https://doi.org/10.1038/s41565-022-01178-1| https://doi.org/10.1038/s41565-023-01549-2| https://doi.org/10.1038/s41565-020-00838-4| https://doi.org/10.1038/s41565-023-01574-1| https://doi.org/10.1038/s41565-024-01746-7| https://doi.org/10.1038/s41565-024-01732-z| https://doi.org/10.1038/s41565-025-01863-x| https://doi.org/10.1038/s41565-025-01902-7| https://doi.org/10.1038/s41565-025-01919-y| https://doi.org/10.1038/s41565-025-01950-z| https://doi.org/10.1038/s41565-020-0671-z| https://doi.org/10.1038/s41565-021-01064-2| https://doi.org/10.1038/s41565-022-01114-3| https://doi.org/10.1038/s41565-024-01719-w| https://doi.org/10.1038/s41565-022-01205-1| https://doi.org/10.1038/s41565-023-01334-1| https://doi.org/10.1038/s41565-023-01464-6| https://doi.org/10.1038/s41565-025-01873-9| https://doi.org/10.1038/s41565-025-01876-6| https://doi.org/10.1038/s41565-025-01875-7| https://doi.org/10.1038/s41565-025-01912-5| https://doi.org/10.1038/s41565-025-01896-2| https://doi.org/10.1038/s41565-025-01927-y| https://doi.org/10.1038/s41565-020-0763-9| https://doi.org/10.1038/s41565-020-0764-8| https://doi.org/10.1038/s41565-023-01590-1| https://doi.org/10.1038/s41565-024-01605-5| https://doi.org/10.1038/s41565-024-01782-3| https://doi.org/10.1038/s41565-020-0735-0| https://doi.org/10.1038/s41565-022-01271-5| https://doi.org/10.1038/s41565-022-01242-w| https://doi.org/10.1038/s41565-023-01414-2| https://doi.org/10.1038/s41565-024-01640-2| https://doi.org/10.1038/s41565-024-01700-7| https://doi.org/10.1038/s41565-024-01752-9| https://doi.org/10.1038/s41565-024-01703-4| https://doi.org/10.1038/s41565-024-01806-y| https://doi.org/10.1038/s41565-022-01233-x| https://doi.org/10.1038/s41565-023-01351-0| https://doi.org/10.1038/s41565-023-01458-4| https://doi.org/10.1038/s41565-023-01526-9| https://doi.org/10.1038/s41565-022-01207-z| https://doi.org/10.1038/s41565-023-01349-8</v>
       </c>
-      <c r="C32" t="str">
+      <c r="C32" s="1" t="str">
         <v>Complex-amplitude metasurface-based orbital angular momentum holography in momentum space| Electrically reconfigurable non-volatile metasurface using low-loss optical phase-change material| Torsion strained iridium oxide for efficient acidic water oxidation in proton exchange membrane electrolyzers| Nanophotonics for light detection and ranging technology| All-solid-state spatial light modulator with independent phase and amplitude control for three-dimensional LiDAR applications| Photocatalytic degradation of steroid hormone micropollutants by TiO2-coated polyethersulfone membranes in a continuous flow-through process| Exceptional points and non-Hermitian photonics at the nanoscale| Dirac-vortex topological cavities| Wurtzite and fluorite ferroelectric materials for electronic memory| Energy-efficient Mott activation neuron for full-hardware implementation of neural networks| Solving integral equations in free space with inverse-designed ultrathin optical metagratings| Leaky-wave metasurfaces for integrated photonics| Single-photon detection using high-temperature superconductors| Coloured vortex beams with incoherent white light illumination| Adapted poling to break the nonlinear efficiency limit in nanophotonic lithium niobate waveguides| Multichannel meta-imagers for accelerating machine vision| Ultrahigh-quality-factor micro- and nanomechanical resonators using dissipation dilution| Local control of polarization and geometric phase in thermal metasurfaces| Dipolar wavevector interference induces a polar skyrmion lattice in strained BiFeO3 films| Non-local metasurfaces for spectrally decoupled wavefront manipulation and eye tracking| Synthetic gauge fields for phonon transport in a nano-optomechanical system| Fano-resonant ultrathin film optical coatings| Microscopic metavehicles powered and steered by embedded optical metasurfaces| Transparent sunlight-activated antifogging metamaterials| Real-space nanoimaging of hyperbolic shear polaritons in a monoclinic crystal| Metasurface optofluidics for dynamic control of light fields| Far-field coupling between moiré photonic lattices| An integrated microwave-to-optics interface for scalable quantum computing| Spin-dependent properties of optical modes guided by adiabatic trapping potentials in photonic Dirac metasurfaces| Local-orbital ptychography for ultrahigh-resolution imaging| Continuous spectral and coupling-strength encoding with dual-gradient metasurfaces| Selective and quasi-continuous switching of ferroelectric Chern insulator devices for neuromorphic computing| Durable and programmable ultrafast nanophotonic matrix of spectral pixels| Electrically tunable space–time metasurfaces at optical frequencies| Printing of 3D photonic crystals in titania with complete bandgap across the visible spectrum| Deep subwavelength topological edge state in a hyperbolic medium| Single-layer waveguide displays using achromatic metagratings for full-colour augmented reality| Metasurface-integrated vertical cavity surface-emitting lasers for programmable directional lasing emissions| Furcated droplet motility on crystalline surfaces| Nanomechanical topological insulators with an auxiliary orbital degree of freedom| Engineering nanoscale hypersonic phonon transport| All-optical free-space routing of upconverted light by metasurfaces via nonlinear interferometry| An atomic Boltzmann machine capable of self-adaption| Large second-order susceptibility from a quantized indium tin oxide monolayer| Coupled nanopores for single-molecule detection| Even-integer quantum Hall effect in an oxide caused by a hidden Rashba effect| Size-driven phase evolution in ultrathin relaxor films| Reversible shuffle twinning yields anisotropic tensile superelasticity in ceramic GeSe| Ferroelectric topologies in BaTiO3 nanomembranes for light field manipulation| Ferroelastic writing of crystal directions in oxide thin films| Bose–Einstein condensation of quasiparticles by rapid cooling| Membranes that filter and destroy pollutants| Exceptional points in lossy media lead to deep polynomial wave penetration with spatially uniform power loss| Real-time dynamics of angular momentum transfer from spin to acoustic chiral phonon in oxide heterostructures| Nanophotonic control of thermal emission under extreme temperatures in air| Superconducting single-photon detectors get hot| A flexible feature for the long-reigning thermoelectric champion bismuth telluride| Nanometre-resolution three-dimensional tomographic and vectorial near-field imaging in dielectric optical resonators| Kramers versus Kramers makes a stable qubit| When relaxor films go ultrathin| Ceramic crystals stretch like metal| Achromatic metagratings for compact near-eye displays| Twisted light with a designed polar topology| Relation between microscopic interactions and macroscopic properties in ferroics| Photonic Rashba effect| An optical imager that can compute| Author Correction: Reversible optical data storage below the diffraction limit| 3D printed photonic crystals with a complete bandgap in the visible range| Publisher Correction: Alloying conducting channels for reliable neuromorphic computing| Stress testing the bulk photovoltaic effect| Scalable optical levitation| Voltage enables ferro-rotational domain switching| Light manipulation with sub-pixel wavefront control using gap phases| Topologically protected edge states for neuromorphic computing| Author Correction: All-optical free-space routing of upconverted light by metasurfaces via nonlinear interferometry| Breaking barriers by interfacial charge transfer| Unravelling topological states in quantum spin chains| Near-unity Raman beta factor underpins high sensitivity| Memory augmented factorization for holographic representation| Observation of ultrafast ballistic orbital transport| High optical nonlinear efficiency achieved by compensating for nanoscale inhomogeneity| Developing nanophotonic structures that are stable in air and at high temperatures| Real-space observation of a two-dimensional electron gas at semiconductor heterointerfaces</v>
       </c>
-      <c r="D32" t="str">
-        <v>東大</v>
-      </c>
-      <c r="E32" t="str">
-        <v/>
-      </c>
-      <c r="F32">
+      <c r="D32" s="1" t="str">
+        <v>東大</v>
+      </c>
+      <c r="E32" s="1" t="str">
+        <v/>
+      </c>
+      <c r="F32" s="1" t="str">
+        <v>2022/01/25| 2020/08/27| 2020/10/14| 2022/10/22| 2024/07/04| 2024/12/19| 2020/06/21| 2025/12/27| 2022/07/30| 2022/10/25| 2023/06/29| 2024/05/01| 2023/04/28| 2020/10/03| 2025/10/12| 2023/10/20| 2021/11/03| 2023/06/05| 2020/03/07| 2021/04/07| 2022/11/27| 2025/01/26| 2024/09/19| 2021/02/06| 2022/04/08| 2024/01/14| 2022/04/19| 2021/07/02| 2020/07/26| 2020/12/30| 2022/03/26| 2024/04/21| 2025/03/05| 2024/02/01| 2020/08/25| 2021/12/21| 2020/02/29| 2020/09/18| 2025/06/10| 2023/08/28| 2020/01/06| 2020/04/29| 2025/10/22| 2021/10/09| 2020/11/19| 2020/12/03| 2023/07/13| 2023/06/25| 2024/10/26| 2025/06/21| 2021/01/07| 2024/12/04| 2023/01/20| 2021/10/27| 2023/04/24| 2022/09/14| 2023/12/02| 2025/11/02| 2023/05/10| 2024/02/25| 2025/01/23| 2024/06/19| 2023/07/30| 2025/05/08| 2025/12/08| 2020/08/28| 2021/09/15| 2020/11/17| 2024/05/30| 2021/08/31| 2021/04/27| 2024/11/14| 2021/09/16| 2020/03/26| 2021/01/22| 2023/09/28| 2020/09/22| 2022/08/17| 2024/02/06| 2022/01/20| 2020/06/11</v>
+      </c>
+      <c r="G32" s="1" t="str">
         <v>83</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="str">
+      <c r="A33" s="1" t="str">
         <v>2 磁気・スピン・フォトニック・集積化デバイス</v>
       </c>
-      <c r="B33" t="str">
+      <c r="B33" s="1" t="str">
         <v>https://doi.org/10.1038/s41565-020-0768-4| https://doi.org/10.1038/s41565-021-00936-x| https://doi.org/10.1038/s41565-020-00826-8| https://doi.org/10.1038/s41565-021-01052-6| https://doi.org/10.1038/s41565-021-01014-y| https://doi.org/10.1038/s41565-021-00954-9| https://doi.org/10.1038/s41565-023-01408-0| https://doi.org/10.1038/s41565-020-0773-7| https://doi.org/10.1038/s41565-021-00885-5| https://doi.org/10.1038/s41565-022-01091-7| https://doi.org/10.1038/s41565-022-01185-2| https://doi.org/10.1038/s41565-023-01332-3| https://doi.org/10.1038/s41565-024-01632-2| https://doi.org/10.1038/s41565-024-01606-4| https://doi.org/10.1038/s41565-024-01827-7| https://doi.org/10.1038/s41565-020-0703-8| https://doi.org/10.1038/s41565-021-00887-3| https://doi.org/10.1038/s41565-020-0649-x| https://doi.org/10.1038/s41565-021-00967-4| https://doi.org/10.1038/s41565-021-01031-x| https://doi.org/10.1038/s41565-021-00940-1| https://doi.org/10.1038/s41565-021-01027-7| https://doi.org/10.1038/s41565-022-01264-4| https://doi.org/10.1038/s41565-021-01038-4| https://doi.org/10.1038/s41565-022-01144-x| https://doi.org/10.1038/s41565-022-01204-2| https://doi.org/10.1038/s41565-022-01279-x| https://doi.org/10.1038/s41565-022-01213-1| https://doi.org/10.1038/s41565-022-01311-0| https://doi.org/10.1038/s41565-023-01386-3| https://doi.org/10.1038/s41565-022-01312-z| https://doi.org/10.1038/s41565-023-01380-9| https://doi.org/10.1038/s41565-024-01737-8| https://doi.org/10.1038/s41565-024-01819-7| https://doi.org/10.1038/s41565-025-01859-7| https://doi.org/10.1038/s41565-025-01872-w| https://doi.org/10.1038/s41565-025-01887-3| https://doi.org/10.1038/s41565-019-0606-8| https://doi.org/10.1038/s41565-019-0611-y| https://doi.org/10.1038/s41565-019-0629-1| https://doi.org/10.1038/s41565-022-01124-1| https://doi.org/10.1038/s41565-023-01406-2| https://doi.org/10.1038/s41565-024-01775-2| https://doi.org/10.1038/s41565-020-0670-0| https://doi.org/10.1038/s41565-021-00851-1| https://doi.org/10.1038/s41565-021-00983-4| https://doi.org/10.1038/s41565-020-00814-y| https://doi.org/10.1038/s41565-023-01327-0| https://doi.org/10.1038/s41565-023-01492-2| https://doi.org/10.1038/s41565-023-01500-5| https://doi.org/10.1038/s41565-024-01719-w| https://doi.org/10.1038/s41565-024-01697-z| https://doi.org/10.1038/s41565-019-0631-7| https://doi.org/10.1038/s41565-022-01262-6| https://doi.org/10.1038/s41565-024-01666-6| https://doi.org/10.1038/s41565-024-01762-7| https://doi.org/10.1038/s41565-022-01088-2| https://doi.org/10.1038/s41565-022-01215-z| https://doi.org/10.1038/s41565-025-01884-6| https://doi.org/10.1038/s41565-025-01896-2| https://doi.org/10.1038/s41565-024-01662-w| https://doi.org/10.1038/s41565-020-0764-8| https://doi.org/10.1038/s41565-021-00853-z| https://doi.org/10.1038/s41565-021-00850-2| https://doi.org/10.1038/s41565-021-00992-3| https://doi.org/10.1038/s41565-024-01750-x| https://doi.org/10.1038/s41565-020-0726-1| https://doi.org/10.1038/s41565-021-00985-2| https://doi.org/10.1038/s41565-022-01206-0| https://doi.org/10.1038/s41565-024-01731-0| https://doi.org/10.1038/s41565-024-01789-w| https://doi.org/10.1038/s41565-020-00774-3| https://doi.org/10.1038/s41565-022-01301-2| https://doi.org/10.1038/s41565-023-01430-2| https://doi.org/10.1038/s41565-023-01504-1| https://doi.org/10.1038/s41565-020-0745-y| https://doi.org/10.1038/s41565-022-01251-9| https://doi.org/10.1038/s41565-021-00984-3| https://doi.org/10.1038/s41565-019-0616-6| https://doi.org/10.1038/s41565-020-0661-1| https://doi.org/10.1038/s41565-023-01417-z| https://doi.org/10.1038/s41565-024-01820-0</v>
       </c>
-      <c r="C33" t="str">
+      <c r="C33" s="1" t="str">
         <v>Complex-amplitude metasurface-based orbital angular momentum holography in momentum space| Van der Waals heterostructures for spintronics and opto-spintronics| Symmetry-dependent field-free switching of perpendicular magnetization| Reversible strain-induced magnetic phase transition in a van der Waals magnet| Coexisting ferromagnetic–antiferromagnetic state in twisted bilayer CrI3| Magnetic skyrmion bundles and their current-driven dynamics| Exceptional points and non-Hermitian photonics at the nanoscale| Dirac-vortex topological cavities| Imaging the Néel vector switching in the monolayer antiferromagnet MnPSe3 with strain-controlled Ising order| Reconfigurable training and reservoir computing in an artificial spin-vortex ice via spin-wave fingerprinting| Doping-driven topological polaritons in graphene/α-MoO3 heterostructures| Strong coupling between a photon and a hole spin in silicon| Regulation of quantum spin conversions in a single molecular radical| Engineering colloidal semiconductor nanocrystals for quantum information processing| Ferrimagnetic Heusler tunnel junctions with fast spin-transfer torque switching enabled by low magnetization| Birefringence-like spin transport via linearly polarized antiferromagnetic magnons| Electrical and thermal generation of spin currents by magnetic bilayer graphene| Time-resolved imaging of three-dimensional nanoscale magnetization dynamics| Non-local metasurfaces for spectrally decoupled wavefront manipulation and eye tracking| Unveiling the three-dimensional magnetic texture of skyrmion tubes| Voltage control of ferrimagnetic order and voltage-assisted writing of ferrimagnetic spin textures| Complex free-space magnetic field textures induced by three-dimensional magnetic nanostructures| Real-space nanoimaging of hyperbolic shear polaritons in a monoclinic crystal| Fully integrated parity–time-symmetric electronics| Current-driven dynamics and ratchet effect of skyrmion bubbles in a ferrimagnetic insulator| Spin-correlated exciton–polaritons in a van der Waals magnet| Room-temperature coherent optical manipulation of hole spins in solution-grown perovskite quantum dots| Three-dimensional racetrack memory devices designed from freestanding magnetic heterostructures| Three-dimensional topological magnetic monopoles and their interactions in a ferromagnetic meta-lattice| Antiferromagnetic half-skyrmions electrically generated and controlled at room temperature| Electrically switchable anisotropic polariton propagation in a ferroelectric van der Waals semiconductor| Spin-dependent properties of optical modes guided by adiabatic trapping potentials in photonic Dirac metasurfaces| Deep subwavelength topological edge state in a hyperbolic medium| Anomalous Hall spin current drives self-generated spin–orbit torque in a ferromagnet| Spin-torque-driven gigahertz magnetization dynamics in the non-collinear antiferromagnet Mn3Sn| Switching on and off the spin polarization of the conduction band in antiferromagnetic bilayer transistors| Single-layer waveguide displays using achromatic metagratings for full-colour augmented reality| Regioselective magnetization in semiconducting nanorods| Metasurface-integrated vertical cavity surface-emitting lasers for programmable directional lasing emissions| Layer-resolved magnetic proximity effect in van der Waals heterostructures| Giant magnetochiral anisotropy from quantum-confined surface states of topological insulator nanowires| Coherent magnon-induced domain-wall motion in a magnetic insulator channel| Construction of topological quantum magnets from atomic spins on surfaces| Probing nanoscale fluctuation of ferromagnetic meta-atoms with a stochastic photonic spin Hall effect| The race for the ideal single-photon source is on| Superluminal-like magnon propagation in antiferromagnetic NiO at nanoscale distances| Inducing micromechanical motion by optical excitation of a single quantum dot| Giant orbital magnetic moments and paramagnetic shift in artificial relativistic atoms and molecules| Giant spin Hall effect in AB-stacked MoTe2/WSe2 bilayers| Exploring the host range for genetic transfer of magnetic organelle biosynthesis| Real-time dynamics of angular momentum transfer from spin to acoustic chiral phonon in oxide heterostructures| Very-large-scale integrated high quality factor nanoantenna pixels| Surface spin magnetism controls the polarized exciton emission from CdSe nanoplatelets| A closer look at spin textures| Toroidic phase transitions in a direct-kagome artificial spin ice| Topotaxial mutual-exchange growth of magnetic Zintl Eu3In2As4 nanowires with axion insulator classification| Spin ice devices from nanomagnets| Local and global energy barriers for chiral domain walls in synthetic antiferromagnet–ferromagnet lateral junctions| Electrically activating two-dimensional antiferromagnets| Achromatic metagratings for compact near-eye displays| Actively tunable laser action in GeSn nanomechanical oscillators| Photonic Rashba effect| Topological vortices for sound and light| Magnetization switching through symmetry| Skyrmion birth at the notch| Revisiting hyperbolic materials for deep-subwavelength polaritonics| Freezing and melting skyrmions in 2D| Author Correction: Magnetic skyrmion bundles and their current-driven dynamics| The racetrack breaks free from the substrate| A molecular spin on a scanning probe tip enables quantum sensing at the atomic scale| Energy-efficient magnetization manipulation using picosecond current pulses| Publisher Correction: Melting of a skyrmion lattice to a skyrmion liquid via a hexatic phase| Author Correction: Graphene unlocks dispersion of topological polaritons| Coherent spin waves driving domain wall motion in insulators| Publisher Correction: Time-domain observation of ballistic orbital-angular-momentum currents with giant relaxation length in tungsten| Publisher Correction: 2D phase transitions: Freezing and melting skyrmions in 2D| Using quantum dots to produce a CMOS terahertz camera and polarimeter| Topological magnetic field textures| Controlled transformation of skyrmions and antiskyrmions in a non-centrosymmetric magnet| Creation of magnetic skyrmions by surface acoustic waves| Berry curvature dipole generation and helicity-to-spin conversion at symmetry-mismatched heterointerfaces| Antiferromagnetic spin-torque diode effect in a kagome Weyl semimetal</v>
       </c>
-      <c r="D33" t="str">
-        <v>東大</v>
-      </c>
-      <c r="E33" t="str">
-        <v>東北大</v>
-      </c>
-      <c r="F33">
+      <c r="D33" s="1" t="str">
+        <v>東大</v>
+      </c>
+      <c r="E33" s="1" t="str">
+        <v>東北大</v>
+      </c>
+      <c r="F33" s="1" t="str">
+        <v>2022/01/25| 2023/11/20| 2024/12/30| 2021/02/23| 2020/12/18| 2023/05/02| 2020/06/21| 2025/12/27| 2022/06/01| 2024/09/09| 2024/11/27| 2021/11/17| 2020/05/13| 2024/03/13| 2023/11/24| 2022/01/26| 2021/09/04| 2020/01/10| 2021/04/07| 2024/09/03| 2025/10/11| 2021/09/21| 2022/04/08| 2025/01/31| 2022/10/22| 2025/08/11| 2024/05/09| 2023/01/19| 2021/03/30| 2025/09/13| 2023/07/29| 2020/07/26| 2021/12/21| 2020/01/21| 2022/06/13| 2020/02/29| 2020/07/31| 2020/09/18| 2023/12/04| 2021/01/02| 2024/05/21| 2020/01/14| 2023/07/16| 2025/03/01| 2022/12/23| 2023/01/26| 2023/10/26| 2020/09/03| 2022/01/12| 2023/01/20| 2023/02/25| 2025/11/23| 2022/09/06| 2023/09/11| 2020/09/24| 2023/09/20| 2025/09/12| 2023/09/27| 2025/01/23| 2024/05/03| 2025/05/08| 2022/04/21| 2022/09/22| 2021/08/02| 2020/04/29| 2023/04/22| 2022/03/12| 2025/12/18| 2023/06/08| 2021/08/23| 2023/09/03| 2024/10/28| 2023/03/03| 2022/10/06| 2022/03/30| 2022/02/01| 2025/06/28| 2022/04/29| 2021/06/05| 2023/11/16| 2020/02/04</v>
+      </c>
+      <c r="G33" s="1" t="str">
         <v>82</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="str">
+      <c r="A34" s="1" t="str">
         <v>5 電気・電子・磁気・光学的測定</v>
       </c>
-      <c r="B34" t="str">
+      <c r="B34" s="1" t="str">
         <v>https://doi.org/10.1038/s41565-021-01045-5| https://doi.org/10.1038/s41565-021-00881-9| https://doi.org/10.1038/s41565-019-0605-9| https://doi.org/10.1038/s41565-021-01068-y| https://doi.org/10.1038/s41565-021-00919-y| https://doi.org/10.1038/s41565-022-01130-3| https://doi.org/10.1038/s41565-020-00839-3| https://doi.org/10.1038/s41565-020-00828-6| https://doi.org/10.1038/s41565-022-01091-7| https://doi.org/10.1038/s41565-021-00958-5| https://doi.org/10.1038/s41565-023-01446-8| https://doi.org/10.1038/s41565-023-01441-z| https://doi.org/10.1038/s41565-022-01131-2| https://doi.org/10.1038/s41565-023-01325-2| https://doi.org/10.1038/s41565-022-01282-2| https://doi.org/10.1038/s41565-024-01702-5| https://doi.org/10.1038/s41565-025-01858-8| https://doi.org/10.1038/s41565-025-01888-2| https://doi.org/10.1038/s41565-020-0712-7| https://doi.org/10.1038/s41565-020-0672-y| https://doi.org/10.1038/s41565-021-00887-3| https://doi.org/10.1038/s41565-020-00783-2| https://doi.org/10.1038/s41565-020-0644-2| https://doi.org/10.1038/s41565-021-00916-1| https://doi.org/10.1038/s41565-019-0632-6| https://doi.org/10.1038/s41565-020-0653-1| https://doi.org/10.1038/s41565-019-0630-8| https://doi.org/10.1038/s41565-021-01033-9| https://doi.org/10.1038/s41565-021-00940-1| https://doi.org/10.1038/s41565-020-0685-6| https://doi.org/10.1038/s41565-020-00816-w| https://doi.org/10.1038/s41565-020-0729-y| https://doi.org/10.1038/s41565-020-0755-9| https://doi.org/10.1038/s41565-022-01259-1| https://doi.org/10.1038/s41565-021-00977-2| https://doi.org/10.1038/s41565-022-01196-z| https://doi.org/10.1038/s41565-022-01115-2| https://doi.org/10.1038/s41565-021-00859-7| https://doi.org/10.1038/s41565-021-00847-x| https://doi.org/10.1038/s41565-022-01073-9| https://doi.org/10.1038/s41565-022-01092-6| https://doi.org/10.1038/s41565-022-01279-x| https://doi.org/10.1038/s41565-022-01111-6| https://doi.org/10.1038/s41565-022-01254-6| https://doi.org/10.1038/s41565-022-01280-4| https://doi.org/10.1038/s41565-023-01558-1| https://doi.org/10.1038/s41565-023-01451-x| https://doi.org/10.1038/s41565-022-01314-x| https://doi.org/10.1038/s41565-023-01421-3| https://doi.org/10.1038/s41565-022-01312-z| https://doi.org/10.1038/s41565-023-01368-5| https://doi.org/10.1038/s41565-023-01583-0| https://doi.org/10.1038/s41565-023-01591-0| https://doi.org/10.1038/s41565-024-01728-9| https://doi.org/10.1038/s41565-024-01729-8| https://doi.org/10.1038/s41565-024-01741-y| https://doi.org/10.1038/s41565-024-01817-9| https://doi.org/10.1038/s41565-025-01859-7| https://doi.org/10.1038/s41565-025-01872-w| https://doi.org/10.1038/s41565-019-0607-7| https://doi.org/10.1038/s41565-021-00846-y| https://doi.org/10.1038/s41565-020-0769-3| https://doi.org/10.1038/s41565-022-01208-y| https://doi.org/10.1038/s41565-022-01248-4| https://doi.org/10.1038/s41565-022-01217-x| https://doi.org/10.1038/s41565-023-01369-4| https://doi.org/10.1038/s41565-023-01370-x| https://doi.org/10.1038/s41565-023-01410-6| https://doi.org/10.1038/s41565-024-01711-4| https://doi.org/10.1038/s41565-023-01596-9| https://doi.org/10.1038/s41565-020-0670-0| https://doi.org/10.1038/s41565-021-00983-4| https://doi.org/10.1038/s41565-021-00970-9| https://doi.org/10.1038/s41565-021-01016-w| https://doi.org/10.1038/s41565-021-00925-0| https://doi.org/10.1038/s41565-022-01235-9| https://doi.org/10.1038/s41565-024-01717-y| https://doi.org/10.1038/s41565-024-01730-1| https://doi.org/10.1038/s41565-020-0671-z| https://doi.org/10.1038/s41565-022-01223-z| https://doi.org/10.1038/s41565-024-01719-w| https://doi.org/10.1038/s41565-021-00957-6| https://doi.org/10.1038/s41565-021-01015-x| https://doi.org/10.1038/s41565-023-01442-y| https://doi.org/10.1038/s41565-023-01489-x| https://doi.org/10.1038/s41565-023-01536-7| https://doi.org/10.1038/s41565-024-01788-x| https://doi.org/10.1038/s41565-024-01795-y| https://doi.org/10.1038/s41565-019-0631-7| https://doi.org/10.1038/s41565-021-00894-4| https://doi.org/10.1038/s41565-025-01884-6| https://doi.org/10.1038/s41565-025-01876-6| https://doi.org/10.1038/s41565-025-01891-7| https://doi.org/10.1038/s41565-025-01913-4| https://doi.org/10.1038/s41565-025-01963-8| https://doi.org/10.1038/s41565-025-01978-1| https://doi.org/10.1038/s41565-023-01566-1| https://doi.org/10.1038/s41565-024-01713-2| https://doi.org/10.1038/s41565-024-01770-7| https://doi.org/10.1038/s41565-023-01317-2| https://doi.org/10.1038/s41565-023-01424-0| https://doi.org/10.1038/s41565-024-01751-w| https://doi.org/10.1038/s41565-020-0637-1| https://doi.org/10.1038/s41565-020-0681-x| https://doi.org/10.1038/s41565-020-00780-5| https://doi.org/10.1038/s41565-023-01477-1| https://doi.org/10.1038/s41565-021-01043-7| https://doi.org/10.1038/s41565-022-01190-5| https://doi.org/10.1038/s41565-022-01298-8| https://doi.org/10.1038/s41565-022-01192-3| https://doi.org/10.1038/s41565-020-0698-1| https://doi.org/10.1038/s41565-024-01604-6| https://doi.org/10.1038/s41565-024-01712-3| https://doi.org/10.1038/s41565-024-01752-9| https://doi.org/10.1038/s41565-024-01755-6| https://doi.org/10.1038/s41565-024-01789-w| https://doi.org/10.1038/s41565-024-01840-w| https://doi.org/10.1038/s41565-020-0638-0| https://doi.org/10.1038/s41565-020-0691-8| https://doi.org/10.1038/s41565-021-01069-x| https://doi.org/10.1038/s41565-021-00863-x| https://doi.org/10.1038/s41565-021-01029-5| https://doi.org/10.1038/s41565-023-01504-1| https://doi.org/10.1038/s41565-020-00801-3| https://doi.org/10.1038/s41565-022-01117-0| https://doi.org/10.1038/s41565-022-01201-5| https://doi.org/10.1038/s41565-021-00930-3| https://doi.org/10.1038/s41565-021-01057-1| https://doi.org/10.1038/s41565-023-01470-8| https://doi.org/10.1038/s41565-024-01820-0</v>
       </c>
-      <c r="C34" t="str">
+      <c r="C34" s="1" t="str">
         <v>Advances and applications of nanophotonic biosensors| Electrically reconfigurable non-volatile metasurface using low-loss optical phase-change material| Ultrasensitive torque detection with an optically levitated nanorotor| Excitons in semiconductor moiré superlattices| Flexo-photovoltaic effect in MoS2| In vivo non-invasive confocal fluorescence imaging beyond 1,700 nm using superconducting nanowire single-photon detectors| Room-temperature nonlinear Hall effect and wireless radiofrequency rectification in Weyl semimetal TaIrTe4| Ultrafast hole spin qubit with gate-tunable spin–orbit switch functionality| Reconfigurable training and reservoir computing in an artificial spin-vortex ice via spin-wave fingerprinting| Nanopore electro-osmotic trap for the label-free study of single proteins and their conformations| Reconfigurable, non-volatile neuromorphic photovoltaics| Minimizing heat generation in quantum dot light-emitting diodes by increasing quasi-Fermi-level splitting| Quantum interference of identical photons from remote GaAs quantum dots| Single-photon detection using high-temperature superconductors| Ideal refocusing of an optically active spin qubit under strong hyperfine interactions| Charge-transfer contacts for the measurement of correlated states in high-mobility WSe2| Spin–valley protected Kramers pair in bilayer graphene| Time-resolved sensing of electromagnetic fields with single-electron interferometry| A Josephson phase battery| Optomechanical detection of vibration modes of a single bacterium| Electrical and thermal generation of spin currents by magnetic bilayer graphene| Tuning layer-hybridized moiré excitons by the quantum-confined Stark effect| Filtering the photoluminescence spectra of atomically thin semiconductors with graphene| Electrical tuning of optically active interlayer excitons in bilayer MoS2| Neuronal firing modulation by a membrane-targeted photoswitch| Charge disproportionate molecular redox for discrete memristive and memcapacitive switching| Synthetic gauge fields for phonon transport in a nano-optomechanical system| Quantum-dot single-photon sources for the quantum internet| Voltage control of ferrimagnetic order and voltage-assisted writing of ferrimagnetic spin textures| Odd- and even-denominator fractional quantum Hall states in monolayer WSe2| Coherent control of individual electron spins in a two-dimensional quantum dot array| Probing photoelectrical transport in lead halide perovskites with van der Waals contacts| A rewritable optical storage medium of silk proteins using near-field nano-optics| Tunable interaction between excitons and hybridized magnons in a layered semiconductor| Tuning of the Berry curvature in 2D perovskite polaritons| A single hole spin with enhanced coherence in natural silicon| Electric control of valley polarization in monolayer WSe2 using a van der Waals magnet| Complete mapping of the thermoelectric properties of a single molecule| A tunable Fabry–Pérot quantum Hall interferometer in graphene| Nonlinear polariton parametric emission in an atomically thin semiconductor based microcavity| Tailoring solid-state single-photon sources with stimulated emissions| Room-temperature coherent optical manipulation of hole spins in solution-grown perovskite quantum dots| Probing nanomotion of single bacteria with graphene drums| Scalable all-optical cold damping of levitated nanoparticles| On-demand electrical control of spin qubits| Spontaneous broken-symmetry insulator and metals in tetralayer rhombohedral graphene| Sign reversal of the Josephson inductance magnetochiral anisotropy and 0–π-like transitions in supercurrent diodes| Electrical switching of a bistable moiré superconductor| Electron cooling in graphene enhanced by plasmon–hydron resonance| Electrically switchable anisotropic polariton propagation in a ferroelectric van der Waals semiconductor| Coulomb-mediated antibunching of an electron pair surfing on sound| Third-order exceptional line in a nitrogen-vacancy spin system| Carbon-nanotube field-effect transistors for resolving single-molecule aptamer–ligand binding kinetics| Electrically tunable space–time metasurfaces at optical frequencies| Single-cavity loss-enabled nanometrology| Deterministic switching of perpendicular magnetization by out-of-plane anti-damping magnon torques| Universal control of four singlet–triplet qubits| Spin-torque-driven gigahertz magnetization dynamics in the non-collinear antiferromagnet Mn3Sn| Switching on and off the spin polarization of the conduction band in antiferromagnetic bilayer transistors| Single-shot dynamics of spin–orbit torque and spin transfer torque switching in three-terminal magnetic tunnel junctions| Distant spin entanglement via fast and coherent electron shuttling| Nuclear spin quantum register in an optically active semiconductor quantum dot| Bipolar thermoelectric Josephson engine| Quantum Hall phase in graphene engineered by interfacial charge coupling| Chirality-dependent unidirectional routing of WS2 valley photons in a nanocircuit| Time-resolved Coulomb collision of single electrons| Two electrons interacting at a mesoscopic beam splitter| Tunable phononic coupling in excitonic quantum emitters| Graphene oxide electrodes enable electrical stimulation of distinct calcium signalling in brain astrocytes| High-fidelity initialization and control of electron and nuclear spins in a four-qubit register| Probing nanoscale fluctuation of ferromagnetic meta-atoms with a stochastic photonic spin Hall effect| Superluminal-like magnon propagation in antiferromagnetic NiO at nanoscale distances| Optical read-out of Coulomb staircases in a moiré superlattice via trapped interlayer trions| All-optical fluorescence blinking control in quantum dots with ultrafast mid-infrared pulses| Quantum tomography of an entangled three-qubit state in silicon| A gate-tunable graphene Josephson parametric amplifier| Electrically tunable giant Nernst effect in two-dimensional van der Waals heterostructures| Third-order nonlinear Hall effect in a quantum Hall system| Bose–Einstein condensation of quasiparticles by rapid cooling| Quantum-noise-limited microwave amplification using a graphene Josephson junction| Real-time dynamics of angular momentum transfer from spin to acoustic chiral phonon in oxide heterostructures| Observation of giant and tunable thermal diffusivity of a Dirac fluid at room temperature| Electronic thermal transport measurement in low-dimensional materials with graphene non-local noise thermometry| Coherent control of a high-orbital hole in a semiconductor quantum dot| Electrical detection of the flat-band dispersion in van der Waals field-effect structures| Single-molecule force stability of the SARS-CoV-2–ACE2 interface in variants-of-concern| Energy-efficient picosecond spin–orbit torque magnetization switching in ferro- and ferrimagnetic films| Viscous terahertz photoconductivity of hydrodynamic electrons in graphene| Surface spin magnetism controls the polarized exciton emission from CdSe nanoplatelets| Highly tunable junctions and non-local Josephson effect in magic-angle graphene tunnelling devices| Electrically activating two-dimensional antiferromagnets| Kramers versus Kramers makes a stable qubit| Nanopores take on the challenge of rare-earth detection| Non-Hermitian non-Abelian topological transition in the S = 1 electron spin system of a nitrogen vacancy centre in diamond| Nonlinear Nernst effect in trilayer graphene at zero magnetic field| Crumpled graphene oxide membranes enable rapid and selective hydrogen separation| Rhombohedral graphene goes correlated at four or five layers| Electricity generated from upstream proton diffusion| Bolometric detection of Josephson radiation| Relativistic quantum phenomena in graphene quantum dots| Quantum friction with water effectively cools graphene electrons| Aharonov–Bohm interference and statistical phase-jump evolution in fractional quantum Hall states in bilayer graphene| Dirac-point photocurrents due to the photothermoelectric effect in non-uniform graphene devices| Listening to the sound of a bacterium| Welcome to the single-molecule electret device| An external speed control for nanopore reads| Reply to: Questions about the role of P3HT nanoparticles in retinal stimulation| Quantum dot nanocomposites for flexible retina| Highly tunable ultrafast control of a spin qubit| A 2D material-based liquid crystal for deep-ultraviolet light modulation| Publisher Correction: Optomechanical detection of vibration modes of a single bacterium| Author Correction: Spontaneous broken-symmetry insulator and metals in tetralayer rhombohedral graphene| Selective stimulation of calcium signalling pathways in astrocytes with graphene electrodes| Author Correction: All-optical free-space routing of upconverted light by metasurfaces via nonlinear interferometry| Nonlinear Hall effect in an insulator| Energy-efficient magnetization manipulation using picosecond current pulses| Empowering spintronics with antiferromagnetic diodes| Reply to: Dirac-point photocurrents due to photothermoelectric effect in non-uniform graphene devices| Auger processes in a single quantum dot| Single-electron turnstile stirring quantized heat flow| Author Correction: Focal molography is a new method for the in situ analysis of molecular interactions in biological samples| Mid-infrared irradiation keeps nanocrystals bright| Publisher Correction: Time-domain observation of ballistic orbital-angular-momentum currents with giant relaxation length in tungsten| Publisher Correction: Metallofullerenes: Welcome to the single-molecule electret device| Harmonizing single photons with a laser pulse| A spin qubit hiding from the noise| Author Correction: Ultrafast hole spin qubit with gate-tunable spin–orbit switch functionality| Peptide sequencing| Time-domain observation of ballistic orbital-angular-momentum currents with giant relaxation length in tungsten| Antiferromagnetic spin-torque diode effect in a kagome Weyl semimetal</v>
       </c>
-      <c r="D34" t="str">
-        <v>東大</v>
-      </c>
-      <c r="E34" t="str">
-        <v>東北大</v>
-      </c>
-      <c r="F34">
+      <c r="D34" s="1" t="str">
+        <v>東大</v>
+      </c>
+      <c r="E34" s="1" t="str">
+        <v>東北大</v>
+      </c>
+      <c r="F34" s="1" t="str">
+        <v>2025/02/13| 2020/08/27| 2022/04/23| 2022/07/07| 2021/04/28| 2024/06/19| 2021/07/21| 2023/01/08| 2024/09/09| 2024/01/07| 2021/09/01| 2020/06/01| 2020/04/22| 2023/04/28| 2022/10/29| 2025/05/23| 2021/07/15| 2025/04/02| 2021/01/09| 2022/09/29| 2021/09/04| 2021/02/08| 2023/03/16| 2020/10/21| 2021/08/15| 2024/08/13| 2022/11/27| 2023/12/26| 2025/10/11| 2024/04/28| 2025/04/25| 2022/04/04| 2021/09/09| 2023/08/18| 2020/12/29| 2020/06/21| 2021/09/14| 2024/09/04| 2025/05/15| 2020/10/16| 2022/05/14| 2024/05/09| 2022/04/28| 2021/01/08| 2022/02/21| 2023/12/15| 2025/01/17| 2021/09/13| 2023/11/20| 2023/07/29| 2021/02/02| 2024/01/11| 2021/12/15| 2024/02/01| 2020/10/30| 2022/02/07| 2023/07/04| 2022/06/13| 2020/09/21| 2025/07/17| 2020/02/18| 2024/04/09| 2023/09/01| 2023/10/18| 2021/10/20| 2024/07/13| 2021/12/10| 2025/07/13| 2023/07/16| 2022/12/23| 2022/08/17| 2021/09/25| 2022/09/07| 2021/12/21| 2025/08/11| 2022/01/30| 2025/06/21| 2022/11/15| 2023/01/20| 2025/03/19| 2024/07/18| 2024/12/31| 2021/08/09| 2020/12/24| 2021/10/21| 2023/10/31| 2025/11/23| 2022/03/28| 2023/09/27| 2025/11/02| 2025/06/24| 2020/06/26| 2020/09/11| 2023/05/31| 2020/12/23| 2022/10/25| 2022/11/29| 2020/07/08| 2024/04/19| 2024/05/15| 2020/03/11| 2021/02/25| 2022/12/07| 2025/08/10| 2024/01/03| 2022/04/17| 2025/12/13| 2023/04/11| 2024/05/20| 2024/11/16| 2025/02/24| 2021/09/16| 2021/07/22| 2021/08/23| 2025/12/17| 2024/08/18| 2020/02/10| 2021/05/06| 2025/08/30| 2025/11/25| 2022/10/06| 2023/10/05| 2024/04/11| 2020/05/02| 2021/09/08| 2025/09/09| 2020/06/03| 2020/02/04</v>
+      </c>
+      <c r="G34" s="1" t="str">
         <v>130</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="str">
+      <c r="A35" s="1" t="str">
         <v>5 ナノバイオ・ナノメディシン・ドラッグデリバリー・診断治療の設計・応用</v>
       </c>
-      <c r="B35" t="str">
+      <c r="B35" s="1" t="str">
         <v>https://doi.org/10.1038/s41565-020-0713-6| https://doi.org/10.1038/s41565-021-00963-8| https://doi.org/10.1038/s41565-020-00781-4| https://doi.org/10.1038/s41565-021-01003-1| https://doi.org/10.1038/s41565-020-0765-7| https://doi.org/10.1038/s41565-020-00782-3| https://doi.org/10.1038/s41565-023-01379-2| https://doi.org/10.1038/s41565-019-0619-3| https://doi.org/10.1038/s41565-019-0600-1| https://doi.org/10.1038/s41565-019-0605-9| https://doi.org/10.1038/s41565-020-0722-5| https://doi.org/10.1038/s41565-022-01110-7| https://doi.org/10.1038/s41565-020-0739-9| https://doi.org/10.1038/s41565-023-01407-1| https://doi.org/10.1038/s41565-022-01125-0| https://doi.org/10.1038/s41565-021-01068-y| https://doi.org/10.1038/s41565-020-00803-1| https://doi.org/10.1038/s41565-020-0648-y| https://doi.org/10.1038/s41565-021-00904-5| https://doi.org/10.1038/s41565-021-01017-9| https://doi.org/10.1038/s41565-022-01130-3| https://doi.org/10.1038/s41565-022-01108-1| https://doi.org/10.1038/s41565-021-00954-9| https://doi.org/10.1038/s41565-020-00839-3| https://doi.org/10.1038/s41565-022-01122-3| https://doi.org/10.1038/s41565-021-00933-0| https://doi.org/10.1038/s41565-022-01278-y| https://doi.org/10.1038/s41565-020-0728-z| https://doi.org/10.1038/s41565-023-01404-4| https://doi.org/10.1038/s41565-020-00835-7| https://doi.org/10.1038/s41565-022-01079-3| https://doi.org/10.1038/s41565-022-01112-5| https://doi.org/10.1038/s41565-022-01071-x| https://doi.org/10.1038/s41565-021-00971-8| https://doi.org/10.1038/s41565-021-00870-y| https://doi.org/10.1038/s41565-021-00867-7| https://doi.org/10.1038/s41565-021-00975-4| https://doi.org/10.1038/s41565-023-01534-9| https://doi.org/10.1038/s41565-021-00958-5| https://doi.org/10.1038/s41565-022-01129-w| https://doi.org/10.1038/s41565-022-01131-2| https://doi.org/10.1038/s41565-022-01185-2| https://doi.org/10.1038/s41565-024-01614-4| https://doi.org/10.1038/s41565-022-01137-w| https://doi.org/10.1038/s41565-022-01169-2| https://doi.org/10.1038/s41565-022-01177-2| https://doi.org/10.1038/s41565-023-01533-w| https://doi.org/10.1038/s41565-023-01455-7| https://doi.org/10.1038/s41565-023-01553-6| https://doi.org/10.1038/s41565-022-01261-7| https://doi.org/10.1038/s41565-023-01323-4| https://doi.org/10.1038/s41565-023-01405-3| https://doi.org/10.1038/s41565-022-01246-6| https://doi.org/10.1038/s41565-022-01310-1| https://doi.org/10.1038/s41565-022-01297-9| https://doi.org/10.1038/s41565-024-01660-y| https://doi.org/10.1038/s41565-023-01409-z| https://doi.org/10.1038/s41565-023-01563-4| https://doi.org/10.1038/s41565-023-01325-2| https://doi.org/10.1038/s41565-023-01479-z| https://doi.org/10.1038/s41565-023-01525-w| https://doi.org/10.1038/s41565-023-01416-0| https://doi.org/10.1038/s41565-023-01321-6| https://doi.org/10.1038/s41565-023-01339-w| https://doi.org/10.1038/s41565-023-01432-0| https://doi.org/10.1038/s41565-022-01282-2| https://doi.org/10.1038/s41565-023-01359-6| https://doi.org/10.1038/s41565-024-01665-7| https://doi.org/10.1038/s41565-024-01636-y| https://doi.org/10.1038/s41565-024-01648-8| https://doi.org/10.1038/s41565-024-01704-3| https://doi.org/10.1038/s41565-024-01807-x| https://doi.org/10.1038/s41565-023-01576-z| https://doi.org/10.1038/s41565-023-01535-8| https://doi.org/10.1038/s41565-024-01633-1| https://doi.org/10.1038/s41565-024-01632-2| https://doi.org/10.1038/s41565-024-01655-9| https://doi.org/10.1038/s41565-024-01702-5| https://doi.org/10.1038/s41565-024-01676-4| https://doi.org/10.1038/s41565-024-01690-6| https://doi.org/10.1038/s41565-023-01597-8| https://doi.org/10.1038/s41565-024-01763-6| https://doi.org/10.1038/s41565-024-01805-z| https://doi.org/10.1038/s41565-025-01866-8| https://doi.org/10.1038/s41565-025-01857-9| https://doi.org/10.1038/s41565-025-01905-4| https://doi.org/10.1038/s41565-024-01830-y| https://doi.org/10.1038/s41565-025-01894-4| https://doi.org/10.1038/s41565-020-0749-7| https://doi.org/10.1038/s41565-020-0679-4| https://doi.org/10.1038/s41565-020-0750-1| https://doi.org/10.1038/s41565-019-0598-4| https://doi.org/10.1038/s41565-020-0634-4| https://doi.org/10.1038/s41565-021-01020-0| https://doi.org/10.1038/s41565-020-0649-x| https://doi.org/10.1038/s41565-019-0602-z| https://doi.org/10.1038/s41565-020-0742-1| https://doi.org/10.1038/s41565-020-00808-w| https://doi.org/10.1038/s41565-020-0695-4| https://doi.org/10.1038/s41565-021-00961-w| https://doi.org/10.1038/s41565-020-00834-8| https://doi.org/10.1038/s41565-021-01038-4| https://doi.org/10.1038/s41565-022-01146-9| https://doi.org/10.1038/s41565-022-01230-0| https://doi.org/10.1038/s41565-022-01200-6| https://doi.org/10.1038/s41565-022-01136-x| https://doi.org/10.1038/s41565-022-01254-6| https://doi.org/10.1038/s41565-023-01478-0| https://doi.org/10.1038/s41565-023-01545-6| https://doi.org/10.1038/s41565-022-01293-z| https://doi.org/10.1038/s41565-023-01377-4| https://doi.org/10.1038/s41565-023-01316-3| https://doi.org/10.1038/s41565-023-01376-5| https://doi.org/10.1038/s41565-023-01391-6| https://doi.org/10.1038/s41565-023-01368-5| https://doi.org/10.1038/s41565-024-01798-9| https://doi.org/10.1038/s41565-024-01675-5| https://doi.org/10.1038/s41565-024-01738-7| https://doi.org/10.1038/s41565-023-01594-x| https://doi.org/10.1038/s41565-024-01706-1| https://doi.org/10.1038/s41565-024-01720-3| https://doi.org/10.1038/s41565-024-01629-x| https://doi.org/10.1038/s41565-024-01759-2| https://doi.org/10.1038/s41565-024-01737-8| https://doi.org/10.1038/s41565-024-01734-x| https://doi.org/10.1038/s41565-024-01841-9| https://doi.org/10.1038/s41565-025-01904-5| https://doi.org/10.1038/s41565-025-01859-7| https://doi.org/10.1038/s41565-025-01926-z| https://doi.org/10.1038/s41565-025-01941-0| https://doi.org/10.1038/s41565-019-0606-8| https://doi.org/10.1038/s41565-020-00805-z| https://doi.org/10.1038/s41565-021-00871-x| https://doi.org/10.1038/s41565-020-0687-4| https://doi.org/10.1038/s41565-021-00868-6| https://doi.org/10.1038/s41565-022-01260-8| https://doi.org/10.1038/s41565-023-01549-2| https://doi.org/10.1038/s41565-023-01502-3| https://doi.org/10.1038/s41565-020-0670-0| https://doi.org/10.1038/s41565-019-0609-5| https://doi.org/10.1038/s41565-020-0762-x| https://doi.org/10.1038/s41565-020-00814-y| https://doi.org/10.1038/s41565-022-01235-9| https://doi.org/10.1038/s41565-022-01126-z| https://doi.org/10.1038/s41565-023-01539-4| https://doi.org/10.1038/s41565-025-01906-3| https://doi.org/10.1038/s41565-025-01933-0| https://doi.org/10.1038/s41565-021-00934-z| https://doi.org/10.1038/s41565-021-01007-x| https://doi.org/10.1038/s41565-021-01026-8| https://doi.org/10.1038/s41565-022-01243-9| https://doi.org/10.1038/s41565-024-01610-8| https://doi.org/10.1038/s41565-020-0663-z| https://doi.org/10.1038/s41565-023-01442-y| https://doi.org/10.1038/s41565-023-01536-7| https://doi.org/10.1038/s41565-023-01556-3| https://doi.org/10.1038/s41565-023-01395-2| https://doi.org/10.1038/s41565-024-01637-x| https://doi.org/10.1038/s41565-024-01697-z| https://doi.org/10.1038/s41565-020-0689-2| https://doi.org/10.1038/s41565-020-0756-8| https://doi.org/10.1038/s41565-019-0631-7| https://doi.org/10.1038/s41565-024-01762-7| https://doi.org/10.1038/s41565-023-01450-y| https://doi.org/10.1038/s41565-024-01850-8| https://doi.org/10.1038/s41565-024-01839-3| https://doi.org/10.1038/s41565-025-01873-9| https://doi.org/10.1038/s41565-025-01884-6| https://doi.org/10.1038/s41565-025-01911-6| https://doi.org/10.1038/s41565-025-01951-y| https://doi.org/10.1038/s41565-025-01908-1| https://doi.org/10.1038/s41565-025-01957-6| https://doi.org/10.1038/s41565-025-01956-7| https://doi.org/10.1038/s41565-025-01955-8| https://doi.org/10.1038/s41565-025-01967-4| https://doi.org/10.1038/s41565-021-01049-1| https://doi.org/10.1038/s41565-022-01100-9| https://doi.org/10.1038/s41565-021-01002-2| https://doi.org/10.1038/s41565-022-01155-8| https://doi.org/10.1038/s41565-020-0692-7| https://doi.org/10.1038/s41565-020-0764-8| https://doi.org/10.1038/s41565-023-01317-2| https://doi.org/10.1038/s41565-023-01373-8| https://doi.org/10.1038/s41565-019-0599-3| https://doi.org/10.1038/s41565-023-01433-z| https://doi.org/10.1038/s41565-023-01569-y| https://doi.org/10.1038/s41565-024-01710-5| https://doi.org/10.1038/s41565-020-00806-y| https://doi.org/10.1038/s41565-019-0625-5| https://doi.org/10.1038/s41565-022-01171-8| https://doi.org/10.1038/s41565-022-01231-z| https://doi.org/10.1038/s41565-023-01398-z| https://doi.org/10.1038/s41565-021-01039-3| https://doi.org/10.1038/s41565-022-01210-4| https://doi.org/10.1038/s41565-022-01300-3| https://doi.org/10.1038/s41565-020-0725-2| https://doi.org/10.1038/s41565-021-01056-2| https://doi.org/10.1038/s41565-022-01206-0| https://doi.org/10.1038/s41565-022-01271-5| https://doi.org/10.1038/s41565-024-01608-2| https://doi.org/10.1038/s41565-024-01806-y| https://doi.org/10.1038/s41565-020-0664-y| https://doi.org/10.1038/s41565-020-0691-8| https://doi.org/10.1038/s41565-021-01069-x| https://doi.org/10.1038/s41565-022-01127-y| https://doi.org/10.1038/s41565-021-01046-4| https://doi.org/10.1038/s41565-023-01351-0| https://doi.org/10.1038/s41565-023-01461-9| https://doi.org/10.1038/s41565-023-01434-y| https://doi.org/10.1038/s41565-021-00993-2| https://doi.org/10.1038/s41565-021-01013-z| https://doi.org/10.1038/s41565-022-01252-8</v>
       </c>
-      <c r="C35" t="str">
+      <c r="C35" s="1" t="str">
         <v>Towards single-species selectivity of membranes with subnanometre pores| Epitaxial growth of wafer-scale molybdenum disulfide semiconductor single crystals on sapphire| A general strategy towards personalized nanovaccines based on fluoropolymers for post-surgical cancer immunotherapy| All-in-one two-dimensional retinomorphic hardware device for motion detection and recognition| 2D metal–organic framework for stable perovskite solar cells with minimized lead leakage| Proton-driven transformable nanovaccine for cancer immunotherapy| Optoelectronic graded neurons for bioinspired in-sensor motion perception| Pro-efferocytic nanoparticles are specifically taken up by lesional macrophages and prevent atherosclerosis| Vitamin lipid nanoparticles enable adoptive macrophage transfer for the treatment of multidrug-resistant bacterial sepsis| Ultrasensitive torque detection with an optically levitated nanorotor| Power-efficient neural network with artificial dendrites| Advancing osmotic power generation by covalent organic framework monolayer| Advances in nanomaterial vaccine strategies to address infectious diseases impacting global health| Ferromagnetic single-atom spin catalyst for boosting water splitting| A pyroptosis nanotuner for cancer therapy| Excitons in semiconductor moiré superlattices| A new strategy using nanoscale zero-valent iron to simultaneously promote remediation and safe crop production in contaminated soil| Dual-targeting nanoparticle vaccine elicits a therapeutic antibody response against chronic hepatitis B| Atomically sharp interface enabled ultrahigh-speed non-volatile memory devices| The ancillary effects of nanoparticles and their implications for nanomedicine| In vivo non-invasive confocal fluorescence imaging beyond 1,700 nm using superconducting nanowire single-photon detectors| Single-crystalline TiO2 nanoparticles for stable and efficient perovskite modules| Magnetic skyrmion bundles and their current-driven dynamics| Room-temperature nonlinear Hall effect and wireless radiofrequency rectification in Weyl semimetal TaIrTe4| Enhancing CRISPR/Cas gene editing through modulating cellular mechanical properties for cancer therapy| Molecular size-dependent subcontinuum solvent permeation and ultrafast nanofiltration across nanoporous graphene membranes| Highly stable, antiviral, antibacterial cotton textiles via molecular engineering| Broken mirror symmetry in excitonic response of reconstructed domains in twisted MoSe2/MoSe2 bilayers| Adjuvant lipidoid-substituted lipid nanoparticles augment the immunogenicity of SARS-CoV-2 mRNA vaccines| Unique surface patterns emerging during solidification of liquid metal alloys| Polarization-sensitive optoionic membranes from chiral plasmonic nanoparticles| A high-performance hydroxide exchange membrane enabled by Cu2+-crosslinked chitosan| Applying lessons learned from nanomedicines to understand rare hypersensitivity reactions to mRNA-based SARS-CoV-2 vaccines| Acoustically triggered mechanotherapy using genetically encoded gas vesicles| Computationally guided high-throughput design of self-assembling drug nanoparticles| Challenges and potential solutions for nanosensors intended for use with foods| Chemical engines: driving systems away from equilibrium through catalyst reaction cycles| Microplastic fragmentation by rotifers in aquatic ecosystems contributes to global nanoplastic pollution| Nanopore electro-osmotic trap for the label-free study of single proteins and their conformations| Characterization of nanoparticles-based vaccines for COVID-19| Quantum interference of identical photons from remote GaAs quantum dots| Doping-driven topological polaritons in graphene/α-MoO3 heterostructures| Developing high-power Li||S batteries via transition metal/carbon nanocomposite electrocatalyst engineering| NAD(H)-loaded nanoparticles for efficient sepsis therapy via modulating immune and vascular homeostasis| Identification of nucleoside monophosphates and their epigenetic modifications using an engineered nanopore| A nanomaterial targeting the spike protein captures SARS-CoV-2 variants and promotes viral elimination| A modular approach to enhancing cell membrane-coated nanoparticle functionality using genetic engineering| Cholesterol modulates the physiological response to nanoparticles by changing the composition of protein corona| Bacteria-derived nanovesicles enhance tumour vaccination by trained immunity| Targeting the activity of T cells by membrane surface redox regulation for cancer theranostics| Machine-learning-assisted single-vessel analysis of nanoparticle permeability in tumour vasculatures| An all-in-one nanoprinting approach for the synthesis of a nanofilm library for unclonable anti-counterfeiting applications| Tough-interface-enabled stretchable electronics using non-stretchable polymer semiconductors and conductors| Molecular bottlebrush prodrugs as mono- and triplex combination therapies for multiple myeloma| Solving integral equations in free space with inverse-designed ultrathin optical metagratings| Janus liposozyme for the modulation of redox and immune homeostasis in infected diabetic wounds| Developing trends in nanomaterials and their environmental implications| Strategies for non-viral vectors targeting organs beyond the liver| Single-photon detection using high-temperature superconductors| Nanopore sequencing of DNA-barcoded probes for highly multiplexed detection of microRNA, proteins and small biomarkers| Adapted poling to break the nonlinear efficiency limit in nanophotonic lithium niobate waveguides| Controlled delivery of a neurotransmitter–agonist conjugate for functional recovery after severe spinal cord injury| Structure, folding and flexibility of co-transcriptional RNA origami| An ultrafast bipolar flash memory for self-activated in-memory computing| Highly stable and pure single-photon emission with 250 ps optical coherence times in InP colloidal quantum dots| Ideal refocusing of an optically active spin qubit under strong hyperfine interactions| Ectopic expression of a mechanosensitive channel confers spatiotemporal resolution to ultrasound stimulations of neurons for visual restoration| Multidimensional vision sensors for information processing| Highly efficient vortex generation at the nanoscale| Multimodal nanoimmunotherapy engages neutrophils to eliminate Staphylococcus aureus infections| Understanding epitaxial growth of two-dimensional materials and their homostructures| Out-of-plane coordination of iridium single atoms with organic molecules and cobalt–iron hydroxides to boost oxygen evolution reaction| High-density transparent graphene arrays for predicting cellular calcium activity at depth from surface potential recordings| Evidence and therapeutic implications of biomechanically regulated immunosurveillance in cancer and other diseases| Quantum interference enhances the performance of single-molecule transistors| Regulation of quantum spin conversions in a single molecular radical| Proactive vaccination using multiviral Quartet Nanocages to elicit broad anti-coronavirus responses| Charge-transfer contacts for the measurement of correlated states in high-mobility WSe2| A DNA robotic switch with regulated autonomous display of cytotoxic ligand nanopatterns| Nutrient-delivery and metabolism reactivation therapy for melanoma| Ultrahigh-quality-factor micro- and nanomechanical resonators using dissipation dilution| Local control of polarization and geometric phase in thermal metasurfaces| Tunable topological phases in nanographene-based spin-1/2 alternating-exchange Heisenberg chains| Molecular-scale CO spillover on a dual-site electrocatalyst enhances methanol production from CO2 reduction| Tandem-controlled lysosomal assembly of nanofibres induces pyroptosis for cancer immunotherapy| Homogeneous 2D/3D heterostructured tin halide perovskite photovoltaics| Measuring age-dependent viscoelasticity of organelles, cells and organisms with time-shared optical tweezer microrheology| Enhanced Majorana stability in a three-site Kitaev chain| Visualizing the growth process of sodium microstructures in sodium batteries by in-situ 23Na MRI and NMR spectroscopy| Programmable multistage drug delivery to lymph nodes| Giant Stark splitting of an exciton in bilayer MoS2| Tuning inelastic light scattering via symmetry control in the two-dimensional magnet CrI3| A sensitive and specific nanosensor for monitoring extracellular potassium levels in the brain| Two-dimensional quantum-sheet films with sub-1.2 nm channels for ultrahigh-rate electrochemical capacitance| Time-resolved imaging of three-dimensional nanoscale magnetization dynamics| Waveguide-integrated van der Waals heterostructure photodetector at telecom wavelengths with high speed and high responsivity| Key principles and operational practices for improved nanotechnology environmental exposure assessment| Giant enhancement of third-harmonic generation in graphene–metal heterostructures| Direct observation of water-mediated single-proton transport between hBN surface defects| Surface-fill hydrogel attenuates the oncogenic signature of complex anatomical surface cancer in a single application| High-energy quasiparticle injection into mesoscopic superconductors| Fully integrated parity–time-symmetric electronics| Nanoparticle single-cell multiomic readouts reveal that cell heterogeneity influences lipid nanoparticle-mediated messenger RNA delivery| Continuous epitaxy of single-crystal graphite films by isothermal carbon diffusion through nickel| Graphene nanopattern as a universal epitaxy platform for single-crystal membrane production and defect reduction| A wavelength-induced frequency filtering method for fluorescent nanosensors in vivo| Scalable all-optical cold damping of levitated nanoparticles| A free-standing lithium phosphorus oxynitride thin film electrolyte promotes uniformly dense lithium metal deposition with no external pressure| 3D spatiotemporally scalable in vivo neural probes based on fluorinated elastomers| Emergence of layered nanoscale mesh networks through intrinsic molecular confinement self-assembly| DNA storage in thermoresponsive microcapsules for repeated random multiplexed data access| Imaging solid–electrolyte interphase dynamics using operando reflection interference microscopy| Switchable moiré potentials in ferroelectric WTe2/WSe2 superlattices| Atomically thin optomemristive feedback neurons| Coulomb-mediated antibunching of an electron pair surfing on sound| Magnetoelectric nanodiscs enable wireless transgene-free neuromodulation| Superionic fluoride gate dielectrics with low diffusion barrier for two-dimensional electronics| A modular DNA origami nanocompartment for engineering a cell-free, protein unfolding and degradation pathway| Mapping charge excitations in generalized Wigner crystals| Integrated 1D epitaxial mirror twin boundaries for ultrascaled 2D MoS2 field-effect transistors| Silk fibroin as a surfactant for water-based nanofabrication| Genome-wide forward genetic screening to identify receptors and proteins mediating nanoparticle uptake and intracellular processing| Synthetic polypeptides inhibit nucleic acid-induced inflammation in autoimmune diseases by disrupting multivalent TLR9 binding to LL37-DNA bundles| Deep subwavelength topological edge state in a hyperbolic medium| Microstrain screening towards defect-less layered transition metal oxide cathodes| Remote epitaxial crystalline perovskites for ultrahigh-resolution micro-LED displays| An orally administered gene editing nanoparticle boosts chemo-immunotherapy in colorectal cancer| Spin-torque-driven gigahertz magnetization dynamics in the non-collinear antiferromagnet Mn3Sn| Balancing stealth and targeting to improve nanomedicine efficacy| Ballistic diffusion fronts in biomolecular condensates| Regioselective magnetization in semiconducting nanorods| Micelle-enabled self-assembly of porous and monolithic carbon membranes for bioelectronic interfaces| Highly versatile near-infrared emitters based on an atomically defined HgS interlayer embedded into a CdSe/CdS quantum dot| Nanoscale nights of COVID-19| Nanomechanical topological insulators with an auxiliary orbital degree of freedom| Graphene oxide elicits microbiome-dependent type 2 immune responses via the aryl hydrocarbon receptor| All-optical free-space routing of upconverted light by metasurfaces via nonlinear interferometry| Age-associated disparity in phagocytic clearance affects the efficacy of cancer nanotherapeutics| Probing nanoscale fluctuation of ferromagnetic meta-atoms with a stochastic photonic spin Hall effect| A highly reflective biogenic photonic material from core–shell birefringent nanoparticles| When plants and plastic interact| Inducing micromechanical motion by optical excitation of a single quantum dot| A gate-tunable graphene Josephson parametric amplifier| Atomic-scale friction between single-asperity contacts unveiled through in situ transmission electron microscopy| Asymmetric conducting route and potential redistribution determine the polarization-dependent conductivity in layered ferroelectrics| From small batteries to big claims| Supramolecular polymerization through rotation of light-driven molecular motors| Preventing colour fading in artworks with graphene veils| Large-area nanoengineering of graphene corrugations for visible-frequency graphene plasmons| Non-reciprocal energy transfer through the Casimir effect| A room-temperature polarization-sensitive CMOS terahertz camera based on quantum-dot-enhanced terahertz-to-visible photon upconversion| Challenges remain for 2D semiconductor growth| Targeting immune cells within lymph nodes| Coherent control of a high-orbital hole in a semiconductor quantum dot| Single-molecule force stability of the SARS-CoV-2–ACE2 interface in variants-of-concern| Imaging DNA origami by fluorescence in situ hybridization| Inferring scale-dependent non-equilibrium activity using carbon nanotubes| Controlling the STING pathway to improve immunotherapy| Very-large-scale integrated high quality factor nanoantenna pixels| The route towards nanoparticle shape metrology| Publisher Correction: Memory devices and applications for in-memory computing| Surface spin magnetism controls the polarized exciton emission from CdSe nanoplatelets| Topotaxial mutual-exchange growth of magnetic Zintl Eu3In2As4 nanowires with axion insulator classification| Development of epistatic YES and AND protein logic gates and their assembly into signalling cascades| Tracking nonlinear conversion of light in van der Waals waveguides| Electron correlation strengthened in multilayer rhombohedral graphite| Nanometre-resolution three-dimensional tomographic and vectorial near-field imaging in dielectric optical resonators| Electrically activating two-dimensional antiferromagnets| Fraser Stoddart (1942–2024)| The benefits and risks of PEGylation in nanomedicine| Modulation of SARS-CoV-2 spike binding to ACE2 through conformational selection| Polymeric stabilization at the gas–liquid interface for durable solar hydrogen production from plastic waste| Encoding molecular transport into DNA condensates| Nanoneedles enable spatiotemporal lipidomics of living tissues| Nanoscience-enabled pathways to next-generation perovskite photovoltaics| Prospects and challenges for FAIR toxicogenomics data| Photon avalanche goes multicolour| A DNA nanodevice boosts tumour immunity| Author Correction: Steam disinfection releases micro(nano)plastics from silicone-rubber baby teats as examined by optical photothermal infrared microspectroscopy| SIN List criticism based on misunderstandings| Photonic Rashba effect| Relativistic quantum phenomena in graphene quantum dots| Rerouting nanoparticles to bone marrow via neutrophil hitchhiking| Devouring atherosclerotic plaques| 2D materials, a matter for chemists| Author Correction: Infrared nano-imaging of Dirac magnetoexcitons in graphene| Fluoride dielectrics for 2D transistors| Publisher Correction: Multifunctional nanocoated membranes for high-rate electrothermal desalination of hypersaline waters| Supercool sulfur| Sub-molecular diagnostics of coherent energy transfer| Human muscle-like actuation realized with graphene–liquid crystalline elastomer composites| Nanoplasmonic acceleration of nucleic acid amplification for pathogen detection| Nucleic acid delivery differences across species| Detection of modified RNA with an engineered nanopore| Lithium-metal batteries working under realistic conditions| Fine fibres with multifunctionality| Nanoplastic versus natural organic matter| The racetrack breaks free from the substrate| Stress testing the bulk photovoltaic effect| Ian Manners (1961–2023)| Unravelling topological states in quantum spin chains| Chemistry under nanoconfinement| Auger processes in a single quantum dot| Single-electron turnstile stirring quantized heat flow| In praise of interdisciplinary science| Author Correction: Tuning of the Berry curvature in 2D perovskite polaritons| Memory augmented factorization for holographic representation| Author Correction: Charge disproportionate molecular redox for discrete memristive and memcapacitive switching| A shock-absorbing material made from a mechanosensitive protein| Phosphorus in the flatland| Small is even more different now| Giant bulk piezophotovoltaic effect in 3R-MoS2</v>
       </c>
-      <c r="D35" t="str">
-        <v>東大</v>
-      </c>
-      <c r="E35" t="str">
-        <v/>
-      </c>
-      <c r="F35">
+      <c r="D35" s="1" t="str">
+        <v>東大</v>
+      </c>
+      <c r="E35" s="1" t="str">
+        <v/>
+      </c>
+      <c r="F35" s="1" t="str">
+        <v>2023/01/29| 2022/10/12| 2024/05/27| 2024/05/31| 2021/08/11| 2020/02/14| 2020/12/23| 2021/03/06| 2025/02/13| 2022/04/23| 2021/07/27| 2020/09/17| 2022/02/12| 2022/09/22| 2020/08/12| 2022/07/07| 2022/02/08| 2020/02/04| 2020/06/14| 2020/08/04| 2024/06/19| 2025/03/08| 2023/05/02| 2021/07/21| 2022/07/16| 2024/08/16| 2024/04/08| 2020/09/23| 2024/03/27| 2021/09/02| 2024/10/02| 2021/02/23| 2025/01/31| 2022/12/31| 2024/11/14| 2023/06/26| 2023/04/30| 2025/04/19| 2024/01/07| 2020/01/24| 2020/04/22| 2024/11/27| 2021/12/05| 2023/07/30| 2020/10/25| 2024/03/17| 2023/12/13| 2023/08/12| 2022/12/03| 2021/06/28| 2024/11/09| 2022/01/17| 2022/12/10| 2025/05/07| 2023/06/29| 2022/10/23| 2022/09/27| 2023/08/15| 2023/04/28| 2021/06/22| 2025/10/12| 2023/08/06| 2022/08/10| 2024/07/15| 2020/07/27| 2022/10/29| 2024/01/12| 2025/08/08| 2023/01/11| 2025/09/17| 2025/05/31| 2020/06/05| 2023/08/18| 2020/07/12| 2020/06/27| 2020/05/13| 2022/04/15| 2025/05/23| 2023/02/24| 2020/07/11| 2021/11/03| 2023/06/05| 2023/05/16| 2020/09/01| 2023/09/05| 2022/04/26| 2021/04/20| 2020/04/20| 2023/07/20| 2021/11/19| 2024/05/23| 2021/10/09| 2022/06/04| 2020/01/10| 2023/06/24| 2023/03/30| 2024/02/08| 2020/12/05| 2021/02/27| 2022/09/06| 2020/04/02| 2020/05/11| 2021/01/08| 2020/06/19| 2021/07/07| 2023/05/14| 2021/02/26| 2024/10/07| 2025/05/18| 2024/07/13| 2021/02/02| 2024/10/17| 2025/04/14| 2024/02/07| 2021/08/29| 2020/04/09| 2023/11/17| 2021/12/21| 2023/12/09| 2021/04/10| 2024/04/07| 2022/06/13| 2020/11/23| 2020/08/23| 2020/07/31| 2022/04/03| 2020/07/08| 2020/04/21| 2023/08/28| 2023/03/28| 2020/04/29| 2023/07/16| 2024/07/04| 2023/01/31| 2023/01/26| 2023/09/27| 2025/09/30| 2020/10/08| 2021/10/19| 2020/09/02| 2023/05/10| 2021/08/20| 2021/08/19| 2025/05/27| 2024/12/31| 2020/12/24| 2021/12/27| 2022/06/24| 2023/02/25| 2024/01/03| 2022/12/12| 2025/11/23| 2020/09/24| 2023/06/21| 2021/10/11| 2023/12/02| 2021/02/20| 2024/01/16| 2021/01/15| 2020/10/07| 2022/06/03| 2025/10/23| 2020/09/19| 2022/03/22| 2020/12/27| 2020/10/03| 2024/11/28| 2025/05/08| 2024/12/25| 2020/07/25| 2023/03/01| 2025/02/16| 2021/06/03| 2022/11/25| 2021/10/08| 2021/03/27| 2024/07/08| 2021/01/21| 2021/08/28| 2025/02/04| 2025/07/24| 2025/12/18| 2025/12/27| 2024/10/22| 2021/01/22| 2023/12/31| 2020/02/10| 2021/05/06| 2022/04/30| 2024/08/14| 2020/09/22| 2022/01/04| 2021/09/13| 2024/08/04| 2023/11/09</v>
+      </c>
+      <c r="G35" s="1" t="str">
         <v>212</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="str">
+      <c r="A36" s="1" t="str">
         <v>4 分光・物性評価・組成/化学分析</v>
       </c>
-      <c r="B36" t="str">
+      <c r="B36" s="1" t="str">
         <v>https://doi.org/10.1038/s41565-020-0713-6| https://doi.org/10.1038/s41565-019-0618-4| https://doi.org/10.1038/s41565-019-0614-8| https://doi.org/10.1038/s41565-020-0728-z| https://doi.org/10.1038/s41565-022-01214-0| https://doi.org/10.1038/s41565-022-01101-8| https://doi.org/10.1038/s41565-022-01274-2| https://doi.org/10.1038/s41565-023-01332-3| https://doi.org/10.1038/s41565-024-01674-6| https://doi.org/10.1038/s41565-020-0749-7| https://doi.org/10.1038/s41565-019-0598-4| https://doi.org/10.1038/s41565-019-0620-x| https://doi.org/10.1038/s41565-020-0771-9| https://doi.org/10.1038/s41565-021-01021-z| https://doi.org/10.1038/s41565-022-01097-1| https://doi.org/10.1038/s41565-022-01204-2| https://doi.org/10.1038/s41565-022-01104-5| https://doi.org/10.1038/s41565-023-01438-8| https://doi.org/10.1038/s41565-024-01849-1| https://doi.org/10.1038/s41565-025-01864-w| https://doi.org/10.1038/s41565-025-01917-0| https://doi.org/10.1038/s41565-022-01142-z| https://doi.org/10.1038/s41565-022-01253-7| https://doi.org/10.1038/s41565-023-01488-y| https://doi.org/10.1038/s41565-024-01601-9| https://doi.org/10.1038/s41565-020-00794-z| https://doi.org/10.1038/s41565-024-01822-y| https://doi.org/10.1038/s41565-023-01544-7| https://doi.org/10.1038/s41565-020-0697-2| https://doi.org/10.1038/s41565-022-01155-8| https://doi.org/10.1038/s41565-024-01638-w| https://doi.org/10.1038/s41565-022-01171-8| https://doi.org/10.1038/s41565-020-00804-0| https://doi.org/10.1038/s41565-023-01559-0| https://doi.org/10.1038/s41565-024-01664-8| https://doi.org/10.1038/s41565-022-01152-x| https://doi.org/10.1038/s41565-021-01046-4| https://doi.org/10.1038/s41565-023-01458-4| https://doi.org/10.1038/s41565-022-01119-y| https://doi.org/10.1038/s41565-025-01893-5| https://doi.org/10.1038/s41565-021-00953-w</v>
       </c>
-      <c r="C36" t="str">
+      <c r="C36" s="1" t="str">
         <v>Towards single-species selectivity of membranes with subnanometre pores| Real-time mass spectrometric characterization of the solid–electrolyte interphase of a lithium-ion battery| Single-molecule resonance Raman effect in a plasmonic nanocavity| Broken mirror symmetry in excitonic response of reconstructed domains in twisted MoSe2/MoSe2 bilayers| Oxycarbide MXenes and MAX phases identification using monoatomic layer-by-layer analysis with ultralow-energy secondary-ion mass spectrometry| Migrating photon avalanche in different emitters at the nanoscale enables 46th-order optical nonlinearity| In vivo surface-enhanced Raman scattering nanosensor for the real-time monitoring of multiple stress signalling molecules in plants| Strong coupling between a photon and a hole spin in silicon| Topological valley Hall polariton condensation| Visualizing the growth process of sodium microstructures in sodium batteries by in-situ 23Na MRI and NMR spectroscopy| Tuning inelastic light scattering via symmetry control in the two-dimensional magnet CrI3| Single-molecule tautomerization tracking through space- and time-resolved fluorescence spectroscopy| Surface-enhanced Raman scattering holography| A light-fuelled nanoratchet shifts a coupled chemical equilibrium| Pumping between phases with a pulsed-fuel molecular ratchet| Spin-correlated exciton–polaritons in a van der Waals magnet| Bilayer WSe2 as a natural platform for interlayer exciton condensates in the strong coupling limit| Ultrafast exciton fluid flow in an atomically thin MoS2 semiconductor| Spatiotemporal imaging of nonlinear optics in van der Waals waveguides| Nanopore discrimination of rare earth elements| Dynamic nanodomains dictate macroscopic properties in lead halide perovskites| Wavelike electronic energy transfer in donor–acceptor molecular systems through quantum coherence| Bidirectional phonon emission in two-dimensional heterostructures triggered by ultrafast charge transfer| Infrared nano-imaging of Dirac magnetoexcitons in graphene| Coherent electronic coupling in quantum dot solids induces cooperative enhancement of nonlinear optoelectronic responses| Long-lived modulation of plasmonic absorption by ballistic thermal injection| Layer-dependent evolution of electronic structures and correlations in rhombohedral multilayer graphene| Ultraviolet interlayer excitons in bilayer WSe2| Radiative Auger process in the single-photon limit| Author Correction: Steam disinfection releases micro(nano)plastics from silicone-rubber baby teats as examined by optical photothermal infrared microspectroscopy| Topographic fingerprinting of single proteins and proteoforms| Sub-molecular diagnostics of coherent energy transfer| Optical control of the valley Zeeman effect through many-exciton interactions| Excitons stabilize above the band gap in bilayer WSe2| Inelastic electron tunnelling induces anomalous light emission| Measuring how effectively light drives a molecular pump| Author Correction: Tuning of the Berry curvature in 2D perovskite polaritons| Observation of ultrafast ballistic orbital transport| Author Correction: A light-fuelled nanoratchet shifts a coupled chemical equilibrium| Nanoscale C–H/C–D mapping of organic materials using electron spectroscopy| Complete structural characterization of single carbon nanotubes by Rayleigh scattering circular dichroism</v>
       </c>
-      <c r="D36" t="str">
-        <v>東大</v>
-      </c>
-      <c r="E36" t="str">
-        <v>東北大</v>
-      </c>
-      <c r="F36">
+      <c r="D36" s="1" t="str">
+        <v>東大</v>
+      </c>
+      <c r="E36" s="1" t="str">
+        <v>東北大</v>
+      </c>
+      <c r="F36" s="1" t="str">
+        <v>2023/01/29| 2023/06/07| 2025/04/27| 2020/09/23| 2022/07/30| 2024/07/19| 2023/04/28| 2021/11/17| 2022/01/16| 2023/07/20| 2024/05/23| 2024/08/27| 2024/06/13| 2024/06/29| 2021/12/03| 2025/08/11| 2021/10/07| 2022/08/21| 2020/01/07| 2025/08/28| 2025/01/30| 2020/02/02| 2023/03/09| 2022/11/04| 2021/07/20| 2022/07/28| 2024/04/24| 2023/03/22| 2025/05/12| 2020/10/03| 2023/04/05| 2021/10/08| 2021/06/30| 2020/10/19| 2025/08/02| 2021/09/24| 2024/08/14| 2022/08/17| 2025/02/23| 2020/09/28| 2022/10/29</v>
+      </c>
+      <c r="G36" s="1" t="str">
         <v>41</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="str">
+      <c r="A37" s="1" t="str">
         <v>11 機械/熱/環境特性・耐久・リサイクル</v>
       </c>
-      <c r="B37" t="str">
+      <c r="B37" s="1" t="str">
         <v>https://doi.org/10.1038/s41565-020-0673-x| https://doi.org/10.1038/s41565-021-00888-2| https://doi.org/10.1038/s41565-021-00987-0| https://doi.org/10.1038/s41565-020-00837-5| https://doi.org/10.1038/s41565-022-01220-2| https://doi.org/10.1038/s41565-022-01112-5| https://doi.org/10.1038/s41565-022-01133-0| https://doi.org/10.1038/s41565-024-01635-z| https://doi.org/10.1038/s41565-024-01766-3| https://doi.org/10.1038/s41565-024-01645-x| https://doi.org/10.1038/s41565-024-01793-0| https://doi.org/10.1038/s41565-023-01597-8| https://doi.org/10.1038/s41565-020-00777-0| https://doi.org/10.1038/s41565-019-0630-8| https://doi.org/10.1038/s41565-020-0742-1| https://doi.org/10.1038/s41565-021-00859-7| https://doi.org/10.1038/s41565-021-00884-6| https://doi.org/10.1038/s41565-022-01241-x| https://doi.org/10.1038/s41565-023-01418-y| https://doi.org/10.1038/s41565-022-01254-6| https://doi.org/10.1038/s41565-023-01545-6| https://doi.org/10.1038/s41565-023-01431-1| https://doi.org/10.1038/s41565-023-01517-w| https://doi.org/10.1038/s41565-021-00876-6| https://doi.org/10.1038/s41565-022-01290-2| https://doi.org/10.1038/s41565-025-01902-7| https://doi.org/10.1038/s41565-021-01026-8| https://doi.org/10.1038/s41565-023-01524-x| https://doi.org/10.1038/s41565-021-00957-6| https://doi.org/10.1038/s41565-021-01015-x| https://doi.org/10.1038/s41565-022-01205-1| https://doi.org/10.1038/s41565-023-01464-6| https://doi.org/10.1038/s41565-024-01631-3| https://doi.org/10.1038/s41565-025-01901-8| https://doi.org/10.1038/s41565-025-01912-5| https://doi.org/10.1038/s41565-025-01967-4| https://doi.org/10.1038/s41565-025-01960-x| https://doi.org/10.1038/s41565-024-01661-x| https://doi.org/10.1038/s41565-019-0627-3| https://doi.org/10.1038/s41565-020-00806-y| https://doi.org/10.1038/s41565-022-01231-z| https://doi.org/10.1038/s41565-022-01149-6| https://doi.org/10.1038/s41565-024-01740-z| https://doi.org/10.1038/s41565-024-01816-w| https://doi.org/10.1038/s41565-022-01181-6| https://doi.org/10.1038/s41565-022-01269-z| https://doi.org/10.1038/s41565-022-01315-w| https://doi.org/10.1038/s41565-023-01434-y| https://doi.org/10.1038/s41565-023-01532-x| https://doi.org/10.1038/s41565-020-0767-5| https://doi.org/10.1038/s41565-021-01055-3</v>
       </c>
-      <c r="C37" t="str">
+      <c r="C37" s="1" t="str">
         <v>MOF water harvesters| Placing nanoplastics in the context of global plastic pollution| Subambient daytime radiative cooling textile based on nanoprocessed silk| Nanocomposite NiTi shape memory alloy with high strength and fatigue resistance| Human-muscle-inspired single fibre actuator with reversible percolation| A high-performance hydroxide exchange membrane enabled by Cu2+-crosslinked chitosan| Nanostructured block copolymer muscles| Machine intelligence-accelerated discovery of all-natural plastic substitutes| High-entropy non-covalent cyclic peptide glass| Giant nanomechanical energy storage capacity in twisted single-walled carbon nanotube ropes| Mechanochemistry-mediated colloidal liquid metals for electronic device cooling at kilowatt levels| Ultrahigh-quality-factor micro- and nanomechanical resonators using dissipation dilution| Multifunctional nanocoated membranes for high-rate electrothermal desalination of hypersaline waters| Synthetic gauge fields for phonon transport in a nano-optomechanical system| Key principles and operational practices for improved nanotechnology environmental exposure assessment| Complete mapping of the thermoelectric properties of a single molecule| Observation of superdiffusive phonon transport in aligned atomic chains| Feedback-controlled hydrogels with homeostatic oscillations and dissipative signal transduction| Environmentally stable and stretchable polymer electronics enabled by surface-tethered nanostructured molecular-level protection| Scalable all-optical cold damping of levitated nanoparticles| 3D spatiotemporally scalable in vivo neural probes based on fluorinated elastomers| Next-generation protein-based materials capture and preserve projectiles from supersonic impacts| Ultrahigh-printing-speed photoresists for additive manufacturing| Graphene oxide patchwork membranes| Predicting accidental release of engineered nanomaterials to the environment| Reversible shuffle twinning yields anisotropic tensile superelasticity in ceramic GeSe| Non-reciprocal energy transfer through the Casimir effect| Honeybee comb-inspired stiffness gradient-amplified catapult for solid particle repellency| Observation of giant and tunable thermal diffusivity of a Dirac fluid at room temperature| Electronic thermal transport measurement in low-dimensional materials with graphene non-local noise thermometry| Nanophotonic control of thermal emission under extreme temperatures in air| A flexible feature for the long-reigning thermoelectric champion bismuth telluride| Artificial intelligence assists the synthesis of all-natural plastic substitutes| Publisher Correction: Measuring age-dependent viscoelasticity of organelles, cells and organisms with time-shared optical tweezer microrheology| Ceramic crystals stretch like metal| Nanoscience-enabled pathways to next-generation perovskite photovoltaics| States of shear wander| Strain-resilient porous conductors with fewer nanofillers from in situ phase separation| A fresh look at desalination| Publisher Correction: Multifunctional nanocoated membranes for high-rate electrothermal desalination of hypersaline waters| Human muscle-like actuation realized with graphene–liquid crystalline elastomer composites| Nanostructured artificial-muscle fibres| Moving microscopic objects with self-disassembly| Nanoscale gradient interface for efficient heat transfer| Phonons hushed| Combating fogging with selective sunlight nano-absorbers| Author Correction: Combating fogging with selective sunlight nano-absorbers| A shock-absorbing material made from a mechanosensitive protein| Nanoturbine driven by flow across a nanopore| Enter plastic| DNA plastic</v>
       </c>
-      <c r="D37" t="str">
-        <v/>
-      </c>
-      <c r="E37" t="str">
-        <v/>
-      </c>
-      <c r="F37">
+      <c r="D37" s="1" t="str">
+        <v/>
+      </c>
+      <c r="E37" s="1" t="str">
+        <v/>
+      </c>
+      <c r="F37" s="1" t="str">
+        <v>2023/05/17| 2020/04/16| 2024/07/27| 2024/06/02| 2022/12/20| 2021/02/23| 2021/06/19| 2021/03/17| 2020/07/08| 2025/02/10| 2022/01/31| 2021/11/03| 2020/12/26| 2022/11/27| 2023/03/30| 2024/09/04| 2024/12/04| 2023/05/21| 2023/10/24| 2021/01/08| 2021/07/07| 2021/08/07| 2020/07/04| 2020/10/20| 2025/07/21| 2023/06/25| 2022/09/06| 2024/05/25| 2025/03/19| 2024/07/18| 2021/10/27| 2022/09/14| 2025/03/15| 2020/02/24| 2024/02/25| 2025/10/23| 2021/10/05| 2023/10/06| 2022/05/13| 2021/06/03| 2021/03/27| 2024/04/11| 2024/03/04| 2021/03/02| 2020/05/27| 2020/10/13| 2021/09/13| 2023/06/26| 2023/09/08| 2024/04/20</v>
+      </c>
+      <c r="G37" s="1" t="str">
         <v>51</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="str">
+      <c r="A38" s="1" t="str">
         <v>1 材料合成・薄膜形成</v>
       </c>
-      <c r="B38" t="str">
+      <c r="B38" s="1" t="str">
         <v>https://doi.org/10.1038/s41565-021-00963-8| https://doi.org/10.1038/s41565-021-01022-y| https://doi.org/10.1038/s41565-020-00833-9| https://doi.org/10.1038/s41565-021-00987-0| https://doi.org/10.1038/s41565-020-00799-8| https://doi.org/10.1038/s41565-021-01004-0| https://doi.org/10.1038/s41565-021-00951-y| https://doi.org/10.1038/s41565-022-01170-9| https://doi.org/10.1038/s41565-020-00818-8| https://doi.org/10.1038/s41565-019-0622-8| https://doi.org/10.1038/s41565-020-0717-2| https://doi.org/10.1038/s41565-020-00837-5| https://doi.org/10.1038/s41565-021-01062-4| https://doi.org/10.1038/s41565-022-01135-y| https://doi.org/10.1038/s41565-020-00796-x| https://doi.org/10.1038/s41565-022-01075-7| https://doi.org/10.1038/s41565-022-01113-4| https://doi.org/10.1038/s41565-023-01541-w| https://doi.org/10.1038/s41565-022-01278-y| https://doi.org/10.1038/s41565-023-01375-6| https://doi.org/10.1038/s41565-023-01457-5| https://doi.org/10.1038/s41565-022-01112-5| https://doi.org/10.1038/s41565-021-01036-6| https://doi.org/10.1038/s41565-022-01257-3| https://doi.org/10.1038/s41565-022-01106-3| https://doi.org/10.1038/s41565-023-01460-w| https://doi.org/10.1038/s41565-023-01405-3| https://doi.org/10.1038/s41565-023-01456-6| https://doi.org/10.1038/s41565-023-01432-0| https://doi.org/10.1038/s41565-023-01588-9| https://doi.org/10.1038/s41565-023-01326-1| https://doi.org/10.1038/s41565-024-01626-0| https://doi.org/10.1038/s41565-024-01625-1| https://doi.org/10.1038/s41565-024-01606-4| https://doi.org/10.1038/s41565-024-01852-6| https://doi.org/10.1038/s41565-025-01899-z| https://doi.org/10.1038/s41565-020-0770-x| https://doi.org/10.1038/s41565-020-0743-0| https://doi.org/10.1038/s41565-021-00857-9| https://doi.org/10.1038/s41565-021-01020-0| https://doi.org/10.1038/s41565-020-0715-4| https://doi.org/10.1038/s41565-020-0633-5| https://doi.org/10.1038/s41565-020-00808-w| https://doi.org/10.1038/s41565-021-01023-x| https://doi.org/10.1038/s41565-020-0690-9| https://doi.org/10.1038/s41565-021-00942-z| https://doi.org/10.1038/s41565-020-0747-9| https://doi.org/10.1038/s41565-021-00900-9| https://doi.org/10.1038/s41565-021-00875-7| https://doi.org/10.1038/s41565-022-01186-1| https://doi.org/10.1038/s41565-022-01272-4| https://doi.org/10.1038/s41565-021-00883-7| https://doi.org/10.1038/s41565-022-01230-0| https://doi.org/10.1038/s41565-022-01200-6| https://doi.org/10.1038/s41565-023-01478-0| https://doi.org/10.1038/s41565-023-01484-2| https://doi.org/10.1038/s41565-023-01431-1| https://doi.org/10.1038/s41565-023-01340-3| https://doi.org/10.1038/s41565-023-01528-7| https://doi.org/10.1038/s41565-023-01521-0| https://doi.org/10.1038/s41565-024-01799-8| https://doi.org/10.1038/s41565-024-01812-0| https://doi.org/10.1038/s41565-024-01841-9| https://doi.org/10.1038/s41565-025-01900-9| https://doi.org/10.1038/s41565-020-00805-z| https://doi.org/10.1038/s41565-021-00876-6| https://doi.org/10.1038/s41565-021-01005-z| https://doi.org/10.1038/s41565-023-01397-0| https://doi.org/10.1038/s41565-024-01787-y| https://doi.org/10.1038/s41565-023-01574-1| https://doi.org/10.1038/s41565-020-00795-y| https://doi.org/10.1038/s41565-022-01118-z| https://doi.org/10.1038/s41565-023-01390-7| https://doi.org/10.1038/s41565-024-01610-8| https://doi.org/10.1038/s41565-022-01123-2| https://doi.org/10.1038/s41565-020-0740-3| https://doi.org/10.1038/s41565-022-01090-8| https://doi.org/10.1038/s41565-020-00829-5| https://doi.org/10.1038/s41565-023-01464-6| https://doi.org/10.1038/s41565-024-01762-7| https://doi.org/10.1038/s41565-023-01529-6| https://doi.org/10.1038/s41565-025-01855-x| https://doi.org/10.1038/s41565-025-01946-9| https://doi.org/10.1038/s41565-025-01967-4| https://doi.org/10.1038/s41565-025-01971-8| https://doi.org/10.1038/s41565-025-01968-3| https://doi.org/10.1038/s41565-025-01988-z| https://doi.org/10.1038/s41565-025-01986-1| https://doi.org/10.1038/s41565-021-00990-5| https://doi.org/10.1038/s41565-020-00792-1| https://doi.org/10.1038/s41565-020-0718-1| https://doi.org/10.1038/s41565-023-01433-z| https://doi.org/10.1038/s41565-023-01469-1| https://doi.org/10.1038/s41565-024-01710-5| https://doi.org/10.1038/s41565-024-01828-6| https://doi.org/10.1038/s41565-021-01024-w| https://doi.org/10.1038/s41565-021-00862-y| https://doi.org/10.1038/s41565-024-01661-x| https://doi.org/10.1038/s41565-020-00821-z| https://doi.org/10.1038/s41565-022-01143-y| https://doi.org/10.1038/s41565-023-01493-1| https://doi.org/10.1038/s41565-020-0735-0| https://doi.org/10.1038/s41565-020-0667-8| https://doi.org/10.1038/s41565-023-01537-6| https://doi.org/10.1038/s41565-024-01630-4| https://doi.org/10.1038/s41565-024-01602-8| https://doi.org/10.1038/s41565-022-01128-x| https://doi.org/10.1038/s41565-022-01269-z| https://doi.org/10.1038/s41565-023-01428-w| https://doi.org/10.1038/s41565-023-01465-5| https://doi.org/10.1038/s41565-022-01156-7| https://doi.org/10.1038/s41565-022-01207-z| https://doi.org/10.1038/s41565-021-01055-3| https://doi.org/10.1038/s41565-022-01159-4| https://doi.org/10.1038/s41565-023-01445-9| https://doi.org/10.1038/s41565-020-0661-1| https://doi.org/10.1038/s41565-024-01718-x</v>
       </c>
-      <c r="C38" t="str">
+      <c r="C38" s="1" t="str">
         <v>Epitaxial growth of wafer-scale molybdenum disulfide semiconductor single crystals on sapphire| Scalable two-step annealing method for preparing ultra-high-density single-atom catalyst libraries| Graphene oxide membranes with stable porous structure for ultrafast water transport| Subambient daytime radiative cooling textile based on nanoprocessed silk| Nanoscale engineering of catalytic materials for sustainable technologies| Dual-coupling-guided epitaxial growth of wafer-scale single-crystal WS2 monolayer on vicinal a-plane sapphire| Synergizing metal–support interactions and spatial confinement boosts dynamics of atomic nickel for hydrogenations| Graphene-nanopocket-encaged PtCo nanocatalysts for highly durable fuel cell operation under demanding ultralow-Pt-loading conditions| Hydrogen storage in incompletely etched multilayer Ti2CTx at room temperature| Large-area single-crystal AB-bilayer and ABA-trilayer graphene grown on a Cu/Ni(111) foil| High oscillator strength interlayer excitons in two-dimensional heterostructures for mid-infrared photodetection| Nanocomposite NiTi shape memory alloy with high strength and fatigue resistance| Industrial scale production of fibre batteries by a solution-extrusion method| High-yield solar-driven atmospheric water harvesting of metal–organic-framework-derived nanoporous carbon with fast-diffusion water channels| Biomimetic artificial water channel membranes for enhanced desalination| Abrading bulk metal into single atoms| Exploiting the full advantages of colloidal perovskite nanocrystals for large-area efficient light-emitting diodes| Polymer nanocomposite dielectrics for capacitive energy storage| Highly stable, antiviral, antibacterial cotton textiles via molecular engineering| Low-thermal-budget synthesis of monolayer molybdenum disulfide for silicon back-end-of-line integration on a 200 mm platform| Staggered-layer-boosted flexible Bi2Te3 films with high thermoelectric performance| A high-performance hydroxide exchange membrane enabled by Cu2+-crosslinked chitosan| Interfacial-engineering-enabled practical low-temperature sodium metal battery| Phase-controllable large-area two-dimensional In2Se3 and ferroelectric heterophase junction| Endoepitaxial growth of monolayer mosaic heterostructures| Low-temperature growth of MoS2 on polymer and thin glass substrates for flexible electronics| An all-in-one nanoprinting approach for the synthesis of a nanofilm library for unclonable anti-counterfeiting applications| Step engineering for nucleation and domain orientation control in WSe2 epitaxy on c-plane sapphire| Highly stable and pure single-photon emission with 250 ps optical coherence times in InP colloidal quantum dots| Spin coating epitaxial heterodimensional tin perovskites for light-emitting diodes| Epitaxial substitution of metal iodides for low-temperature growth of two-dimensional metal chalcogenides| Complete miscibility of immiscible elements at the nanometre scale| Single-step fabrication of liquid gallium nanoparticles via capillary interaction for dynamic structural colours| Engineering colloidal semiconductor nanocrystals for quantum information processing| Multivalent-effect immobilization of reduced-dimensional perovskites for efficient and spectrally stable deep-blue light-emitting diodes| Piracetam shapes wide-bandgap perovskite crystals for scalable perovskite tandems| Optical fibres with embedded two-dimensional materials for ultrahigh nonlinearity| Layer-controlled single-crystalline graphene film with stacking order via Cu–Si alloy formation| Covalently interconnected transition metal dichalcogenide networks via defect engineering for high-performance electronic devices| Two-dimensional quantum-sheet films with sub-1.2 nm channels for ultrahigh-rate electrochemical capacitance| Quantum Hall effect of Weyl fermions in n-type semiconducting tellurene| Graphene-assisted spontaneous relaxation towards dislocation-free heteroepitaxy| Giant enhancement of third-harmonic generation in graphene–metal heterostructures| Light–matter coupling in large-area van der Waals superlattices| Spontaneous and reversible hollowing of alloy anode nanocrystals for stable battery cycling| Heteroepitaxial van der Waals semiconductor superlattices| Structured nanoscale metallic glass fibres with extreme aspect ratios| Epitaxial Pb on InAs nanowires for quantum devices| A highly homogeneous polymer composed of tetrahedron-like monomers for high-isotropy expansion microscopy| Magnetically tunable and stable deep-ultraviolet birefringent optics using two-dimensional hexagonal boron nitride| Hydrogen-substituted graphdiyne-assisted ultrafast sparking synthesis of metastable nanomaterials| Floating solid-state thin films with dynamic structural colour| Continuous epitaxy of single-crystal graphite films by isothermal carbon diffusion through nickel| Graphene nanopattern as a universal epitaxy platform for single-crystal membrane production and defect reduction| A free-standing lithium phosphorus oxynitride thin film electrolyte promotes uniformly dense lithium metal deposition with no external pressure| Microwave synthesis of molybdenene from MoS2| Next-generation protein-based materials capture and preserve projectiles from supersonic impacts| High-throughput manufacturing of epitaxial membranes from a single wafer by 2D materials-based layer transfer process| Telecom-band quantum dot technologies for long-distance quantum networks| Optical gain and lasing from bulk cadmium sulfide nanocrystals through bandgap renormalization| Mesoporous structured MoS2 as an electron transport layer for efficient and stable perovskite solar cells| Blue lasers using low-toxicity colloidal quantum dots| Remote epitaxial crystalline perovskites for ultrahigh-resolution micro-LED displays| On-demand formation of Lewis bases for efficient and stable perovskite solar cells| Micelle-enabled self-assembly of porous and monolithic carbon membranes for bioelectronic interfaces| Graphene oxide patchwork membranes| To nano or not to nano for bright halide perovskite emitters| Engineering metal oxidation using epitaxial strain| Earth-abundant Li-ion cathode materials with nanoengineered microstructures| Large second-order susceptibility from a quantized indium tin oxide monolayer| Two-dimensional adaptive membranes with programmable water and ionic channels| Harnessing blue energy with COF membranes| Low-temperature MoS2 growth on CMOS wafers| Challenges remain for 2D semiconductor growth| Colloidal nanocrystals for large-area LEDs| Golden touch of the nanoparticles| Publisher Correction: Scalable two-step annealing method for preparing ultra-high-density single-atom catalyst libraries| Author Correction: A high-energy and long-cycling lithium–sulfur pouch cell via a macroporous catalytic cathode with double-end binding sites| A flexible feature for the long-reigning thermoelectric champion bismuth telluride| Topotaxial mutual-exchange growth of magnetic Zintl Eu3In2As4 nanowires with axion insulator classification| Nanotechnology for electrochemical energy storage| Multivalent effect enables efficient and stable deep-blue perovskite LEDs| Scalable perovskite tandems enabled by dual-stage molecular regulation| Nanoscience-enabled pathways to next-generation perovskite photovoltaics| Strain-induced crumpling of graphene oxide lamellas to achieve fast and selective transport of H2 and CO2| Ultraclean monolayer amorphous carbon yields a high-precision proton beam| On-chip direct synthesis of boron nitride memristors| Engineering disorder with monolayer amorphous carbon growth| A decade of R2R graphene manufacturing| Membranes for special water treatment| Author Correction: Scalable synthesis of hierarchically structured carbon nanotube–graphene fibres for capacitive energy storage| 2D materials, a matter for chemists| Plasmonic structural colour paint gets commercial attention| Fluoride dielectrics for 2D transistors| Quantum dots are beginning to lase in the blue| 2D materials grow large| Nanoscale engineering for sustainable catalysis| Strain-resilient porous conductors with fewer nanofillers from in situ phase separation| Author Correction: Layer-controlled single-crystalline graphene film with stacking order via Cu–Si alloy formation| 24 Hours of Toulouse| Bulk semiconductor nanocrystals transform solution-processed gain media| Publisher Correction: Alloying conducting channels for reliable neuromorphic computing| Topological engineering for metallic polymers| Tin instead of lead for stable lasers| Fabrication of mechanochromic gallium nanostructures by capillary interactions| Author Correction: Ballistic Majorana nanowire devices| Author Correction: Floating solid-state thin films with dynamic structural colour| Combating fogging with selective sunlight nano-absorbers| Stable and pure single-photons from greener quantum dots| Direct synthesis of MoS2 films on flexible substrates at low temperature| Author Correction: Monolayer mosaic heterostructures| Developing nanophotonic structures that are stable in air and at high temperatures| DNA plastic| Field-free superconducting diode effect in noncentrosymmetric superconductor/ferromagnet multilayers| Oriented lateral growth of two-dimensional materials on c-plane sapphire| Creation of magnetic skyrmions by surface acoustic waves| Embedding core–shell photovoltaic nanocells in organic optoelectronics</v>
       </c>
-      <c r="D38" t="str">
-        <v>東大</v>
-      </c>
-      <c r="E38" t="str">
-        <v/>
-      </c>
-      <c r="F38">
+      <c r="D38" s="1" t="str">
+        <v>東大</v>
+      </c>
+      <c r="E38" s="1" t="str">
+        <v/>
+      </c>
+      <c r="F38" s="1" t="str">
+        <v>2022/10/12| 2020/03/25| 2020/12/14| 2024/07/27| 2021/10/04| 2025/04/05| 2023/07/17| 2021/09/25| 2023/11/10| 2023/03/05| 2021/10/10| 2024/06/02| 2023/05/11| 2023/03/31| 2021/04/30| 2023/10/16| 2025/06/16| 2022/11/13| 2024/04/08| 2025/03/24| 2022/11/21| 2021/02/23| 2023/11/03| 2023/12/07| 2024/12/16| 2022/05/30| 2022/01/17| 2022/11/29| 2020/07/27| 2023/09/06| 2021/03/19| 2021/08/27| 2023/11/08| 2024/03/13| 2025/09/16| 2024/06/26| 2025/12/01| 2023/10/09| 2025/03/19| 2022/06/04| 2022/01/06| 2025/04/24| 2024/02/08| 2022/08/19| 2024/02/11| 2020/01/02| 2025/12/27| 2024/01/30| 2022/09/05| 2020/01/08| 2023/10/29| 2021/02/21| 2020/04/02| 2020/05/11| 2020/06/19| 2020/01/05| 2021/08/07| 2020/06/17| 2024/10/15| 2022/08/31| 2024/04/23| 2021/04/10| 2023/02/17| 2022/04/03| 2020/10/20| 2022/07/25| 2025/07/31| 2025/12/24| 2021/10/09| 2023/07/04| 2022/05/06| 2024/03/21| 2021/08/19| 2020/05/21| 2023/01/29| 2025/11/22| 2022/05/27| 2022/09/14| 2020/09/24| 2022/08/20| 2024/07/13| 2020/01/20| 2025/10/23| 2023/04/03| 2020/11/21| 2020/11/29| 2024/04/22| 2023/01/17| 2025/07/20| 2022/03/10| 2020/05/13| 2023/10/18| 2025/02/16| 2024/09/06| 2022/07/17| 2021/07/20| 2023/10/06| 2024/08/20| 2022/08/06| 2020/06/09| 2020/11/17| 2025/09/24| 2022/08/16| 2021/10/01| 2023/02/24| 2020/05/27| 2025/07/09| 2020/12/27| 2023/10/26| 2022/01/20| 2024/04/20| 2023/10/23| 2020/05/10| 2021/06/05| 2022/02/23</v>
+      </c>
+      <c r="G38" s="1" t="str">
         <v>117</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="str">
+      <c r="A39" s="1" t="str">
         <v>10 インフォマティクス・AI・データ科学・レビュー・社会・教育・人材等</v>
       </c>
-      <c r="B39" t="str">
+      <c r="B39" s="1" t="str">
         <v>https://doi.org/10.1038/s41565-021-00922-3| https://doi.org/10.1038/s41565-020-0665-x| https://doi.org/10.1038/s41565-019-0604-x| https://doi.org/10.1038/s41565-021-00882-8| https://doi.org/10.1038/s41565-020-00790-3| https://doi.org/10.1038/s41565-024-01615-3| https://doi.org/10.1038/s41565-023-01567-0| https://doi.org/10.1038/s41565-024-01621-5| https://doi.org/10.1038/s41565-024-01726-x| https://doi.org/10.1038/s41565-022-01309-8| https://doi.org/10.1038/s41565-024-01765-4| https://doi.org/10.1038/s41565-024-01821-z| https://doi.org/10.1038/s41565-021-00879-3| https://doi.org/10.1038/s41565-022-01103-6| https://doi.org/10.1038/s41565-021-00955-8| https://doi.org/10.1038/s41565-022-01084-6| https://doi.org/10.1038/s41565-025-01861-z| https://doi.org/10.1038/s41565-025-01869-5| https://doi.org/10.1038/s41565-025-01876-6| https://doi.org/10.1038/s41565-025-01942-z| https://doi.org/10.1038/s41565-024-01770-7| https://doi.org/10.1038/s41565-023-01352-z| https://doi.org/10.1038/s41565-023-01469-1| https://doi.org/10.1038/s41565-024-01844-6| https://doi.org/10.1038/s41565-024-01739-6| https://doi.org/10.1038/s41565-020-00821-z| https://doi.org/10.1038/s41565-023-01389-0| https://doi.org/10.1038/s41565-020-00786-z| https://doi.org/10.1038/s41565-022-01192-3| https://doi.org/10.1038/s41565-023-01559-0| https://doi.org/10.1038/s41565-020-0645-1| https://doi.org/10.1038/s41565-024-01616-2| https://doi.org/10.1038/s41565-024-01700-7| https://doi.org/10.1038/s41565-024-01740-z| https://doi.org/10.1038/s41565-024-01777-0| https://doi.org/10.1038/s41565-024-01776-1| https://doi.org/10.1038/s41565-022-01303-0| https://doi.org/10.1038/s41565-022-01301-2| https://doi.org/10.1038/s41565-023-01437-9| https://doi.org/10.1038/s41565-023-01552-7| https://doi.org/10.1038/s41565-022-01239-5| https://doi.org/10.1038/s41565-022-01251-9| https://doi.org/10.1038/s41565-022-01250-w| https://doi.org/10.1038/s41565-022-01295-x| https://doi.org/10.1038/s41565-021-00891-7| https://doi.org/10.1038/s41565-021-00906-3| https://doi.org/10.1038/s41565-021-00984-3| https://doi.org/10.1038/s41565-021-01057-1| https://doi.org/10.1038/s41565-023-01349-8</v>
       </c>
-      <c r="C39" t="str">
+      <c r="C39" s="1" t="str">
         <v>X-ray-activated persistent luminescence nanomaterials for NIR-II imaging| Single-atom Rh/N-doped carbon electrocatalyst for formic acid oxidation| Lithium whisker growth and stress generation in an in situ atomic force microscope–environmental transmission electron microscope set-up| Electrical tuning of phase-change antennas and metasurfaces| Eliciting B cell immunity against infectious diseases using nanovaccines| Fine tuning of CpG spatial distribution with DNA origami for improved cancer vaccination| 3D nanofabricated soft microrobots with super-compliant picoforce springs as onboard sensors and actuators| A charge-dependent long-ranged force drives tailored assembly of matter in solution| Co-transcriptional production of programmable RNA condensates and synthetic organelles| Evidence of frustrated magnetic interactions in a Wigner–Mott insulator| Acid-degradable lipid nanoparticles enhance the delivery of mRNA| Advanced characterization of confined electrochemical interfaces in electrochemical capacitors| Conformable hierarchically engineered polymeric micromeshes enabling combinatorial therapies in brain tumours| Rapid response through the entrepreneurial capabilities of academic scientists| Charge-order-enhanced capacitance in semiconductor moiré superlattices| Monolayer mosaic heterostructures| Bruno Scrosati (1937–2024)| All-anion electrolyte solutions for high-potential sodium batteries| Kramers versus Kramers makes a stable qubit| Shuttling arrives for silicon quantum computers| Bolometric detection of Josephson radiation| Primary role of photothermal heating in light-driven reduction of nitroarenes| Plasmonic structural colour paint gets commercial attention| The importance of basic electrochemistry terminology in the era of interdisciplinary battery research| Engineering modular enzymes using DNA origami| Author Correction: Layer-controlled single-crystalline graphene film with stacking order via Cu–Si alloy formation| Interacting electrons collide at a beam splitter| Publisher Correction: Stand-off trapping and manipulation of sub-10 nm objects and biomolecules using opto-thermo-electrohydrodynamic tweezers| A 2D material-based liquid crystal for deep-ultraviolet light modulation| Excitons stabilize above the band gap in bilayer WSe2| Nanotechnology in a shrimp eye’s view| The potential for academics to inspire the next generation| Topologically protected edge states for neuromorphic computing| Moving microscopic objects with self-disassembly| Nanomedicine pioneers awarded the Kavli Prize| Playing electron ping-pong with the excited states of a single molecule| CO2/CO co-feeds and tandem catalysts for C–C coupling| Author Correction: Graphene unlocks dispersion of topological polaritons| Photomechanical molecular machines enable control of cell signalling| Dynamicity of atoms in a liquid metal catalyst enables selective propylene synthesis| Graphene amplifier reaches the quantum limit| Using quantum dots to produce a CMOS terahertz camera and polarimeter| Targeting and reducing abdominal fat using polycations| A brilliant source of single photons| Memristors get the hues| Nano for kids| Topological magnetic field textures| Peptide sequencing| Real-space observation of a two-dimensional electron gas at semiconductor heterointerfaces</v>
       </c>
-      <c r="D39" t="str">
-        <v>東大</v>
-      </c>
-      <c r="E39" t="str">
-        <v/>
-      </c>
-      <c r="F39">
+      <c r="D39" s="1" t="str">
+        <v>東大</v>
+      </c>
+      <c r="E39" s="1" t="str">
+        <v/>
+      </c>
+      <c r="F39" s="1" t="str">
+        <v>2021/02/18| 2020/01/11| 2020/10/04| 2021/04/22| 2023/02/01| 2024/03/24| 2022/04/16| 2022/12/11| 2021/07/10| 2025/06/01| 2025/10/27| 2021/08/22| 2020/10/01| 2021/01/23| 2025/11/08| 2020/03/17| 2021/07/12| 2022/04/10| 2025/11/02| 2024/09/22| 2022/11/29| 2024/09/15| 2023/10/18| 2021/12/23| 2020/12/13| 2024/08/20| 2024/08/25| 2024/07/02| 2023/04/11| 2020/10/19| 2024/05/19| 2021/03/03| 2024/11/14| 2024/04/11| 2020/05/23| 2025/07/22| 2020/07/18| 2024/10/28| 2021/11/12| 2023/05/19| 2025/07/30| 2022/02/01| 2023/04/02| 2020/02/26| 2021/09/11| 2024/08/06| 2025/06/28| 2025/09/09| 2020/06/11</v>
+      </c>
+      <c r="G39" s="1" t="str">
         <v>49</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="str">
+      <c r="A40" s="1" t="str">
         <v>11 ナノ粒子・ナノ構造評価と応用</v>
       </c>
-      <c r="B40" t="str">
+      <c r="B40" s="1" t="str">
         <v>https://doi.org/10.1038/s41565-021-00922-3| https://doi.org/10.1038/s41565-021-00962-9| https://doi.org/10.1038/s41565-022-01082-8| https://doi.org/10.1038/s41565-021-00866-8| https://doi.org/10.1038/s41565-020-0643-3| https://doi.org/10.1038/s41565-020-0648-y| https://doi.org/10.1038/s41565-021-00929-w| https://doi.org/10.1038/s41565-021-01018-8| https://doi.org/10.1038/s41565-021-00852-0| https://doi.org/10.1038/s41565-022-01085-5| https://doi.org/10.1038/s41565-023-01455-7| https://doi.org/10.1038/s41565-024-01660-y| https://doi.org/10.1038/s41565-023-01563-4| https://doi.org/10.1038/s41565-024-01667-5| https://doi.org/10.1038/s41565-024-01715-0| https://doi.org/10.1038/s41565-024-01690-6| https://doi.org/10.1038/s41565-024-01847-3| https://doi.org/10.1038/s41565-025-01877-5| https://doi.org/10.1038/s41565-020-0679-4| https://doi.org/10.1038/s41565-020-00820-0| https://doi.org/10.1038/s41565-020-0678-5| https://doi.org/10.1038/s41565-021-00997-y| https://doi.org/10.1038/s41565-021-00920-5| https://doi.org/10.1038/s41565-022-01146-9| https://doi.org/10.1038/s41565-022-01161-w| https://doi.org/10.1038/s41565-022-01086-4| https://doi.org/10.1038/s41565-023-01551-8| https://doi.org/10.1038/s41565-020-0642-4| https://doi.org/10.1038/s41565-024-01736-9| https://doi.org/10.1038/s41565-021-00907-2| https://doi.org/10.1038/s41565-024-01801-3| https://doi.org/10.1038/s41565-020-0663-z| https://doi.org/10.1038/s41565-023-01402-6| https://doi.org/10.1038/s41565-020-0757-7| https://doi.org/10.1038/s41565-020-0666-9| https://doi.org/10.1038/s41565-025-01910-7| https://doi.org/10.1038/s41565-025-01944-x| https://doi.org/10.1038/s41565-022-01100-9| https://doi.org/10.1038/s41565-021-00909-0| https://doi.org/10.1038/s41565-024-01745-8| https://doi.org/10.1038/s41565-022-01139-8| https://doi.org/10.1038/s41565-022-01227-9</v>
       </c>
-      <c r="C40" t="str">
+      <c r="C40" s="1" t="str">
         <v>X-ray-activated persistent luminescence nanomaterials for NIR-II imaging| Amplifying STING activation by cyclic dinucleotide–manganese particles for local and systemic cancer metalloimmunotherapy| Nano-enabled pesticides for sustainable agriculture and global food security| Nanotechnology approaches for global infectious diseases| Targeted crystallization of mixed-charge nanoparticles in lysosomes induces selective death of cancer cells| Dual-targeting nanoparticle vaccine elicits a therapeutic antibody response against chronic hepatitis B| Role of bacterial motility in differential resistance mechanisms of silver nanoparticles and silver ions| Nanoparticle cellular internalization is not required for RNA delivery to mature plant leaves| Optical tweezers beyond refractive index mismatch using highly doped upconversion nanoparticles| A transistor-like pH-sensitive nanodetergent for selective cancer therapy| Cholesterol modulates the physiological response to nanoparticles by changing the composition of protein corona| Janus liposozyme for the modulation of redox and immune homeostasis in infected diabetic wounds| Strategies for non-viral vectors targeting organs beyond the liver| Towards realizing nano-enabled precision delivery in plants| Multimodal smart systems reprogramme macrophages and remove urate to treat gouty arthritis| Nutrient-delivery and metabolism reactivation therapy for melanoma| Nature-inspired platform nanotechnology for RNA delivery to myeloid cells and their bone marrow progenitors| The pathways for nanoparticle transport across tumour endothelium| Programmable multistage drug delivery to lymph nodes| Nanomedicine and the COVID-19 vaccines| Two-way magnetic resonance tuning and enhanced subtraction imaging for non-invasive and quantitative biological imaging| Supramolecular arrangement of protein in nanoparticle structures predicts nanoparticle tropism for neutrophils in acute lung inflammation| An antiviral trap made of protein nanofibrils and iron oxyhydroxide nanoparticles| Nanoparticle single-cell multiomic readouts reveal that cell heterogeneity influences lipid nanoparticle-mediated messenger RNA delivery| Nanomedicine platform for targeting activated neutrophils and neutrophil–platelet complexes using an α1-antitrypsin-derived peptide motif| Laser-induced nanobubbles safely ablate vitreous opacities in vivo| Intracerebral fate of organic and inorganic nanoparticles is dependent on microglial extracellular vesicle function| Probing myeloid cell dynamics in ischaemic heart disease by nanotracer hot-spot imaging| A bispecific nanosystem activates endogenous natural killer cells in the bone marrow for haematologic malignancies therapy| Local development of nanotechnology-based diagnostics| Targeted protein degradation via cellular trafficking of nanoparticles| Targeting immune cells within lymph nodes| Nanotechnology for coral reef conservation, restoration and rehabilitation| Nanotechnology versus coronavirus| Nanotechnology for organ-tunable gene editing| A magnetically programmable mesoporous nanoreactor| In vivo transformations of positively charged nanoparticles alter the formation and function of RuBisCO photosynthetic protein corona| Photon avalanche goes multicolour| Nanotechnology for infectious diseases| A photo-controlled charge regulator improves cancer theranostics| Publisher Correction: A transistor-like pH-sensitive nanodetergent for selective cancer therapy| Using engineered nanoparticles to increase carbon dioxide storage in the ocean</v>
       </c>
-      <c r="D40" t="str">
-        <v/>
-      </c>
-      <c r="E40" t="str">
-        <v/>
-      </c>
-      <c r="F40">
+      <c r="D40" s="1" t="str">
+        <v/>
+      </c>
+      <c r="E40" s="1" t="str">
+        <v/>
+      </c>
+      <c r="F40" s="1" t="str">
+        <v>2021/02/18| 2025/02/12| 2020/07/07| 2025/08/05| 2021/11/13| 2020/02/04| 2024/01/07| 2021/11/05| 2023/02/19| 2020/12/24| 2023/08/12| 2022/10/23| 2023/08/15| 2023/03/07| 2023/03/12| 2020/07/11| 2022/07/12| 2025/04/19| 2021/11/19| 2025/01/22| 2022/11/09| 2022/05/01| 2025/02/18| 2024/01/12| 2022/07/28| 2024/09/03| 2022/03/03| 2023/03/16| 2022/02/17| 2022/10/29| 2024/02/09| 2025/05/27| 2025/05/08| 2021/01/19| 2020/08/20| 2022/03/17| 2020/12/05| 2022/03/22| 2024/02/14| 2020/11/20| 2024/04/01| 2023/12/28</v>
+      </c>
+      <c r="G40" s="1" t="str">
         <v>42</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="str">
+      <c r="A41" s="1" t="str">
         <v>12 DNA/RNA/タンパク質等 生体分子・バイオ材料のナノスケール操作・計測・応用</v>
       </c>
-      <c r="B41" t="str">
+      <c r="B41" s="1" t="str">
         <v>https://doi.org/10.1038/s41565-021-00962-9| https://doi.org/10.1038/s41565-020-00797-w| https://doi.org/10.1038/s41565-021-00924-1| https://doi.org/10.1038/s41565-021-00855-x| https://doi.org/10.1038/s41565-020-00818-8| https://doi.org/10.1038/s41565-020-00837-5| https://doi.org/10.1038/s41565-020-0636-2| https://doi.org/10.1038/s41565-022-01148-7| https://doi.org/10.1038/s41565-023-01548-3| https://doi.org/10.1038/s41565-022-01175-4| https://doi.org/10.1038/s41565-023-01468-2| https://doi.org/10.1038/s41565-023-01392-5| https://doi.org/10.1038/s41565-023-01588-9| https://doi.org/10.1038/s41565-024-01785-0| https://doi.org/10.1038/s41565-024-01753-8| https://doi.org/10.1038/s41565-024-01625-1| https://doi.org/10.1038/s41565-025-01879-3| https://doi.org/10.1038/s41565-020-0712-7| https://doi.org/10.1038/s41565-020-00807-x| https://doi.org/10.1038/s41565-021-01010-2| https://doi.org/10.1038/s41565-023-01476-2| https://doi.org/10.1038/s41565-023-01521-0| https://doi.org/10.1038/s41565-023-01403-5| https://doi.org/10.1038/s41565-023-01583-0| https://doi.org/10.1038/s41565-024-01780-5| https://doi.org/10.1038/s41565-024-01727-w| https://doi.org/10.1038/s41565-024-01819-7| https://doi.org/10.1038/s41565-025-01867-7| https://doi.org/10.1038/s41565-024-01846-4| https://doi.org/10.1038/s41565-023-01357-8| https://doi.org/10.1038/s41565-023-01510-3| https://doi.org/10.1038/s41565-021-00983-4| https://doi.org/10.1038/s41565-023-01574-1| https://doi.org/10.1038/s41565-023-01396-1| https://doi.org/10.1038/s41565-024-01772-5| https://doi.org/10.1038/s41565-022-01147-8| https://doi.org/10.1038/s41565-020-0680-y| https://doi.org/10.1038/s41565-024-01829-5| https://doi.org/10.1038/s41565-025-01944-x| https://doi.org/10.1038/s41565-025-01953-w| https://doi.org/10.1038/s41565-025-01988-z| https://doi.org/10.1038/s41565-023-01508-x| https://doi.org/10.1038/s41565-021-00991-4| https://doi.org/10.1038/s41565-024-01647-9| https://doi.org/10.1038/s41565-019-0627-3| https://doi.org/10.1038/s41565-022-01132-1| https://doi.org/10.1038/s41565-024-01663-9| https://doi.org/10.1038/s41565-023-01458-4| https://doi.org/10.1038/s41565-022-01156-7| https://doi.org/10.1038/s41565-024-01735-w</v>
       </c>
-      <c r="C41" t="str">
+      <c r="C41" s="1" t="str">
         <v>Amplifying STING activation by cyclic dinucleotide–manganese particles for local and systemic cancer metalloimmunotherapy| A high-energy and long-cycling lithium–sulfur pouch cell via a macroporous catalytic cathode with double-end binding sites| Environmental dimensions of the protein corona| Structural origin of the high-voltage instability of lithium cobalt oxide| Hydrogen storage in incompletely etched multilayer Ti2CTx at room temperature| Nanocomposite NiTi shape memory alloy with high strength and fatigue resistance| Matrix mechanics and water permeation regulate extracellular vesicle transport| Characterization of the structure and chemistry of the solid–electrolyte interface by cryo-EM leads to high-performance solid-state Li-metal batteries| Combinatorial development of nebulized mRNA delivery formulations for the lungs| Multiplexed reverse-transcriptase quantitative polymerase chain reaction using plasmonic nanoparticles for point-of-care COVID-19 diagnosis| Isothermal self-assembly of multicomponent and evolutive DNA nanostructures| Nano-enabled strategies to enhance biological nitrogen fixation| Spin coating epitaxial heterodimensional tin perovskites for light-emitting diodes| Direct cytosolic delivery of siRNA via cell membrane fusion using cholesterol-enriched exosomes| Designing nanotheranostics with machine learning| Single-step fabrication of liquid gallium nanoparticles via capillary interaction for dynamic structural colours| Genetic encoding and expression of RNA origami cytoskeletons in synthetic cells| A Josephson phase battery| Highly nonlinear transport across single-molecule junctions via destructive quantum interference| Light-activated interlayer contraction in two-dimensional perovskites for high-efficiency solar cells| Electroactive membrane fusion-liposome for increased electron transfer to enhance radiodynamic therapy| Optical gain and lasing from bulk cadmium sulfide nanocrystals through bandgap renormalization| Electrical switching of ferro-rotational order in nanometre-thick 1T-TaS2 crystals| Third-order exceptional line in a nitrogen-vacancy spin system| Printing of 3D photonic crystals in titania with complete bandgap across the visible spectrum| Polymersomes with splenic avidity target red pulp myeloid cells for cancer immunotherapy| Anomalous Hall spin current drives self-generated spin–orbit torque in a ferromagnet| Systemic HER3 ligand-mimicking nanobioparticles enter the brain and reduce intracranial tumour growth| Ferroelectricity with concomitant Coulomb screening in van der Waals heterostructures| In-memory factorization of holographic perceptual representations| Dynamin A as a one-component division machinery for synthetic cells| Superluminal-like magnon propagation in antiferromagnetic NiO at nanoscale distances| Large second-order susceptibility from a quantized indium tin oxide monolayer| Getting to the bottom of transition metal dissolution| Nanotechnology solutions for the climate crisis| Nanomaterials for carbon dioxide conversion at industrial scale| The race against COVID-19| Negative memory capacitance and ionic filtering effects in asymmetric nanopores| In vivo transformations of positively charged nanoparticles alter the formation and function of RuBisCO photosynthetic protein corona| A NICER nanovaccine for cancer immunotherapy| On-chip direct synthesis of boron nitride memristors| Barcoding biomarkers with nanopore sequencing| All-plasmonic water splitting| Author Correction: 3D nanofabricated soft microrobots with super-compliant picoforce springs as onboard sensors and actuators| A fresh look at desalination| A deep tissue optical sensing| Tuning light by the vibes| Observation of ultrafast ballistic orbital transport| Author Correction: Monolayer mosaic heterostructures| High-resolution three-dimensional imaging of topological textures in nanoscale single-diamond networks</v>
       </c>
-      <c r="D41" t="str">
-        <v>東大</v>
-      </c>
-      <c r="E41" t="str">
-        <v>東北大</v>
-      </c>
-      <c r="F41">
+      <c r="D41" s="1" t="str">
+        <v>東大</v>
+      </c>
+      <c r="E41" s="1" t="str">
+        <v>東北大</v>
+      </c>
+      <c r="F41" s="1" t="str">
+        <v>2025/02/12| 2025/03/31| 2024/10/06| 2022/07/12| 2023/11/10| 2024/06/02| 2023/12/09| 2024/11/26| 2020/06/05| 2021/09/17| 2024/12/14| 2021/12/09| 2023/09/06| 2024/10/11| 2024/12/15| 2023/11/08| 2025/03/27| 2021/01/09| 2024/03/14| 2022/02/25| 2021/12/23| 2022/08/31| 2022/09/05| 2024/01/11| 2020/08/25| 2023/12/21| 2020/01/21| 2024/03/24| 2020/06/14| 2020/10/23| 2025/07/16| 2022/12/23| 2021/10/09| 2020/01/17| 2024/07/28| 2021/10/26| 2021/04/25| 2021/06/01| 2020/12/05| 2023/07/04| 2020/11/29| 2024/01/21| 2021/05/23| 2023/10/19| 2022/05/13| 2024/08/11| 2024/03/04| 2022/08/17| 2023/10/26| 2023/05/07</v>
+      </c>
+      <c r="G41" s="1" t="str">
         <v>50</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="str">
+      <c r="A42" s="1" t="str">
         <v>4 触媒・電池・エネルギー材料・エネルギー変換技術の開発・性能向上</v>
       </c>
-      <c r="B42" t="str">
+      <c r="B42" s="1" t="str">
         <v>https://doi.org/10.1038/s41565-020-0657-x| https://doi.org/10.1038/s41565-022-01082-8| https://doi.org/10.1038/s41565-020-00831-x| https://doi.org/10.1038/s41565-021-00866-8| https://doi.org/10.1038/s41565-021-00895-3| https://doi.org/10.1038/s41565-020-00787-y| https://doi.org/10.1038/s41565-021-00987-0| https://doi.org/10.1038/s41565-022-01168-3| https://doi.org/10.1038/s41565-020-00812-0| https://doi.org/10.1038/s41565-020-0746-x| https://doi.org/10.1038/s41565-023-01346-x| https://doi.org/10.1038/s41565-020-0708-3| https://doi.org/10.1038/s41565-020-0700-y| https://doi.org/10.1038/s41565-021-00947-8| https://doi.org/10.1038/s41565-022-01098-0| https://doi.org/10.1038/s41565-020-00845-5| https://doi.org/10.1038/s41565-021-01063-3| https://doi.org/10.1038/s41565-020-0643-3| https://doi.org/10.1038/s41565-022-01228-8| https://doi.org/10.1038/s41565-020-0694-5| https://doi.org/10.1038/s41565-022-01074-8| https://doi.org/10.1038/s41565-021-01052-6| https://doi.org/10.1038/s41565-021-00919-y| https://doi.org/10.1038/s41565-020-0730-5| https://doi.org/10.1038/s41565-023-01513-0| https://doi.org/10.1038/s41565-020-0717-2| https://doi.org/10.1038/s41565-021-00929-w| https://doi.org/10.1038/s41565-021-00860-0| https://doi.org/10.1038/s41565-019-0614-8| https://doi.org/10.1038/s41565-022-01075-7| https://doi.org/10.1038/s41565-020-00788-x| https://doi.org/10.1038/s41565-022-01145-w| https://doi.org/10.1038/s41565-019-0613-9| https://doi.org/10.1038/s41565-022-01163-8| https://doi.org/10.1038/s41565-021-00939-8| https://doi.org/10.1038/s41565-021-00982-5| https://doi.org/10.1038/s41565-022-01081-9| https://doi.org/10.1038/s41565-022-01182-5| https://doi.org/10.1038/s41565-022-01256-4| https://doi.org/10.1038/s41565-024-01618-0| https://doi.org/10.1038/s41565-022-01101-8| https://doi.org/10.1038/s41565-023-01491-3| https://doi.org/10.1038/s41565-023-01460-w| https://doi.org/10.1038/s41565-022-01289-9| https://doi.org/10.1038/s41565-022-01277-z| https://doi.org/10.1038/s41565-021-01060-6| https://doi.org/10.1038/s41565-023-01360-z| https://doi.org/10.1038/s41565-023-01332-3| https://doi.org/10.1038/s41565-024-01658-6| https://doi.org/10.1038/s41565-024-01624-2| https://doi.org/10.1038/s41565-024-01794-z| https://doi.org/10.1038/s41565-024-01672-8| https://doi.org/10.1038/s41565-024-01673-7| https://doi.org/10.1038/s41565-024-01747-6| https://doi.org/10.1038/s41565-025-01888-2| https://doi.org/10.1038/s41565-025-01882-8| https://doi.org/10.1038/s41565-020-0703-8| https://doi.org/10.1038/s41565-020-00776-1| https://doi.org/10.1038/s41565-020-0727-0| https://doi.org/10.1038/s41565-020-00783-2| https://doi.org/10.1038/s41565-020-0685-6| https://doi.org/10.1038/s41565-020-00841-9| https://doi.org/10.1038/s41565-021-00900-9| https://doi.org/10.1038/s41565-023-01507-y| https://doi.org/10.1038/s41565-023-01496-y| https://doi.org/10.1038/s41565-023-01451-x| https://doi.org/10.1038/s41565-024-01649-7| https://doi.org/10.1038/s41565-024-01729-8| https://doi.org/10.1038/s41565-025-01872-w| https://doi.org/10.1038/s41565-025-01900-9| https://doi.org/10.1038/s41565-020-0741-2| https://doi.org/10.1038/s41565-021-00892-6| https://doi.org/10.1038/s41565-021-00945-w| https://doi.org/10.1038/s41565-021-00925-0| https://doi.org/10.1038/s41565-024-01736-9| https://doi.org/10.1038/s41565-020-00791-2| https://doi.org/10.1038/s41565-020-0671-z| https://doi.org/10.1038/s41565-020-00795-y| https://doi.org/10.1038/s41565-020-0738-x| https://doi.org/10.1038/s41565-024-01801-3| https://doi.org/10.1038/s41565-021-01015-x| https://doi.org/10.1038/s41565-023-01435-x| https://doi.org/10.1038/s41565-023-01423-1| https://doi.org/10.1038/s41565-024-01627-z| https://doi.org/10.1038/s41565-020-0666-9| https://doi.org/10.1038/s41565-025-01912-5| https://doi.org/10.1038/s41565-025-01921-4| https://doi.org/10.1038/s41565-025-01936-x| https://doi.org/10.1038/s41565-025-01938-9| https://doi.org/10.1038/s41565-025-01939-8| https://doi.org/10.1038/s41565-025-01937-w| https://doi.org/10.1038/s41565-025-01948-7| https://doi.org/10.1038/s41565-025-01958-5| https://doi.org/10.1038/s41565-025-01965-6| https://doi.org/10.1038/s41565-025-01970-9| https://doi.org/10.1038/s41565-025-01991-4| https://doi.org/10.1038/s41565-025-01982-5| https://doi.org/10.1038/s41565-025-01987-0| https://doi.org/10.1038/s41565-023-01494-0| https://doi.org/10.1038/s41565-020-00792-1| https://doi.org/10.1038/s41565-020-0675-8| https://doi.org/10.1038/s41565-022-01199-w| https://doi.org/10.1038/s41565-023-01448-6| https://doi.org/10.1038/s41565-024-01638-w| https://doi.org/10.1038/s41565-021-00850-2| https://doi.org/10.1038/s41565-021-00862-y| https://doi.org/10.1038/s41565-024-01714-1| https://doi.org/10.1038/s41565-024-01750-x| https://doi.org/10.1038/s41565-023-01493-1| https://doi.org/10.1038/s41565-022-01138-9| https://doi.org/10.1038/s41565-023-01427-x| https://doi.org/10.1038/s41565-024-01686-2| https://doi.org/10.1038/s41565-022-01167-4| https://doi.org/10.1038/s41565-022-01164-7| https://doi.org/10.1038/s41565-022-01181-6| https://doi.org/10.1038/s41565-023-01400-8| https://doi.org/10.1038/s41565-023-01474-4| https://doi.org/10.1038/s41565-022-01195-0| https://doi.org/10.1038/s41565-023-01470-8</v>
       </c>
-      <c r="C42" t="str">
+      <c r="C42" s="1" t="str">
         <v>From nanoscale interface characterization to sustainable energy storage using all-solid-state batteries| Nano-enabled pesticides for sustainable agriculture and global food security| A bright and fast source of coherent single photons| Nanotechnology approaches for global infectious diseases| Nanophotonics for light detection and ranging technology| All-solid-state spatial light modulator with independent phase and amplitude control for three-dimensional LiDAR applications| Subambient daytime radiative cooling textile based on nanoprocessed silk| Metal–organic frameworks and covalent organic frameworks as disruptive membrane materials for energy-efficient gas separation| Silica nanoparticles enhance disease resistance in Arabidopsis plants| Facet engineering accelerates spillover hydrogenation on highly diluted metal nanocatalysts| Artificial-enzymes-armed Bifidobacterium longum probiotics for alleviating intestinal inflammation and microbiota dysbiosis| Visualization of moiré superlattices| Flexoelectronics of centrosymmetric semiconductors| Progressive growth of the solid–electrolyte interphase towards the Si anode interior causes capacity fading| A nanovaccine for antigen self-presentation and immunosuppression reversal as a personalized cancer immunotherapy strategy| Identification of LiH and nanocrystalline LiF in the solid–electrolyte interphase of lithium metal anodes| Quantitative tracing of uptake and transport of submicrometre plastics in crop plants using lanthanide chelates as a dual-functional tracer| Targeted crystallization of mixed-charge nanoparticles in lysosomes induces selective death of cancer cells| Nano-optical designs for high-efficiency monolithic perovskite–silicon tandem solar cells| Alloying conducting channels for reliable neuromorphic computing| Photocatalytic degradation of steroid hormone micropollutants by TiO2-coated polyethersulfone membranes in a continuous flow-through process| Reversible strain-induced magnetic phase transition in a van der Waals magnet| Flexo-photovoltaic effect in MoS2| Imaging strain-localized excitons in nanoscale bubbles of monolayer WSe2 at room temperature| A wearable aptamer nanobiosensor for non-invasive female hormone monitoring| High oscillator strength interlayer excitons in two-dimensional heterostructures for mid-infrared photodetection| Role of bacterial motility in differential resistance mechanisms of silver nanoparticles and silver ions| Current understanding of biological identity at the nanoscale and future prospects| Single-molecule resonance Raman effect in a plasmonic nanocavity| Abrading bulk metal into single atoms| Permselective metal–organic framework gel membrane enables long-life cycling of rechargeable organic batteries| Continuous cuffless monitoring of arterial blood pressure via graphene bioimpedance tattoos| Carbon nanotubes added to the SIN List as a nanomaterial of Very High Concern| Industry outlook of perovskite quantum dots for display applications| Liposome-mediated detection of SARS-CoV-2 RNA-positive extracellular vesicles in plasma| Nano-optogenetic engineering of CAR T cells for precision immunotherapy with enhanced safety| Bridging nano- and microscale X-ray tomography for battery research by leveraging artificial intelligence| Direct patterning of colloidal quantum dots with adaptable dual-ligand surface| Versatile full-colour nanopainting enabled by a pixelated plasmonic metasurface| Photothermal therapy of tuberculosis using targeting pre-activated macrophage membrane-coated nanoparticles| Migrating photon avalanche in different emitters at the nanoscale enables 46th-order optical nonlinearity| Shared control of a 16 semiconductor quantum dot crossbar array| Low-temperature growth of MoS2 on polymer and thin glass substrates for flexible electronics| Packing-induced selectivity switching in molecular nanoparticle photocatalysts for hydrogen and hydrogen peroxide production| Efficient electrocatalytic valorization of chlorinated organic water pollutant to ethylene| Graphene moiré superlattices with giant quantum nonlinearity of chiral Bloch electrons| Leaky-wave metasurfaces for integrated photonics| Strong coupling between a photon and a hole spin in silicon| Phase-separated porous nanocomposite with ultralow percolation threshold for wireless bioelectronics| Universal STING mimic boosts antitumour immunity via preferential activation of tumour control signalling pathways| Fully integrated multi-mode optoelectronic memristor array for diversified in-sensor computing| Single-molecule fluorescence multiplexing by multi-parameter spectroscopic detection of nanostructured FRET labels| A large-scale machine learning analysis of inorganic nanoparticles in preclinical cancer research| Combinatorial design of siloxane-incorporated lipid nanoparticles augments intracellular processing for tissue-specific mRNA therapeutic delivery| Time-resolved sensing of electromagnetic fields with single-electron interferometry| Inversion of supramolecular chirality by photo-enhanced secondary nucleation| Birefringence-like spin transport via linearly polarized antiferromagnetic magnons| Advanced material modulation of nutritional and phytohormone status alleviates damage from soybean sudden death syndrome| Room-temperature valleytronic transistor| Tuning layer-hybridized moiré excitons by the quantum-confined Stark effect| Odd- and even-denominator fractional quantum Hall states in monolayer WSe2| Fano-resonant ultrathin film optical coatings| Epitaxial Pb on InAs nanowires for quantum devices| Multivalent insulin receptor activation using insulin–DNA origami nanostructures| Wireless electrical–molecular quantum signalling for cancer cell apoptosis| Sign reversal of the Josephson inductance magnetochiral anisotropy and 0–π-like transitions in supercurrent diodes| Functionalized nanowires for miRNA-mediated therapeutic programming of naïve T cells| Single-cavity loss-enabled nanometrology| Switching on and off the spin polarization of the conduction band in antiferromagnetic bilayer transistors| On-demand formation of Lewis bases for efficient and stable perovskite solar cells| Backbone charge transport in double-stranded DNA| Tunable phase-change metasurfaces| Furcated droplet motility on crystalline surfaces| Quantum tomography of an entangled three-qubit state in silicon| A bispecific nanosystem activates endogenous natural killer cells in the bone marrow for haematologic malignancies therapy| Intermolecular conical intersections in molecular aggregates| Bose–Einstein condensation of quasiparticles by rapid cooling| Two-dimensional adaptive membranes with programmable water and ionic channels| Beyond von Neumann| Targeted protein degradation via cellular trafficking of nanoparticles| Electronic thermal transport measurement in low-dimensional materials with graphene non-local noise thermometry| Hybrid electronic–photonic sensors on a fibre tip| Effects of cholesterol on biomolecular corona| The intersection of bottom-up synthetic cell engineering and nanobiotechnology| Nanotechnology for organ-tunable gene editing| Ceramic crystals stretch like metal| Battery research needs more reliable, representative and reproducible synchrotron characterizations| Molecular motors in action at interfaces| Interfacial reaction quantification enables long-cycling lithium metal batteries| Evolution of multivalent supramolecular assemblies of aptamers with target-defined spatial organization| Challenges and opportunities in DNA computing and data storage| Electrically reconfigurable heteronuclear dual-atom catalysts| Tailoring the adjuvanticity of lipid nanoparticles by PEG lipid ratio and phospholipid modifications| Nanopore detection of single-nucleotide RNA mutations and modifications with programmable nanolatches| Vortex lasers through collective boundary scattering| Ultrawide-bandwidth boron nitride photonic memristors| An information ratchet improves selectivity in molecular recognition under non-equilibrium conditions| Quantum could be key for financial security| Ferroelectricity and multiferroicity down to the atomic thickness| Membranes for special water treatment| Author Correction: Vitamin lipid nanoparticles enable adoptive macrophage transfer for the treatment of multidrug-resistant bacterial sepsis| Microrobots mop-up nanoplastics| Excitons in atomically thin materials flow faster than they fly| Topographic fingerprinting of single proteins and proteoforms| Magnetization switching through symmetry| Nanoscale engineering for sustainable catalysis| Hype kills your story| Revisiting hyperbolic materials for deep-subwavelength polaritonics| Bulk semiconductor nanocrystals transform solution-processed gain media| Non-invasive confocal microscopy of the immune system| The sum of symmetries is lower than its parts| New dimensions for fluorescence-based barcoding in complex mixtures| Publisher Correction: Atomic-scale friction between single-asperity contacts unveiled through in situ transmission electron microscopy| Zeolite facilitates selective olefins production| Phonons hushed| Measurement of scale-dependent time-reversal asymmetry in biological systems| Two-terminal reconfigurable and non-volatile photovoltaic detectors| Robert F. Curl (1933–2022)| Time-domain observation of ballistic orbital-angular-momentum currents with giant relaxation length in tungsten</v>
       </c>
-      <c r="D42" t="str">
-        <v>東大</v>
-      </c>
-      <c r="E42" t="str">
-        <v>東北大</v>
-      </c>
-      <c r="F42">
+      <c r="D42" s="1" t="str">
+        <v>東大</v>
+      </c>
+      <c r="E42" s="1" t="str">
+        <v>東北大</v>
+      </c>
+      <c r="F42" s="1" t="str">
+        <v>2022/12/23| 2020/07/07| 2020/04/06| 2025/08/05| 2022/10/22| 2024/07/04| 2024/07/27| 2023/04/18| 2021/07/04| 2022/09/02| 2025/04/06| 2022/09/07| 2025/06/06| 2022/02/23| 2024/07/26| 2023/03/27| 2020/07/19| 2021/11/13| 2022/02/09| 2020/12/25| 2024/12/19| 2021/02/23| 2021/04/28| 2021/05/06| 2023/04/02| 2021/10/10| 2024/01/07| 2022/02/14| 2025/04/27| 2023/10/16| 2022/11/03| 2022/10/05| 2022/07/23| 2023/03/05| 2021/10/24| 2024/04/21| 2022/08/22| 2022/10/10| 2022/10/01| 2023/09/18| 2024/07/19| 2024/09/11| 2022/05/30| 2025/12/08| 2025/12/11| 2025/04/03| 2024/05/01| 2021/11/17| 2023/10/10| 2023/03/10| 2021/03/20| 2024/05/03| 2020/09/05| 2020/03/30| 2025/04/02| 2022/10/19| 2022/01/26| 2021/11/14| 2021/10/11| 2021/02/08| 2024/04/28| 2025/01/26| 2024/01/30| 2020/05/14| 2025/09/09| 2025/01/17| 2022/06/26| 2020/10/30| 2021/09/04| 2023/02/17| 2020/12/30| 2021/09/05| 2025/06/10| 2022/02/17| 2023/12/17| 2025/06/21| 2023/07/04| 2025/02/24| 2024/02/09| 2024/07/18| 2021/06/19| 2020/04/08| 2022/06/30| 2020/08/20| 2024/02/25| 2020/05/25| 2024/10/19| 2021/07/19| 2021/06/10| 2022/12/08| 2021/12/11| 2021/08/24| 2022/09/16| 2023/08/07| 2022/04/15| 2021/03/05| 2025/07/15| 2024/11/16| 2025/07/20| 2023/01/21| 2020/04/09| 2020/06/29| 2023/04/05| 2022/09/22| 2021/07/20| 2020/09/12| 2020/04/29| 2020/06/09| 2022/07/21| 2023/06/06| 2020/10/31| 2024/07/29| 2020/05/22| 2021/03/02| 2022/11/17| 2020/07/04| 2020/06/03</v>
+      </c>
+      <c r="G42" s="1" t="str">
         <v>119</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="str">
+      <c r="A43" s="1" t="str">
         <v>8 理論・計算・機構解明・モデリング・記述子・基礎科学の深化</v>
       </c>
-      <c r="B43" t="str">
+      <c r="B43" s="1" t="str">
         <v>https://doi.org/10.1038/s41565-021-00881-9| https://doi.org/10.1038/s41565-020-0683-8| https://doi.org/10.1038/s41565-022-01107-2| https://doi.org/10.1038/s41565-022-01072-w| https://doi.org/10.1038/s41565-020-0754-x| https://doi.org/10.1038/s41565-023-01408-0| https://doi.org/10.1038/s41565-021-00885-5| https://doi.org/10.1038/s41565-021-00923-2| https://doi.org/10.1038/s41565-022-01225-x| https://doi.org/10.1038/s41565-023-01383-6| https://doi.org/10.1038/s41565-021-01061-5| https://doi.org/10.1038/s41565-023-01447-7| https://doi.org/10.1038/s41565-022-01116-1| https://doi.org/10.1038/s41565-023-01356-9| https://doi.org/10.1038/s41565-023-01319-0| https://doi.org/10.1038/s41565-024-01681-7| https://doi.org/10.1038/s41565-024-01716-z| https://doi.org/10.1038/s41565-024-01845-5| https://doi.org/10.1038/s41565-025-01881-9| https://doi.org/10.1038/s41565-025-01890-8| https://doi.org/10.1038/s41565-020-0760-z| https://doi.org/10.1038/s41565-020-00778-z| https://doi.org/10.1038/s41565-021-00997-y| https://doi.org/10.1038/s41565-021-01033-9| https://doi.org/10.1038/s41565-021-00849-9| https://doi.org/10.1038/s41565-021-00920-5| https://doi.org/10.1038/s41565-020-0729-y| https://doi.org/10.1038/s41565-022-01259-1| https://doi.org/10.1038/s41565-021-01048-2| https://doi.org/10.1038/s41565-022-01097-1| https://doi.org/10.1038/s41565-022-01092-6| https://doi.org/10.1038/s41565-022-01241-x| https://doi.org/10.1038/s41565-023-01558-1| https://doi.org/10.1038/s41565-023-01528-7| https://doi.org/10.1038/s41565-023-01382-7| https://doi.org/10.1038/s41565-024-01809-9| https://doi.org/10.1038/s41565-023-01591-0| https://doi.org/10.1038/s41565-024-01842-8| https://doi.org/10.1038/s41565-019-0607-7| https://doi.org/10.1038/s41565-020-00779-y| https://doi.org/10.1038/s41565-020-0769-3| https://doi.org/10.1038/s41565-021-00876-6| https://doi.org/10.1038/s41565-021-01005-z| https://doi.org/10.1038/s41565-023-01444-w| https://doi.org/10.1038/s41565-023-01410-6| https://doi.org/10.1038/s41565-023-01436-w| https://doi.org/10.1038/s41565-023-01439-7| https://doi.org/10.1038/s41565-024-01601-9| https://doi.org/10.1038/s41565-023-01415-1| https://doi.org/10.1038/s41565-023-01492-2| https://doi.org/10.1038/s41565-025-01856-w| https://doi.org/10.1038/s41565-022-01118-z| https://doi.org/10.1038/s41565-022-01187-0| https://doi.org/10.1038/s41565-024-01792-1| https://doi.org/10.1038/s41565-020-0720-7| https://doi.org/10.1038/s41565-021-00932-1| https://doi.org/10.1038/s41565-024-01814-y| https://doi.org/10.1038/s41565-024-01804-0| https://doi.org/10.1038/s41565-022-01088-2| https://doi.org/10.1038/s41565-022-01215-z| https://doi.org/10.1038/s41565-025-01896-2| https://doi.org/10.1038/s41565-025-01966-5| https://doi.org/10.1038/s41565-022-01247-5| https://doi.org/10.1038/s41565-020-00832-w| https://doi.org/10.1038/s41565-021-00960-x| https://doi.org/10.1038/s41565-023-01459-3| https://doi.org/10.1038/s41565-022-01211-3| https://doi.org/10.1038/s41565-023-01388-1| https://doi.org/10.1038/s41565-023-01554-5| https://doi.org/10.1038/s41565-022-01203-3| https://doi.org/10.1038/s41565-020-0744-z| https://doi.org/10.1038/s41565-022-01094-4| https://doi.org/10.1038/s41565-021-01050-8| https://doi.org/10.1038/s41565-021-00944-x| https://doi.org/10.1038/s41565-020-00842-8| https://doi.org/10.1038/s41565-023-01537-6| https://doi.org/10.1038/s41565-020-0772-8| https://doi.org/10.1038/s41565-023-01600-2| https://doi.org/10.1038/s41565-024-01640-2| https://doi.org/10.1038/s41565-024-01752-9| https://doi.org/10.1038/s41565-024-01789-w| https://doi.org/10.1038/s41565-020-0709-2| https://doi.org/10.1038/s41565-021-00968-3| https://doi.org/10.1038/s41565-023-01526-9| https://doi.org/10.1038/s41565-023-01573-2| https://doi.org/10.1038/s41565-023-01546-5| https://doi.org/10.1038/s41565-021-01035-7| https://doi.org/10.1038/s41565-024-01718-x</v>
       </c>
-      <c r="C43" t="str">
+      <c r="C43" s="1" t="str">
         <v>Electrically reconfigurable non-volatile metasurface using low-loss optical phase-change material| Efficient, fast and reabsorption-free perovskite nanocrystal-based sensitized plastic scintillators| A robust all-organic protective layer towards ultrahigh-rate and large-capacity Li metal anodes| Interfacial ferroelectricity in marginally twisted 2D semiconductors| High quality factor phase gradient metasurfaces| Exceptional points and non-Hermitian photonics at the nanoscale| Imaging the Néel vector switching in the monolayer antiferromagnet MnPSe3 with strain-controlled Ising order| Cell-mimicking nanodecoys neutralize SARS-CoV-2 and mitigate lung injury in a non-human primate model of COVID-19| Zinc cyclic di-AMP nanoparticles target and suppress tumours via endothelial STING activation and tumour-associated macrophage reinvigoration| Hierarchically resistive skins as specific and multimetric on-throat wearable biosensors| Robotic four-dimensional pixel assembly of van der Waals solids| Investigation of the enhanced antitumour potency of STING agonist after conjugation to polymer nanoparticles| Highly shape- and size-tunable membrane nanopores made with DNA| Excitons in mesoscopically reconstructed moiré heterostructures| Coloured vortex beams with incoherent white light illumination| Oral mitochondrial transplantation using nanomotors to treat ischaemic heart disease| Integrative catalytic pairs for efficient multi-intermediate catalysis| Dipolar wavevector interference induces a polar skyrmion lattice in strained BiFeO3 films| Nanoscale high-entropy surface engineering promotes selective glycerol electro-oxidation to glycerate at high current density| Exciton dressing by extreme nonlinear magnons in a layered semiconductor| Stand-off trapping and manipulation of sub-10 nm objects and biomolecules using opto-thermo-electrohydrodynamic tweezers| A Gd@C82 single-molecule electret| Supramolecular arrangement of protein in nanoparticle structures predicts nanoparticle tropism for neutrophils in acute lung inflammation| Quantum-dot single-photon sources for the quantum internet| Anisotropic band flattening in graphene with one-dimensional superlattices| An antiviral trap made of protein nanofibrils and iron oxyhydroxide nanoparticles| Probing photoelectrical transport in lead halide perovskites with van der Waals contacts| Tunable interaction between excitons and hybridized magnons in a layered semiconductor| Subcutaneous nanotherapy repurposes the immunosuppressive mechanism of rapamycin to enhance allogeneic islet graft viability| Pumping between phases with a pulsed-fuel molecular ratchet| Tailoring solid-state single-photon sources with stimulated emissions| Feedback-controlled hydrogels with homeostatic oscillations and dissipative signal transduction| Spontaneous broken-symmetry insulator and metals in tetralayer rhombohedral graphene| Telecom-band quantum dot technologies for long-distance quantum networks| Artificial intelligence assists nanoparticles to enter solid tumours| A cascade X-ray energy converting approach toward radio-afterglow cancer theranostics| Carbon-nanotube field-effect transistors for resolving single-molecule aptamer–ligand binding kinetics| Momentum tunnelling between nanoscale liquid flows| Single-shot dynamics of spin–orbit torque and spin transfer torque switching in three-terminal magnetic tunnel junctions| A deep-learning approach to realizing functionality in nanoelectronic devices| Nuclear spin quantum register in an optically active semiconductor quantum dot| Graphene oxide patchwork membranes| To nano or not to nano for bright halide perovskite emitters| Transport by circulating myeloid cells drives liposomal accumulation in inflamed synovium| Tunable phononic coupling in excitonic quantum emitters| Molecular machines stimulate intercellular calcium waves and cause muscle contraction| Precise electrokinetic position and three-dimensional orientation control of a nanowire bioprobe in solution| Coherent electronic coupling in quantum dot solids induces cooperative enhancement of nonlinear optoelectronic responses| A universal reagent for detection of emerging diseases using bioengineered multifunctional yeast nanofragments| Giant spin Hall effect in AB-stacked MoTe2/WSe2 bilayers| Nanotech powers on-chip intelligence| Harnessing blue energy with COF membranes| Quantum dot patterning by direct photolithography| On-demand nanoengineering of in-plane ferroelectric topologies| Programming multi-protein assembly by gene-brush patterns and two-dimensional compartment geometry| Ultra-fast non-volatile memory| Full on-device manipulation of olefin metathesis for precise manufacturing| Engineering modular and tunable single-molecule sensors by decoupling sensing from signal output| Spin ice devices from nanomagnets| Local and global energy barriers for chiral domain walls in synthetic antiferromagnet–ferromagnet lateral junctions| Achromatic metagratings for compact near-eye displays| Ångström-resolution imaging of cell-surface glycans| Moving forward in the semantic soup of artificial molecular machine taxonomy| A relaxin-based nanotherapy for liver fibrosis| Stopped-light nanolasing in optical magic-angle graphene| Electrokinetic manipulation of a nanowire| Author Correction: Characterization of the structure and chemistry of the solid–electrolyte interface by cryo-EM leads to high-performance solid-state Li-metal batteries| A floatable photocatalytic nanocomposite to facilitate scale-up of solar hydrogen production| Ultrafast nano-movie of graphene| Merging metasurfaces with microfluidics| Excitons in a twisted world| Microdrones soar by recoiling light| Reply to: Prospects and challenges for FAIR toxicogenomics data| Nanofabrication meets open science| Nano-enabled immunomodulation| Tin instead of lead for stable lasers| A self-promoting growth of Na microstructures| Spinning nanomotor with a DNA clutch| Light manipulation with sub-pixel wavefront control using gap phases| Author Correction: All-optical free-space routing of upconverted light by metasurfaces via nonlinear interferometry| Energy-efficient magnetization manipulation using picosecond current pulses| A gateway to understanding confined ions| Netting proteins, one at a time| High optical nonlinear efficiency achieved by compensating for nanoscale inhomogeneity| Powering a DNA origami nanoengine with chemical fuel| Soft high-density neural probes enable stable single-neuron recordings| Molecules that swim, or not| Embedding core–shell photovoltaic nanocells in organic optoelectronics</v>
       </c>
-      <c r="D43" t="str">
-        <v>東大</v>
-      </c>
-      <c r="E43" t="str">
-        <v/>
-      </c>
-      <c r="F43">
+      <c r="D43" s="1" t="str">
+        <v>東大</v>
+      </c>
+      <c r="E43" s="1" t="str">
+        <v/>
+      </c>
+      <c r="F43" s="1" t="str">
+        <v>2020/08/27| 2025/08/16| 2022/06/03| 2023/07/17| 2025/08/03| 2020/06/21| 2022/06/01| 2023/07/08| 2025/12/26| 2022/08/20| 2025/10/10| 2021/06/28| 2025/08/20| 2023/11/09| 2020/10/03| 2024/05/02| 2020/02/15| 2020/03/07| 2020/02/02| 2020/01/28| 2021/03/21| 2022/08/24| 2022/05/01| 2023/12/26| 2025/02/23| 2025/02/18| 2022/04/04| 2023/08/18| 2021/12/23| 2021/12/03| 2022/05/14| 2023/05/21| 2023/12/15| 2024/10/15| 2025/11/16| 2024/06/27| 2021/12/15| 2021/08/17| 2020/09/21| 2022/01/08| 2020/02/18| 2020/10/20| 2022/07/25| 2022/04/25| 2024/07/13| 2020/10/31| 2023/10/24| 2021/07/20| 2022/03/07| 2020/09/03| 2024/01/25| 2022/05/06| 2023/09/23| 2023/05/09| 2023/07/10| 2025/05/14| 2020/07/29| 2025/05/29| 2023/09/20| 2025/09/12| 2025/01/23| 2020/06/28| 2023/02/26| 2020/03/14| 2023/01/29| 2025/10/15| 2021/03/09| 2023/10/30| 2022/10/18| 2021/04/18| 2020/05/16| 2021/04/14| 2024/05/24| 2024/11/17| 2022/10/06| 2022/08/16| 2025/04/04| 2024/03/04| 2021/04/27| 2021/09/16| 2021/08/23| 2021/07/07| 2025/03/03| 2024/02/06| 2023/04/03| 2022/04/22| 2021/05/31| 2022/02/23</v>
+      </c>
+      <c r="G43" s="1" t="str">
         <v>88</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="str">
+      <c r="A44" s="1" t="str">
         <v>7 バンドギャップ・励起子・光キャリア等の物理パラメータ</v>
       </c>
-      <c r="B44" t="str">
+      <c r="B44" s="1" t="str">
         <v>https://doi.org/10.1038/s41565-020-00811-1| https://doi.org/10.1038/s41565-022-01165-6| https://doi.org/10.1038/s41565-021-01068-y| https://doi.org/10.1038/s41565-021-00919-y| https://doi.org/10.1038/s41565-020-0730-5| https://doi.org/10.1038/s41565-020-0717-2| https://doi.org/10.1038/s41565-020-0728-z| https://doi.org/10.1038/s41565-021-00873-9| https://doi.org/10.1038/s41565-022-01078-4| https://doi.org/10.1038/s41565-023-01356-9| https://doi.org/10.1038/s41565-024-01674-6| https://doi.org/10.1038/s41565-024-01805-z| https://doi.org/10.1038/s41565-025-01894-4| https://doi.org/10.1038/s41565-020-0750-1| https://doi.org/10.1038/s41565-020-00783-2| https://doi.org/10.1038/s41565-021-00916-1| https://doi.org/10.1038/s41565-020-0650-4| https://doi.org/10.1038/s41565-021-01023-x| https://doi.org/10.1038/s41565-021-00849-9| https://doi.org/10.1038/s41565-020-0685-6| https://doi.org/10.1038/s41565-021-00969-2| https://doi.org/10.1038/s41565-022-01259-1| https://doi.org/10.1038/s41565-021-00977-2| https://doi.org/10.1038/s41565-022-01115-2| https://doi.org/10.1038/s41565-022-01309-8| https://doi.org/10.1038/s41565-022-01104-5| https://doi.org/10.1038/s41565-023-01376-5| https://doi.org/10.1038/s41565-023-01413-3| https://doi.org/10.1038/s41565-023-01438-8| https://doi.org/10.1038/s41565-023-01583-0| https://doi.org/10.1038/s41565-023-01594-x| https://doi.org/10.1038/s41565-024-01780-5| https://doi.org/10.1038/s41565-021-00868-6| https://doi.org/10.1038/s41565-022-01142-z| https://doi.org/10.1038/s41565-022-01178-1| https://doi.org/10.1038/s41565-022-01183-4| https://doi.org/10.1038/s41565-022-01253-7| https://doi.org/10.1038/s41565-023-01350-1| https://doi.org/10.1038/s41565-023-01369-4| https://doi.org/10.1038/s41565-023-01488-y| https://doi.org/10.1038/s41565-024-01822-y| https://doi.org/10.1038/s41565-024-01732-z| https://doi.org/10.1038/s41565-020-00791-2| https://doi.org/10.1038/s41565-020-0671-z| https://doi.org/10.1038/s41565-020-0668-7| https://doi.org/10.1038/s41565-021-00949-6| https://doi.org/10.1038/s41565-023-01489-x| https://doi.org/10.1038/s41565-024-01791-2| https://doi.org/10.1038/s41565-024-01795-y| https://doi.org/10.1038/s41565-023-01544-7| https://doi.org/10.1038/s41565-024-01839-3| https://doi.org/10.1038/s41565-025-01913-4| https://doi.org/10.1038/s41565-025-01940-1| https://doi.org/10.1038/s41565-023-01566-1| https://doi.org/10.1038/s41565-023-01317-2| https://doi.org/10.1038/s41565-023-01448-6| https://doi.org/10.1038/s41565-023-01554-5| https://doi.org/10.1038/s41565-023-01569-y| https://doi.org/10.1038/s41565-024-01751-w| https://doi.org/10.1038/s41565-020-0637-1| https://doi.org/10.1038/s41565-022-01281-3| https://doi.org/10.1038/s41565-024-01782-3| https://doi.org/10.1038/s41565-020-0744-z| https://doi.org/10.1038/s41565-022-01171-8| https://doi.org/10.1038/s41565-023-01454-8| https://doi.org/10.1038/s41565-022-01172-7| https://doi.org/10.1038/s41565-021-00865-9| https://doi.org/10.1038/s41565-020-00804-0| https://doi.org/10.1038/s41565-022-01271-5| https://doi.org/10.1038/s41565-023-01559-0| https://doi.org/10.1038/s41565-024-01604-6| https://doi.org/10.1038/s41565-024-01684-4| https://doi.org/10.1038/s41565-024-01776-1| https://doi.org/10.1038/s41565-020-0638-0| https://doi.org/10.1038/s41565-021-01046-4| https://doi.org/10.1038/s41565-023-01506-z| https://doi.org/10.1038/s41565-022-01184-3| https://doi.org/10.1038/s41565-022-01252-8</v>
       </c>
-      <c r="C44" t="str">
+      <c r="C44" s="1" t="str">
         <v>Semiconductor physics of organic–inorganic 2D halide perovskites| Semiconductor moiré materials| Excitons in semiconductor moiré superlattices| Flexo-photovoltaic effect in MoS2| Imaging strain-localized excitons in nanoscale bubbles of monolayer WSe2 at room temperature| High oscillator strength interlayer excitons in two-dimensional heterostructures for mid-infrared photodetection| Broken mirror symmetry in excitonic response of reconstructed domains in twisted MoSe2/MoSe2 bilayers| Highly anisotropic excitons and multiple phonon bound states in a van der Waals antiferromagnetic insulator| Precursors of Majorana modes and their length-dependent energy oscillations probed at both ends of atomic Shiba chains| Excitons in mesoscopically reconstructed moiré heterostructures| Topological valley Hall polariton condensation| Tunable topological phases in nanographene-based spin-1/2 alternating-exchange Heisenberg chains| Enhanced Majorana stability in a three-site Kitaev chain| Giant Stark splitting of an exciton in bilayer MoS2| Tuning layer-hybridized moiré excitons by the quantum-confined Stark effect| Electrical tuning of optically active interlayer excitons in bilayer MoS2| A monolayer transition-metal dichalcogenide as a topological excitonic insulator| Light–matter coupling in large-area van der Waals superlattices| Anisotropic band flattening in graphene with one-dimensional superlattices| Odd- and even-denominator fractional quantum Hall states in monolayer WSe2| Moiré trions in MoSe2/WSe2 heterobilayers| Tunable interaction between excitons and hybridized magnons in a layered semiconductor| Tuning of the Berry curvature in 2D perovskite polaritons| Electric control of valley polarization in monolayer WSe2 using a van der Waals magnet| Evidence of frustrated magnetic interactions in a Wigner–Mott insulator| Bilayer WSe2 as a natural platform for interlayer exciton condensates in the strong coupling limit| Switchable moiré potentials in ferroelectric WTe2/WSe2 superlattices| Pressure tuning of minibands in MoS2/WSe2 heterostructures revealed by moiré phonons| Ultrafast exciton fluid flow in an atomically thin MoS2 semiconductor| Third-order exceptional line in a nitrogen-vacancy spin system| Mapping charge excitations in generalized Wigner crystals| Printing of 3D photonic crystals in titania with complete bandgap across the visible spectrum| Nanomechanical topological insulators with an auxiliary orbital degree of freedom| Wavelike electronic energy transfer in donor–acceptor molecular systems through quantum coherence| Engineering nanoscale hypersonic phonon transport| Quenching the bandgap of two-dimensional semiconductors with a perpendicular electric field| Bidirectional phonon emission in two-dimensional heterostructures triggered by ultrafast charge transfer| Every-other-layer dipolar excitons in a spin-valley locked superlattice| Time-resolved Coulomb collision of single electrons| Infrared nano-imaging of Dirac magnetoexcitons in graphene| Layer-dependent evolution of electronic structures and correlations in rhombohedral multilayer graphene| Even-integer quantum Hall effect in an oxide caused by a hidden Rashba effect| Intermolecular conical intersections in molecular aggregates| Bose–Einstein condensation of quasiparticles by rapid cooling| Tailoring topological order and π-conjugation to engineer quasi-metallic polymers| Nanoparticle surfactants for kinetically arrested photoactive assemblies to track light-induced electron transfer| Electrical detection of the flat-band dispersion in van der Waals field-effect structures| Controlled single-electron transfer enables time-resolved excited-state spectroscopy of individual molecules| Viscous terahertz photoconductivity of hydrodynamic electrons in graphene| Ultraviolet interlayer excitons in bilayer WSe2| Electron correlation strengthened in multilayer rhombohedral graphite| Non-Hermitian non-Abelian topological transition in the S = 1 electron spin system of a nitrogen vacancy centre in diamond| Atomic manipulation of the emergent quasi-2D superconductivity and pair density wave in a kagome metal| Rhombohedral graphene goes correlated at four or five layers| Relativistic quantum phenomena in graphene quantum dots| Excitons in atomically thin materials flow faster than they fly| Ultrafast nano-movie of graphene| Author Correction: Infrared nano-imaging of Dirac magnetoexcitons in graphene| Aharonov–Bohm interference and statistical phase-jump evolution in fractional quantum Hall states in bilayer graphene| Dirac-point photocurrents due to the photothermoelectric effect in non-uniform graphene devices| When ions break the law| 3D printed photonic crystals with a complete bandgap in the visible range| Excitons in a twisted world| Sub-molecular diagnostics of coherent energy transfer| Controlling topological states in bilayer graphene| Graphene unlocks dispersion of topological polaritons| Author Correction: High oscillator strength interlayer excitons in two-dimensional heterostructures for mid-infrared photodetection| Optical control of the valley Zeeman effect through many-exciton interactions| Stress testing the bulk photovoltaic effect| Excitons stabilize above the band gap in bilayer WSe2| Author Correction: Spontaneous broken-symmetry insulator and metals in tetralayer rhombohedral graphene| Versatile perovskites enable room-temperature topological polaritonics| Playing electron ping-pong with the excited states of a single molecule| Reply to: Dirac-point photocurrents due to photothermoelectric effect in non-uniform graphene devices| Author Correction: Tuning of the Berry curvature in 2D perovskite polaritons| Using single vacancies to build quantum antidots with atomic precision| Making a case for moiré semiconductors| Giant bulk piezophotovoltaic effect in 3R-MoS2</v>
       </c>
-      <c r="D44" t="str">
-        <v>東大</v>
-      </c>
-      <c r="E44" t="str">
-        <v/>
-      </c>
-      <c r="F44">
+      <c r="D44" s="1" t="str">
+        <v>東大</v>
+      </c>
+      <c r="E44" s="1" t="str">
+        <v/>
+      </c>
+      <c r="F44" s="1" t="str">
+        <v>2025/12/24| 2025/09/11| 2022/07/07| 2021/04/28| 2021/05/06| 2021/10/10| 2020/09/23| 2025/11/17| 2025/05/16| 2023/11/09| 2022/01/16| 2023/05/16| 2020/04/20| 2020/08/04| 2021/02/08| 2020/10/21| 2020/03/06| 2022/08/19| 2025/02/23| 2024/04/28| 2024/12/29| 2023/08/18| 2020/12/29| 2021/09/14| 2025/06/01| 2021/10/07| 2025/05/18| 2024/05/11| 2022/08/21| 2024/01/11| 2021/08/29| 2020/08/25| 2023/08/28| 2020/02/02| 2020/01/06| 2020/11/05| 2023/03/09| 2024/04/27| 2023/10/18| 2022/11/04| 2024/04/24| 2020/12/03| 2023/12/17| 2025/06/21| 2024/01/02| 2024/07/16| 2021/08/09| 2023/10/22| 2023/10/31| 2023/03/22| 2021/10/11| 2020/06/26| 2020/03/22| 2020/12/23| 2020/07/08| 2020/06/29| 2022/10/18| 2023/03/01| 2024/05/15| 2020/03/11| 2025/10/16| 2021/09/15| 2020/05/16| 2021/10/08| 2024/07/29| 2025/11/15| 2020/08/19| 2021/06/30| 2025/12/27| 2020/10/19| 2024/11/16| 2025/07/22| 2024/08/18| 2024/08/14| 2025/01/14| 2020/05/04</v>
+      </c>
+      <c r="G44" s="1" t="str">
         <v>78</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="str">
+      <c r="A45" s="1" t="str">
         <v>7 DNAオリガミ・核酸ナノ構造・DNA/RNAデバイス</v>
       </c>
-      <c r="B45" t="str">
+      <c r="B45" s="1" t="str">
         <v>https://doi.org/10.1038/s41565-020-0719-0| https://doi.org/10.1038/s41565-020-0699-0| https://doi.org/10.1038/s41565-023-01348-9| https://doi.org/10.1038/s41565-022-01169-2| https://doi.org/10.1038/s41565-022-01283-1| https://doi.org/10.1038/s41565-022-01116-1| https://doi.org/10.1038/s41565-023-01462-8| https://doi.org/10.1038/s41565-024-01615-3| https://doi.org/10.1038/s41565-023-01471-7| https://doi.org/10.1038/s41565-023-01479-z| https://doi.org/10.1038/s41565-023-01468-2| https://doi.org/10.1038/s41565-023-01333-2| https://doi.org/10.1038/s41565-023-01483-3| https://doi.org/10.1038/s41565-023-01321-6| https://doi.org/10.1038/s41565-024-01676-4| https://doi.org/10.1038/s41565-024-01612-6| https://doi.org/10.1038/s41565-024-01726-x| https://doi.org/10.1038/s41565-025-01879-3| https://doi.org/10.1038/s41565-020-0761-y| https://doi.org/10.1038/s41565-020-00784-1| https://doi.org/10.1038/s41565-020-00813-z| https://doi.org/10.1038/s41565-021-00988-z| https://doi.org/10.1038/s41565-023-01507-y| https://doi.org/10.1038/s41565-022-01287-x| https://doi.org/10.1038/s41565-023-01377-4| https://doi.org/10.1038/s41565-023-01443-x| https://doi.org/10.1038/s41565-023-01485-1| https://doi.org/10.1038/s41565-023-01527-8| https://doi.org/10.1038/s41565-023-01487-z| https://doi.org/10.1038/s41565-024-01721-2| https://doi.org/10.1038/s41565-024-01738-7| https://doi.org/10.1038/s41565-024-01723-0| https://doi.org/10.1038/s41565-024-01771-6| https://doi.org/10.1038/s41565-020-0741-2| https://doi.org/10.1038/s41565-022-01080-w| https://doi.org/10.1038/s41565-023-01412-4| https://doi.org/10.1038/s41565-023-01449-5| https://doi.org/10.1038/s41565-023-01516-x| https://doi.org/10.1038/s41565-023-01560-7| https://doi.org/10.1038/s41565-024-01779-y| https://doi.org/10.1038/s41565-021-00979-0| https://doi.org/10.1038/s41565-020-00785-0| https://doi.org/10.1038/s41565-023-01362-x| https://doi.org/10.1038/s41565-023-01556-3| https://doi.org/10.1038/s41565-024-01804-0| https://doi.org/10.1038/s41565-025-01880-w| https://doi.org/10.1038/s41565-025-01939-8| https://doi.org/10.1038/s41565-025-01937-w| https://doi.org/10.1038/s41565-025-01956-7| https://doi.org/10.1038/s41565-025-01965-6| https://doi.org/10.1038/s41565-024-01768-1| https://doi.org/10.1038/s41565-021-01002-2| https://doi.org/10.1038/s41565-020-0710-9| https://doi.org/10.1038/s41565-023-01467-3| https://doi.org/10.1038/s41565-023-01508-x| https://doi.org/10.1038/s41565-024-01619-z| https://doi.org/10.1038/s41565-024-01739-6| https://doi.org/10.1038/s41565-022-01240-y| https://doi.org/10.1038/s41565-023-01477-1| https://doi.org/10.1038/s41565-022-01210-4| https://doi.org/10.1038/s41565-022-01236-8| https://doi.org/10.1038/s41565-023-01365-8| https://doi.org/10.1038/s41565-023-01600-2| https://doi.org/10.1038/s41565-024-01651-z| https://doi.org/10.1038/s41565-024-01740-z| https://doi.org/10.1038/s41565-024-01749-4| https://doi.org/10.1038/s41565-023-01505-0| https://doi.org/10.1038/s41565-023-01532-x| https://doi.org/10.1038/s41565-023-01573-2| https://doi.org/10.1038/s41565-022-01288-w| https://doi.org/10.1038/s41565-021-01055-3| https://doi.org/10.1038/s41565-024-01617-1</v>
       </c>
-      <c r="C45" t="str">
+      <c r="C45" s="1" t="str">
         <v>Role of nanoscale antigen organization on B-cell activation probed using DNA origami| Cancer diagnosis with DNA molecular computation| DNA-framework-based multidimensional molecular classifiers for cancer diagnosis| Identification of nucleoside monophosphates and their epigenetic modifications using an engineered nanopore| Multi-micron crisscross structures grown from DNA-origami slats| Highly shape- and size-tunable membrane nanopores made with DNA| Enzyme-less nanopore detection of post-translational modifications within long polypeptides| Fine tuning of CpG spatial distribution with DNA origami for improved cancer vaccination| Programmable multispecific DNA-origami-based T-cell engagers| Nanopore sequencing of DNA-barcoded probes for highly multiplexed detection of microRNA, proteins and small biomarkers| Isothermal self-assembly of multicomponent and evolutive DNA nanostructures| Membrane-anchored DNA nanojunctions enable closer antigen-presenting cell–T-cell contact in elevated T-cell receptor triggering| Dynamic matrices with DNA-encoded viscoelasticity for cell and organoid culture| Structure, folding and flexibility of co-transcriptional RNA origami| A DNA robotic switch with regulated autonomous display of cytotoxic ligand nanopatterns| A non-FRET DNA reporter that changes fluorescence colour upon nuclease digestion| Co-transcriptional production of programmable RNA condensates and synthetic organelles| Genetic encoding and expression of RNA origami cytoskeletons in synthetic cells| Functional and morphological adaptation in DNA protocells via signal processing prompted by artificial metalloenzymes| A DNA-based voltmeter for organelles| DNA scaffolds enable efficient and tunable functionalization of biomaterials for immune cell modulation| A lysosome-targeted DNA nanodevice selectively targets macrophages to attenuate tumours| Multivalent insulin receptor activation using insulin–DNA origami nanostructures| Simultaneous identification of viruses and viral variants with programmable DNA nanobait| DNA storage in thermoresponsive microcapsules for repeated random multiplexed data access| DNA-origami-directed virus capsid polymorphism| Single-molecule analysis of DNA base-stacking energetics using patterned DNA nanostructures| A DNA turbine powered by a transmembrane potential across a nanopore| Site-directed placement of three-dimensional DNA origami| Single-molecule sensing inside stereo- and regio-defined hetero-nanopores| A modular DNA origami nanocompartment for engineering a cell-free, protein unfolding and degradation pathway| Quantifying T cell receptor mechanics at membrane junctions using DNA origami tension sensors| A primordial DNA store and compute engine| Backbone charge transport in double-stranded DNA| Chemical-to-mechanical molecular computation using DNA-based motors with onboard logic| Spatially multiplexed single-molecule translocations through a nanopore at controlled speeds| Universal, label-free, single-molecule visualization of DNA origami nanodevices across biological samples using origamiFISH| A rhythmically pulsing leaf-spring DNA-origami nanoengine that drives a passive follower| Associating growth factor secretions and transcriptomes of single cells in nanovials using SEC-seq| DNA microbeads for spatio-temporally controlled morphogen release within organoids| Single-molecule mechanical fingerprinting with DNA nanoswitch calipers| A DNA-nanoassembly-based approach to map membrane protein nanoenvironments| The harmony of form and function in DNA nanotechnology| Imaging DNA origami by fluorescence in situ hybridization| Engineering modular and tunable single-molecule sensors by decoupling sensing from signal output| RNA origami nanotubes push the boundaries of confinement| Evolution of multivalent supramolecular assemblies of aptamers with target-defined spatial organization| Challenges and opportunities in DNA computing and data storage| Encoding molecular transport into DNA condensates| Nanopore detection of single-nucleotide RNA mutations and modifications with programmable nanolatches| DNA origami force probes illuminate T cell receptor forces at the immune synapse| A DNA nanodevice boosts tumour immunity| DNA computation improves diagnostic workflows| Shaken, not heated: DNA self-assembly at room temperature| Barcoding biomarkers with nanopore sequencing| Author Correction: Dynamic matrices with DNA-encoded viscoelasticity for cell and organoid culture| Engineering modular enzymes using DNA origami| Light responsive DNA origami detects breast cancer marker| An external speed control for nanopore reads| Detection of modified RNA with an engineered nanopore| Toroid meets helix| Author Correction: Multi-micron crisscross structures grown from DNA-origami slats| Spinning nanomotor with a DNA clutch| Nanowires engineer naive T cells for immunotherapy| Moving microscopic objects with self-disassembly| DNA nanoswitches pack an anti-cancer punch| Author Correction: Membrane-anchored DNA nanojunctions enable closer antigen-presenting cell–T-cell contact in elevated T-cell receptor triggering| Nanoturbine driven by flow across a nanopore| Powering a DNA origami nanoengine with chemical fuel| Nanopores enable electrohydrodynamical DNA motor| DNA plastic| Functional analysis of single enzymes combining programmable molecular circuits with droplet-based microfluidics</v>
       </c>
-      <c r="D45" t="str">
-        <v>東大</v>
-      </c>
-      <c r="E45" t="str">
-        <v/>
-      </c>
-      <c r="F45">
+      <c r="D45" s="1" t="str">
+        <v>東大</v>
+      </c>
+      <c r="E45" s="1" t="str">
+        <v/>
+      </c>
+      <c r="F45" s="1" t="str">
+        <v>2024/11/01| 2020/01/14| 2023/05/01| 2020/10/25| 2020/09/10| 2025/08/20| 2024/11/11| 2024/03/24| 2021/04/12| 2021/06/22| 2024/12/14| 2020/03/03| 2020/09/01| 2022/08/10| 2023/02/24| 2024/11/24| 2021/07/10| 2025/03/27| 2022/11/21| 2022/03/16| 2022/08/31| 2024/01/20| 2020/05/14| 2023/06/15| 2021/02/26| 2023/12/31| 2021/08/30| 2023/12/12| 2022/08/22| 2020/07/01| 2024/02/07| 2023/02/17| 2022/05/20| 2020/12/30| 2022/01/08| 2020/02/18| 2024/06/22| 2021/04/28| 2022/12/21| 2020/01/09| 2023/05/15| 2022/04/24| 2023/06/30| 2021/12/27| 2025/05/29| 2022/09/20| 2021/06/10| 2022/12/08| 2020/10/07| 2022/09/16| 2023/12/02| 2020/12/27| 2020/05/26| 2025/02/08| 2024/01/21| 2022/06/15| 2020/12/13| 2020/11/14| 2025/08/10| 2021/01/21| 2021/11/14| 2023/03/10| 2024/03/04| 2022/06/03| 2024/04/11| 2020/09/06| 2020/05/10| 2023/06/26| 2023/04/03| 2025/07/13| 2024/04/20| 2023/03/02</v>
+      </c>
+      <c r="G45" s="1" t="str">
         <v>72</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="str">
+      <c r="A46" s="1" t="str">
         <v>12 DNA/RNA・分子ナノテク・バイオナノデバイス</v>
       </c>
-      <c r="B46" t="str">
+      <c r="B46" s="1" t="str">
         <v>https://doi.org/10.1038/s41565-020-0719-0| https://doi.org/10.1038/s41565-022-01193-2| https://doi.org/10.1038/s41565-020-0699-0| https://doi.org/10.1038/s41565-021-00854-y| https://doi.org/10.1038/s41565-022-01179-0| https://doi.org/10.1038/s41565-021-00939-8| https://doi.org/10.1038/s41565-022-01283-1| https://doi.org/10.1038/s41565-022-01116-1| https://doi.org/10.1038/s41565-023-01372-9| https://doi.org/10.1038/s41565-022-01175-4| https://doi.org/10.1038/s41565-024-01615-3| https://doi.org/10.1038/s41565-023-01471-7| https://doi.org/10.1038/s41565-023-01479-z| https://doi.org/10.1038/s41565-023-01468-2| https://doi.org/10.1038/s41565-023-01333-2| https://doi.org/10.1038/s41565-023-01483-3| https://doi.org/10.1038/s41565-024-01676-4| https://doi.org/10.1038/s41565-024-01612-6| https://doi.org/10.1038/s41565-024-01726-x| https://doi.org/10.1038/s41565-025-01879-3| https://doi.org/10.1038/s41565-020-00784-1| https://doi.org/10.1038/s41565-020-00813-z| https://doi.org/10.1038/s41565-021-00988-z| https://doi.org/10.1038/s41565-023-01507-y| https://doi.org/10.1038/s41565-022-01287-x| https://doi.org/10.1038/s41565-023-01377-4| https://doi.org/10.1038/s41565-023-01443-x| https://doi.org/10.1038/s41565-023-01485-1| https://doi.org/10.1038/s41565-023-01527-8| https://doi.org/10.1038/s41565-024-01721-2| https://doi.org/10.1038/s41565-024-01738-7| https://doi.org/10.1038/s41565-024-01723-0| https://doi.org/10.1038/s41565-023-01599-6| https://doi.org/10.1038/s41565-024-01771-6| https://doi.org/10.1038/s41565-022-01080-w| https://doi.org/10.1038/s41565-023-01449-5| https://doi.org/10.1038/s41565-023-01516-x| https://doi.org/10.1038/s41565-024-01779-y| https://doi.org/10.1038/s41565-021-00979-0| https://doi.org/10.1038/s41565-020-00785-0| https://doi.org/10.1038/s41565-023-01362-x| https://doi.org/10.1038/s41565-022-01096-2| https://doi.org/10.1038/s41565-024-01804-0| https://doi.org/10.1038/s41565-025-01939-8| https://doi.org/10.1038/s41565-025-01937-w| https://doi.org/10.1038/s41565-025-01956-7| https://doi.org/10.1038/s41565-025-01965-6| https://doi.org/10.1038/s41565-024-01744-9| https://doi.org/10.1038/s41565-024-01768-1| https://doi.org/10.1038/s41565-021-01002-2| https://doi.org/10.1038/s41565-023-01480-6| https://doi.org/10.1038/s41565-020-0710-9| https://doi.org/10.1038/s41565-023-01467-3| https://doi.org/10.1038/s41565-023-01508-x| https://doi.org/10.1038/s41565-024-01619-z| https://doi.org/10.1038/s41565-024-01739-6| https://doi.org/10.1038/s41565-022-01240-y| https://doi.org/10.1038/s41565-023-01398-z| https://doi.org/10.1038/s41565-022-01210-4| https://doi.org/10.1038/s41565-022-01236-8| https://doi.org/10.1038/s41565-023-01365-8| https://doi.org/10.1038/s41565-023-01600-2| https://doi.org/10.1038/s41565-024-01740-z| https://doi.org/10.1038/s41565-024-01749-4| https://doi.org/10.1038/s41565-023-01505-0| https://doi.org/10.1038/s41565-023-01573-2| https://doi.org/10.1038/s41565-022-01218-w| https://doi.org/10.1038/s41565-024-01617-1</v>
       </c>
-      <c r="C46" t="str">
+      <c r="C46" s="1" t="str">
         <v>Role of nanoscale antigen organization on B-cell activation probed using DNA origami| Nanopore-based technologies beyond DNA sequencing| Cancer diagnosis with DNA molecular computation| Nanotechnology to advance CRISPR–Cas genetic engineering of plants| Nanozyme-catalysed CRISPR assay for preamplification-free detection of non-coding RNAs| Liposome-mediated detection of SARS-CoV-2 RNA-positive extracellular vesicles in plasma| Multi-micron crisscross structures grown from DNA-origami slats| Highly shape- and size-tunable membrane nanopores made with DNA| CRISPR-Cas-amplified urinary biomarkers for multiplexed and portable cancer diagnostics| Multiplexed reverse-transcriptase quantitative polymerase chain reaction using plasmonic nanoparticles for point-of-care COVID-19 diagnosis| Fine tuning of CpG spatial distribution with DNA origami for improved cancer vaccination| Programmable multispecific DNA-origami-based T-cell engagers| Nanopore sequencing of DNA-barcoded probes for highly multiplexed detection of microRNA, proteins and small biomarkers| Isothermal self-assembly of multicomponent and evolutive DNA nanostructures| Membrane-anchored DNA nanojunctions enable closer antigen-presenting cell–T-cell contact in elevated T-cell receptor triggering| Dynamic matrices with DNA-encoded viscoelasticity for cell and organoid culture| A DNA robotic switch with regulated autonomous display of cytotoxic ligand nanopatterns| A non-FRET DNA reporter that changes fluorescence colour upon nuclease digestion| Co-transcriptional production of programmable RNA condensates and synthetic organelles| Genetic encoding and expression of RNA origami cytoskeletons in synthetic cells| A DNA-based voltmeter for organelles| DNA scaffolds enable efficient and tunable functionalization of biomaterials for immune cell modulation| A lysosome-targeted DNA nanodevice selectively targets macrophages to attenuate tumours| Multivalent insulin receptor activation using insulin–DNA origami nanostructures| Simultaneous identification of viruses and viral variants with programmable DNA nanobait| DNA storage in thermoresponsive microcapsules for repeated random multiplexed data access| DNA-origami-directed virus capsid polymorphism| Single-molecule analysis of DNA base-stacking energetics using patterned DNA nanostructures| A DNA turbine powered by a transmembrane potential across a nanopore| Single-molecule sensing inside stereo- and regio-defined hetero-nanopores| A modular DNA origami nanocompartment for engineering a cell-free, protein unfolding and degradation pathway| Quantifying T cell receptor mechanics at membrane junctions using DNA origami tension sensors| A magnetically powered nanomachine with a DNA clutch| A primordial DNA store and compute engine| Chemical-to-mechanical molecular computation using DNA-based motors with onboard logic| Universal, label-free, single-molecule visualization of DNA origami nanodevices across biological samples using origamiFISH| A rhythmically pulsing leaf-spring DNA-origami nanoengine that drives a passive follower| DNA microbeads for spatio-temporally controlled morphogen release within organoids| Single-molecule mechanical fingerprinting with DNA nanoswitch calipers| A DNA-nanoassembly-based approach to map membrane protein nanoenvironments| The harmony of form and function in DNA nanotechnology| Cross-species transcriptomic signatures identify mechanisms related to species sensitivity and common responses to nanomaterials| Engineering modular and tunable single-molecule sensors by decoupling sensing from signal output| Evolution of multivalent supramolecular assemblies of aptamers with target-defined spatial organization| Challenges and opportunities in DNA computing and data storage| Encoding molecular transport into DNA condensates| Nanopore detection of single-nucleotide RNA mutations and modifications with programmable nanolatches| Bottom-up synthetic immunology| DNA origami force probes illuminate T cell receptor forces at the immune synapse| A DNA nanodevice boosts tumour immunity| Unfolding the path to nanopore protein sequencing| DNA computation improves diagnostic workflows| Shaken, not heated: DNA self-assembly at room temperature| Barcoding biomarkers with nanopore sequencing| Author Correction: Dynamic matrices with DNA-encoded viscoelasticity for cell and organoid culture| Engineering modular enzymes using DNA origami| Light responsive DNA origami detects breast cancer marker| Nanoplasmonic acceleration of nucleic acid amplification for pathogen detection| Detection of modified RNA with an engineered nanopore| Toroid meets helix| Author Correction: Multi-micron crisscross structures grown from DNA-origami slats| Spinning nanomotor with a DNA clutch| Moving microscopic objects with self-disassembly| DNA nanoswitches pack an anti-cancer punch| Author Correction: Membrane-anchored DNA nanojunctions enable closer antigen-presenting cell–T-cell contact in elevated T-cell receptor triggering| Powering a DNA origami nanoengine with chemical fuel| Riboswitch nanocarriers for adenine rescue metabolic disease phenotypes| Functional analysis of single enzymes combining programmable molecular circuits with droplet-based microfluidics</v>
       </c>
-      <c r="D46" t="str">
-        <v>東大</v>
-      </c>
-      <c r="E46" t="str">
-        <v/>
-      </c>
-      <c r="F46">
+      <c r="D46" s="1" t="str">
+        <v>東大</v>
+      </c>
+      <c r="E46" s="1" t="str">
+        <v/>
+      </c>
+      <c r="F46" s="1" t="str">
+        <v>2024/11/01| 2020/08/11| 2020/01/14| 2020/02/08| 2022/03/04| 2021/10/24| 2020/09/10| 2025/08/20| 2020/02/29| 2021/09/17| 2024/03/24| 2021/04/12| 2021/06/22| 2024/12/14| 2020/03/03| 2020/09/01| 2023/02/24| 2024/11/24| 2021/07/10| 2025/03/27| 2022/03/16| 2022/08/31| 2024/01/20| 2020/05/14| 2023/06/15| 2021/02/26| 2023/12/31| 2021/08/30| 2023/12/12| 2020/07/01| 2024/02/07| 2023/02/17| 2020/06/10| 2022/05/20| 2022/01/08| 2024/06/22| 2021/04/28| 2020/01/09| 2023/05/15| 2022/04/24| 2023/06/30| 2022/12/16| 2025/05/29| 2021/06/10| 2022/12/08| 2020/10/07| 2022/09/16| 2020/08/12| 2023/12/02| 2020/12/27| 2025/02/23| 2020/05/26| 2025/02/08| 2024/01/21| 2022/06/15| 2020/12/13| 2020/11/14| 2023/08/15| 2021/01/21| 2021/11/14| 2023/03/10| 2024/03/04| 2024/04/11| 2020/09/06| 2020/05/10| 2023/04/03| 2022/10/15| 2023/03/02</v>
+      </c>
+      <c r="G46" s="1" t="str">
         <v>68</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="str">
+      <c r="A47" s="1" t="str">
         <v>14 マイクロ・ナノ流体・組織・細胞操作手法</v>
       </c>
-      <c r="B47" t="str">
+      <c r="B47" s="1" t="str">
         <v>https://doi.org/10.1038/s41565-021-00976-3| https://doi.org/10.1038/s41565-022-01122-3| https://doi.org/10.1038/s41565-023-01384-5| https://doi.org/10.1038/s41565-023-01401-7| https://doi.org/10.1038/s41565-024-01774-3| https://doi.org/10.1038/s41565-024-01833-9| https://doi.org/10.1038/s41565-024-01830-y| https://doi.org/10.1038/s41565-020-0760-z| https://doi.org/10.1038/s41565-022-01197-y| https://doi.org/10.1038/s41565-024-01649-7| https://doi.org/10.1038/s41565-023-01412-4| https://doi.org/10.1038/s41565-022-01158-5| https://doi.org/10.1038/s41565-024-01814-y| https://doi.org/10.1038/s41565-024-01627-z| https://doi.org/10.1038/s41565-025-01901-8| https://doi.org/10.1038/s41565-022-01199-w| https://doi.org/10.1038/s41565-023-01459-3| https://doi.org/10.1038/s41565-022-01203-3| https://doi.org/10.1038/s41565-020-0725-2| https://doi.org/10.1038/s41565-020-00786-z| https://doi.org/10.1038/s41565-023-01509-w| https://doi.org/10.1038/s41565-024-01651-z| https://doi.org/10.1038/s41565-024-01689-z</v>
       </c>
-      <c r="C47" t="str">
+      <c r="C47" s="1" t="str">
         <v>Photothermal nanofibres enable safe engineering of therapeutic cells| Enhancing CRISPR/Cas gene editing through modulating cellular mechanical properties for cancer therapy| Nanoplasmonic amplification in microfluidics enables accelerated colorimetric quantification of nucleic acid biomarkers from pathogens| Cell spheroid creation by transcytotic intercellular gelation| Harnessing extracellular vesicle heterogeneity for diagnostic and therapeutic applications| Chemistry, manufacturing and controls strategies for using novel excipients in lipid nanoparticles| Measuring age-dependent viscoelasticity of organelles, cells and organisms with time-shared optical tweezer microrheology| Stand-off trapping and manipulation of sub-10 nm objects and biomolecules using opto-thermo-electrohydrodynamic tweezers| Metasurface optofluidics for dynamic control of light fields| Functionalized nanowires for miRNA-mediated therapeutic programming of naïve T cells| Spatially multiplexed single-molecule translocations through a nanopore at controlled speeds| The start-ups taking nanoneedles into the clinic| Full on-device manipulation of olefin metathesis for precise manufacturing| The intersection of bottom-up synthetic cell engineering and nanobiotechnology| Publisher Correction: Measuring age-dependent viscoelasticity of organelles, cells and organisms with time-shared optical tweezer microrheology| Microrobots mop-up nanoplastics| Electrokinetic manipulation of a nanowire| Merging metasurfaces with microfluidics| Fine fibres with multifunctionality| Publisher Correction: Stand-off trapping and manipulation of sub-10 nm objects and biomolecules using opto-thermo-electrohydrodynamic tweezers| Breaking the bottleneck of synthetic cells| Nanowires engineer naive T cells for immunotherapy| Nanoparticle levitation on-chip</v>
       </c>
-      <c r="D47" t="str">
-        <v/>
-      </c>
-      <c r="E47" t="str">
-        <v/>
-      </c>
-      <c r="F47">
+      <c r="D47" s="1" t="str">
+        <v/>
+      </c>
+      <c r="E47" s="1" t="str">
+        <v/>
+      </c>
+      <c r="F47" s="1" t="str">
+        <v>2025/11/16| 2022/07/16| 2025/08/25| 2022/09/17| 2020/04/04| 2022/05/19| 2021/04/20| 2021/03/21| 2024/01/14| 2022/06/26| 2020/02/18| 2025/07/30| 2020/07/29| 2022/06/30| 2020/02/24| 2020/04/09| 2025/10/15| 2021/04/18| 2025/02/04| 2024/07/02| 2023/11/01| 2022/06/03| 2022/02/12</v>
+      </c>
+      <c r="G47" s="1" t="str">
         <v>23</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="str">
+      <c r="A48" s="1" t="str">
         <v>6 シミュレーション・理論・データ駆動型手法</v>
       </c>
-      <c r="B48" t="str">
+      <c r="B48" s="1" t="str">
         <v>https://doi.org/10.1038/s41565-022-01228-8| https://doi.org/10.1038/s41565-023-01408-0| https://doi.org/10.1038/s41565-020-0773-7| https://doi.org/10.1038/s41565-021-00933-0| https://doi.org/10.1038/s41565-021-00870-y| https://doi.org/10.1038/s41565-023-01344-z| https://doi.org/10.1038/s41565-022-01284-0| https://doi.org/10.1038/s41565-022-01297-9| https://doi.org/10.1038/s41565-024-01753-8| https://doi.org/10.1038/s41565-024-01635-z| https://doi.org/10.1038/s41565-024-01633-1| https://doi.org/10.1038/s41565-024-01673-7| https://doi.org/10.1038/s41565-023-01597-8| https://doi.org/10.1038/s41565-024-01691-5| https://doi.org/10.1038/s41565-025-01894-4| https://doi.org/10.1038/s41565-020-00778-z| https://doi.org/10.1038/s41565-021-00911-6| https://doi.org/10.1038/s41565-021-00917-0| https://doi.org/10.1038/s41565-020-0650-4| https://doi.org/10.1038/s41565-021-00849-9| https://doi.org/10.1038/s41565-020-00807-x| https://doi.org/10.1038/s41565-022-01276-0| https://doi.org/10.1038/s41565-022-01173-6| https://doi.org/10.1038/s41565-022-01258-2| https://doi.org/10.1038/s41565-023-01530-z| https://doi.org/10.1038/s41565-024-01693-3| https://doi.org/10.1038/s41565-020-00779-y| https://doi.org/10.1038/s41565-019-0629-1| https://doi.org/10.1038/s41565-020-0758-6| https://doi.org/10.1038/s41565-022-01226-w| https://doi.org/10.1038/s41565-022-01290-2| https://doi.org/10.1038/s41565-023-01492-2| https://doi.org/10.1038/s41565-025-01865-9| https://doi.org/10.1038/s41565-020-00791-2| https://doi.org/10.1038/s41565-020-0738-x| https://doi.org/10.1038/s41565-022-01114-3| https://doi.org/10.1038/s41565-021-01012-0| https://doi.org/10.1038/s41565-022-01216-y| https://doi.org/10.1038/s41565-023-01395-2| https://doi.org/10.1038/s41565-022-01120-5| https://doi.org/10.1038/s41565-021-00902-7| https://doi.org/10.1038/s41565-024-01829-5| https://doi.org/10.1038/s41565-025-01868-6| https://doi.org/10.1038/s41565-025-01927-y| https://doi.org/10.1038/s41565-025-01982-5| https://doi.org/10.1038/s41565-020-0763-9| https://doi.org/10.1038/s41565-021-00853-z| https://doi.org/10.1038/s41565-021-00850-2| https://doi.org/10.1038/s41565-024-01750-x| https://doi.org/10.1038/s41565-023-01454-8| https://doi.org/10.1038/s41565-022-01172-7| https://doi.org/10.1038/s41565-022-01191-4| https://doi.org/10.1038/s41565-024-01816-w| https://doi.org/10.1038/s41565-020-0640-6| https://doi.org/10.1038/s41565-022-01301-2| https://doi.org/10.1038/s41565-023-01351-0| https://doi.org/10.1038/s41565-023-01511-2| https://doi.org/10.1038/s41565-021-01035-7| https://doi.org/10.1038/s41565-023-01417-z</v>
       </c>
-      <c r="C48" t="str">
+      <c r="C48" s="1" t="str">
         <v>Nano-optical designs for high-efficiency monolithic perovskite–silicon tandem solar cells| Exceptional points and non-Hermitian photonics at the nanoscale| Dirac-vortex topological cavities| Molecular size-dependent subcontinuum solvent permeation and ultrafast nanofiltration across nanoporous graphene membranes| Computationally guided high-throughput design of self-assembling drug nanoparticles| Designing single-site alloy catalysts using a degree-of-isolation descriptor| Machine learning for nanoplasmonics| Solving integral equations in free space with inverse-designed ultrathin optical metagratings| Designing nanotheranostics with machine learning| Machine intelligence-accelerated discovery of all-natural plastic substitutes| Quantum interference enhances the performance of single-molecule transistors| A large-scale machine learning analysis of inorganic nanoparticles in preclinical cancer research| Ultrahigh-quality-factor micro- and nanomechanical resonators using dissipation dilution| Electricity generated by upstream proton diffusion in two-dimensional nanochannels| Enhanced Majorana stability in a three-site Kitaev chain| A Gd@C82 single-molecule electret| Towards FAIR nanosafety data| Third-order nonlinear Hall effect induced by the Berry-connection polarizability tensor| A monolayer transition-metal dichalcogenide as a topological excitonic insulator| Anisotropic band flattening in graphene with one-dimensional superlattices| Highly nonlinear transport across single-molecule junctions via destructive quantum interference| Breakdown of the Nernst–Einstein relation in carbon nanotube porins| Representing and describing nanomaterials in predictive nanoinformatics| Non-reciprocal multifarious self-organization| Interlinking spatial dimensions and kinetic processes in dissipative materials to create synthetic systems with lifelike functionality| Projected performance of Si- and 2D-material-based SRAM circuits ranging from 16 nm to 1 nm technology nodes| A deep-learning approach to realizing functionality in nanoelectronic devices| Layer-resolved magnetic proximity effect in van der Waals heterostructures| Photonic Rashba effect from quantum emitters mediated by a Berry-phase defective photonic crystal| Potential use of engineered nanoparticles in ocean fertilization for large-scale atmospheric carbon dioxide removal| Predicting accidental release of engineered nanomaterials to the environment| Giant spin Hall effect in AB-stacked MoTe2/WSe2 bilayers| Intermediate-range solvent templating and counterion behaviour at charged carbon nanotube surfaces| Intermolecular conical intersections in molecular aggregates| Beyond von Neumann| Exceptional points in lossy media lead to deep polynomial wave penetration with spatially uniform power loss| A roadmap for molecular thermoelectricity| Specific ion selectivity with a reverse-selective mechanism| Inferring scale-dependent non-equilibrium activity using carbon nanotubes| Catalyst design via descriptors| Achieving sustainable nanomaterial design though strategic cultivation of big data| Negative memory capacitance and ionic filtering effects in asymmetric nanopores| Momentum tunnelling across quantum barriers| Twisted light with a designed polar topology| An information ratchet improves selectivity in molecular recognition under non-equilibrium conditions| Relation between microscopic interactions and macroscopic properties in ferroics| Topological vortices for sound and light| Magnetization switching through symmetry| Revisiting hyperbolic materials for deep-subwavelength polaritonics| Controlling topological states in bilayer graphene| Graphene unlocks dispersion of topological polaritons| Quantum simulator comes in pairs| Nanoscale gradient interface for efficient heat transfer| Author Correction: Artificial water channels enable fast and selective water permeation through water-wire networks| Author Correction: Graphene unlocks dispersion of topological polaritons| Memory augmented factorization for holographic representation| A tunable two-dimensional crossbar array comprising 16 quantum dots| Molecules that swim, or not| Berry curvature dipole generation and helicity-to-spin conversion at symmetry-mismatched heterointerfaces</v>
       </c>
-      <c r="D48" t="str">
-        <v>東大</v>
-      </c>
-      <c r="E48" t="str">
-        <v/>
-      </c>
-      <c r="F48">
+      <c r="D48" s="1" t="str">
+        <v>東大</v>
+      </c>
+      <c r="E48" s="1" t="str">
+        <v/>
+      </c>
+      <c r="F48" s="1" t="str">
+        <v>2022/02/09| 2020/06/21| 2025/12/27| 2024/08/16| 2024/11/14| 2021/03/19| 2022/03/29| 2023/06/29| 2024/12/15| 2021/03/17| 2020/06/27| 2020/09/05| 2021/11/03| 2022/07/13| 2020/04/20| 2022/08/24| 2021/12/13| 2025/07/11| 2020/03/06| 2025/02/23| 2024/03/14| 2021/06/01| 2020/07/27| 2024/01/26| 2025/08/25| 2021/09/29| 2022/01/08| 2023/12/04| 2024/06/03| 2023/10/19| 2025/07/21| 2020/09/03| 2025/09/01| 2023/12/17| 2025/02/24| 2024/12/04| 2023/11/11| 2022/11/26| 2024/03/17| 2023/08/28| 2023/05/12| 2020/09/14| 2024/06/19| 2021/03/05| 2023/07/30| 2022/04/21| 2022/09/22| 2020/04/29| 2024/07/29| 2025/11/15| 2023/11/03| 2024/03/04| 2024/01/10| 2024/10/28| 2020/09/22| 2024/02/22| 2021/05/31| 2023/11/16</v>
+      </c>
+      <c r="G48" s="1" t="str">
         <v>59</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="str">
+      <c r="A49" s="1" t="str">
         <v>10 磁性材料・スピントロニクス・強磁性/反強磁性材料</v>
       </c>
-      <c r="B49" t="str">
+      <c r="B49" s="1" t="str">
         <v>https://doi.org/10.1038/s41565-021-00954-9| https://doi.org/10.1038/s41565-022-01091-7| https://doi.org/10.1038/s41565-024-01827-7| https://doi.org/10.1038/s41565-020-0712-7| https://doi.org/10.1038/s41565-020-0649-x| https://doi.org/10.1038/s41565-020-0716-3| https://doi.org/10.1038/s41565-021-01031-x| https://doi.org/10.1038/s41565-021-00940-1| https://doi.org/10.1038/s41565-021-01027-7| https://doi.org/10.1038/s41565-022-01144-x| https://doi.org/10.1038/s41565-022-01213-1| https://doi.org/10.1038/s41565-023-01452-w| https://doi.org/10.1038/s41565-022-01311-0| https://doi.org/10.1038/s41565-024-01694-2| https://doi.org/10.1038/s41565-023-01583-0| https://doi.org/10.1038/s41565-024-01798-9| https://doi.org/10.1038/s41565-024-01725-y| https://doi.org/10.1038/s41565-024-01819-7| https://doi.org/10.1038/s41565-025-01859-7| https://doi.org/10.1038/s41565-019-0607-7| https://doi.org/10.1038/s41565-023-01406-2| https://doi.org/10.1038/s41565-023-01596-9| https://doi.org/10.1038/s41565-020-0670-0| https://doi.org/10.1038/s41565-021-00983-4| https://doi.org/10.1038/s41565-022-01224-y| https://doi.org/10.1038/s41565-023-01336-z| https://doi.org/10.1038/s41565-025-01929-w| https://doi.org/10.1038/s41565-023-01500-5| https://doi.org/10.1038/s41565-024-01788-x| https://doi.org/10.1038/s41565-022-01262-6| https://doi.org/10.1038/s41565-024-01666-6| https://doi.org/10.1038/s41565-022-01088-2| https://doi.org/10.1038/s41565-022-01215-z| https://doi.org/10.1038/s41565-025-01913-4| https://doi.org/10.1038/s41565-021-00850-2| https://doi.org/10.1038/s41565-021-00992-3| https://doi.org/10.1038/s41565-024-01701-6| https://doi.org/10.1038/s41565-022-01188-z| https://doi.org/10.1038/s41565-021-00985-2| https://doi.org/10.1038/s41565-022-01206-0| https://doi.org/10.1038/s41565-024-01789-w| https://doi.org/10.1038/s41565-024-01840-w| https://doi.org/10.1038/s41565-020-00774-3| https://doi.org/10.1038/s41565-023-01430-2| https://doi.org/10.1038/s41565-021-00984-3| https://doi.org/10.1038/s41565-020-0684-7| https://doi.org/10.1038/s41565-022-01159-4| https://doi.org/10.1038/s41565-020-0661-1</v>
       </c>
-      <c r="C49" t="str">
+      <c r="C49" s="1" t="str">
         <v>Magnetic skyrmion bundles and their current-driven dynamics| Reconfigurable training and reservoir computing in an artificial spin-vortex ice via spin-wave fingerprinting| Ferrimagnetic Heusler tunnel junctions with fast spin-transfer torque switching enabled by low magnetization| A Josephson phase battery| Time-resolved imaging of three-dimensional nanoscale magnetization dynamics| Melting of a skyrmion lattice to a skyrmion liquid via a hexatic phase| Unveiling the three-dimensional magnetic texture of skyrmion tubes| Voltage control of ferrimagnetic order and voltage-assisted writing of ferrimagnetic spin textures| Complex free-space magnetic field textures induced by three-dimensional magnetic nanostructures| Current-driven dynamics and ratchet effect of skyrmion bubbles in a ferrimagnetic insulator| Three-dimensional racetrack memory devices designed from freestanding magnetic heterostructures| Multilayer spintronic neural networks with radiofrequency connections| Three-dimensional topological magnetic monopoles and their interactions in a ferromagnetic meta-lattice| In vivo magnetogenetics for cell-type-specific targeting and modulation of brain circuits| Third-order exceptional line in a nitrogen-vacancy spin system| Magnetoelectric nanodiscs enable wireless transgene-free neuromodulation| Magnetic-field-driven targeting of exosomes modulates immune and metabolic changes in dystrophic muscle| Anomalous Hall spin current drives self-generated spin–orbit torque in a ferromagnet| Spin-torque-driven gigahertz magnetization dynamics in the non-collinear antiferromagnet Mn3Sn| Single-shot dynamics of spin–orbit torque and spin transfer torque switching in three-terminal magnetic tunnel junctions| Coherent magnon-induced domain-wall motion in a magnetic insulator channel| High-fidelity initialization and control of electron and nuclear spins in a four-qubit register| Probing nanoscale fluctuation of ferromagnetic meta-atoms with a stochastic photonic spin Hall effect| Superluminal-like magnon propagation in antiferromagnetic NiO at nanoscale distances| Lorentz electron ptychography for imaging magnetic textures beyond the diffraction limit| Chiral antiferromagnetic Josephson junctions as spin-triplet supercurrent spin valves and d.c. SQUIDs| Electromagnetic wireless remote control of mammalian transgene expression| Exploring the host range for genetic transfer of magnetic organelle biosynthesis| Energy-efficient picosecond spin–orbit torque magnetization switching in ferro- and ferrimagnetic films| A closer look at spin textures| Toroidic phase transitions in a direct-kagome artificial spin ice| Spin ice devices from nanomagnets| Local and global energy barriers for chiral domain walls in synthetic antiferromagnet–ferromagnet lateral junctions| Non-Hermitian non-Abelian topological transition in the S = 1 electron spin system of a nitrogen vacancy centre in diamond| Magnetization switching through symmetry| Skyrmion birth at the notch| A magneto-mechanical genetics toolbox for in vivo neuromodulation| Wireless nanomedicine for brain tumors| Author Correction: Magnetic skyrmion bundles and their current-driven dynamics| The racetrack breaks free from the substrate| Energy-efficient magnetization manipulation using picosecond current pulses| Empowering spintronics with antiferromagnetic diodes| Publisher Correction: Melting of a skyrmion lattice to a skyrmion liquid via a hexatic phase| Coherent spin waves driving domain wall motion in insulators| Topological magnetic field textures| Nanometric square skyrmion lattice in a centrosymmetric tetragonal magnet| Field-free superconducting diode effect in noncentrosymmetric superconductor/ferromagnet multilayers| Creation of magnetic skyrmions by surface acoustic waves</v>
       </c>
-      <c r="D49" t="str">
-        <v>東大</v>
-      </c>
-      <c r="E49" t="str">
-        <v/>
-      </c>
-      <c r="F49">
+      <c r="D49" s="1" t="str">
+        <v>東大</v>
+      </c>
+      <c r="E49" s="1" t="str">
+        <v/>
+      </c>
+      <c r="F49" s="1" t="str">
+        <v>2023/05/02| 2024/09/09| 2023/11/24| 2021/01/09| 2020/01/10| 2020/08/23| 2024/09/03| 2025/10/11| 2021/09/21| 2022/10/22| 2023/01/19| 2025/03/06| 2021/03/30| 2022/01/16| 2024/01/11| 2024/10/17| 2024/12/05| 2020/01/21| 2022/06/13| 2020/09/21| 2024/05/21| 2025/07/13| 2023/07/16| 2022/12/23| 2020/02/14| 2022/02/04| 2022/09/12| 2022/01/12| 2021/10/21| 2022/09/06| 2023/09/11| 2023/09/20| 2025/09/12| 2020/06/26| 2022/09/22| 2021/08/02| 2020/10/05| 2021/10/12| 2022/03/12| 2025/12/18| 2021/08/23| 2025/12/17| 2023/09/03| 2023/03/03| 2025/06/28| 2024/02/16| 2023/10/23| 2021/06/05</v>
+      </c>
+      <c r="G49" s="1" t="str">
         <v>48</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="str">
+      <c r="A50" s="1" t="str">
         <v>9 ナノ粒子/ナノ構造・表面/界面・自己組織化</v>
       </c>
-      <c r="B50" t="str">
+      <c r="B50" s="1" t="str">
         <v>https://doi.org/10.1038/s41565-021-00860-0| https://doi.org/10.1038/s41565-021-00870-y| https://doi.org/10.1038/s41565-022-01234-w| https://doi.org/10.1038/s41565-023-01468-2| https://doi.org/10.1038/s41565-024-01621-5| https://doi.org/10.1038/s41565-024-01641-1| https://doi.org/10.1038/s41565-024-01625-1| https://doi.org/10.1038/s41565-024-01726-x| https://doi.org/10.1038/s41565-020-00825-9| https://doi.org/10.1038/s41565-020-00840-w| https://doi.org/10.1038/s41565-022-01258-2| https://doi.org/10.1038/s41565-023-01439-7| https://doi.org/10.1038/s41565-020-0720-7| https://doi.org/10.1038/s41565-022-01268-0| https://doi.org/10.1038/s41565-023-01423-1| https://doi.org/10.1038/s41565-025-01939-8| https://doi.org/10.1038/s41565-022-01155-8| https://doi.org/10.1038/s41565-023-01467-3| https://doi.org/10.1038/s41565-024-01808-w| https://doi.org/10.1038/s41565-022-01236-8| https://doi.org/10.1038/s41565-021-01054-4| https://doi.org/10.1038/s41565-022-01294-y| https://doi.org/10.1038/s41565-024-01689-z</v>
       </c>
-      <c r="C50" t="str">
+      <c r="C50" s="1" t="str">
         <v>Current understanding of biological identity at the nanoscale and future prospects| Computationally guided high-throughput design of self-assembling drug nanoparticles| Hierarchically self-assembled homochiral helical microtoroids| Isothermal self-assembly of multicomponent and evolutive DNA nanostructures| A charge-dependent long-ranged force drives tailored assembly of matter in solution| De novo design of pH-responsive self-assembling helical protein filaments| Single-step fabrication of liquid gallium nanoparticles via capillary interaction for dynamic structural colours| Co-transcriptional production of programmable RNA condensates and synthetic organelles| Ion-exchange enabled synthetic swarm| Self-assembly of aramid amphiphiles into ultra-stable nanoribbons and aligned nanoribbon threads| Non-reciprocal multifarious self-organization| Precise electrokinetic position and three-dimensional orientation control of a nanowire bioprobe in solution| Programming multi-protein assembly by gene-brush patterns and two-dimensional compartment geometry| Non-reciprocal interaction for living matter| Effects of cholesterol on biomolecular corona| Evolution of multivalent supramolecular assemblies of aptamers with target-defined spatial organization| Author Correction: Steam disinfection releases micro(nano)plastics from silicone-rubber baby teats as examined by optical photothermal infrared microspectroscopy| Shaken, not heated: DNA self-assembly at room temperature| Silk protein connecting water and nanofabrication| Toroid meets helix| Strolling on a cell membrane| Spontaneous assembly of hierarchical phases| Nanoparticle levitation on-chip</v>
       </c>
-      <c r="D50" t="str">
-        <v/>
-      </c>
-      <c r="E50" t="str">
-        <v/>
-      </c>
-      <c r="F50">
+      <c r="D50" s="1" t="str">
+        <v/>
+      </c>
+      <c r="E50" s="1" t="str">
+        <v/>
+      </c>
+      <c r="F50" s="1" t="str">
+        <v>2022/02/14| 2024/11/14| 2020/12/12| 2024/12/14| 2022/12/11| 2023/12/01| 2023/11/08| 2021/07/10| 2024/10/15| 2024/11/08| 2024/01/26| 2023/10/24| 2023/07/10| 2023/02/24| 2020/04/08| 2021/06/10| 2020/10/03| 2025/02/08| 2023/09/20| 2021/11/14| 2023/08/27| 2020/04/24| 2022/02/12</v>
+      </c>
+      <c r="G50" s="1" t="str">
         <v>23</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="str">
+      <c r="A51" s="1" t="str">
         <v>9 自己組織化・自己集合・分子機械・ナノロボティクス・分子デバイスの設計と制御</v>
       </c>
-      <c r="B51" t="str">
+      <c r="B51" s="1" t="str">
         <v>https://doi.org/10.1038/s41565-023-01580-3| https://doi.org/10.1038/s41565-023-01446-8| https://doi.org/10.1038/s41565-022-01133-0| https://doi.org/10.1038/s41565-022-01296-w| https://doi.org/10.1038/s41565-024-01652-y| https://doi.org/10.1038/s41565-023-01519-8| https://doi.org/10.1038/s41565-023-01326-1| https://doi.org/10.1038/s41565-024-01707-0| https://doi.org/10.1038/s41565-024-01613-5| https://doi.org/10.1038/s41565-024-01620-6| https://doi.org/10.1038/s41565-025-01870-y| https://doi.org/10.1038/s41565-024-01847-3| https://doi.org/10.1038/s41565-025-01877-5| https://doi.org/10.1038/s41565-025-01892-6| https://doi.org/10.1038/s41565-020-0715-4| https://doi.org/10.1038/s41565-021-00911-6| https://doi.org/10.1038/s41565-020-0734-1| https://doi.org/10.1038/s41565-021-00964-7| https://doi.org/10.1038/s41565-021-00977-2| https://doi.org/10.1038/s41565-022-01279-x| https://doi.org/10.1038/s41565-022-01245-7| https://doi.org/10.1038/s41565-022-01219-9| https://doi.org/10.1038/s41565-021-01034-8| https://doi.org/10.1038/s41565-023-01484-2| https://doi.org/10.1038/s41565-023-01443-x| https://doi.org/10.1038/s41565-023-01514-z| https://doi.org/10.1038/s41565-023-01438-8| https://doi.org/10.1038/s41565-024-01773-4| https://doi.org/10.1038/s41565-024-01698-y| https://doi.org/10.1038/s41565-025-01864-w| https://doi.org/10.1038/s41565-021-00846-y| https://doi.org/10.1038/s41565-022-01183-4| https://doi.org/10.1038/s41565-023-01406-2| https://doi.org/10.1038/s41565-024-01787-y| https://doi.org/10.1038/s41565-020-0662-0| https://doi.org/10.1038/s41565-021-00851-1| https://doi.org/10.1038/s41565-023-01550-9| https://doi.org/10.1038/s41565-021-00869-5| https://doi.org/10.1038/s41565-022-01114-3| https://doi.org/10.1038/s41565-020-0757-7| https://doi.org/10.1038/s41565-025-01901-8| https://doi.org/10.1038/s41565-025-01943-y| https://doi.org/10.1038/s41565-025-01962-9| https://doi.org/10.1038/s41565-024-01760-9| https://doi.org/10.1038/s41565-020-0702-9| https://doi.org/10.1038/s41565-020-0677-6| https://doi.org/10.1038/s41565-021-00877-5| https://doi.org/10.1038/s41565-023-01424-0| https://doi.org/10.1038/s41565-023-01475-3| https://doi.org/10.1038/s41565-023-01590-1| https://doi.org/10.1038/s41565-021-00864-w| https://doi.org/10.1038/s41565-022-01143-y| https://doi.org/10.1038/s41565-023-01440-0| https://doi.org/10.1038/s41565-020-0721-6| https://doi.org/10.1038/s41565-024-01604-6| https://doi.org/10.1038/s41565-024-01603-7| https://doi.org/10.1038/s41565-024-01743-w| https://doi.org/10.1038/s41565-024-01835-7| https://doi.org/10.1038/s41565-020-0640-6| https://doi.org/10.1038/s41565-023-01364-9| https://doi.org/10.1038/s41565-020-00830-y| https://doi.org/10.1038/s41565-022-01176-3| https://doi.org/10.1038/s41565-022-01201-5| https://doi.org/10.1038/s41565-021-00930-3| https://doi.org/10.1038/s41565-020-0656-y| https://doi.org/10.1038/s41565-023-01463-7</v>
       </c>
-      <c r="C51" t="str">
+      <c r="C51" s="1" t="str">
         <v>Inhalable extracellular vesicle delivery of IL-12 mRNA to treat lung cancer and promote systemic immunity| Reconfigurable, non-volatile neuromorphic photovoltaics| Nanostructured block copolymer muscles| A nanoadjuvant that dynamically coordinates innate immune stimuli activation enhances cancer immunotherapy and reduces immune cell exhaustion| Nanosurface-reconstructed perovskite for highly efficient and stable active-matrix light-emitting diode display| High-energy all-solid-state lithium batteries enabled by Co-free LiNiO2 cathodes with robust outside-in structures| Epitaxial substitution of metal iodides for low-temperature growth of two-dimensional metal chalcogenides| Photovoltaic nanocells for high-performance large-scale-integrated organic phototransistors| Targeting initial tumour–osteoclast spatiotemporal interaction to prevent bone metastasis| Chimeric nanobody-decorated liposomes by self-assembly| Intracellular dehydrogenation catalysis leads to reductive stress and immunosuppression| Nature-inspired platform nanotechnology for RNA delivery to myeloid cells and their bone marrow progenitors| The pathways for nanoparticle transport across tumour endothelium| Zeolite-confined Cu single-atom clusters stably catalyse CO to acetate at 1 A cm−2 beyond 1,000 h| Quantum Hall effect of Weyl fermions in n-type semiconducting tellurene| Towards FAIR nanosafety data| Enhanced catalytic activity under non-equilibrium conditions| Comprehensive framework for human health risk assessment of nanopesticides| Tuning of the Berry curvature in 2D perovskite polaritons| Room-temperature coherent optical manipulation of hole spins in solution-grown perovskite quantum dots| Immunological conversion of solid tumours using a bispecific nanobioconjugate for cancer immunotherapy| Atmospheric emission of nanoplastics from sewer pipe repairs| Soft-lock drawing of super-aligned carbon nanotube bundles for nanometre electrical contacts| Microwave synthesis of molybdenene from MoS2| DNA-origami-directed virus capsid polymorphism| Inhibition of acute complement responses towards bolus-injected nanoparticles using targeted short-circulating regulatory proteins| Ultrafast exciton fluid flow in an atomically thin MoS2 semiconductor| Revealing the degradation pathways of layered Li-rich oxide cathodes| Selective and quasi-continuous switching of ferroelectric Chern insulator devices for neuromorphic computing| Nanopore discrimination of rare earth elements| Distant spin entanglement via fast and coherent electron shuttling| Quenching the bandgap of two-dimensional semiconductors with a perpendicular electric field| Coherent magnon-induced domain-wall motion in a magnetic insulator channel| Earth-abundant Li-ion cathode materials with nanoengineered microstructures| Three-dimensional localization microscopy in live flowing cells| The race for the ideal single-photon source is on| Nanoscale one-dimensional close packing of interfacial alkali ions driven by water-mediated attraction| Ultra-high-frequency radio-frequency acoustic molecular imaging with saline nanodroplets in living subjects| Exceptional points in lossy media lead to deep polynomial wave penetration with spatially uniform power loss| Nanotechnology versus coronavirus| Publisher Correction: Measuring age-dependent viscoelasticity of organelles, cells and organisms with time-shared optical tweezer microrheology| Iron–silver-modified quantum dots act as efficient catalysts in anti-cancer multitherapy through controlled, ultrasound-induced oxidation| A roadmap for next-generation nanomotors| Publisher Correction: Oral mitochondrial transplantation using nanomotors to treat ischaemic heart disease| Memristors with alloyed electrodes| Notes on environmental nanoscience| Author Correction: From nanoscale interface characterization to sustainable energy storage using all-solid-state batteries| Quantum friction with water effectively cools graphene electrons| Publisher Correction: Atomically thin optomemristive feedback neurons| An optical imager that can compute| Author Correction: Antigen-capturing nanoparticles improve the abscopal effect and cancer immunotherapy| 24 Hours of Toulouse| Probing the depths of battery heterogeneity| In recognition of aberration-corrected TEM| Author Correction: Spontaneous broken-symmetry insulator and metals in tetralayer rhombohedral graphene| High-fidelity initialization and control of multiple nuclear spin qubits in silicon| Reimagining computing with 2D semiconductors| Vacancy-rich β-Li3N solid-state electrolyte| Author Correction: Artificial water channels enable fast and selective water permeation through water-wire networks| Transport mechanisms| Sanjiv ‘Sam’ Gambhir (1962–2020)| Author Correction: Cross-species transcriptomic signatures identify mechanisms related to species sensitivity and common responses to nanomaterials| A spin qubit hiding from the noise| Author Correction: Ultrafast hole spin qubit with gate-tunable spin–orbit switch functionality| Banning carbon nanotubes would be scientifically unjustified and damaging to innovation| Dynamic topological domain walls driven by lithium intercalation in graphene</v>
       </c>
-      <c r="D51" t="str">
-        <v>東大</v>
-      </c>
-      <c r="E51" t="str">
-        <v/>
-      </c>
-      <c r="F51">
+      <c r="D51" s="1" t="str">
+        <v>東大</v>
+      </c>
+      <c r="E51" s="1" t="str">
+        <v/>
+      </c>
+      <c r="F51" s="1" t="str">
+        <v>2021/11/04| 2021/09/01| 2021/06/19| 2022/02/08| 2021/07/16| 2022/10/21| 2021/03/19| 2020/04/30| 2020/04/18| 2020/01/29| 2022/01/18| 2022/07/12| 2025/04/19| 2021/02/26| 2022/01/06| 2021/12/13| 2021/06/01| 2020/02/04| 2020/12/29| 2024/05/09| 2022/08/19| 2020/05/01| 2023/04/01| 2020/01/05| 2023/12/31| 2023/12/07| 2022/08/21| 2020/08/30| 2024/04/21| 2025/08/28| 2025/07/17| 2020/11/05| 2024/05/21| 2025/12/24| 2025/07/10| 2025/03/01| 2020/08/10| 2024/09/16| 2024/12/04| 2021/01/19| 2020/02/24| 2025/11/25| 2021/02/15| 2020/10/23| 2022/04/20| 2024/10/28| 2024/04/19| 2021/05/10| 2025/12/08| 2022/04/21| 2022/08/06| 2020/06/29| 2024/01/25| 2024/11/16| 2024/08/10| 2023/06/17| 2020/01/26| 2024/01/10| 2024/09/08| 2022/05/23| 2023/08/14| 2020/05/02| 2021/09/08| 2025/12/09| 2022/12/22</v>
+      </c>
+      <c r="G51" s="1" t="str">
         <v>66</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="str">
+      <c r="A52" s="1" t="str">
         <v>14 理論・モデル・シミュレーション</v>
       </c>
-      <c r="B52" t="str">
+      <c r="B52" s="1" t="str">
         <v>https://doi.org/10.1038/s41565-022-01180-7| https://doi.org/10.1038/s41565-022-01297-9| https://doi.org/10.1038/s41565-022-01173-6| https://doi.org/10.1038/s41565-024-01842-8| https://doi.org/10.1038/s41565-022-01191-4| https://doi.org/10.1038/s41565-024-01806-y</v>
       </c>
-      <c r="C52" t="str">
+      <c r="C52" s="1" t="str">
         <v>A tunable bilayer Hubbard model in twisted WSe2| Solving integral equations in free space with inverse-designed ultrathin optical metagratings| Representing and describing nanomaterials in predictive nanoinformatics| Momentum tunnelling between nanoscale liquid flows| Quantum simulator comes in pairs| Unravelling topological states in quantum spin chains</v>
       </c>
-      <c r="D52" t="str">
-        <v/>
-      </c>
-      <c r="E52" t="str">
-        <v/>
-      </c>
-      <c r="F52">
+      <c r="D52" s="1" t="str">
+        <v/>
+      </c>
+      <c r="E52" s="1" t="str">
+        <v/>
+      </c>
+      <c r="F52" s="1" t="str">
+        <v>2023/08/26| 2023/06/29| 2020/07/27| 2021/08/17| 2023/11/03| 2021/01/22</v>
+      </c>
+      <c r="G52" s="1" t="str">
         <v>6</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="str">
+      <c r="A53" s="1" t="str">
         <v>13 合成/プロセス/製造/スケーラビリティ等</v>
       </c>
-      <c r="B53" t="str">
+      <c r="B53" s="1" t="str">
         <v>https://doi.org/10.1038/s41565-021-01030-y| https://doi.org/10.1038/s41565-021-00990-5| https://doi.org/10.1038/s41565-022-01143-y</v>
       </c>
-      <c r="C53" t="str">
+      <c r="C53" s="1" t="str">
         <v>Species-dependent in vivo mRNA delivery and cellular responses to nanoparticles| A decade of R2R graphene manufacturing| 24 Hours of Toulouse</v>
       </c>
-      <c r="D53" t="str">
-        <v/>
-      </c>
-      <c r="E53" t="str">
-        <v/>
-      </c>
-      <c r="F53">
+      <c r="D53" s="1" t="str">
+        <v/>
+      </c>
+      <c r="E53" s="1" t="str">
+        <v/>
+      </c>
+      <c r="F53" s="1" t="str">
+        <v>2025/07/29| 2023/01/17| 2022/08/06</v>
+      </c>
+      <c r="G53" s="1" t="str">
         <v>3</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="str">
+      <c r="A54" s="1" t="str">
         <v>12 計算・情報処理・AI・量子情報</v>
       </c>
-      <c r="B54" t="str">
+      <c r="B54" s="1" t="str">
         <v>https://doi.org/10.1038/s41565-022-01284-0| https://doi.org/10.1038/s41565-024-01771-6| https://doi.org/10.1038/s41565-020-00838-4| https://doi.org/10.1038/s41565-022-01291-1| https://doi.org/10.1038/s41565-021-00943-y| https://doi.org/10.1038/s41565-023-01590-1| https://doi.org/10.1038/s41565-023-01586-x| https://doi.org/10.1038/s41565-023-01351-0</v>
       </c>
-      <c r="C54" t="str">
+      <c r="C54" s="1" t="str">
         <v>Machine learning for nanoplasmonics| A primordial DNA store and compute engine| An atomic Boltzmann machine capable of self-adaption| Achieving nanoscale precision using neuromorphic localization microscopy| Scalable massively parallel computing using continuous-time data representation in nanoscale crossbar array| An optical imager that can compute| Quantum dot dot dot| Memory augmented factorization for holographic representation</v>
       </c>
-      <c r="D54" t="str">
-        <v/>
-      </c>
-      <c r="E54" t="str">
-        <v/>
-      </c>
-      <c r="F54">
+      <c r="D54" s="1" t="str">
+        <v/>
+      </c>
+      <c r="E54" s="1" t="str">
+        <v/>
+      </c>
+      <c r="F54" s="1" t="str">
+        <v>2022/03/29| 2022/05/20| 2025/10/22| 2021/09/30| 2025/07/17| 2025/12/08| 2022/12/26| 2020/09/22</v>
+      </c>
+      <c r="G54" s="1" t="str">
         <v>8</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="str">
+      <c r="A55" s="1" t="str">
         <v>12 ナノメディシン・ドラッグデリバリー・バイオ応用</v>
       </c>
-      <c r="B55" t="str">
+      <c r="B55" s="1" t="str">
         <v>https://doi.org/10.1038/s41565-024-01624-2| https://doi.org/10.1038/s41565-020-00817-9| https://doi.org/10.1038/s41565-021-00872-w| https://doi.org/10.1038/s41565-023-01501-4| https://doi.org/10.1038/s41565-023-01502-3| https://doi.org/10.1038/s41565-022-01265-3| https://doi.org/10.1038/s41565-022-01270-6| https://doi.org/10.1038/s41565-020-0748-8</v>
       </c>
-      <c r="C55" t="str">
+      <c r="C55" s="1" t="str">
         <v>Universal STING mimic boosts antitumour immunity via preferential activation of tumour control signalling pathways| Considerations for designing preclinical cancer immune nanomedicine studies| Extracellular vesicle drug occupancy enables real-time monitoring of targeted cancer therapy| Oxyhaemoglobin saturation NIR-IIb imaging for assessing cancer metabolism and predicting the response to immunotherapy| Age-associated disparity in phagocytic clearance affects the efficacy of cancer nanotherapeutics| Multidrug nanomedicine| The potential impact of nanomedicine on COVID-19-induced thrombosis| Publisher Correction: Programmable multistage drug delivery to lymph nodes</v>
       </c>
-      <c r="D55" t="str">
-        <v/>
-      </c>
-      <c r="E55" t="str">
-        <v/>
-      </c>
-      <c r="F55">
+      <c r="D55" s="1" t="str">
+        <v/>
+      </c>
+      <c r="E55" s="1" t="str">
+        <v/>
+      </c>
+      <c r="F55" s="1" t="str">
+        <v>2023/03/10| 2024/09/28| 2023/03/01| 2020/12/26| 2020/10/25| 2024/11/06| 2022/06/17| 2022/05/12</v>
+      </c>
+      <c r="G55" s="1" t="str">
         <v>8</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="str">
+      <c r="A56" s="1" t="str">
         <v>16 レビュー・社会・倫理・教育・歴史等</v>
       </c>
-      <c r="B56" t="str">
+      <c r="B56" s="1" t="str">
         <v>https://doi.org/10.1038/s41565-021-00911-6| https://doi.org/10.1038/s41565-021-00899-z| https://doi.org/10.1038/s41565-022-01157-6| https://doi.org/10.1038/s41565-023-01331-4| https://doi.org/10.1038/s41565-020-0658-9| https://doi.org/10.1038/s41565-019-0612-x| https://doi.org/10.1038/s41565-021-00937-w| https://doi.org/10.1038/s41565-022-01103-6| https://doi.org/10.1038/s41565-025-01861-z| https://doi.org/10.1038/s41565-025-01911-6| https://doi.org/10.1038/s41565-021-01049-1| https://doi.org/10.1038/s41565-022-01247-5| https://doi.org/10.1038/s41565-023-01338-x| https://doi.org/10.1038/s41565-020-0692-7| https://doi.org/10.1038/s41565-023-01481-5| https://doi.org/10.1038/s41565-021-00912-5| https://doi.org/10.1038/s41565-021-00935-y| https://doi.org/10.1038/s41565-024-01844-6| https://doi.org/10.1038/s41565-024-01714-1| https://doi.org/10.1038/s41565-020-0646-0| https://doi.org/10.1038/s41565-021-01050-8| https://doi.org/10.1038/s41565-021-01065-1| https://doi.org/10.1038/s41565-021-01025-9| https://doi.org/10.1038/s41565-021-00918-z| https://doi.org/10.1038/s41565-022-01166-5| https://doi.org/10.1038/s41565-023-01512-1| https://doi.org/10.1038/s41565-024-01608-2| https://doi.org/10.1038/s41565-024-01616-2| https://doi.org/10.1038/s41565-024-01643-z| https://doi.org/10.1038/s41565-024-01646-w| https://doi.org/10.1038/s41565-024-01777-0| https://doi.org/10.1038/s41565-024-01818-8| https://doi.org/10.1038/s41565-020-0686-5| https://doi.org/10.1038/s41565-022-01127-y| https://doi.org/10.1038/s41565-022-01304-z| https://doi.org/10.1038/s41565-019-0615-7| https://doi.org/10.1038/s41565-020-0736-z| https://doi.org/10.1038/s41565-020-00830-y| https://doi.org/10.1038/s41565-019-0628-2| https://doi.org/10.1038/s41565-022-01093-5| https://doi.org/10.1038/s41565-022-01195-0| https://doi.org/10.1038/s41565-021-00906-3| https://doi.org/10.1038/s41565-020-0656-y</v>
       </c>
-      <c r="C56" t="str">
+      <c r="C56" s="1" t="str">
         <v>Towards FAIR nanosafety data| Nanotechnology, equity and global health| Nanotechnology meets circular economy| The need for awareness and action in managing nanowaste| The risks of nanomaterial risk assessment| A few clarifications on MIRIBEL| Author Correction: The current landscape of nucleic acid therapeutics| Rapid response through the entrepreneurial capabilities of academic scientists| Bruno Scrosati (1937–2024)| Fraser Stoddart (1942–2024)| Prospects and challenges for FAIR toxicogenomics data| Moving forward in the semantic soup of artificial molecular machine taxonomy| Battery researchers in academia and industry should collaborate more effectively| SIN List criticism based on misunderstandings| Navigating advanced technology transitions: using lessons from nanotechnology| Bridging international approaches on nanoEHS| Making nano data FAIR enough| The importance of basic electrochemistry terminology in the era of interdisciplinary battery research| Hype kills your story| The importance and challenges of data sharing| Reply to: Prospects and challenges for FAIR toxicogenomics data| Nadrian C. (Ned) Seeman (1945–2021)| Substance in nanomaterials regulation| Questions on nanoplastic| Bringing out the Occam’s razor in peer-review| China Nano is back| Ian Manners (1961–2023)| The potential for academics to inspire the next generation| I wish I had a mentor| Roeland Nolte (1944–2024)| Nanomedicine pioneers awarded the Kavli Prize| The climate crisis is a call for action for nanotechnology| Nongjian Tao (1963–2020)| In praise of interdisciplinary science| Telling nanotech success stories| Religious reactions to new technologies| Social systems for technology| Sanjiv ‘Sam’ Gambhir (1962–2020)| Good luck, Teri Odom| Mark A. Reed (1955–2021)| Robert F. Curl (1933–2022)| Nano for kids| Banning carbon nanotubes would be scientifically unjustified and damaging to innovation</v>
       </c>
-      <c r="D56" t="str">
-        <v>東大</v>
-      </c>
-      <c r="E56" t="str">
-        <v/>
-      </c>
-      <c r="F56">
+      <c r="D56" s="1" t="str">
+        <v>東大</v>
+      </c>
+      <c r="E56" s="1" t="str">
+        <v/>
+      </c>
+      <c r="F56" s="1" t="str">
+        <v>2021/12/13| 2020/06/15| 2025/05/17| 2020/07/29| 2023/07/14| 2022/12/28| 2025/07/22| 2021/01/23| 2021/07/12| 2020/12/24| 2020/09/19| 2023/02/26| 2022/08/26| 2024/11/28| 2023/10/13| 2025/02/08| 2022/09/26| 2021/12/23| 2020/09/12| 2024/05/24| 2020/12/20| 2020/06/02| 2024/01/02| 2023/09/03| 2022/01/29| 2024/10/22| 2021/03/03| 2021/05/23| 2021/01/21| 2020/05/23| 2021/01/31| 2025/06/06| 2022/04/30| 2022/08/15| 2022/10/21| 2024/09/28| 2022/05/23| 2023/07/04| 2021/10/18| 2020/05/14| 2024/08/06| 2025/12/09</v>
+      </c>
+      <c r="G56" s="1" t="str">
         <v>43</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="str">
+      <c r="A57" s="1" t="str">
         <v>13 レビュー・データ・シミュレーション・社会系</v>
       </c>
-      <c r="B57" t="str">
+      <c r="B57" s="1" t="str">
         <v>https://doi.org/10.1038/s41565-022-01173-6| https://doi.org/10.1038/s41565-021-00899-z| https://doi.org/10.1038/s41565-019-0612-x| https://doi.org/10.1038/s41565-021-00937-w| https://doi.org/10.1038/s41565-022-01103-6| https://doi.org/10.1038/s41565-021-00902-7| https://doi.org/10.1038/s41565-025-01861-z| https://doi.org/10.1038/s41565-025-01911-6| https://doi.org/10.1038/s41565-021-01049-1| https://doi.org/10.1038/s41565-022-01247-5| https://doi.org/10.1038/s41565-020-0692-7| https://doi.org/10.1038/s41565-023-01481-5| https://doi.org/10.1038/s41565-021-00935-y| https://doi.org/10.1038/s41565-024-01844-6| https://doi.org/10.1038/s41565-024-01714-1| https://doi.org/10.1038/s41565-020-0646-0| https://doi.org/10.1038/s41565-023-01411-5| https://doi.org/10.1038/s41565-021-01050-8| https://doi.org/10.1038/s41565-021-01065-1| https://doi.org/10.1038/s41565-022-01166-5| https://doi.org/10.1038/s41565-023-01512-1| https://doi.org/10.1038/s41565-024-01608-2| https://doi.org/10.1038/s41565-024-01616-2| https://doi.org/10.1038/s41565-024-01643-z| https://doi.org/10.1038/s41565-024-01646-w| https://doi.org/10.1038/s41565-024-01777-0| https://doi.org/10.1038/s41565-024-01818-8| https://doi.org/10.1038/s41565-020-0686-5| https://doi.org/10.1038/s41565-022-01127-y| https://doi.org/10.1038/s41565-022-01202-4| https://doi.org/10.1038/s41565-022-01304-z| https://doi.org/10.1038/s41565-019-0615-7| https://doi.org/10.1038/s41565-020-0736-z| https://doi.org/10.1038/s41565-020-00830-y| https://doi.org/10.1038/s41565-019-0628-2| https://doi.org/10.1038/s41565-022-01093-5| https://doi.org/10.1038/s41565-022-01195-0| https://doi.org/10.1038/s41565-022-01275-1</v>
       </c>
-      <c r="C57" t="str">
+      <c r="C57" s="1" t="str">
         <v>Representing and describing nanomaterials in predictive nanoinformatics| Nanotechnology, equity and global health| A few clarifications on MIRIBEL| Author Correction: The current landscape of nucleic acid therapeutics| Rapid response through the entrepreneurial capabilities of academic scientists| Achieving sustainable nanomaterial design though strategic cultivation of big data| Bruno Scrosati (1937–2024)| Fraser Stoddart (1942–2024)| Prospects and challenges for FAIR toxicogenomics data| Moving forward in the semantic soup of artificial molecular machine taxonomy| SIN List criticism based on misunderstandings| Navigating advanced technology transitions: using lessons from nanotechnology| Making nano data FAIR enough| The importance of basic electrochemistry terminology in the era of interdisciplinary battery research| Hype kills your story| The importance and challenges of data sharing| Moore must go on| Reply to: Prospects and challenges for FAIR toxicogenomics data| Nadrian C. (Ned) Seeman (1945–2021)| Bringing out the Occam’s razor in peer-review| China Nano is back| Ian Manners (1961–2023)| The potential for academics to inspire the next generation| I wish I had a mentor| Roeland Nolte (1944–2024)| Nanomedicine pioneers awarded the Kavli Prize| The climate crisis is a call for action for nanotechnology| Nongjian Tao (1963–2020)| In praise of interdisciplinary science| Building successful nanomedicine start-ups| Telling nanotech success stories| Religious reactions to new technologies| Social systems for technology| Sanjiv ‘Sam’ Gambhir (1962–2020)| Good luck, Teri Odom| Mark A. Reed (1955–2021)| Robert F. Curl (1933–2022)| A Kavli prize at the interface</v>
       </c>
-      <c r="D57" t="str">
-        <v/>
-      </c>
-      <c r="E57" t="str">
-        <v/>
-      </c>
-      <c r="F57">
+      <c r="D57" s="1" t="str">
+        <v/>
+      </c>
+      <c r="E57" s="1" t="str">
+        <v/>
+      </c>
+      <c r="F57" s="1" t="str">
+        <v>2020/07/27| 2020/06/15| 2022/12/28| 2025/07/22| 2021/01/23| 2023/05/12| 2021/07/12| 2020/12/24| 2020/09/19| 2023/02/26| 2024/11/28| 2023/10/13| 2022/09/26| 2021/12/23| 2020/09/12| 2025/12/04| 2024/05/24| 2020/12/20| 2023/09/03| 2022/01/29| 2024/10/22| 2021/03/03| 2021/05/23| 2021/01/21| 2020/05/23| 2021/01/31| 2025/06/06| 2022/04/30| 2025/03/23| 2022/08/15| 2022/10/21| 2024/09/28| 2022/05/23| 2023/07/04| 2021/10/18| 2020/05/14| 2023/03/17</v>
+      </c>
+      <c r="G57" s="1" t="str">
         <v>38</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="str">
+      <c r="A58" s="1" t="str">
         <v>15 その他（複合/特殊手法）</v>
       </c>
-      <c r="B58" t="str">
+      <c r="B58" s="1" t="str">
         <v>https://doi.org/10.1038/s41565-021-00906-3</v>
       </c>
-      <c r="C58" t="str">
+      <c r="C58" s="1" t="str">
         <v>Nano for kids</v>
       </c>
-      <c r="D58" t="str">
-        <v/>
-      </c>
-      <c r="E58" t="str">
-        <v/>
-      </c>
-      <c r="F58">
+      <c r="D58" s="1" t="str">
+        <v/>
+      </c>
+      <c r="E58" s="1" t="str">
+        <v/>
+      </c>
+      <c r="F58" s="1" t="str">
+        <v>2024/08/06</v>
+      </c>
+      <c r="G58" s="1" t="str">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F58"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G58"/>
   </ignoredErrors>
 </worksheet>
 </file>